--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE    ZAVALETA   JUNIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE    ZAVALETA   JUNIO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="16" activeTab="16"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="16" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -710,7 +710,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1674" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="914">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -3422,6 +3422,36 @@
   </si>
   <si>
     <t>25-May-22--10-Jun-22</t>
+  </si>
+  <si>
+    <t>jamones-quesos-chistorra Roasveff</t>
+  </si>
+  <si>
+    <t>odelpa</t>
+  </si>
+  <si>
+    <t>quesos-Pollo-Chorizo-Jamones-Salchica</t>
+  </si>
+  <si>
+    <t>pollo-quesos-chuleta ahumada</t>
+  </si>
+  <si>
+    <t>quesos-pollo-pan arabe-longaniza-enchilada</t>
+  </si>
+  <si>
+    <t>POSTRES-QUESOS-PATA-POLLO</t>
+  </si>
+  <si>
+    <t>TOCINO-JAMON-PAN-POLLO-QUESO</t>
+  </si>
+  <si>
+    <t>NOMINA #23</t>
+  </si>
+  <si>
+    <t>NOMINA # 23</t>
+  </si>
+  <si>
+    <t>QUESO-LONGANIZA-ENCHILADA-TOCINETA-PEPERONI</t>
   </si>
 </sst>
 </file>
@@ -6753,48 +6783,20 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="44" fontId="3" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="3" fillId="16" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6867,10 +6869,76 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6914,39 +6982,6 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7140,20 +7175,20 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="3" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7173,20 +7208,15 @@
     <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="9" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="16" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -7196,11 +7226,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFCCFF66"/>
+      <color rgb="FF0000FF"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF990033"/>
-      <color rgb="FF0000FF"/>
-      <color rgb="FFCCFF66"/>
       <color rgb="FFCC3399"/>
       <color rgb="FF99CCFF"/>
       <color rgb="FFCC99FF"/>
@@ -11562,23 +11592,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="654"/>
-      <c r="C1" s="656" t="s">
+      <c r="B1" s="683"/>
+      <c r="C1" s="685" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="657"/>
-      <c r="E1" s="657"/>
-      <c r="F1" s="657"/>
-      <c r="G1" s="657"/>
-      <c r="H1" s="657"/>
-      <c r="I1" s="657"/>
-      <c r="J1" s="657"/>
-      <c r="K1" s="657"/>
-      <c r="L1" s="657"/>
-      <c r="M1" s="657"/>
+      <c r="D1" s="686"/>
+      <c r="E1" s="686"/>
+      <c r="F1" s="686"/>
+      <c r="G1" s="686"/>
+      <c r="H1" s="686"/>
+      <c r="I1" s="686"/>
+      <c r="J1" s="686"/>
+      <c r="K1" s="686"/>
+      <c r="L1" s="686"/>
+      <c r="M1" s="686"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="655"/>
+      <c r="B2" s="684"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -11588,17 +11618,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="658" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="659"/>
+      <c r="B3" s="687" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="688"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="660" t="s">
+      <c r="H3" s="689" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="660"/>
+      <c r="I3" s="689"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -11612,14 +11642,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="661" t="s">
+      <c r="E4" s="690" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="662"/>
-      <c r="H4" s="663" t="s">
+      <c r="F4" s="691"/>
+      <c r="H4" s="692" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="664"/>
+      <c r="I4" s="693"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -11629,10 +11659,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="670" t="s">
+      <c r="P4" s="664" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="671"/>
+      <c r="Q4" s="665"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -13073,11 +13103,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="672">
+      <c r="M39" s="666">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="674">
+      <c r="N39" s="668">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -13103,8 +13133,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="673"/>
-      <c r="N40" s="675"/>
+      <c r="M40" s="667"/>
+      <c r="N40" s="669"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -13319,29 +13349,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="676" t="s">
+      <c r="H52" s="670" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="677"/>
+      <c r="I52" s="671"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="678">
+      <c r="K52" s="672">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="679"/>
-      <c r="M52" s="680">
+      <c r="L52" s="673"/>
+      <c r="M52" s="674">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="681"/>
+      <c r="N52" s="675"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="682" t="s">
+      <c r="D53" s="676" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="682"/>
+      <c r="E53" s="676"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -13352,22 +13382,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="682" t="s">
+      <c r="D54" s="676" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="682"/>
+      <c r="E54" s="676"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="683" t="s">
+      <c r="I54" s="677" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="684"/>
-      <c r="K54" s="685">
+      <c r="J54" s="678"/>
+      <c r="K54" s="679">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="686"/>
+      <c r="L54" s="680"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -13400,11 +13430,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="687">
+      <c r="K56" s="681">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="688"/>
+      <c r="L56" s="682"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -13421,22 +13451,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="665" t="s">
+      <c r="D58" s="659" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="666"/>
+      <c r="E58" s="660"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="667" t="s">
+      <c r="I58" s="661" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="668"/>
-      <c r="K58" s="669">
+      <c r="J58" s="662"/>
+      <c r="K58" s="663">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="669"/>
+      <c r="L58" s="663"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -13580,6 +13610,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -13594,12 +13630,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16060,10 +16090,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="750" t="s">
+      <c r="I76" s="755" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="751"/>
+      <c r="J76" s="756"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -16082,8 +16112,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="752"/>
-      <c r="J77" s="753"/>
+      <c r="I77" s="757"/>
+      <c r="J77" s="758"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -16150,7 +16180,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="716" t="s">
+      <c r="F80" s="721" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -16165,7 +16195,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="717"/>
+      <c r="F81" s="722"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -16173,10 +16203,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="749" t="s">
+      <c r="B82" s="754" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="749"/>
+      <c r="C82" s="754"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -16458,23 +16488,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="654"/>
-      <c r="C1" s="720" t="s">
+      <c r="B1" s="683"/>
+      <c r="C1" s="725" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="721"/>
-      <c r="E1" s="721"/>
-      <c r="F1" s="721"/>
-      <c r="G1" s="721"/>
-      <c r="H1" s="721"/>
-      <c r="I1" s="721"/>
-      <c r="J1" s="721"/>
-      <c r="K1" s="721"/>
-      <c r="L1" s="721"/>
-      <c r="M1" s="721"/>
+      <c r="D1" s="726"/>
+      <c r="E1" s="726"/>
+      <c r="F1" s="726"/>
+      <c r="G1" s="726"/>
+      <c r="H1" s="726"/>
+      <c r="I1" s="726"/>
+      <c r="J1" s="726"/>
+      <c r="K1" s="726"/>
+      <c r="L1" s="726"/>
+      <c r="M1" s="726"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="655"/>
+      <c r="B2" s="684"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -16484,24 +16514,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="658" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="659"/>
+      <c r="B3" s="687" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="688"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="660" t="s">
+      <c r="H3" s="689" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="660"/>
+      <c r="I3" s="689"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="697" t="s">
+      <c r="P3" s="713" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="718" t="s">
+      <c r="R3" s="723" t="s">
         <v>216</v>
       </c>
     </row>
@@ -16516,14 +16546,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="661" t="s">
+      <c r="E4" s="690" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="662"/>
-      <c r="H4" s="663" t="s">
+      <c r="F4" s="691"/>
+      <c r="H4" s="692" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="664"/>
+      <c r="I4" s="693"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -16533,15 +16563,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="698"/>
+      <c r="P4" s="714"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="719"/>
-      <c r="W4" s="707" t="s">
+      <c r="R4" s="724"/>
+      <c r="W4" s="696" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="707"/>
+      <c r="X4" s="696"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16592,8 +16622,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="707"/>
-      <c r="X5" s="707"/>
+      <c r="W5" s="696"/>
+      <c r="X5" s="696"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17356,7 +17386,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="711">
+      <c r="W19" s="700">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -17408,7 +17438,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="712"/>
+      <c r="W20" s="701"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -17457,8 +17487,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="713"/>
-      <c r="X21" s="713"/>
+      <c r="W21" s="702"/>
+      <c r="X21" s="702"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -17558,8 +17588,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="714"/>
-      <c r="X23" s="714"/>
+      <c r="W23" s="703"/>
+      <c r="X23" s="703"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -17614,8 +17644,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="714"/>
-      <c r="X24" s="714"/>
+      <c r="W24" s="703"/>
+      <c r="X24" s="703"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -17663,8 +17693,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="715"/>
-      <c r="X25" s="715"/>
+      <c r="W25" s="704"/>
+      <c r="X25" s="704"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -17713,8 +17743,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="715"/>
-      <c r="X26" s="715"/>
+      <c r="W26" s="704"/>
+      <c r="X26" s="704"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -17762,9 +17792,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="708"/>
-      <c r="X27" s="709"/>
-      <c r="Y27" s="710"/>
+      <c r="W27" s="697"/>
+      <c r="X27" s="698"/>
+      <c r="Y27" s="699"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17812,9 +17842,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="709"/>
-      <c r="X28" s="709"/>
-      <c r="Y28" s="710"/>
+      <c r="W28" s="698"/>
+      <c r="X28" s="698"/>
+      <c r="Y28" s="699"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18146,11 +18176,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="699">
+      <c r="M36" s="715">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="701">
+      <c r="N36" s="717">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -18158,7 +18188,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="745">
+      <c r="Q36" s="750">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -18183,13 +18213,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="700"/>
-      <c r="N37" s="702"/>
+      <c r="M37" s="716"/>
+      <c r="N37" s="718"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="746"/>
+      <c r="Q37" s="751"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -18239,11 +18269,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="747">
+      <c r="M39" s="752">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="748"/>
+      <c r="N39" s="753"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -18871,12 +18901,12 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="676" t="s">
+      <c r="H68" s="670" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="677"/>
+      <c r="I68" s="671"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="678">
+      <c r="K68" s="672">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
@@ -18887,10 +18917,10 @@
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="682" t="s">
+      <c r="D69" s="676" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="682"/>
+      <c r="E69" s="676"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -18906,15 +18936,15 @@
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="683" t="s">
+      <c r="I70" s="677" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="684"/>
-      <c r="K70" s="685">
+      <c r="J70" s="678"/>
+      <c r="K70" s="679">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="685"/>
+      <c r="L70" s="679"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -18955,11 +18985,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="687">
+      <c r="K72" s="681">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="688"/>
+      <c r="L72" s="682"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -18976,22 +19006,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="665" t="s">
+      <c r="D74" s="659" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="666"/>
+      <c r="E74" s="660"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="667" t="s">
+      <c r="I74" s="661" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="668"/>
-      <c r="K74" s="669">
+      <c r="J74" s="662"/>
+      <c r="K74" s="663">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="669"/>
+      <c r="L74" s="663"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -19138,6 +19168,21 @@
     <sortCondition ref="B34:B42"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -19153,21 +19198,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21435,7 +21465,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="716" t="s">
+      <c r="F80" s="721" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -21448,7 +21478,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="717"/>
+      <c r="F81" s="722"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -21468,10 +21498,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="754" t="s">
+      <c r="I83" s="759" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="755"/>
+      <c r="J83" s="760"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="514" t="s">
@@ -21480,8 +21510,8 @@
       <c r="B84" s="515"/>
       <c r="C84" s="516"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="756"/>
-      <c r="J84" s="757"/>
+      <c r="I84" s="761"/>
+      <c r="J84" s="762"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -21753,23 +21783,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="654"/>
-      <c r="C1" s="720" t="s">
+      <c r="B1" s="683"/>
+      <c r="C1" s="725" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="721"/>
-      <c r="E1" s="721"/>
-      <c r="F1" s="721"/>
-      <c r="G1" s="721"/>
-      <c r="H1" s="721"/>
-      <c r="I1" s="721"/>
-      <c r="J1" s="721"/>
-      <c r="K1" s="721"/>
-      <c r="L1" s="721"/>
-      <c r="M1" s="721"/>
+      <c r="D1" s="726"/>
+      <c r="E1" s="726"/>
+      <c r="F1" s="726"/>
+      <c r="G1" s="726"/>
+      <c r="H1" s="726"/>
+      <c r="I1" s="726"/>
+      <c r="J1" s="726"/>
+      <c r="K1" s="726"/>
+      <c r="L1" s="726"/>
+      <c r="M1" s="726"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="655"/>
+      <c r="B2" s="684"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -21779,24 +21809,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="658" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="659"/>
+      <c r="B3" s="687" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="688"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="660" t="s">
+      <c r="H3" s="689" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="660"/>
+      <c r="I3" s="689"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="697" t="s">
+      <c r="P3" s="713" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="718" t="s">
+      <c r="R3" s="723" t="s">
         <v>216</v>
       </c>
     </row>
@@ -21811,14 +21841,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="661" t="s">
+      <c r="E4" s="690" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="662"/>
-      <c r="H4" s="663" t="s">
+      <c r="F4" s="691"/>
+      <c r="H4" s="692" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="664"/>
+      <c r="I4" s="693"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -21828,15 +21858,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="698"/>
+      <c r="P4" s="714"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="719"/>
-      <c r="W4" s="707" t="s">
+      <c r="R4" s="724"/>
+      <c r="W4" s="696" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="707"/>
+      <c r="X4" s="696"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21887,8 +21917,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="707"/>
-      <c r="X5" s="707"/>
+      <c r="W5" s="696"/>
+      <c r="X5" s="696"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22647,7 +22677,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="711">
+      <c r="W19" s="700">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -22699,7 +22729,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="712"/>
+      <c r="W20" s="701"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -22748,8 +22778,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="713"/>
-      <c r="X21" s="713"/>
+      <c r="W21" s="702"/>
+      <c r="X21" s="702"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -22846,8 +22876,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="714"/>
-      <c r="X23" s="714"/>
+      <c r="W23" s="703"/>
+      <c r="X23" s="703"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -22902,8 +22932,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="714"/>
-      <c r="X24" s="714"/>
+      <c r="W24" s="703"/>
+      <c r="X24" s="703"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -22949,8 +22979,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="715"/>
-      <c r="X25" s="715"/>
+      <c r="W25" s="704"/>
+      <c r="X25" s="704"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -23001,8 +23031,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="715"/>
-      <c r="X26" s="715"/>
+      <c r="W26" s="704"/>
+      <c r="X26" s="704"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -23053,9 +23083,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="708"/>
-      <c r="X27" s="709"/>
-      <c r="Y27" s="710"/>
+      <c r="W27" s="697"/>
+      <c r="X27" s="698"/>
+      <c r="Y27" s="699"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23105,9 +23135,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="709"/>
-      <c r="X28" s="709"/>
-      <c r="Y28" s="710"/>
+      <c r="W28" s="698"/>
+      <c r="X28" s="698"/>
+      <c r="Y28" s="699"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23711,11 +23741,11 @@
       <c r="L41" s="627">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="699">
+      <c r="M41" s="715">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="699">
+      <c r="N41" s="715">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -23723,7 +23753,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="758">
+      <c r="Q41" s="763">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -23753,10 +23783,10 @@
       <c r="L42" s="630">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="700"/>
-      <c r="N42" s="700"/>
+      <c r="M42" s="716"/>
+      <c r="N42" s="716"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="759"/>
+      <c r="Q42" s="764"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -23844,11 +23874,11 @@
       <c r="L45" s="627">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="760">
+      <c r="M45" s="765">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="761"/>
+      <c r="N45" s="766"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -24441,12 +24471,12 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="676" t="s">
+      <c r="H70" s="670" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="677"/>
+      <c r="I70" s="671"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="678">
+      <c r="K70" s="672">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
@@ -24457,10 +24487,10 @@
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="682" t="s">
+      <c r="D71" s="676" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="682"/>
+      <c r="E71" s="676"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -24477,15 +24507,15 @@
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="683" t="s">
+      <c r="I72" s="677" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="684"/>
-      <c r="K72" s="685">
+      <c r="J72" s="678"/>
+      <c r="K72" s="679">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="685"/>
+      <c r="L72" s="679"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -24526,11 +24556,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="687">
+      <c r="K74" s="681">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="688"/>
+      <c r="L74" s="682"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -24549,22 +24579,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="665" t="s">
+      <c r="D76" s="659" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="666"/>
+      <c r="E76" s="660"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="667" t="s">
+      <c r="I76" s="661" t="s">
         <v>854</v>
       </c>
-      <c r="J76" s="668"/>
-      <c r="K76" s="669">
+      <c r="J76" s="662"/>
+      <c r="K76" s="663">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="669"/>
+      <c r="L76" s="663"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -24724,6 +24754,21 @@
     <sortCondition ref="J47:J67"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -24739,21 +24784,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -26233,7 +26263,7 @@
       <c r="C41" s="96">
         <v>62762.55</v>
       </c>
-      <c r="D41" s="791" t="s">
+      <c r="D41" s="651" t="s">
         <v>903</v>
       </c>
       <c r="E41" s="586">
@@ -26270,10 +26300,10 @@
       <c r="C42" s="96">
         <v>46744.6</v>
       </c>
-      <c r="D42" s="792">
+      <c r="D42" s="652">
         <v>44722</v>
       </c>
-      <c r="E42" s="793">
+      <c r="E42" s="653">
         <v>46744.6</v>
       </c>
       <c r="F42" s="111">
@@ -26306,10 +26336,10 @@
       <c r="C43" s="96">
         <v>14500.7</v>
       </c>
-      <c r="D43" s="792">
+      <c r="D43" s="652">
         <v>44722</v>
       </c>
-      <c r="E43" s="793">
+      <c r="E43" s="653">
         <v>14500.7</v>
       </c>
       <c r="F43" s="111">
@@ -26336,10 +26366,10 @@
       <c r="C44" s="96">
         <v>41351.199999999997</v>
       </c>
-      <c r="D44" s="792">
+      <c r="D44" s="652">
         <v>44722</v>
       </c>
-      <c r="E44" s="793">
+      <c r="E44" s="653">
         <v>41351.199999999997</v>
       </c>
       <c r="F44" s="111">
@@ -26363,10 +26393,10 @@
       <c r="C45" s="96">
         <v>5624</v>
       </c>
-      <c r="D45" s="792">
+      <c r="D45" s="652">
         <v>44722</v>
       </c>
-      <c r="E45" s="793">
+      <c r="E45" s="653">
         <v>5624</v>
       </c>
       <c r="F45" s="111">
@@ -26390,10 +26420,10 @@
       <c r="C46" s="96">
         <v>45618</v>
       </c>
-      <c r="D46" s="792">
+      <c r="D46" s="652">
         <v>44722</v>
       </c>
-      <c r="E46" s="793">
+      <c r="E46" s="653">
         <v>45618</v>
       </c>
       <c r="F46" s="111">
@@ -26417,10 +26447,10 @@
       <c r="C47" s="96">
         <v>35193.4</v>
       </c>
-      <c r="D47" s="792">
+      <c r="D47" s="652">
         <v>44722</v>
       </c>
-      <c r="E47" s="793">
+      <c r="E47" s="653">
         <v>35193.4</v>
       </c>
       <c r="F47" s="111">
@@ -26444,10 +26474,10 @@
       <c r="C48" s="96">
         <v>69268.88</v>
       </c>
-      <c r="D48" s="792">
+      <c r="D48" s="652">
         <v>44722</v>
       </c>
-      <c r="E48" s="793">
+      <c r="E48" s="653">
         <v>69268.88</v>
       </c>
       <c r="F48" s="111">
@@ -26471,10 +26501,10 @@
       <c r="C49" s="96">
         <v>25197.4</v>
       </c>
-      <c r="D49" s="792">
+      <c r="D49" s="652">
         <v>44722</v>
       </c>
-      <c r="E49" s="793">
+      <c r="E49" s="653">
         <v>25197.4</v>
       </c>
       <c r="F49" s="111">
@@ -27269,7 +27299,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="716" t="s">
+      <c r="F90" s="721" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -27282,7 +27312,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="717"/>
+      <c r="F91" s="722"/>
       <c r="K91" s="1"/>
       <c r="L91" s="97"/>
       <c r="M91" s="3"/>
@@ -27301,10 +27331,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="754" t="s">
+      <c r="I93" s="759" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="755"/>
+      <c r="J93" s="760"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -27314,8 +27344,8 @@
       <c r="C94" s="518"/>
       <c r="D94" s="519"/>
       <c r="E94" s="520"/>
-      <c r="I94" s="756"/>
-      <c r="J94" s="757"/>
+      <c r="I94" s="761"/>
+      <c r="J94" s="762"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -27736,11 +27766,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="762">
+      <c r="C130" s="767">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="763"/>
+      <c r="D130" s="768"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -27776,21 +27806,21 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="768" t="s">
+      <c r="F2" s="773" t="s">
         <v>752</v>
       </c>
-      <c r="G2" s="769"/>
-      <c r="H2" s="770"/>
+      <c r="G2" s="774"/>
+      <c r="H2" s="775"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="765" t="s">
+      <c r="B3" s="770" t="s">
         <v>748</v>
       </c>
-      <c r="C3" s="766"/>
-      <c r="D3" s="767"/>
-      <c r="F3" s="771"/>
-      <c r="G3" s="772"/>
-      <c r="H3" s="773"/>
+      <c r="C3" s="771"/>
+      <c r="D3" s="772"/>
+      <c r="F3" s="776"/>
+      <c r="G3" s="777"/>
+      <c r="H3" s="778"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="526" t="s">
@@ -27935,11 +27965,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="774">
+      <c r="G11" s="779">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="775"/>
+      <c r="H11" s="780"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="532" t="s">
@@ -27956,23 +27986,23 @@
       <c r="C14" s="532"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="778" t="s">
+      <c r="C15" s="783" t="s">
         <v>750</v>
       </c>
-      <c r="D15" s="776">
+      <c r="D15" s="781">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="779"/>
-      <c r="D16" s="777"/>
+      <c r="C16" s="784"/>
+      <c r="D16" s="782"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="764" t="s">
+      <c r="C17" s="769" t="s">
         <v>753</v>
       </c>
-      <c r="D17" s="764"/>
+      <c r="D17" s="769"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -28030,23 +28060,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="654"/>
-      <c r="C1" s="720" t="s">
+      <c r="B1" s="683"/>
+      <c r="C1" s="725" t="s">
         <v>754</v>
       </c>
-      <c r="D1" s="721"/>
-      <c r="E1" s="721"/>
-      <c r="F1" s="721"/>
-      <c r="G1" s="721"/>
-      <c r="H1" s="721"/>
-      <c r="I1" s="721"/>
-      <c r="J1" s="721"/>
-      <c r="K1" s="721"/>
-      <c r="L1" s="721"/>
-      <c r="M1" s="721"/>
+      <c r="D1" s="726"/>
+      <c r="E1" s="726"/>
+      <c r="F1" s="726"/>
+      <c r="G1" s="726"/>
+      <c r="H1" s="726"/>
+      <c r="I1" s="726"/>
+      <c r="J1" s="726"/>
+      <c r="K1" s="726"/>
+      <c r="L1" s="726"/>
+      <c r="M1" s="726"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="655"/>
+      <c r="B2" s="684"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -28056,24 +28086,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="658" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="659"/>
+      <c r="B3" s="687" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="688"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="660" t="s">
+      <c r="H3" s="689" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="660"/>
+      <c r="I3" s="689"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="697" t="s">
+      <c r="P3" s="713" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="718" t="s">
+      <c r="R3" s="723" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -28092,14 +28122,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="661" t="s">
+      <c r="E4" s="690" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="662"/>
-      <c r="H4" s="663" t="s">
+      <c r="F4" s="691"/>
+      <c r="H4" s="692" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="664"/>
+      <c r="I4" s="693"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -28109,15 +28139,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="698"/>
+      <c r="P4" s="714"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="719"/>
+      <c r="R4" s="724"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="780"/>
-      <c r="X4" s="780"/>
+      <c r="W4" s="788"/>
+      <c r="X4" s="788"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -28171,8 +28201,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="780"/>
-      <c r="X5" s="780"/>
+      <c r="W5" s="788"/>
+      <c r="X5" s="788"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -28938,7 +28968,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="781"/>
+      <c r="W19" s="789"/>
       <c r="X19" s="544"/>
       <c r="Y19" s="233"/>
     </row>
@@ -28992,7 +29022,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="781"/>
+      <c r="W20" s="789"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -29047,8 +29077,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="713"/>
-      <c r="X21" s="713"/>
+      <c r="W21" s="702"/>
+      <c r="X21" s="702"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -29159,8 +29189,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="714"/>
-      <c r="X23" s="714"/>
+      <c r="W23" s="703"/>
+      <c r="X23" s="703"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -29221,8 +29251,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="714"/>
-      <c r="X24" s="714"/>
+      <c r="W24" s="703"/>
+      <c r="X24" s="703"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -29275,8 +29305,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="715"/>
-      <c r="X25" s="715"/>
+      <c r="W25" s="704"/>
+      <c r="X25" s="704"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -29331,8 +29361,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="715"/>
-      <c r="X26" s="715"/>
+      <c r="W26" s="704"/>
+      <c r="X26" s="704"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -29387,9 +29417,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="708"/>
-      <c r="X27" s="709"/>
-      <c r="Y27" s="710"/>
+      <c r="W27" s="697"/>
+      <c r="X27" s="698"/>
+      <c r="Y27" s="699"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29443,9 +29473,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="709"/>
-      <c r="X28" s="709"/>
-      <c r="Y28" s="710"/>
+      <c r="W28" s="698"/>
+      <c r="X28" s="698"/>
+      <c r="Y28" s="699"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30036,11 +30066,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="699">
+      <c r="M41" s="715">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="699">
+      <c r="N41" s="715">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -30048,7 +30078,7 @@
         <f>SUM(P5:P40)</f>
         <v>4043205.8900000006</v>
       </c>
-      <c r="Q41" s="758">
+      <c r="Q41" s="763">
         <f>SUM(Q5:Q40)</f>
         <v>890559.8899999999</v>
       </c>
@@ -30072,10 +30102,10 @@
       <c r="L42" s="641">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="700"/>
-      <c r="N42" s="700"/>
+      <c r="M42" s="716"/>
+      <c r="N42" s="716"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="759"/>
+      <c r="Q42" s="764"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -30144,11 +30174,11 @@
       <c r="L45" s="619">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="760">
+      <c r="M45" s="765">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="761"/>
+      <c r="N45" s="766"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -30564,26 +30594,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="676" t="s">
+      <c r="H63" s="670" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="677"/>
+      <c r="I63" s="671"/>
       <c r="J63" s="562"/>
-      <c r="K63" s="783">
+      <c r="K63" s="785">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="784"/>
+      <c r="L63" s="786"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="682" t="s">
+      <c r="D64" s="676" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="682"/>
+      <c r="E64" s="676"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -30599,15 +30629,15 @@
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="683" t="s">
+      <c r="I65" s="677" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="684"/>
-      <c r="K65" s="685">
+      <c r="J65" s="678"/>
+      <c r="K65" s="679">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="685"/>
+      <c r="L65" s="679"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="582"/>
@@ -30648,11 +30678,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="782">
+      <c r="K67" s="787">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="685"/>
+      <c r="L67" s="679"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -30669,22 +30699,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="665" t="s">
+      <c r="D69" s="659" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="666"/>
+      <c r="E69" s="660"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="667" t="s">
+      <c r="I69" s="661" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="668"/>
-      <c r="K69" s="669">
+      <c r="J69" s="662"/>
+      <c r="K69" s="663">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="669"/>
+      <c r="L69" s="663"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -30831,21 +30861,6 @@
     <sortCondition ref="J42:J56"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -30861,6 +30876,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -30876,7 +30906,7 @@
   </sheetPr>
   <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -30967,10 +30997,10 @@
       <c r="C3" s="111">
         <v>58580.5</v>
       </c>
-      <c r="D3" s="797">
+      <c r="D3" s="657">
         <v>44722</v>
       </c>
-      <c r="E3" s="798">
+      <c r="E3" s="658">
         <v>58580.5</v>
       </c>
       <c r="F3" s="410">
@@ -31003,10 +31033,10 @@
       <c r="C4" s="111">
         <v>8932</v>
       </c>
-      <c r="D4" s="797">
+      <c r="D4" s="657">
         <v>44722</v>
       </c>
-      <c r="E4" s="798">
+      <c r="E4" s="658">
         <v>8932</v>
       </c>
       <c r="F4" s="547">
@@ -31040,10 +31070,10 @@
       <c r="C5" s="111">
         <v>51784.4</v>
       </c>
-      <c r="D5" s="797">
+      <c r="D5" s="657">
         <v>44722</v>
       </c>
-      <c r="E5" s="798">
+      <c r="E5" s="658">
         <v>51784.4</v>
       </c>
       <c r="F5" s="547">
@@ -31076,10 +31106,10 @@
       <c r="C6" s="111">
         <v>15291.4</v>
       </c>
-      <c r="D6" s="797">
+      <c r="D6" s="657">
         <v>44722</v>
       </c>
-      <c r="E6" s="798">
+      <c r="E6" s="658">
         <v>15291.4</v>
       </c>
       <c r="F6" s="547">
@@ -31112,10 +31142,10 @@
       <c r="C7" s="111">
         <v>66691.399999999994</v>
       </c>
-      <c r="D7" s="797">
+      <c r="D7" s="657">
         <v>44722</v>
       </c>
-      <c r="E7" s="798">
+      <c r="E7" s="658">
         <v>66691.399999999994</v>
       </c>
       <c r="F7" s="547">
@@ -31148,10 +31178,10 @@
       <c r="C8" s="111">
         <v>70251.75</v>
       </c>
-      <c r="D8" s="797">
+      <c r="D8" s="657">
         <v>44722</v>
       </c>
-      <c r="E8" s="798">
+      <c r="E8" s="658">
         <v>70251.75</v>
       </c>
       <c r="F8" s="547">
@@ -31184,10 +31214,10 @@
       <c r="C9" s="111">
         <v>13507</v>
       </c>
-      <c r="D9" s="797">
+      <c r="D9" s="657">
         <v>44722</v>
       </c>
-      <c r="E9" s="798">
+      <c r="E9" s="658">
         <v>13507</v>
       </c>
       <c r="F9" s="547">
@@ -31220,10 +31250,10 @@
       <c r="C10" s="111">
         <v>494</v>
       </c>
-      <c r="D10" s="797">
+      <c r="D10" s="657">
         <v>44722</v>
       </c>
-      <c r="E10" s="798">
+      <c r="E10" s="658">
         <v>494</v>
       </c>
       <c r="F10" s="547">
@@ -31257,10 +31287,10 @@
       <c r="C11" s="111">
         <v>66113.67</v>
       </c>
-      <c r="D11" s="797">
+      <c r="D11" s="657">
         <v>44722</v>
       </c>
-      <c r="E11" s="798">
+      <c r="E11" s="658">
         <v>66113.67</v>
       </c>
       <c r="F11" s="547">
@@ -31293,10 +31323,10 @@
       <c r="C12" s="111">
         <v>907.2</v>
       </c>
-      <c r="D12" s="797">
+      <c r="D12" s="657">
         <v>44722</v>
       </c>
-      <c r="E12" s="798">
+      <c r="E12" s="658">
         <v>907.2</v>
       </c>
       <c r="F12" s="547">
@@ -31329,10 +31359,10 @@
       <c r="C13" s="111">
         <v>1956</v>
       </c>
-      <c r="D13" s="797">
+      <c r="D13" s="657">
         <v>44722</v>
       </c>
-      <c r="E13" s="798">
+      <c r="E13" s="658">
         <v>1956</v>
       </c>
       <c r="F13" s="547">
@@ -31365,10 +31395,10 @@
       <c r="C14" s="111">
         <v>48025.599999999999</v>
       </c>
-      <c r="D14" s="797">
+      <c r="D14" s="657">
         <v>44722</v>
       </c>
-      <c r="E14" s="798">
+      <c r="E14" s="658">
         <v>48025.599999999999</v>
       </c>
       <c r="F14" s="547">
@@ -31401,10 +31431,10 @@
       <c r="C15" s="111">
         <v>133204.96</v>
       </c>
-      <c r="D15" s="797">
+      <c r="D15" s="657">
         <v>44722</v>
       </c>
-      <c r="E15" s="798">
+      <c r="E15" s="658">
         <v>133204.96</v>
       </c>
       <c r="F15" s="547">
@@ -31437,10 +31467,10 @@
       <c r="C16" s="111">
         <v>19133.36</v>
       </c>
-      <c r="D16" s="797">
+      <c r="D16" s="657">
         <v>44722</v>
       </c>
-      <c r="E16" s="798">
+      <c r="E16" s="658">
         <v>19133.36</v>
       </c>
       <c r="F16" s="547">
@@ -32834,7 +32864,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="716" t="s">
+      <c r="F71" s="721" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -32847,7 +32877,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="717"/>
+      <c r="F72" s="722"/>
       <c r="K72" s="1"/>
       <c r="L72" s="97"/>
       <c r="M72" s="3"/>
@@ -32866,28 +32896,28 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="754" t="s">
+      <c r="I74" s="759" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="755"/>
+      <c r="J74" s="760"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
-      <c r="B75" s="794"/>
+      <c r="B75" s="654"/>
       <c r="C75" s="233"/>
-      <c r="D75" s="795"/>
+      <c r="D75" s="655"/>
       <c r="E75" s="520"/>
       <c r="F75" s="111">
         <v>2520</v>
       </c>
-      <c r="I75" s="756"/>
-      <c r="J75" s="757"/>
+      <c r="I75" s="761"/>
+      <c r="J75" s="762"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
       <c r="B76" s="511"/>
       <c r="C76" s="233"/>
-      <c r="D76" s="796"/>
+      <c r="D76" s="656"/>
       <c r="F76" s="111">
         <v>8158.8</v>
       </c>
@@ -32899,7 +32929,7 @@
       <c r="A77" s="456"/>
       <c r="B77" s="511"/>
       <c r="C77" s="233"/>
-      <c r="D77" s="796"/>
+      <c r="D77" s="656"/>
       <c r="F77" s="111">
         <v>9299</v>
       </c>
@@ -32911,7 +32941,7 @@
       <c r="A78" s="510"/>
       <c r="B78" s="511"/>
       <c r="C78" s="233"/>
-      <c r="D78" s="796"/>
+      <c r="D78" s="656"/>
       <c r="F78" s="111">
         <v>10924.4</v>
       </c>
@@ -32923,7 +32953,7 @@
       <c r="A79" s="510"/>
       <c r="B79" s="511"/>
       <c r="C79" s="233"/>
-      <c r="D79" s="796"/>
+      <c r="D79" s="656"/>
       <c r="F79" s="111">
         <v>48105.599999999999</v>
       </c>
@@ -32935,7 +32965,7 @@
       <c r="A80" s="512"/>
       <c r="B80" s="513"/>
       <c r="C80" s="233"/>
-      <c r="D80" s="796"/>
+      <c r="D80" s="656"/>
       <c r="F80" s="111">
         <v>8408.4</v>
       </c>
@@ -32947,7 +32977,7 @@
       <c r="A81" s="512"/>
       <c r="B81" s="513"/>
       <c r="C81" s="233"/>
-      <c r="D81" s="796"/>
+      <c r="D81" s="656"/>
       <c r="F81" s="457">
         <f>SUM(F75:F80)</f>
         <v>87416.199999999983</v>
@@ -32960,7 +32990,7 @@
       <c r="A82" s="512"/>
       <c r="B82" s="513"/>
       <c r="C82" s="233"/>
-      <c r="D82" s="796"/>
+      <c r="D82" s="656"/>
       <c r="F82"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
@@ -32970,7 +33000,7 @@
       <c r="A83" s="512"/>
       <c r="B83" s="513"/>
       <c r="C83" s="233"/>
-      <c r="D83" s="796"/>
+      <c r="D83" s="656"/>
       <c r="F83"/>
       <c r="I83"/>
       <c r="J83" s="194"/>
@@ -33028,11 +33058,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="787" t="s">
+      <c r="A89" s="792" t="s">
         <v>806</v>
       </c>
-      <c r="B89" s="788"/>
-      <c r="C89" s="788"/>
+      <c r="B89" s="793"/>
+      <c r="C89" s="793"/>
       <c r="E89"/>
       <c r="F89" s="233"/>
       <c r="I89"/>
@@ -33042,10 +33072,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="789" t="s">
+      <c r="B90" s="794" t="s">
         <v>807</v>
       </c>
-      <c r="C90" s="790"/>
+      <c r="C90" s="795"/>
       <c r="E90"/>
       <c r="F90" s="233"/>
       <c r="I90"/>
@@ -33146,7 +33176,7 @@
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97"/>
-      <c r="C97" s="785">
+      <c r="C97" s="790">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -33160,7 +33190,7 @@
       <c r="B98" s="513" t="s">
         <v>885</v>
       </c>
-      <c r="C98" s="786"/>
+      <c r="C98" s="791"/>
       <c r="E98"/>
       <c r="F98" s="127"/>
       <c r="J98" s="194"/>
@@ -33225,8 +33255,8 @@
   </sheetPr>
   <dimension ref="A1:Z91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -33245,7 +33275,7 @@
     <col min="12" max="12" width="14.5703125" style="3" customWidth="1"/>
     <col min="13" max="13" width="17.5703125" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="17.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="578" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="580" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="16.85546875" customWidth="1"/>
     <col min="17" max="17" width="21.28515625" style="225" customWidth="1"/>
     <col min="18" max="18" width="15.28515625" style="227" customWidth="1"/>
@@ -33256,23 +33286,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="654"/>
-      <c r="C1" s="720" t="s">
+      <c r="B1" s="683"/>
+      <c r="C1" s="725" t="s">
         <v>886</v>
       </c>
-      <c r="D1" s="721"/>
-      <c r="E1" s="721"/>
-      <c r="F1" s="721"/>
-      <c r="G1" s="721"/>
-      <c r="H1" s="721"/>
-      <c r="I1" s="721"/>
-      <c r="J1" s="721"/>
-      <c r="K1" s="721"/>
-      <c r="L1" s="721"/>
-      <c r="M1" s="721"/>
+      <c r="D1" s="726"/>
+      <c r="E1" s="726"/>
+      <c r="F1" s="726"/>
+      <c r="G1" s="726"/>
+      <c r="H1" s="726"/>
+      <c r="I1" s="726"/>
+      <c r="J1" s="726"/>
+      <c r="K1" s="726"/>
+      <c r="L1" s="726"/>
+      <c r="M1" s="726"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="655"/>
+      <c r="B2" s="684"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -33282,24 +33312,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="658" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="659"/>
+      <c r="B3" s="687" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="688"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="660" t="s">
+      <c r="H3" s="689" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="660"/>
+      <c r="I3" s="689"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="697" t="s">
+      <c r="P3" s="713" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="718" t="s">
+      <c r="R3" s="723" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -33318,14 +33348,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="661" t="s">
+      <c r="E4" s="690" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="662"/>
-      <c r="H4" s="663" t="s">
+      <c r="F4" s="691"/>
+      <c r="H4" s="692" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="664"/>
+      <c r="I4" s="693"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -33335,15 +33365,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="698"/>
+      <c r="P4" s="714"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="719"/>
+      <c r="R4" s="724"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="780"/>
-      <c r="X4" s="780"/>
+      <c r="W4" s="788"/>
+      <c r="X4" s="788"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33353,29 +33383,40 @@
       <c r="B5" s="24">
         <v>44711</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
+      <c r="C5" s="25">
+        <v>17042</v>
+      </c>
+      <c r="D5" s="26" t="s">
+        <v>904</v>
+      </c>
       <c r="E5" s="27">
         <v>44711</v>
       </c>
-      <c r="F5" s="28"/>
+      <c r="F5" s="28">
+        <v>110439</v>
+      </c>
       <c r="G5" s="575"/>
       <c r="H5" s="29">
         <v>44711</v>
       </c>
-      <c r="I5" s="30"/>
+      <c r="I5" s="30">
+        <v>4048</v>
+      </c>
       <c r="J5" s="37"/>
       <c r="K5" s="31"/>
       <c r="L5" s="9"/>
       <c r="M5" s="32">
-        <v>0</v>
+        <v>52084</v>
       </c>
       <c r="N5" s="33">
-        <v>0</v>
+        <v>37265</v>
+      </c>
+      <c r="O5" s="798" t="s">
+        <v>905</v>
       </c>
       <c r="P5" s="34">
         <f>N5+M5+L5+I5+C5</f>
-        <v>0</v>
+        <v>110439</v>
       </c>
       <c r="Q5" s="325">
         <f>P5-F5</f>
@@ -33387,8 +33428,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="780"/>
-      <c r="X5" s="780"/>
+      <c r="W5" s="788"/>
+      <c r="X5" s="788"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33396,32 +33437,44 @@
       <c r="B6" s="24">
         <v>44712</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="35"/>
+      <c r="C6" s="25">
+        <v>15711</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>907</v>
+      </c>
       <c r="E6" s="27">
         <v>44712</v>
       </c>
-      <c r="F6" s="28"/>
+      <c r="F6" s="28">
+        <v>96326</v>
+      </c>
       <c r="G6" s="575"/>
       <c r="H6" s="29">
         <v>44712</v>
       </c>
-      <c r="I6" s="30"/>
+      <c r="I6" s="30">
+        <v>1150</v>
+      </c>
       <c r="J6" s="37"/>
       <c r="K6" s="38"/>
       <c r="L6" s="39"/>
       <c r="M6" s="32">
-        <v>0</v>
+        <f>54287+6912</f>
+        <v>61199</v>
       </c>
       <c r="N6" s="33">
-        <v>0</v>
+        <v>18266</v>
+      </c>
+      <c r="O6" s="798" t="s">
+        <v>905</v>
       </c>
       <c r="P6" s="39">
         <f>N6+M6+L6+I6+C6</f>
-        <v>0</v>
+        <v>96326</v>
       </c>
       <c r="Q6" s="325">
-        <f t="shared" ref="Q6:Q40" si="0">P6-F6</f>
+        <f t="shared" ref="Q6:Q38" si="0">P6-F6</f>
         <v>0</v>
       </c>
       <c r="R6" s="319">
@@ -33440,36 +33493,46 @@
       <c r="B7" s="24">
         <v>44713</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="40"/>
+      <c r="C7" s="25">
+        <v>15653</v>
+      </c>
+      <c r="D7" s="40" t="s">
+        <v>906</v>
+      </c>
       <c r="E7" s="27">
         <v>44713</v>
       </c>
-      <c r="F7" s="28"/>
+      <c r="F7" s="28">
+        <v>109178</v>
+      </c>
       <c r="G7" s="575"/>
       <c r="H7" s="29">
         <v>44713</v>
       </c>
-      <c r="I7" s="30"/>
+      <c r="I7" s="30">
+        <v>572</v>
+      </c>
       <c r="J7" s="37"/>
       <c r="K7" s="38"/>
       <c r="L7" s="39"/>
       <c r="M7" s="32">
-        <v>0</v>
+        <v>50064</v>
       </c>
       <c r="N7" s="33">
-        <v>0</v>
-      </c>
-      <c r="O7" s="580"/>
+        <v>44301</v>
+      </c>
+      <c r="O7" s="798" t="s">
+        <v>905</v>
+      </c>
       <c r="P7" s="39">
         <f>N7+M7+L7+I7+C7</f>
-        <v>0</v>
+        <v>110590</v>
       </c>
       <c r="Q7" s="325">
         <v>0</v>
       </c>
-      <c r="R7" s="319">
-        <v>0</v>
+      <c r="R7" s="388">
+        <v>1412</v>
       </c>
       <c r="S7" s="147"/>
       <c r="T7" s="128"/>
@@ -33484,36 +33547,46 @@
       <c r="B8" s="24">
         <v>44714</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="42"/>
+      <c r="C8" s="25">
+        <v>22345.5</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>908</v>
+      </c>
       <c r="E8" s="27">
         <v>44714</v>
       </c>
-      <c r="F8" s="28"/>
+      <c r="F8" s="28">
+        <v>88582</v>
+      </c>
       <c r="G8" s="575"/>
       <c r="H8" s="29">
         <v>44714</v>
       </c>
-      <c r="I8" s="30"/>
+      <c r="I8" s="30">
+        <v>5862</v>
+      </c>
       <c r="J8" s="43"/>
       <c r="K8" s="38"/>
       <c r="L8" s="39"/>
       <c r="M8" s="32">
-        <v>0</v>
+        <v>61007.5</v>
       </c>
       <c r="N8" s="33">
-        <v>0</v>
+        <v>26720</v>
+      </c>
+      <c r="O8" s="798" t="s">
+        <v>905</v>
       </c>
       <c r="P8" s="39">
         <f t="shared" ref="P8:P40" si="1">N8+M8+L8+I8+C8</f>
-        <v>0</v>
+        <v>115935</v>
       </c>
       <c r="Q8" s="325">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R8" s="319">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="R8" s="388">
+        <v>27353</v>
       </c>
       <c r="S8" s="147"/>
       <c r="T8" s="128"/>
@@ -33528,29 +33601,41 @@
       <c r="B9" s="24">
         <v>44715</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="42"/>
+      <c r="C9" s="25">
+        <v>8782</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>909</v>
+      </c>
       <c r="E9" s="27">
         <v>44715</v>
       </c>
-      <c r="F9" s="28"/>
+      <c r="F9" s="28">
+        <v>128259</v>
+      </c>
       <c r="G9" s="575"/>
       <c r="H9" s="29">
         <v>44715</v>
       </c>
-      <c r="I9" s="30"/>
+      <c r="I9" s="30">
+        <v>1227</v>
+      </c>
       <c r="J9" s="37"/>
       <c r="K9" s="223"/>
       <c r="L9" s="39"/>
       <c r="M9" s="32">
-        <v>0</v>
+        <f>76511+4438</f>
+        <v>80949</v>
       </c>
       <c r="N9" s="33">
-        <v>0</v>
+        <v>37301</v>
+      </c>
+      <c r="O9" s="798" t="s">
+        <v>905</v>
       </c>
       <c r="P9" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>128259</v>
       </c>
       <c r="Q9" s="325">
         <f t="shared" si="0"/>
@@ -33572,33 +33657,50 @@
       <c r="B10" s="24">
         <v>44716</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="40"/>
+      <c r="C10" s="25">
+        <v>8510</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>910</v>
+      </c>
       <c r="E10" s="27">
         <v>44716</v>
       </c>
-      <c r="F10" s="28"/>
+      <c r="F10" s="28">
+        <v>117678</v>
+      </c>
       <c r="G10" s="575"/>
       <c r="H10" s="29">
         <v>44716</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="167"/>
-      <c r="L10" s="45"/>
+      <c r="I10" s="30">
+        <v>4904</v>
+      </c>
+      <c r="J10" s="37">
+        <v>44716</v>
+      </c>
+      <c r="K10" s="167" t="s">
+        <v>911</v>
+      </c>
+      <c r="L10" s="45">
+        <v>17900.55</v>
+      </c>
       <c r="M10" s="32">
-        <v>0</v>
+        <v>43736</v>
       </c>
       <c r="N10" s="33">
-        <v>0</v>
+        <v>42627</v>
+      </c>
+      <c r="O10" s="798" t="s">
+        <v>905</v>
       </c>
       <c r="P10" s="39">
         <f>N10+M10+L10+I10+C10</f>
-        <v>0</v>
+        <v>117677.55</v>
       </c>
       <c r="Q10" s="325">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-0.44999999999708962</v>
       </c>
       <c r="R10" s="319">
         <v>0</v>
@@ -33616,29 +33718,37 @@
       <c r="B11" s="24">
         <v>44717</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="35"/>
+      <c r="C11" s="25">
+        <v>17196</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>913</v>
+      </c>
       <c r="E11" s="27">
         <v>44717</v>
       </c>
-      <c r="F11" s="28"/>
+      <c r="F11" s="28">
+        <v>85270</v>
+      </c>
       <c r="G11" s="575"/>
       <c r="H11" s="29">
         <v>44717</v>
       </c>
-      <c r="I11" s="30"/>
+      <c r="I11" s="30">
+        <v>883</v>
+      </c>
       <c r="J11" s="43"/>
       <c r="K11" s="168"/>
       <c r="L11" s="39"/>
       <c r="M11" s="32">
-        <v>0</v>
+        <v>40903</v>
       </c>
       <c r="N11" s="33">
-        <v>0</v>
+        <v>26288</v>
       </c>
       <c r="P11" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>85270</v>
       </c>
       <c r="Q11" s="325">
         <f t="shared" si="0"/>
@@ -33680,7 +33790,6 @@
       <c r="N12" s="33">
         <v>0</v>
       </c>
-      <c r="O12" s="580"/>
       <c r="P12" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -33725,7 +33834,6 @@
       <c r="N13" s="33">
         <v>0</v>
       </c>
-      <c r="O13" s="580"/>
       <c r="P13" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -33770,12 +33878,12 @@
       <c r="N14" s="33">
         <v>0</v>
       </c>
-      <c r="O14" s="580"/>
       <c r="P14" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q14" s="325">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R14" s="319">
@@ -33813,7 +33921,6 @@
       <c r="N15" s="33">
         <v>0</v>
       </c>
-      <c r="O15" s="580"/>
       <c r="P15" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -33857,7 +33964,6 @@
       <c r="N16" s="33">
         <v>0</v>
       </c>
-      <c r="O16" s="580"/>
       <c r="P16" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -33901,7 +34007,6 @@
       <c r="N17" s="33">
         <v>0</v>
       </c>
-      <c r="O17" s="580"/>
       <c r="P17" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -33945,7 +34050,6 @@
       <c r="N18" s="33">
         <v>0</v>
       </c>
-      <c r="O18" s="580"/>
       <c r="P18" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -33989,12 +34093,12 @@
       <c r="N19" s="33">
         <v>0</v>
       </c>
-      <c r="O19" s="580"/>
       <c r="P19" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="Q19" s="325">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="R19" s="319">
@@ -34003,7 +34107,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="781"/>
+      <c r="W19" s="789"/>
       <c r="X19" s="544"/>
       <c r="Y19" s="233"/>
     </row>
@@ -34032,7 +34136,6 @@
       <c r="N20" s="33">
         <v>0</v>
       </c>
-      <c r="O20" s="580"/>
       <c r="P20" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -34047,7 +34150,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="781"/>
+      <c r="W20" s="789"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -34076,7 +34179,6 @@
       <c r="N21" s="33">
         <v>0</v>
       </c>
-      <c r="O21" s="580"/>
       <c r="P21" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -34091,8 +34193,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="713"/>
-      <c r="X21" s="713"/>
+      <c r="W21" s="702"/>
+      <c r="X21" s="702"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -34121,7 +34223,6 @@
       <c r="N22" s="33">
         <v>0</v>
       </c>
-      <c r="O22" s="580"/>
       <c r="P22" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -34166,7 +34267,6 @@
       <c r="N23" s="33">
         <v>0</v>
       </c>
-      <c r="O23" s="580"/>
       <c r="P23" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -34181,8 +34281,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="714"/>
-      <c r="X23" s="714"/>
+      <c r="W23" s="703"/>
+      <c r="X23" s="703"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -34211,7 +34311,6 @@
       <c r="N24" s="33">
         <v>0</v>
       </c>
-      <c r="O24" s="580"/>
       <c r="P24" s="39">
         <f>N24+M24+L24+I24+C24</f>
         <v>0</v>
@@ -34226,8 +34325,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="714"/>
-      <c r="X24" s="714"/>
+      <c r="W24" s="703"/>
+      <c r="X24" s="703"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -34256,7 +34355,6 @@
       <c r="N25" s="33">
         <v>0</v>
       </c>
-      <c r="O25" s="580"/>
       <c r="P25" s="283">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -34270,8 +34368,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="715"/>
-      <c r="X25" s="715"/>
+      <c r="W25" s="704"/>
+      <c r="X25" s="704"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -34300,7 +34398,6 @@
       <c r="N26" s="33">
         <v>0</v>
       </c>
-      <c r="O26" s="651"/>
       <c r="P26" s="284">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -34316,8 +34413,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="715"/>
-      <c r="X26" s="715"/>
+      <c r="W26" s="704"/>
+      <c r="X26" s="704"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -34346,7 +34443,6 @@
       <c r="N27" s="33">
         <v>0</v>
       </c>
-      <c r="O27" s="651"/>
       <c r="P27" s="39">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -34362,9 +34458,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="708"/>
-      <c r="X27" s="709"/>
-      <c r="Y27" s="710"/>
+      <c r="W27" s="697"/>
+      <c r="X27" s="698"/>
+      <c r="Y27" s="699"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34392,7 +34488,6 @@
       <c r="N28" s="33">
         <v>0</v>
       </c>
-      <c r="O28" s="651"/>
       <c r="P28" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -34408,9 +34503,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="709"/>
-      <c r="X28" s="709"/>
-      <c r="Y28" s="710"/>
+      <c r="W28" s="698"/>
+      <c r="X28" s="698"/>
+      <c r="Y28" s="699"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34438,7 +34533,6 @@
       <c r="N29" s="33">
         <v>0</v>
       </c>
-      <c r="O29" s="651"/>
       <c r="P29" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -34484,7 +34578,6 @@
       <c r="N30" s="33">
         <v>0</v>
       </c>
-      <c r="O30" s="651"/>
       <c r="P30" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -34529,7 +34622,6 @@
       <c r="N31" s="33">
         <v>0</v>
       </c>
-      <c r="O31" s="651"/>
       <c r="P31" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -34573,7 +34665,6 @@
       <c r="N32" s="33">
         <v>0</v>
       </c>
-      <c r="O32" s="595"/>
       <c r="P32" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -34617,7 +34708,6 @@
       <c r="N33" s="33">
         <v>0</v>
       </c>
-      <c r="O33" s="595"/>
       <c r="P33" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -34661,7 +34751,6 @@
       <c r="N34" s="33">
         <v>0</v>
       </c>
-      <c r="O34" s="595"/>
       <c r="P34" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -34748,12 +34837,12 @@
       <c r="N36" s="33">
         <v>0</v>
       </c>
-      <c r="O36" s="652"/>
+      <c r="O36" s="796"/>
       <c r="P36" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q36" s="111">
+      <c r="Q36" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -34791,12 +34880,12 @@
       <c r="N37" s="33">
         <v>0</v>
       </c>
-      <c r="O37" s="652"/>
+      <c r="O37" s="796"/>
       <c r="P37" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Q37" s="111">
+      <c r="Q37" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -34837,7 +34926,7 @@
         <f>N38+M38+L38+I38+C38</f>
         <v>0</v>
       </c>
-      <c r="Q38" s="111">
+      <c r="Q38" s="325">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -34879,7 +34968,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="111">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="Q6:Q40" si="2">P39-F39</f>
         <v>0</v>
       </c>
       <c r="R39" s="319">
@@ -34914,7 +35003,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="111">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="R40" s="319">
@@ -34931,24 +35020,30 @@
       <c r="G41" s="575"/>
       <c r="H41" s="76"/>
       <c r="I41" s="77"/>
-      <c r="J41" s="56"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="699">
+      <c r="J41" s="56">
+        <v>44716</v>
+      </c>
+      <c r="K41" s="38" t="s">
+        <v>912</v>
+      </c>
+      <c r="L41" s="39">
+        <v>18992.37</v>
+      </c>
+      <c r="M41" s="715">
         <f>SUM(M5:M40)</f>
-        <v>0</v>
-      </c>
-      <c r="N41" s="699">
+        <v>389942.5</v>
+      </c>
+      <c r="N41" s="715">
         <f>SUM(N5:N40)</f>
-        <v>0</v>
+        <v>232768</v>
       </c>
       <c r="P41" s="506">
         <f>SUM(P5:P40)</f>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="758">
+        <v>764496.55</v>
+      </c>
+      <c r="Q41" s="763">
         <f>SUM(Q5:Q40)</f>
-        <v>0</v>
+        <v>-0.44999999999708962</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34964,10 +35059,10 @@
       <c r="J42" s="51"/>
       <c r="K42" s="173"/>
       <c r="L42" s="52"/>
-      <c r="M42" s="700"/>
-      <c r="N42" s="700"/>
+      <c r="M42" s="716"/>
+      <c r="N42" s="716"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="759"/>
+      <c r="Q42" s="764"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -35018,11 +35113,11 @@
       <c r="J45" s="56"/>
       <c r="K45" s="38"/>
       <c r="L45" s="39"/>
-      <c r="M45" s="760">
+      <c r="M45" s="765">
         <f>M41+N41</f>
-        <v>0</v>
-      </c>
-      <c r="N45" s="761"/>
+        <v>622710.5</v>
+      </c>
+      <c r="N45" s="766"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -35303,7 +35398,7 @@
       </c>
       <c r="C61" s="87">
         <f>SUM(C5:C60)</f>
-        <v>0</v>
+        <v>105239.5</v>
       </c>
       <c r="D61" s="88"/>
       <c r="E61" s="91" t="s">
@@ -35311,7 +35406,7 @@
       </c>
       <c r="F61" s="90">
         <f>SUM(F5:F60)</f>
-        <v>0</v>
+        <v>735732</v>
       </c>
       <c r="G61" s="576"/>
       <c r="H61" s="91" t="s">
@@ -35319,7 +35414,7 @@
       </c>
       <c r="I61" s="92">
         <f>SUM(I5:I60)</f>
-        <v>0</v>
+        <v>18646</v>
       </c>
       <c r="J61" s="93"/>
       <c r="K61" s="94" t="s">
@@ -35327,7 +35422,7 @@
       </c>
       <c r="L61" s="95">
         <f>SUM(L5:L60)</f>
-        <v>0</v>
+        <v>36892.92</v>
       </c>
       <c r="M61" s="96"/>
       <c r="N61" s="96"/>
@@ -35345,29 +35440,29 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="676" t="s">
+      <c r="H63" s="670" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="677"/>
+      <c r="I63" s="671"/>
       <c r="J63" s="562"/>
-      <c r="K63" s="783">
+      <c r="K63" s="785">
         <f>I61+L61</f>
-        <v>0</v>
-      </c>
-      <c r="L63" s="784"/>
+        <v>55538.92</v>
+      </c>
+      <c r="L63" s="786"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="682" t="s">
+      <c r="D64" s="676" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="682"/>
+      <c r="E64" s="676"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
-        <v>0</v>
+        <v>574953.57999999996</v>
       </c>
       <c r="I64" s="102"/>
       <c r="J64" s="563"/>
@@ -35380,18 +35475,18 @@
       <c r="F65" s="111">
         <v>0</v>
       </c>
-      <c r="I65" s="683" t="s">
+      <c r="I65" s="677" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="684"/>
-      <c r="K65" s="685">
+      <c r="J65" s="678"/>
+      <c r="K65" s="679">
         <f>F67+F68+F69</f>
-        <v>0</v>
-      </c>
-      <c r="L65" s="685"/>
+        <v>574953.57999999996</v>
+      </c>
+      <c r="L65" s="679"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
-      <c r="O65" s="653"/>
+      <c r="O65" s="797"/>
       <c r="P65" s="404"/>
       <c r="Q65" s="404"/>
     </row>
@@ -35409,7 +35504,7 @@
       <c r="L66" s="154"/>
       <c r="M66" s="404"/>
       <c r="N66" s="404"/>
-      <c r="O66" s="653"/>
+      <c r="O66" s="797"/>
       <c r="P66" s="404"/>
       <c r="Q66" s="404"/>
     </row>
@@ -35422,18 +35517,18 @@
       </c>
       <c r="F67" s="96">
         <f>SUM(F64:F66)</f>
-        <v>0</v>
+        <v>574953.57999999996</v>
       </c>
       <c r="H67" s="558"/>
       <c r="I67" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="782">
+      <c r="K67" s="787">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L67" s="685"/>
+      <c r="L67" s="679"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -35448,22 +35543,22 @@
     </row>
     <row r="69" spans="2:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C69" s="112"/>
-      <c r="D69" s="665" t="s">
+      <c r="D69" s="659" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="666"/>
+      <c r="E69" s="660"/>
       <c r="F69" s="113">
         <v>0</v>
       </c>
-      <c r="I69" s="667" t="s">
+      <c r="I69" s="661" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="668"/>
-      <c r="K69" s="669">
+      <c r="J69" s="662"/>
+      <c r="K69" s="663">
         <f>K65+K67</f>
-        <v>-2546982.16</v>
-      </c>
-      <c r="L69" s="669"/>
+        <v>-1972028.58</v>
+      </c>
+      <c r="L69" s="663"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -35607,6 +35702,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="I69:J69"/>
     <mergeCell ref="K69:L69"/>
@@ -35617,26 +35732,6 @@
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="I65:J65"/>
     <mergeCell ref="K65:L65"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -37137,10 +37232,10 @@
         <f>SUM(F3:F66)</f>
         <v>818494.5</v>
       </c>
-      <c r="H67" s="754" t="s">
+      <c r="H67" s="759" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="755"/>
+      <c r="I67" s="760"/>
       <c r="J67" s="647">
         <f>SUM(J3:J66)</f>
         <v>0</v>
@@ -37160,11 +37255,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="716" t="s">
+      <c r="F68" s="721" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="756"/>
-      <c r="I68" s="757"/>
+      <c r="H68" s="761"/>
+      <c r="I68" s="762"/>
       <c r="J68" s="1"/>
       <c r="K68" s="97"/>
       <c r="L68" s="3"/>
@@ -37175,7 +37270,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="717"/>
+      <c r="F69" s="722"/>
       <c r="J69" s="1"/>
       <c r="K69" s="97"/>
       <c r="L69" s="3"/>
@@ -39115,7 +39210,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="689" t="s">
+      <c r="B41" s="694" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -39147,7 +39242,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="690"/>
+      <c r="B42" s="695"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -40767,23 +40862,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="654"/>
-      <c r="C1" s="656" t="s">
+      <c r="B1" s="683"/>
+      <c r="C1" s="685" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="657"/>
-      <c r="E1" s="657"/>
-      <c r="F1" s="657"/>
-      <c r="G1" s="657"/>
-      <c r="H1" s="657"/>
-      <c r="I1" s="657"/>
-      <c r="J1" s="657"/>
-      <c r="K1" s="657"/>
-      <c r="L1" s="657"/>
-      <c r="M1" s="657"/>
+      <c r="D1" s="686"/>
+      <c r="E1" s="686"/>
+      <c r="F1" s="686"/>
+      <c r="G1" s="686"/>
+      <c r="H1" s="686"/>
+      <c r="I1" s="686"/>
+      <c r="J1" s="686"/>
+      <c r="K1" s="686"/>
+      <c r="L1" s="686"/>
+      <c r="M1" s="686"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="655"/>
+      <c r="B2" s="684"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -40793,21 +40888,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="658" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="659"/>
+      <c r="B3" s="687" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="688"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="660" t="s">
+      <c r="H3" s="689" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="660"/>
+      <c r="I3" s="689"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="697" t="s">
+      <c r="P3" s="713" t="s">
         <v>6</v>
       </c>
     </row>
@@ -40822,14 +40917,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="661" t="s">
+      <c r="E4" s="690" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="662"/>
-      <c r="H4" s="663" t="s">
+      <c r="F4" s="691"/>
+      <c r="H4" s="692" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="664"/>
+      <c r="I4" s="693"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -40839,14 +40934,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="698"/>
+      <c r="P4" s="714"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="707" t="s">
+      <c r="W4" s="696" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="707"/>
+      <c r="X4" s="696"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -40897,8 +40992,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="707"/>
-      <c r="X5" s="707"/>
+      <c r="W5" s="696"/>
+      <c r="X5" s="696"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -41669,7 +41764,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="711">
+      <c r="W19" s="700">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -41721,7 +41816,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="712"/>
+      <c r="W20" s="701"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -41770,8 +41865,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="713"/>
-      <c r="X21" s="713"/>
+      <c r="W21" s="702"/>
+      <c r="X21" s="702"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -41872,8 +41967,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="714"/>
-      <c r="X23" s="714"/>
+      <c r="W23" s="703"/>
+      <c r="X23" s="703"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -41927,8 +42022,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="714"/>
-      <c r="X24" s="714"/>
+      <c r="W24" s="703"/>
+      <c r="X24" s="703"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -41974,8 +42069,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="715"/>
-      <c r="X25" s="715"/>
+      <c r="W25" s="704"/>
+      <c r="X25" s="704"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -42026,8 +42121,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="715"/>
-      <c r="X26" s="715"/>
+      <c r="W26" s="704"/>
+      <c r="X26" s="704"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -42075,9 +42170,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="708"/>
-      <c r="X27" s="709"/>
-      <c r="Y27" s="710"/>
+      <c r="W27" s="697"/>
+      <c r="X27" s="698"/>
+      <c r="Y27" s="699"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42127,9 +42222,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="709"/>
-      <c r="X28" s="709"/>
-      <c r="Y28" s="710"/>
+      <c r="W28" s="698"/>
+      <c r="X28" s="698"/>
+      <c r="Y28" s="699"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42464,11 +42559,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="699">
+      <c r="M36" s="715">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="701">
+      <c r="N36" s="717">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -42476,7 +42571,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="703">
+      <c r="Q36" s="719">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -42511,13 +42606,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="700"/>
-      <c r="N37" s="702"/>
+      <c r="M37" s="716"/>
+      <c r="N37" s="718"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="704"/>
+      <c r="Q37" s="720"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -42807,12 +42902,12 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="676" t="s">
+      <c r="H52" s="670" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="677"/>
+      <c r="I52" s="671"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="678">
+      <c r="K52" s="672">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
@@ -42823,10 +42918,10 @@
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="682" t="s">
+      <c r="D53" s="676" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="682"/>
+      <c r="E53" s="676"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -42842,22 +42937,22 @@
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="683" t="s">
+      <c r="I54" s="677" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="684"/>
-      <c r="K54" s="685">
+      <c r="J54" s="678"/>
+      <c r="K54" s="679">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="685"/>
-      <c r="M54" s="691" t="s">
+      <c r="L54" s="679"/>
+      <c r="M54" s="707" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="692"/>
-      <c r="O54" s="692"/>
-      <c r="P54" s="692"/>
-      <c r="Q54" s="693"/>
+      <c r="N54" s="708"/>
+      <c r="O54" s="708"/>
+      <c r="P54" s="708"/>
+      <c r="Q54" s="709"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -42871,11 +42966,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="694"/>
-      <c r="N55" s="695"/>
-      <c r="O55" s="695"/>
-      <c r="P55" s="695"/>
-      <c r="Q55" s="696"/>
+      <c r="M55" s="710"/>
+      <c r="N55" s="711"/>
+      <c r="O55" s="711"/>
+      <c r="P55" s="711"/>
+      <c r="Q55" s="712"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -42893,11 +42988,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="687">
+      <c r="K56" s="681">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="688"/>
+      <c r="L56" s="682"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -42914,22 +43009,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="665" t="s">
+      <c r="D58" s="659" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="666"/>
+      <c r="E58" s="660"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="667" t="s">
+      <c r="I58" s="661" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="668"/>
-      <c r="K58" s="669">
+      <c r="J58" s="662"/>
+      <c r="K58" s="663">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="669"/>
+      <c r="L58" s="663"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -43073,14 +43168,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -43091,17 +43189,14 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -45519,7 +45614,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="716" t="s">
+      <c r="F87" s="721" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -45532,7 +45627,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="717"/>
+      <c r="F88" s="722"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -45844,23 +45939,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="654"/>
-      <c r="C1" s="656" t="s">
+      <c r="B1" s="683"/>
+      <c r="C1" s="685" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="657"/>
-      <c r="E1" s="657"/>
-      <c r="F1" s="657"/>
-      <c r="G1" s="657"/>
-      <c r="H1" s="657"/>
-      <c r="I1" s="657"/>
-      <c r="J1" s="657"/>
-      <c r="K1" s="657"/>
-      <c r="L1" s="657"/>
-      <c r="M1" s="657"/>
+      <c r="D1" s="686"/>
+      <c r="E1" s="686"/>
+      <c r="F1" s="686"/>
+      <c r="G1" s="686"/>
+      <c r="H1" s="686"/>
+      <c r="I1" s="686"/>
+      <c r="J1" s="686"/>
+      <c r="K1" s="686"/>
+      <c r="L1" s="686"/>
+      <c r="M1" s="686"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="655"/>
+      <c r="B2" s="684"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -45870,24 +45965,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="658" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="659"/>
+      <c r="B3" s="687" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="688"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="660" t="s">
+      <c r="H3" s="689" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="660"/>
+      <c r="I3" s="689"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="697" t="s">
+      <c r="P3" s="713" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="718" t="s">
+      <c r="R3" s="723" t="s">
         <v>216</v>
       </c>
     </row>
@@ -45902,14 +45997,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="661" t="s">
+      <c r="E4" s="690" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="662"/>
-      <c r="H4" s="663" t="s">
+      <c r="F4" s="691"/>
+      <c r="H4" s="692" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="664"/>
+      <c r="I4" s="693"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -45919,15 +46014,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="698"/>
+      <c r="P4" s="714"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="719"/>
-      <c r="W4" s="707" t="s">
+      <c r="R4" s="724"/>
+      <c r="W4" s="696" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="707"/>
+      <c r="X4" s="696"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -45988,8 +46083,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="707"/>
-      <c r="X5" s="707"/>
+      <c r="W5" s="696"/>
+      <c r="X5" s="696"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -46746,7 +46841,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="711">
+      <c r="W19" s="700">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -46798,7 +46893,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="712"/>
+      <c r="W20" s="701"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -46847,8 +46942,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="713"/>
-      <c r="X21" s="713"/>
+      <c r="W21" s="702"/>
+      <c r="X21" s="702"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -46949,8 +47044,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="714"/>
-      <c r="X23" s="714"/>
+      <c r="W23" s="703"/>
+      <c r="X23" s="703"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -47001,8 +47096,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="714"/>
-      <c r="X24" s="714"/>
+      <c r="W24" s="703"/>
+      <c r="X24" s="703"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -47048,8 +47143,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="715"/>
-      <c r="X25" s="715"/>
+      <c r="W25" s="704"/>
+      <c r="X25" s="704"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -47097,8 +47192,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="715"/>
-      <c r="X26" s="715"/>
+      <c r="W26" s="704"/>
+      <c r="X26" s="704"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -47158,9 +47253,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="708"/>
-      <c r="X27" s="709"/>
-      <c r="Y27" s="710"/>
+      <c r="W27" s="697"/>
+      <c r="X27" s="698"/>
+      <c r="Y27" s="699"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47214,9 +47309,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="709"/>
-      <c r="X28" s="709"/>
-      <c r="Y28" s="710"/>
+      <c r="W28" s="698"/>
+      <c r="X28" s="698"/>
+      <c r="Y28" s="699"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47532,11 +47627,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="699">
+      <c r="M36" s="715">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="701">
+      <c r="N36" s="717">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -47544,7 +47639,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="703">
+      <c r="Q36" s="719">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -47563,13 +47658,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="700"/>
-      <c r="N37" s="702"/>
+      <c r="M37" s="716"/>
+      <c r="N37" s="718"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="704"/>
+      <c r="Q37" s="720"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -47843,12 +47938,12 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="676" t="s">
+      <c r="H52" s="670" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="677"/>
+      <c r="I52" s="671"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="678">
+      <c r="K52" s="672">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
@@ -47859,10 +47954,10 @@
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="682" t="s">
+      <c r="D53" s="676" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="682"/>
+      <c r="E53" s="676"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -47878,22 +47973,22 @@
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="683" t="s">
+      <c r="I54" s="677" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="684"/>
-      <c r="K54" s="685">
+      <c r="J54" s="678"/>
+      <c r="K54" s="679">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="685"/>
-      <c r="M54" s="691" t="s">
+      <c r="L54" s="679"/>
+      <c r="M54" s="707" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="692"/>
-      <c r="O54" s="692"/>
-      <c r="P54" s="692"/>
-      <c r="Q54" s="693"/>
+      <c r="N54" s="708"/>
+      <c r="O54" s="708"/>
+      <c r="P54" s="708"/>
+      <c r="Q54" s="709"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -47907,11 +48002,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="694"/>
-      <c r="N55" s="695"/>
-      <c r="O55" s="695"/>
-      <c r="P55" s="695"/>
-      <c r="Q55" s="696"/>
+      <c r="M55" s="710"/>
+      <c r="N55" s="711"/>
+      <c r="O55" s="711"/>
+      <c r="P55" s="711"/>
+      <c r="Q55" s="712"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -47929,11 +48024,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="687">
+      <c r="K56" s="681">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="688"/>
+      <c r="L56" s="682"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -47950,22 +48045,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="665" t="s">
+      <c r="D58" s="659" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="666"/>
+      <c r="E58" s="660"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="667" t="s">
+      <c r="I58" s="661" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="668"/>
-      <c r="K58" s="669">
+      <c r="J58" s="662"/>
+      <c r="K58" s="663">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="669"/>
+      <c r="L58" s="663"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -48109,20 +48204,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -48132,13 +48220,20 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -50528,7 +50623,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="716" t="s">
+      <c r="F75" s="721" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -50541,7 +50636,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="717"/>
+      <c r="F76" s="722"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -50833,23 +50928,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="654"/>
-      <c r="C1" s="720" t="s">
+      <c r="B1" s="683"/>
+      <c r="C1" s="725" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="721"/>
-      <c r="E1" s="721"/>
-      <c r="F1" s="721"/>
-      <c r="G1" s="721"/>
-      <c r="H1" s="721"/>
-      <c r="I1" s="721"/>
-      <c r="J1" s="721"/>
-      <c r="K1" s="721"/>
-      <c r="L1" s="721"/>
-      <c r="M1" s="721"/>
+      <c r="D1" s="726"/>
+      <c r="E1" s="726"/>
+      <c r="F1" s="726"/>
+      <c r="G1" s="726"/>
+      <c r="H1" s="726"/>
+      <c r="I1" s="726"/>
+      <c r="J1" s="726"/>
+      <c r="K1" s="726"/>
+      <c r="L1" s="726"/>
+      <c r="M1" s="726"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="655"/>
+      <c r="B2" s="684"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -50859,24 +50954,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="658" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="659"/>
+      <c r="B3" s="687" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="688"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="660" t="s">
+      <c r="H3" s="689" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="660"/>
+      <c r="I3" s="689"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="697" t="s">
+      <c r="P3" s="713" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="718" t="s">
+      <c r="R3" s="723" t="s">
         <v>216</v>
       </c>
     </row>
@@ -50891,14 +50986,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="661" t="s">
+      <c r="E4" s="690" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="662"/>
-      <c r="H4" s="663" t="s">
+      <c r="F4" s="691"/>
+      <c r="H4" s="692" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="664"/>
+      <c r="I4" s="693"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -50908,15 +51003,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="698"/>
+      <c r="P4" s="714"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="719"/>
-      <c r="W4" s="707" t="s">
+      <c r="R4" s="724"/>
+      <c r="W4" s="696" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="707"/>
+      <c r="X4" s="696"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -50967,8 +51062,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="707"/>
-      <c r="X5" s="707"/>
+      <c r="W5" s="696"/>
+      <c r="X5" s="696"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -51732,7 +51827,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="711">
+      <c r="W19" s="700">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -51785,7 +51880,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="712"/>
+      <c r="W20" s="701"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -51834,8 +51929,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="713"/>
-      <c r="X21" s="713"/>
+      <c r="W21" s="702"/>
+      <c r="X21" s="702"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -51935,8 +52030,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="714"/>
-      <c r="X23" s="714"/>
+      <c r="W23" s="703"/>
+      <c r="X23" s="703"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -51991,8 +52086,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="714"/>
-      <c r="X24" s="714"/>
+      <c r="W24" s="703"/>
+      <c r="X24" s="703"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -52037,8 +52132,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="715"/>
-      <c r="X25" s="715"/>
+      <c r="W25" s="704"/>
+      <c r="X25" s="704"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -52086,8 +52181,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="715"/>
-      <c r="X26" s="715"/>
+      <c r="W26" s="704"/>
+      <c r="X26" s="704"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -52141,9 +52236,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="708"/>
-      <c r="X27" s="709"/>
-      <c r="Y27" s="710"/>
+      <c r="W27" s="697"/>
+      <c r="X27" s="698"/>
+      <c r="Y27" s="699"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52197,9 +52292,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="709"/>
-      <c r="X28" s="709"/>
-      <c r="Y28" s="710"/>
+      <c r="W28" s="698"/>
+      <c r="X28" s="698"/>
+      <c r="Y28" s="699"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52510,11 +52605,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="699">
+      <c r="M36" s="715">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="701">
+      <c r="N36" s="717">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -52522,7 +52617,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="703">
+      <c r="Q36" s="719">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -52547,13 +52642,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="700"/>
-      <c r="N37" s="702"/>
+      <c r="M37" s="716"/>
+      <c r="N37" s="718"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="704"/>
+      <c r="Q37" s="720"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -52846,12 +52941,12 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="676" t="s">
+      <c r="H52" s="670" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="677"/>
+      <c r="I52" s="671"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="678">
+      <c r="K52" s="672">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
@@ -52862,10 +52957,10 @@
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="682" t="s">
+      <c r="D53" s="676" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="682"/>
+      <c r="E53" s="676"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -52881,15 +52976,15 @@
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="683" t="s">
+      <c r="I54" s="677" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="684"/>
-      <c r="K54" s="685">
+      <c r="J54" s="678"/>
+      <c r="K54" s="679">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="685"/>
+      <c r="L54" s="679"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -52930,11 +53025,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="687">
+      <c r="K56" s="681">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="688"/>
+      <c r="L56" s="682"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -52951,22 +53046,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="665" t="s">
+      <c r="D58" s="659" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="666"/>
+      <c r="E58" s="660"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="667" t="s">
+      <c r="I58" s="661" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="668"/>
-      <c r="K58" s="669">
+      <c r="J58" s="662"/>
+      <c r="K58" s="663">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="669"/>
+      <c r="L58" s="663"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -53110,20 +53205,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -53139,6 +53220,20 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -54835,12 +54930,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="722" t="s">
+      <c r="B43" s="727" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="723"/>
-      <c r="D43" s="723"/>
-      <c r="E43" s="724"/>
+      <c r="C43" s="728"/>
+      <c r="D43" s="728"/>
+      <c r="E43" s="729"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -54868,10 +54963,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="725"/>
-      <c r="C44" s="726"/>
-      <c r="D44" s="726"/>
-      <c r="E44" s="727"/>
+      <c r="B44" s="730"/>
+      <c r="C44" s="731"/>
+      <c r="D44" s="731"/>
+      <c r="E44" s="732"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -54899,10 +54994,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="728"/>
-      <c r="C45" s="729"/>
-      <c r="D45" s="729"/>
-      <c r="E45" s="730"/>
+      <c r="B45" s="733"/>
+      <c r="C45" s="734"/>
+      <c r="D45" s="734"/>
+      <c r="E45" s="735"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -54945,10 +55040,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="737" t="s">
+      <c r="B47" s="742" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="738"/>
+      <c r="C47" s="743"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -54970,8 +55065,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="739"/>
-      <c r="C48" s="740"/>
+      <c r="B48" s="744"/>
+      <c r="C48" s="745"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -54979,11 +55074,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="731" t="s">
+      <c r="J48" s="736" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="732"/>
-      <c r="L48" s="733"/>
+      <c r="K48" s="737"/>
+      <c r="L48" s="738"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -55001,9 +55096,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="734"/>
-      <c r="K49" s="735"/>
-      <c r="L49" s="736"/>
+      <c r="J49" s="739"/>
+      <c r="K49" s="740"/>
+      <c r="L49" s="741"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -55020,10 +55115,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="741" t="s">
+      <c r="I50" s="746" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="742"/>
+      <c r="J50" s="747"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -55044,8 +55139,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="741"/>
-      <c r="J51" s="742"/>
+      <c r="I51" s="746"/>
+      <c r="J51" s="747"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -55064,8 +55159,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="741"/>
-      <c r="J52" s="742"/>
+      <c r="I52" s="746"/>
+      <c r="J52" s="747"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -55084,8 +55179,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="741"/>
-      <c r="J53" s="742"/>
+      <c r="I53" s="746"/>
+      <c r="J53" s="747"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -55104,8 +55199,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="741"/>
-      <c r="J54" s="742"/>
+      <c r="I54" s="746"/>
+      <c r="J54" s="747"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -55124,8 +55219,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="741"/>
-      <c r="J55" s="742"/>
+      <c r="I55" s="746"/>
+      <c r="J55" s="747"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -55144,8 +55239,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="741"/>
-      <c r="J56" s="742"/>
+      <c r="I56" s="746"/>
+      <c r="J56" s="747"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -55164,8 +55259,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="741"/>
-      <c r="J57" s="742"/>
+      <c r="I57" s="746"/>
+      <c r="J57" s="747"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -55184,8 +55279,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="741"/>
-      <c r="J58" s="742"/>
+      <c r="I58" s="746"/>
+      <c r="J58" s="747"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -55204,8 +55299,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="741"/>
-      <c r="J59" s="742"/>
+      <c r="I59" s="746"/>
+      <c r="J59" s="747"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -55224,8 +55319,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="741"/>
-      <c r="J60" s="742"/>
+      <c r="I60" s="746"/>
+      <c r="J60" s="747"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -55244,8 +55339,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="741"/>
-      <c r="J61" s="742"/>
+      <c r="I61" s="746"/>
+      <c r="J61" s="747"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -55264,8 +55359,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="741"/>
-      <c r="J62" s="742"/>
+      <c r="I62" s="746"/>
+      <c r="J62" s="747"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -55284,8 +55379,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="741"/>
-      <c r="J63" s="742"/>
+      <c r="I63" s="746"/>
+      <c r="J63" s="747"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -55304,8 +55399,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="741"/>
-      <c r="J64" s="742"/>
+      <c r="I64" s="746"/>
+      <c r="J64" s="747"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -55324,8 +55419,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="741"/>
-      <c r="J65" s="742"/>
+      <c r="I65" s="746"/>
+      <c r="J65" s="747"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -55344,8 +55439,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="741"/>
-      <c r="J66" s="742"/>
+      <c r="I66" s="746"/>
+      <c r="J66" s="747"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -55364,8 +55459,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="741"/>
-      <c r="J67" s="742"/>
+      <c r="I67" s="746"/>
+      <c r="J67" s="747"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -55384,8 +55479,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="741"/>
-      <c r="J68" s="742"/>
+      <c r="I68" s="746"/>
+      <c r="J68" s="747"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -55404,8 +55499,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="741"/>
-      <c r="J69" s="742"/>
+      <c r="I69" s="746"/>
+      <c r="J69" s="747"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -55424,8 +55519,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="741"/>
-      <c r="J70" s="742"/>
+      <c r="I70" s="746"/>
+      <c r="J70" s="747"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -55444,8 +55539,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="741"/>
-      <c r="J71" s="742"/>
+      <c r="I71" s="746"/>
+      <c r="J71" s="747"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -55464,8 +55559,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="741"/>
-      <c r="J72" s="742"/>
+      <c r="I72" s="746"/>
+      <c r="J72" s="747"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -55484,8 +55579,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="741"/>
-      <c r="J73" s="742"/>
+      <c r="I73" s="746"/>
+      <c r="J73" s="747"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -55504,8 +55599,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="741"/>
-      <c r="J74" s="742"/>
+      <c r="I74" s="746"/>
+      <c r="J74" s="747"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -55524,8 +55619,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="741"/>
-      <c r="J75" s="742"/>
+      <c r="I75" s="746"/>
+      <c r="J75" s="747"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -55544,8 +55639,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="741"/>
-      <c r="J76" s="742"/>
+      <c r="I76" s="746"/>
+      <c r="J76" s="747"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -55564,8 +55659,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="741"/>
-      <c r="J77" s="742"/>
+      <c r="I77" s="746"/>
+      <c r="J77" s="747"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -55586,8 +55681,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="743"/>
-      <c r="J78" s="744"/>
+      <c r="I78" s="748"/>
+      <c r="J78" s="749"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -55632,7 +55727,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="716" t="s">
+      <c r="F80" s="721" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -55644,7 +55739,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="717"/>
+      <c r="F81" s="722"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -55932,23 +56027,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="654"/>
-      <c r="C1" s="720" t="s">
+      <c r="B1" s="683"/>
+      <c r="C1" s="725" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="721"/>
-      <c r="E1" s="721"/>
-      <c r="F1" s="721"/>
-      <c r="G1" s="721"/>
-      <c r="H1" s="721"/>
-      <c r="I1" s="721"/>
-      <c r="J1" s="721"/>
-      <c r="K1" s="721"/>
-      <c r="L1" s="721"/>
-      <c r="M1" s="721"/>
+      <c r="D1" s="726"/>
+      <c r="E1" s="726"/>
+      <c r="F1" s="726"/>
+      <c r="G1" s="726"/>
+      <c r="H1" s="726"/>
+      <c r="I1" s="726"/>
+      <c r="J1" s="726"/>
+      <c r="K1" s="726"/>
+      <c r="L1" s="726"/>
+      <c r="M1" s="726"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="655"/>
+      <c r="B2" s="684"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -55958,24 +56053,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="658" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="659"/>
+      <c r="B3" s="687" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="688"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="660" t="s">
+      <c r="H3" s="689" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="660"/>
+      <c r="I3" s="689"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="697" t="s">
+      <c r="P3" s="713" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="718" t="s">
+      <c r="R3" s="723" t="s">
         <v>216</v>
       </c>
     </row>
@@ -55990,14 +56085,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="661" t="s">
+      <c r="E4" s="690" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="662"/>
-      <c r="H4" s="663" t="s">
+      <c r="F4" s="691"/>
+      <c r="H4" s="692" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="664"/>
+      <c r="I4" s="693"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -56007,15 +56102,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="698"/>
+      <c r="P4" s="714"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="719"/>
-      <c r="W4" s="707" t="s">
+      <c r="R4" s="724"/>
+      <c r="W4" s="696" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="707"/>
+      <c r="X4" s="696"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -56066,8 +56161,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="707"/>
-      <c r="X5" s="707"/>
+      <c r="W5" s="696"/>
+      <c r="X5" s="696"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -56828,7 +56923,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="711">
+      <c r="W19" s="700">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -56880,7 +56975,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="712"/>
+      <c r="W20" s="701"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -56929,8 +57024,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="713"/>
-      <c r="X21" s="713"/>
+      <c r="W21" s="702"/>
+      <c r="X21" s="702"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -57029,8 +57124,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="714"/>
-      <c r="X23" s="714"/>
+      <c r="W23" s="703"/>
+      <c r="X23" s="703"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -57085,8 +57180,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="714"/>
-      <c r="X24" s="714"/>
+      <c r="W24" s="703"/>
+      <c r="X24" s="703"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -57134,8 +57229,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="715"/>
-      <c r="X25" s="715"/>
+      <c r="W25" s="704"/>
+      <c r="X25" s="704"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -57183,8 +57278,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="715"/>
-      <c r="X26" s="715"/>
+      <c r="W26" s="704"/>
+      <c r="X26" s="704"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -57232,9 +57327,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="708"/>
-      <c r="X27" s="709"/>
-      <c r="Y27" s="710"/>
+      <c r="W27" s="697"/>
+      <c r="X27" s="698"/>
+      <c r="Y27" s="699"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57282,9 +57377,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="709"/>
-      <c r="X28" s="709"/>
-      <c r="Y28" s="710"/>
+      <c r="W28" s="698"/>
+      <c r="X28" s="698"/>
+      <c r="Y28" s="699"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57625,11 +57720,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="699">
+      <c r="M36" s="715">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="701">
+      <c r="N36" s="717">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -57637,7 +57732,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="745">
+      <c r="Q36" s="750">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -57662,13 +57757,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="700"/>
-      <c r="N37" s="702"/>
+      <c r="M37" s="716"/>
+      <c r="N37" s="718"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="746"/>
+      <c r="Q37" s="751"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -57718,11 +57813,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="747">
+      <c r="M39" s="752">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="748"/>
+      <c r="N39" s="753"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -57970,12 +58065,12 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="676" t="s">
+      <c r="H52" s="670" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="677"/>
+      <c r="I52" s="671"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="678">
+      <c r="K52" s="672">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
@@ -57986,10 +58081,10 @@
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="682" t="s">
+      <c r="D53" s="676" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="682"/>
+      <c r="E53" s="676"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -58005,15 +58100,15 @@
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="683" t="s">
+      <c r="I54" s="677" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="684"/>
-      <c r="K54" s="685">
+      <c r="J54" s="678"/>
+      <c r="K54" s="679">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="685"/>
+      <c r="L54" s="679"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -58054,11 +58149,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="687">
+      <c r="K56" s="681">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="688"/>
+      <c r="L56" s="682"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -58075,22 +58170,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="665" t="s">
+      <c r="D58" s="659" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="666"/>
+      <c r="E58" s="660"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="667" t="s">
+      <c r="I58" s="661" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="668"/>
-      <c r="K58" s="669">
+      <c r="J58" s="662"/>
+      <c r="K58" s="663">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="669"/>
+      <c r="L58" s="663"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -58234,6 +58329,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -58250,20 +58359,6 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE    ZAVALETA   JUNIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE    ZAVALETA   JUNIO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="16" activeTab="17"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="15" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -710,7 +710,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="914">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="919">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -3452,6 +3452,21 @@
   </si>
   <si>
     <t>QUESO-LONGANIZA-ENCHILADA-TOCINETA-PEPERONI</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-CHORIZO-ENCHILADA</t>
+  </si>
+  <si>
+    <t>POLLO-PATA-QUESOS-CHISTORRA-COSTCO</t>
+  </si>
+  <si>
+    <t>odelpa/NLP</t>
+  </si>
+  <si>
+    <t>SALCHICHONEERIA-POLLO-JAMON-QUESOS-LONGANIZA</t>
+  </si>
+  <si>
+    <t>NLP</t>
   </si>
 </sst>
 </file>
@@ -5457,7 +5472,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="799">
+  <cellXfs count="801">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -6797,6 +6812,48 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="16" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6869,76 +6926,10 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -6982,6 +6973,39 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7175,20 +7199,20 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="3" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7208,13 +7232,10 @@
     <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -7226,9 +7247,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFFCCFF"/>
       <color rgb="FFCCFF66"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FFFFCCFF"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF990033"/>
       <color rgb="FFCC3399"/>
@@ -11592,23 +11613,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="683"/>
-      <c r="C1" s="685" t="s">
+      <c r="B1" s="662"/>
+      <c r="C1" s="664" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="686"/>
-      <c r="E1" s="686"/>
-      <c r="F1" s="686"/>
-      <c r="G1" s="686"/>
-      <c r="H1" s="686"/>
-      <c r="I1" s="686"/>
-      <c r="J1" s="686"/>
-      <c r="K1" s="686"/>
-      <c r="L1" s="686"/>
-      <c r="M1" s="686"/>
+      <c r="D1" s="665"/>
+      <c r="E1" s="665"/>
+      <c r="F1" s="665"/>
+      <c r="G1" s="665"/>
+      <c r="H1" s="665"/>
+      <c r="I1" s="665"/>
+      <c r="J1" s="665"/>
+      <c r="K1" s="665"/>
+      <c r="L1" s="665"/>
+      <c r="M1" s="665"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="684"/>
+      <c r="B2" s="663"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -11618,17 +11639,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="687" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="688"/>
+      <c r="B3" s="666" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="667"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="689" t="s">
+      <c r="H3" s="668" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="689"/>
+      <c r="I3" s="668"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -11642,14 +11663,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="690" t="s">
+      <c r="E4" s="669" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="691"/>
-      <c r="H4" s="692" t="s">
+      <c r="F4" s="670"/>
+      <c r="H4" s="671" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="693"/>
+      <c r="I4" s="672"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -11659,10 +11680,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="664" t="s">
+      <c r="P4" s="678" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="665"/>
+      <c r="Q4" s="679"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -13103,11 +13124,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="666">
+      <c r="M39" s="680">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="668">
+      <c r="N39" s="682">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -13133,8 +13154,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="667"/>
-      <c r="N40" s="669"/>
+      <c r="M40" s="681"/>
+      <c r="N40" s="683"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -13349,29 +13370,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="670" t="s">
+      <c r="H52" s="684" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="671"/>
+      <c r="I52" s="685"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="672">
+      <c r="K52" s="686">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="673"/>
-      <c r="M52" s="674">
+      <c r="L52" s="687"/>
+      <c r="M52" s="688">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="675"/>
+      <c r="N52" s="689"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="676" t="s">
+      <c r="D53" s="690" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="676"/>
+      <c r="E53" s="690"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -13382,22 +13403,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="676" t="s">
+      <c r="D54" s="690" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="676"/>
+      <c r="E54" s="690"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="677" t="s">
+      <c r="I54" s="691" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="678"/>
-      <c r="K54" s="679">
+      <c r="J54" s="692"/>
+      <c r="K54" s="693">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="680"/>
+      <c r="L54" s="694"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -13430,11 +13451,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="681">
+      <c r="K56" s="695">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="682"/>
+      <c r="L56" s="696"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -13451,22 +13472,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="659" t="s">
+      <c r="D58" s="673" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="660"/>
+      <c r="E58" s="674"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="661" t="s">
+      <c r="I58" s="675" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="662"/>
-      <c r="K58" s="663">
+      <c r="J58" s="676"/>
+      <c r="K58" s="677">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="663"/>
+      <c r="L58" s="677"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -13610,12 +13631,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -13630,6 +13645,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16090,10 +16111,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="755" t="s">
+      <c r="I76" s="758" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="756"/>
+      <c r="J76" s="759"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -16112,8 +16133,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="757"/>
-      <c r="J77" s="758"/>
+      <c r="I77" s="760"/>
+      <c r="J77" s="761"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -16180,7 +16201,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="721" t="s">
+      <c r="F80" s="724" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -16195,7 +16216,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="722"/>
+      <c r="F81" s="725"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -16203,10 +16224,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="754" t="s">
+      <c r="B82" s="757" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="754"/>
+      <c r="C82" s="757"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -16488,23 +16509,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="683"/>
-      <c r="C1" s="725" t="s">
+      <c r="B1" s="662"/>
+      <c r="C1" s="728" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="726"/>
-      <c r="E1" s="726"/>
-      <c r="F1" s="726"/>
-      <c r="G1" s="726"/>
-      <c r="H1" s="726"/>
-      <c r="I1" s="726"/>
-      <c r="J1" s="726"/>
-      <c r="K1" s="726"/>
-      <c r="L1" s="726"/>
-      <c r="M1" s="726"/>
+      <c r="D1" s="729"/>
+      <c r="E1" s="729"/>
+      <c r="F1" s="729"/>
+      <c r="G1" s="729"/>
+      <c r="H1" s="729"/>
+      <c r="I1" s="729"/>
+      <c r="J1" s="729"/>
+      <c r="K1" s="729"/>
+      <c r="L1" s="729"/>
+      <c r="M1" s="729"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="684"/>
+      <c r="B2" s="663"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -16514,24 +16535,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="687" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="688"/>
+      <c r="B3" s="666" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="667"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="689" t="s">
+      <c r="H3" s="668" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="689"/>
+      <c r="I3" s="668"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="713" t="s">
+      <c r="P3" s="705" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="723" t="s">
+      <c r="R3" s="726" t="s">
         <v>216</v>
       </c>
     </row>
@@ -16546,14 +16567,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="690" t="s">
+      <c r="E4" s="669" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="691"/>
-      <c r="H4" s="692" t="s">
+      <c r="F4" s="670"/>
+      <c r="H4" s="671" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="693"/>
+      <c r="I4" s="672"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -16563,15 +16584,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="714"/>
+      <c r="P4" s="706"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="724"/>
-      <c r="W4" s="696" t="s">
+      <c r="R4" s="727"/>
+      <c r="W4" s="715" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="696"/>
+      <c r="X4" s="715"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16622,8 +16643,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="696"/>
-      <c r="X5" s="696"/>
+      <c r="W5" s="715"/>
+      <c r="X5" s="715"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17386,7 +17407,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="700">
+      <c r="W19" s="719">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -17438,7 +17459,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="701"/>
+      <c r="W20" s="720"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -17487,8 +17508,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="702"/>
-      <c r="X21" s="702"/>
+      <c r="W21" s="721"/>
+      <c r="X21" s="721"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -17588,8 +17609,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="703"/>
-      <c r="X23" s="703"/>
+      <c r="W23" s="722"/>
+      <c r="X23" s="722"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -17644,8 +17665,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="703"/>
-      <c r="X24" s="703"/>
+      <c r="W24" s="722"/>
+      <c r="X24" s="722"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -17693,8 +17714,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="704"/>
-      <c r="X25" s="704"/>
+      <c r="W25" s="723"/>
+      <c r="X25" s="723"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -17743,8 +17764,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="704"/>
-      <c r="X26" s="704"/>
+      <c r="W26" s="723"/>
+      <c r="X26" s="723"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -17792,9 +17813,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="697"/>
-      <c r="X27" s="698"/>
-      <c r="Y27" s="699"/>
+      <c r="W27" s="716"/>
+      <c r="X27" s="717"/>
+      <c r="Y27" s="718"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17842,9 +17863,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="698"/>
-      <c r="X28" s="698"/>
-      <c r="Y28" s="699"/>
+      <c r="W28" s="717"/>
+      <c r="X28" s="717"/>
+      <c r="Y28" s="718"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18176,11 +18197,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="715">
+      <c r="M36" s="707">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="717">
+      <c r="N36" s="709">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -18188,7 +18209,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="750">
+      <c r="Q36" s="753">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -18213,13 +18234,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="716"/>
-      <c r="N37" s="718"/>
+      <c r="M37" s="708"/>
+      <c r="N37" s="710"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="751"/>
+      <c r="Q37" s="754"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -18269,11 +18290,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="752">
+      <c r="M39" s="755">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="753"/>
+      <c r="N39" s="756"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -18901,26 +18922,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="670" t="s">
+      <c r="H68" s="684" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="671"/>
+      <c r="I68" s="685"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="672">
+      <c r="K68" s="686">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="705"/>
+      <c r="L68" s="713"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="676" t="s">
+      <c r="D69" s="690" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="676"/>
+      <c r="E69" s="690"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -18929,22 +18950,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="706" t="s">
+      <c r="D70" s="714" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="706"/>
+      <c r="E70" s="714"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="677" t="s">
+      <c r="I70" s="691" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="678"/>
-      <c r="K70" s="679">
+      <c r="J70" s="692"/>
+      <c r="K70" s="693">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="679"/>
+      <c r="L70" s="693"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -18985,11 +19006,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="681">
+      <c r="K72" s="695">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="682"/>
+      <c r="L72" s="696"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -19006,22 +19027,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="659" t="s">
+      <c r="D74" s="673" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="660"/>
+      <c r="E74" s="674"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="661" t="s">
+      <c r="I74" s="675" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="662"/>
-      <c r="K74" s="663">
+      <c r="J74" s="676"/>
+      <c r="K74" s="677">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="663"/>
+      <c r="L74" s="677"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -19168,21 +19189,6 @@
     <sortCondition ref="B34:B42"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -19198,6 +19204,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21465,7 +21486,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="721" t="s">
+      <c r="F80" s="724" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -21478,7 +21499,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="722"/>
+      <c r="F81" s="725"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -21498,10 +21519,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="759" t="s">
+      <c r="I83" s="762" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="760"/>
+      <c r="J83" s="763"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="514" t="s">
@@ -21510,8 +21531,8 @@
       <c r="B84" s="515"/>
       <c r="C84" s="516"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="761"/>
-      <c r="J84" s="762"/>
+      <c r="I84" s="764"/>
+      <c r="J84" s="765"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -21753,8 +21774,8 @@
   </sheetPr>
   <dimension ref="A1:Z98"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="I77" sqref="I77"/>
+    <sheetView topLeftCell="J19" workbookViewId="0">
+      <selection activeCell="P44" sqref="P44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -21783,23 +21804,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="683"/>
-      <c r="C1" s="725" t="s">
+      <c r="B1" s="662"/>
+      <c r="C1" s="728" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="726"/>
-      <c r="E1" s="726"/>
-      <c r="F1" s="726"/>
-      <c r="G1" s="726"/>
-      <c r="H1" s="726"/>
-      <c r="I1" s="726"/>
-      <c r="J1" s="726"/>
-      <c r="K1" s="726"/>
-      <c r="L1" s="726"/>
-      <c r="M1" s="726"/>
+      <c r="D1" s="729"/>
+      <c r="E1" s="729"/>
+      <c r="F1" s="729"/>
+      <c r="G1" s="729"/>
+      <c r="H1" s="729"/>
+      <c r="I1" s="729"/>
+      <c r="J1" s="729"/>
+      <c r="K1" s="729"/>
+      <c r="L1" s="729"/>
+      <c r="M1" s="729"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="684"/>
+      <c r="B2" s="663"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -21809,24 +21830,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="687" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="688"/>
+      <c r="B3" s="666" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="667"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="689" t="s">
+      <c r="H3" s="668" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="689"/>
+      <c r="I3" s="668"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="713" t="s">
+      <c r="P3" s="705" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="723" t="s">
+      <c r="R3" s="726" t="s">
         <v>216</v>
       </c>
     </row>
@@ -21841,14 +21862,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="690" t="s">
+      <c r="E4" s="669" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="691"/>
-      <c r="H4" s="692" t="s">
+      <c r="F4" s="670"/>
+      <c r="H4" s="671" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="693"/>
+      <c r="I4" s="672"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -21858,15 +21879,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="714"/>
+      <c r="P4" s="706"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="724"/>
-      <c r="W4" s="696" t="s">
+      <c r="R4" s="727"/>
+      <c r="W4" s="715" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="696"/>
+      <c r="X4" s="715"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21917,8 +21938,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="696"/>
-      <c r="X5" s="696"/>
+      <c r="W5" s="715"/>
+      <c r="X5" s="715"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22677,7 +22698,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="700">
+      <c r="W19" s="719">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -22729,7 +22750,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="701"/>
+      <c r="W20" s="720"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -22778,8 +22799,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="702"/>
-      <c r="X21" s="702"/>
+      <c r="W21" s="721"/>
+      <c r="X21" s="721"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -22876,8 +22897,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="703"/>
-      <c r="X23" s="703"/>
+      <c r="W23" s="722"/>
+      <c r="X23" s="722"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -22932,8 +22953,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="703"/>
-      <c r="X24" s="703"/>
+      <c r="W24" s="722"/>
+      <c r="X24" s="722"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -22979,8 +23000,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="704"/>
-      <c r="X25" s="704"/>
+      <c r="W25" s="723"/>
+      <c r="X25" s="723"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -23031,8 +23052,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="704"/>
-      <c r="X26" s="704"/>
+      <c r="W26" s="723"/>
+      <c r="X26" s="723"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -23083,9 +23104,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="697"/>
-      <c r="X27" s="698"/>
-      <c r="Y27" s="699"/>
+      <c r="W27" s="716"/>
+      <c r="X27" s="717"/>
+      <c r="Y27" s="718"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23135,9 +23156,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="698"/>
-      <c r="X28" s="698"/>
-      <c r="Y28" s="699"/>
+      <c r="W28" s="717"/>
+      <c r="X28" s="717"/>
+      <c r="Y28" s="718"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23741,11 +23762,11 @@
       <c r="L41" s="627">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="715">
+      <c r="M41" s="707">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="715">
+      <c r="N41" s="707">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -23753,7 +23774,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="763">
+      <c r="Q41" s="766">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -23783,10 +23804,10 @@
       <c r="L42" s="630">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="716"/>
-      <c r="N42" s="716"/>
+      <c r="M42" s="708"/>
+      <c r="N42" s="708"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="764"/>
+      <c r="Q42" s="767"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -23874,11 +23895,11 @@
       <c r="L45" s="627">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="765">
+      <c r="M45" s="768">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="766"/>
+      <c r="N45" s="769"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -24471,26 +24492,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="670" t="s">
+      <c r="H70" s="684" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="671"/>
+      <c r="I70" s="685"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="672">
+      <c r="K70" s="686">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="705"/>
+      <c r="L70" s="713"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="676" t="s">
+      <c r="D71" s="690" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="676"/>
+      <c r="E71" s="690"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -24500,22 +24521,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="706" t="s">
+      <c r="D72" s="714" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="706"/>
+      <c r="E72" s="714"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="677" t="s">
+      <c r="I72" s="691" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="678"/>
-      <c r="K72" s="679">
+      <c r="J72" s="692"/>
+      <c r="K72" s="693">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="679"/>
+      <c r="L72" s="693"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -24556,11 +24577,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="681">
+      <c r="K74" s="695">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="682"/>
+      <c r="L74" s="696"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -24579,22 +24600,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="659" t="s">
+      <c r="D76" s="673" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="660"/>
+      <c r="E76" s="674"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="661" t="s">
+      <c r="I76" s="675" t="s">
         <v>854</v>
       </c>
-      <c r="J76" s="662"/>
-      <c r="K76" s="663">
+      <c r="J76" s="676"/>
+      <c r="K76" s="677">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="663"/>
+      <c r="L76" s="677"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -24754,21 +24775,6 @@
     <sortCondition ref="J47:J67"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -24784,6 +24790,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -24800,7 +24821,7 @@
   <dimension ref="A1:N130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
@@ -27299,7 +27320,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="721" t="s">
+      <c r="F90" s="724" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -27312,7 +27333,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="722"/>
+      <c r="F91" s="725"/>
       <c r="K91" s="1"/>
       <c r="L91" s="97"/>
       <c r="M91" s="3"/>
@@ -27331,10 +27352,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="759" t="s">
+      <c r="I93" s="762" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="760"/>
+      <c r="J93" s="763"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -27344,8 +27365,8 @@
       <c r="C94" s="518"/>
       <c r="D94" s="519"/>
       <c r="E94" s="520"/>
-      <c r="I94" s="761"/>
-      <c r="J94" s="762"/>
+      <c r="I94" s="764"/>
+      <c r="J94" s="765"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -27766,11 +27787,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="767">
+      <c r="C130" s="770">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="768"/>
+      <c r="D130" s="771"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -27806,21 +27827,21 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="773" t="s">
+      <c r="F2" s="776" t="s">
         <v>752</v>
       </c>
-      <c r="G2" s="774"/>
-      <c r="H2" s="775"/>
+      <c r="G2" s="777"/>
+      <c r="H2" s="778"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="770" t="s">
+      <c r="B3" s="773" t="s">
         <v>748</v>
       </c>
-      <c r="C3" s="771"/>
-      <c r="D3" s="772"/>
-      <c r="F3" s="776"/>
-      <c r="G3" s="777"/>
-      <c r="H3" s="778"/>
+      <c r="C3" s="774"/>
+      <c r="D3" s="775"/>
+      <c r="F3" s="779"/>
+      <c r="G3" s="780"/>
+      <c r="H3" s="781"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="526" t="s">
@@ -27965,11 +27986,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="779">
+      <c r="G11" s="782">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="780"/>
+      <c r="H11" s="783"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="532" t="s">
@@ -27986,23 +28007,23 @@
       <c r="C14" s="532"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="783" t="s">
+      <c r="C15" s="786" t="s">
         <v>750</v>
       </c>
-      <c r="D15" s="781">
+      <c r="D15" s="784">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="784"/>
-      <c r="D16" s="782"/>
+      <c r="C16" s="787"/>
+      <c r="D16" s="785"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="769" t="s">
+      <c r="C17" s="772" t="s">
         <v>753</v>
       </c>
-      <c r="D17" s="769"/>
+      <c r="D17" s="772"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -28027,10 +28048,10 @@
   <dimension ref="A1:Z91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="F17" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E57" sqref="E57"/>
+      <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -28060,23 +28081,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="683"/>
-      <c r="C1" s="725" t="s">
+      <c r="B1" s="662"/>
+      <c r="C1" s="728" t="s">
         <v>754</v>
       </c>
-      <c r="D1" s="726"/>
-      <c r="E1" s="726"/>
-      <c r="F1" s="726"/>
-      <c r="G1" s="726"/>
-      <c r="H1" s="726"/>
-      <c r="I1" s="726"/>
-      <c r="J1" s="726"/>
-      <c r="K1" s="726"/>
-      <c r="L1" s="726"/>
-      <c r="M1" s="726"/>
+      <c r="D1" s="729"/>
+      <c r="E1" s="729"/>
+      <c r="F1" s="729"/>
+      <c r="G1" s="729"/>
+      <c r="H1" s="729"/>
+      <c r="I1" s="729"/>
+      <c r="J1" s="729"/>
+      <c r="K1" s="729"/>
+      <c r="L1" s="729"/>
+      <c r="M1" s="729"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="684"/>
+      <c r="B2" s="663"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -28086,24 +28107,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="687" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="688"/>
+      <c r="B3" s="666" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="667"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="689" t="s">
+      <c r="H3" s="668" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="689"/>
+      <c r="I3" s="668"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="713" t="s">
+      <c r="P3" s="705" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="723" t="s">
+      <c r="R3" s="726" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -28122,14 +28143,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="690" t="s">
+      <c r="E4" s="669" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="691"/>
-      <c r="H4" s="692" t="s">
+      <c r="F4" s="670"/>
+      <c r="H4" s="671" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="693"/>
+      <c r="I4" s="672"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -28139,11 +28160,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="714"/>
+      <c r="P4" s="706"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="724"/>
+      <c r="R4" s="727"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
       <c r="W4" s="788"/>
@@ -29077,8 +29098,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="702"/>
-      <c r="X21" s="702"/>
+      <c r="W21" s="721"/>
+      <c r="X21" s="721"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -29189,8 +29210,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="703"/>
-      <c r="X23" s="703"/>
+      <c r="W23" s="722"/>
+      <c r="X23" s="722"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -29251,8 +29272,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="703"/>
-      <c r="X24" s="703"/>
+      <c r="W24" s="722"/>
+      <c r="X24" s="722"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -29305,8 +29326,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="704"/>
-      <c r="X25" s="704"/>
+      <c r="W25" s="723"/>
+      <c r="X25" s="723"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -29361,8 +29382,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="704"/>
-      <c r="X26" s="704"/>
+      <c r="W26" s="723"/>
+      <c r="X26" s="723"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -29417,9 +29438,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="697"/>
-      <c r="X27" s="698"/>
-      <c r="Y27" s="699"/>
+      <c r="W27" s="716"/>
+      <c r="X27" s="717"/>
+      <c r="Y27" s="718"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29473,9 +29494,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="698"/>
-      <c r="X28" s="698"/>
-      <c r="Y28" s="699"/>
+      <c r="W28" s="717"/>
+      <c r="X28" s="717"/>
+      <c r="Y28" s="718"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30066,11 +30087,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="715">
+      <c r="M41" s="707">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="715">
+      <c r="N41" s="707">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -30078,7 +30099,7 @@
         <f>SUM(P5:P40)</f>
         <v>4043205.8900000006</v>
       </c>
-      <c r="Q41" s="763">
+      <c r="Q41" s="766">
         <f>SUM(Q5:Q40)</f>
         <v>890559.8899999999</v>
       </c>
@@ -30102,10 +30123,10 @@
       <c r="L42" s="641">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="716"/>
-      <c r="N42" s="716"/>
+      <c r="M42" s="708"/>
+      <c r="N42" s="708"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="764"/>
+      <c r="Q42" s="767"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -30174,11 +30195,11 @@
       <c r="L45" s="619">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="765">
+      <c r="M45" s="768">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="766"/>
+      <c r="N45" s="769"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -30594,26 +30615,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="670" t="s">
+      <c r="H63" s="684" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="671"/>
+      <c r="I63" s="685"/>
       <c r="J63" s="562"/>
-      <c r="K63" s="785">
+      <c r="K63" s="791">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="786"/>
+      <c r="L63" s="792"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="676" t="s">
+      <c r="D64" s="690" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="676"/>
+      <c r="E64" s="690"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -30622,22 +30643,22 @@
       <c r="J64" s="563"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="706" t="s">
+      <c r="D65" s="714" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="706"/>
+      <c r="E65" s="714"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="677" t="s">
+      <c r="I65" s="691" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="678"/>
-      <c r="K65" s="679">
+      <c r="J65" s="692"/>
+      <c r="K65" s="693">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="679"/>
+      <c r="L65" s="693"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="582"/>
@@ -30678,11 +30699,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="787">
+      <c r="K67" s="790">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="679"/>
+      <c r="L67" s="693"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -30699,22 +30720,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="659" t="s">
+      <c r="D69" s="673" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="660"/>
+      <c r="E69" s="674"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="661" t="s">
+      <c r="I69" s="675" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="662"/>
-      <c r="K69" s="663">
+      <c r="J69" s="676"/>
+      <c r="K69" s="677">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="663"/>
+      <c r="L69" s="677"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -30861,6 +30882,21 @@
     <sortCondition ref="J42:J56"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -30876,21 +30912,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -32864,7 +32885,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="721" t="s">
+      <c r="F71" s="724" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -32877,7 +32898,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="722"/>
+      <c r="F72" s="725"/>
       <c r="K72" s="1"/>
       <c r="L72" s="97"/>
       <c r="M72" s="3"/>
@@ -32896,10 +32917,10 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="759" t="s">
+      <c r="I74" s="762" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="760"/>
+      <c r="J74" s="763"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
@@ -32910,8 +32931,8 @@
       <c r="F75" s="111">
         <v>2520</v>
       </c>
-      <c r="I75" s="761"/>
-      <c r="J75" s="762"/>
+      <c r="I75" s="764"/>
+      <c r="J75" s="765"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
@@ -33058,11 +33079,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="792" t="s">
+      <c r="A89" s="795" t="s">
         <v>806</v>
       </c>
-      <c r="B89" s="793"/>
-      <c r="C89" s="793"/>
+      <c r="B89" s="796"/>
+      <c r="C89" s="796"/>
       <c r="E89"/>
       <c r="F89" s="233"/>
       <c r="I89"/>
@@ -33072,10 +33093,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="794" t="s">
+      <c r="B90" s="797" t="s">
         <v>807</v>
       </c>
-      <c r="C90" s="795"/>
+      <c r="C90" s="798"/>
       <c r="E90"/>
       <c r="F90" s="233"/>
       <c r="I90"/>
@@ -33176,7 +33197,7 @@
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97"/>
-      <c r="C97" s="790">
+      <c r="C97" s="793">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -33190,7 +33211,7 @@
       <c r="B98" s="513" t="s">
         <v>885</v>
       </c>
-      <c r="C98" s="791"/>
+      <c r="C98" s="794"/>
       <c r="E98"/>
       <c r="F98" s="127"/>
       <c r="J98" s="194"/>
@@ -33255,8 +33276,8 @@
   </sheetPr>
   <dimension ref="A1:Z91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -33286,23 +33307,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="683"/>
-      <c r="C1" s="725" t="s">
+      <c r="B1" s="662"/>
+      <c r="C1" s="728" t="s">
         <v>886</v>
       </c>
-      <c r="D1" s="726"/>
-      <c r="E1" s="726"/>
-      <c r="F1" s="726"/>
-      <c r="G1" s="726"/>
-      <c r="H1" s="726"/>
-      <c r="I1" s="726"/>
-      <c r="J1" s="726"/>
-      <c r="K1" s="726"/>
-      <c r="L1" s="726"/>
-      <c r="M1" s="726"/>
+      <c r="D1" s="729"/>
+      <c r="E1" s="729"/>
+      <c r="F1" s="729"/>
+      <c r="G1" s="729"/>
+      <c r="H1" s="729"/>
+      <c r="I1" s="729"/>
+      <c r="J1" s="729"/>
+      <c r="K1" s="729"/>
+      <c r="L1" s="729"/>
+      <c r="M1" s="729"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="684"/>
+      <c r="B2" s="663"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -33312,24 +33333,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="687" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="688"/>
+      <c r="B3" s="666" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="667"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="689" t="s">
+      <c r="H3" s="668" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="689"/>
+      <c r="I3" s="668"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="713" t="s">
+      <c r="P3" s="705" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="723" t="s">
+      <c r="R3" s="726" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -33348,14 +33369,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="690" t="s">
+      <c r="E4" s="669" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="691"/>
-      <c r="H4" s="692" t="s">
+      <c r="F4" s="670"/>
+      <c r="H4" s="671" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="693"/>
+      <c r="I4" s="672"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -33365,11 +33386,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="714"/>
+      <c r="P4" s="706"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="724"/>
+      <c r="R4" s="727"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
       <c r="W4" s="788"/>
@@ -33411,7 +33432,7 @@
       <c r="N5" s="33">
         <v>37265</v>
       </c>
-      <c r="O5" s="798" t="s">
+      <c r="O5" s="661" t="s">
         <v>905</v>
       </c>
       <c r="P5" s="34">
@@ -33466,7 +33487,7 @@
       <c r="N6" s="33">
         <v>18266</v>
       </c>
-      <c r="O6" s="798" t="s">
+      <c r="O6" s="661" t="s">
         <v>905</v>
       </c>
       <c r="P6" s="39">
@@ -33521,7 +33542,7 @@
       <c r="N7" s="33">
         <v>44301</v>
       </c>
-      <c r="O7" s="798" t="s">
+      <c r="O7" s="661" t="s">
         <v>905</v>
       </c>
       <c r="P7" s="39">
@@ -33575,7 +33596,7 @@
       <c r="N8" s="33">
         <v>26720</v>
       </c>
-      <c r="O8" s="798" t="s">
+      <c r="O8" s="661" t="s">
         <v>905</v>
       </c>
       <c r="P8" s="39">
@@ -33630,7 +33651,7 @@
       <c r="N9" s="33">
         <v>37301</v>
       </c>
-      <c r="O9" s="798" t="s">
+      <c r="O9" s="661" t="s">
         <v>905</v>
       </c>
       <c r="P9" s="39">
@@ -33691,7 +33712,7 @@
       <c r="N10" s="33">
         <v>42627</v>
       </c>
-      <c r="O10" s="798" t="s">
+      <c r="O10" s="661" t="s">
         <v>905</v>
       </c>
       <c r="P10" s="39">
@@ -33746,6 +33767,9 @@
       <c r="N11" s="33">
         <v>26288</v>
       </c>
+      <c r="O11" s="661" t="s">
+        <v>905</v>
+      </c>
       <c r="P11" s="39">
         <f t="shared" si="1"/>
         <v>85270</v>
@@ -33770,29 +33794,40 @@
       <c r="B12" s="24">
         <v>44718</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="35"/>
+      <c r="C12" s="25">
+        <v>19447</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>914</v>
+      </c>
       <c r="E12" s="27">
         <v>44718</v>
       </c>
-      <c r="F12" s="28"/>
+      <c r="F12" s="28">
+        <v>114299</v>
+      </c>
       <c r="G12" s="575"/>
       <c r="H12" s="29">
         <v>44718</v>
       </c>
-      <c r="I12" s="30"/>
+      <c r="I12" s="30">
+        <v>2475</v>
+      </c>
       <c r="J12" s="37"/>
       <c r="K12" s="169"/>
       <c r="L12" s="39"/>
       <c r="M12" s="32">
-        <v>0</v>
+        <v>38582</v>
       </c>
       <c r="N12" s="33">
-        <v>0</v>
+        <v>53795</v>
+      </c>
+      <c r="O12" s="661" t="s">
+        <v>905</v>
       </c>
       <c r="P12" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>114299</v>
       </c>
       <c r="Q12" s="325">
         <f t="shared" si="0"/>
@@ -33814,29 +33849,40 @@
       <c r="B13" s="24">
         <v>44719</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="42"/>
+      <c r="C13" s="25">
+        <v>11837</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>915</v>
+      </c>
       <c r="E13" s="27">
         <v>44719</v>
       </c>
-      <c r="F13" s="28"/>
+      <c r="F13" s="28">
+        <v>112515</v>
+      </c>
       <c r="G13" s="575"/>
       <c r="H13" s="29">
         <v>44719</v>
       </c>
-      <c r="I13" s="30"/>
+      <c r="I13" s="30">
+        <v>500</v>
+      </c>
       <c r="J13" s="37"/>
       <c r="K13" s="38"/>
       <c r="L13" s="39"/>
       <c r="M13" s="32">
-        <v>0</v>
+        <v>58184</v>
       </c>
       <c r="N13" s="33">
-        <v>0</v>
+        <v>41994</v>
+      </c>
+      <c r="O13" s="661" t="s">
+        <v>905</v>
       </c>
       <c r="P13" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>112515</v>
       </c>
       <c r="Q13" s="325">
         <f t="shared" si="0"/>
@@ -33858,29 +33904,41 @@
       <c r="B14" s="24">
         <v>44720</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="40"/>
+      <c r="C14" s="25">
+        <v>2748</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>112</v>
+      </c>
       <c r="E14" s="27">
         <v>44720</v>
       </c>
-      <c r="F14" s="28"/>
+      <c r="F14" s="28">
+        <v>83273</v>
+      </c>
       <c r="G14" s="575"/>
       <c r="H14" s="29">
         <v>44720</v>
       </c>
-      <c r="I14" s="30"/>
+      <c r="I14" s="30">
+        <v>3968</v>
+      </c>
       <c r="J14" s="37"/>
       <c r="K14" s="38"/>
       <c r="L14" s="39"/>
       <c r="M14" s="32">
-        <v>0</v>
+        <f>4201+45730</f>
+        <v>49931</v>
       </c>
       <c r="N14" s="33">
-        <v>0</v>
+        <v>26626</v>
+      </c>
+      <c r="O14" s="799" t="s">
+        <v>916</v>
       </c>
       <c r="P14" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>83273</v>
       </c>
       <c r="Q14" s="325">
         <f t="shared" si="0"/>
@@ -33901,33 +33959,44 @@
       <c r="B15" s="24">
         <v>44721</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="40"/>
+      <c r="C15" s="25">
+        <v>19937</v>
+      </c>
+      <c r="D15" s="40" t="s">
+        <v>917</v>
+      </c>
       <c r="E15" s="27">
         <v>44721</v>
       </c>
-      <c r="F15" s="28"/>
+      <c r="F15" s="28">
+        <v>100184</v>
+      </c>
       <c r="G15" s="575"/>
       <c r="H15" s="29">
         <v>44721</v>
       </c>
-      <c r="I15" s="30"/>
+      <c r="I15" s="30">
+        <v>58</v>
+      </c>
       <c r="J15" s="37"/>
       <c r="K15" s="38"/>
       <c r="L15" s="39"/>
       <c r="M15" s="32">
-        <v>0</v>
+        <v>44700</v>
       </c>
       <c r="N15" s="33">
-        <v>0</v>
+        <v>35493</v>
+      </c>
+      <c r="O15" s="800" t="s">
+        <v>918</v>
       </c>
       <c r="P15" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100188</v>
       </c>
       <c r="Q15" s="325">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R15" s="319">
         <v>0</v>
@@ -34193,8 +34262,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="702"/>
-      <c r="X21" s="702"/>
+      <c r="W21" s="721"/>
+      <c r="X21" s="721"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -34281,8 +34350,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="703"/>
-      <c r="X23" s="703"/>
+      <c r="W23" s="722"/>
+      <c r="X23" s="722"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -34325,8 +34394,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="703"/>
-      <c r="X24" s="703"/>
+      <c r="W24" s="722"/>
+      <c r="X24" s="722"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -34368,8 +34437,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="704"/>
-      <c r="X25" s="704"/>
+      <c r="W25" s="723"/>
+      <c r="X25" s="723"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -34413,8 +34482,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="704"/>
-      <c r="X26" s="704"/>
+      <c r="W26" s="723"/>
+      <c r="X26" s="723"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -34458,9 +34527,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="697"/>
-      <c r="X27" s="698"/>
-      <c r="Y27" s="699"/>
+      <c r="W27" s="716"/>
+      <c r="X27" s="717"/>
+      <c r="Y27" s="718"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34503,9 +34572,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="698"/>
-      <c r="X28" s="698"/>
-      <c r="Y28" s="699"/>
+      <c r="W28" s="717"/>
+      <c r="X28" s="717"/>
+      <c r="Y28" s="718"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34837,7 +34906,7 @@
       <c r="N36" s="33">
         <v>0</v>
       </c>
-      <c r="O36" s="796"/>
+      <c r="O36" s="659"/>
       <c r="P36" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -34880,7 +34949,7 @@
       <c r="N37" s="33">
         <v>0</v>
       </c>
-      <c r="O37" s="796"/>
+      <c r="O37" s="659"/>
       <c r="P37" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -34968,7 +35037,7 @@
         <v>0</v>
       </c>
       <c r="Q39" s="111">
-        <f t="shared" ref="Q6:Q40" si="2">P39-F39</f>
+        <f t="shared" ref="Q39:Q40" si="2">P39-F39</f>
         <v>0</v>
       </c>
       <c r="R39" s="319">
@@ -35029,21 +35098,21 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="715">
+      <c r="M41" s="707">
         <f>SUM(M5:M40)</f>
-        <v>389942.5</v>
-      </c>
-      <c r="N41" s="715">
+        <v>581339.5</v>
+      </c>
+      <c r="N41" s="707">
         <f>SUM(N5:N40)</f>
-        <v>232768</v>
+        <v>390676</v>
       </c>
       <c r="P41" s="506">
         <f>SUM(P5:P40)</f>
-        <v>764496.55</v>
-      </c>
-      <c r="Q41" s="763">
+        <v>1174771.55</v>
+      </c>
+      <c r="Q41" s="766">
         <f>SUM(Q5:Q40)</f>
-        <v>-0.44999999999708962</v>
+        <v>3.5500000000029104</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -35059,10 +35128,10 @@
       <c r="J42" s="51"/>
       <c r="K42" s="173"/>
       <c r="L42" s="52"/>
-      <c r="M42" s="716"/>
-      <c r="N42" s="716"/>
+      <c r="M42" s="708"/>
+      <c r="N42" s="708"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="764"/>
+      <c r="Q42" s="767"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -35113,11 +35182,11 @@
       <c r="J45" s="56"/>
       <c r="K45" s="38"/>
       <c r="L45" s="39"/>
-      <c r="M45" s="765">
+      <c r="M45" s="768">
         <f>M41+N41</f>
-        <v>622710.5</v>
-      </c>
-      <c r="N45" s="766"/>
+        <v>972015.5</v>
+      </c>
+      <c r="N45" s="769"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -35398,7 +35467,7 @@
       </c>
       <c r="C61" s="87">
         <f>SUM(C5:C60)</f>
-        <v>105239.5</v>
+        <v>159208.5</v>
       </c>
       <c r="D61" s="88"/>
       <c r="E61" s="91" t="s">
@@ -35406,7 +35475,7 @@
       </c>
       <c r="F61" s="90">
         <f>SUM(F5:F60)</f>
-        <v>735732</v>
+        <v>1146003</v>
       </c>
       <c r="G61" s="576"/>
       <c r="H61" s="91" t="s">
@@ -35414,7 +35483,7 @@
       </c>
       <c r="I61" s="92">
         <f>SUM(I5:I60)</f>
-        <v>18646</v>
+        <v>25647</v>
       </c>
       <c r="J61" s="93"/>
       <c r="K61" s="94" t="s">
@@ -35440,53 +35509,53 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="670" t="s">
+      <c r="H63" s="684" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="671"/>
+      <c r="I63" s="685"/>
       <c r="J63" s="562"/>
-      <c r="K63" s="785">
+      <c r="K63" s="791">
         <f>I61+L61</f>
-        <v>55538.92</v>
-      </c>
-      <c r="L63" s="786"/>
+        <v>62539.92</v>
+      </c>
+      <c r="L63" s="792"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="676" t="s">
+      <c r="D64" s="690" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="676"/>
+      <c r="E64" s="690"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
-        <v>574953.57999999996</v>
+        <v>924254.58000000007</v>
       </c>
       <c r="I64" s="102"/>
       <c r="J64" s="563"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="706" t="s">
+      <c r="D65" s="714" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="706"/>
+      <c r="E65" s="714"/>
       <c r="F65" s="111">
         <v>0</v>
       </c>
-      <c r="I65" s="677" t="s">
+      <c r="I65" s="691" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="678"/>
-      <c r="K65" s="679">
+      <c r="J65" s="692"/>
+      <c r="K65" s="693">
         <f>F67+F68+F69</f>
-        <v>574953.57999999996</v>
-      </c>
-      <c r="L65" s="679"/>
+        <v>924254.58000000007</v>
+      </c>
+      <c r="L65" s="693"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
-      <c r="O65" s="797"/>
+      <c r="O65" s="660"/>
       <c r="P65" s="404"/>
       <c r="Q65" s="404"/>
     </row>
@@ -35504,7 +35573,7 @@
       <c r="L66" s="154"/>
       <c r="M66" s="404"/>
       <c r="N66" s="404"/>
-      <c r="O66" s="797"/>
+      <c r="O66" s="660"/>
       <c r="P66" s="404"/>
       <c r="Q66" s="404"/>
     </row>
@@ -35517,18 +35586,18 @@
       </c>
       <c r="F67" s="96">
         <f>SUM(F64:F66)</f>
-        <v>574953.57999999996</v>
+        <v>924254.58000000007</v>
       </c>
       <c r="H67" s="558"/>
       <c r="I67" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="787">
+      <c r="K67" s="790">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L67" s="679"/>
+      <c r="L67" s="693"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -35543,22 +35612,22 @@
     </row>
     <row r="69" spans="2:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C69" s="112"/>
-      <c r="D69" s="659" t="s">
+      <c r="D69" s="673" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="660"/>
+      <c r="E69" s="674"/>
       <c r="F69" s="113">
         <v>0</v>
       </c>
-      <c r="I69" s="661" t="s">
+      <c r="I69" s="675" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="662"/>
-      <c r="K69" s="663">
+      <c r="J69" s="676"/>
+      <c r="K69" s="677">
         <f>K65+K67</f>
-        <v>-1972028.58</v>
-      </c>
-      <c r="L69" s="663"/>
+        <v>-1622727.58</v>
+      </c>
+      <c r="L69" s="677"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -35702,26 +35771,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="I69:J69"/>
     <mergeCell ref="K69:L69"/>
@@ -35732,6 +35781,26 @@
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="I65:J65"/>
     <mergeCell ref="K65:L65"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -37232,10 +37301,10 @@
         <f>SUM(F3:F66)</f>
         <v>818494.5</v>
       </c>
-      <c r="H67" s="759" t="s">
+      <c r="H67" s="762" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="760"/>
+      <c r="I67" s="763"/>
       <c r="J67" s="647">
         <f>SUM(J3:J66)</f>
         <v>0</v>
@@ -37255,11 +37324,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="721" t="s">
+      <c r="F68" s="724" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="761"/>
-      <c r="I68" s="762"/>
+      <c r="H68" s="764"/>
+      <c r="I68" s="765"/>
       <c r="J68" s="1"/>
       <c r="K68" s="97"/>
       <c r="L68" s="3"/>
@@ -37270,7 +37339,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="722"/>
+      <c r="F69" s="725"/>
       <c r="J69" s="1"/>
       <c r="K69" s="97"/>
       <c r="L69" s="3"/>
@@ -39210,7 +39279,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="694" t="s">
+      <c r="B41" s="697" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -39242,7 +39311,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="695"/>
+      <c r="B42" s="698"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -40862,23 +40931,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="683"/>
-      <c r="C1" s="685" t="s">
+      <c r="B1" s="662"/>
+      <c r="C1" s="664" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="686"/>
-      <c r="E1" s="686"/>
-      <c r="F1" s="686"/>
-      <c r="G1" s="686"/>
-      <c r="H1" s="686"/>
-      <c r="I1" s="686"/>
-      <c r="J1" s="686"/>
-      <c r="K1" s="686"/>
-      <c r="L1" s="686"/>
-      <c r="M1" s="686"/>
+      <c r="D1" s="665"/>
+      <c r="E1" s="665"/>
+      <c r="F1" s="665"/>
+      <c r="G1" s="665"/>
+      <c r="H1" s="665"/>
+      <c r="I1" s="665"/>
+      <c r="J1" s="665"/>
+      <c r="K1" s="665"/>
+      <c r="L1" s="665"/>
+      <c r="M1" s="665"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="684"/>
+      <c r="B2" s="663"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -40888,21 +40957,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="687" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="688"/>
+      <c r="B3" s="666" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="667"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="689" t="s">
+      <c r="H3" s="668" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="689"/>
+      <c r="I3" s="668"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="713" t="s">
+      <c r="P3" s="705" t="s">
         <v>6</v>
       </c>
     </row>
@@ -40917,14 +40986,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="690" t="s">
+      <c r="E4" s="669" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="691"/>
-      <c r="H4" s="692" t="s">
+      <c r="F4" s="670"/>
+      <c r="H4" s="671" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="693"/>
+      <c r="I4" s="672"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -40934,14 +41003,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="714"/>
+      <c r="P4" s="706"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="696" t="s">
+      <c r="W4" s="715" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="696"/>
+      <c r="X4" s="715"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -40992,8 +41061,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="696"/>
-      <c r="X5" s="696"/>
+      <c r="W5" s="715"/>
+      <c r="X5" s="715"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -41764,7 +41833,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="700">
+      <c r="W19" s="719">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -41816,7 +41885,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="701"/>
+      <c r="W20" s="720"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -41865,8 +41934,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="702"/>
-      <c r="X21" s="702"/>
+      <c r="W21" s="721"/>
+      <c r="X21" s="721"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -41967,8 +42036,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="703"/>
-      <c r="X23" s="703"/>
+      <c r="W23" s="722"/>
+      <c r="X23" s="722"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -42022,8 +42091,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="703"/>
-      <c r="X24" s="703"/>
+      <c r="W24" s="722"/>
+      <c r="X24" s="722"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -42069,8 +42138,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="704"/>
-      <c r="X25" s="704"/>
+      <c r="W25" s="723"/>
+      <c r="X25" s="723"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -42121,8 +42190,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="704"/>
-      <c r="X26" s="704"/>
+      <c r="W26" s="723"/>
+      <c r="X26" s="723"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -42170,9 +42239,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="697"/>
-      <c r="X27" s="698"/>
-      <c r="Y27" s="699"/>
+      <c r="W27" s="716"/>
+      <c r="X27" s="717"/>
+      <c r="Y27" s="718"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42222,9 +42291,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="698"/>
-      <c r="X28" s="698"/>
-      <c r="Y28" s="699"/>
+      <c r="W28" s="717"/>
+      <c r="X28" s="717"/>
+      <c r="Y28" s="718"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42559,11 +42628,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="715">
+      <c r="M36" s="707">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="717">
+      <c r="N36" s="709">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -42571,7 +42640,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="719">
+      <c r="Q36" s="711">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -42606,13 +42675,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="716"/>
-      <c r="N37" s="718"/>
+      <c r="M37" s="708"/>
+      <c r="N37" s="710"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="720"/>
+      <c r="Q37" s="712"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -42902,26 +42971,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="670" t="s">
+      <c r="H52" s="684" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="671"/>
+      <c r="I52" s="685"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="672">
+      <c r="K52" s="686">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="705"/>
+      <c r="L52" s="713"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="676" t="s">
+      <c r="D53" s="690" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="676"/>
+      <c r="E53" s="690"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -42930,29 +42999,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="706" t="s">
+      <c r="D54" s="714" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="706"/>
+      <c r="E54" s="714"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="677" t="s">
+      <c r="I54" s="691" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="678"/>
-      <c r="K54" s="679">
+      <c r="J54" s="692"/>
+      <c r="K54" s="693">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="679"/>
-      <c r="M54" s="707" t="s">
+      <c r="L54" s="693"/>
+      <c r="M54" s="699" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="708"/>
-      <c r="O54" s="708"/>
-      <c r="P54" s="708"/>
-      <c r="Q54" s="709"/>
+      <c r="N54" s="700"/>
+      <c r="O54" s="700"/>
+      <c r="P54" s="700"/>
+      <c r="Q54" s="701"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -42966,11 +43035,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="710"/>
-      <c r="N55" s="711"/>
-      <c r="O55" s="711"/>
-      <c r="P55" s="711"/>
-      <c r="Q55" s="712"/>
+      <c r="M55" s="702"/>
+      <c r="N55" s="703"/>
+      <c r="O55" s="703"/>
+      <c r="P55" s="703"/>
+      <c r="Q55" s="704"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -42988,11 +43057,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="681">
+      <c r="K56" s="695">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="682"/>
+      <c r="L56" s="696"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -43009,22 +43078,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="659" t="s">
+      <c r="D58" s="673" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="660"/>
+      <c r="E58" s="674"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="661" t="s">
+      <c r="I58" s="675" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="662"/>
-      <c r="K58" s="663">
+      <c r="J58" s="676"/>
+      <c r="K58" s="677">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="663"/>
+      <c r="L58" s="677"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -43168,17 +43237,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -43189,14 +43255,17 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -45614,7 +45683,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="721" t="s">
+      <c r="F87" s="724" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -45627,7 +45696,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="722"/>
+      <c r="F88" s="725"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -45939,23 +46008,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="683"/>
-      <c r="C1" s="685" t="s">
+      <c r="B1" s="662"/>
+      <c r="C1" s="664" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="686"/>
-      <c r="E1" s="686"/>
-      <c r="F1" s="686"/>
-      <c r="G1" s="686"/>
-      <c r="H1" s="686"/>
-      <c r="I1" s="686"/>
-      <c r="J1" s="686"/>
-      <c r="K1" s="686"/>
-      <c r="L1" s="686"/>
-      <c r="M1" s="686"/>
+      <c r="D1" s="665"/>
+      <c r="E1" s="665"/>
+      <c r="F1" s="665"/>
+      <c r="G1" s="665"/>
+      <c r="H1" s="665"/>
+      <c r="I1" s="665"/>
+      <c r="J1" s="665"/>
+      <c r="K1" s="665"/>
+      <c r="L1" s="665"/>
+      <c r="M1" s="665"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="684"/>
+      <c r="B2" s="663"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -45965,24 +46034,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="687" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="688"/>
+      <c r="B3" s="666" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="667"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="689" t="s">
+      <c r="H3" s="668" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="689"/>
+      <c r="I3" s="668"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="713" t="s">
+      <c r="P3" s="705" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="723" t="s">
+      <c r="R3" s="726" t="s">
         <v>216</v>
       </c>
     </row>
@@ -45997,14 +46066,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="690" t="s">
+      <c r="E4" s="669" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="691"/>
-      <c r="H4" s="692" t="s">
+      <c r="F4" s="670"/>
+      <c r="H4" s="671" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="693"/>
+      <c r="I4" s="672"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -46014,15 +46083,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="714"/>
+      <c r="P4" s="706"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="724"/>
-      <c r="W4" s="696" t="s">
+      <c r="R4" s="727"/>
+      <c r="W4" s="715" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="696"/>
+      <c r="X4" s="715"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -46083,8 +46152,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="696"/>
-      <c r="X5" s="696"/>
+      <c r="W5" s="715"/>
+      <c r="X5" s="715"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -46841,7 +46910,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="700">
+      <c r="W19" s="719">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -46893,7 +46962,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="701"/>
+      <c r="W20" s="720"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -46942,8 +47011,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="702"/>
-      <c r="X21" s="702"/>
+      <c r="W21" s="721"/>
+      <c r="X21" s="721"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -47044,8 +47113,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="703"/>
-      <c r="X23" s="703"/>
+      <c r="W23" s="722"/>
+      <c r="X23" s="722"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -47096,8 +47165,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="703"/>
-      <c r="X24" s="703"/>
+      <c r="W24" s="722"/>
+      <c r="X24" s="722"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -47143,8 +47212,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="704"/>
-      <c r="X25" s="704"/>
+      <c r="W25" s="723"/>
+      <c r="X25" s="723"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -47192,8 +47261,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="704"/>
-      <c r="X26" s="704"/>
+      <c r="W26" s="723"/>
+      <c r="X26" s="723"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -47253,9 +47322,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="697"/>
-      <c r="X27" s="698"/>
-      <c r="Y27" s="699"/>
+      <c r="W27" s="716"/>
+      <c r="X27" s="717"/>
+      <c r="Y27" s="718"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47309,9 +47378,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="698"/>
-      <c r="X28" s="698"/>
-      <c r="Y28" s="699"/>
+      <c r="W28" s="717"/>
+      <c r="X28" s="717"/>
+      <c r="Y28" s="718"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47627,11 +47696,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="715">
+      <c r="M36" s="707">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="717">
+      <c r="N36" s="709">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -47639,7 +47708,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="719">
+      <c r="Q36" s="711">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -47658,13 +47727,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="716"/>
-      <c r="N37" s="718"/>
+      <c r="M37" s="708"/>
+      <c r="N37" s="710"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="720"/>
+      <c r="Q37" s="712"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -47938,26 +48007,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="670" t="s">
+      <c r="H52" s="684" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="671"/>
+      <c r="I52" s="685"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="672">
+      <c r="K52" s="686">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="705"/>
+      <c r="L52" s="713"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="676" t="s">
+      <c r="D53" s="690" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="676"/>
+      <c r="E53" s="690"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -47966,29 +48035,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="706" t="s">
+      <c r="D54" s="714" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="706"/>
+      <c r="E54" s="714"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="677" t="s">
+      <c r="I54" s="691" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="678"/>
-      <c r="K54" s="679">
+      <c r="J54" s="692"/>
+      <c r="K54" s="693">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="679"/>
-      <c r="M54" s="707" t="s">
+      <c r="L54" s="693"/>
+      <c r="M54" s="699" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="708"/>
-      <c r="O54" s="708"/>
-      <c r="P54" s="708"/>
-      <c r="Q54" s="709"/>
+      <c r="N54" s="700"/>
+      <c r="O54" s="700"/>
+      <c r="P54" s="700"/>
+      <c r="Q54" s="701"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -48002,11 +48071,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="710"/>
-      <c r="N55" s="711"/>
-      <c r="O55" s="711"/>
-      <c r="P55" s="711"/>
-      <c r="Q55" s="712"/>
+      <c r="M55" s="702"/>
+      <c r="N55" s="703"/>
+      <c r="O55" s="703"/>
+      <c r="P55" s="703"/>
+      <c r="Q55" s="704"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -48024,11 +48093,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="681">
+      <c r="K56" s="695">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="682"/>
+      <c r="L56" s="696"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -48045,22 +48114,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="659" t="s">
+      <c r="D58" s="673" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="660"/>
+      <c r="E58" s="674"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="661" t="s">
+      <c r="I58" s="675" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="662"/>
-      <c r="K58" s="663">
+      <c r="J58" s="676"/>
+      <c r="K58" s="677">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="663"/>
+      <c r="L58" s="677"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -48204,13 +48273,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -48220,20 +48296,13 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -50623,7 +50692,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="721" t="s">
+      <c r="F75" s="724" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -50636,7 +50705,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="722"/>
+      <c r="F76" s="725"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -50928,23 +50997,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="683"/>
-      <c r="C1" s="725" t="s">
+      <c r="B1" s="662"/>
+      <c r="C1" s="728" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="726"/>
-      <c r="E1" s="726"/>
-      <c r="F1" s="726"/>
-      <c r="G1" s="726"/>
-      <c r="H1" s="726"/>
-      <c r="I1" s="726"/>
-      <c r="J1" s="726"/>
-      <c r="K1" s="726"/>
-      <c r="L1" s="726"/>
-      <c r="M1" s="726"/>
+      <c r="D1" s="729"/>
+      <c r="E1" s="729"/>
+      <c r="F1" s="729"/>
+      <c r="G1" s="729"/>
+      <c r="H1" s="729"/>
+      <c r="I1" s="729"/>
+      <c r="J1" s="729"/>
+      <c r="K1" s="729"/>
+      <c r="L1" s="729"/>
+      <c r="M1" s="729"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="684"/>
+      <c r="B2" s="663"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -50954,24 +51023,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="687" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="688"/>
+      <c r="B3" s="666" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="667"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="689" t="s">
+      <c r="H3" s="668" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="689"/>
+      <c r="I3" s="668"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="713" t="s">
+      <c r="P3" s="705" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="723" t="s">
+      <c r="R3" s="726" t="s">
         <v>216</v>
       </c>
     </row>
@@ -50986,14 +51055,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="690" t="s">
+      <c r="E4" s="669" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="691"/>
-      <c r="H4" s="692" t="s">
+      <c r="F4" s="670"/>
+      <c r="H4" s="671" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="693"/>
+      <c r="I4" s="672"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -51003,15 +51072,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="714"/>
+      <c r="P4" s="706"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="724"/>
-      <c r="W4" s="696" t="s">
+      <c r="R4" s="727"/>
+      <c r="W4" s="715" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="696"/>
+      <c r="X4" s="715"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -51062,8 +51131,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="696"/>
-      <c r="X5" s="696"/>
+      <c r="W5" s="715"/>
+      <c r="X5" s="715"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -51827,7 +51896,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="700">
+      <c r="W19" s="719">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -51880,7 +51949,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="701"/>
+      <c r="W20" s="720"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -51929,8 +51998,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="702"/>
-      <c r="X21" s="702"/>
+      <c r="W21" s="721"/>
+      <c r="X21" s="721"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -52030,8 +52099,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="703"/>
-      <c r="X23" s="703"/>
+      <c r="W23" s="722"/>
+      <c r="X23" s="722"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -52086,8 +52155,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="703"/>
-      <c r="X24" s="703"/>
+      <c r="W24" s="722"/>
+      <c r="X24" s="722"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -52132,8 +52201,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="704"/>
-      <c r="X25" s="704"/>
+      <c r="W25" s="723"/>
+      <c r="X25" s="723"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -52181,8 +52250,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="704"/>
-      <c r="X26" s="704"/>
+      <c r="W26" s="723"/>
+      <c r="X26" s="723"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -52236,9 +52305,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="697"/>
-      <c r="X27" s="698"/>
-      <c r="Y27" s="699"/>
+      <c r="W27" s="716"/>
+      <c r="X27" s="717"/>
+      <c r="Y27" s="718"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52292,9 +52361,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="698"/>
-      <c r="X28" s="698"/>
-      <c r="Y28" s="699"/>
+      <c r="W28" s="717"/>
+      <c r="X28" s="717"/>
+      <c r="Y28" s="718"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52605,11 +52674,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="715">
+      <c r="M36" s="707">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="717">
+      <c r="N36" s="709">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -52617,7 +52686,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="719">
+      <c r="Q36" s="711">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -52642,13 +52711,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="716"/>
-      <c r="N37" s="718"/>
+      <c r="M37" s="708"/>
+      <c r="N37" s="710"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="720"/>
+      <c r="Q37" s="712"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -52941,26 +53010,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="670" t="s">
+      <c r="H52" s="684" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="671"/>
+      <c r="I52" s="685"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="672">
+      <c r="K52" s="686">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="705"/>
+      <c r="L52" s="713"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="676" t="s">
+      <c r="D53" s="690" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="676"/>
+      <c r="E53" s="690"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -52969,22 +53038,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="706" t="s">
+      <c r="D54" s="714" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="706"/>
+      <c r="E54" s="714"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="677" t="s">
+      <c r="I54" s="691" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="678"/>
-      <c r="K54" s="679">
+      <c r="J54" s="692"/>
+      <c r="K54" s="693">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="679"/>
+      <c r="L54" s="693"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -53025,11 +53094,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="681">
+      <c r="K56" s="695">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="682"/>
+      <c r="L56" s="696"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -53046,22 +53115,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="659" t="s">
+      <c r="D58" s="673" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="660"/>
+      <c r="E58" s="674"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="661" t="s">
+      <c r="I58" s="675" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="662"/>
-      <c r="K58" s="663">
+      <c r="J58" s="676"/>
+      <c r="K58" s="677">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="663"/>
+      <c r="L58" s="677"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -53205,6 +53274,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -53220,20 +53303,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -54930,12 +54999,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="727" t="s">
+      <c r="B43" s="730" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="728"/>
-      <c r="D43" s="728"/>
-      <c r="E43" s="729"/>
+      <c r="C43" s="731"/>
+      <c r="D43" s="731"/>
+      <c r="E43" s="732"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -54963,10 +55032,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="730"/>
-      <c r="C44" s="731"/>
-      <c r="D44" s="731"/>
-      <c r="E44" s="732"/>
+      <c r="B44" s="733"/>
+      <c r="C44" s="734"/>
+      <c r="D44" s="734"/>
+      <c r="E44" s="735"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -54994,10 +55063,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="733"/>
-      <c r="C45" s="734"/>
-      <c r="D45" s="734"/>
-      <c r="E45" s="735"/>
+      <c r="B45" s="736"/>
+      <c r="C45" s="737"/>
+      <c r="D45" s="737"/>
+      <c r="E45" s="738"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -55040,10 +55109,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="742" t="s">
+      <c r="B47" s="745" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="743"/>
+      <c r="C47" s="746"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -55065,8 +55134,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="744"/>
-      <c r="C48" s="745"/>
+      <c r="B48" s="747"/>
+      <c r="C48" s="748"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -55074,11 +55143,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="736" t="s">
+      <c r="J48" s="739" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="737"/>
-      <c r="L48" s="738"/>
+      <c r="K48" s="740"/>
+      <c r="L48" s="741"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -55096,9 +55165,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="739"/>
-      <c r="K49" s="740"/>
-      <c r="L49" s="741"/>
+      <c r="J49" s="742"/>
+      <c r="K49" s="743"/>
+      <c r="L49" s="744"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -55115,10 +55184,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="746" t="s">
+      <c r="I50" s="749" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="747"/>
+      <c r="J50" s="750"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -55139,8 +55208,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="746"/>
-      <c r="J51" s="747"/>
+      <c r="I51" s="749"/>
+      <c r="J51" s="750"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -55159,8 +55228,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="746"/>
-      <c r="J52" s="747"/>
+      <c r="I52" s="749"/>
+      <c r="J52" s="750"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -55179,8 +55248,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="746"/>
-      <c r="J53" s="747"/>
+      <c r="I53" s="749"/>
+      <c r="J53" s="750"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -55199,8 +55268,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="746"/>
-      <c r="J54" s="747"/>
+      <c r="I54" s="749"/>
+      <c r="J54" s="750"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -55219,8 +55288,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="746"/>
-      <c r="J55" s="747"/>
+      <c r="I55" s="749"/>
+      <c r="J55" s="750"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -55239,8 +55308,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="746"/>
-      <c r="J56" s="747"/>
+      <c r="I56" s="749"/>
+      <c r="J56" s="750"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -55259,8 +55328,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="746"/>
-      <c r="J57" s="747"/>
+      <c r="I57" s="749"/>
+      <c r="J57" s="750"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -55279,8 +55348,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="746"/>
-      <c r="J58" s="747"/>
+      <c r="I58" s="749"/>
+      <c r="J58" s="750"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -55299,8 +55368,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="746"/>
-      <c r="J59" s="747"/>
+      <c r="I59" s="749"/>
+      <c r="J59" s="750"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -55319,8 +55388,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="746"/>
-      <c r="J60" s="747"/>
+      <c r="I60" s="749"/>
+      <c r="J60" s="750"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -55339,8 +55408,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="746"/>
-      <c r="J61" s="747"/>
+      <c r="I61" s="749"/>
+      <c r="J61" s="750"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -55359,8 +55428,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="746"/>
-      <c r="J62" s="747"/>
+      <c r="I62" s="749"/>
+      <c r="J62" s="750"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -55379,8 +55448,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="746"/>
-      <c r="J63" s="747"/>
+      <c r="I63" s="749"/>
+      <c r="J63" s="750"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -55399,8 +55468,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="746"/>
-      <c r="J64" s="747"/>
+      <c r="I64" s="749"/>
+      <c r="J64" s="750"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -55419,8 +55488,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="746"/>
-      <c r="J65" s="747"/>
+      <c r="I65" s="749"/>
+      <c r="J65" s="750"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -55439,8 +55508,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="746"/>
-      <c r="J66" s="747"/>
+      <c r="I66" s="749"/>
+      <c r="J66" s="750"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -55459,8 +55528,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="746"/>
-      <c r="J67" s="747"/>
+      <c r="I67" s="749"/>
+      <c r="J67" s="750"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -55479,8 +55548,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="746"/>
-      <c r="J68" s="747"/>
+      <c r="I68" s="749"/>
+      <c r="J68" s="750"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -55499,8 +55568,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="746"/>
-      <c r="J69" s="747"/>
+      <c r="I69" s="749"/>
+      <c r="J69" s="750"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -55519,8 +55588,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="746"/>
-      <c r="J70" s="747"/>
+      <c r="I70" s="749"/>
+      <c r="J70" s="750"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -55539,8 +55608,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="746"/>
-      <c r="J71" s="747"/>
+      <c r="I71" s="749"/>
+      <c r="J71" s="750"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -55559,8 +55628,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="746"/>
-      <c r="J72" s="747"/>
+      <c r="I72" s="749"/>
+      <c r="J72" s="750"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -55579,8 +55648,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="746"/>
-      <c r="J73" s="747"/>
+      <c r="I73" s="749"/>
+      <c r="J73" s="750"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -55599,8 +55668,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="746"/>
-      <c r="J74" s="747"/>
+      <c r="I74" s="749"/>
+      <c r="J74" s="750"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -55619,8 +55688,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="746"/>
-      <c r="J75" s="747"/>
+      <c r="I75" s="749"/>
+      <c r="J75" s="750"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -55639,8 +55708,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="746"/>
-      <c r="J76" s="747"/>
+      <c r="I76" s="749"/>
+      <c r="J76" s="750"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -55659,8 +55728,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="746"/>
-      <c r="J77" s="747"/>
+      <c r="I77" s="749"/>
+      <c r="J77" s="750"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -55681,8 +55750,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="748"/>
-      <c r="J78" s="749"/>
+      <c r="I78" s="751"/>
+      <c r="J78" s="752"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -55727,7 +55796,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="721" t="s">
+      <c r="F80" s="724" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -55739,7 +55808,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="722"/>
+      <c r="F81" s="725"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -56027,23 +56096,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="683"/>
-      <c r="C1" s="725" t="s">
+      <c r="B1" s="662"/>
+      <c r="C1" s="728" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="726"/>
-      <c r="E1" s="726"/>
-      <c r="F1" s="726"/>
-      <c r="G1" s="726"/>
-      <c r="H1" s="726"/>
-      <c r="I1" s="726"/>
-      <c r="J1" s="726"/>
-      <c r="K1" s="726"/>
-      <c r="L1" s="726"/>
-      <c r="M1" s="726"/>
+      <c r="D1" s="729"/>
+      <c r="E1" s="729"/>
+      <c r="F1" s="729"/>
+      <c r="G1" s="729"/>
+      <c r="H1" s="729"/>
+      <c r="I1" s="729"/>
+      <c r="J1" s="729"/>
+      <c r="K1" s="729"/>
+      <c r="L1" s="729"/>
+      <c r="M1" s="729"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="684"/>
+      <c r="B2" s="663"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -56053,24 +56122,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="687" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="688"/>
+      <c r="B3" s="666" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="667"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="689" t="s">
+      <c r="H3" s="668" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="689"/>
+      <c r="I3" s="668"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="713" t="s">
+      <c r="P3" s="705" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="723" t="s">
+      <c r="R3" s="726" t="s">
         <v>216</v>
       </c>
     </row>
@@ -56085,14 +56154,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="690" t="s">
+      <c r="E4" s="669" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="691"/>
-      <c r="H4" s="692" t="s">
+      <c r="F4" s="670"/>
+      <c r="H4" s="671" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="693"/>
+      <c r="I4" s="672"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -56102,15 +56171,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="714"/>
+      <c r="P4" s="706"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="724"/>
-      <c r="W4" s="696" t="s">
+      <c r="R4" s="727"/>
+      <c r="W4" s="715" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="696"/>
+      <c r="X4" s="715"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -56161,8 +56230,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="696"/>
-      <c r="X5" s="696"/>
+      <c r="W5" s="715"/>
+      <c r="X5" s="715"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -56923,7 +56992,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="700">
+      <c r="W19" s="719">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -56975,7 +57044,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="701"/>
+      <c r="W20" s="720"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -57024,8 +57093,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="702"/>
-      <c r="X21" s="702"/>
+      <c r="W21" s="721"/>
+      <c r="X21" s="721"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -57124,8 +57193,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="703"/>
-      <c r="X23" s="703"/>
+      <c r="W23" s="722"/>
+      <c r="X23" s="722"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -57180,8 +57249,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="703"/>
-      <c r="X24" s="703"/>
+      <c r="W24" s="722"/>
+      <c r="X24" s="722"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -57229,8 +57298,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="704"/>
-      <c r="X25" s="704"/>
+      <c r="W25" s="723"/>
+      <c r="X25" s="723"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -57278,8 +57347,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="704"/>
-      <c r="X26" s="704"/>
+      <c r="W26" s="723"/>
+      <c r="X26" s="723"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -57327,9 +57396,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="697"/>
-      <c r="X27" s="698"/>
-      <c r="Y27" s="699"/>
+      <c r="W27" s="716"/>
+      <c r="X27" s="717"/>
+      <c r="Y27" s="718"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57377,9 +57446,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="698"/>
-      <c r="X28" s="698"/>
-      <c r="Y28" s="699"/>
+      <c r="W28" s="717"/>
+      <c r="X28" s="717"/>
+      <c r="Y28" s="718"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57720,11 +57789,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="715">
+      <c r="M36" s="707">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="717">
+      <c r="N36" s="709">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -57732,7 +57801,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="750">
+      <c r="Q36" s="753">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -57757,13 +57826,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="716"/>
-      <c r="N37" s="718"/>
+      <c r="M37" s="708"/>
+      <c r="N37" s="710"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="751"/>
+      <c r="Q37" s="754"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -57813,11 +57882,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="752">
+      <c r="M39" s="755">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="753"/>
+      <c r="N39" s="756"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -58065,26 +58134,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="670" t="s">
+      <c r="H52" s="684" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="671"/>
+      <c r="I52" s="685"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="672">
+      <c r="K52" s="686">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="705"/>
+      <c r="L52" s="713"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="676" t="s">
+      <c r="D53" s="690" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="676"/>
+      <c r="E53" s="690"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -58093,22 +58162,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="706" t="s">
+      <c r="D54" s="714" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="706"/>
+      <c r="E54" s="714"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="677" t="s">
+      <c r="I54" s="691" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="678"/>
-      <c r="K54" s="679">
+      <c r="J54" s="692"/>
+      <c r="K54" s="693">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="679"/>
+      <c r="L54" s="693"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -58149,11 +58218,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="681">
+      <c r="K56" s="695">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="682"/>
+      <c r="L56" s="696"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -58170,22 +58239,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="659" t="s">
+      <c r="D58" s="673" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="660"/>
+      <c r="E58" s="674"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="661" t="s">
+      <c r="I58" s="675" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="662"/>
-      <c r="K58" s="663">
+      <c r="J58" s="676"/>
+      <c r="K58" s="677">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="663"/>
+      <c r="L58" s="677"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -58329,20 +58398,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -58359,6 +58414,20 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE    ZAVALETA   JUNIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE    ZAVALETA   JUNIO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="15" activeTab="17"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="16" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -710,7 +710,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1698" uniqueCount="919">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="934">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -3421,9 +3421,6 @@
     <t>00208 D</t>
   </si>
   <si>
-    <t>25-May-22--10-Jun-22</t>
-  </si>
-  <si>
     <t>jamones-quesos-chistorra Roasveff</t>
   </si>
   <si>
@@ -3467,6 +3464,67 @@
   </si>
   <si>
     <t>NLP</t>
+  </si>
+  <si>
+    <t>26-MAYO.,2022</t>
+  </si>
+  <si>
+    <r>
+      <t>25-May-22--</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF00FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10-Jun-22</t>
+    </r>
+  </si>
+  <si>
+    <t>00308 D</t>
+  </si>
+  <si>
+    <t>00514 D</t>
+  </si>
+  <si>
+    <t>00635 D</t>
+  </si>
+  <si>
+    <t>00668 D</t>
+  </si>
+  <si>
+    <t>00748 D</t>
+  </si>
+  <si>
+    <t>00869 D</t>
+  </si>
+  <si>
+    <t>00967 D</t>
+  </si>
+  <si>
+    <t>MIXIOTES-POLLO-QUESOS</t>
+  </si>
+  <si>
+    <t>JAMON-POLLO-QUESOS-SALCHICHAS-PAVO</t>
+  </si>
+  <si>
+    <t>NOMINA #24</t>
+  </si>
+  <si>
+    <t>NOMINA # 24</t>
+  </si>
+  <si>
+    <t>chorizo-longaniza-chistorra-salami-nugges</t>
+  </si>
+  <si>
+    <t>SALCHICHONEERIA-POLLO-JAMON-QUESOS-CHISTORRA-ROAS BEFF</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-SALCHICHA-FILETE-CALAFIA</t>
   </si>
 </sst>
 </file>
@@ -3482,7 +3540,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="70" x14ac:knownFonts="1">
+  <fonts count="71" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4036,6 +4094,14 @@
       <b/>
       <sz val="9"/>
       <color rgb="FF990033"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF00FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5472,7 +5538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="801">
+  <cellXfs count="804">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -6821,6 +6887,17 @@
     <xf numFmtId="0" fontId="18" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -7214,10 +7291,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="44" fontId="11" fillId="3" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="11" fillId="18" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="7" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -7232,12 +7309,6 @@
     <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -7249,8 +7320,8 @@
     <mruColors>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFCCFF66"/>
+      <color rgb="FFFF00FF"/>
       <color rgb="FF0000FF"/>
-      <color rgb="FFFF00FF"/>
       <color rgb="FF990033"/>
       <color rgb="FFCC3399"/>
       <color rgb="FF99CCFF"/>
@@ -11613,23 +11684,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="662"/>
-      <c r="C1" s="664" t="s">
+      <c r="B1" s="667"/>
+      <c r="C1" s="669" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="665"/>
-      <c r="E1" s="665"/>
-      <c r="F1" s="665"/>
-      <c r="G1" s="665"/>
-      <c r="H1" s="665"/>
-      <c r="I1" s="665"/>
-      <c r="J1" s="665"/>
-      <c r="K1" s="665"/>
-      <c r="L1" s="665"/>
-      <c r="M1" s="665"/>
+      <c r="D1" s="670"/>
+      <c r="E1" s="670"/>
+      <c r="F1" s="670"/>
+      <c r="G1" s="670"/>
+      <c r="H1" s="670"/>
+      <c r="I1" s="670"/>
+      <c r="J1" s="670"/>
+      <c r="K1" s="670"/>
+      <c r="L1" s="670"/>
+      <c r="M1" s="670"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="663"/>
+      <c r="B2" s="668"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -11639,17 +11710,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="666" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="667"/>
+      <c r="B3" s="671" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="672"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="668" t="s">
+      <c r="H3" s="673" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="668"/>
+      <c r="I3" s="673"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -11663,14 +11734,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="669" t="s">
+      <c r="E4" s="674" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="670"/>
-      <c r="H4" s="671" t="s">
+      <c r="F4" s="675"/>
+      <c r="H4" s="676" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="672"/>
+      <c r="I4" s="677"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -11680,10 +11751,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="678" t="s">
+      <c r="P4" s="683" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="679"/>
+      <c r="Q4" s="684"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -13124,11 +13195,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="680">
+      <c r="M39" s="685">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="682">
+      <c r="N39" s="687">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -13154,8 +13225,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="681"/>
-      <c r="N40" s="683"/>
+      <c r="M40" s="686"/>
+      <c r="N40" s="688"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -13370,29 +13441,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="684" t="s">
+      <c r="H52" s="689" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="685"/>
+      <c r="I52" s="690"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="686">
+      <c r="K52" s="691">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="687"/>
-      <c r="M52" s="688">
+      <c r="L52" s="692"/>
+      <c r="M52" s="693">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="689"/>
+      <c r="N52" s="694"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="690" t="s">
+      <c r="D53" s="695" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="690"/>
+      <c r="E53" s="695"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -13403,22 +13474,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="690" t="s">
+      <c r="D54" s="695" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="690"/>
+      <c r="E54" s="695"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="691" t="s">
+      <c r="I54" s="696" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="692"/>
-      <c r="K54" s="693">
+      <c r="J54" s="697"/>
+      <c r="K54" s="698">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="694"/>
+      <c r="L54" s="699"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -13451,11 +13522,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="695">
+      <c r="K56" s="700">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="696"/>
+      <c r="L56" s="701"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -13472,22 +13543,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="673" t="s">
+      <c r="D58" s="678" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="674"/>
+      <c r="E58" s="679"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="675" t="s">
+      <c r="I58" s="680" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="676"/>
-      <c r="K58" s="677">
+      <c r="J58" s="681"/>
+      <c r="K58" s="682">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="677"/>
+      <c r="L58" s="682"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -16111,10 +16182,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="758" t="s">
+      <c r="I76" s="763" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="759"/>
+      <c r="J76" s="764"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -16133,8 +16204,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="760"/>
-      <c r="J77" s="761"/>
+      <c r="I77" s="765"/>
+      <c r="J77" s="766"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -16201,7 +16272,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="724" t="s">
+      <c r="F80" s="729" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -16216,7 +16287,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="725"/>
+      <c r="F81" s="730"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -16224,10 +16295,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="757" t="s">
+      <c r="B82" s="762" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="757"/>
+      <c r="C82" s="762"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -16509,23 +16580,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="662"/>
-      <c r="C1" s="728" t="s">
+      <c r="B1" s="667"/>
+      <c r="C1" s="733" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="729"/>
-      <c r="E1" s="729"/>
-      <c r="F1" s="729"/>
-      <c r="G1" s="729"/>
-      <c r="H1" s="729"/>
-      <c r="I1" s="729"/>
-      <c r="J1" s="729"/>
-      <c r="K1" s="729"/>
-      <c r="L1" s="729"/>
-      <c r="M1" s="729"/>
+      <c r="D1" s="734"/>
+      <c r="E1" s="734"/>
+      <c r="F1" s="734"/>
+      <c r="G1" s="734"/>
+      <c r="H1" s="734"/>
+      <c r="I1" s="734"/>
+      <c r="J1" s="734"/>
+      <c r="K1" s="734"/>
+      <c r="L1" s="734"/>
+      <c r="M1" s="734"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="663"/>
+      <c r="B2" s="668"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -16535,24 +16606,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="666" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="667"/>
+      <c r="B3" s="671" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="672"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="668" t="s">
+      <c r="H3" s="673" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="668"/>
+      <c r="I3" s="673"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="705" t="s">
+      <c r="P3" s="710" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="726" t="s">
+      <c r="R3" s="731" t="s">
         <v>216</v>
       </c>
     </row>
@@ -16567,14 +16638,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="669" t="s">
+      <c r="E4" s="674" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="670"/>
-      <c r="H4" s="671" t="s">
+      <c r="F4" s="675"/>
+      <c r="H4" s="676" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="672"/>
+      <c r="I4" s="677"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -16584,15 +16655,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="706"/>
+      <c r="P4" s="711"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="727"/>
-      <c r="W4" s="715" t="s">
+      <c r="R4" s="732"/>
+      <c r="W4" s="720" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="715"/>
+      <c r="X4" s="720"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16643,8 +16714,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="715"/>
-      <c r="X5" s="715"/>
+      <c r="W5" s="720"/>
+      <c r="X5" s="720"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17407,7 +17478,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="719">
+      <c r="W19" s="724">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -17459,7 +17530,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="720"/>
+      <c r="W20" s="725"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -17508,8 +17579,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="721"/>
-      <c r="X21" s="721"/>
+      <c r="W21" s="726"/>
+      <c r="X21" s="726"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -17609,8 +17680,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="722"/>
-      <c r="X23" s="722"/>
+      <c r="W23" s="727"/>
+      <c r="X23" s="727"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -17665,8 +17736,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="722"/>
-      <c r="X24" s="722"/>
+      <c r="W24" s="727"/>
+      <c r="X24" s="727"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -17714,8 +17785,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="723"/>
-      <c r="X25" s="723"/>
+      <c r="W25" s="728"/>
+      <c r="X25" s="728"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -17764,8 +17835,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="723"/>
-      <c r="X26" s="723"/>
+      <c r="W26" s="728"/>
+      <c r="X26" s="728"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -17813,9 +17884,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="716"/>
-      <c r="X27" s="717"/>
-      <c r="Y27" s="718"/>
+      <c r="W27" s="721"/>
+      <c r="X27" s="722"/>
+      <c r="Y27" s="723"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17863,9 +17934,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="717"/>
-      <c r="X28" s="717"/>
-      <c r="Y28" s="718"/>
+      <c r="W28" s="722"/>
+      <c r="X28" s="722"/>
+      <c r="Y28" s="723"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18197,11 +18268,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="707">
+      <c r="M36" s="712">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="709">
+      <c r="N36" s="714">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -18209,7 +18280,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="753">
+      <c r="Q36" s="758">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -18234,13 +18305,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="708"/>
-      <c r="N37" s="710"/>
+      <c r="M37" s="713"/>
+      <c r="N37" s="715"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="754"/>
+      <c r="Q37" s="759"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -18290,11 +18361,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="755">
+      <c r="M39" s="760">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="756"/>
+      <c r="N39" s="761"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -18922,26 +18993,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="684" t="s">
+      <c r="H68" s="689" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="685"/>
+      <c r="I68" s="690"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="686">
+      <c r="K68" s="691">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="713"/>
+      <c r="L68" s="718"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="690" t="s">
+      <c r="D69" s="695" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="690"/>
+      <c r="E69" s="695"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -18950,22 +19021,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="714" t="s">
+      <c r="D70" s="719" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="714"/>
+      <c r="E70" s="719"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="691" t="s">
+      <c r="I70" s="696" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="692"/>
-      <c r="K70" s="693">
+      <c r="J70" s="697"/>
+      <c r="K70" s="698">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="693"/>
+      <c r="L70" s="698"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -19006,11 +19077,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="695">
+      <c r="K72" s="700">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="696"/>
+      <c r="L72" s="701"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -19027,22 +19098,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="673" t="s">
+      <c r="D74" s="678" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="674"/>
+      <c r="E74" s="679"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="675" t="s">
+      <c r="I74" s="680" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="676"/>
-      <c r="K74" s="677">
+      <c r="J74" s="681"/>
+      <c r="K74" s="682">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="677"/>
+      <c r="L74" s="682"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -21486,7 +21557,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="724" t="s">
+      <c r="F80" s="729" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -21499,7 +21570,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="725"/>
+      <c r="F81" s="730"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -21519,10 +21590,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="762" t="s">
+      <c r="I83" s="767" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="763"/>
+      <c r="J83" s="768"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="514" t="s">
@@ -21531,8 +21602,8 @@
       <c r="B84" s="515"/>
       <c r="C84" s="516"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="764"/>
-      <c r="J84" s="765"/>
+      <c r="I84" s="769"/>
+      <c r="J84" s="770"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -21804,23 +21875,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="662"/>
-      <c r="C1" s="728" t="s">
+      <c r="B1" s="667"/>
+      <c r="C1" s="733" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="729"/>
-      <c r="E1" s="729"/>
-      <c r="F1" s="729"/>
-      <c r="G1" s="729"/>
-      <c r="H1" s="729"/>
-      <c r="I1" s="729"/>
-      <c r="J1" s="729"/>
-      <c r="K1" s="729"/>
-      <c r="L1" s="729"/>
-      <c r="M1" s="729"/>
+      <c r="D1" s="734"/>
+      <c r="E1" s="734"/>
+      <c r="F1" s="734"/>
+      <c r="G1" s="734"/>
+      <c r="H1" s="734"/>
+      <c r="I1" s="734"/>
+      <c r="J1" s="734"/>
+      <c r="K1" s="734"/>
+      <c r="L1" s="734"/>
+      <c r="M1" s="734"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="663"/>
+      <c r="B2" s="668"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -21830,24 +21901,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="666" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="667"/>
+      <c r="B3" s="671" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="672"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="668" t="s">
+      <c r="H3" s="673" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="668"/>
+      <c r="I3" s="673"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="705" t="s">
+      <c r="P3" s="710" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="726" t="s">
+      <c r="R3" s="731" t="s">
         <v>216</v>
       </c>
     </row>
@@ -21862,14 +21933,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="669" t="s">
+      <c r="E4" s="674" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="670"/>
-      <c r="H4" s="671" t="s">
+      <c r="F4" s="675"/>
+      <c r="H4" s="676" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="672"/>
+      <c r="I4" s="677"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -21879,15 +21950,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="706"/>
+      <c r="P4" s="711"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="727"/>
-      <c r="W4" s="715" t="s">
+      <c r="R4" s="732"/>
+      <c r="W4" s="720" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="715"/>
+      <c r="X4" s="720"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -21938,8 +22009,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="715"/>
-      <c r="X5" s="715"/>
+      <c r="W5" s="720"/>
+      <c r="X5" s="720"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22698,7 +22769,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="719">
+      <c r="W19" s="724">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -22750,7 +22821,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="720"/>
+      <c r="W20" s="725"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -22799,8 +22870,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="721"/>
-      <c r="X21" s="721"/>
+      <c r="W21" s="726"/>
+      <c r="X21" s="726"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -22897,8 +22968,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="722"/>
-      <c r="X23" s="722"/>
+      <c r="W23" s="727"/>
+      <c r="X23" s="727"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -22953,8 +23024,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="722"/>
-      <c r="X24" s="722"/>
+      <c r="W24" s="727"/>
+      <c r="X24" s="727"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -23000,8 +23071,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="723"/>
-      <c r="X25" s="723"/>
+      <c r="W25" s="728"/>
+      <c r="X25" s="728"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -23052,8 +23123,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="723"/>
-      <c r="X26" s="723"/>
+      <c r="W26" s="728"/>
+      <c r="X26" s="728"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -23104,9 +23175,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="716"/>
-      <c r="X27" s="717"/>
-      <c r="Y27" s="718"/>
+      <c r="W27" s="721"/>
+      <c r="X27" s="722"/>
+      <c r="Y27" s="723"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23156,9 +23227,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="717"/>
-      <c r="X28" s="717"/>
-      <c r="Y28" s="718"/>
+      <c r="W28" s="722"/>
+      <c r="X28" s="722"/>
+      <c r="Y28" s="723"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23762,11 +23833,11 @@
       <c r="L41" s="627">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="707">
+      <c r="M41" s="712">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="707">
+      <c r="N41" s="712">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -23774,7 +23845,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="766">
+      <c r="Q41" s="771">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -23804,10 +23875,10 @@
       <c r="L42" s="630">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="708"/>
-      <c r="N42" s="708"/>
+      <c r="M42" s="713"/>
+      <c r="N42" s="713"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="767"/>
+      <c r="Q42" s="772"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -23895,11 +23966,11 @@
       <c r="L45" s="627">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="768">
+      <c r="M45" s="773">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="769"/>
+      <c r="N45" s="774"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -24492,26 +24563,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="684" t="s">
+      <c r="H70" s="689" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="685"/>
+      <c r="I70" s="690"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="686">
+      <c r="K70" s="691">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="713"/>
+      <c r="L70" s="718"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="690" t="s">
+      <c r="D71" s="695" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="690"/>
+      <c r="E71" s="695"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -24521,22 +24592,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="714" t="s">
+      <c r="D72" s="719" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="714"/>
+      <c r="E72" s="719"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="691" t="s">
+      <c r="I72" s="696" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="692"/>
-      <c r="K72" s="693">
+      <c r="J72" s="697"/>
+      <c r="K72" s="698">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="693"/>
+      <c r="L72" s="698"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -24577,11 +24648,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="695">
+      <c r="K74" s="700">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="696"/>
+      <c r="L74" s="701"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -24600,22 +24671,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="673" t="s">
+      <c r="D76" s="678" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="674"/>
+      <c r="E76" s="679"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="675" t="s">
+      <c r="I76" s="680" t="s">
         <v>854</v>
       </c>
-      <c r="J76" s="676"/>
-      <c r="K76" s="677">
+      <c r="J76" s="681"/>
+      <c r="K76" s="682">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="677"/>
+      <c r="L76" s="682"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -24822,7 +24893,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D50" sqref="D50"/>
+      <selection pane="bottomLeft" activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26285,7 +26356,7 @@
         <v>62762.55</v>
       </c>
       <c r="D41" s="651" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
       <c r="E41" s="586">
         <f>50646.16+12116.39</f>
@@ -27320,7 +27391,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="724" t="s">
+      <c r="F90" s="729" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -27333,7 +27404,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="725"/>
+      <c r="F91" s="730"/>
       <c r="K91" s="1"/>
       <c r="L91" s="97"/>
       <c r="M91" s="3"/>
@@ -27352,10 +27423,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="762" t="s">
+      <c r="I93" s="767" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="763"/>
+      <c r="J93" s="768"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -27365,8 +27436,8 @@
       <c r="C94" s="518"/>
       <c r="D94" s="519"/>
       <c r="E94" s="520"/>
-      <c r="I94" s="764"/>
-      <c r="J94" s="765"/>
+      <c r="I94" s="769"/>
+      <c r="J94" s="770"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -27442,27 +27513,33 @@
       <c r="A103" s="512"/>
       <c r="B103" s="513"/>
       <c r="C103" s="233"/>
-      <c r="F103"/>
+      <c r="F103" s="3">
+        <v>12116.39</v>
+      </c>
       <c r="I103"/>
       <c r="J103" s="194"/>
       <c r="N103"/>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A104" s="510"/>
       <c r="B104" s="511"/>
       <c r="C104" s="129"/>
       <c r="E104"/>
-      <c r="F104"/>
+      <c r="F104" s="96">
+        <v>46744.6</v>
+      </c>
       <c r="I104"/>
       <c r="J104" s="194"/>
       <c r="M104"/>
       <c r="N104"/>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A105" s="456"/>
       <c r="B105" s="442"/>
       <c r="E105"/>
-      <c r="F105"/>
+      <c r="F105" s="96">
+        <v>14500.7</v>
+      </c>
       <c r="I105"/>
       <c r="J105" s="194"/>
       <c r="M105"/>
@@ -27480,7 +27557,9 @@
         <v>67001.67</v>
       </c>
       <c r="E106"/>
-      <c r="F106"/>
+      <c r="F106" s="96">
+        <v>41351.199999999997</v>
+      </c>
       <c r="I106"/>
       <c r="J106" s="194"/>
       <c r="M106"/>
@@ -27498,7 +27577,9 @@
         <v>5256</v>
       </c>
       <c r="E107"/>
-      <c r="F107"/>
+      <c r="F107" s="96">
+        <v>5624</v>
+      </c>
       <c r="I107"/>
       <c r="J107" s="194"/>
       <c r="M107"/>
@@ -27515,7 +27596,9 @@
         <v>40472.6</v>
       </c>
       <c r="E108" s="257"/>
-      <c r="F108"/>
+      <c r="F108" s="96">
+        <v>45618</v>
+      </c>
       <c r="I108"/>
       <c r="J108" s="194"/>
       <c r="M108"/>
@@ -27532,7 +27615,9 @@
         <v>3906</v>
       </c>
       <c r="E109" s="257"/>
-      <c r="F109"/>
+      <c r="F109" s="96">
+        <v>35193.4</v>
+      </c>
       <c r="I109"/>
       <c r="J109" s="194"/>
       <c r="M109"/>
@@ -27549,6 +27634,9 @@
         <v>33820.800000000003</v>
       </c>
       <c r="E110" s="257"/>
+      <c r="F110" s="96">
+        <v>69268.88</v>
+      </c>
       <c r="J110" s="194"/>
       <c r="M110"/>
     </row>
@@ -27563,6 +27651,9 @@
         <v>36277.25</v>
       </c>
       <c r="E111" s="257"/>
+      <c r="F111" s="96">
+        <v>25197.4</v>
+      </c>
       <c r="J111" s="194"/>
       <c r="M111"/>
     </row>
@@ -27787,11 +27878,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="770">
+      <c r="C130" s="775">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="771"/>
+      <c r="D130" s="776"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -27827,21 +27918,21 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="776" t="s">
+      <c r="F2" s="781" t="s">
         <v>752</v>
       </c>
-      <c r="G2" s="777"/>
-      <c r="H2" s="778"/>
+      <c r="G2" s="782"/>
+      <c r="H2" s="783"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="773" t="s">
+      <c r="B3" s="778" t="s">
         <v>748</v>
       </c>
-      <c r="C3" s="774"/>
-      <c r="D3" s="775"/>
-      <c r="F3" s="779"/>
-      <c r="G3" s="780"/>
-      <c r="H3" s="781"/>
+      <c r="C3" s="779"/>
+      <c r="D3" s="780"/>
+      <c r="F3" s="784"/>
+      <c r="G3" s="785"/>
+      <c r="H3" s="786"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="526" t="s">
@@ -27986,11 +28077,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="782">
+      <c r="G11" s="787">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="783"/>
+      <c r="H11" s="788"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="532" t="s">
@@ -28007,23 +28098,23 @@
       <c r="C14" s="532"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="786" t="s">
+      <c r="C15" s="791" t="s">
         <v>750</v>
       </c>
-      <c r="D15" s="784">
+      <c r="D15" s="789">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="787"/>
-      <c r="D16" s="785"/>
+      <c r="C16" s="792"/>
+      <c r="D16" s="790"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="772" t="s">
+      <c r="C17" s="777" t="s">
         <v>753</v>
       </c>
-      <c r="D17" s="772"/>
+      <c r="D17" s="777"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -28081,23 +28172,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="662"/>
-      <c r="C1" s="728" t="s">
+      <c r="B1" s="667"/>
+      <c r="C1" s="733" t="s">
         <v>754</v>
       </c>
-      <c r="D1" s="729"/>
-      <c r="E1" s="729"/>
-      <c r="F1" s="729"/>
-      <c r="G1" s="729"/>
-      <c r="H1" s="729"/>
-      <c r="I1" s="729"/>
-      <c r="J1" s="729"/>
-      <c r="K1" s="729"/>
-      <c r="L1" s="729"/>
-      <c r="M1" s="729"/>
+      <c r="D1" s="734"/>
+      <c r="E1" s="734"/>
+      <c r="F1" s="734"/>
+      <c r="G1" s="734"/>
+      <c r="H1" s="734"/>
+      <c r="I1" s="734"/>
+      <c r="J1" s="734"/>
+      <c r="K1" s="734"/>
+      <c r="L1" s="734"/>
+      <c r="M1" s="734"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="663"/>
+      <c r="B2" s="668"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -28107,24 +28198,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="666" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="667"/>
+      <c r="B3" s="671" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="672"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="668" t="s">
+      <c r="H3" s="673" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="668"/>
+      <c r="I3" s="673"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="705" t="s">
+      <c r="P3" s="710" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="726" t="s">
+      <c r="R3" s="731" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -28143,14 +28234,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="669" t="s">
+      <c r="E4" s="674" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="670"/>
-      <c r="H4" s="671" t="s">
+      <c r="F4" s="675"/>
+      <c r="H4" s="676" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="672"/>
+      <c r="I4" s="677"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -28160,15 +28251,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="706"/>
+      <c r="P4" s="711"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="727"/>
+      <c r="R4" s="732"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="788"/>
-      <c r="X4" s="788"/>
+      <c r="W4" s="793"/>
+      <c r="X4" s="793"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -28222,8 +28313,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="788"/>
-      <c r="X5" s="788"/>
+      <c r="W5" s="793"/>
+      <c r="X5" s="793"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -28989,7 +29080,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="789"/>
+      <c r="W19" s="794"/>
       <c r="X19" s="544"/>
       <c r="Y19" s="233"/>
     </row>
@@ -29043,7 +29134,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="789"/>
+      <c r="W20" s="794"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -29098,8 +29189,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="721"/>
-      <c r="X21" s="721"/>
+      <c r="W21" s="726"/>
+      <c r="X21" s="726"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -29210,8 +29301,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="722"/>
-      <c r="X23" s="722"/>
+      <c r="W23" s="727"/>
+      <c r="X23" s="727"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -29272,8 +29363,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="722"/>
-      <c r="X24" s="722"/>
+      <c r="W24" s="727"/>
+      <c r="X24" s="727"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -29326,8 +29417,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="723"/>
-      <c r="X25" s="723"/>
+      <c r="W25" s="728"/>
+      <c r="X25" s="728"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -29382,8 +29473,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="723"/>
-      <c r="X26" s="723"/>
+      <c r="W26" s="728"/>
+      <c r="X26" s="728"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -29438,9 +29529,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="716"/>
-      <c r="X27" s="717"/>
-      <c r="Y27" s="718"/>
+      <c r="W27" s="721"/>
+      <c r="X27" s="722"/>
+      <c r="Y27" s="723"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29494,9 +29585,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="717"/>
-      <c r="X28" s="717"/>
-      <c r="Y28" s="718"/>
+      <c r="W28" s="722"/>
+      <c r="X28" s="722"/>
+      <c r="Y28" s="723"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30087,11 +30178,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="707">
+      <c r="M41" s="712">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="707">
+      <c r="N41" s="712">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -30099,7 +30190,7 @@
         <f>SUM(P5:P40)</f>
         <v>4043205.8900000006</v>
       </c>
-      <c r="Q41" s="766">
+      <c r="Q41" s="771">
         <f>SUM(Q5:Q40)</f>
         <v>890559.8899999999</v>
       </c>
@@ -30123,10 +30214,10 @@
       <c r="L42" s="641">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="708"/>
-      <c r="N42" s="708"/>
+      <c r="M42" s="713"/>
+      <c r="N42" s="713"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="767"/>
+      <c r="Q42" s="772"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -30195,11 +30286,11 @@
       <c r="L45" s="619">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="768">
+      <c r="M45" s="773">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="769"/>
+      <c r="N45" s="774"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -30615,26 +30706,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="684" t="s">
+      <c r="H63" s="689" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="685"/>
+      <c r="I63" s="690"/>
       <c r="J63" s="562"/>
-      <c r="K63" s="791">
+      <c r="K63" s="796">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="792"/>
+      <c r="L63" s="797"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="690" t="s">
+      <c r="D64" s="695" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="690"/>
+      <c r="E64" s="695"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -30643,22 +30734,22 @@
       <c r="J64" s="563"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="714" t="s">
+      <c r="D65" s="719" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="714"/>
+      <c r="E65" s="719"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="691" t="s">
+      <c r="I65" s="696" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="692"/>
-      <c r="K65" s="693">
+      <c r="J65" s="697"/>
+      <c r="K65" s="698">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="693"/>
+      <c r="L65" s="698"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="582"/>
@@ -30699,11 +30790,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="790">
+      <c r="K67" s="795">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="693"/>
+      <c r="L67" s="698"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -30720,22 +30811,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="673" t="s">
+      <c r="D69" s="678" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="674"/>
+      <c r="E69" s="679"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="675" t="s">
+      <c r="I69" s="680" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="676"/>
-      <c r="K69" s="677">
+      <c r="J69" s="681"/>
+      <c r="K69" s="682">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="677"/>
+      <c r="L69" s="682"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -30927,8 +31018,8 @@
   </sheetPr>
   <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31551,16 +31642,16 @@
         <v>44693</v>
       </c>
       <c r="B18" s="246" t="s">
-        <v>792</v>
+        <v>799</v>
       </c>
       <c r="C18" s="111">
-        <v>1128</v>
+        <v>3087.2</v>
       </c>
       <c r="D18" s="412"/>
       <c r="E18" s="111"/>
       <c r="F18" s="547">
         <f t="shared" si="0"/>
-        <v>1128</v>
+        <v>3087.2</v>
       </c>
       <c r="I18" s="393" t="s">
         <v>871</v>
@@ -31583,16 +31674,16 @@
         <v>44693</v>
       </c>
       <c r="B19" s="246" t="s">
-        <v>799</v>
+        <v>792</v>
       </c>
       <c r="C19" s="111">
-        <v>3087.2</v>
+        <v>1128</v>
       </c>
       <c r="D19" s="412"/>
       <c r="E19" s="111"/>
       <c r="F19" s="547">
         <f t="shared" si="0"/>
-        <v>3087.2</v>
+        <v>1128</v>
       </c>
       <c r="I19" s="393" t="s">
         <v>872</v>
@@ -32885,7 +32976,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="724" t="s">
+      <c r="F71" s="729" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -32898,7 +32989,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="725"/>
+      <c r="F72" s="730"/>
       <c r="K72" s="1"/>
       <c r="L72" s="97"/>
       <c r="M72" s="3"/>
@@ -32917,10 +33008,10 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="762" t="s">
+      <c r="I74" s="767" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="763"/>
+      <c r="J74" s="768"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
@@ -32928,20 +33019,16 @@
       <c r="C75" s="233"/>
       <c r="D75" s="655"/>
       <c r="E75" s="520"/>
-      <c r="F75" s="111">
-        <v>2520</v>
-      </c>
-      <c r="I75" s="764"/>
-      <c r="J75" s="765"/>
+      <c r="F75" s="111"/>
+      <c r="I75" s="769"/>
+      <c r="J75" s="770"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
       <c r="B76" s="511"/>
       <c r="C76" s="233"/>
       <c r="D76" s="656"/>
-      <c r="F76" s="111">
-        <v>8158.8</v>
-      </c>
+      <c r="F76" s="96"/>
       <c r="I76"/>
       <c r="J76" s="194"/>
       <c r="N76"/>
@@ -32951,9 +33038,7 @@
       <c r="B77" s="511"/>
       <c r="C77" s="233"/>
       <c r="D77" s="656"/>
-      <c r="F77" s="111">
-        <v>9299</v>
-      </c>
+      <c r="F77" s="96"/>
       <c r="I77"/>
       <c r="J77" s="194"/>
       <c r="N77"/>
@@ -32963,9 +33048,7 @@
       <c r="B78" s="511"/>
       <c r="C78" s="233"/>
       <c r="D78" s="656"/>
-      <c r="F78" s="111">
-        <v>10924.4</v>
-      </c>
+      <c r="F78" s="96"/>
       <c r="I78"/>
       <c r="J78" s="194"/>
       <c r="N78"/>
@@ -32975,9 +33058,7 @@
       <c r="B79" s="511"/>
       <c r="C79" s="233"/>
       <c r="D79" s="656"/>
-      <c r="F79" s="111">
-        <v>48105.599999999999</v>
-      </c>
+      <c r="F79" s="96"/>
       <c r="I79"/>
       <c r="J79" s="194"/>
       <c r="N79"/>
@@ -32987,9 +33068,7 @@
       <c r="B80" s="513"/>
       <c r="C80" s="233"/>
       <c r="D80" s="656"/>
-      <c r="F80" s="111">
-        <v>8408.4</v>
-      </c>
+      <c r="F80" s="96"/>
       <c r="I80"/>
       <c r="J80" s="194"/>
       <c r="N80"/>
@@ -32999,10 +33078,7 @@
       <c r="B81" s="513"/>
       <c r="C81" s="233"/>
       <c r="D81" s="656"/>
-      <c r="F81" s="457">
-        <f>SUM(F75:F80)</f>
-        <v>87416.199999999983</v>
-      </c>
+      <c r="F81" s="96"/>
       <c r="I81"/>
       <c r="J81" s="194"/>
       <c r="N81"/>
@@ -33012,7 +33088,7 @@
       <c r="B82" s="513"/>
       <c r="C82" s="233"/>
       <c r="D82" s="656"/>
-      <c r="F82"/>
+      <c r="F82" s="96"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
       <c r="N82"/>
@@ -33022,7 +33098,7 @@
       <c r="B83" s="513"/>
       <c r="C83" s="233"/>
       <c r="D83" s="656"/>
-      <c r="F83"/>
+      <c r="F83" s="96"/>
       <c r="I83"/>
       <c r="J83" s="194"/>
       <c r="N83"/>
@@ -33031,7 +33107,7 @@
       <c r="A84" s="512"/>
       <c r="B84" s="513"/>
       <c r="C84" s="233"/>
-      <c r="F84" s="233"/>
+      <c r="F84" s="111"/>
       <c r="I84"/>
       <c r="J84" s="194"/>
       <c r="N84"/>
@@ -33041,7 +33117,7 @@
       <c r="B85" s="511"/>
       <c r="C85" s="129"/>
       <c r="E85"/>
-      <c r="F85" s="233"/>
+      <c r="F85" s="111"/>
       <c r="I85"/>
       <c r="J85" s="194"/>
       <c r="M85"/>
@@ -33051,7 +33127,7 @@
       <c r="A86" s="456"/>
       <c r="B86" s="442"/>
       <c r="E86"/>
-      <c r="F86" s="233"/>
+      <c r="F86" s="111"/>
       <c r="I86"/>
       <c r="J86" s="194"/>
       <c r="M86"/>
@@ -33061,7 +33137,7 @@
       <c r="A87" s="456"/>
       <c r="B87" s="442"/>
       <c r="E87"/>
-      <c r="F87" s="233"/>
+      <c r="F87" s="111"/>
       <c r="I87"/>
       <c r="J87" s="194"/>
       <c r="M87"/>
@@ -33072,20 +33148,20 @@
       <c r="B88" s="246"/>
       <c r="C88" s="111"/>
       <c r="E88"/>
-      <c r="F88" s="233"/>
+      <c r="F88" s="111"/>
       <c r="I88"/>
       <c r="J88" s="194"/>
       <c r="M88"/>
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="795" t="s">
+      <c r="A89" s="800" t="s">
         <v>806</v>
       </c>
-      <c r="B89" s="796"/>
-      <c r="C89" s="796"/>
+      <c r="B89" s="801"/>
+      <c r="C89" s="801"/>
       <c r="E89"/>
-      <c r="F89" s="233"/>
+      <c r="F89" s="111"/>
       <c r="I89"/>
       <c r="J89" s="194"/>
       <c r="M89"/>
@@ -33093,12 +33169,12 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="797" t="s">
+      <c r="B90" s="802" t="s">
         <v>807</v>
       </c>
-      <c r="C90" s="798"/>
+      <c r="C90" s="803"/>
       <c r="E90"/>
-      <c r="F90" s="233"/>
+      <c r="F90" s="111"/>
       <c r="I90"/>
       <c r="J90" s="194"/>
       <c r="M90"/>
@@ -33115,7 +33191,7 @@
         <v>73144.72</v>
       </c>
       <c r="E91"/>
-      <c r="F91" s="233"/>
+      <c r="F91" s="111"/>
       <c r="J91" s="194"/>
       <c r="M91"/>
     </row>
@@ -33130,7 +33206,7 @@
         <v>54053.32</v>
       </c>
       <c r="E92"/>
-      <c r="F92" s="233"/>
+      <c r="F92" s="111"/>
       <c r="J92" s="194"/>
       <c r="M92"/>
     </row>
@@ -33145,7 +33221,7 @@
         <v>101400.66</v>
       </c>
       <c r="E93"/>
-      <c r="F93" s="233"/>
+      <c r="F93" s="111"/>
       <c r="J93" s="194"/>
       <c r="M93"/>
     </row>
@@ -33160,7 +33236,7 @@
         <v>185753.4</v>
       </c>
       <c r="E94"/>
-      <c r="F94" s="233"/>
+      <c r="F94" s="111"/>
       <c r="J94" s="194"/>
       <c r="M94"/>
     </row>
@@ -33175,7 +33251,7 @@
         <v>72323.33</v>
       </c>
       <c r="E95"/>
-      <c r="F95" s="233"/>
+      <c r="F95" s="111"/>
       <c r="J95" s="194"/>
       <c r="M95"/>
     </row>
@@ -33190,38 +33266,46 @@
         <v>138449.44</v>
       </c>
       <c r="E96"/>
-      <c r="F96" s="233"/>
+      <c r="F96" s="111"/>
       <c r="J96" s="194"/>
       <c r="M96"/>
     </row>
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
-      <c r="B97"/>
-      <c r="C97" s="793">
+      <c r="B97" s="664"/>
+      <c r="C97" s="798">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
       <c r="E97"/>
-      <c r="F97" s="233"/>
+      <c r="F97" s="111"/>
       <c r="J97" s="194"/>
       <c r="M97"/>
     </row>
     <row r="98" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98"/>
-      <c r="B98" s="513" t="s">
+      <c r="B98" s="665" t="s">
         <v>885</v>
       </c>
-      <c r="C98" s="794"/>
+      <c r="C98" s="799"/>
       <c r="E98"/>
-      <c r="F98" s="127"/>
+      <c r="F98" s="127">
+        <v>0</v>
+      </c>
       <c r="J98" s="194"/>
       <c r="M98"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99"/>
-      <c r="B99"/>
-      <c r="C99"/>
+      <c r="B99" s="665" t="s">
+        <v>918</v>
+      </c>
+      <c r="C99" s="664"/>
       <c r="E99"/>
+      <c r="F99" s="3">
+        <f>SUM(F75:F98)</f>
+        <v>0</v>
+      </c>
       <c r="J99" s="194"/>
       <c r="M99"/>
     </row>
@@ -33254,8 +33338,8 @@
       <c r="K106" s="154"/>
     </row>
   </sheetData>
-  <sortState ref="A19:C26">
-    <sortCondition ref="A19:A26"/>
+  <sortState ref="A18:C19">
+    <sortCondition ref="B18:B19"/>
   </sortState>
   <mergeCells count="5">
     <mergeCell ref="F71:F72"/>
@@ -33276,8 +33360,8 @@
   </sheetPr>
   <dimension ref="A1:Z91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19:O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -33307,23 +33391,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="662"/>
-      <c r="C1" s="728" t="s">
+      <c r="B1" s="667"/>
+      <c r="C1" s="733" t="s">
         <v>886</v>
       </c>
-      <c r="D1" s="729"/>
-      <c r="E1" s="729"/>
-      <c r="F1" s="729"/>
-      <c r="G1" s="729"/>
-      <c r="H1" s="729"/>
-      <c r="I1" s="729"/>
-      <c r="J1" s="729"/>
-      <c r="K1" s="729"/>
-      <c r="L1" s="729"/>
-      <c r="M1" s="729"/>
+      <c r="D1" s="734"/>
+      <c r="E1" s="734"/>
+      <c r="F1" s="734"/>
+      <c r="G1" s="734"/>
+      <c r="H1" s="734"/>
+      <c r="I1" s="734"/>
+      <c r="J1" s="734"/>
+      <c r="K1" s="734"/>
+      <c r="L1" s="734"/>
+      <c r="M1" s="734"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="663"/>
+      <c r="B2" s="668"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -33333,24 +33417,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="666" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="667"/>
+      <c r="B3" s="671" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="672"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="668" t="s">
+      <c r="H3" s="673" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="668"/>
+      <c r="I3" s="673"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="705" t="s">
+      <c r="P3" s="710" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="726" t="s">
+      <c r="R3" s="731" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -33369,14 +33453,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="669" t="s">
+      <c r="E4" s="674" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="670"/>
-      <c r="H4" s="671" t="s">
+      <c r="F4" s="675"/>
+      <c r="H4" s="676" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="672"/>
+      <c r="I4" s="677"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -33386,15 +33470,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="706"/>
+      <c r="P4" s="711"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="727"/>
+      <c r="R4" s="732"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="788"/>
-      <c r="X4" s="788"/>
+      <c r="W4" s="793"/>
+      <c r="X4" s="793"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33408,7 +33492,7 @@
         <v>17042</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E5" s="27">
         <v>44711</v>
@@ -33433,7 +33517,7 @@
         <v>37265</v>
       </c>
       <c r="O5" s="661" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="P5" s="34">
         <f>N5+M5+L5+I5+C5</f>
@@ -33449,8 +33533,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="788"/>
-      <c r="X5" s="788"/>
+      <c r="W5" s="793"/>
+      <c r="X5" s="793"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33462,7 +33546,7 @@
         <v>15711</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="E6" s="27">
         <v>44712</v>
@@ -33488,7 +33572,7 @@
         <v>18266</v>
       </c>
       <c r="O6" s="661" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="P6" s="39">
         <f>N6+M6+L6+I6+C6</f>
@@ -33518,7 +33602,7 @@
         <v>15653</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="E7" s="27">
         <v>44713</v>
@@ -33543,7 +33627,7 @@
         <v>44301</v>
       </c>
       <c r="O7" s="661" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="P7" s="39">
         <f>N7+M7+L7+I7+C7</f>
@@ -33572,7 +33656,7 @@
         <v>22345.5</v>
       </c>
       <c r="D8" s="42" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E8" s="27">
         <v>44714</v>
@@ -33597,7 +33681,7 @@
         <v>26720</v>
       </c>
       <c r="O8" s="661" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="P8" s="39">
         <f t="shared" ref="P8:P40" si="1">N8+M8+L8+I8+C8</f>
@@ -33626,7 +33710,7 @@
         <v>8782</v>
       </c>
       <c r="D9" s="42" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="E9" s="27">
         <v>44715</v>
@@ -33652,7 +33736,7 @@
         <v>37301</v>
       </c>
       <c r="O9" s="661" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="P9" s="39">
         <f t="shared" si="1"/>
@@ -33682,7 +33766,7 @@
         <v>8510</v>
       </c>
       <c r="D10" s="40" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="E10" s="27">
         <v>44716</v>
@@ -33701,7 +33785,7 @@
         <v>44716</v>
       </c>
       <c r="K10" s="167" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="L10" s="45">
         <v>17900.55</v>
@@ -33713,7 +33797,7 @@
         <v>42627</v>
       </c>
       <c r="O10" s="661" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="P10" s="39">
         <f>N10+M10+L10+I10+C10</f>
@@ -33743,7 +33827,7 @@
         <v>17196</v>
       </c>
       <c r="D11" s="35" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E11" s="27">
         <v>44717</v>
@@ -33768,7 +33852,7 @@
         <v>26288</v>
       </c>
       <c r="O11" s="661" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="P11" s="39">
         <f t="shared" si="1"/>
@@ -33798,7 +33882,7 @@
         <v>19447</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E12" s="27">
         <v>44718</v>
@@ -33823,7 +33907,7 @@
         <v>53795</v>
       </c>
       <c r="O12" s="661" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="P12" s="39">
         <f t="shared" si="1"/>
@@ -33853,7 +33937,7 @@
         <v>11837</v>
       </c>
       <c r="D13" s="42" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E13" s="27">
         <v>44719</v>
@@ -33878,7 +33962,7 @@
         <v>41994</v>
       </c>
       <c r="O13" s="661" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="P13" s="39">
         <f t="shared" si="1"/>
@@ -33933,8 +34017,8 @@
       <c r="N14" s="33">
         <v>26626</v>
       </c>
-      <c r="O14" s="799" t="s">
-        <v>916</v>
+      <c r="O14" s="662" t="s">
+        <v>915</v>
       </c>
       <c r="P14" s="39">
         <f t="shared" si="1"/>
@@ -33963,7 +34047,7 @@
         <v>19937</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E15" s="27">
         <v>44721</v>
@@ -33987,8 +34071,8 @@
       <c r="N15" s="33">
         <v>35493</v>
       </c>
-      <c r="O15" s="800" t="s">
-        <v>918</v>
+      <c r="O15" s="663" t="s">
+        <v>917</v>
       </c>
       <c r="P15" s="39">
         <f t="shared" si="1"/>
@@ -34013,29 +34097,40 @@
       <c r="B16" s="24">
         <v>44722</v>
       </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="35"/>
+      <c r="C16" s="25">
+        <v>6058</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>927</v>
+      </c>
       <c r="E16" s="27">
         <v>44722</v>
       </c>
-      <c r="F16" s="28"/>
+      <c r="F16" s="28">
+        <v>93108</v>
+      </c>
       <c r="G16" s="575"/>
       <c r="H16" s="29">
         <v>44722</v>
       </c>
-      <c r="I16" s="30"/>
+      <c r="I16" s="30">
+        <v>3821</v>
+      </c>
       <c r="J16" s="37"/>
       <c r="K16" s="169"/>
       <c r="L16" s="9"/>
       <c r="M16" s="32">
-        <v>0</v>
+        <v>45943</v>
       </c>
       <c r="N16" s="33">
-        <v>0</v>
+        <v>37286</v>
+      </c>
+      <c r="O16" s="663" t="s">
+        <v>917</v>
       </c>
       <c r="P16" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>93108</v>
       </c>
       <c r="Q16" s="325">
         <f t="shared" si="0"/>
@@ -34056,33 +34151,50 @@
       <c r="B17" s="24">
         <v>44723</v>
       </c>
-      <c r="C17" s="25"/>
-      <c r="D17" s="42"/>
+      <c r="C17" s="25">
+        <v>20251.5</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>928</v>
+      </c>
       <c r="E17" s="27">
         <v>44723</v>
       </c>
-      <c r="F17" s="28"/>
+      <c r="F17" s="28">
+        <v>107583</v>
+      </c>
       <c r="G17" s="575"/>
       <c r="H17" s="29">
         <v>44723</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="45"/>
+      <c r="I17" s="30">
+        <v>11112</v>
+      </c>
+      <c r="J17" s="37">
+        <v>44723</v>
+      </c>
+      <c r="K17" s="38" t="s">
+        <v>929</v>
+      </c>
+      <c r="L17" s="45">
+        <v>17644</v>
+      </c>
       <c r="M17" s="32">
-        <v>0</v>
+        <v>16613.5</v>
       </c>
       <c r="N17" s="33">
-        <v>0</v>
+        <v>41982</v>
+      </c>
+      <c r="O17" s="663" t="s">
+        <v>917</v>
       </c>
       <c r="P17" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>107603</v>
       </c>
       <c r="Q17" s="325">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R17" s="319">
         <v>0</v>
@@ -34099,29 +34211,40 @@
       <c r="B18" s="24">
         <v>44724</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="35"/>
+      <c r="C18" s="25">
+        <v>39213</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>931</v>
+      </c>
       <c r="E18" s="27">
         <v>44724</v>
       </c>
-      <c r="F18" s="28"/>
+      <c r="F18" s="28">
+        <v>101692</v>
+      </c>
       <c r="G18" s="575"/>
       <c r="H18" s="29">
         <v>44724</v>
       </c>
-      <c r="I18" s="30"/>
+      <c r="I18" s="30">
+        <v>1779</v>
+      </c>
       <c r="J18" s="37"/>
       <c r="K18" s="567"/>
       <c r="L18" s="39"/>
       <c r="M18" s="32">
-        <v>0</v>
+        <v>17154</v>
       </c>
       <c r="N18" s="33">
-        <v>0</v>
+        <v>43546</v>
+      </c>
+      <c r="O18" s="663" t="s">
+        <v>917</v>
       </c>
       <c r="P18" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>101692</v>
       </c>
       <c r="Q18" s="325">
         <f t="shared" si="0"/>
@@ -34142,33 +34265,44 @@
       <c r="B19" s="24">
         <v>44725</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="35"/>
+      <c r="C19" s="25">
+        <v>15568</v>
+      </c>
+      <c r="D19" s="35" t="s">
+        <v>932</v>
+      </c>
       <c r="E19" s="27">
         <v>44725</v>
       </c>
-      <c r="F19" s="28"/>
+      <c r="F19" s="28">
+        <v>103799</v>
+      </c>
       <c r="G19" s="575"/>
       <c r="H19" s="29">
         <v>44725</v>
       </c>
-      <c r="I19" s="30"/>
+      <c r="I19" s="30">
+        <v>1784</v>
+      </c>
       <c r="J19" s="37"/>
       <c r="K19" s="46"/>
       <c r="L19" s="47"/>
       <c r="M19" s="32">
-        <v>0</v>
+        <v>50350</v>
       </c>
       <c r="N19" s="33">
-        <v>0</v>
+        <v>36099</v>
+      </c>
+      <c r="O19" s="663" t="s">
+        <v>917</v>
       </c>
       <c r="P19" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>103801</v>
       </c>
       <c r="Q19" s="325">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R19" s="319">
         <v>0</v>
@@ -34176,7 +34310,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="789"/>
+      <c r="W19" s="794"/>
       <c r="X19" s="544"/>
       <c r="Y19" s="233"/>
     </row>
@@ -34185,29 +34319,40 @@
       <c r="B20" s="24">
         <v>44726</v>
       </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="35"/>
+      <c r="C20" s="25">
+        <v>14890</v>
+      </c>
+      <c r="D20" s="35" t="s">
+        <v>933</v>
+      </c>
       <c r="E20" s="27">
         <v>44726</v>
       </c>
-      <c r="F20" s="28"/>
+      <c r="F20" s="28">
+        <v>85339</v>
+      </c>
       <c r="G20" s="575"/>
       <c r="H20" s="29">
         <v>44726</v>
       </c>
-      <c r="I20" s="30"/>
+      <c r="I20" s="30">
+        <v>1413</v>
+      </c>
       <c r="J20" s="37"/>
       <c r="K20" s="171"/>
       <c r="L20" s="45"/>
       <c r="M20" s="32">
-        <v>0</v>
+        <v>44920</v>
       </c>
       <c r="N20" s="33">
-        <v>0</v>
+        <v>24116</v>
+      </c>
+      <c r="O20" s="663" t="s">
+        <v>917</v>
       </c>
       <c r="P20" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>85339</v>
       </c>
       <c r="Q20" s="325">
         <f t="shared" si="0"/>
@@ -34219,7 +34364,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="789"/>
+      <c r="W20" s="794"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -34262,8 +34407,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="721"/>
-      <c r="X21" s="721"/>
+      <c r="W21" s="726"/>
+      <c r="X21" s="726"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -34350,8 +34495,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="722"/>
-      <c r="X23" s="722"/>
+      <c r="W23" s="727"/>
+      <c r="X23" s="727"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -34394,8 +34539,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="722"/>
-      <c r="X24" s="722"/>
+      <c r="W24" s="727"/>
+      <c r="X24" s="727"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -34437,8 +34582,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="723"/>
-      <c r="X25" s="723"/>
+      <c r="W25" s="728"/>
+      <c r="X25" s="728"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -34482,8 +34627,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="723"/>
-      <c r="X26" s="723"/>
+      <c r="W26" s="728"/>
+      <c r="X26" s="728"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -34527,9 +34672,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="716"/>
-      <c r="X27" s="717"/>
-      <c r="Y27" s="718"/>
+      <c r="W27" s="721"/>
+      <c r="X27" s="722"/>
+      <c r="Y27" s="723"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34572,9 +34717,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="717"/>
-      <c r="X28" s="717"/>
-      <c r="Y28" s="718"/>
+      <c r="W28" s="722"/>
+      <c r="X28" s="722"/>
+      <c r="Y28" s="723"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -35093,26 +35238,26 @@
         <v>44716</v>
       </c>
       <c r="K41" s="38" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="707">
+      <c r="M41" s="712">
         <f>SUM(M5:M40)</f>
-        <v>581339.5</v>
-      </c>
-      <c r="N41" s="707">
+        <v>756320</v>
+      </c>
+      <c r="N41" s="712">
         <f>SUM(N5:N40)</f>
-        <v>390676</v>
+        <v>573705</v>
       </c>
       <c r="P41" s="506">
         <f>SUM(P5:P40)</f>
-        <v>1174771.55</v>
-      </c>
-      <c r="Q41" s="766">
+        <v>1666314.55</v>
+      </c>
+      <c r="Q41" s="771">
         <f>SUM(Q5:Q40)</f>
-        <v>3.5500000000029104</v>
+        <v>25.55000000000291</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -35125,13 +35270,19 @@
       <c r="G42" s="575"/>
       <c r="H42" s="76"/>
       <c r="I42" s="77"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="173"/>
-      <c r="L42" s="52"/>
-      <c r="M42" s="708"/>
-      <c r="N42" s="708"/>
+      <c r="J42" s="51">
+        <v>44723</v>
+      </c>
+      <c r="K42" s="173" t="s">
+        <v>930</v>
+      </c>
+      <c r="L42" s="52">
+        <v>17035.3</v>
+      </c>
+      <c r="M42" s="713"/>
+      <c r="N42" s="713"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="767"/>
+      <c r="Q42" s="772"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -35182,11 +35333,11 @@
       <c r="J45" s="56"/>
       <c r="K45" s="38"/>
       <c r="L45" s="39"/>
-      <c r="M45" s="768">
+      <c r="M45" s="773">
         <f>M41+N41</f>
-        <v>972015.5</v>
-      </c>
-      <c r="N45" s="769"/>
+        <v>1330025</v>
+      </c>
+      <c r="N45" s="774"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -35467,7 +35618,7 @@
       </c>
       <c r="C61" s="87">
         <f>SUM(C5:C60)</f>
-        <v>159208.5</v>
+        <v>255189</v>
       </c>
       <c r="D61" s="88"/>
       <c r="E61" s="91" t="s">
@@ -35475,7 +35626,7 @@
       </c>
       <c r="F61" s="90">
         <f>SUM(F5:F60)</f>
-        <v>1146003</v>
+        <v>1637524</v>
       </c>
       <c r="G61" s="576"/>
       <c r="H61" s="91" t="s">
@@ -35483,7 +35634,7 @@
       </c>
       <c r="I61" s="92">
         <f>SUM(I5:I60)</f>
-        <v>25647</v>
+        <v>45556</v>
       </c>
       <c r="J61" s="93"/>
       <c r="K61" s="94" t="s">
@@ -35491,7 +35642,7 @@
       </c>
       <c r="L61" s="95">
         <f>SUM(L5:L60)</f>
-        <v>36892.92</v>
+        <v>71572.22</v>
       </c>
       <c r="M61" s="96"/>
       <c r="N61" s="96"/>
@@ -35509,50 +35660,50 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="684" t="s">
+      <c r="H63" s="689" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="685"/>
+      <c r="I63" s="690"/>
       <c r="J63" s="562"/>
-      <c r="K63" s="791">
+      <c r="K63" s="796">
         <f>I61+L61</f>
-        <v>62539.92</v>
-      </c>
-      <c r="L63" s="792"/>
+        <v>117128.22</v>
+      </c>
+      <c r="L63" s="797"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="690" t="s">
+      <c r="D64" s="695" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="690"/>
+      <c r="E64" s="695"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
-        <v>924254.58000000007</v>
+        <v>1265206.78</v>
       </c>
       <c r="I64" s="102"/>
       <c r="J64" s="563"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="714" t="s">
+      <c r="D65" s="719" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="714"/>
+      <c r="E65" s="719"/>
       <c r="F65" s="111">
         <v>0</v>
       </c>
-      <c r="I65" s="691" t="s">
+      <c r="I65" s="696" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="692"/>
-      <c r="K65" s="693">
+      <c r="J65" s="697"/>
+      <c r="K65" s="698">
         <f>F67+F68+F69</f>
-        <v>924254.58000000007</v>
-      </c>
-      <c r="L65" s="693"/>
+        <v>1265206.78</v>
+      </c>
+      <c r="L65" s="698"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="660"/>
@@ -35586,18 +35737,18 @@
       </c>
       <c r="F67" s="96">
         <f>SUM(F64:F66)</f>
-        <v>924254.58000000007</v>
+        <v>1265206.78</v>
       </c>
       <c r="H67" s="558"/>
       <c r="I67" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="790">
+      <c r="K67" s="795">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L67" s="693"/>
+      <c r="L67" s="698"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -35612,22 +35763,22 @@
     </row>
     <row r="69" spans="2:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C69" s="112"/>
-      <c r="D69" s="673" t="s">
+      <c r="D69" s="678" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="674"/>
+      <c r="E69" s="679"/>
       <c r="F69" s="113">
         <v>0</v>
       </c>
-      <c r="I69" s="675" t="s">
+      <c r="I69" s="680" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="676"/>
-      <c r="K69" s="677">
+      <c r="J69" s="681"/>
+      <c r="K69" s="682">
         <f>K65+K67</f>
-        <v>-1622727.58</v>
-      </c>
-      <c r="L69" s="677"/>
+        <v>-1281775.3800000001</v>
+      </c>
+      <c r="L69" s="682"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -35816,8 +35967,8 @@
   </sheetPr>
   <dimension ref="A1:M123"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36316,14 +36467,20 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="454"/>
-      <c r="B19" s="246"/>
-      <c r="C19" s="111"/>
+      <c r="A19" s="454">
+        <v>44723</v>
+      </c>
+      <c r="B19" s="246" t="s">
+        <v>920</v>
+      </c>
+      <c r="C19" s="111">
+        <v>75251.399999999994</v>
+      </c>
       <c r="D19" s="412"/>
       <c r="E19" s="111"/>
       <c r="F19" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>75251.399999999994</v>
       </c>
       <c r="H19" s="393"/>
       <c r="I19" s="391"/>
@@ -36336,14 +36493,20 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="454"/>
-      <c r="B20" s="246"/>
-      <c r="C20" s="111"/>
+      <c r="A20" s="454">
+        <v>44725</v>
+      </c>
+      <c r="B20" s="246" t="s">
+        <v>921</v>
+      </c>
+      <c r="C20" s="111">
+        <v>59986.66</v>
+      </c>
       <c r="D20" s="412"/>
       <c r="E20" s="111"/>
       <c r="F20" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>59986.66</v>
       </c>
       <c r="H20" s="393"/>
       <c r="I20" s="391"/>
@@ -36356,14 +36519,20 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="454"/>
-      <c r="B21" s="246"/>
-      <c r="C21" s="111"/>
+      <c r="A21" s="454">
+        <v>44726</v>
+      </c>
+      <c r="B21" s="246" t="s">
+        <v>922</v>
+      </c>
+      <c r="C21" s="111">
+        <v>28057.52</v>
+      </c>
       <c r="D21" s="412"/>
       <c r="E21" s="111"/>
       <c r="F21" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>28057.52</v>
       </c>
       <c r="H21" s="393"/>
       <c r="I21" s="391"/>
@@ -36376,14 +36545,20 @@
       </c>
     </row>
     <row r="22" spans="1:13" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A22" s="454"/>
-      <c r="B22" s="246"/>
-      <c r="C22" s="111"/>
+      <c r="A22" s="454">
+        <v>44726</v>
+      </c>
+      <c r="B22" s="246" t="s">
+        <v>923</v>
+      </c>
+      <c r="C22" s="111">
+        <v>4554</v>
+      </c>
       <c r="D22" s="412"/>
       <c r="E22" s="111"/>
       <c r="F22" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4554</v>
       </c>
       <c r="G22" s="649"/>
       <c r="H22" s="393"/>
@@ -36397,14 +36572,20 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="454"/>
-      <c r="B23" s="246"/>
-      <c r="C23" s="111"/>
+      <c r="A23" s="454">
+        <v>44727</v>
+      </c>
+      <c r="B23" s="246" t="s">
+        <v>924</v>
+      </c>
+      <c r="C23" s="111">
+        <v>20506.8</v>
+      </c>
       <c r="D23" s="412"/>
       <c r="E23" s="111"/>
       <c r="F23" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>20506.8</v>
       </c>
       <c r="G23" s="2"/>
       <c r="H23" s="393"/>
@@ -36418,14 +36599,20 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="454"/>
-      <c r="B24" s="246"/>
-      <c r="C24" s="111"/>
+      <c r="A24" s="454">
+        <v>44728</v>
+      </c>
+      <c r="B24" s="246" t="s">
+        <v>925</v>
+      </c>
+      <c r="C24" s="111">
+        <v>70754.91</v>
+      </c>
       <c r="D24" s="412"/>
       <c r="E24" s="111"/>
       <c r="F24" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>70754.91</v>
       </c>
       <c r="G24" s="2"/>
       <c r="H24" s="393"/>
@@ -36439,14 +36626,20 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="454"/>
-      <c r="B25" s="246"/>
-      <c r="C25" s="111"/>
+      <c r="A25" s="666">
+        <v>44729</v>
+      </c>
+      <c r="B25" s="260" t="s">
+        <v>926</v>
+      </c>
+      <c r="C25" s="261">
+        <v>102195.9</v>
+      </c>
       <c r="D25" s="412"/>
       <c r="E25" s="111"/>
       <c r="F25" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>102195.9</v>
       </c>
       <c r="G25" s="650"/>
       <c r="H25" s="393"/>
@@ -37290,7 +37483,7 @@
       <c r="B67" s="440"/>
       <c r="C67" s="212">
         <f>SUM(C3:C66)</f>
-        <v>818494.5</v>
+        <v>1179801.69</v>
       </c>
       <c r="D67" s="407"/>
       <c r="E67" s="395">
@@ -37299,12 +37492,12 @@
       </c>
       <c r="F67" s="153">
         <f>SUM(F3:F66)</f>
-        <v>818494.5</v>
-      </c>
-      <c r="H67" s="762" t="s">
+        <v>1179801.69</v>
+      </c>
+      <c r="H67" s="767" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="763"/>
+      <c r="I67" s="768"/>
       <c r="J67" s="647">
         <f>SUM(J3:J66)</f>
         <v>0</v>
@@ -37324,11 +37517,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="724" t="s">
+      <c r="F68" s="729" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="764"/>
-      <c r="I68" s="765"/>
+      <c r="H68" s="769"/>
+      <c r="I68" s="770"/>
       <c r="J68" s="1"/>
       <c r="K68" s="97"/>
       <c r="L68" s="3"/>
@@ -37339,7 +37532,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="725"/>
+      <c r="F69" s="730"/>
       <c r="J69" s="1"/>
       <c r="K69" s="97"/>
       <c r="L69" s="3"/>
@@ -39279,7 +39472,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="697" t="s">
+      <c r="B41" s="702" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -39311,7 +39504,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="698"/>
+      <c r="B42" s="703"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -40931,23 +41124,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="662"/>
-      <c r="C1" s="664" t="s">
+      <c r="B1" s="667"/>
+      <c r="C1" s="669" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="665"/>
-      <c r="E1" s="665"/>
-      <c r="F1" s="665"/>
-      <c r="G1" s="665"/>
-      <c r="H1" s="665"/>
-      <c r="I1" s="665"/>
-      <c r="J1" s="665"/>
-      <c r="K1" s="665"/>
-      <c r="L1" s="665"/>
-      <c r="M1" s="665"/>
+      <c r="D1" s="670"/>
+      <c r="E1" s="670"/>
+      <c r="F1" s="670"/>
+      <c r="G1" s="670"/>
+      <c r="H1" s="670"/>
+      <c r="I1" s="670"/>
+      <c r="J1" s="670"/>
+      <c r="K1" s="670"/>
+      <c r="L1" s="670"/>
+      <c r="M1" s="670"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="663"/>
+      <c r="B2" s="668"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -40957,21 +41150,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="666" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="667"/>
+      <c r="B3" s="671" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="672"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="668" t="s">
+      <c r="H3" s="673" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="668"/>
+      <c r="I3" s="673"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="705" t="s">
+      <c r="P3" s="710" t="s">
         <v>6</v>
       </c>
     </row>
@@ -40986,14 +41179,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="669" t="s">
+      <c r="E4" s="674" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="670"/>
-      <c r="H4" s="671" t="s">
+      <c r="F4" s="675"/>
+      <c r="H4" s="676" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="672"/>
+      <c r="I4" s="677"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -41003,14 +41196,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="706"/>
+      <c r="P4" s="711"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="715" t="s">
+      <c r="W4" s="720" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="715"/>
+      <c r="X4" s="720"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -41061,8 +41254,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="715"/>
-      <c r="X5" s="715"/>
+      <c r="W5" s="720"/>
+      <c r="X5" s="720"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -41833,7 +42026,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="719">
+      <c r="W19" s="724">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -41885,7 +42078,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="720"/>
+      <c r="W20" s="725"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -41934,8 +42127,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="721"/>
-      <c r="X21" s="721"/>
+      <c r="W21" s="726"/>
+      <c r="X21" s="726"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -42036,8 +42229,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="722"/>
-      <c r="X23" s="722"/>
+      <c r="W23" s="727"/>
+      <c r="X23" s="727"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -42091,8 +42284,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="722"/>
-      <c r="X24" s="722"/>
+      <c r="W24" s="727"/>
+      <c r="X24" s="727"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -42138,8 +42331,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="723"/>
-      <c r="X25" s="723"/>
+      <c r="W25" s="728"/>
+      <c r="X25" s="728"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -42190,8 +42383,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="723"/>
-      <c r="X26" s="723"/>
+      <c r="W26" s="728"/>
+      <c r="X26" s="728"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -42239,9 +42432,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="716"/>
-      <c r="X27" s="717"/>
-      <c r="Y27" s="718"/>
+      <c r="W27" s="721"/>
+      <c r="X27" s="722"/>
+      <c r="Y27" s="723"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42291,9 +42484,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="717"/>
-      <c r="X28" s="717"/>
-      <c r="Y28" s="718"/>
+      <c r="W28" s="722"/>
+      <c r="X28" s="722"/>
+      <c r="Y28" s="723"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42628,11 +42821,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="707">
+      <c r="M36" s="712">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="709">
+      <c r="N36" s="714">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -42640,7 +42833,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="711">
+      <c r="Q36" s="716">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -42675,13 +42868,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="708"/>
-      <c r="N37" s="710"/>
+      <c r="M37" s="713"/>
+      <c r="N37" s="715"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="712"/>
+      <c r="Q37" s="717"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -42971,26 +43164,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="684" t="s">
+      <c r="H52" s="689" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="685"/>
+      <c r="I52" s="690"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="686">
+      <c r="K52" s="691">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="713"/>
+      <c r="L52" s="718"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="690" t="s">
+      <c r="D53" s="695" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="690"/>
+      <c r="E53" s="695"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -42999,29 +43192,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="714" t="s">
+      <c r="D54" s="719" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="714"/>
+      <c r="E54" s="719"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="691" t="s">
+      <c r="I54" s="696" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="692"/>
-      <c r="K54" s="693">
+      <c r="J54" s="697"/>
+      <c r="K54" s="698">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="693"/>
-      <c r="M54" s="699" t="s">
+      <c r="L54" s="698"/>
+      <c r="M54" s="704" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="700"/>
-      <c r="O54" s="700"/>
-      <c r="P54" s="700"/>
-      <c r="Q54" s="701"/>
+      <c r="N54" s="705"/>
+      <c r="O54" s="705"/>
+      <c r="P54" s="705"/>
+      <c r="Q54" s="706"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -43035,11 +43228,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="702"/>
-      <c r="N55" s="703"/>
-      <c r="O55" s="703"/>
-      <c r="P55" s="703"/>
-      <c r="Q55" s="704"/>
+      <c r="M55" s="707"/>
+      <c r="N55" s="708"/>
+      <c r="O55" s="708"/>
+      <c r="P55" s="708"/>
+      <c r="Q55" s="709"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -43057,11 +43250,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="695">
+      <c r="K56" s="700">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="696"/>
+      <c r="L56" s="701"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -43078,22 +43271,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="673" t="s">
+      <c r="D58" s="678" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="674"/>
+      <c r="E58" s="679"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="675" t="s">
+      <c r="I58" s="680" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="676"/>
-      <c r="K58" s="677">
+      <c r="J58" s="681"/>
+      <c r="K58" s="682">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="677"/>
+      <c r="L58" s="682"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -45683,7 +45876,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="724" t="s">
+      <c r="F87" s="729" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -45696,7 +45889,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="725"/>
+      <c r="F88" s="730"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -46008,23 +46201,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="662"/>
-      <c r="C1" s="664" t="s">
+      <c r="B1" s="667"/>
+      <c r="C1" s="669" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="665"/>
-      <c r="E1" s="665"/>
-      <c r="F1" s="665"/>
-      <c r="G1" s="665"/>
-      <c r="H1" s="665"/>
-      <c r="I1" s="665"/>
-      <c r="J1" s="665"/>
-      <c r="K1" s="665"/>
-      <c r="L1" s="665"/>
-      <c r="M1" s="665"/>
+      <c r="D1" s="670"/>
+      <c r="E1" s="670"/>
+      <c r="F1" s="670"/>
+      <c r="G1" s="670"/>
+      <c r="H1" s="670"/>
+      <c r="I1" s="670"/>
+      <c r="J1" s="670"/>
+      <c r="K1" s="670"/>
+      <c r="L1" s="670"/>
+      <c r="M1" s="670"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="663"/>
+      <c r="B2" s="668"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -46034,24 +46227,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="666" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="667"/>
+      <c r="B3" s="671" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="672"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="668" t="s">
+      <c r="H3" s="673" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="668"/>
+      <c r="I3" s="673"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="705" t="s">
+      <c r="P3" s="710" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="726" t="s">
+      <c r="R3" s="731" t="s">
         <v>216</v>
       </c>
     </row>
@@ -46066,14 +46259,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="669" t="s">
+      <c r="E4" s="674" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="670"/>
-      <c r="H4" s="671" t="s">
+      <c r="F4" s="675"/>
+      <c r="H4" s="676" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="672"/>
+      <c r="I4" s="677"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -46083,15 +46276,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="706"/>
+      <c r="P4" s="711"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="727"/>
-      <c r="W4" s="715" t="s">
+      <c r="R4" s="732"/>
+      <c r="W4" s="720" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="715"/>
+      <c r="X4" s="720"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -46152,8 +46345,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="715"/>
-      <c r="X5" s="715"/>
+      <c r="W5" s="720"/>
+      <c r="X5" s="720"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -46910,7 +47103,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="719">
+      <c r="W19" s="724">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -46962,7 +47155,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="720"/>
+      <c r="W20" s="725"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -47011,8 +47204,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="721"/>
-      <c r="X21" s="721"/>
+      <c r="W21" s="726"/>
+      <c r="X21" s="726"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -47113,8 +47306,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="722"/>
-      <c r="X23" s="722"/>
+      <c r="W23" s="727"/>
+      <c r="X23" s="727"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -47165,8 +47358,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="722"/>
-      <c r="X24" s="722"/>
+      <c r="W24" s="727"/>
+      <c r="X24" s="727"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -47212,8 +47405,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="723"/>
-      <c r="X25" s="723"/>
+      <c r="W25" s="728"/>
+      <c r="X25" s="728"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -47261,8 +47454,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="723"/>
-      <c r="X26" s="723"/>
+      <c r="W26" s="728"/>
+      <c r="X26" s="728"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -47322,9 +47515,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="716"/>
-      <c r="X27" s="717"/>
-      <c r="Y27" s="718"/>
+      <c r="W27" s="721"/>
+      <c r="X27" s="722"/>
+      <c r="Y27" s="723"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47378,9 +47571,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="717"/>
-      <c r="X28" s="717"/>
-      <c r="Y28" s="718"/>
+      <c r="W28" s="722"/>
+      <c r="X28" s="722"/>
+      <c r="Y28" s="723"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47696,11 +47889,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="707">
+      <c r="M36" s="712">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="709">
+      <c r="N36" s="714">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -47708,7 +47901,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="711">
+      <c r="Q36" s="716">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -47727,13 +47920,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="708"/>
-      <c r="N37" s="710"/>
+      <c r="M37" s="713"/>
+      <c r="N37" s="715"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="712"/>
+      <c r="Q37" s="717"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -48007,26 +48200,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="684" t="s">
+      <c r="H52" s="689" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="685"/>
+      <c r="I52" s="690"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="686">
+      <c r="K52" s="691">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="713"/>
+      <c r="L52" s="718"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="690" t="s">
+      <c r="D53" s="695" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="690"/>
+      <c r="E53" s="695"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -48035,29 +48228,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="714" t="s">
+      <c r="D54" s="719" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="714"/>
+      <c r="E54" s="719"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="691" t="s">
+      <c r="I54" s="696" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="692"/>
-      <c r="K54" s="693">
+      <c r="J54" s="697"/>
+      <c r="K54" s="698">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="693"/>
-      <c r="M54" s="699" t="s">
+      <c r="L54" s="698"/>
+      <c r="M54" s="704" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="700"/>
-      <c r="O54" s="700"/>
-      <c r="P54" s="700"/>
-      <c r="Q54" s="701"/>
+      <c r="N54" s="705"/>
+      <c r="O54" s="705"/>
+      <c r="P54" s="705"/>
+      <c r="Q54" s="706"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -48071,11 +48264,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="702"/>
-      <c r="N55" s="703"/>
-      <c r="O55" s="703"/>
-      <c r="P55" s="703"/>
-      <c r="Q55" s="704"/>
+      <c r="M55" s="707"/>
+      <c r="N55" s="708"/>
+      <c r="O55" s="708"/>
+      <c r="P55" s="708"/>
+      <c r="Q55" s="709"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -48093,11 +48286,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="695">
+      <c r="K56" s="700">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="696"/>
+      <c r="L56" s="701"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -48114,22 +48307,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="673" t="s">
+      <c r="D58" s="678" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="674"/>
+      <c r="E58" s="679"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="675" t="s">
+      <c r="I58" s="680" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="676"/>
-      <c r="K58" s="677">
+      <c r="J58" s="681"/>
+      <c r="K58" s="682">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="677"/>
+      <c r="L58" s="682"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -50692,7 +50885,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="724" t="s">
+      <c r="F75" s="729" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -50705,7 +50898,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="725"/>
+      <c r="F76" s="730"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -50997,23 +51190,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="662"/>
-      <c r="C1" s="728" t="s">
+      <c r="B1" s="667"/>
+      <c r="C1" s="733" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="729"/>
-      <c r="E1" s="729"/>
-      <c r="F1" s="729"/>
-      <c r="G1" s="729"/>
-      <c r="H1" s="729"/>
-      <c r="I1" s="729"/>
-      <c r="J1" s="729"/>
-      <c r="K1" s="729"/>
-      <c r="L1" s="729"/>
-      <c r="M1" s="729"/>
+      <c r="D1" s="734"/>
+      <c r="E1" s="734"/>
+      <c r="F1" s="734"/>
+      <c r="G1" s="734"/>
+      <c r="H1" s="734"/>
+      <c r="I1" s="734"/>
+      <c r="J1" s="734"/>
+      <c r="K1" s="734"/>
+      <c r="L1" s="734"/>
+      <c r="M1" s="734"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="663"/>
+      <c r="B2" s="668"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -51023,24 +51216,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="666" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="667"/>
+      <c r="B3" s="671" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="672"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="668" t="s">
+      <c r="H3" s="673" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="668"/>
+      <c r="I3" s="673"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="705" t="s">
+      <c r="P3" s="710" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="726" t="s">
+      <c r="R3" s="731" t="s">
         <v>216</v>
       </c>
     </row>
@@ -51055,14 +51248,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="669" t="s">
+      <c r="E4" s="674" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="670"/>
-      <c r="H4" s="671" t="s">
+      <c r="F4" s="675"/>
+      <c r="H4" s="676" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="672"/>
+      <c r="I4" s="677"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -51072,15 +51265,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="706"/>
+      <c r="P4" s="711"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="727"/>
-      <c r="W4" s="715" t="s">
+      <c r="R4" s="732"/>
+      <c r="W4" s="720" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="715"/>
+      <c r="X4" s="720"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -51131,8 +51324,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="715"/>
-      <c r="X5" s="715"/>
+      <c r="W5" s="720"/>
+      <c r="X5" s="720"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -51896,7 +52089,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="719">
+      <c r="W19" s="724">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -51949,7 +52142,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="720"/>
+      <c r="W20" s="725"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -51998,8 +52191,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="721"/>
-      <c r="X21" s="721"/>
+      <c r="W21" s="726"/>
+      <c r="X21" s="726"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -52099,8 +52292,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="722"/>
-      <c r="X23" s="722"/>
+      <c r="W23" s="727"/>
+      <c r="X23" s="727"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -52155,8 +52348,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="722"/>
-      <c r="X24" s="722"/>
+      <c r="W24" s="727"/>
+      <c r="X24" s="727"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -52201,8 +52394,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="723"/>
-      <c r="X25" s="723"/>
+      <c r="W25" s="728"/>
+      <c r="X25" s="728"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -52250,8 +52443,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="723"/>
-      <c r="X26" s="723"/>
+      <c r="W26" s="728"/>
+      <c r="X26" s="728"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -52305,9 +52498,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="716"/>
-      <c r="X27" s="717"/>
-      <c r="Y27" s="718"/>
+      <c r="W27" s="721"/>
+      <c r="X27" s="722"/>
+      <c r="Y27" s="723"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52361,9 +52554,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="717"/>
-      <c r="X28" s="717"/>
-      <c r="Y28" s="718"/>
+      <c r="W28" s="722"/>
+      <c r="X28" s="722"/>
+      <c r="Y28" s="723"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52674,11 +52867,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="707">
+      <c r="M36" s="712">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="709">
+      <c r="N36" s="714">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -52686,7 +52879,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="711">
+      <c r="Q36" s="716">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -52711,13 +52904,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="708"/>
-      <c r="N37" s="710"/>
+      <c r="M37" s="713"/>
+      <c r="N37" s="715"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="712"/>
+      <c r="Q37" s="717"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -53010,26 +53203,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="684" t="s">
+      <c r="H52" s="689" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="685"/>
+      <c r="I52" s="690"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="686">
+      <c r="K52" s="691">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="713"/>
+      <c r="L52" s="718"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="690" t="s">
+      <c r="D53" s="695" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="690"/>
+      <c r="E53" s="695"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -53038,22 +53231,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="714" t="s">
+      <c r="D54" s="719" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="714"/>
+      <c r="E54" s="719"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="691" t="s">
+      <c r="I54" s="696" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="692"/>
-      <c r="K54" s="693">
+      <c r="J54" s="697"/>
+      <c r="K54" s="698">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="693"/>
+      <c r="L54" s="698"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -53094,11 +53287,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="695">
+      <c r="K56" s="700">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="696"/>
+      <c r="L56" s="701"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -53115,22 +53308,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="673" t="s">
+      <c r="D58" s="678" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="674"/>
+      <c r="E58" s="679"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="675" t="s">
+      <c r="I58" s="680" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="676"/>
-      <c r="K58" s="677">
+      <c r="J58" s="681"/>
+      <c r="K58" s="682">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="677"/>
+      <c r="L58" s="682"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -54999,12 +55192,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="730" t="s">
+      <c r="B43" s="735" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="731"/>
-      <c r="D43" s="731"/>
-      <c r="E43" s="732"/>
+      <c r="C43" s="736"/>
+      <c r="D43" s="736"/>
+      <c r="E43" s="737"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -55032,10 +55225,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="733"/>
-      <c r="C44" s="734"/>
-      <c r="D44" s="734"/>
-      <c r="E44" s="735"/>
+      <c r="B44" s="738"/>
+      <c r="C44" s="739"/>
+      <c r="D44" s="739"/>
+      <c r="E44" s="740"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -55063,10 +55256,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="736"/>
-      <c r="C45" s="737"/>
-      <c r="D45" s="737"/>
-      <c r="E45" s="738"/>
+      <c r="B45" s="741"/>
+      <c r="C45" s="742"/>
+      <c r="D45" s="742"/>
+      <c r="E45" s="743"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -55109,10 +55302,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="745" t="s">
+      <c r="B47" s="750" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="746"/>
+      <c r="C47" s="751"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -55134,8 +55327,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="747"/>
-      <c r="C48" s="748"/>
+      <c r="B48" s="752"/>
+      <c r="C48" s="753"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -55143,11 +55336,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="739" t="s">
+      <c r="J48" s="744" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="740"/>
-      <c r="L48" s="741"/>
+      <c r="K48" s="745"/>
+      <c r="L48" s="746"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -55165,9 +55358,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="742"/>
-      <c r="K49" s="743"/>
-      <c r="L49" s="744"/>
+      <c r="J49" s="747"/>
+      <c r="K49" s="748"/>
+      <c r="L49" s="749"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -55184,10 +55377,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="749" t="s">
+      <c r="I50" s="754" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="750"/>
+      <c r="J50" s="755"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -55208,8 +55401,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="749"/>
-      <c r="J51" s="750"/>
+      <c r="I51" s="754"/>
+      <c r="J51" s="755"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -55228,8 +55421,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="749"/>
-      <c r="J52" s="750"/>
+      <c r="I52" s="754"/>
+      <c r="J52" s="755"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -55248,8 +55441,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="749"/>
-      <c r="J53" s="750"/>
+      <c r="I53" s="754"/>
+      <c r="J53" s="755"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -55268,8 +55461,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="749"/>
-      <c r="J54" s="750"/>
+      <c r="I54" s="754"/>
+      <c r="J54" s="755"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -55288,8 +55481,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="749"/>
-      <c r="J55" s="750"/>
+      <c r="I55" s="754"/>
+      <c r="J55" s="755"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -55308,8 +55501,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="749"/>
-      <c r="J56" s="750"/>
+      <c r="I56" s="754"/>
+      <c r="J56" s="755"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -55328,8 +55521,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="749"/>
-      <c r="J57" s="750"/>
+      <c r="I57" s="754"/>
+      <c r="J57" s="755"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -55348,8 +55541,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="749"/>
-      <c r="J58" s="750"/>
+      <c r="I58" s="754"/>
+      <c r="J58" s="755"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -55368,8 +55561,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="749"/>
-      <c r="J59" s="750"/>
+      <c r="I59" s="754"/>
+      <c r="J59" s="755"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -55388,8 +55581,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="749"/>
-      <c r="J60" s="750"/>
+      <c r="I60" s="754"/>
+      <c r="J60" s="755"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -55408,8 +55601,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="749"/>
-      <c r="J61" s="750"/>
+      <c r="I61" s="754"/>
+      <c r="J61" s="755"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -55428,8 +55621,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="749"/>
-      <c r="J62" s="750"/>
+      <c r="I62" s="754"/>
+      <c r="J62" s="755"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -55448,8 +55641,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="749"/>
-      <c r="J63" s="750"/>
+      <c r="I63" s="754"/>
+      <c r="J63" s="755"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -55468,8 +55661,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="749"/>
-      <c r="J64" s="750"/>
+      <c r="I64" s="754"/>
+      <c r="J64" s="755"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -55488,8 +55681,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="749"/>
-      <c r="J65" s="750"/>
+      <c r="I65" s="754"/>
+      <c r="J65" s="755"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -55508,8 +55701,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="749"/>
-      <c r="J66" s="750"/>
+      <c r="I66" s="754"/>
+      <c r="J66" s="755"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -55528,8 +55721,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="749"/>
-      <c r="J67" s="750"/>
+      <c r="I67" s="754"/>
+      <c r="J67" s="755"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -55548,8 +55741,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="749"/>
-      <c r="J68" s="750"/>
+      <c r="I68" s="754"/>
+      <c r="J68" s="755"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -55568,8 +55761,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="749"/>
-      <c r="J69" s="750"/>
+      <c r="I69" s="754"/>
+      <c r="J69" s="755"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -55588,8 +55781,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="749"/>
-      <c r="J70" s="750"/>
+      <c r="I70" s="754"/>
+      <c r="J70" s="755"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -55608,8 +55801,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="749"/>
-      <c r="J71" s="750"/>
+      <c r="I71" s="754"/>
+      <c r="J71" s="755"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -55628,8 +55821,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="749"/>
-      <c r="J72" s="750"/>
+      <c r="I72" s="754"/>
+      <c r="J72" s="755"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -55648,8 +55841,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="749"/>
-      <c r="J73" s="750"/>
+      <c r="I73" s="754"/>
+      <c r="J73" s="755"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -55668,8 +55861,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="749"/>
-      <c r="J74" s="750"/>
+      <c r="I74" s="754"/>
+      <c r="J74" s="755"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -55688,8 +55881,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="749"/>
-      <c r="J75" s="750"/>
+      <c r="I75" s="754"/>
+      <c r="J75" s="755"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -55708,8 +55901,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="749"/>
-      <c r="J76" s="750"/>
+      <c r="I76" s="754"/>
+      <c r="J76" s="755"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -55728,8 +55921,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="749"/>
-      <c r="J77" s="750"/>
+      <c r="I77" s="754"/>
+      <c r="J77" s="755"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -55750,8 +55943,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="751"/>
-      <c r="J78" s="752"/>
+      <c r="I78" s="756"/>
+      <c r="J78" s="757"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -55796,7 +55989,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="724" t="s">
+      <c r="F80" s="729" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -55808,7 +56001,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="725"/>
+      <c r="F81" s="730"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -56096,23 +56289,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="662"/>
-      <c r="C1" s="728" t="s">
+      <c r="B1" s="667"/>
+      <c r="C1" s="733" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="729"/>
-      <c r="E1" s="729"/>
-      <c r="F1" s="729"/>
-      <c r="G1" s="729"/>
-      <c r="H1" s="729"/>
-      <c r="I1" s="729"/>
-      <c r="J1" s="729"/>
-      <c r="K1" s="729"/>
-      <c r="L1" s="729"/>
-      <c r="M1" s="729"/>
+      <c r="D1" s="734"/>
+      <c r="E1" s="734"/>
+      <c r="F1" s="734"/>
+      <c r="G1" s="734"/>
+      <c r="H1" s="734"/>
+      <c r="I1" s="734"/>
+      <c r="J1" s="734"/>
+      <c r="K1" s="734"/>
+      <c r="L1" s="734"/>
+      <c r="M1" s="734"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="663"/>
+      <c r="B2" s="668"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -56122,24 +56315,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="666" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="667"/>
+      <c r="B3" s="671" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="672"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="668" t="s">
+      <c r="H3" s="673" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="668"/>
+      <c r="I3" s="673"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="705" t="s">
+      <c r="P3" s="710" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="726" t="s">
+      <c r="R3" s="731" t="s">
         <v>216</v>
       </c>
     </row>
@@ -56154,14 +56347,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="669" t="s">
+      <c r="E4" s="674" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="670"/>
-      <c r="H4" s="671" t="s">
+      <c r="F4" s="675"/>
+      <c r="H4" s="676" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="672"/>
+      <c r="I4" s="677"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -56171,15 +56364,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="706"/>
+      <c r="P4" s="711"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="727"/>
-      <c r="W4" s="715" t="s">
+      <c r="R4" s="732"/>
+      <c r="W4" s="720" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="715"/>
+      <c r="X4" s="720"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -56230,8 +56423,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="715"/>
-      <c r="X5" s="715"/>
+      <c r="W5" s="720"/>
+      <c r="X5" s="720"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -56992,7 +57185,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="719">
+      <c r="W19" s="724">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -57044,7 +57237,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="720"/>
+      <c r="W20" s="725"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -57093,8 +57286,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="721"/>
-      <c r="X21" s="721"/>
+      <c r="W21" s="726"/>
+      <c r="X21" s="726"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -57193,8 +57386,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="722"/>
-      <c r="X23" s="722"/>
+      <c r="W23" s="727"/>
+      <c r="X23" s="727"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -57249,8 +57442,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="722"/>
-      <c r="X24" s="722"/>
+      <c r="W24" s="727"/>
+      <c r="X24" s="727"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -57298,8 +57491,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="723"/>
-      <c r="X25" s="723"/>
+      <c r="W25" s="728"/>
+      <c r="X25" s="728"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -57347,8 +57540,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="723"/>
-      <c r="X26" s="723"/>
+      <c r="W26" s="728"/>
+      <c r="X26" s="728"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -57396,9 +57589,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="716"/>
-      <c r="X27" s="717"/>
-      <c r="Y27" s="718"/>
+      <c r="W27" s="721"/>
+      <c r="X27" s="722"/>
+      <c r="Y27" s="723"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57446,9 +57639,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="717"/>
-      <c r="X28" s="717"/>
-      <c r="Y28" s="718"/>
+      <c r="W28" s="722"/>
+      <c r="X28" s="722"/>
+      <c r="Y28" s="723"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57789,11 +57982,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="707">
+      <c r="M36" s="712">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="709">
+      <c r="N36" s="714">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -57801,7 +57994,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="753">
+      <c r="Q36" s="758">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -57826,13 +58019,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="708"/>
-      <c r="N37" s="710"/>
+      <c r="M37" s="713"/>
+      <c r="N37" s="715"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="754"/>
+      <c r="Q37" s="759"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -57882,11 +58075,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="755">
+      <c r="M39" s="760">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="756"/>
+      <c r="N39" s="761"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -58134,26 +58327,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="684" t="s">
+      <c r="H52" s="689" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="685"/>
+      <c r="I52" s="690"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="686">
+      <c r="K52" s="691">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="713"/>
+      <c r="L52" s="718"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="690" t="s">
+      <c r="D53" s="695" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="690"/>
+      <c r="E53" s="695"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -58162,22 +58355,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="714" t="s">
+      <c r="D54" s="719" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="714"/>
+      <c r="E54" s="719"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="691" t="s">
+      <c r="I54" s="696" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="692"/>
-      <c r="K54" s="693">
+      <c r="J54" s="697"/>
+      <c r="K54" s="698">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="693"/>
+      <c r="L54" s="698"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -58218,11 +58411,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="695">
+      <c r="K56" s="700">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="696"/>
+      <c r="L56" s="701"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -58239,22 +58432,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="673" t="s">
+      <c r="D58" s="678" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="674"/>
+      <c r="E58" s="679"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="675" t="s">
+      <c r="I58" s="680" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="676"/>
-      <c r="K58" s="677">
+      <c r="J58" s="681"/>
+      <c r="K58" s="682">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="677"/>
+      <c r="L58" s="682"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE    ZAVALETA   JUNIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE    ZAVALETA   JUNIO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="16" activeTab="17"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="17" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -710,7 +710,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="939">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -3525,6 +3525,21 @@
   </si>
   <si>
     <t>QUESOS-POLLO-SALCHICHA-FILETE-CALAFIA</t>
+  </si>
+  <si>
+    <t>POLLO-LONGANIZA-JAMON-SALCHICHA-CHISTORRA</t>
+  </si>
+  <si>
+    <t>QUESOS-POLLO-LONGANIZA-CHORIZO</t>
+  </si>
+  <si>
+    <t>PICAÑA-QUSOS-POLLO-CREMA-MANTEQUILLA</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-PAN ARABE</t>
+  </si>
+  <si>
+    <t>NOMINA # 25</t>
   </si>
 </sst>
 </file>
@@ -6898,39 +6913,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7003,10 +6985,76 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7050,39 +7098,6 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7276,20 +7291,20 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="18" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11684,23 +11699,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="667"/>
-      <c r="C1" s="669" t="s">
+      <c r="B1" s="691"/>
+      <c r="C1" s="693" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="670"/>
-      <c r="E1" s="670"/>
-      <c r="F1" s="670"/>
-      <c r="G1" s="670"/>
-      <c r="H1" s="670"/>
-      <c r="I1" s="670"/>
-      <c r="J1" s="670"/>
-      <c r="K1" s="670"/>
-      <c r="L1" s="670"/>
-      <c r="M1" s="670"/>
+      <c r="D1" s="694"/>
+      <c r="E1" s="694"/>
+      <c r="F1" s="694"/>
+      <c r="G1" s="694"/>
+      <c r="H1" s="694"/>
+      <c r="I1" s="694"/>
+      <c r="J1" s="694"/>
+      <c r="K1" s="694"/>
+      <c r="L1" s="694"/>
+      <c r="M1" s="694"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="668"/>
+      <c r="B2" s="692"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -11710,17 +11725,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="671" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="672"/>
+      <c r="B3" s="695" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="696"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="673" t="s">
+      <c r="H3" s="697" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="673"/>
+      <c r="I3" s="697"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -11734,14 +11749,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="674" t="s">
+      <c r="E4" s="698" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="675"/>
-      <c r="H4" s="676" t="s">
+      <c r="F4" s="699"/>
+      <c r="H4" s="700" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="677"/>
+      <c r="I4" s="701"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -11751,10 +11766,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="683" t="s">
+      <c r="P4" s="672" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="684"/>
+      <c r="Q4" s="673"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -13195,11 +13210,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="685">
+      <c r="M39" s="674">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="687">
+      <c r="N39" s="676">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -13225,8 +13240,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="686"/>
-      <c r="N40" s="688"/>
+      <c r="M40" s="675"/>
+      <c r="N40" s="677"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -13441,29 +13456,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="689" t="s">
+      <c r="H52" s="678" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="690"/>
+      <c r="I52" s="679"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="691">
+      <c r="K52" s="680">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="692"/>
-      <c r="M52" s="693">
+      <c r="L52" s="681"/>
+      <c r="M52" s="682">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="694"/>
+      <c r="N52" s="683"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="695" t="s">
+      <c r="D53" s="684" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="695"/>
+      <c r="E53" s="684"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -13474,22 +13489,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="695" t="s">
+      <c r="D54" s="684" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="695"/>
+      <c r="E54" s="684"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="696" t="s">
+      <c r="I54" s="685" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="697"/>
-      <c r="K54" s="698">
+      <c r="J54" s="686"/>
+      <c r="K54" s="687">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="699"/>
+      <c r="L54" s="688"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -13522,11 +13537,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="700">
+      <c r="K56" s="689">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="701"/>
+      <c r="L56" s="690"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -13543,22 +13558,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="678" t="s">
+      <c r="D58" s="667" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="679"/>
+      <c r="E58" s="668"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="680" t="s">
+      <c r="I58" s="669" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="681"/>
-      <c r="K58" s="682">
+      <c r="J58" s="670"/>
+      <c r="K58" s="671">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="682"/>
+      <c r="L58" s="671"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -13702,6 +13717,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -13716,12 +13737,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16580,7 +16595,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="667"/>
+      <c r="B1" s="691"/>
       <c r="C1" s="733" t="s">
         <v>451</v>
       </c>
@@ -16596,7 +16611,7 @@
       <c r="M1" s="734"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="668"/>
+      <c r="B2" s="692"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -16606,21 +16621,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="671" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="672"/>
+      <c r="B3" s="695" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="696"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="673" t="s">
+      <c r="H3" s="697" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="673"/>
+      <c r="I3" s="697"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="710" t="s">
+      <c r="P3" s="721" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="731" t="s">
@@ -16638,14 +16653,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="674" t="s">
+      <c r="E4" s="698" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="675"/>
-      <c r="H4" s="676" t="s">
+      <c r="F4" s="699"/>
+      <c r="H4" s="700" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="677"/>
+      <c r="I4" s="701"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -16655,15 +16670,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="711"/>
+      <c r="P4" s="722"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="732"/>
-      <c r="W4" s="720" t="s">
+      <c r="W4" s="704" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="720"/>
+      <c r="X4" s="704"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16714,8 +16729,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="720"/>
-      <c r="X5" s="720"/>
+      <c r="W5" s="704"/>
+      <c r="X5" s="704"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17478,7 +17493,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="724">
+      <c r="W19" s="708">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -17530,7 +17545,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="725"/>
+      <c r="W20" s="709"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -17579,8 +17594,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="726"/>
-      <c r="X21" s="726"/>
+      <c r="W21" s="710"/>
+      <c r="X21" s="710"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -17680,8 +17695,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="727"/>
-      <c r="X23" s="727"/>
+      <c r="W23" s="711"/>
+      <c r="X23" s="711"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -17736,8 +17751,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="727"/>
-      <c r="X24" s="727"/>
+      <c r="W24" s="711"/>
+      <c r="X24" s="711"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -17785,8 +17800,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="728"/>
-      <c r="X25" s="728"/>
+      <c r="W25" s="712"/>
+      <c r="X25" s="712"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -17835,8 +17850,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="728"/>
-      <c r="X26" s="728"/>
+      <c r="W26" s="712"/>
+      <c r="X26" s="712"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -17884,9 +17899,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="721"/>
-      <c r="X27" s="722"/>
-      <c r="Y27" s="723"/>
+      <c r="W27" s="705"/>
+      <c r="X27" s="706"/>
+      <c r="Y27" s="707"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17934,9 +17949,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="722"/>
-      <c r="X28" s="722"/>
-      <c r="Y28" s="723"/>
+      <c r="W28" s="706"/>
+      <c r="X28" s="706"/>
+      <c r="Y28" s="707"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18268,11 +18283,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="712">
+      <c r="M36" s="723">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="714">
+      <c r="N36" s="725">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -18305,8 +18320,8 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="713"/>
-      <c r="N37" s="715"/>
+      <c r="M37" s="724"/>
+      <c r="N37" s="726"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
@@ -18993,26 +19008,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="689" t="s">
+      <c r="H68" s="678" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="690"/>
+      <c r="I68" s="679"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="691">
+      <c r="K68" s="680">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="718"/>
+      <c r="L68" s="713"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="695" t="s">
+      <c r="D69" s="684" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="695"/>
+      <c r="E69" s="684"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -19021,22 +19036,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="719" t="s">
+      <c r="D70" s="714" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="719"/>
+      <c r="E70" s="714"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="696" t="s">
+      <c r="I70" s="685" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="697"/>
-      <c r="K70" s="698">
+      <c r="J70" s="686"/>
+      <c r="K70" s="687">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="698"/>
+      <c r="L70" s="687"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -19077,11 +19092,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="700">
+      <c r="K72" s="689">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="701"/>
+      <c r="L72" s="690"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -19098,22 +19113,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="678" t="s">
+      <c r="D74" s="667" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="679"/>
+      <c r="E74" s="668"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="680" t="s">
+      <c r="I74" s="669" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="681"/>
-      <c r="K74" s="682">
+      <c r="J74" s="670"/>
+      <c r="K74" s="671">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="682"/>
+      <c r="L74" s="671"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -19260,6 +19275,21 @@
     <sortCondition ref="B34:B42"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -19275,21 +19305,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21875,7 +21890,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="667"/>
+      <c r="B1" s="691"/>
       <c r="C1" s="733" t="s">
         <v>620</v>
       </c>
@@ -21891,7 +21906,7 @@
       <c r="M1" s="734"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="668"/>
+      <c r="B2" s="692"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -21901,21 +21916,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="671" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="672"/>
+      <c r="B3" s="695" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="696"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="673" t="s">
+      <c r="H3" s="697" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="673"/>
+      <c r="I3" s="697"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="710" t="s">
+      <c r="P3" s="721" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="731" t="s">
@@ -21933,14 +21948,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="674" t="s">
+      <c r="E4" s="698" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="675"/>
-      <c r="H4" s="676" t="s">
+      <c r="F4" s="699"/>
+      <c r="H4" s="700" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="677"/>
+      <c r="I4" s="701"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -21950,15 +21965,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="711"/>
+      <c r="P4" s="722"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="732"/>
-      <c r="W4" s="720" t="s">
+      <c r="W4" s="704" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="720"/>
+      <c r="X4" s="704"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22009,8 +22024,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="720"/>
-      <c r="X5" s="720"/>
+      <c r="W5" s="704"/>
+      <c r="X5" s="704"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22769,7 +22784,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="724">
+      <c r="W19" s="708">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -22821,7 +22836,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="725"/>
+      <c r="W20" s="709"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -22870,8 +22885,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="726"/>
-      <c r="X21" s="726"/>
+      <c r="W21" s="710"/>
+      <c r="X21" s="710"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -22968,8 +22983,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="727"/>
-      <c r="X23" s="727"/>
+      <c r="W23" s="711"/>
+      <c r="X23" s="711"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -23024,8 +23039,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="727"/>
-      <c r="X24" s="727"/>
+      <c r="W24" s="711"/>
+      <c r="X24" s="711"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -23071,8 +23086,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="728"/>
-      <c r="X25" s="728"/>
+      <c r="W25" s="712"/>
+      <c r="X25" s="712"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -23123,8 +23138,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="728"/>
-      <c r="X26" s="728"/>
+      <c r="W26" s="712"/>
+      <c r="X26" s="712"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -23175,9 +23190,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="721"/>
-      <c r="X27" s="722"/>
-      <c r="Y27" s="723"/>
+      <c r="W27" s="705"/>
+      <c r="X27" s="706"/>
+      <c r="Y27" s="707"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23227,9 +23242,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="722"/>
-      <c r="X28" s="722"/>
-      <c r="Y28" s="723"/>
+      <c r="W28" s="706"/>
+      <c r="X28" s="706"/>
+      <c r="Y28" s="707"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23833,11 +23848,11 @@
       <c r="L41" s="627">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="712">
+      <c r="M41" s="723">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="712">
+      <c r="N41" s="723">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -23875,8 +23890,8 @@
       <c r="L42" s="630">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="713"/>
-      <c r="N42" s="713"/>
+      <c r="M42" s="724"/>
+      <c r="N42" s="724"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="772"/>
     </row>
@@ -24563,26 +24578,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="689" t="s">
+      <c r="H70" s="678" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="690"/>
+      <c r="I70" s="679"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="691">
+      <c r="K70" s="680">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="718"/>
+      <c r="L70" s="713"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="695" t="s">
+      <c r="D71" s="684" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="695"/>
+      <c r="E71" s="684"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -24592,22 +24607,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="719" t="s">
+      <c r="D72" s="714" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="719"/>
+      <c r="E72" s="714"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="696" t="s">
+      <c r="I72" s="685" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="697"/>
-      <c r="K72" s="698">
+      <c r="J72" s="686"/>
+      <c r="K72" s="687">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="698"/>
+      <c r="L72" s="687"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -24648,11 +24663,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="700">
+      <c r="K74" s="689">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="701"/>
+      <c r="L74" s="690"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -24671,22 +24686,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="678" t="s">
+      <c r="D76" s="667" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="679"/>
+      <c r="E76" s="668"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="680" t="s">
+      <c r="I76" s="669" t="s">
         <v>854</v>
       </c>
-      <c r="J76" s="681"/>
-      <c r="K76" s="682">
+      <c r="J76" s="670"/>
+      <c r="K76" s="671">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="682"/>
+      <c r="L76" s="671"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -24846,6 +24861,21 @@
     <sortCondition ref="J47:J67"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -24861,21 +24891,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -28172,7 +28187,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="667"/>
+      <c r="B1" s="691"/>
       <c r="C1" s="733" t="s">
         <v>754</v>
       </c>
@@ -28188,7 +28203,7 @@
       <c r="M1" s="734"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="668"/>
+      <c r="B2" s="692"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -28198,21 +28213,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="671" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="672"/>
+      <c r="B3" s="695" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="696"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="673" t="s">
+      <c r="H3" s="697" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="673"/>
+      <c r="I3" s="697"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="710" t="s">
+      <c r="P3" s="721" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="731" t="s">
@@ -28234,14 +28249,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="674" t="s">
+      <c r="E4" s="698" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="675"/>
-      <c r="H4" s="676" t="s">
+      <c r="F4" s="699"/>
+      <c r="H4" s="700" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="677"/>
+      <c r="I4" s="701"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -28251,15 +28266,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="711"/>
+      <c r="P4" s="722"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="732"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="793"/>
-      <c r="X4" s="793"/>
+      <c r="W4" s="796"/>
+      <c r="X4" s="796"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -28313,8 +28328,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="793"/>
-      <c r="X5" s="793"/>
+      <c r="W5" s="796"/>
+      <c r="X5" s="796"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29080,7 +29095,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="794"/>
+      <c r="W19" s="797"/>
       <c r="X19" s="544"/>
       <c r="Y19" s="233"/>
     </row>
@@ -29134,7 +29149,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="794"/>
+      <c r="W20" s="797"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -29189,8 +29204,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="726"/>
-      <c r="X21" s="726"/>
+      <c r="W21" s="710"/>
+      <c r="X21" s="710"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -29301,8 +29316,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="727"/>
-      <c r="X23" s="727"/>
+      <c r="W23" s="711"/>
+      <c r="X23" s="711"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -29363,8 +29378,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="727"/>
-      <c r="X24" s="727"/>
+      <c r="W24" s="711"/>
+      <c r="X24" s="711"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -29417,8 +29432,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="728"/>
-      <c r="X25" s="728"/>
+      <c r="W25" s="712"/>
+      <c r="X25" s="712"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -29473,8 +29488,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="728"/>
-      <c r="X26" s="728"/>
+      <c r="W26" s="712"/>
+      <c r="X26" s="712"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -29529,9 +29544,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="721"/>
-      <c r="X27" s="722"/>
-      <c r="Y27" s="723"/>
+      <c r="W27" s="705"/>
+      <c r="X27" s="706"/>
+      <c r="Y27" s="707"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29585,9 +29600,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="722"/>
-      <c r="X28" s="722"/>
-      <c r="Y28" s="723"/>
+      <c r="W28" s="706"/>
+      <c r="X28" s="706"/>
+      <c r="Y28" s="707"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30178,11 +30193,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="712">
+      <c r="M41" s="723">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="712">
+      <c r="N41" s="723">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -30214,8 +30229,8 @@
       <c r="L42" s="641">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="713"/>
-      <c r="N42" s="713"/>
+      <c r="M42" s="724"/>
+      <c r="N42" s="724"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="772"/>
     </row>
@@ -30706,26 +30721,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="689" t="s">
+      <c r="H63" s="678" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="690"/>
+      <c r="I63" s="679"/>
       <c r="J63" s="562"/>
-      <c r="K63" s="796">
+      <c r="K63" s="793">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="797"/>
+      <c r="L63" s="794"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="695" t="s">
+      <c r="D64" s="684" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="695"/>
+      <c r="E64" s="684"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -30734,22 +30749,22 @@
       <c r="J64" s="563"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="719" t="s">
+      <c r="D65" s="714" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="719"/>
+      <c r="E65" s="714"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="696" t="s">
+      <c r="I65" s="685" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="697"/>
-      <c r="K65" s="698">
+      <c r="J65" s="686"/>
+      <c r="K65" s="687">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="698"/>
+      <c r="L65" s="687"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="582"/>
@@ -30794,7 +30809,7 @@
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="698"/>
+      <c r="L67" s="687"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -30811,22 +30826,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="678" t="s">
+      <c r="D69" s="667" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="679"/>
+      <c r="E69" s="668"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="680" t="s">
+      <c r="I69" s="669" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="681"/>
-      <c r="K69" s="682">
+      <c r="J69" s="670"/>
+      <c r="K69" s="671">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="682"/>
+      <c r="L69" s="671"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -30973,21 +30988,6 @@
     <sortCondition ref="J42:J56"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -31003,6 +31003,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33360,8 +33375,8 @@
   </sheetPr>
   <dimension ref="A1:Z91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19:O20"/>
+    <sheetView tabSelected="1" topLeftCell="G15" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -33391,7 +33406,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="667"/>
+      <c r="B1" s="691"/>
       <c r="C1" s="733" t="s">
         <v>886</v>
       </c>
@@ -33407,7 +33422,7 @@
       <c r="M1" s="734"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="668"/>
+      <c r="B2" s="692"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -33417,21 +33432,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="671" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="672"/>
+      <c r="B3" s="695" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="696"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="673" t="s">
+      <c r="H3" s="697" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="673"/>
+      <c r="I3" s="697"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="710" t="s">
+      <c r="P3" s="721" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="731" t="s">
@@ -33453,14 +33468,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="674" t="s">
+      <c r="E4" s="698" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="675"/>
-      <c r="H4" s="676" t="s">
+      <c r="F4" s="699"/>
+      <c r="H4" s="700" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="677"/>
+      <c r="I4" s="701"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -33470,15 +33485,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="711"/>
+      <c r="P4" s="722"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="732"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="793"/>
-      <c r="X4" s="793"/>
+      <c r="W4" s="796"/>
+      <c r="X4" s="796"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33533,8 +33548,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="793"/>
-      <c r="X5" s="793"/>
+      <c r="W5" s="796"/>
+      <c r="X5" s="796"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34310,7 +34325,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="794"/>
+      <c r="W19" s="797"/>
       <c r="X19" s="544"/>
       <c r="Y19" s="233"/>
     </row>
@@ -34364,7 +34379,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="794"/>
+      <c r="W20" s="797"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -34373,29 +34388,40 @@
       <c r="B21" s="24">
         <v>44727</v>
       </c>
-      <c r="C21" s="25"/>
-      <c r="D21" s="35"/>
+      <c r="C21" s="25">
+        <v>20445</v>
+      </c>
+      <c r="D21" s="35" t="s">
+        <v>934</v>
+      </c>
       <c r="E21" s="27">
         <v>44727</v>
       </c>
-      <c r="F21" s="28"/>
+      <c r="F21" s="28">
+        <v>104472</v>
+      </c>
       <c r="G21" s="575"/>
       <c r="H21" s="29">
         <v>44727</v>
       </c>
-      <c r="I21" s="30"/>
+      <c r="I21" s="30">
+        <v>3516.5</v>
+      </c>
       <c r="J21" s="37"/>
       <c r="K21" s="568"/>
       <c r="L21" s="45"/>
       <c r="M21" s="32">
-        <v>0</v>
+        <v>36290.5</v>
       </c>
       <c r="N21" s="33">
-        <v>0</v>
+        <v>44220</v>
+      </c>
+      <c r="O21" s="663" t="s">
+        <v>917</v>
       </c>
       <c r="P21" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>104472</v>
       </c>
       <c r="Q21" s="325">
         <f t="shared" si="0"/>
@@ -34407,8 +34433,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="726"/>
-      <c r="X21" s="726"/>
+      <c r="W21" s="710"/>
+      <c r="X21" s="710"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -34417,29 +34443,40 @@
       <c r="B22" s="24">
         <v>44728</v>
       </c>
-      <c r="C22" s="25"/>
-      <c r="D22" s="35"/>
+      <c r="C22" s="25">
+        <v>15995</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>935</v>
+      </c>
       <c r="E22" s="27">
         <v>44728</v>
       </c>
-      <c r="F22" s="28"/>
+      <c r="F22" s="28">
+        <v>120324</v>
+      </c>
       <c r="G22" s="575"/>
       <c r="H22" s="29">
         <v>44728</v>
       </c>
-      <c r="I22" s="30"/>
+      <c r="I22" s="30">
+        <v>1076</v>
+      </c>
       <c r="J22" s="37"/>
       <c r="K22" s="31"/>
       <c r="L22" s="49"/>
       <c r="M22" s="32">
-        <v>0</v>
+        <v>49576</v>
       </c>
       <c r="N22" s="33">
-        <v>0</v>
+        <v>53677</v>
+      </c>
+      <c r="O22" s="663" t="s">
+        <v>917</v>
       </c>
       <c r="P22" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>120324</v>
       </c>
       <c r="Q22" s="325">
         <f t="shared" si="0"/>
@@ -34461,29 +34498,40 @@
       <c r="B23" s="24">
         <v>44729</v>
       </c>
-      <c r="C23" s="25"/>
-      <c r="D23" s="35"/>
+      <c r="C23" s="25">
+        <v>22532</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>936</v>
+      </c>
       <c r="E23" s="27">
         <v>44729</v>
       </c>
-      <c r="F23" s="28"/>
+      <c r="F23" s="28">
+        <v>114878</v>
+      </c>
       <c r="G23" s="575"/>
       <c r="H23" s="29">
         <v>44729</v>
       </c>
-      <c r="I23" s="30"/>
+      <c r="I23" s="30">
+        <v>3793</v>
+      </c>
       <c r="J23" s="50"/>
       <c r="K23" s="172"/>
       <c r="L23" s="45"/>
       <c r="M23" s="32">
-        <v>0</v>
+        <v>48123</v>
       </c>
       <c r="N23" s="33">
-        <v>0</v>
+        <v>40430</v>
+      </c>
+      <c r="O23" s="663" t="s">
+        <v>917</v>
       </c>
       <c r="P23" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>114878</v>
       </c>
       <c r="Q23" s="325">
         <f t="shared" si="0"/>
@@ -34495,8 +34543,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="727"/>
-      <c r="X23" s="727"/>
+      <c r="W23" s="711"/>
+      <c r="X23" s="711"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -34505,33 +34553,50 @@
       <c r="B24" s="24">
         <v>44730</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="42"/>
+      <c r="C24" s="25">
+        <v>10538</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>937</v>
+      </c>
       <c r="E24" s="27">
         <v>44730</v>
       </c>
-      <c r="F24" s="28"/>
+      <c r="F24" s="28">
+        <v>170128</v>
+      </c>
       <c r="G24" s="575"/>
       <c r="H24" s="29">
         <v>44730</v>
       </c>
-      <c r="I24" s="30"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="173"/>
-      <c r="L24" s="52"/>
+      <c r="I24" s="30">
+        <v>4444</v>
+      </c>
+      <c r="J24" s="51">
+        <v>44730</v>
+      </c>
+      <c r="K24" s="173" t="s">
+        <v>938</v>
+      </c>
+      <c r="L24" s="52">
+        <v>17514</v>
+      </c>
       <c r="M24" s="32">
-        <v>0</v>
+        <v>66300</v>
       </c>
       <c r="N24" s="33">
-        <v>0</v>
+        <v>71337</v>
+      </c>
+      <c r="O24" s="663" t="s">
+        <v>917</v>
       </c>
       <c r="P24" s="39">
         <f>N24+M24+L24+I24+C24</f>
-        <v>0</v>
+        <v>170133</v>
       </c>
       <c r="Q24" s="325">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R24" s="319">
         <v>0</v>
@@ -34539,8 +34604,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="727"/>
-      <c r="X24" s="727"/>
+      <c r="W24" s="711"/>
+      <c r="X24" s="711"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -34582,8 +34647,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="728"/>
-      <c r="X25" s="728"/>
+      <c r="W25" s="712"/>
+      <c r="X25" s="712"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -34627,8 +34692,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="728"/>
-      <c r="X26" s="728"/>
+      <c r="W26" s="712"/>
+      <c r="X26" s="712"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -34672,9 +34737,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="721"/>
-      <c r="X27" s="722"/>
-      <c r="Y27" s="723"/>
+      <c r="W27" s="705"/>
+      <c r="X27" s="706"/>
+      <c r="Y27" s="707"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34717,9 +34782,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="722"/>
-      <c r="X28" s="722"/>
-      <c r="Y28" s="723"/>
+      <c r="W28" s="706"/>
+      <c r="X28" s="706"/>
+      <c r="Y28" s="707"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -35243,21 +35308,21 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="712">
+      <c r="M41" s="723">
         <f>SUM(M5:M40)</f>
-        <v>756320</v>
-      </c>
-      <c r="N41" s="712">
+        <v>956609.5</v>
+      </c>
+      <c r="N41" s="723">
         <f>SUM(N5:N40)</f>
-        <v>573705</v>
+        <v>783369</v>
       </c>
       <c r="P41" s="506">
         <f>SUM(P5:P40)</f>
-        <v>1666314.55</v>
+        <v>2176121.5499999998</v>
       </c>
       <c r="Q41" s="771">
         <f>SUM(Q5:Q40)</f>
-        <v>25.55000000000291</v>
+        <v>30.55000000000291</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -35279,8 +35344,8 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="713"/>
-      <c r="N42" s="713"/>
+      <c r="M42" s="724"/>
+      <c r="N42" s="724"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="772"/>
     </row>
@@ -35294,9 +35359,15 @@
       <c r="G43" s="575"/>
       <c r="H43" s="76"/>
       <c r="I43" s="77"/>
-      <c r="J43" s="50"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="54"/>
+      <c r="J43" s="50">
+        <v>44730</v>
+      </c>
+      <c r="K43" s="38" t="s">
+        <v>938</v>
+      </c>
+      <c r="L43" s="54">
+        <v>18951.07</v>
+      </c>
       <c r="M43" s="648"/>
       <c r="N43" s="648"/>
       <c r="P43" s="34"/>
@@ -35335,7 +35406,7 @@
       <c r="L45" s="39"/>
       <c r="M45" s="773">
         <f>M41+N41</f>
-        <v>1330025</v>
+        <v>1739978.5</v>
       </c>
       <c r="N45" s="774"/>
       <c r="P45" s="34"/>
@@ -35618,7 +35689,7 @@
       </c>
       <c r="C61" s="87">
         <f>SUM(C5:C60)</f>
-        <v>255189</v>
+        <v>324699</v>
       </c>
       <c r="D61" s="88"/>
       <c r="E61" s="91" t="s">
@@ -35626,7 +35697,7 @@
       </c>
       <c r="F61" s="90">
         <f>SUM(F5:F60)</f>
-        <v>1637524</v>
+        <v>2147326</v>
       </c>
       <c r="G61" s="576"/>
       <c r="H61" s="91" t="s">
@@ -35634,7 +35705,7 @@
       </c>
       <c r="I61" s="92">
         <f>SUM(I5:I60)</f>
-        <v>45556</v>
+        <v>58385.5</v>
       </c>
       <c r="J61" s="93"/>
       <c r="K61" s="94" t="s">
@@ -35642,7 +35713,7 @@
       </c>
       <c r="L61" s="95">
         <f>SUM(L5:L60)</f>
-        <v>71572.22</v>
+        <v>108037.29000000001</v>
       </c>
       <c r="M61" s="96"/>
       <c r="N61" s="96"/>
@@ -35660,50 +35731,50 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="689" t="s">
+      <c r="H63" s="678" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="690"/>
+      <c r="I63" s="679"/>
       <c r="J63" s="562"/>
-      <c r="K63" s="796">
+      <c r="K63" s="793">
         <f>I61+L61</f>
-        <v>117128.22</v>
-      </c>
-      <c r="L63" s="797"/>
+        <v>166422.79</v>
+      </c>
+      <c r="L63" s="794"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="695" t="s">
+      <c r="D64" s="684" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="695"/>
+      <c r="E64" s="684"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
-        <v>1265206.78</v>
+        <v>1656204.21</v>
       </c>
       <c r="I64" s="102"/>
       <c r="J64" s="563"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="719" t="s">
+      <c r="D65" s="714" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="719"/>
+      <c r="E65" s="714"/>
       <c r="F65" s="111">
         <v>0</v>
       </c>
-      <c r="I65" s="696" t="s">
+      <c r="I65" s="685" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="697"/>
-      <c r="K65" s="698">
+      <c r="J65" s="686"/>
+      <c r="K65" s="687">
         <f>F67+F68+F69</f>
-        <v>1265206.78</v>
-      </c>
-      <c r="L65" s="698"/>
+        <v>1656204.21</v>
+      </c>
+      <c r="L65" s="687"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="660"/>
@@ -35737,7 +35808,7 @@
       </c>
       <c r="F67" s="96">
         <f>SUM(F64:F66)</f>
-        <v>1265206.78</v>
+        <v>1656204.21</v>
       </c>
       <c r="H67" s="558"/>
       <c r="I67" s="108" t="s">
@@ -35748,7 +35819,7 @@
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L67" s="698"/>
+      <c r="L67" s="687"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -35763,22 +35834,22 @@
     </row>
     <row r="69" spans="2:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C69" s="112"/>
-      <c r="D69" s="678" t="s">
+      <c r="D69" s="667" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="679"/>
+      <c r="E69" s="668"/>
       <c r="F69" s="113">
         <v>0</v>
       </c>
-      <c r="I69" s="680" t="s">
+      <c r="I69" s="669" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="681"/>
-      <c r="K69" s="682">
+      <c r="J69" s="670"/>
+      <c r="K69" s="671">
         <f>K65+K67</f>
-        <v>-1281775.3800000001</v>
-      </c>
-      <c r="L69" s="682"/>
+        <v>-890777.95000000019</v>
+      </c>
+      <c r="L69" s="671"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -35922,6 +35993,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="I69:J69"/>
     <mergeCell ref="K69:L69"/>
@@ -35932,26 +36023,6 @@
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="I65:J65"/>
     <mergeCell ref="K65:L65"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -41124,23 +41195,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="667"/>
-      <c r="C1" s="669" t="s">
+      <c r="B1" s="691"/>
+      <c r="C1" s="693" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="670"/>
-      <c r="E1" s="670"/>
-      <c r="F1" s="670"/>
-      <c r="G1" s="670"/>
-      <c r="H1" s="670"/>
-      <c r="I1" s="670"/>
-      <c r="J1" s="670"/>
-      <c r="K1" s="670"/>
-      <c r="L1" s="670"/>
-      <c r="M1" s="670"/>
+      <c r="D1" s="694"/>
+      <c r="E1" s="694"/>
+      <c r="F1" s="694"/>
+      <c r="G1" s="694"/>
+      <c r="H1" s="694"/>
+      <c r="I1" s="694"/>
+      <c r="J1" s="694"/>
+      <c r="K1" s="694"/>
+      <c r="L1" s="694"/>
+      <c r="M1" s="694"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="668"/>
+      <c r="B2" s="692"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -41150,21 +41221,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="671" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="672"/>
+      <c r="B3" s="695" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="696"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="673" t="s">
+      <c r="H3" s="697" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="673"/>
+      <c r="I3" s="697"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="710" t="s">
+      <c r="P3" s="721" t="s">
         <v>6</v>
       </c>
     </row>
@@ -41179,14 +41250,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="674" t="s">
+      <c r="E4" s="698" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="675"/>
-      <c r="H4" s="676" t="s">
+      <c r="F4" s="699"/>
+      <c r="H4" s="700" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="677"/>
+      <c r="I4" s="701"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -41196,14 +41267,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="711"/>
+      <c r="P4" s="722"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="720" t="s">
+      <c r="W4" s="704" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="720"/>
+      <c r="X4" s="704"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -41254,8 +41325,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="720"/>
-      <c r="X5" s="720"/>
+      <c r="W5" s="704"/>
+      <c r="X5" s="704"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42026,7 +42097,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="724">
+      <c r="W19" s="708">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -42078,7 +42149,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="725"/>
+      <c r="W20" s="709"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -42127,8 +42198,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="726"/>
-      <c r="X21" s="726"/>
+      <c r="W21" s="710"/>
+      <c r="X21" s="710"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -42229,8 +42300,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="727"/>
-      <c r="X23" s="727"/>
+      <c r="W23" s="711"/>
+      <c r="X23" s="711"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -42284,8 +42355,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="727"/>
-      <c r="X24" s="727"/>
+      <c r="W24" s="711"/>
+      <c r="X24" s="711"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -42331,8 +42402,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="728"/>
-      <c r="X25" s="728"/>
+      <c r="W25" s="712"/>
+      <c r="X25" s="712"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -42383,8 +42454,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="728"/>
-      <c r="X26" s="728"/>
+      <c r="W26" s="712"/>
+      <c r="X26" s="712"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -42432,9 +42503,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="721"/>
-      <c r="X27" s="722"/>
-      <c r="Y27" s="723"/>
+      <c r="W27" s="705"/>
+      <c r="X27" s="706"/>
+      <c r="Y27" s="707"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42484,9 +42555,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="722"/>
-      <c r="X28" s="722"/>
-      <c r="Y28" s="723"/>
+      <c r="W28" s="706"/>
+      <c r="X28" s="706"/>
+      <c r="Y28" s="707"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42821,11 +42892,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="712">
+      <c r="M36" s="723">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="714">
+      <c r="N36" s="725">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -42833,7 +42904,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="716">
+      <c r="Q36" s="727">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -42868,13 +42939,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="713"/>
-      <c r="N37" s="715"/>
+      <c r="M37" s="724"/>
+      <c r="N37" s="726"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="717"/>
+      <c r="Q37" s="728"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -43164,26 +43235,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="689" t="s">
+      <c r="H52" s="678" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="690"/>
+      <c r="I52" s="679"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="691">
+      <c r="K52" s="680">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="718"/>
+      <c r="L52" s="713"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="695" t="s">
+      <c r="D53" s="684" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="695"/>
+      <c r="E53" s="684"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -43192,29 +43263,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="719" t="s">
+      <c r="D54" s="714" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="719"/>
+      <c r="E54" s="714"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="696" t="s">
+      <c r="I54" s="685" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="697"/>
-      <c r="K54" s="698">
+      <c r="J54" s="686"/>
+      <c r="K54" s="687">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="698"/>
-      <c r="M54" s="704" t="s">
+      <c r="L54" s="687"/>
+      <c r="M54" s="715" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="705"/>
-      <c r="O54" s="705"/>
-      <c r="P54" s="705"/>
-      <c r="Q54" s="706"/>
+      <c r="N54" s="716"/>
+      <c r="O54" s="716"/>
+      <c r="P54" s="716"/>
+      <c r="Q54" s="717"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -43228,11 +43299,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="707"/>
-      <c r="N55" s="708"/>
-      <c r="O55" s="708"/>
-      <c r="P55" s="708"/>
-      <c r="Q55" s="709"/>
+      <c r="M55" s="718"/>
+      <c r="N55" s="719"/>
+      <c r="O55" s="719"/>
+      <c r="P55" s="719"/>
+      <c r="Q55" s="720"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -43250,11 +43321,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="700">
+      <c r="K56" s="689">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="701"/>
+      <c r="L56" s="690"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -43271,22 +43342,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="678" t="s">
+      <c r="D58" s="667" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="679"/>
+      <c r="E58" s="668"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="680" t="s">
+      <c r="I58" s="669" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="681"/>
-      <c r="K58" s="682">
+      <c r="J58" s="670"/>
+      <c r="K58" s="671">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="682"/>
+      <c r="L58" s="671"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -43430,14 +43501,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -43448,17 +43522,14 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -46201,23 +46272,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="667"/>
-      <c r="C1" s="669" t="s">
+      <c r="B1" s="691"/>
+      <c r="C1" s="693" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="670"/>
-      <c r="E1" s="670"/>
-      <c r="F1" s="670"/>
-      <c r="G1" s="670"/>
-      <c r="H1" s="670"/>
-      <c r="I1" s="670"/>
-      <c r="J1" s="670"/>
-      <c r="K1" s="670"/>
-      <c r="L1" s="670"/>
-      <c r="M1" s="670"/>
+      <c r="D1" s="694"/>
+      <c r="E1" s="694"/>
+      <c r="F1" s="694"/>
+      <c r="G1" s="694"/>
+      <c r="H1" s="694"/>
+      <c r="I1" s="694"/>
+      <c r="J1" s="694"/>
+      <c r="K1" s="694"/>
+      <c r="L1" s="694"/>
+      <c r="M1" s="694"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="668"/>
+      <c r="B2" s="692"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -46227,21 +46298,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="671" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="672"/>
+      <c r="B3" s="695" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="696"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="673" t="s">
+      <c r="H3" s="697" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="673"/>
+      <c r="I3" s="697"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="710" t="s">
+      <c r="P3" s="721" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="731" t="s">
@@ -46259,14 +46330,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="674" t="s">
+      <c r="E4" s="698" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="675"/>
-      <c r="H4" s="676" t="s">
+      <c r="F4" s="699"/>
+      <c r="H4" s="700" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="677"/>
+      <c r="I4" s="701"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -46276,15 +46347,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="711"/>
+      <c r="P4" s="722"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="732"/>
-      <c r="W4" s="720" t="s">
+      <c r="W4" s="704" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="720"/>
+      <c r="X4" s="704"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -46345,8 +46416,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="720"/>
-      <c r="X5" s="720"/>
+      <c r="W5" s="704"/>
+      <c r="X5" s="704"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47103,7 +47174,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="724">
+      <c r="W19" s="708">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -47155,7 +47226,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="725"/>
+      <c r="W20" s="709"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -47204,8 +47275,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="726"/>
-      <c r="X21" s="726"/>
+      <c r="W21" s="710"/>
+      <c r="X21" s="710"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -47306,8 +47377,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="727"/>
-      <c r="X23" s="727"/>
+      <c r="W23" s="711"/>
+      <c r="X23" s="711"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -47358,8 +47429,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="727"/>
-      <c r="X24" s="727"/>
+      <c r="W24" s="711"/>
+      <c r="X24" s="711"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -47405,8 +47476,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="728"/>
-      <c r="X25" s="728"/>
+      <c r="W25" s="712"/>
+      <c r="X25" s="712"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -47454,8 +47525,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="728"/>
-      <c r="X26" s="728"/>
+      <c r="W26" s="712"/>
+      <c r="X26" s="712"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -47515,9 +47586,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="721"/>
-      <c r="X27" s="722"/>
-      <c r="Y27" s="723"/>
+      <c r="W27" s="705"/>
+      <c r="X27" s="706"/>
+      <c r="Y27" s="707"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47571,9 +47642,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="722"/>
-      <c r="X28" s="722"/>
-      <c r="Y28" s="723"/>
+      <c r="W28" s="706"/>
+      <c r="X28" s="706"/>
+      <c r="Y28" s="707"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47889,11 +47960,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="712">
+      <c r="M36" s="723">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="714">
+      <c r="N36" s="725">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -47901,7 +47972,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="716">
+      <c r="Q36" s="727">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -47920,13 +47991,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="713"/>
-      <c r="N37" s="715"/>
+      <c r="M37" s="724"/>
+      <c r="N37" s="726"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="717"/>
+      <c r="Q37" s="728"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -48200,26 +48271,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="689" t="s">
+      <c r="H52" s="678" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="690"/>
+      <c r="I52" s="679"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="691">
+      <c r="K52" s="680">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="718"/>
+      <c r="L52" s="713"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="695" t="s">
+      <c r="D53" s="684" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="695"/>
+      <c r="E53" s="684"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -48228,29 +48299,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="719" t="s">
+      <c r="D54" s="714" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="719"/>
+      <c r="E54" s="714"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="696" t="s">
+      <c r="I54" s="685" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="697"/>
-      <c r="K54" s="698">
+      <c r="J54" s="686"/>
+      <c r="K54" s="687">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="698"/>
-      <c r="M54" s="704" t="s">
+      <c r="L54" s="687"/>
+      <c r="M54" s="715" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="705"/>
-      <c r="O54" s="705"/>
-      <c r="P54" s="705"/>
-      <c r="Q54" s="706"/>
+      <c r="N54" s="716"/>
+      <c r="O54" s="716"/>
+      <c r="P54" s="716"/>
+      <c r="Q54" s="717"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -48264,11 +48335,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="707"/>
-      <c r="N55" s="708"/>
-      <c r="O55" s="708"/>
-      <c r="P55" s="708"/>
-      <c r="Q55" s="709"/>
+      <c r="M55" s="718"/>
+      <c r="N55" s="719"/>
+      <c r="O55" s="719"/>
+      <c r="P55" s="719"/>
+      <c r="Q55" s="720"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -48286,11 +48357,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="700">
+      <c r="K56" s="689">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="701"/>
+      <c r="L56" s="690"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -48307,22 +48378,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="678" t="s">
+      <c r="D58" s="667" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="679"/>
+      <c r="E58" s="668"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="680" t="s">
+      <c r="I58" s="669" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="681"/>
-      <c r="K58" s="682">
+      <c r="J58" s="670"/>
+      <c r="K58" s="671">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="682"/>
+      <c r="L58" s="671"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -48466,20 +48537,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -48489,13 +48553,20 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -51190,7 +51261,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="667"/>
+      <c r="B1" s="691"/>
       <c r="C1" s="733" t="s">
         <v>316</v>
       </c>
@@ -51206,7 +51277,7 @@
       <c r="M1" s="734"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="668"/>
+      <c r="B2" s="692"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -51216,21 +51287,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="671" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="672"/>
+      <c r="B3" s="695" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="696"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="673" t="s">
+      <c r="H3" s="697" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="673"/>
+      <c r="I3" s="697"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="710" t="s">
+      <c r="P3" s="721" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="731" t="s">
@@ -51248,14 +51319,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="674" t="s">
+      <c r="E4" s="698" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="675"/>
-      <c r="H4" s="676" t="s">
+      <c r="F4" s="699"/>
+      <c r="H4" s="700" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="677"/>
+      <c r="I4" s="701"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -51265,15 +51336,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="711"/>
+      <c r="P4" s="722"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="732"/>
-      <c r="W4" s="720" t="s">
+      <c r="W4" s="704" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="720"/>
+      <c r="X4" s="704"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -51324,8 +51395,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="720"/>
-      <c r="X5" s="720"/>
+      <c r="W5" s="704"/>
+      <c r="X5" s="704"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52089,7 +52160,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="724">
+      <c r="W19" s="708">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -52142,7 +52213,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="725"/>
+      <c r="W20" s="709"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -52191,8 +52262,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="726"/>
-      <c r="X21" s="726"/>
+      <c r="W21" s="710"/>
+      <c r="X21" s="710"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -52292,8 +52363,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="727"/>
-      <c r="X23" s="727"/>
+      <c r="W23" s="711"/>
+      <c r="X23" s="711"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -52348,8 +52419,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="727"/>
-      <c r="X24" s="727"/>
+      <c r="W24" s="711"/>
+      <c r="X24" s="711"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -52394,8 +52465,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="728"/>
-      <c r="X25" s="728"/>
+      <c r="W25" s="712"/>
+      <c r="X25" s="712"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -52443,8 +52514,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="728"/>
-      <c r="X26" s="728"/>
+      <c r="W26" s="712"/>
+      <c r="X26" s="712"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -52498,9 +52569,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="721"/>
-      <c r="X27" s="722"/>
-      <c r="Y27" s="723"/>
+      <c r="W27" s="705"/>
+      <c r="X27" s="706"/>
+      <c r="Y27" s="707"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52554,9 +52625,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="722"/>
-      <c r="X28" s="722"/>
-      <c r="Y28" s="723"/>
+      <c r="W28" s="706"/>
+      <c r="X28" s="706"/>
+      <c r="Y28" s="707"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52867,11 +52938,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="712">
+      <c r="M36" s="723">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="714">
+      <c r="N36" s="725">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -52879,7 +52950,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="716">
+      <c r="Q36" s="727">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -52904,13 +52975,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="713"/>
-      <c r="N37" s="715"/>
+      <c r="M37" s="724"/>
+      <c r="N37" s="726"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="717"/>
+      <c r="Q37" s="728"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -53203,26 +53274,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="689" t="s">
+      <c r="H52" s="678" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="690"/>
+      <c r="I52" s="679"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="691">
+      <c r="K52" s="680">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="718"/>
+      <c r="L52" s="713"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="695" t="s">
+      <c r="D53" s="684" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="695"/>
+      <c r="E53" s="684"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -53231,22 +53302,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="719" t="s">
+      <c r="D54" s="714" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="719"/>
+      <c r="E54" s="714"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="696" t="s">
+      <c r="I54" s="685" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="697"/>
-      <c r="K54" s="698">
+      <c r="J54" s="686"/>
+      <c r="K54" s="687">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="698"/>
+      <c r="L54" s="687"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -53287,11 +53358,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="700">
+      <c r="K56" s="689">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="701"/>
+      <c r="L56" s="690"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -53308,22 +53379,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="678" t="s">
+      <c r="D58" s="667" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="679"/>
+      <c r="E58" s="668"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="680" t="s">
+      <c r="I58" s="669" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="681"/>
-      <c r="K58" s="682">
+      <c r="J58" s="670"/>
+      <c r="K58" s="671">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="682"/>
+      <c r="L58" s="671"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -53467,20 +53538,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -53496,6 +53553,20 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -56289,7 +56360,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="667"/>
+      <c r="B1" s="691"/>
       <c r="C1" s="733" t="s">
         <v>646</v>
       </c>
@@ -56305,7 +56376,7 @@
       <c r="M1" s="734"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="668"/>
+      <c r="B2" s="692"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -56315,21 +56386,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="671" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="672"/>
+      <c r="B3" s="695" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="696"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="673" t="s">
+      <c r="H3" s="697" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="673"/>
+      <c r="I3" s="697"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="710" t="s">
+      <c r="P3" s="721" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="731" t="s">
@@ -56347,14 +56418,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="674" t="s">
+      <c r="E4" s="698" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="675"/>
-      <c r="H4" s="676" t="s">
+      <c r="F4" s="699"/>
+      <c r="H4" s="700" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="677"/>
+      <c r="I4" s="701"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -56364,15 +56435,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="711"/>
+      <c r="P4" s="722"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="732"/>
-      <c r="W4" s="720" t="s">
+      <c r="W4" s="704" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="720"/>
+      <c r="X4" s="704"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -56423,8 +56494,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="720"/>
-      <c r="X5" s="720"/>
+      <c r="W5" s="704"/>
+      <c r="X5" s="704"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57185,7 +57256,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="724">
+      <c r="W19" s="708">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -57237,7 +57308,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="725"/>
+      <c r="W20" s="709"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -57286,8 +57357,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="726"/>
-      <c r="X21" s="726"/>
+      <c r="W21" s="710"/>
+      <c r="X21" s="710"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -57386,8 +57457,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="727"/>
-      <c r="X23" s="727"/>
+      <c r="W23" s="711"/>
+      <c r="X23" s="711"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -57442,8 +57513,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="727"/>
-      <c r="X24" s="727"/>
+      <c r="W24" s="711"/>
+      <c r="X24" s="711"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -57491,8 +57562,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="728"/>
-      <c r="X25" s="728"/>
+      <c r="W25" s="712"/>
+      <c r="X25" s="712"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -57540,8 +57611,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="728"/>
-      <c r="X26" s="728"/>
+      <c r="W26" s="712"/>
+      <c r="X26" s="712"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -57589,9 +57660,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="721"/>
-      <c r="X27" s="722"/>
-      <c r="Y27" s="723"/>
+      <c r="W27" s="705"/>
+      <c r="X27" s="706"/>
+      <c r="Y27" s="707"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57639,9 +57710,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="722"/>
-      <c r="X28" s="722"/>
-      <c r="Y28" s="723"/>
+      <c r="W28" s="706"/>
+      <c r="X28" s="706"/>
+      <c r="Y28" s="707"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57982,11 +58053,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="712">
+      <c r="M36" s="723">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="714">
+      <c r="N36" s="725">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -58019,8 +58090,8 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="713"/>
-      <c r="N37" s="715"/>
+      <c r="M37" s="724"/>
+      <c r="N37" s="726"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
@@ -58327,26 +58398,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="689" t="s">
+      <c r="H52" s="678" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="690"/>
+      <c r="I52" s="679"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="691">
+      <c r="K52" s="680">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="718"/>
+      <c r="L52" s="713"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="695" t="s">
+      <c r="D53" s="684" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="695"/>
+      <c r="E53" s="684"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -58355,22 +58426,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="719" t="s">
+      <c r="D54" s="714" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="719"/>
+      <c r="E54" s="714"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="696" t="s">
+      <c r="I54" s="685" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="697"/>
-      <c r="K54" s="698">
+      <c r="J54" s="686"/>
+      <c r="K54" s="687">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="698"/>
+      <c r="L54" s="687"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -58411,11 +58482,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="700">
+      <c r="K56" s="689">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="701"/>
+      <c r="L56" s="690"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -58432,22 +58503,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="678" t="s">
+      <c r="D58" s="667" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="679"/>
+      <c r="E58" s="668"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="680" t="s">
+      <c r="I58" s="669" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="681"/>
-      <c r="K58" s="682">
+      <c r="J58" s="670"/>
+      <c r="K58" s="671">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="682"/>
+      <c r="L58" s="671"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -58591,6 +58662,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -58607,20 +58692,6 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE    ZAVALETA   JUNIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE    ZAVALETA   JUNIO    2022.xlsx
@@ -710,7 +710,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1728" uniqueCount="939">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="949">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -3540,6 +3540,36 @@
   </si>
   <si>
     <t>NOMINA # 25</t>
+  </si>
+  <si>
+    <t>QUESO MANTEQUILLA</t>
+  </si>
+  <si>
+    <t>SALCHICHONERIA-POLLO-QUESOS-CHORIZO-ROASBEEF-QUESOS</t>
+  </si>
+  <si>
+    <t>Odelpa</t>
+  </si>
+  <si>
+    <t>QUESOS-JAMON-PECHUGA-</t>
+  </si>
+  <si>
+    <t>POLLO-LONGANIZA-CHORIZO-ENCHILADA-SALCHICHA</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-PATA-CHISTORRA</t>
+  </si>
+  <si>
+    <t>QUESOS - POLLO</t>
+  </si>
+  <si>
+    <t>LONGANIZA-QUESOS-LOMO</t>
+  </si>
+  <si>
+    <t>NOMINA # 26</t>
+  </si>
+  <si>
+    <t>QUESOS-PICAÑA-RIBEYE-SALCHICHONERIA</t>
   </si>
 </sst>
 </file>
@@ -5553,7 +5583,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="804">
+  <cellXfs count="806">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -6893,9 +6923,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="3" fillId="16" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="44" fontId="3" fillId="16" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="18" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -6913,6 +6940,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7324,6 +7357,9 @@
     <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -7333,6 +7369,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF66FFFF"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFCCFF66"/>
       <color rgb="FFFF00FF"/>
@@ -7342,7 +7379,6 @@
       <color rgb="FF99CCFF"/>
       <color rgb="FFCC99FF"/>
       <color rgb="FF00FF99"/>
-      <color rgb="FF66FFFF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -11699,23 +11735,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="691"/>
-      <c r="C1" s="693" t="s">
+      <c r="B1" s="692"/>
+      <c r="C1" s="694" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="694"/>
-      <c r="E1" s="694"/>
-      <c r="F1" s="694"/>
-      <c r="G1" s="694"/>
-      <c r="H1" s="694"/>
-      <c r="I1" s="694"/>
-      <c r="J1" s="694"/>
-      <c r="K1" s="694"/>
-      <c r="L1" s="694"/>
-      <c r="M1" s="694"/>
+      <c r="D1" s="695"/>
+      <c r="E1" s="695"/>
+      <c r="F1" s="695"/>
+      <c r="G1" s="695"/>
+      <c r="H1" s="695"/>
+      <c r="I1" s="695"/>
+      <c r="J1" s="695"/>
+      <c r="K1" s="695"/>
+      <c r="L1" s="695"/>
+      <c r="M1" s="695"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="692"/>
+      <c r="B2" s="693"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -11725,17 +11761,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="695" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="696"/>
+      <c r="B3" s="696" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="697"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="697" t="s">
+      <c r="H3" s="698" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="697"/>
+      <c r="I3" s="698"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -11749,14 +11785,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="698" t="s">
+      <c r="E4" s="699" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="699"/>
-      <c r="H4" s="700" t="s">
+      <c r="F4" s="700"/>
+      <c r="H4" s="701" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="701"/>
+      <c r="I4" s="702"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -11766,10 +11802,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="672" t="s">
+      <c r="P4" s="673" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="673"/>
+      <c r="Q4" s="674"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -13210,11 +13246,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="674">
+      <c r="M39" s="675">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="676">
+      <c r="N39" s="677">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -13240,8 +13276,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="675"/>
-      <c r="N40" s="677"/>
+      <c r="M40" s="676"/>
+      <c r="N40" s="678"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -13456,29 +13492,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="678" t="s">
+      <c r="H52" s="679" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="679"/>
+      <c r="I52" s="680"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="680">
+      <c r="K52" s="681">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="681"/>
-      <c r="M52" s="682">
+      <c r="L52" s="682"/>
+      <c r="M52" s="683">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="683"/>
+      <c r="N52" s="684"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="684" t="s">
+      <c r="D53" s="685" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="684"/>
+      <c r="E53" s="685"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -13489,22 +13525,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="684" t="s">
+      <c r="D54" s="685" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="684"/>
+      <c r="E54" s="685"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="685" t="s">
+      <c r="I54" s="686" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="686"/>
-      <c r="K54" s="687">
+      <c r="J54" s="687"/>
+      <c r="K54" s="688">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="688"/>
+      <c r="L54" s="689"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -13537,11 +13573,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="689">
+      <c r="K56" s="690">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="690"/>
+      <c r="L56" s="691"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -13558,22 +13594,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="667" t="s">
+      <c r="D58" s="668" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="668"/>
+      <c r="E58" s="669"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="669" t="s">
+      <c r="I58" s="670" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="670"/>
-      <c r="K58" s="671">
+      <c r="J58" s="671"/>
+      <c r="K58" s="672">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="671"/>
+      <c r="L58" s="672"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -16197,10 +16233,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="763" t="s">
+      <c r="I76" s="764" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="764"/>
+      <c r="J76" s="765"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -16219,8 +16255,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="765"/>
-      <c r="J77" s="766"/>
+      <c r="I77" s="766"/>
+      <c r="J77" s="767"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -16287,7 +16323,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="729" t="s">
+      <c r="F80" s="730" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -16302,7 +16338,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="730"/>
+      <c r="F81" s="731"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -16310,10 +16346,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="762" t="s">
+      <c r="B82" s="763" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="762"/>
+      <c r="C82" s="763"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -16595,23 +16631,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="691"/>
-      <c r="C1" s="733" t="s">
+      <c r="B1" s="692"/>
+      <c r="C1" s="734" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="734"/>
-      <c r="E1" s="734"/>
-      <c r="F1" s="734"/>
-      <c r="G1" s="734"/>
-      <c r="H1" s="734"/>
-      <c r="I1" s="734"/>
-      <c r="J1" s="734"/>
-      <c r="K1" s="734"/>
-      <c r="L1" s="734"/>
-      <c r="M1" s="734"/>
+      <c r="D1" s="735"/>
+      <c r="E1" s="735"/>
+      <c r="F1" s="735"/>
+      <c r="G1" s="735"/>
+      <c r="H1" s="735"/>
+      <c r="I1" s="735"/>
+      <c r="J1" s="735"/>
+      <c r="K1" s="735"/>
+      <c r="L1" s="735"/>
+      <c r="M1" s="735"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="692"/>
+      <c r="B2" s="693"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -16621,24 +16657,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="695" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="696"/>
+      <c r="B3" s="696" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="697"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="697" t="s">
+      <c r="H3" s="698" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="697"/>
+      <c r="I3" s="698"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="721" t="s">
+      <c r="P3" s="722" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="731" t="s">
+      <c r="R3" s="732" t="s">
         <v>216</v>
       </c>
     </row>
@@ -16653,14 +16689,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="698" t="s">
+      <c r="E4" s="699" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="699"/>
-      <c r="H4" s="700" t="s">
+      <c r="F4" s="700"/>
+      <c r="H4" s="701" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="701"/>
+      <c r="I4" s="702"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -16670,15 +16706,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="722"/>
+      <c r="P4" s="723"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="732"/>
-      <c r="W4" s="704" t="s">
+      <c r="R4" s="733"/>
+      <c r="W4" s="705" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="704"/>
+      <c r="X4" s="705"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16729,8 +16765,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="704"/>
-      <c r="X5" s="704"/>
+      <c r="W5" s="705"/>
+      <c r="X5" s="705"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17493,7 +17529,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="708">
+      <c r="W19" s="709">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -17545,7 +17581,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="709"/>
+      <c r="W20" s="710"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -17594,8 +17630,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="710"/>
-      <c r="X21" s="710"/>
+      <c r="W21" s="711"/>
+      <c r="X21" s="711"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -17695,8 +17731,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="711"/>
-      <c r="X23" s="711"/>
+      <c r="W23" s="712"/>
+      <c r="X23" s="712"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -17751,8 +17787,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="711"/>
-      <c r="X24" s="711"/>
+      <c r="W24" s="712"/>
+      <c r="X24" s="712"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -17800,8 +17836,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="712"/>
-      <c r="X25" s="712"/>
+      <c r="W25" s="713"/>
+      <c r="X25" s="713"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -17850,8 +17886,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="712"/>
-      <c r="X26" s="712"/>
+      <c r="W26" s="713"/>
+      <c r="X26" s="713"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -17899,9 +17935,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="705"/>
-      <c r="X27" s="706"/>
-      <c r="Y27" s="707"/>
+      <c r="W27" s="706"/>
+      <c r="X27" s="707"/>
+      <c r="Y27" s="708"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17949,9 +17985,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="706"/>
-      <c r="X28" s="706"/>
-      <c r="Y28" s="707"/>
+      <c r="W28" s="707"/>
+      <c r="X28" s="707"/>
+      <c r="Y28" s="708"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18283,11 +18319,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="723">
+      <c r="M36" s="724">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="725">
+      <c r="N36" s="726">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -18295,7 +18331,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="758">
+      <c r="Q36" s="759">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -18320,13 +18356,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="724"/>
-      <c r="N37" s="726"/>
+      <c r="M37" s="725"/>
+      <c r="N37" s="727"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="759"/>
+      <c r="Q37" s="760"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -18376,11 +18412,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="760">
+      <c r="M39" s="761">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="761"/>
+      <c r="N39" s="762"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -19008,26 +19044,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="678" t="s">
+      <c r="H68" s="679" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="679"/>
+      <c r="I68" s="680"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="680">
+      <c r="K68" s="681">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="713"/>
+      <c r="L68" s="714"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="684" t="s">
+      <c r="D69" s="685" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="684"/>
+      <c r="E69" s="685"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -19036,22 +19072,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="714" t="s">
+      <c r="D70" s="715" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="714"/>
+      <c r="E70" s="715"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="685" t="s">
+      <c r="I70" s="686" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="686"/>
-      <c r="K70" s="687">
+      <c r="J70" s="687"/>
+      <c r="K70" s="688">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="687"/>
+      <c r="L70" s="688"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -19092,11 +19128,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="689">
+      <c r="K72" s="690">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="690"/>
+      <c r="L72" s="691"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -19113,22 +19149,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="667" t="s">
+      <c r="D74" s="668" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="668"/>
+      <c r="E74" s="669"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="669" t="s">
+      <c r="I74" s="670" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="670"/>
-      <c r="K74" s="671">
+      <c r="J74" s="671"/>
+      <c r="K74" s="672">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="671"/>
+      <c r="L74" s="672"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -21572,7 +21608,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="729" t="s">
+      <c r="F80" s="730" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -21585,7 +21621,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="730"/>
+      <c r="F81" s="731"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -21605,10 +21641,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="767" t="s">
+      <c r="I83" s="768" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="768"/>
+      <c r="J83" s="769"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="514" t="s">
@@ -21617,8 +21653,8 @@
       <c r="B84" s="515"/>
       <c r="C84" s="516"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="769"/>
-      <c r="J84" s="770"/>
+      <c r="I84" s="770"/>
+      <c r="J84" s="771"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -21890,23 +21926,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="691"/>
-      <c r="C1" s="733" t="s">
+      <c r="B1" s="692"/>
+      <c r="C1" s="734" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="734"/>
-      <c r="E1" s="734"/>
-      <c r="F1" s="734"/>
-      <c r="G1" s="734"/>
-      <c r="H1" s="734"/>
-      <c r="I1" s="734"/>
-      <c r="J1" s="734"/>
-      <c r="K1" s="734"/>
-      <c r="L1" s="734"/>
-      <c r="M1" s="734"/>
+      <c r="D1" s="735"/>
+      <c r="E1" s="735"/>
+      <c r="F1" s="735"/>
+      <c r="G1" s="735"/>
+      <c r="H1" s="735"/>
+      <c r="I1" s="735"/>
+      <c r="J1" s="735"/>
+      <c r="K1" s="735"/>
+      <c r="L1" s="735"/>
+      <c r="M1" s="735"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="692"/>
+      <c r="B2" s="693"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -21916,24 +21952,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="695" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="696"/>
+      <c r="B3" s="696" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="697"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="697" t="s">
+      <c r="H3" s="698" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="697"/>
+      <c r="I3" s="698"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="721" t="s">
+      <c r="P3" s="722" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="731" t="s">
+      <c r="R3" s="732" t="s">
         <v>216</v>
       </c>
     </row>
@@ -21948,14 +21984,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="698" t="s">
+      <c r="E4" s="699" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="699"/>
-      <c r="H4" s="700" t="s">
+      <c r="F4" s="700"/>
+      <c r="H4" s="701" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="701"/>
+      <c r="I4" s="702"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -21965,15 +22001,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="722"/>
+      <c r="P4" s="723"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="732"/>
-      <c r="W4" s="704" t="s">
+      <c r="R4" s="733"/>
+      <c r="W4" s="705" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="704"/>
+      <c r="X4" s="705"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22024,8 +22060,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="704"/>
-      <c r="X5" s="704"/>
+      <c r="W5" s="705"/>
+      <c r="X5" s="705"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22784,7 +22820,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="708">
+      <c r="W19" s="709">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -22836,7 +22872,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="709"/>
+      <c r="W20" s="710"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -22885,8 +22921,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="710"/>
-      <c r="X21" s="710"/>
+      <c r="W21" s="711"/>
+      <c r="X21" s="711"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -22983,8 +23019,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="711"/>
-      <c r="X23" s="711"/>
+      <c r="W23" s="712"/>
+      <c r="X23" s="712"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -23039,8 +23075,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="711"/>
-      <c r="X24" s="711"/>
+      <c r="W24" s="712"/>
+      <c r="X24" s="712"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -23086,8 +23122,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="712"/>
-      <c r="X25" s="712"/>
+      <c r="W25" s="713"/>
+      <c r="X25" s="713"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -23138,8 +23174,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="712"/>
-      <c r="X26" s="712"/>
+      <c r="W26" s="713"/>
+      <c r="X26" s="713"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -23190,9 +23226,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="705"/>
-      <c r="X27" s="706"/>
-      <c r="Y27" s="707"/>
+      <c r="W27" s="706"/>
+      <c r="X27" s="707"/>
+      <c r="Y27" s="708"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23242,9 +23278,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="706"/>
-      <c r="X28" s="706"/>
-      <c r="Y28" s="707"/>
+      <c r="W28" s="707"/>
+      <c r="X28" s="707"/>
+      <c r="Y28" s="708"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23848,11 +23884,11 @@
       <c r="L41" s="627">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="723">
+      <c r="M41" s="724">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="723">
+      <c r="N41" s="724">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -23860,7 +23896,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="771">
+      <c r="Q41" s="772">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -23890,10 +23926,10 @@
       <c r="L42" s="630">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="724"/>
-      <c r="N42" s="724"/>
+      <c r="M42" s="725"/>
+      <c r="N42" s="725"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="772"/>
+      <c r="Q42" s="773"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -23981,11 +24017,11 @@
       <c r="L45" s="627">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="773">
+      <c r="M45" s="774">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="774"/>
+      <c r="N45" s="775"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -24578,26 +24614,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="678" t="s">
+      <c r="H70" s="679" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="679"/>
+      <c r="I70" s="680"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="680">
+      <c r="K70" s="681">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="713"/>
+      <c r="L70" s="714"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="684" t="s">
+      <c r="D71" s="685" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="684"/>
+      <c r="E71" s="685"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -24607,22 +24643,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="714" t="s">
+      <c r="D72" s="715" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="714"/>
+      <c r="E72" s="715"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="685" t="s">
+      <c r="I72" s="686" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="686"/>
-      <c r="K72" s="687">
+      <c r="J72" s="687"/>
+      <c r="K72" s="688">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="687"/>
+      <c r="L72" s="688"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -24663,11 +24699,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="689">
+      <c r="K74" s="690">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="690"/>
+      <c r="L74" s="691"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -24686,22 +24722,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="667" t="s">
+      <c r="D76" s="668" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="668"/>
+      <c r="E76" s="669"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="669" t="s">
+      <c r="I76" s="670" t="s">
         <v>854</v>
       </c>
-      <c r="J76" s="670"/>
-      <c r="K76" s="671">
+      <c r="J76" s="671"/>
+      <c r="K76" s="672">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="671"/>
+      <c r="L76" s="672"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -27406,7 +27442,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="729" t="s">
+      <c r="F90" s="730" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -27419,7 +27455,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="730"/>
+      <c r="F91" s="731"/>
       <c r="K91" s="1"/>
       <c r="L91" s="97"/>
       <c r="M91" s="3"/>
@@ -27438,10 +27474,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="767" t="s">
+      <c r="I93" s="768" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="768"/>
+      <c r="J93" s="769"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -27451,8 +27487,8 @@
       <c r="C94" s="518"/>
       <c r="D94" s="519"/>
       <c r="E94" s="520"/>
-      <c r="I94" s="769"/>
-      <c r="J94" s="770"/>
+      <c r="I94" s="770"/>
+      <c r="J94" s="771"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -27893,11 +27929,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="775">
+      <c r="C130" s="776">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="776"/>
+      <c r="D130" s="777"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -27933,21 +27969,21 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="781" t="s">
+      <c r="F2" s="782" t="s">
         <v>752</v>
       </c>
-      <c r="G2" s="782"/>
-      <c r="H2" s="783"/>
+      <c r="G2" s="783"/>
+      <c r="H2" s="784"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="778" t="s">
+      <c r="B3" s="779" t="s">
         <v>748</v>
       </c>
-      <c r="C3" s="779"/>
-      <c r="D3" s="780"/>
-      <c r="F3" s="784"/>
-      <c r="G3" s="785"/>
-      <c r="H3" s="786"/>
+      <c r="C3" s="780"/>
+      <c r="D3" s="781"/>
+      <c r="F3" s="785"/>
+      <c r="G3" s="786"/>
+      <c r="H3" s="787"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="526" t="s">
@@ -28092,11 +28128,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="787">
+      <c r="G11" s="788">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="788"/>
+      <c r="H11" s="789"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="532" t="s">
@@ -28113,23 +28149,23 @@
       <c r="C14" s="532"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="791" t="s">
+      <c r="C15" s="792" t="s">
         <v>750</v>
       </c>
-      <c r="D15" s="789">
+      <c r="D15" s="790">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="792"/>
-      <c r="D16" s="790"/>
+      <c r="C16" s="793"/>
+      <c r="D16" s="791"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="777" t="s">
+      <c r="C17" s="778" t="s">
         <v>753</v>
       </c>
-      <c r="D17" s="777"/>
+      <c r="D17" s="778"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -28187,23 +28223,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="691"/>
-      <c r="C1" s="733" t="s">
+      <c r="B1" s="692"/>
+      <c r="C1" s="734" t="s">
         <v>754</v>
       </c>
-      <c r="D1" s="734"/>
-      <c r="E1" s="734"/>
-      <c r="F1" s="734"/>
-      <c r="G1" s="734"/>
-      <c r="H1" s="734"/>
-      <c r="I1" s="734"/>
-      <c r="J1" s="734"/>
-      <c r="K1" s="734"/>
-      <c r="L1" s="734"/>
-      <c r="M1" s="734"/>
+      <c r="D1" s="735"/>
+      <c r="E1" s="735"/>
+      <c r="F1" s="735"/>
+      <c r="G1" s="735"/>
+      <c r="H1" s="735"/>
+      <c r="I1" s="735"/>
+      <c r="J1" s="735"/>
+      <c r="K1" s="735"/>
+      <c r="L1" s="735"/>
+      <c r="M1" s="735"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="692"/>
+      <c r="B2" s="693"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -28213,24 +28249,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="695" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="696"/>
+      <c r="B3" s="696" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="697"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="697" t="s">
+      <c r="H3" s="698" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="697"/>
+      <c r="I3" s="698"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="721" t="s">
+      <c r="P3" s="722" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="731" t="s">
+      <c r="R3" s="732" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -28249,14 +28285,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="698" t="s">
+      <c r="E4" s="699" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="699"/>
-      <c r="H4" s="700" t="s">
+      <c r="F4" s="700"/>
+      <c r="H4" s="701" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="701"/>
+      <c r="I4" s="702"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -28266,15 +28302,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="722"/>
+      <c r="P4" s="723"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="732"/>
+      <c r="R4" s="733"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="796"/>
-      <c r="X4" s="796"/>
+      <c r="W4" s="797"/>
+      <c r="X4" s="797"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -28328,8 +28364,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="796"/>
-      <c r="X5" s="796"/>
+      <c r="W5" s="797"/>
+      <c r="X5" s="797"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29095,7 +29131,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="797"/>
+      <c r="W19" s="798"/>
       <c r="X19" s="544"/>
       <c r="Y19" s="233"/>
     </row>
@@ -29149,7 +29185,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="797"/>
+      <c r="W20" s="798"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -29204,8 +29240,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="710"/>
-      <c r="X21" s="710"/>
+      <c r="W21" s="711"/>
+      <c r="X21" s="711"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -29316,8 +29352,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="711"/>
-      <c r="X23" s="711"/>
+      <c r="W23" s="712"/>
+      <c r="X23" s="712"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -29378,8 +29414,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="711"/>
-      <c r="X24" s="711"/>
+      <c r="W24" s="712"/>
+      <c r="X24" s="712"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -29432,8 +29468,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="712"/>
-      <c r="X25" s="712"/>
+      <c r="W25" s="713"/>
+      <c r="X25" s="713"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -29488,8 +29524,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="712"/>
-      <c r="X26" s="712"/>
+      <c r="W26" s="713"/>
+      <c r="X26" s="713"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -29544,9 +29580,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="705"/>
-      <c r="X27" s="706"/>
-      <c r="Y27" s="707"/>
+      <c r="W27" s="706"/>
+      <c r="X27" s="707"/>
+      <c r="Y27" s="708"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29600,9 +29636,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="706"/>
-      <c r="X28" s="706"/>
-      <c r="Y28" s="707"/>
+      <c r="W28" s="707"/>
+      <c r="X28" s="707"/>
+      <c r="Y28" s="708"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30193,11 +30229,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="723">
+      <c r="M41" s="724">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="723">
+      <c r="N41" s="724">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -30205,7 +30241,7 @@
         <f>SUM(P5:P40)</f>
         <v>4043205.8900000006</v>
       </c>
-      <c r="Q41" s="771">
+      <c r="Q41" s="772">
         <f>SUM(Q5:Q40)</f>
         <v>890559.8899999999</v>
       </c>
@@ -30229,10 +30265,10 @@
       <c r="L42" s="641">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="724"/>
-      <c r="N42" s="724"/>
+      <c r="M42" s="725"/>
+      <c r="N42" s="725"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="772"/>
+      <c r="Q42" s="773"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -30301,11 +30337,11 @@
       <c r="L45" s="619">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="773">
+      <c r="M45" s="774">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="774"/>
+      <c r="N45" s="775"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -30721,26 +30757,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="678" t="s">
+      <c r="H63" s="679" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="679"/>
+      <c r="I63" s="680"/>
       <c r="J63" s="562"/>
-      <c r="K63" s="793">
+      <c r="K63" s="794">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="794"/>
+      <c r="L63" s="795"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="684" t="s">
+      <c r="D64" s="685" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="684"/>
+      <c r="E64" s="685"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -30749,22 +30785,22 @@
       <c r="J64" s="563"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="714" t="s">
+      <c r="D65" s="715" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="714"/>
+      <c r="E65" s="715"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="685" t="s">
+      <c r="I65" s="686" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="686"/>
-      <c r="K65" s="687">
+      <c r="J65" s="687"/>
+      <c r="K65" s="688">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="687"/>
+      <c r="L65" s="688"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="582"/>
@@ -30805,11 +30841,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="795">
+      <c r="K67" s="796">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="687"/>
+      <c r="L67" s="688"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -30826,22 +30862,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="667" t="s">
+      <c r="D69" s="668" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="668"/>
+      <c r="E69" s="669"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="669" t="s">
+      <c r="I69" s="670" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="670"/>
-      <c r="K69" s="671">
+      <c r="J69" s="671"/>
+      <c r="K69" s="672">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="671"/>
+      <c r="L69" s="672"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -32991,7 +33027,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="729" t="s">
+      <c r="F71" s="730" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -33004,7 +33040,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="730"/>
+      <c r="F72" s="731"/>
       <c r="K72" s="1"/>
       <c r="L72" s="97"/>
       <c r="M72" s="3"/>
@@ -33023,10 +33059,10 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="767" t="s">
+      <c r="I74" s="768" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="768"/>
+      <c r="J74" s="769"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
@@ -33035,8 +33071,8 @@
       <c r="D75" s="655"/>
       <c r="E75" s="520"/>
       <c r="F75" s="111"/>
-      <c r="I75" s="769"/>
-      <c r="J75" s="770"/>
+      <c r="I75" s="770"/>
+      <c r="J75" s="771"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
@@ -33170,11 +33206,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="800" t="s">
+      <c r="A89" s="801" t="s">
         <v>806</v>
       </c>
-      <c r="B89" s="801"/>
-      <c r="C89" s="801"/>
+      <c r="B89" s="802"/>
+      <c r="C89" s="802"/>
       <c r="E89"/>
       <c r="F89" s="111"/>
       <c r="I89"/>
@@ -33184,10 +33220,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="802" t="s">
+      <c r="B90" s="803" t="s">
         <v>807</v>
       </c>
-      <c r="C90" s="803"/>
+      <c r="C90" s="804"/>
       <c r="E90"/>
       <c r="F90" s="111"/>
       <c r="I90"/>
@@ -33287,8 +33323,8 @@
     </row>
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
-      <c r="B97" s="664"/>
-      <c r="C97" s="798">
+      <c r="B97" s="663"/>
+      <c r="C97" s="799">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -33299,10 +33335,10 @@
     </row>
     <row r="98" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98"/>
-      <c r="B98" s="665" t="s">
+      <c r="B98" s="664" t="s">
         <v>885</v>
       </c>
-      <c r="C98" s="799"/>
+      <c r="C98" s="800"/>
       <c r="E98"/>
       <c r="F98" s="127">
         <v>0</v>
@@ -33312,10 +33348,10 @@
     </row>
     <row r="99" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99"/>
-      <c r="B99" s="665" t="s">
+      <c r="B99" s="664" t="s">
         <v>918</v>
       </c>
-      <c r="C99" s="664"/>
+      <c r="C99" s="663"/>
       <c r="E99"/>
       <c r="F99" s="3">
         <f>SUM(F75:F98)</f>
@@ -33375,8 +33411,8 @@
   </sheetPr>
   <dimension ref="A1:Z91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G15" workbookViewId="0">
-      <selection activeCell="O23" sqref="O23"/>
+    <sheetView tabSelected="1" topLeftCell="E24" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -33406,23 +33442,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="691"/>
-      <c r="C1" s="733" t="s">
+      <c r="B1" s="692"/>
+      <c r="C1" s="734" t="s">
         <v>886</v>
       </c>
-      <c r="D1" s="734"/>
-      <c r="E1" s="734"/>
-      <c r="F1" s="734"/>
-      <c r="G1" s="734"/>
-      <c r="H1" s="734"/>
-      <c r="I1" s="734"/>
-      <c r="J1" s="734"/>
-      <c r="K1" s="734"/>
-      <c r="L1" s="734"/>
-      <c r="M1" s="734"/>
+      <c r="D1" s="735"/>
+      <c r="E1" s="735"/>
+      <c r="F1" s="735"/>
+      <c r="G1" s="735"/>
+      <c r="H1" s="735"/>
+      <c r="I1" s="735"/>
+      <c r="J1" s="735"/>
+      <c r="K1" s="735"/>
+      <c r="L1" s="735"/>
+      <c r="M1" s="735"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="692"/>
+      <c r="B2" s="693"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -33432,24 +33468,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="695" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="696"/>
+      <c r="B3" s="696" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="697"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="697" t="s">
+      <c r="H3" s="698" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="697"/>
+      <c r="I3" s="698"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="721" t="s">
+      <c r="P3" s="722" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="731" t="s">
+      <c r="R3" s="732" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -33468,14 +33504,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="698" t="s">
+      <c r="E4" s="699" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="699"/>
-      <c r="H4" s="700" t="s">
+      <c r="F4" s="700"/>
+      <c r="H4" s="701" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="701"/>
+      <c r="I4" s="702"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -33485,15 +33521,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="722"/>
+      <c r="P4" s="723"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="732"/>
+      <c r="R4" s="733"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="796"/>
-      <c r="X4" s="796"/>
+      <c r="W4" s="797"/>
+      <c r="X4" s="797"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33531,7 +33567,7 @@
       <c r="N5" s="33">
         <v>37265</v>
       </c>
-      <c r="O5" s="661" t="s">
+      <c r="O5" s="660" t="s">
         <v>904</v>
       </c>
       <c r="P5" s="34">
@@ -33548,8 +33584,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="796"/>
-      <c r="X5" s="796"/>
+      <c r="W5" s="797"/>
+      <c r="X5" s="797"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33586,7 +33622,7 @@
       <c r="N6" s="33">
         <v>18266</v>
       </c>
-      <c r="O6" s="661" t="s">
+      <c r="O6" s="660" t="s">
         <v>904</v>
       </c>
       <c r="P6" s="39">
@@ -33641,7 +33677,7 @@
       <c r="N7" s="33">
         <v>44301</v>
       </c>
-      <c r="O7" s="661" t="s">
+      <c r="O7" s="660" t="s">
         <v>904</v>
       </c>
       <c r="P7" s="39">
@@ -33695,7 +33731,7 @@
       <c r="N8" s="33">
         <v>26720</v>
       </c>
-      <c r="O8" s="661" t="s">
+      <c r="O8" s="660" t="s">
         <v>904</v>
       </c>
       <c r="P8" s="39">
@@ -33750,7 +33786,7 @@
       <c r="N9" s="33">
         <v>37301</v>
       </c>
-      <c r="O9" s="661" t="s">
+      <c r="O9" s="660" t="s">
         <v>904</v>
       </c>
       <c r="P9" s="39">
@@ -33811,7 +33847,7 @@
       <c r="N10" s="33">
         <v>42627</v>
       </c>
-      <c r="O10" s="661" t="s">
+      <c r="O10" s="660" t="s">
         <v>904</v>
       </c>
       <c r="P10" s="39">
@@ -33866,7 +33902,7 @@
       <c r="N11" s="33">
         <v>26288</v>
       </c>
-      <c r="O11" s="661" t="s">
+      <c r="O11" s="660" t="s">
         <v>904</v>
       </c>
       <c r="P11" s="39">
@@ -33921,7 +33957,7 @@
       <c r="N12" s="33">
         <v>53795</v>
       </c>
-      <c r="O12" s="661" t="s">
+      <c r="O12" s="660" t="s">
         <v>904</v>
       </c>
       <c r="P12" s="39">
@@ -33976,7 +34012,7 @@
       <c r="N13" s="33">
         <v>41994</v>
       </c>
-      <c r="O13" s="661" t="s">
+      <c r="O13" s="660" t="s">
         <v>904</v>
       </c>
       <c r="P13" s="39">
@@ -34032,7 +34068,7 @@
       <c r="N14" s="33">
         <v>26626</v>
       </c>
-      <c r="O14" s="662" t="s">
+      <c r="O14" s="661" t="s">
         <v>915</v>
       </c>
       <c r="P14" s="39">
@@ -34086,7 +34122,7 @@
       <c r="N15" s="33">
         <v>35493</v>
       </c>
-      <c r="O15" s="663" t="s">
+      <c r="O15" s="662" t="s">
         <v>917</v>
       </c>
       <c r="P15" s="39">
@@ -34140,7 +34176,7 @@
       <c r="N16" s="33">
         <v>37286</v>
       </c>
-      <c r="O16" s="663" t="s">
+      <c r="O16" s="662" t="s">
         <v>917</v>
       </c>
       <c r="P16" s="39">
@@ -34200,7 +34236,7 @@
       <c r="N17" s="33">
         <v>41982</v>
       </c>
-      <c r="O17" s="663" t="s">
+      <c r="O17" s="662" t="s">
         <v>917</v>
       </c>
       <c r="P17" s="39">
@@ -34254,7 +34290,7 @@
       <c r="N18" s="33">
         <v>43546</v>
       </c>
-      <c r="O18" s="663" t="s">
+      <c r="O18" s="662" t="s">
         <v>917</v>
       </c>
       <c r="P18" s="39">
@@ -34308,7 +34344,7 @@
       <c r="N19" s="33">
         <v>36099</v>
       </c>
-      <c r="O19" s="663" t="s">
+      <c r="O19" s="662" t="s">
         <v>917</v>
       </c>
       <c r="P19" s="39">
@@ -34325,7 +34361,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="797"/>
+      <c r="W19" s="798"/>
       <c r="X19" s="544"/>
       <c r="Y19" s="233"/>
     </row>
@@ -34362,7 +34398,7 @@
       <c r="N20" s="33">
         <v>24116</v>
       </c>
-      <c r="O20" s="663" t="s">
+      <c r="O20" s="662" t="s">
         <v>917</v>
       </c>
       <c r="P20" s="39">
@@ -34379,7 +34415,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="797"/>
+      <c r="W20" s="798"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -34416,7 +34452,7 @@
       <c r="N21" s="33">
         <v>44220</v>
       </c>
-      <c r="O21" s="663" t="s">
+      <c r="O21" s="662" t="s">
         <v>917</v>
       </c>
       <c r="P21" s="39">
@@ -34433,8 +34469,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="710"/>
-      <c r="X21" s="710"/>
+      <c r="W21" s="711"/>
+      <c r="X21" s="711"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -34471,7 +34507,7 @@
       <c r="N22" s="33">
         <v>53677</v>
       </c>
-      <c r="O22" s="663" t="s">
+      <c r="O22" s="662" t="s">
         <v>917</v>
       </c>
       <c r="P22" s="39">
@@ -34526,7 +34562,7 @@
       <c r="N23" s="33">
         <v>40430</v>
       </c>
-      <c r="O23" s="663" t="s">
+      <c r="O23" s="662" t="s">
         <v>917</v>
       </c>
       <c r="P23" s="39">
@@ -34543,8 +34579,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="711"/>
-      <c r="X23" s="711"/>
+      <c r="W23" s="712"/>
+      <c r="X23" s="712"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -34587,7 +34623,7 @@
       <c r="N24" s="33">
         <v>71337</v>
       </c>
-      <c r="O24" s="663" t="s">
+      <c r="O24" s="662" t="s">
         <v>917</v>
       </c>
       <c r="P24" s="39">
@@ -34604,8 +34640,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="711"/>
-      <c r="X24" s="711"/>
+      <c r="W24" s="712"/>
+      <c r="X24" s="712"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -34614,29 +34650,40 @@
       <c r="B25" s="24">
         <v>44731</v>
       </c>
-      <c r="C25" s="25"/>
-      <c r="D25" s="35"/>
+      <c r="C25" s="25">
+        <v>1035</v>
+      </c>
+      <c r="D25" s="35" t="s">
+        <v>939</v>
+      </c>
       <c r="E25" s="27">
         <v>44731</v>
       </c>
-      <c r="F25" s="28"/>
+      <c r="F25" s="28">
+        <v>122175</v>
+      </c>
       <c r="G25" s="575"/>
       <c r="H25" s="29">
         <v>44731</v>
       </c>
-      <c r="I25" s="30"/>
+      <c r="I25" s="30">
+        <v>2354</v>
+      </c>
       <c r="J25" s="50"/>
       <c r="K25" s="38"/>
       <c r="L25" s="54"/>
       <c r="M25" s="32">
-        <v>0</v>
+        <v>75117</v>
       </c>
       <c r="N25" s="33">
-        <v>0</v>
+        <v>43669</v>
+      </c>
+      <c r="O25" s="662" t="s">
+        <v>917</v>
       </c>
       <c r="P25" s="283">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>122175</v>
       </c>
       <c r="Q25" s="325">
         <f t="shared" si="0"/>
@@ -34647,8 +34694,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="712"/>
-      <c r="X25" s="712"/>
+      <c r="W25" s="713"/>
+      <c r="X25" s="713"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -34657,29 +34704,40 @@
       <c r="B26" s="24">
         <v>44732</v>
       </c>
-      <c r="C26" s="25"/>
-      <c r="D26" s="35"/>
+      <c r="C26" s="25">
+        <v>26174</v>
+      </c>
+      <c r="D26" s="35" t="s">
+        <v>940</v>
+      </c>
       <c r="E26" s="27">
         <v>44732</v>
       </c>
-      <c r="F26" s="28"/>
+      <c r="F26" s="28">
+        <v>117280</v>
+      </c>
       <c r="G26" s="575"/>
       <c r="H26" s="29">
         <v>44732</v>
       </c>
-      <c r="I26" s="30"/>
+      <c r="I26" s="30">
+        <v>3422</v>
+      </c>
       <c r="J26" s="37"/>
       <c r="K26" s="173"/>
       <c r="L26" s="45"/>
       <c r="M26" s="32">
-        <v>0</v>
+        <v>33921</v>
       </c>
       <c r="N26" s="33">
-        <v>0</v>
+        <v>53763</v>
+      </c>
+      <c r="O26" s="666" t="s">
+        <v>941</v>
       </c>
       <c r="P26" s="284">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>117280</v>
       </c>
       <c r="Q26" s="325">
         <f t="shared" si="0"/>
@@ -34692,8 +34750,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="712"/>
-      <c r="X26" s="712"/>
+      <c r="W26" s="713"/>
+      <c r="X26" s="713"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -34702,29 +34760,40 @@
       <c r="B27" s="24">
         <v>44733</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="42"/>
+      <c r="C27" s="25">
+        <v>19843</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>942</v>
+      </c>
       <c r="E27" s="27">
         <v>44733</v>
       </c>
-      <c r="F27" s="28"/>
+      <c r="F27" s="28">
+        <v>100329</v>
+      </c>
       <c r="G27" s="575"/>
       <c r="H27" s="29">
         <v>44733</v>
       </c>
-      <c r="I27" s="30"/>
+      <c r="I27" s="30">
+        <v>119</v>
+      </c>
       <c r="J27" s="55"/>
       <c r="K27" s="174"/>
       <c r="L27" s="54"/>
       <c r="M27" s="32">
-        <v>0</v>
+        <v>43366</v>
       </c>
       <c r="N27" s="33">
-        <v>0</v>
+        <v>37001</v>
+      </c>
+      <c r="O27" s="666" t="s">
+        <v>941</v>
       </c>
       <c r="P27" s="39">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>100329</v>
       </c>
       <c r="Q27" s="325">
         <f t="shared" si="0"/>
@@ -34737,9 +34806,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="705"/>
-      <c r="X27" s="706"/>
-      <c r="Y27" s="707"/>
+      <c r="W27" s="706"/>
+      <c r="X27" s="707"/>
+      <c r="Y27" s="708"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34747,29 +34816,41 @@
       <c r="B28" s="24">
         <v>44734</v>
       </c>
-      <c r="C28" s="25"/>
-      <c r="D28" s="42"/>
+      <c r="C28" s="25">
+        <v>24052</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>943</v>
+      </c>
       <c r="E28" s="27">
         <v>44734</v>
       </c>
-      <c r="F28" s="28"/>
+      <c r="F28" s="28">
+        <v>101243</v>
+      </c>
       <c r="G28" s="575"/>
       <c r="H28" s="29">
         <v>44734</v>
       </c>
-      <c r="I28" s="30"/>
+      <c r="I28" s="30">
+        <v>2308</v>
+      </c>
       <c r="J28" s="56"/>
       <c r="K28" s="57"/>
       <c r="L28" s="54"/>
       <c r="M28" s="32">
-        <v>0</v>
+        <f>2333.5+43790.5</f>
+        <v>46124</v>
       </c>
       <c r="N28" s="33">
-        <v>0</v>
+        <v>28759</v>
+      </c>
+      <c r="O28" s="666" t="s">
+        <v>941</v>
       </c>
       <c r="P28" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>101243</v>
       </c>
       <c r="Q28" s="325">
         <f t="shared" si="0"/>
@@ -34782,9 +34863,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="706"/>
-      <c r="X28" s="706"/>
-      <c r="Y28" s="707"/>
+      <c r="W28" s="707"/>
+      <c r="X28" s="707"/>
+      <c r="Y28" s="708"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34792,29 +34873,40 @@
       <c r="B29" s="24">
         <v>44735</v>
       </c>
-      <c r="C29" s="25"/>
-      <c r="D29" s="58"/>
+      <c r="C29" s="25">
+        <v>8833.5</v>
+      </c>
+      <c r="D29" s="58" t="s">
+        <v>944</v>
+      </c>
       <c r="E29" s="27">
         <v>44735</v>
       </c>
-      <c r="F29" s="28"/>
+      <c r="F29" s="28">
+        <v>172152</v>
+      </c>
       <c r="G29" s="575"/>
       <c r="H29" s="29">
         <v>44735</v>
       </c>
-      <c r="I29" s="30"/>
+      <c r="I29" s="30">
+        <v>1356</v>
+      </c>
       <c r="J29" s="59"/>
       <c r="K29" s="175"/>
       <c r="L29" s="54"/>
       <c r="M29" s="32">
-        <v>0</v>
+        <v>125792.5</v>
       </c>
       <c r="N29" s="33">
-        <v>0</v>
+        <v>36170</v>
+      </c>
+      <c r="O29" s="666" t="s">
+        <v>941</v>
       </c>
       <c r="P29" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>172152</v>
       </c>
       <c r="Q29" s="325">
         <f t="shared" si="0"/>
@@ -34837,29 +34929,40 @@
       <c r="B30" s="24">
         <v>44736</v>
       </c>
-      <c r="C30" s="25"/>
-      <c r="D30" s="58"/>
+      <c r="C30" s="25">
+        <v>2181</v>
+      </c>
+      <c r="D30" s="58" t="s">
+        <v>945</v>
+      </c>
       <c r="E30" s="27">
         <v>44736</v>
       </c>
-      <c r="F30" s="28"/>
+      <c r="F30" s="28">
+        <v>102159</v>
+      </c>
       <c r="G30" s="575"/>
       <c r="H30" s="29">
         <v>44736</v>
       </c>
-      <c r="I30" s="30"/>
+      <c r="I30" s="30">
+        <v>5382</v>
+      </c>
       <c r="J30" s="56"/>
       <c r="K30" s="38"/>
       <c r="L30" s="39"/>
       <c r="M30" s="32">
-        <v>0</v>
+        <v>69597</v>
       </c>
       <c r="N30" s="33">
-        <v>0</v>
+        <v>24999</v>
+      </c>
+      <c r="O30" s="666" t="s">
+        <v>941</v>
       </c>
       <c r="P30" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>102159</v>
       </c>
       <c r="Q30" s="325">
         <f t="shared" si="0"/>
@@ -34881,29 +34984,47 @@
       <c r="B31" s="24">
         <v>44737</v>
       </c>
-      <c r="C31" s="25"/>
-      <c r="D31" s="67"/>
+      <c r="C31" s="25">
+        <v>13634</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>946</v>
+      </c>
       <c r="E31" s="27">
         <v>44737</v>
       </c>
-      <c r="F31" s="28"/>
+      <c r="F31" s="28">
+        <v>108067</v>
+      </c>
       <c r="G31" s="575"/>
       <c r="H31" s="29">
         <v>44737</v>
       </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="56"/>
-      <c r="K31" s="569"/>
-      <c r="L31" s="54"/>
+      <c r="I31" s="30">
+        <v>6744</v>
+      </c>
+      <c r="J31" s="56">
+        <v>44737</v>
+      </c>
+      <c r="K31" s="569" t="s">
+        <v>947</v>
+      </c>
+      <c r="L31" s="54">
+        <v>17222</v>
+      </c>
       <c r="M31" s="32">
-        <v>0</v>
+        <f>840+24888</f>
+        <v>25728</v>
       </c>
       <c r="N31" s="33">
-        <v>0</v>
+        <v>44739</v>
+      </c>
+      <c r="O31" s="666" t="s">
+        <v>941</v>
       </c>
       <c r="P31" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>108067</v>
       </c>
       <c r="Q31" s="325">
         <f t="shared" si="0"/>
@@ -34924,29 +35045,40 @@
       <c r="B32" s="24">
         <v>44738</v>
       </c>
-      <c r="C32" s="25"/>
-      <c r="D32" s="64"/>
+      <c r="C32" s="25">
+        <v>52506</v>
+      </c>
+      <c r="D32" s="64" t="s">
+        <v>948</v>
+      </c>
       <c r="E32" s="27">
         <v>44738</v>
       </c>
-      <c r="F32" s="28"/>
+      <c r="F32" s="28">
+        <v>78446</v>
+      </c>
       <c r="G32" s="575"/>
       <c r="H32" s="29">
         <v>44738</v>
       </c>
-      <c r="I32" s="30"/>
+      <c r="I32" s="30">
+        <v>106</v>
+      </c>
       <c r="J32" s="56"/>
       <c r="K32" s="38"/>
       <c r="L32" s="39"/>
       <c r="M32" s="32">
-        <v>0</v>
+        <v>1728</v>
       </c>
       <c r="N32" s="33">
-        <v>0</v>
+        <v>24106</v>
+      </c>
+      <c r="O32" s="666" t="s">
+        <v>941</v>
       </c>
       <c r="P32" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>78446</v>
       </c>
       <c r="Q32" s="325">
         <f t="shared" si="0"/>
@@ -34987,6 +35119,7 @@
       <c r="N33" s="33">
         <v>0</v>
       </c>
+      <c r="O33" s="666"/>
       <c r="P33" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -35030,6 +35163,7 @@
       <c r="N34" s="33">
         <v>0</v>
       </c>
+      <c r="O34" s="666"/>
       <c r="P34" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -35073,6 +35207,7 @@
       <c r="N35" s="33">
         <v>0</v>
       </c>
+      <c r="O35" s="666"/>
       <c r="P35" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -35116,7 +35251,7 @@
       <c r="N36" s="33">
         <v>0</v>
       </c>
-      <c r="O36" s="659"/>
+      <c r="O36" s="667"/>
       <c r="P36" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -35159,7 +35294,7 @@
       <c r="N37" s="33">
         <v>0</v>
       </c>
-      <c r="O37" s="659"/>
+      <c r="O37" s="667"/>
       <c r="P37" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -35201,6 +35336,7 @@
       <c r="N38" s="33">
         <v>0</v>
       </c>
+      <c r="O38" s="666"/>
       <c r="P38" s="34">
         <f>N38+M38+L38+I38+C38</f>
         <v>0</v>
@@ -35242,6 +35378,7 @@
       <c r="N39" s="33">
         <v>0</v>
       </c>
+      <c r="O39" s="666"/>
       <c r="P39" s="34">
         <f t="shared" si="1"/>
         <v>0</v>
@@ -35308,19 +35445,19 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="723">
+      <c r="M41" s="724">
         <f>SUM(M5:M40)</f>
-        <v>956609.5</v>
-      </c>
-      <c r="N41" s="723">
+        <v>1377983</v>
+      </c>
+      <c r="N41" s="724">
         <f>SUM(N5:N40)</f>
-        <v>783369</v>
+        <v>1076575</v>
       </c>
       <c r="P41" s="506">
         <f>SUM(P5:P40)</f>
-        <v>2176121.5499999998</v>
-      </c>
-      <c r="Q41" s="771">
+        <v>3077972.55</v>
+      </c>
+      <c r="Q41" s="772">
         <f>SUM(Q5:Q40)</f>
         <v>30.55000000000291</v>
       </c>
@@ -35344,10 +35481,10 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="724"/>
-      <c r="N42" s="724"/>
+      <c r="M42" s="725"/>
+      <c r="N42" s="725"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="772"/>
+      <c r="Q42" s="773"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -35383,9 +35520,15 @@
       <c r="G44" s="575"/>
       <c r="H44" s="76"/>
       <c r="I44" s="77"/>
-      <c r="J44" s="56"/>
-      <c r="K44" s="573"/>
-      <c r="L44" s="39"/>
+      <c r="J44" s="56">
+        <v>44737</v>
+      </c>
+      <c r="K44" s="805" t="s">
+        <v>947</v>
+      </c>
+      <c r="L44" s="39">
+        <v>18451</v>
+      </c>
       <c r="M44" s="648"/>
       <c r="N44" s="648"/>
       <c r="P44" s="34"/>
@@ -35404,11 +35547,11 @@
       <c r="J45" s="56"/>
       <c r="K45" s="38"/>
       <c r="L45" s="39"/>
-      <c r="M45" s="773">
+      <c r="M45" s="774">
         <f>M41+N41</f>
-        <v>1739978.5</v>
-      </c>
-      <c r="N45" s="774"/>
+        <v>2454558</v>
+      </c>
+      <c r="N45" s="775"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -35689,7 +35832,7 @@
       </c>
       <c r="C61" s="87">
         <f>SUM(C5:C60)</f>
-        <v>324699</v>
+        <v>472957.5</v>
       </c>
       <c r="D61" s="88"/>
       <c r="E61" s="91" t="s">
@@ -35697,7 +35840,7 @@
       </c>
       <c r="F61" s="90">
         <f>SUM(F5:F60)</f>
-        <v>2147326</v>
+        <v>3049177</v>
       </c>
       <c r="G61" s="576"/>
       <c r="H61" s="91" t="s">
@@ -35705,7 +35848,7 @@
       </c>
       <c r="I61" s="92">
         <f>SUM(I5:I60)</f>
-        <v>58385.5</v>
+        <v>80176.5</v>
       </c>
       <c r="J61" s="93"/>
       <c r="K61" s="94" t="s">
@@ -35713,7 +35856,7 @@
       </c>
       <c r="L61" s="95">
         <f>SUM(L5:L60)</f>
-        <v>108037.29000000001</v>
+        <v>143710.29</v>
       </c>
       <c r="M61" s="96"/>
       <c r="N61" s="96"/>
@@ -35731,53 +35874,53 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="678" t="s">
+      <c r="H63" s="679" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="679"/>
+      <c r="I63" s="680"/>
       <c r="J63" s="562"/>
-      <c r="K63" s="793">
+      <c r="K63" s="794">
         <f>I61+L61</f>
-        <v>166422.79</v>
-      </c>
-      <c r="L63" s="794"/>
+        <v>223886.79</v>
+      </c>
+      <c r="L63" s="795"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="684" t="s">
+      <c r="D64" s="685" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="684"/>
+      <c r="E64" s="685"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
-        <v>1656204.21</v>
+        <v>2352332.71</v>
       </c>
       <c r="I64" s="102"/>
       <c r="J64" s="563"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="714" t="s">
+      <c r="D65" s="715" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="714"/>
+      <c r="E65" s="715"/>
       <c r="F65" s="111">
         <v>0</v>
       </c>
-      <c r="I65" s="685" t="s">
+      <c r="I65" s="686" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="686"/>
-      <c r="K65" s="687">
+      <c r="J65" s="687"/>
+      <c r="K65" s="688">
         <f>F67+F68+F69</f>
-        <v>1656204.21</v>
-      </c>
-      <c r="L65" s="687"/>
+        <v>2352332.71</v>
+      </c>
+      <c r="L65" s="688"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
-      <c r="O65" s="660"/>
+      <c r="O65" s="659"/>
       <c r="P65" s="404"/>
       <c r="Q65" s="404"/>
     </row>
@@ -35795,7 +35938,7 @@
       <c r="L66" s="154"/>
       <c r="M66" s="404"/>
       <c r="N66" s="404"/>
-      <c r="O66" s="660"/>
+      <c r="O66" s="659"/>
       <c r="P66" s="404"/>
       <c r="Q66" s="404"/>
     </row>
@@ -35808,18 +35951,18 @@
       </c>
       <c r="F67" s="96">
         <f>SUM(F64:F66)</f>
-        <v>1656204.21</v>
+        <v>2352332.71</v>
       </c>
       <c r="H67" s="558"/>
       <c r="I67" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="795">
+      <c r="K67" s="796">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L67" s="687"/>
+      <c r="L67" s="688"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -35834,22 +35977,22 @@
     </row>
     <row r="69" spans="2:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C69" s="112"/>
-      <c r="D69" s="667" t="s">
+      <c r="D69" s="668" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="668"/>
+      <c r="E69" s="669"/>
       <c r="F69" s="113">
         <v>0</v>
       </c>
-      <c r="I69" s="669" t="s">
+      <c r="I69" s="670" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="670"/>
-      <c r="K69" s="671">
+      <c r="J69" s="671"/>
+      <c r="K69" s="672">
         <f>K65+K67</f>
-        <v>-890777.95000000019</v>
-      </c>
-      <c r="L69" s="671"/>
+        <v>-194649.45000000019</v>
+      </c>
+      <c r="L69" s="672"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -36697,7 +36840,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="666">
+      <c r="A25" s="665">
         <v>44729</v>
       </c>
       <c r="B25" s="260" t="s">
@@ -37565,10 +37708,10 @@
         <f>SUM(F3:F66)</f>
         <v>1179801.69</v>
       </c>
-      <c r="H67" s="767" t="s">
+      <c r="H67" s="768" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="768"/>
+      <c r="I67" s="769"/>
       <c r="J67" s="647">
         <f>SUM(J3:J66)</f>
         <v>0</v>
@@ -37588,11 +37731,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="729" t="s">
+      <c r="F68" s="730" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="769"/>
-      <c r="I68" s="770"/>
+      <c r="H68" s="770"/>
+      <c r="I68" s="771"/>
       <c r="J68" s="1"/>
       <c r="K68" s="97"/>
       <c r="L68" s="3"/>
@@ -37603,7 +37746,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="730"/>
+      <c r="F69" s="731"/>
       <c r="J69" s="1"/>
       <c r="K69" s="97"/>
       <c r="L69" s="3"/>
@@ -39543,7 +39686,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="702" t="s">
+      <c r="B41" s="703" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -39575,7 +39718,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="703"/>
+      <c r="B42" s="704"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -41195,23 +41338,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="691"/>
-      <c r="C1" s="693" t="s">
+      <c r="B1" s="692"/>
+      <c r="C1" s="694" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="694"/>
-      <c r="E1" s="694"/>
-      <c r="F1" s="694"/>
-      <c r="G1" s="694"/>
-      <c r="H1" s="694"/>
-      <c r="I1" s="694"/>
-      <c r="J1" s="694"/>
-      <c r="K1" s="694"/>
-      <c r="L1" s="694"/>
-      <c r="M1" s="694"/>
+      <c r="D1" s="695"/>
+      <c r="E1" s="695"/>
+      <c r="F1" s="695"/>
+      <c r="G1" s="695"/>
+      <c r="H1" s="695"/>
+      <c r="I1" s="695"/>
+      <c r="J1" s="695"/>
+      <c r="K1" s="695"/>
+      <c r="L1" s="695"/>
+      <c r="M1" s="695"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="692"/>
+      <c r="B2" s="693"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -41221,21 +41364,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="695" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="696"/>
+      <c r="B3" s="696" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="697"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="697" t="s">
+      <c r="H3" s="698" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="697"/>
+      <c r="I3" s="698"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="721" t="s">
+      <c r="P3" s="722" t="s">
         <v>6</v>
       </c>
     </row>
@@ -41250,14 +41393,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="698" t="s">
+      <c r="E4" s="699" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="699"/>
-      <c r="H4" s="700" t="s">
+      <c r="F4" s="700"/>
+      <c r="H4" s="701" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="701"/>
+      <c r="I4" s="702"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -41267,14 +41410,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="722"/>
+      <c r="P4" s="723"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="704" t="s">
+      <c r="W4" s="705" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="704"/>
+      <c r="X4" s="705"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -41325,8 +41468,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="704"/>
-      <c r="X5" s="704"/>
+      <c r="W5" s="705"/>
+      <c r="X5" s="705"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42097,7 +42240,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="708">
+      <c r="W19" s="709">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -42149,7 +42292,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="709"/>
+      <c r="W20" s="710"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -42198,8 +42341,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="710"/>
-      <c r="X21" s="710"/>
+      <c r="W21" s="711"/>
+      <c r="X21" s="711"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -42300,8 +42443,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="711"/>
-      <c r="X23" s="711"/>
+      <c r="W23" s="712"/>
+      <c r="X23" s="712"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -42355,8 +42498,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="711"/>
-      <c r="X24" s="711"/>
+      <c r="W24" s="712"/>
+      <c r="X24" s="712"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -42402,8 +42545,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="712"/>
-      <c r="X25" s="712"/>
+      <c r="W25" s="713"/>
+      <c r="X25" s="713"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -42454,8 +42597,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="712"/>
-      <c r="X26" s="712"/>
+      <c r="W26" s="713"/>
+      <c r="X26" s="713"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -42503,9 +42646,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="705"/>
-      <c r="X27" s="706"/>
-      <c r="Y27" s="707"/>
+      <c r="W27" s="706"/>
+      <c r="X27" s="707"/>
+      <c r="Y27" s="708"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42555,9 +42698,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="706"/>
-      <c r="X28" s="706"/>
-      <c r="Y28" s="707"/>
+      <c r="W28" s="707"/>
+      <c r="X28" s="707"/>
+      <c r="Y28" s="708"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42892,11 +43035,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="723">
+      <c r="M36" s="724">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="725">
+      <c r="N36" s="726">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -42904,7 +43047,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="727">
+      <c r="Q36" s="728">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -42939,13 +43082,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="724"/>
-      <c r="N37" s="726"/>
+      <c r="M37" s="725"/>
+      <c r="N37" s="727"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="728"/>
+      <c r="Q37" s="729"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -43235,26 +43378,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="678" t="s">
+      <c r="H52" s="679" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="679"/>
+      <c r="I52" s="680"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="680">
+      <c r="K52" s="681">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="713"/>
+      <c r="L52" s="714"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="684" t="s">
+      <c r="D53" s="685" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="684"/>
+      <c r="E53" s="685"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -43263,29 +43406,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="714" t="s">
+      <c r="D54" s="715" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="714"/>
+      <c r="E54" s="715"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="685" t="s">
+      <c r="I54" s="686" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="686"/>
-      <c r="K54" s="687">
+      <c r="J54" s="687"/>
+      <c r="K54" s="688">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="687"/>
-      <c r="M54" s="715" t="s">
+      <c r="L54" s="688"/>
+      <c r="M54" s="716" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="716"/>
-      <c r="O54" s="716"/>
-      <c r="P54" s="716"/>
-      <c r="Q54" s="717"/>
+      <c r="N54" s="717"/>
+      <c r="O54" s="717"/>
+      <c r="P54" s="717"/>
+      <c r="Q54" s="718"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -43299,11 +43442,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="718"/>
-      <c r="N55" s="719"/>
-      <c r="O55" s="719"/>
-      <c r="P55" s="719"/>
-      <c r="Q55" s="720"/>
+      <c r="M55" s="719"/>
+      <c r="N55" s="720"/>
+      <c r="O55" s="720"/>
+      <c r="P55" s="720"/>
+      <c r="Q55" s="721"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -43321,11 +43464,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="689">
+      <c r="K56" s="690">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="690"/>
+      <c r="L56" s="691"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -43342,22 +43485,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="667" t="s">
+      <c r="D58" s="668" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="668"/>
+      <c r="E58" s="669"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="669" t="s">
+      <c r="I58" s="670" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="670"/>
-      <c r="K58" s="671">
+      <c r="J58" s="671"/>
+      <c r="K58" s="672">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="671"/>
+      <c r="L58" s="672"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -45947,7 +46090,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="729" t="s">
+      <c r="F87" s="730" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -45960,7 +46103,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="730"/>
+      <c r="F88" s="731"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -46272,23 +46415,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="691"/>
-      <c r="C1" s="693" t="s">
+      <c r="B1" s="692"/>
+      <c r="C1" s="694" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="694"/>
-      <c r="E1" s="694"/>
-      <c r="F1" s="694"/>
-      <c r="G1" s="694"/>
-      <c r="H1" s="694"/>
-      <c r="I1" s="694"/>
-      <c r="J1" s="694"/>
-      <c r="K1" s="694"/>
-      <c r="L1" s="694"/>
-      <c r="M1" s="694"/>
+      <c r="D1" s="695"/>
+      <c r="E1" s="695"/>
+      <c r="F1" s="695"/>
+      <c r="G1" s="695"/>
+      <c r="H1" s="695"/>
+      <c r="I1" s="695"/>
+      <c r="J1" s="695"/>
+      <c r="K1" s="695"/>
+      <c r="L1" s="695"/>
+      <c r="M1" s="695"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="692"/>
+      <c r="B2" s="693"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -46298,24 +46441,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="695" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="696"/>
+      <c r="B3" s="696" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="697"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="697" t="s">
+      <c r="H3" s="698" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="697"/>
+      <c r="I3" s="698"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="721" t="s">
+      <c r="P3" s="722" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="731" t="s">
+      <c r="R3" s="732" t="s">
         <v>216</v>
       </c>
     </row>
@@ -46330,14 +46473,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="698" t="s">
+      <c r="E4" s="699" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="699"/>
-      <c r="H4" s="700" t="s">
+      <c r="F4" s="700"/>
+      <c r="H4" s="701" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="701"/>
+      <c r="I4" s="702"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -46347,15 +46490,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="722"/>
+      <c r="P4" s="723"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="732"/>
-      <c r="W4" s="704" t="s">
+      <c r="R4" s="733"/>
+      <c r="W4" s="705" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="704"/>
+      <c r="X4" s="705"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -46416,8 +46559,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="704"/>
-      <c r="X5" s="704"/>
+      <c r="W5" s="705"/>
+      <c r="X5" s="705"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47174,7 +47317,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="708">
+      <c r="W19" s="709">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -47226,7 +47369,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="709"/>
+      <c r="W20" s="710"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -47275,8 +47418,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="710"/>
-      <c r="X21" s="710"/>
+      <c r="W21" s="711"/>
+      <c r="X21" s="711"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -47377,8 +47520,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="711"/>
-      <c r="X23" s="711"/>
+      <c r="W23" s="712"/>
+      <c r="X23" s="712"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -47429,8 +47572,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="711"/>
-      <c r="X24" s="711"/>
+      <c r="W24" s="712"/>
+      <c r="X24" s="712"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -47476,8 +47619,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="712"/>
-      <c r="X25" s="712"/>
+      <c r="W25" s="713"/>
+      <c r="X25" s="713"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -47525,8 +47668,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="712"/>
-      <c r="X26" s="712"/>
+      <c r="W26" s="713"/>
+      <c r="X26" s="713"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -47586,9 +47729,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="705"/>
-      <c r="X27" s="706"/>
-      <c r="Y27" s="707"/>
+      <c r="W27" s="706"/>
+      <c r="X27" s="707"/>
+      <c r="Y27" s="708"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47642,9 +47785,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="706"/>
-      <c r="X28" s="706"/>
-      <c r="Y28" s="707"/>
+      <c r="W28" s="707"/>
+      <c r="X28" s="707"/>
+      <c r="Y28" s="708"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47960,11 +48103,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="723">
+      <c r="M36" s="724">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="725">
+      <c r="N36" s="726">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -47972,7 +48115,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="727">
+      <c r="Q36" s="728">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -47991,13 +48134,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="724"/>
-      <c r="N37" s="726"/>
+      <c r="M37" s="725"/>
+      <c r="N37" s="727"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="728"/>
+      <c r="Q37" s="729"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -48271,26 +48414,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="678" t="s">
+      <c r="H52" s="679" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="679"/>
+      <c r="I52" s="680"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="680">
+      <c r="K52" s="681">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="713"/>
+      <c r="L52" s="714"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="684" t="s">
+      <c r="D53" s="685" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="684"/>
+      <c r="E53" s="685"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -48299,29 +48442,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="714" t="s">
+      <c r="D54" s="715" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="714"/>
+      <c r="E54" s="715"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="685" t="s">
+      <c r="I54" s="686" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="686"/>
-      <c r="K54" s="687">
+      <c r="J54" s="687"/>
+      <c r="K54" s="688">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="687"/>
-      <c r="M54" s="715" t="s">
+      <c r="L54" s="688"/>
+      <c r="M54" s="716" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="716"/>
-      <c r="O54" s="716"/>
-      <c r="P54" s="716"/>
-      <c r="Q54" s="717"/>
+      <c r="N54" s="717"/>
+      <c r="O54" s="717"/>
+      <c r="P54" s="717"/>
+      <c r="Q54" s="718"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -48335,11 +48478,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="718"/>
-      <c r="N55" s="719"/>
-      <c r="O55" s="719"/>
-      <c r="P55" s="719"/>
-      <c r="Q55" s="720"/>
+      <c r="M55" s="719"/>
+      <c r="N55" s="720"/>
+      <c r="O55" s="720"/>
+      <c r="P55" s="720"/>
+      <c r="Q55" s="721"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -48357,11 +48500,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="689">
+      <c r="K56" s="690">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="690"/>
+      <c r="L56" s="691"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -48378,22 +48521,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="667" t="s">
+      <c r="D58" s="668" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="668"/>
+      <c r="E58" s="669"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="669" t="s">
+      <c r="I58" s="670" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="670"/>
-      <c r="K58" s="671">
+      <c r="J58" s="671"/>
+      <c r="K58" s="672">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="671"/>
+      <c r="L58" s="672"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -50956,7 +51099,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="729" t="s">
+      <c r="F75" s="730" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -50969,7 +51112,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="730"/>
+      <c r="F76" s="731"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -51261,23 +51404,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="691"/>
-      <c r="C1" s="733" t="s">
+      <c r="B1" s="692"/>
+      <c r="C1" s="734" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="734"/>
-      <c r="E1" s="734"/>
-      <c r="F1" s="734"/>
-      <c r="G1" s="734"/>
-      <c r="H1" s="734"/>
-      <c r="I1" s="734"/>
-      <c r="J1" s="734"/>
-      <c r="K1" s="734"/>
-      <c r="L1" s="734"/>
-      <c r="M1" s="734"/>
+      <c r="D1" s="735"/>
+      <c r="E1" s="735"/>
+      <c r="F1" s="735"/>
+      <c r="G1" s="735"/>
+      <c r="H1" s="735"/>
+      <c r="I1" s="735"/>
+      <c r="J1" s="735"/>
+      <c r="K1" s="735"/>
+      <c r="L1" s="735"/>
+      <c r="M1" s="735"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="692"/>
+      <c r="B2" s="693"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -51287,24 +51430,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="695" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="696"/>
+      <c r="B3" s="696" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="697"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="697" t="s">
+      <c r="H3" s="698" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="697"/>
+      <c r="I3" s="698"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="721" t="s">
+      <c r="P3" s="722" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="731" t="s">
+      <c r="R3" s="732" t="s">
         <v>216</v>
       </c>
     </row>
@@ -51319,14 +51462,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="698" t="s">
+      <c r="E4" s="699" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="699"/>
-      <c r="H4" s="700" t="s">
+      <c r="F4" s="700"/>
+      <c r="H4" s="701" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="701"/>
+      <c r="I4" s="702"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -51336,15 +51479,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="722"/>
+      <c r="P4" s="723"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="732"/>
-      <c r="W4" s="704" t="s">
+      <c r="R4" s="733"/>
+      <c r="W4" s="705" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="704"/>
+      <c r="X4" s="705"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -51395,8 +51538,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="704"/>
-      <c r="X5" s="704"/>
+      <c r="W5" s="705"/>
+      <c r="X5" s="705"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52160,7 +52303,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="708">
+      <c r="W19" s="709">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -52213,7 +52356,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="709"/>
+      <c r="W20" s="710"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -52262,8 +52405,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="710"/>
-      <c r="X21" s="710"/>
+      <c r="W21" s="711"/>
+      <c r="X21" s="711"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -52363,8 +52506,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="711"/>
-      <c r="X23" s="711"/>
+      <c r="W23" s="712"/>
+      <c r="X23" s="712"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -52419,8 +52562,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="711"/>
-      <c r="X24" s="711"/>
+      <c r="W24" s="712"/>
+      <c r="X24" s="712"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -52465,8 +52608,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="712"/>
-      <c r="X25" s="712"/>
+      <c r="W25" s="713"/>
+      <c r="X25" s="713"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -52514,8 +52657,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="712"/>
-      <c r="X26" s="712"/>
+      <c r="W26" s="713"/>
+      <c r="X26" s="713"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -52569,9 +52712,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="705"/>
-      <c r="X27" s="706"/>
-      <c r="Y27" s="707"/>
+      <c r="W27" s="706"/>
+      <c r="X27" s="707"/>
+      <c r="Y27" s="708"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52625,9 +52768,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="706"/>
-      <c r="X28" s="706"/>
-      <c r="Y28" s="707"/>
+      <c r="W28" s="707"/>
+      <c r="X28" s="707"/>
+      <c r="Y28" s="708"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52938,11 +53081,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="723">
+      <c r="M36" s="724">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="725">
+      <c r="N36" s="726">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -52950,7 +53093,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="727">
+      <c r="Q36" s="728">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -52975,13 +53118,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="724"/>
-      <c r="N37" s="726"/>
+      <c r="M37" s="725"/>
+      <c r="N37" s="727"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="728"/>
+      <c r="Q37" s="729"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -53274,26 +53417,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="678" t="s">
+      <c r="H52" s="679" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="679"/>
+      <c r="I52" s="680"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="680">
+      <c r="K52" s="681">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="713"/>
+      <c r="L52" s="714"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="684" t="s">
+      <c r="D53" s="685" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="684"/>
+      <c r="E53" s="685"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -53302,22 +53445,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="714" t="s">
+      <c r="D54" s="715" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="714"/>
+      <c r="E54" s="715"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="685" t="s">
+      <c r="I54" s="686" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="686"/>
-      <c r="K54" s="687">
+      <c r="J54" s="687"/>
+      <c r="K54" s="688">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="687"/>
+      <c r="L54" s="688"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -53358,11 +53501,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="689">
+      <c r="K56" s="690">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="690"/>
+      <c r="L56" s="691"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -53379,22 +53522,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="667" t="s">
+      <c r="D58" s="668" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="668"/>
+      <c r="E58" s="669"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="669" t="s">
+      <c r="I58" s="670" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="670"/>
-      <c r="K58" s="671">
+      <c r="J58" s="671"/>
+      <c r="K58" s="672">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="671"/>
+      <c r="L58" s="672"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -55263,12 +55406,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="735" t="s">
+      <c r="B43" s="736" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="736"/>
-      <c r="D43" s="736"/>
-      <c r="E43" s="737"/>
+      <c r="C43" s="737"/>
+      <c r="D43" s="737"/>
+      <c r="E43" s="738"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -55296,10 +55439,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="738"/>
-      <c r="C44" s="739"/>
-      <c r="D44" s="739"/>
-      <c r="E44" s="740"/>
+      <c r="B44" s="739"/>
+      <c r="C44" s="740"/>
+      <c r="D44" s="740"/>
+      <c r="E44" s="741"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -55327,10 +55470,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="741"/>
-      <c r="C45" s="742"/>
-      <c r="D45" s="742"/>
-      <c r="E45" s="743"/>
+      <c r="B45" s="742"/>
+      <c r="C45" s="743"/>
+      <c r="D45" s="743"/>
+      <c r="E45" s="744"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -55373,10 +55516,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="750" t="s">
+      <c r="B47" s="751" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="751"/>
+      <c r="C47" s="752"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -55398,8 +55541,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="752"/>
-      <c r="C48" s="753"/>
+      <c r="B48" s="753"/>
+      <c r="C48" s="754"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -55407,11 +55550,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="744" t="s">
+      <c r="J48" s="745" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="745"/>
-      <c r="L48" s="746"/>
+      <c r="K48" s="746"/>
+      <c r="L48" s="747"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -55429,9 +55572,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="747"/>
-      <c r="K49" s="748"/>
-      <c r="L49" s="749"/>
+      <c r="J49" s="748"/>
+      <c r="K49" s="749"/>
+      <c r="L49" s="750"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -55448,10 +55591,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="754" t="s">
+      <c r="I50" s="755" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="755"/>
+      <c r="J50" s="756"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -55472,8 +55615,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="754"/>
-      <c r="J51" s="755"/>
+      <c r="I51" s="755"/>
+      <c r="J51" s="756"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -55492,8 +55635,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="754"/>
-      <c r="J52" s="755"/>
+      <c r="I52" s="755"/>
+      <c r="J52" s="756"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -55512,8 +55655,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="754"/>
-      <c r="J53" s="755"/>
+      <c r="I53" s="755"/>
+      <c r="J53" s="756"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -55532,8 +55675,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="754"/>
-      <c r="J54" s="755"/>
+      <c r="I54" s="755"/>
+      <c r="J54" s="756"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -55552,8 +55695,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="754"/>
-      <c r="J55" s="755"/>
+      <c r="I55" s="755"/>
+      <c r="J55" s="756"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -55572,8 +55715,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="754"/>
-      <c r="J56" s="755"/>
+      <c r="I56" s="755"/>
+      <c r="J56" s="756"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -55592,8 +55735,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="754"/>
-      <c r="J57" s="755"/>
+      <c r="I57" s="755"/>
+      <c r="J57" s="756"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -55612,8 +55755,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="754"/>
-      <c r="J58" s="755"/>
+      <c r="I58" s="755"/>
+      <c r="J58" s="756"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -55632,8 +55775,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="754"/>
-      <c r="J59" s="755"/>
+      <c r="I59" s="755"/>
+      <c r="J59" s="756"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -55652,8 +55795,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="754"/>
-      <c r="J60" s="755"/>
+      <c r="I60" s="755"/>
+      <c r="J60" s="756"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -55672,8 +55815,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="754"/>
-      <c r="J61" s="755"/>
+      <c r="I61" s="755"/>
+      <c r="J61" s="756"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -55692,8 +55835,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="754"/>
-      <c r="J62" s="755"/>
+      <c r="I62" s="755"/>
+      <c r="J62" s="756"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -55712,8 +55855,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="754"/>
-      <c r="J63" s="755"/>
+      <c r="I63" s="755"/>
+      <c r="J63" s="756"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -55732,8 +55875,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="754"/>
-      <c r="J64" s="755"/>
+      <c r="I64" s="755"/>
+      <c r="J64" s="756"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -55752,8 +55895,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="754"/>
-      <c r="J65" s="755"/>
+      <c r="I65" s="755"/>
+      <c r="J65" s="756"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -55772,8 +55915,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="754"/>
-      <c r="J66" s="755"/>
+      <c r="I66" s="755"/>
+      <c r="J66" s="756"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -55792,8 +55935,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="754"/>
-      <c r="J67" s="755"/>
+      <c r="I67" s="755"/>
+      <c r="J67" s="756"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -55812,8 +55955,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="754"/>
-      <c r="J68" s="755"/>
+      <c r="I68" s="755"/>
+      <c r="J68" s="756"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -55832,8 +55975,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="754"/>
-      <c r="J69" s="755"/>
+      <c r="I69" s="755"/>
+      <c r="J69" s="756"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -55852,8 +55995,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="754"/>
-      <c r="J70" s="755"/>
+      <c r="I70" s="755"/>
+      <c r="J70" s="756"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -55872,8 +56015,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="754"/>
-      <c r="J71" s="755"/>
+      <c r="I71" s="755"/>
+      <c r="J71" s="756"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -55892,8 +56035,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="754"/>
-      <c r="J72" s="755"/>
+      <c r="I72" s="755"/>
+      <c r="J72" s="756"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -55912,8 +56055,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="754"/>
-      <c r="J73" s="755"/>
+      <c r="I73" s="755"/>
+      <c r="J73" s="756"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -55932,8 +56075,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="754"/>
-      <c r="J74" s="755"/>
+      <c r="I74" s="755"/>
+      <c r="J74" s="756"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -55952,8 +56095,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="754"/>
-      <c r="J75" s="755"/>
+      <c r="I75" s="755"/>
+      <c r="J75" s="756"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -55972,8 +56115,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="754"/>
-      <c r="J76" s="755"/>
+      <c r="I76" s="755"/>
+      <c r="J76" s="756"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -55992,8 +56135,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="754"/>
-      <c r="J77" s="755"/>
+      <c r="I77" s="755"/>
+      <c r="J77" s="756"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -56014,8 +56157,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="756"/>
-      <c r="J78" s="757"/>
+      <c r="I78" s="757"/>
+      <c r="J78" s="758"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -56060,7 +56203,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="729" t="s">
+      <c r="F80" s="730" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -56072,7 +56215,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="730"/>
+      <c r="F81" s="731"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -56360,23 +56503,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="691"/>
-      <c r="C1" s="733" t="s">
+      <c r="B1" s="692"/>
+      <c r="C1" s="734" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="734"/>
-      <c r="E1" s="734"/>
-      <c r="F1" s="734"/>
-      <c r="G1" s="734"/>
-      <c r="H1" s="734"/>
-      <c r="I1" s="734"/>
-      <c r="J1" s="734"/>
-      <c r="K1" s="734"/>
-      <c r="L1" s="734"/>
-      <c r="M1" s="734"/>
+      <c r="D1" s="735"/>
+      <c r="E1" s="735"/>
+      <c r="F1" s="735"/>
+      <c r="G1" s="735"/>
+      <c r="H1" s="735"/>
+      <c r="I1" s="735"/>
+      <c r="J1" s="735"/>
+      <c r="K1" s="735"/>
+      <c r="L1" s="735"/>
+      <c r="M1" s="735"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="692"/>
+      <c r="B2" s="693"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -56386,24 +56529,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="695" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="696"/>
+      <c r="B3" s="696" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="697"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="697" t="s">
+      <c r="H3" s="698" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="697"/>
+      <c r="I3" s="698"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="721" t="s">
+      <c r="P3" s="722" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="731" t="s">
+      <c r="R3" s="732" t="s">
         <v>216</v>
       </c>
     </row>
@@ -56418,14 +56561,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="698" t="s">
+      <c r="E4" s="699" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="699"/>
-      <c r="H4" s="700" t="s">
+      <c r="F4" s="700"/>
+      <c r="H4" s="701" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="701"/>
+      <c r="I4" s="702"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -56435,15 +56578,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="722"/>
+      <c r="P4" s="723"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="732"/>
-      <c r="W4" s="704" t="s">
+      <c r="R4" s="733"/>
+      <c r="W4" s="705" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="704"/>
+      <c r="X4" s="705"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -56494,8 +56637,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="704"/>
-      <c r="X5" s="704"/>
+      <c r="W5" s="705"/>
+      <c r="X5" s="705"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57256,7 +57399,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="708">
+      <c r="W19" s="709">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -57308,7 +57451,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="709"/>
+      <c r="W20" s="710"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -57357,8 +57500,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="710"/>
-      <c r="X21" s="710"/>
+      <c r="W21" s="711"/>
+      <c r="X21" s="711"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -57457,8 +57600,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="711"/>
-      <c r="X23" s="711"/>
+      <c r="W23" s="712"/>
+      <c r="X23" s="712"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -57513,8 +57656,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="711"/>
-      <c r="X24" s="711"/>
+      <c r="W24" s="712"/>
+      <c r="X24" s="712"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -57562,8 +57705,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="712"/>
-      <c r="X25" s="712"/>
+      <c r="W25" s="713"/>
+      <c r="X25" s="713"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -57611,8 +57754,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="712"/>
-      <c r="X26" s="712"/>
+      <c r="W26" s="713"/>
+      <c r="X26" s="713"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -57660,9 +57803,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="705"/>
-      <c r="X27" s="706"/>
-      <c r="Y27" s="707"/>
+      <c r="W27" s="706"/>
+      <c r="X27" s="707"/>
+      <c r="Y27" s="708"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57710,9 +57853,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="706"/>
-      <c r="X28" s="706"/>
-      <c r="Y28" s="707"/>
+      <c r="W28" s="707"/>
+      <c r="X28" s="707"/>
+      <c r="Y28" s="708"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -58053,11 +58196,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="723">
+      <c r="M36" s="724">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="725">
+      <c r="N36" s="726">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -58065,7 +58208,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="758">
+      <c r="Q36" s="759">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -58090,13 +58233,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="724"/>
-      <c r="N37" s="726"/>
+      <c r="M37" s="725"/>
+      <c r="N37" s="727"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="759"/>
+      <c r="Q37" s="760"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -58146,11 +58289,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="760">
+      <c r="M39" s="761">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="761"/>
+      <c r="N39" s="762"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -58398,26 +58541,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="678" t="s">
+      <c r="H52" s="679" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="679"/>
+      <c r="I52" s="680"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="680">
+      <c r="K52" s="681">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="713"/>
+      <c r="L52" s="714"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="684" t="s">
+      <c r="D53" s="685" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="684"/>
+      <c r="E53" s="685"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -58426,22 +58569,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="714" t="s">
+      <c r="D54" s="715" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="714"/>
+      <c r="E54" s="715"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="685" t="s">
+      <c r="I54" s="686" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="686"/>
-      <c r="K54" s="687">
+      <c r="J54" s="687"/>
+      <c r="K54" s="688">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="687"/>
+      <c r="L54" s="688"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -58482,11 +58625,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="689">
+      <c r="K56" s="690">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="690"/>
+      <c r="L56" s="691"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -58503,22 +58646,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="667" t="s">
+      <c r="D58" s="668" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="668"/>
+      <c r="E58" s="669"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="669" t="s">
+      <c r="I58" s="670" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="670"/>
-      <c r="K58" s="671">
+      <c r="J58" s="671"/>
+      <c r="K58" s="672">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="671"/>
+      <c r="L58" s="672"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE    ZAVALETA   JUNIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE    ZAVALETA   JUNIO    2022.xlsx
@@ -710,7 +710,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="950">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -3570,6 +3570,9 @@
   </si>
   <si>
     <t>QUESOS-PICAÑA-RIBEYE-SALCHICHONERIA</t>
+  </si>
+  <si>
+    <t>Chorizo-Pollo-Salchichoneria-Queso-Lomo</t>
   </si>
 </sst>
 </file>
@@ -6946,6 +6949,42 @@
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7018,76 +7057,10 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7131,6 +7104,39 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7324,20 +7330,20 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="18" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7356,9 +7362,6 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -11735,23 +11738,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="692"/>
-      <c r="C1" s="694" t="s">
+      <c r="B1" s="669"/>
+      <c r="C1" s="671" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="695"/>
-      <c r="E1" s="695"/>
-      <c r="F1" s="695"/>
-      <c r="G1" s="695"/>
-      <c r="H1" s="695"/>
-      <c r="I1" s="695"/>
-      <c r="J1" s="695"/>
-      <c r="K1" s="695"/>
-      <c r="L1" s="695"/>
-      <c r="M1" s="695"/>
+      <c r="D1" s="672"/>
+      <c r="E1" s="672"/>
+      <c r="F1" s="672"/>
+      <c r="G1" s="672"/>
+      <c r="H1" s="672"/>
+      <c r="I1" s="672"/>
+      <c r="J1" s="672"/>
+      <c r="K1" s="672"/>
+      <c r="L1" s="672"/>
+      <c r="M1" s="672"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="693"/>
+      <c r="B2" s="670"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -11761,17 +11764,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="696" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="697"/>
+      <c r="B3" s="673" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="674"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="698" t="s">
+      <c r="H3" s="675" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="698"/>
+      <c r="I3" s="675"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -11785,14 +11788,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="699" t="s">
+      <c r="E4" s="676" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="700"/>
-      <c r="H4" s="701" t="s">
+      <c r="F4" s="677"/>
+      <c r="H4" s="678" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="702"/>
+      <c r="I4" s="679"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -11802,10 +11805,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="673" t="s">
+      <c r="P4" s="685" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="674"/>
+      <c r="Q4" s="686"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -13246,11 +13249,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="675">
+      <c r="M39" s="687">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="677">
+      <c r="N39" s="689">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -13276,8 +13279,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="676"/>
-      <c r="N40" s="678"/>
+      <c r="M40" s="688"/>
+      <c r="N40" s="690"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -13492,29 +13495,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="679" t="s">
+      <c r="H52" s="691" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="680"/>
+      <c r="I52" s="692"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="681">
+      <c r="K52" s="693">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="682"/>
-      <c r="M52" s="683">
+      <c r="L52" s="694"/>
+      <c r="M52" s="695">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="684"/>
+      <c r="N52" s="696"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="685" t="s">
+      <c r="D53" s="697" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="685"/>
+      <c r="E53" s="697"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -13525,22 +13528,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="685" t="s">
+      <c r="D54" s="697" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="685"/>
+      <c r="E54" s="697"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="686" t="s">
+      <c r="I54" s="698" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="687"/>
-      <c r="K54" s="688">
+      <c r="J54" s="699"/>
+      <c r="K54" s="700">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="689"/>
+      <c r="L54" s="701"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -13573,11 +13576,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="690">
+      <c r="K56" s="702">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="691"/>
+      <c r="L56" s="703"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -13594,22 +13597,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="668" t="s">
+      <c r="D58" s="680" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="669"/>
+      <c r="E58" s="681"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="670" t="s">
+      <c r="I58" s="682" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="671"/>
-      <c r="K58" s="672">
+      <c r="J58" s="683"/>
+      <c r="K58" s="684">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="672"/>
+      <c r="L58" s="684"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -13753,12 +13756,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -13773,6 +13770,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16233,10 +16236,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="764" t="s">
+      <c r="I76" s="765" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="765"/>
+      <c r="J76" s="766"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -16255,8 +16258,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="766"/>
-      <c r="J77" s="767"/>
+      <c r="I77" s="767"/>
+      <c r="J77" s="768"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -16323,7 +16326,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="730" t="s">
+      <c r="F80" s="731" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -16338,7 +16341,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="731"/>
+      <c r="F81" s="732"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -16346,10 +16349,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="763" t="s">
+      <c r="B82" s="764" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="763"/>
+      <c r="C82" s="764"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -16631,23 +16634,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="692"/>
-      <c r="C1" s="734" t="s">
+      <c r="B1" s="669"/>
+      <c r="C1" s="735" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="735"/>
-      <c r="E1" s="735"/>
-      <c r="F1" s="735"/>
-      <c r="G1" s="735"/>
-      <c r="H1" s="735"/>
-      <c r="I1" s="735"/>
-      <c r="J1" s="735"/>
-      <c r="K1" s="735"/>
-      <c r="L1" s="735"/>
-      <c r="M1" s="735"/>
+      <c r="D1" s="736"/>
+      <c r="E1" s="736"/>
+      <c r="F1" s="736"/>
+      <c r="G1" s="736"/>
+      <c r="H1" s="736"/>
+      <c r="I1" s="736"/>
+      <c r="J1" s="736"/>
+      <c r="K1" s="736"/>
+      <c r="L1" s="736"/>
+      <c r="M1" s="736"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="693"/>
+      <c r="B2" s="670"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -16657,24 +16660,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="696" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="697"/>
+      <c r="B3" s="673" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="674"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="698" t="s">
+      <c r="H3" s="675" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="698"/>
+      <c r="I3" s="675"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="722" t="s">
+      <c r="P3" s="712" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="732" t="s">
+      <c r="R3" s="733" t="s">
         <v>216</v>
       </c>
     </row>
@@ -16689,14 +16692,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="699" t="s">
+      <c r="E4" s="676" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="700"/>
-      <c r="H4" s="701" t="s">
+      <c r="F4" s="677"/>
+      <c r="H4" s="678" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="702"/>
+      <c r="I4" s="679"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -16706,15 +16709,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="723"/>
+      <c r="P4" s="713"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="733"/>
-      <c r="W4" s="705" t="s">
+      <c r="R4" s="734"/>
+      <c r="W4" s="722" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="705"/>
+      <c r="X4" s="722"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16765,8 +16768,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="705"/>
-      <c r="X5" s="705"/>
+      <c r="W5" s="722"/>
+      <c r="X5" s="722"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17529,7 +17532,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="709">
+      <c r="W19" s="726">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -17581,7 +17584,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="710"/>
+      <c r="W20" s="727"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -17630,8 +17633,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="711"/>
-      <c r="X21" s="711"/>
+      <c r="W21" s="728"/>
+      <c r="X21" s="728"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -17731,8 +17734,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="712"/>
-      <c r="X23" s="712"/>
+      <c r="W23" s="729"/>
+      <c r="X23" s="729"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -17787,8 +17790,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="712"/>
-      <c r="X24" s="712"/>
+      <c r="W24" s="729"/>
+      <c r="X24" s="729"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -17836,8 +17839,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="713"/>
-      <c r="X25" s="713"/>
+      <c r="W25" s="730"/>
+      <c r="X25" s="730"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -17886,8 +17889,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="713"/>
-      <c r="X26" s="713"/>
+      <c r="W26" s="730"/>
+      <c r="X26" s="730"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -17935,9 +17938,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="706"/>
-      <c r="X27" s="707"/>
-      <c r="Y27" s="708"/>
+      <c r="W27" s="723"/>
+      <c r="X27" s="724"/>
+      <c r="Y27" s="725"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17985,9 +17988,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="707"/>
-      <c r="X28" s="707"/>
-      <c r="Y28" s="708"/>
+      <c r="W28" s="724"/>
+      <c r="X28" s="724"/>
+      <c r="Y28" s="725"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18319,11 +18322,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="724">
+      <c r="M36" s="714">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="726">
+      <c r="N36" s="716">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -18331,7 +18334,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="759">
+      <c r="Q36" s="760">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -18356,13 +18359,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="725"/>
-      <c r="N37" s="727"/>
+      <c r="M37" s="715"/>
+      <c r="N37" s="717"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="760"/>
+      <c r="Q37" s="761"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -18412,11 +18415,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="761">
+      <c r="M39" s="762">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="762"/>
+      <c r="N39" s="763"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -19044,26 +19047,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="679" t="s">
+      <c r="H68" s="691" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="680"/>
+      <c r="I68" s="692"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="681">
+      <c r="K68" s="693">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="714"/>
+      <c r="L68" s="720"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="685" t="s">
+      <c r="D69" s="697" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="685"/>
+      <c r="E69" s="697"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -19072,22 +19075,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="715" t="s">
+      <c r="D70" s="721" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="715"/>
+      <c r="E70" s="721"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="686" t="s">
+      <c r="I70" s="698" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="687"/>
-      <c r="K70" s="688">
+      <c r="J70" s="699"/>
+      <c r="K70" s="700">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="688"/>
+      <c r="L70" s="700"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -19128,11 +19131,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="690">
+      <c r="K72" s="702">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="691"/>
+      <c r="L72" s="703"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -19149,22 +19152,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="668" t="s">
+      <c r="D74" s="680" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="669"/>
+      <c r="E74" s="681"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="670" t="s">
+      <c r="I74" s="682" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="671"/>
-      <c r="K74" s="672">
+      <c r="J74" s="683"/>
+      <c r="K74" s="684">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="672"/>
+      <c r="L74" s="684"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -19311,21 +19314,6 @@
     <sortCondition ref="B34:B42"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -19341,6 +19329,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21608,7 +21611,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="730" t="s">
+      <c r="F80" s="731" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -21621,7 +21624,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="731"/>
+      <c r="F81" s="732"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -21641,10 +21644,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="768" t="s">
+      <c r="I83" s="769" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="769"/>
+      <c r="J83" s="770"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="514" t="s">
@@ -21653,8 +21656,8 @@
       <c r="B84" s="515"/>
       <c r="C84" s="516"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="770"/>
-      <c r="J84" s="771"/>
+      <c r="I84" s="771"/>
+      <c r="J84" s="772"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -21926,23 +21929,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="692"/>
-      <c r="C1" s="734" t="s">
+      <c r="B1" s="669"/>
+      <c r="C1" s="735" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="735"/>
-      <c r="E1" s="735"/>
-      <c r="F1" s="735"/>
-      <c r="G1" s="735"/>
-      <c r="H1" s="735"/>
-      <c r="I1" s="735"/>
-      <c r="J1" s="735"/>
-      <c r="K1" s="735"/>
-      <c r="L1" s="735"/>
-      <c r="M1" s="735"/>
+      <c r="D1" s="736"/>
+      <c r="E1" s="736"/>
+      <c r="F1" s="736"/>
+      <c r="G1" s="736"/>
+      <c r="H1" s="736"/>
+      <c r="I1" s="736"/>
+      <c r="J1" s="736"/>
+      <c r="K1" s="736"/>
+      <c r="L1" s="736"/>
+      <c r="M1" s="736"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="693"/>
+      <c r="B2" s="670"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -21952,24 +21955,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="696" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="697"/>
+      <c r="B3" s="673" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="674"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="698" t="s">
+      <c r="H3" s="675" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="698"/>
+      <c r="I3" s="675"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="722" t="s">
+      <c r="P3" s="712" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="732" t="s">
+      <c r="R3" s="733" t="s">
         <v>216</v>
       </c>
     </row>
@@ -21984,14 +21987,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="699" t="s">
+      <c r="E4" s="676" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="700"/>
-      <c r="H4" s="701" t="s">
+      <c r="F4" s="677"/>
+      <c r="H4" s="678" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="702"/>
+      <c r="I4" s="679"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -22001,15 +22004,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="723"/>
+      <c r="P4" s="713"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="733"/>
-      <c r="W4" s="705" t="s">
+      <c r="R4" s="734"/>
+      <c r="W4" s="722" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="705"/>
+      <c r="X4" s="722"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22060,8 +22063,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="705"/>
-      <c r="X5" s="705"/>
+      <c r="W5" s="722"/>
+      <c r="X5" s="722"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22820,7 +22823,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="709">
+      <c r="W19" s="726">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -22872,7 +22875,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="710"/>
+      <c r="W20" s="727"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -22921,8 +22924,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="711"/>
-      <c r="X21" s="711"/>
+      <c r="W21" s="728"/>
+      <c r="X21" s="728"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -23019,8 +23022,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="712"/>
-      <c r="X23" s="712"/>
+      <c r="W23" s="729"/>
+      <c r="X23" s="729"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -23075,8 +23078,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="712"/>
-      <c r="X24" s="712"/>
+      <c r="W24" s="729"/>
+      <c r="X24" s="729"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -23122,8 +23125,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="713"/>
-      <c r="X25" s="713"/>
+      <c r="W25" s="730"/>
+      <c r="X25" s="730"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -23174,8 +23177,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="713"/>
-      <c r="X26" s="713"/>
+      <c r="W26" s="730"/>
+      <c r="X26" s="730"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -23226,9 +23229,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="706"/>
-      <c r="X27" s="707"/>
-      <c r="Y27" s="708"/>
+      <c r="W27" s="723"/>
+      <c r="X27" s="724"/>
+      <c r="Y27" s="725"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23278,9 +23281,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="707"/>
-      <c r="X28" s="707"/>
-      <c r="Y28" s="708"/>
+      <c r="W28" s="724"/>
+      <c r="X28" s="724"/>
+      <c r="Y28" s="725"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23884,11 +23887,11 @@
       <c r="L41" s="627">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="724">
+      <c r="M41" s="714">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="724">
+      <c r="N41" s="714">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -23896,7 +23899,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="772">
+      <c r="Q41" s="773">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -23926,10 +23929,10 @@
       <c r="L42" s="630">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="725"/>
-      <c r="N42" s="725"/>
+      <c r="M42" s="715"/>
+      <c r="N42" s="715"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="773"/>
+      <c r="Q42" s="774"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -24017,11 +24020,11 @@
       <c r="L45" s="627">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="774">
+      <c r="M45" s="775">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="775"/>
+      <c r="N45" s="776"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -24614,26 +24617,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="679" t="s">
+      <c r="H70" s="691" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="680"/>
+      <c r="I70" s="692"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="681">
+      <c r="K70" s="693">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="714"/>
+      <c r="L70" s="720"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="685" t="s">
+      <c r="D71" s="697" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="685"/>
+      <c r="E71" s="697"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -24643,22 +24646,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="715" t="s">
+      <c r="D72" s="721" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="715"/>
+      <c r="E72" s="721"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="686" t="s">
+      <c r="I72" s="698" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="687"/>
-      <c r="K72" s="688">
+      <c r="J72" s="699"/>
+      <c r="K72" s="700">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="688"/>
+      <c r="L72" s="700"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -24699,11 +24702,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="690">
+      <c r="K74" s="702">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="691"/>
+      <c r="L74" s="703"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -24722,22 +24725,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="668" t="s">
+      <c r="D76" s="680" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="669"/>
+      <c r="E76" s="681"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="670" t="s">
+      <c r="I76" s="682" t="s">
         <v>854</v>
       </c>
-      <c r="J76" s="671"/>
-      <c r="K76" s="672">
+      <c r="J76" s="683"/>
+      <c r="K76" s="684">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="672"/>
+      <c r="L76" s="684"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -24897,21 +24900,6 @@
     <sortCondition ref="J47:J67"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -24927,6 +24915,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -27442,7 +27445,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="730" t="s">
+      <c r="F90" s="731" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -27455,7 +27458,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="731"/>
+      <c r="F91" s="732"/>
       <c r="K91" s="1"/>
       <c r="L91" s="97"/>
       <c r="M91" s="3"/>
@@ -27474,10 +27477,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="768" t="s">
+      <c r="I93" s="769" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="769"/>
+      <c r="J93" s="770"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -27487,8 +27490,8 @@
       <c r="C94" s="518"/>
       <c r="D94" s="519"/>
       <c r="E94" s="520"/>
-      <c r="I94" s="770"/>
-      <c r="J94" s="771"/>
+      <c r="I94" s="771"/>
+      <c r="J94" s="772"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -27929,11 +27932,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="776">
+      <c r="C130" s="777">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="777"/>
+      <c r="D130" s="778"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -27969,21 +27972,21 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="782" t="s">
+      <c r="F2" s="783" t="s">
         <v>752</v>
       </c>
-      <c r="G2" s="783"/>
-      <c r="H2" s="784"/>
+      <c r="G2" s="784"/>
+      <c r="H2" s="785"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="779" t="s">
+      <c r="B3" s="780" t="s">
         <v>748</v>
       </c>
-      <c r="C3" s="780"/>
-      <c r="D3" s="781"/>
-      <c r="F3" s="785"/>
-      <c r="G3" s="786"/>
-      <c r="H3" s="787"/>
+      <c r="C3" s="781"/>
+      <c r="D3" s="782"/>
+      <c r="F3" s="786"/>
+      <c r="G3" s="787"/>
+      <c r="H3" s="788"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="526" t="s">
@@ -28128,11 +28131,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="788">
+      <c r="G11" s="789">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="789"/>
+      <c r="H11" s="790"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="532" t="s">
@@ -28149,23 +28152,23 @@
       <c r="C14" s="532"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="792" t="s">
+      <c r="C15" s="793" t="s">
         <v>750</v>
       </c>
-      <c r="D15" s="790">
+      <c r="D15" s="791">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="793"/>
-      <c r="D16" s="791"/>
+      <c r="C16" s="794"/>
+      <c r="D16" s="792"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="778" t="s">
+      <c r="C17" s="779" t="s">
         <v>753</v>
       </c>
-      <c r="D17" s="778"/>
+      <c r="D17" s="779"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -28223,23 +28226,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="692"/>
-      <c r="C1" s="734" t="s">
+      <c r="B1" s="669"/>
+      <c r="C1" s="735" t="s">
         <v>754</v>
       </c>
-      <c r="D1" s="735"/>
-      <c r="E1" s="735"/>
-      <c r="F1" s="735"/>
-      <c r="G1" s="735"/>
-      <c r="H1" s="735"/>
-      <c r="I1" s="735"/>
-      <c r="J1" s="735"/>
-      <c r="K1" s="735"/>
-      <c r="L1" s="735"/>
-      <c r="M1" s="735"/>
+      <c r="D1" s="736"/>
+      <c r="E1" s="736"/>
+      <c r="F1" s="736"/>
+      <c r="G1" s="736"/>
+      <c r="H1" s="736"/>
+      <c r="I1" s="736"/>
+      <c r="J1" s="736"/>
+      <c r="K1" s="736"/>
+      <c r="L1" s="736"/>
+      <c r="M1" s="736"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="693"/>
+      <c r="B2" s="670"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -28249,24 +28252,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="696" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="697"/>
+      <c r="B3" s="673" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="674"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="698" t="s">
+      <c r="H3" s="675" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="698"/>
+      <c r="I3" s="675"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="722" t="s">
+      <c r="P3" s="712" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="732" t="s">
+      <c r="R3" s="733" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -28285,14 +28288,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="699" t="s">
+      <c r="E4" s="676" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="700"/>
-      <c r="H4" s="701" t="s">
+      <c r="F4" s="677"/>
+      <c r="H4" s="678" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="702"/>
+      <c r="I4" s="679"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -28302,15 +28305,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="723"/>
+      <c r="P4" s="713"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="733"/>
+      <c r="R4" s="734"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="797"/>
-      <c r="X4" s="797"/>
+      <c r="W4" s="795"/>
+      <c r="X4" s="795"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -28364,8 +28367,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="797"/>
-      <c r="X5" s="797"/>
+      <c r="W5" s="795"/>
+      <c r="X5" s="795"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29131,7 +29134,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="798"/>
+      <c r="W19" s="796"/>
       <c r="X19" s="544"/>
       <c r="Y19" s="233"/>
     </row>
@@ -29185,7 +29188,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="798"/>
+      <c r="W20" s="796"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -29240,8 +29243,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="711"/>
-      <c r="X21" s="711"/>
+      <c r="W21" s="728"/>
+      <c r="X21" s="728"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -29352,8 +29355,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="712"/>
-      <c r="X23" s="712"/>
+      <c r="W23" s="729"/>
+      <c r="X23" s="729"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -29414,8 +29417,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="712"/>
-      <c r="X24" s="712"/>
+      <c r="W24" s="729"/>
+      <c r="X24" s="729"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -29468,8 +29471,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="713"/>
-      <c r="X25" s="713"/>
+      <c r="W25" s="730"/>
+      <c r="X25" s="730"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -29524,8 +29527,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="713"/>
-      <c r="X26" s="713"/>
+      <c r="W26" s="730"/>
+      <c r="X26" s="730"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -29580,9 +29583,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="706"/>
-      <c r="X27" s="707"/>
-      <c r="Y27" s="708"/>
+      <c r="W27" s="723"/>
+      <c r="X27" s="724"/>
+      <c r="Y27" s="725"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29636,9 +29639,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="707"/>
-      <c r="X28" s="707"/>
-      <c r="Y28" s="708"/>
+      <c r="W28" s="724"/>
+      <c r="X28" s="724"/>
+      <c r="Y28" s="725"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30229,11 +30232,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="724">
+      <c r="M41" s="714">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="724">
+      <c r="N41" s="714">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -30241,7 +30244,7 @@
         <f>SUM(P5:P40)</f>
         <v>4043205.8900000006</v>
       </c>
-      <c r="Q41" s="772">
+      <c r="Q41" s="773">
         <f>SUM(Q5:Q40)</f>
         <v>890559.8899999999</v>
       </c>
@@ -30265,10 +30268,10 @@
       <c r="L42" s="641">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="725"/>
-      <c r="N42" s="725"/>
+      <c r="M42" s="715"/>
+      <c r="N42" s="715"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="773"/>
+      <c r="Q42" s="774"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -30337,11 +30340,11 @@
       <c r="L45" s="619">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="774">
+      <c r="M45" s="775">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="775"/>
+      <c r="N45" s="776"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -30757,26 +30760,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="679" t="s">
+      <c r="H63" s="691" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="680"/>
+      <c r="I63" s="692"/>
       <c r="J63" s="562"/>
-      <c r="K63" s="794">
+      <c r="K63" s="798">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="795"/>
+      <c r="L63" s="799"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="685" t="s">
+      <c r="D64" s="697" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="685"/>
+      <c r="E64" s="697"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -30785,22 +30788,22 @@
       <c r="J64" s="563"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="715" t="s">
+      <c r="D65" s="721" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="715"/>
+      <c r="E65" s="721"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="686" t="s">
+      <c r="I65" s="698" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="687"/>
-      <c r="K65" s="688">
+      <c r="J65" s="699"/>
+      <c r="K65" s="700">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="688"/>
+      <c r="L65" s="700"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="582"/>
@@ -30841,11 +30844,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="796">
+      <c r="K67" s="797">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="688"/>
+      <c r="L67" s="700"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -30862,22 +30865,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="668" t="s">
+      <c r="D69" s="680" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="669"/>
+      <c r="E69" s="681"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="670" t="s">
+      <c r="I69" s="682" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="671"/>
-      <c r="K69" s="672">
+      <c r="J69" s="683"/>
+      <c r="K69" s="684">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="672"/>
+      <c r="L69" s="684"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -31024,6 +31027,21 @@
     <sortCondition ref="J42:J56"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -31039,21 +31057,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33027,7 +33030,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="730" t="s">
+      <c r="F71" s="731" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -33040,7 +33043,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="731"/>
+      <c r="F72" s="732"/>
       <c r="K72" s="1"/>
       <c r="L72" s="97"/>
       <c r="M72" s="3"/>
@@ -33059,10 +33062,10 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="768" t="s">
+      <c r="I74" s="769" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="769"/>
+      <c r="J74" s="770"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
@@ -33071,8 +33074,8 @@
       <c r="D75" s="655"/>
       <c r="E75" s="520"/>
       <c r="F75" s="111"/>
-      <c r="I75" s="770"/>
-      <c r="J75" s="771"/>
+      <c r="I75" s="771"/>
+      <c r="J75" s="772"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
@@ -33206,11 +33209,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="801" t="s">
+      <c r="A89" s="802" t="s">
         <v>806</v>
       </c>
-      <c r="B89" s="802"/>
-      <c r="C89" s="802"/>
+      <c r="B89" s="803"/>
+      <c r="C89" s="803"/>
       <c r="E89"/>
       <c r="F89" s="111"/>
       <c r="I89"/>
@@ -33220,10 +33223,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="803" t="s">
+      <c r="B90" s="804" t="s">
         <v>807</v>
       </c>
-      <c r="C90" s="804"/>
+      <c r="C90" s="805"/>
       <c r="E90"/>
       <c r="F90" s="111"/>
       <c r="I90"/>
@@ -33324,7 +33327,7 @@
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="663"/>
-      <c r="C97" s="799">
+      <c r="C97" s="800">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -33338,7 +33341,7 @@
       <c r="B98" s="664" t="s">
         <v>885</v>
       </c>
-      <c r="C98" s="800"/>
+      <c r="C98" s="801"/>
       <c r="E98"/>
       <c r="F98" s="127">
         <v>0</v>
@@ -33412,7 +33415,7 @@
   <dimension ref="A1:Z91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E24" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -33442,23 +33445,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="692"/>
-      <c r="C1" s="734" t="s">
+      <c r="B1" s="669"/>
+      <c r="C1" s="735" t="s">
         <v>886</v>
       </c>
-      <c r="D1" s="735"/>
-      <c r="E1" s="735"/>
-      <c r="F1" s="735"/>
-      <c r="G1" s="735"/>
-      <c r="H1" s="735"/>
-      <c r="I1" s="735"/>
-      <c r="J1" s="735"/>
-      <c r="K1" s="735"/>
-      <c r="L1" s="735"/>
-      <c r="M1" s="735"/>
+      <c r="D1" s="736"/>
+      <c r="E1" s="736"/>
+      <c r="F1" s="736"/>
+      <c r="G1" s="736"/>
+      <c r="H1" s="736"/>
+      <c r="I1" s="736"/>
+      <c r="J1" s="736"/>
+      <c r="K1" s="736"/>
+      <c r="L1" s="736"/>
+      <c r="M1" s="736"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="693"/>
+      <c r="B2" s="670"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -33468,24 +33471,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="696" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="697"/>
+      <c r="B3" s="673" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="674"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="698" t="s">
+      <c r="H3" s="675" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="698"/>
+      <c r="I3" s="675"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="722" t="s">
+      <c r="P3" s="712" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="732" t="s">
+      <c r="R3" s="733" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -33504,14 +33507,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="699" t="s">
+      <c r="E4" s="676" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="700"/>
-      <c r="H4" s="701" t="s">
+      <c r="F4" s="677"/>
+      <c r="H4" s="678" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="702"/>
+      <c r="I4" s="679"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -33521,15 +33524,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="723"/>
+      <c r="P4" s="713"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="733"/>
+      <c r="R4" s="734"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="797"/>
-      <c r="X4" s="797"/>
+      <c r="W4" s="795"/>
+      <c r="X4" s="795"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33584,8 +33587,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="797"/>
-      <c r="X5" s="797"/>
+      <c r="W5" s="795"/>
+      <c r="X5" s="795"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34361,7 +34364,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="798"/>
+      <c r="W19" s="796"/>
       <c r="X19" s="544"/>
       <c r="Y19" s="233"/>
     </row>
@@ -34415,7 +34418,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="798"/>
+      <c r="W20" s="796"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -34469,8 +34472,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="711"/>
-      <c r="X21" s="711"/>
+      <c r="W21" s="728"/>
+      <c r="X21" s="728"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -34579,8 +34582,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="712"/>
-      <c r="X23" s="712"/>
+      <c r="W23" s="729"/>
+      <c r="X23" s="729"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -34640,8 +34643,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="712"/>
-      <c r="X24" s="712"/>
+      <c r="W24" s="729"/>
+      <c r="X24" s="729"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -34694,8 +34697,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="713"/>
-      <c r="X25" s="713"/>
+      <c r="W25" s="730"/>
+      <c r="X25" s="730"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -34750,8 +34753,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="713"/>
-      <c r="X26" s="713"/>
+      <c r="W26" s="730"/>
+      <c r="X26" s="730"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -34806,9 +34809,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="706"/>
-      <c r="X27" s="707"/>
-      <c r="Y27" s="708"/>
+      <c r="W27" s="723"/>
+      <c r="X27" s="724"/>
+      <c r="Y27" s="725"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34863,9 +34866,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="707"/>
-      <c r="X28" s="707"/>
-      <c r="Y28" s="708"/>
+      <c r="W28" s="724"/>
+      <c r="X28" s="724"/>
+      <c r="Y28" s="725"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -35099,30 +35102,41 @@
       <c r="B33" s="24">
         <v>44739</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="65"/>
+      <c r="C33" s="25">
+        <v>22194.5</v>
+      </c>
+      <c r="D33" s="65" t="s">
+        <v>949</v>
+      </c>
       <c r="E33" s="27">
         <v>44739</v>
       </c>
-      <c r="F33" s="28"/>
+      <c r="F33" s="28">
+        <v>114527</v>
+      </c>
       <c r="G33" s="575"/>
       <c r="H33" s="29">
         <v>44739</v>
       </c>
-      <c r="I33" s="30"/>
+      <c r="I33" s="30">
+        <v>4786</v>
+      </c>
       <c r="J33" s="56"/>
       <c r="K33" s="223"/>
       <c r="L33" s="69"/>
       <c r="M33" s="32">
-        <v>0</v>
+        <f>400+40980.5</f>
+        <v>41380.5</v>
       </c>
       <c r="N33" s="33">
-        <v>0</v>
-      </c>
-      <c r="O33" s="666"/>
+        <v>46166</v>
+      </c>
+      <c r="O33" s="666" t="s">
+        <v>941</v>
+      </c>
       <c r="P33" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>114527</v>
       </c>
       <c r="Q33" s="325">
         <f t="shared" si="0"/>
@@ -35445,19 +35459,19 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="724">
+      <c r="M41" s="714">
         <f>SUM(M5:M40)</f>
-        <v>1377983</v>
-      </c>
-      <c r="N41" s="724">
+        <v>1419363.5</v>
+      </c>
+      <c r="N41" s="714">
         <f>SUM(N5:N40)</f>
-        <v>1076575</v>
+        <v>1122741</v>
       </c>
       <c r="P41" s="506">
         <f>SUM(P5:P40)</f>
-        <v>3077972.55</v>
-      </c>
-      <c r="Q41" s="772">
+        <v>3192499.55</v>
+      </c>
+      <c r="Q41" s="773">
         <f>SUM(Q5:Q40)</f>
         <v>30.55000000000291</v>
       </c>
@@ -35481,10 +35495,10 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="725"/>
-      <c r="N42" s="725"/>
+      <c r="M42" s="715"/>
+      <c r="N42" s="715"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="773"/>
+      <c r="Q42" s="774"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -35523,7 +35537,7 @@
       <c r="J44" s="56">
         <v>44737</v>
       </c>
-      <c r="K44" s="805" t="s">
+      <c r="K44" s="668" t="s">
         <v>947</v>
       </c>
       <c r="L44" s="39">
@@ -35547,11 +35561,11 @@
       <c r="J45" s="56"/>
       <c r="K45" s="38"/>
       <c r="L45" s="39"/>
-      <c r="M45" s="774">
+      <c r="M45" s="775">
         <f>M41+N41</f>
-        <v>2454558</v>
-      </c>
-      <c r="N45" s="775"/>
+        <v>2542104.5</v>
+      </c>
+      <c r="N45" s="776"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -35832,7 +35846,7 @@
       </c>
       <c r="C61" s="87">
         <f>SUM(C5:C60)</f>
-        <v>472957.5</v>
+        <v>495152</v>
       </c>
       <c r="D61" s="88"/>
       <c r="E61" s="91" t="s">
@@ -35840,7 +35854,7 @@
       </c>
       <c r="F61" s="90">
         <f>SUM(F5:F60)</f>
-        <v>3049177</v>
+        <v>3163704</v>
       </c>
       <c r="G61" s="576"/>
       <c r="H61" s="91" t="s">
@@ -35848,7 +35862,7 @@
       </c>
       <c r="I61" s="92">
         <f>SUM(I5:I60)</f>
-        <v>80176.5</v>
+        <v>84962.5</v>
       </c>
       <c r="J61" s="93"/>
       <c r="K61" s="94" t="s">
@@ -35874,50 +35888,50 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="679" t="s">
+      <c r="H63" s="691" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="680"/>
+      <c r="I63" s="692"/>
       <c r="J63" s="562"/>
-      <c r="K63" s="794">
+      <c r="K63" s="798">
         <f>I61+L61</f>
-        <v>223886.79</v>
-      </c>
-      <c r="L63" s="795"/>
+        <v>228672.79</v>
+      </c>
+      <c r="L63" s="799"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="685" t="s">
+      <c r="D64" s="697" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="685"/>
+      <c r="E64" s="697"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
-        <v>2352332.71</v>
+        <v>2439879.21</v>
       </c>
       <c r="I64" s="102"/>
       <c r="J64" s="563"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="715" t="s">
+      <c r="D65" s="721" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="715"/>
+      <c r="E65" s="721"/>
       <c r="F65" s="111">
         <v>0</v>
       </c>
-      <c r="I65" s="686" t="s">
+      <c r="I65" s="698" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="687"/>
-      <c r="K65" s="688">
+      <c r="J65" s="699"/>
+      <c r="K65" s="700">
         <f>F67+F68+F69</f>
-        <v>2352332.71</v>
-      </c>
-      <c r="L65" s="688"/>
+        <v>2439879.21</v>
+      </c>
+      <c r="L65" s="700"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="659"/>
@@ -35951,18 +35965,18 @@
       </c>
       <c r="F67" s="96">
         <f>SUM(F64:F66)</f>
-        <v>2352332.71</v>
+        <v>2439879.21</v>
       </c>
       <c r="H67" s="558"/>
       <c r="I67" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="796">
+      <c r="K67" s="797">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L67" s="688"/>
+      <c r="L67" s="700"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -35977,22 +35991,22 @@
     </row>
     <row r="69" spans="2:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C69" s="112"/>
-      <c r="D69" s="668" t="s">
+      <c r="D69" s="680" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="669"/>
+      <c r="E69" s="681"/>
       <c r="F69" s="113">
         <v>0</v>
       </c>
-      <c r="I69" s="670" t="s">
+      <c r="I69" s="682" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="671"/>
-      <c r="K69" s="672">
+      <c r="J69" s="683"/>
+      <c r="K69" s="684">
         <f>K65+K67</f>
-        <v>-194649.45000000019</v>
-      </c>
-      <c r="L69" s="672"/>
+        <v>-107102.95000000019</v>
+      </c>
+      <c r="L69" s="684"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -36136,26 +36150,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="I69:J69"/>
     <mergeCell ref="K69:L69"/>
@@ -36166,6 +36160,26 @@
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="I65:J65"/>
     <mergeCell ref="K65:L65"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -37708,10 +37722,10 @@
         <f>SUM(F3:F66)</f>
         <v>1179801.69</v>
       </c>
-      <c r="H67" s="768" t="s">
+      <c r="H67" s="769" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="769"/>
+      <c r="I67" s="770"/>
       <c r="J67" s="647">
         <f>SUM(J3:J66)</f>
         <v>0</v>
@@ -37731,11 +37745,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="730" t="s">
+      <c r="F68" s="731" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="770"/>
-      <c r="I68" s="771"/>
+      <c r="H68" s="771"/>
+      <c r="I68" s="772"/>
       <c r="J68" s="1"/>
       <c r="K68" s="97"/>
       <c r="L68" s="3"/>
@@ -37746,7 +37760,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="731"/>
+      <c r="F69" s="732"/>
       <c r="J69" s="1"/>
       <c r="K69" s="97"/>
       <c r="L69" s="3"/>
@@ -39686,7 +39700,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="703" t="s">
+      <c r="B41" s="704" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -39718,7 +39732,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="704"/>
+      <c r="B42" s="705"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -41338,23 +41352,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="692"/>
-      <c r="C1" s="694" t="s">
+      <c r="B1" s="669"/>
+      <c r="C1" s="671" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="695"/>
-      <c r="E1" s="695"/>
-      <c r="F1" s="695"/>
-      <c r="G1" s="695"/>
-      <c r="H1" s="695"/>
-      <c r="I1" s="695"/>
-      <c r="J1" s="695"/>
-      <c r="K1" s="695"/>
-      <c r="L1" s="695"/>
-      <c r="M1" s="695"/>
+      <c r="D1" s="672"/>
+      <c r="E1" s="672"/>
+      <c r="F1" s="672"/>
+      <c r="G1" s="672"/>
+      <c r="H1" s="672"/>
+      <c r="I1" s="672"/>
+      <c r="J1" s="672"/>
+      <c r="K1" s="672"/>
+      <c r="L1" s="672"/>
+      <c r="M1" s="672"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="693"/>
+      <c r="B2" s="670"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -41364,21 +41378,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="696" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="697"/>
+      <c r="B3" s="673" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="674"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="698" t="s">
+      <c r="H3" s="675" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="698"/>
+      <c r="I3" s="675"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="722" t="s">
+      <c r="P3" s="712" t="s">
         <v>6</v>
       </c>
     </row>
@@ -41393,14 +41407,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="699" t="s">
+      <c r="E4" s="676" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="700"/>
-      <c r="H4" s="701" t="s">
+      <c r="F4" s="677"/>
+      <c r="H4" s="678" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="702"/>
+      <c r="I4" s="679"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -41410,14 +41424,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="723"/>
+      <c r="P4" s="713"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="705" t="s">
+      <c r="W4" s="722" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="705"/>
+      <c r="X4" s="722"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -41468,8 +41482,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="705"/>
-      <c r="X5" s="705"/>
+      <c r="W5" s="722"/>
+      <c r="X5" s="722"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42240,7 +42254,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="709">
+      <c r="W19" s="726">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -42292,7 +42306,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="710"/>
+      <c r="W20" s="727"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -42341,8 +42355,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="711"/>
-      <c r="X21" s="711"/>
+      <c r="W21" s="728"/>
+      <c r="X21" s="728"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -42443,8 +42457,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="712"/>
-      <c r="X23" s="712"/>
+      <c r="W23" s="729"/>
+      <c r="X23" s="729"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -42498,8 +42512,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="712"/>
-      <c r="X24" s="712"/>
+      <c r="W24" s="729"/>
+      <c r="X24" s="729"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -42545,8 +42559,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="713"/>
-      <c r="X25" s="713"/>
+      <c r="W25" s="730"/>
+      <c r="X25" s="730"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -42597,8 +42611,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="713"/>
-      <c r="X26" s="713"/>
+      <c r="W26" s="730"/>
+      <c r="X26" s="730"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -42646,9 +42660,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="706"/>
-      <c r="X27" s="707"/>
-      <c r="Y27" s="708"/>
+      <c r="W27" s="723"/>
+      <c r="X27" s="724"/>
+      <c r="Y27" s="725"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42698,9 +42712,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="707"/>
-      <c r="X28" s="707"/>
-      <c r="Y28" s="708"/>
+      <c r="W28" s="724"/>
+      <c r="X28" s="724"/>
+      <c r="Y28" s="725"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -43035,11 +43049,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="724">
+      <c r="M36" s="714">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="726">
+      <c r="N36" s="716">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -43047,7 +43061,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="728">
+      <c r="Q36" s="718">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -43082,13 +43096,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="725"/>
-      <c r="N37" s="727"/>
+      <c r="M37" s="715"/>
+      <c r="N37" s="717"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="729"/>
+      <c r="Q37" s="719"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -43378,26 +43392,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="679" t="s">
+      <c r="H52" s="691" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="680"/>
+      <c r="I52" s="692"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="681">
+      <c r="K52" s="693">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="714"/>
+      <c r="L52" s="720"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="685" t="s">
+      <c r="D53" s="697" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="685"/>
+      <c r="E53" s="697"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -43406,29 +43420,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="715" t="s">
+      <c r="D54" s="721" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="715"/>
+      <c r="E54" s="721"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="686" t="s">
+      <c r="I54" s="698" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="687"/>
-      <c r="K54" s="688">
+      <c r="J54" s="699"/>
+      <c r="K54" s="700">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="688"/>
-      <c r="M54" s="716" t="s">
+      <c r="L54" s="700"/>
+      <c r="M54" s="706" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="717"/>
-      <c r="O54" s="717"/>
-      <c r="P54" s="717"/>
-      <c r="Q54" s="718"/>
+      <c r="N54" s="707"/>
+      <c r="O54" s="707"/>
+      <c r="P54" s="707"/>
+      <c r="Q54" s="708"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -43442,11 +43456,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="719"/>
-      <c r="N55" s="720"/>
-      <c r="O55" s="720"/>
-      <c r="P55" s="720"/>
-      <c r="Q55" s="721"/>
+      <c r="M55" s="709"/>
+      <c r="N55" s="710"/>
+      <c r="O55" s="710"/>
+      <c r="P55" s="710"/>
+      <c r="Q55" s="711"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -43464,11 +43478,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="690">
+      <c r="K56" s="702">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="691"/>
+      <c r="L56" s="703"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -43485,22 +43499,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="668" t="s">
+      <c r="D58" s="680" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="669"/>
+      <c r="E58" s="681"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="670" t="s">
+      <c r="I58" s="682" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="671"/>
-      <c r="K58" s="672">
+      <c r="J58" s="683"/>
+      <c r="K58" s="684">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="672"/>
+      <c r="L58" s="684"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -43644,17 +43658,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -43665,14 +43676,17 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -46090,7 +46104,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="730" t="s">
+      <c r="F87" s="731" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -46103,7 +46117,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="731"/>
+      <c r="F88" s="732"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -46415,23 +46429,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="692"/>
-      <c r="C1" s="694" t="s">
+      <c r="B1" s="669"/>
+      <c r="C1" s="671" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="695"/>
-      <c r="E1" s="695"/>
-      <c r="F1" s="695"/>
-      <c r="G1" s="695"/>
-      <c r="H1" s="695"/>
-      <c r="I1" s="695"/>
-      <c r="J1" s="695"/>
-      <c r="K1" s="695"/>
-      <c r="L1" s="695"/>
-      <c r="M1" s="695"/>
+      <c r="D1" s="672"/>
+      <c r="E1" s="672"/>
+      <c r="F1" s="672"/>
+      <c r="G1" s="672"/>
+      <c r="H1" s="672"/>
+      <c r="I1" s="672"/>
+      <c r="J1" s="672"/>
+      <c r="K1" s="672"/>
+      <c r="L1" s="672"/>
+      <c r="M1" s="672"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="693"/>
+      <c r="B2" s="670"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -46441,24 +46455,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="696" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="697"/>
+      <c r="B3" s="673" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="674"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="698" t="s">
+      <c r="H3" s="675" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="698"/>
+      <c r="I3" s="675"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="722" t="s">
+      <c r="P3" s="712" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="732" t="s">
+      <c r="R3" s="733" t="s">
         <v>216</v>
       </c>
     </row>
@@ -46473,14 +46487,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="699" t="s">
+      <c r="E4" s="676" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="700"/>
-      <c r="H4" s="701" t="s">
+      <c r="F4" s="677"/>
+      <c r="H4" s="678" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="702"/>
+      <c r="I4" s="679"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -46490,15 +46504,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="723"/>
+      <c r="P4" s="713"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="733"/>
-      <c r="W4" s="705" t="s">
+      <c r="R4" s="734"/>
+      <c r="W4" s="722" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="705"/>
+      <c r="X4" s="722"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -46559,8 +46573,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="705"/>
-      <c r="X5" s="705"/>
+      <c r="W5" s="722"/>
+      <c r="X5" s="722"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47317,7 +47331,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="709">
+      <c r="W19" s="726">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -47369,7 +47383,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="710"/>
+      <c r="W20" s="727"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -47418,8 +47432,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="711"/>
-      <c r="X21" s="711"/>
+      <c r="W21" s="728"/>
+      <c r="X21" s="728"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -47520,8 +47534,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="712"/>
-      <c r="X23" s="712"/>
+      <c r="W23" s="729"/>
+      <c r="X23" s="729"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -47572,8 +47586,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="712"/>
-      <c r="X24" s="712"/>
+      <c r="W24" s="729"/>
+      <c r="X24" s="729"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -47619,8 +47633,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="713"/>
-      <c r="X25" s="713"/>
+      <c r="W25" s="730"/>
+      <c r="X25" s="730"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -47668,8 +47682,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="713"/>
-      <c r="X26" s="713"/>
+      <c r="W26" s="730"/>
+      <c r="X26" s="730"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -47729,9 +47743,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="706"/>
-      <c r="X27" s="707"/>
-      <c r="Y27" s="708"/>
+      <c r="W27" s="723"/>
+      <c r="X27" s="724"/>
+      <c r="Y27" s="725"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47785,9 +47799,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="707"/>
-      <c r="X28" s="707"/>
-      <c r="Y28" s="708"/>
+      <c r="W28" s="724"/>
+      <c r="X28" s="724"/>
+      <c r="Y28" s="725"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -48103,11 +48117,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="724">
+      <c r="M36" s="714">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="726">
+      <c r="N36" s="716">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -48115,7 +48129,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="728">
+      <c r="Q36" s="718">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -48134,13 +48148,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="725"/>
-      <c r="N37" s="727"/>
+      <c r="M37" s="715"/>
+      <c r="N37" s="717"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="729"/>
+      <c r="Q37" s="719"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -48414,26 +48428,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="679" t="s">
+      <c r="H52" s="691" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="680"/>
+      <c r="I52" s="692"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="681">
+      <c r="K52" s="693">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="714"/>
+      <c r="L52" s="720"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="685" t="s">
+      <c r="D53" s="697" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="685"/>
+      <c r="E53" s="697"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -48442,29 +48456,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="715" t="s">
+      <c r="D54" s="721" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="715"/>
+      <c r="E54" s="721"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="686" t="s">
+      <c r="I54" s="698" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="687"/>
-      <c r="K54" s="688">
+      <c r="J54" s="699"/>
+      <c r="K54" s="700">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="688"/>
-      <c r="M54" s="716" t="s">
+      <c r="L54" s="700"/>
+      <c r="M54" s="706" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="717"/>
-      <c r="O54" s="717"/>
-      <c r="P54" s="717"/>
-      <c r="Q54" s="718"/>
+      <c r="N54" s="707"/>
+      <c r="O54" s="707"/>
+      <c r="P54" s="707"/>
+      <c r="Q54" s="708"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -48478,11 +48492,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="719"/>
-      <c r="N55" s="720"/>
-      <c r="O55" s="720"/>
-      <c r="P55" s="720"/>
-      <c r="Q55" s="721"/>
+      <c r="M55" s="709"/>
+      <c r="N55" s="710"/>
+      <c r="O55" s="710"/>
+      <c r="P55" s="710"/>
+      <c r="Q55" s="711"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -48500,11 +48514,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="690">
+      <c r="K56" s="702">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="691"/>
+      <c r="L56" s="703"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -48521,22 +48535,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="668" t="s">
+      <c r="D58" s="680" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="669"/>
+      <c r="E58" s="681"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="670" t="s">
+      <c r="I58" s="682" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="671"/>
-      <c r="K58" s="672">
+      <c r="J58" s="683"/>
+      <c r="K58" s="684">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="672"/>
+      <c r="L58" s="684"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -48680,13 +48694,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -48696,20 +48717,13 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -51099,7 +51113,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="730" t="s">
+      <c r="F75" s="731" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -51112,7 +51126,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="731"/>
+      <c r="F76" s="732"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -51404,23 +51418,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="692"/>
-      <c r="C1" s="734" t="s">
+      <c r="B1" s="669"/>
+      <c r="C1" s="735" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="735"/>
-      <c r="E1" s="735"/>
-      <c r="F1" s="735"/>
-      <c r="G1" s="735"/>
-      <c r="H1" s="735"/>
-      <c r="I1" s="735"/>
-      <c r="J1" s="735"/>
-      <c r="K1" s="735"/>
-      <c r="L1" s="735"/>
-      <c r="M1" s="735"/>
+      <c r="D1" s="736"/>
+      <c r="E1" s="736"/>
+      <c r="F1" s="736"/>
+      <c r="G1" s="736"/>
+      <c r="H1" s="736"/>
+      <c r="I1" s="736"/>
+      <c r="J1" s="736"/>
+      <c r="K1" s="736"/>
+      <c r="L1" s="736"/>
+      <c r="M1" s="736"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="693"/>
+      <c r="B2" s="670"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -51430,24 +51444,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="696" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="697"/>
+      <c r="B3" s="673" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="674"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="698" t="s">
+      <c r="H3" s="675" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="698"/>
+      <c r="I3" s="675"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="722" t="s">
+      <c r="P3" s="712" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="732" t="s">
+      <c r="R3" s="733" t="s">
         <v>216</v>
       </c>
     </row>
@@ -51462,14 +51476,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="699" t="s">
+      <c r="E4" s="676" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="700"/>
-      <c r="H4" s="701" t="s">
+      <c r="F4" s="677"/>
+      <c r="H4" s="678" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="702"/>
+      <c r="I4" s="679"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -51479,15 +51493,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="723"/>
+      <c r="P4" s="713"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="733"/>
-      <c r="W4" s="705" t="s">
+      <c r="R4" s="734"/>
+      <c r="W4" s="722" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="705"/>
+      <c r="X4" s="722"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -51538,8 +51552,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="705"/>
-      <c r="X5" s="705"/>
+      <c r="W5" s="722"/>
+      <c r="X5" s="722"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52303,7 +52317,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="709">
+      <c r="W19" s="726">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -52356,7 +52370,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="710"/>
+      <c r="W20" s="727"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -52405,8 +52419,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="711"/>
-      <c r="X21" s="711"/>
+      <c r="W21" s="728"/>
+      <c r="X21" s="728"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -52506,8 +52520,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="712"/>
-      <c r="X23" s="712"/>
+      <c r="W23" s="729"/>
+      <c r="X23" s="729"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -52562,8 +52576,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="712"/>
-      <c r="X24" s="712"/>
+      <c r="W24" s="729"/>
+      <c r="X24" s="729"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -52608,8 +52622,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="713"/>
-      <c r="X25" s="713"/>
+      <c r="W25" s="730"/>
+      <c r="X25" s="730"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -52657,8 +52671,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="713"/>
-      <c r="X26" s="713"/>
+      <c r="W26" s="730"/>
+      <c r="X26" s="730"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -52712,9 +52726,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="706"/>
-      <c r="X27" s="707"/>
-      <c r="Y27" s="708"/>
+      <c r="W27" s="723"/>
+      <c r="X27" s="724"/>
+      <c r="Y27" s="725"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52768,9 +52782,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="707"/>
-      <c r="X28" s="707"/>
-      <c r="Y28" s="708"/>
+      <c r="W28" s="724"/>
+      <c r="X28" s="724"/>
+      <c r="Y28" s="725"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -53081,11 +53095,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="724">
+      <c r="M36" s="714">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="726">
+      <c r="N36" s="716">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -53093,7 +53107,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="728">
+      <c r="Q36" s="718">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -53118,13 +53132,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="725"/>
-      <c r="N37" s="727"/>
+      <c r="M37" s="715"/>
+      <c r="N37" s="717"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="729"/>
+      <c r="Q37" s="719"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -53417,26 +53431,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="679" t="s">
+      <c r="H52" s="691" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="680"/>
+      <c r="I52" s="692"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="681">
+      <c r="K52" s="693">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="714"/>
+      <c r="L52" s="720"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="685" t="s">
+      <c r="D53" s="697" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="685"/>
+      <c r="E53" s="697"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -53445,22 +53459,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="715" t="s">
+      <c r="D54" s="721" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="715"/>
+      <c r="E54" s="721"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="686" t="s">
+      <c r="I54" s="698" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="687"/>
-      <c r="K54" s="688">
+      <c r="J54" s="699"/>
+      <c r="K54" s="700">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="688"/>
+      <c r="L54" s="700"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -53501,11 +53515,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="690">
+      <c r="K56" s="702">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="691"/>
+      <c r="L56" s="703"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -53522,22 +53536,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="668" t="s">
+      <c r="D58" s="680" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="669"/>
+      <c r="E58" s="681"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="670" t="s">
+      <c r="I58" s="682" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="671"/>
-      <c r="K58" s="672">
+      <c r="J58" s="683"/>
+      <c r="K58" s="684">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="672"/>
+      <c r="L58" s="684"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -53681,6 +53695,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -53696,20 +53724,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -55406,12 +55420,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="736" t="s">
+      <c r="B43" s="737" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="737"/>
-      <c r="D43" s="737"/>
-      <c r="E43" s="738"/>
+      <c r="C43" s="738"/>
+      <c r="D43" s="738"/>
+      <c r="E43" s="739"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -55439,10 +55453,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="739"/>
-      <c r="C44" s="740"/>
-      <c r="D44" s="740"/>
-      <c r="E44" s="741"/>
+      <c r="B44" s="740"/>
+      <c r="C44" s="741"/>
+      <c r="D44" s="741"/>
+      <c r="E44" s="742"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -55470,10 +55484,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="742"/>
-      <c r="C45" s="743"/>
-      <c r="D45" s="743"/>
-      <c r="E45" s="744"/>
+      <c r="B45" s="743"/>
+      <c r="C45" s="744"/>
+      <c r="D45" s="744"/>
+      <c r="E45" s="745"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -55516,10 +55530,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="751" t="s">
+      <c r="B47" s="752" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="752"/>
+      <c r="C47" s="753"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -55541,8 +55555,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="753"/>
-      <c r="C48" s="754"/>
+      <c r="B48" s="754"/>
+      <c r="C48" s="755"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -55550,11 +55564,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="745" t="s">
+      <c r="J48" s="746" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="746"/>
-      <c r="L48" s="747"/>
+      <c r="K48" s="747"/>
+      <c r="L48" s="748"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -55572,9 +55586,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="748"/>
-      <c r="K49" s="749"/>
-      <c r="L49" s="750"/>
+      <c r="J49" s="749"/>
+      <c r="K49" s="750"/>
+      <c r="L49" s="751"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -55591,10 +55605,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="755" t="s">
+      <c r="I50" s="756" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="756"/>
+      <c r="J50" s="757"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -55615,8 +55629,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="755"/>
-      <c r="J51" s="756"/>
+      <c r="I51" s="756"/>
+      <c r="J51" s="757"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -55635,8 +55649,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="755"/>
-      <c r="J52" s="756"/>
+      <c r="I52" s="756"/>
+      <c r="J52" s="757"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -55655,8 +55669,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="755"/>
-      <c r="J53" s="756"/>
+      <c r="I53" s="756"/>
+      <c r="J53" s="757"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -55675,8 +55689,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="755"/>
-      <c r="J54" s="756"/>
+      <c r="I54" s="756"/>
+      <c r="J54" s="757"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -55695,8 +55709,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="755"/>
-      <c r="J55" s="756"/>
+      <c r="I55" s="756"/>
+      <c r="J55" s="757"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -55715,8 +55729,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="755"/>
-      <c r="J56" s="756"/>
+      <c r="I56" s="756"/>
+      <c r="J56" s="757"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -55735,8 +55749,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="755"/>
-      <c r="J57" s="756"/>
+      <c r="I57" s="756"/>
+      <c r="J57" s="757"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -55755,8 +55769,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="755"/>
-      <c r="J58" s="756"/>
+      <c r="I58" s="756"/>
+      <c r="J58" s="757"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -55775,8 +55789,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="755"/>
-      <c r="J59" s="756"/>
+      <c r="I59" s="756"/>
+      <c r="J59" s="757"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -55795,8 +55809,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="755"/>
-      <c r="J60" s="756"/>
+      <c r="I60" s="756"/>
+      <c r="J60" s="757"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -55815,8 +55829,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="755"/>
-      <c r="J61" s="756"/>
+      <c r="I61" s="756"/>
+      <c r="J61" s="757"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -55835,8 +55849,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="755"/>
-      <c r="J62" s="756"/>
+      <c r="I62" s="756"/>
+      <c r="J62" s="757"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -55855,8 +55869,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="755"/>
-      <c r="J63" s="756"/>
+      <c r="I63" s="756"/>
+      <c r="J63" s="757"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -55875,8 +55889,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="755"/>
-      <c r="J64" s="756"/>
+      <c r="I64" s="756"/>
+      <c r="J64" s="757"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -55895,8 +55909,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="755"/>
-      <c r="J65" s="756"/>
+      <c r="I65" s="756"/>
+      <c r="J65" s="757"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -55915,8 +55929,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="755"/>
-      <c r="J66" s="756"/>
+      <c r="I66" s="756"/>
+      <c r="J66" s="757"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -55935,8 +55949,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="755"/>
-      <c r="J67" s="756"/>
+      <c r="I67" s="756"/>
+      <c r="J67" s="757"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -55955,8 +55969,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="755"/>
-      <c r="J68" s="756"/>
+      <c r="I68" s="756"/>
+      <c r="J68" s="757"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -55975,8 +55989,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="755"/>
-      <c r="J69" s="756"/>
+      <c r="I69" s="756"/>
+      <c r="J69" s="757"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -55995,8 +56009,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="755"/>
-      <c r="J70" s="756"/>
+      <c r="I70" s="756"/>
+      <c r="J70" s="757"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -56015,8 +56029,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="755"/>
-      <c r="J71" s="756"/>
+      <c r="I71" s="756"/>
+      <c r="J71" s="757"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -56035,8 +56049,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="755"/>
-      <c r="J72" s="756"/>
+      <c r="I72" s="756"/>
+      <c r="J72" s="757"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -56055,8 +56069,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="755"/>
-      <c r="J73" s="756"/>
+      <c r="I73" s="756"/>
+      <c r="J73" s="757"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -56075,8 +56089,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="755"/>
-      <c r="J74" s="756"/>
+      <c r="I74" s="756"/>
+      <c r="J74" s="757"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -56095,8 +56109,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="755"/>
-      <c r="J75" s="756"/>
+      <c r="I75" s="756"/>
+      <c r="J75" s="757"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -56115,8 +56129,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="755"/>
-      <c r="J76" s="756"/>
+      <c r="I76" s="756"/>
+      <c r="J76" s="757"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -56135,8 +56149,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="755"/>
-      <c r="J77" s="756"/>
+      <c r="I77" s="756"/>
+      <c r="J77" s="757"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -56157,8 +56171,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="757"/>
-      <c r="J78" s="758"/>
+      <c r="I78" s="758"/>
+      <c r="J78" s="759"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -56203,7 +56217,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="730" t="s">
+      <c r="F80" s="731" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -56215,7 +56229,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="731"/>
+      <c r="F81" s="732"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -56503,23 +56517,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="692"/>
-      <c r="C1" s="734" t="s">
+      <c r="B1" s="669"/>
+      <c r="C1" s="735" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="735"/>
-      <c r="E1" s="735"/>
-      <c r="F1" s="735"/>
-      <c r="G1" s="735"/>
-      <c r="H1" s="735"/>
-      <c r="I1" s="735"/>
-      <c r="J1" s="735"/>
-      <c r="K1" s="735"/>
-      <c r="L1" s="735"/>
-      <c r="M1" s="735"/>
+      <c r="D1" s="736"/>
+      <c r="E1" s="736"/>
+      <c r="F1" s="736"/>
+      <c r="G1" s="736"/>
+      <c r="H1" s="736"/>
+      <c r="I1" s="736"/>
+      <c r="J1" s="736"/>
+      <c r="K1" s="736"/>
+      <c r="L1" s="736"/>
+      <c r="M1" s="736"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="693"/>
+      <c r="B2" s="670"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -56529,24 +56543,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="696" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="697"/>
+      <c r="B3" s="673" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="674"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="698" t="s">
+      <c r="H3" s="675" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="698"/>
+      <c r="I3" s="675"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="722" t="s">
+      <c r="P3" s="712" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="732" t="s">
+      <c r="R3" s="733" t="s">
         <v>216</v>
       </c>
     </row>
@@ -56561,14 +56575,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="699" t="s">
+      <c r="E4" s="676" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="700"/>
-      <c r="H4" s="701" t="s">
+      <c r="F4" s="677"/>
+      <c r="H4" s="678" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="702"/>
+      <c r="I4" s="679"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -56578,15 +56592,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="723"/>
+      <c r="P4" s="713"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="733"/>
-      <c r="W4" s="705" t="s">
+      <c r="R4" s="734"/>
+      <c r="W4" s="722" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="705"/>
+      <c r="X4" s="722"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -56637,8 +56651,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="705"/>
-      <c r="X5" s="705"/>
+      <c r="W5" s="722"/>
+      <c r="X5" s="722"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57399,7 +57413,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="709">
+      <c r="W19" s="726">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -57451,7 +57465,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="710"/>
+      <c r="W20" s="727"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -57500,8 +57514,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="711"/>
-      <c r="X21" s="711"/>
+      <c r="W21" s="728"/>
+      <c r="X21" s="728"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -57600,8 +57614,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="712"/>
-      <c r="X23" s="712"/>
+      <c r="W23" s="729"/>
+      <c r="X23" s="729"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -57656,8 +57670,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="712"/>
-      <c r="X24" s="712"/>
+      <c r="W24" s="729"/>
+      <c r="X24" s="729"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -57705,8 +57719,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="713"/>
-      <c r="X25" s="713"/>
+      <c r="W25" s="730"/>
+      <c r="X25" s="730"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -57754,8 +57768,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="713"/>
-      <c r="X26" s="713"/>
+      <c r="W26" s="730"/>
+      <c r="X26" s="730"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -57803,9 +57817,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="706"/>
-      <c r="X27" s="707"/>
-      <c r="Y27" s="708"/>
+      <c r="W27" s="723"/>
+      <c r="X27" s="724"/>
+      <c r="Y27" s="725"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57853,9 +57867,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="707"/>
-      <c r="X28" s="707"/>
-      <c r="Y28" s="708"/>
+      <c r="W28" s="724"/>
+      <c r="X28" s="724"/>
+      <c r="Y28" s="725"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -58196,11 +58210,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="724">
+      <c r="M36" s="714">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="726">
+      <c r="N36" s="716">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -58208,7 +58222,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="759">
+      <c r="Q36" s="760">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -58233,13 +58247,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="725"/>
-      <c r="N37" s="727"/>
+      <c r="M37" s="715"/>
+      <c r="N37" s="717"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="760"/>
+      <c r="Q37" s="761"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -58289,11 +58303,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="761">
+      <c r="M39" s="762">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="762"/>
+      <c r="N39" s="763"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -58541,26 +58555,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="679" t="s">
+      <c r="H52" s="691" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="680"/>
+      <c r="I52" s="692"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="681">
+      <c r="K52" s="693">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="714"/>
+      <c r="L52" s="720"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="685" t="s">
+      <c r="D53" s="697" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="685"/>
+      <c r="E53" s="697"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -58569,22 +58583,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="715" t="s">
+      <c r="D54" s="721" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="715"/>
+      <c r="E54" s="721"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="686" t="s">
+      <c r="I54" s="698" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="687"/>
-      <c r="K54" s="688">
+      <c r="J54" s="699"/>
+      <c r="K54" s="700">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="688"/>
+      <c r="L54" s="700"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -58625,11 +58639,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="690">
+      <c r="K56" s="702">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="691"/>
+      <c r="L56" s="703"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -58646,22 +58660,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="668" t="s">
+      <c r="D58" s="680" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="669"/>
+      <c r="E58" s="681"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="670" t="s">
+      <c r="I58" s="682" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="671"/>
-      <c r="K58" s="672">
+      <c r="J58" s="683"/>
+      <c r="K58" s="684">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="672"/>
+      <c r="L58" s="684"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -58805,20 +58819,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -58835,6 +58835,20 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE    ZAVALETA   JUNIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE    ZAVALETA   JUNIO    2022.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="17" activeTab="17"/>
+    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="15" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -710,7 +710,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1748" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="957">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -3573,6 +3573,27 @@
   </si>
   <si>
     <t>Chorizo-Pollo-Salchichoneria-Queso-Lomo</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-SALCHICHONERIA-PARA RES-ARABE</t>
+  </si>
+  <si>
+    <t>LONGANIZA-POLLO-JAMON-QUESOS</t>
+  </si>
+  <si>
+    <t>CHISTORRA</t>
+  </si>
+  <si>
+    <t>POLLO-LONGANIZAS-MIXIOTE</t>
+  </si>
+  <si>
+    <t>POLLO-QUESOS-ARABE</t>
+  </si>
+  <si>
+    <t>NOMINA # 27</t>
+  </si>
+  <si>
+    <t>QUESO-CHISTORRA-TOCINETA-PECHUGA</t>
   </si>
 </sst>
 </file>
@@ -5586,7 +5607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="806">
+  <cellXfs count="809">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -6952,38 +6973,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="44" fontId="16" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7057,10 +7050,76 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7104,39 +7163,6 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7330,20 +7356,20 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="18" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7372,11 +7398,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FF66FFFF"/>
       <color rgb="FFFFCCFF"/>
       <color rgb="FFCCFF66"/>
       <color rgb="FFFF00FF"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FF990033"/>
       <color rgb="FFCC3399"/>
       <color rgb="FF99CCFF"/>
@@ -11738,23 +11764,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="669"/>
-      <c r="C1" s="671" t="s">
+      <c r="B1" s="696"/>
+      <c r="C1" s="698" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="672"/>
-      <c r="E1" s="672"/>
-      <c r="F1" s="672"/>
-      <c r="G1" s="672"/>
-      <c r="H1" s="672"/>
-      <c r="I1" s="672"/>
-      <c r="J1" s="672"/>
-      <c r="K1" s="672"/>
-      <c r="L1" s="672"/>
-      <c r="M1" s="672"/>
+      <c r="D1" s="699"/>
+      <c r="E1" s="699"/>
+      <c r="F1" s="699"/>
+      <c r="G1" s="699"/>
+      <c r="H1" s="699"/>
+      <c r="I1" s="699"/>
+      <c r="J1" s="699"/>
+      <c r="K1" s="699"/>
+      <c r="L1" s="699"/>
+      <c r="M1" s="699"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="670"/>
+      <c r="B2" s="697"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -11764,17 +11790,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="673" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="674"/>
+      <c r="B3" s="700" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="701"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="675" t="s">
+      <c r="H3" s="702" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="675"/>
+      <c r="I3" s="702"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -11788,14 +11814,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="676" t="s">
+      <c r="E4" s="703" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="677"/>
-      <c r="H4" s="678" t="s">
+      <c r="F4" s="704"/>
+      <c r="H4" s="705" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="679"/>
+      <c r="I4" s="706"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -11805,10 +11831,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="685" t="s">
+      <c r="P4" s="677" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="686"/>
+      <c r="Q4" s="678"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -13249,11 +13275,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="687">
+      <c r="M39" s="679">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="689">
+      <c r="N39" s="681">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -13279,8 +13305,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="688"/>
-      <c r="N40" s="690"/>
+      <c r="M40" s="680"/>
+      <c r="N40" s="682"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -13495,29 +13521,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="691" t="s">
+      <c r="H52" s="683" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="692"/>
+      <c r="I52" s="684"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="693">
+      <c r="K52" s="685">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="694"/>
-      <c r="M52" s="695">
+      <c r="L52" s="686"/>
+      <c r="M52" s="687">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="696"/>
+      <c r="N52" s="688"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="697" t="s">
+      <c r="D53" s="689" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="697"/>
+      <c r="E53" s="689"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -13528,22 +13554,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="697" t="s">
+      <c r="D54" s="689" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="697"/>
+      <c r="E54" s="689"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="698" t="s">
+      <c r="I54" s="690" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="699"/>
-      <c r="K54" s="700">
+      <c r="J54" s="691"/>
+      <c r="K54" s="692">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="701"/>
+      <c r="L54" s="693"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -13576,11 +13602,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="702">
+      <c r="K56" s="694">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="703"/>
+      <c r="L56" s="695"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -13597,22 +13623,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="680" t="s">
+      <c r="D58" s="672" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="681"/>
+      <c r="E58" s="673"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="682" t="s">
+      <c r="I58" s="674" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="683"/>
-      <c r="K58" s="684">
+      <c r="J58" s="675"/>
+      <c r="K58" s="676">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="684"/>
+      <c r="L58" s="676"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -13756,6 +13782,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -13770,12 +13802,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16236,10 +16262,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="765" t="s">
+      <c r="I76" s="768" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="766"/>
+      <c r="J76" s="769"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -16258,8 +16284,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="767"/>
-      <c r="J77" s="768"/>
+      <c r="I77" s="770"/>
+      <c r="J77" s="771"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -16326,7 +16352,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="731" t="s">
+      <c r="F80" s="734" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -16341,7 +16367,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="732"/>
+      <c r="F81" s="735"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -16349,10 +16375,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="764" t="s">
+      <c r="B82" s="767" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="764"/>
+      <c r="C82" s="767"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -16634,23 +16660,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="669"/>
-      <c r="C1" s="735" t="s">
+      <c r="B1" s="696"/>
+      <c r="C1" s="738" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="736"/>
-      <c r="E1" s="736"/>
-      <c r="F1" s="736"/>
-      <c r="G1" s="736"/>
-      <c r="H1" s="736"/>
-      <c r="I1" s="736"/>
-      <c r="J1" s="736"/>
-      <c r="K1" s="736"/>
-      <c r="L1" s="736"/>
-      <c r="M1" s="736"/>
+      <c r="D1" s="739"/>
+      <c r="E1" s="739"/>
+      <c r="F1" s="739"/>
+      <c r="G1" s="739"/>
+      <c r="H1" s="739"/>
+      <c r="I1" s="739"/>
+      <c r="J1" s="739"/>
+      <c r="K1" s="739"/>
+      <c r="L1" s="739"/>
+      <c r="M1" s="739"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="670"/>
+      <c r="B2" s="697"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -16660,24 +16686,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="673" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="674"/>
+      <c r="B3" s="700" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="701"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="675" t="s">
+      <c r="H3" s="702" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="675"/>
+      <c r="I3" s="702"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="712" t="s">
+      <c r="P3" s="726" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="733" t="s">
+      <c r="R3" s="736" t="s">
         <v>216</v>
       </c>
     </row>
@@ -16692,14 +16718,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="676" t="s">
+      <c r="E4" s="703" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="677"/>
-      <c r="H4" s="678" t="s">
+      <c r="F4" s="704"/>
+      <c r="H4" s="705" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="679"/>
+      <c r="I4" s="706"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -16709,15 +16735,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="713"/>
+      <c r="P4" s="727"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="734"/>
-      <c r="W4" s="722" t="s">
+      <c r="R4" s="737"/>
+      <c r="W4" s="709" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="722"/>
+      <c r="X4" s="709"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16768,8 +16794,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="722"/>
-      <c r="X5" s="722"/>
+      <c r="W5" s="709"/>
+      <c r="X5" s="709"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17532,7 +17558,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="726">
+      <c r="W19" s="713">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -17584,7 +17610,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="727"/>
+      <c r="W20" s="714"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -17633,8 +17659,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="728"/>
-      <c r="X21" s="728"/>
+      <c r="W21" s="715"/>
+      <c r="X21" s="715"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -17734,8 +17760,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="729"/>
-      <c r="X23" s="729"/>
+      <c r="W23" s="716"/>
+      <c r="X23" s="716"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -17790,8 +17816,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="729"/>
-      <c r="X24" s="729"/>
+      <c r="W24" s="716"/>
+      <c r="X24" s="716"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -17839,8 +17865,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="730"/>
-      <c r="X25" s="730"/>
+      <c r="W25" s="717"/>
+      <c r="X25" s="717"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -17889,8 +17915,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="730"/>
-      <c r="X26" s="730"/>
+      <c r="W26" s="717"/>
+      <c r="X26" s="717"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -17938,9 +17964,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="723"/>
-      <c r="X27" s="724"/>
-      <c r="Y27" s="725"/>
+      <c r="W27" s="710"/>
+      <c r="X27" s="711"/>
+      <c r="Y27" s="712"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17988,9 +18014,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="724"/>
-      <c r="X28" s="724"/>
-      <c r="Y28" s="725"/>
+      <c r="W28" s="711"/>
+      <c r="X28" s="711"/>
+      <c r="Y28" s="712"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18322,11 +18348,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="714">
+      <c r="M36" s="728">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="716">
+      <c r="N36" s="730">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -18334,7 +18360,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="760">
+      <c r="Q36" s="763">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -18359,13 +18385,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="715"/>
-      <c r="N37" s="717"/>
+      <c r="M37" s="729"/>
+      <c r="N37" s="731"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="761"/>
+      <c r="Q37" s="764"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -18415,11 +18441,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="762">
+      <c r="M39" s="765">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="763"/>
+      <c r="N39" s="766"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -19047,26 +19073,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="691" t="s">
+      <c r="H68" s="683" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="692"/>
+      <c r="I68" s="684"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="693">
+      <c r="K68" s="685">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="720"/>
+      <c r="L68" s="718"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="697" t="s">
+      <c r="D69" s="689" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="697"/>
+      <c r="E69" s="689"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -19075,22 +19101,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="721" t="s">
+      <c r="D70" s="719" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="721"/>
+      <c r="E70" s="719"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="698" t="s">
+      <c r="I70" s="690" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="699"/>
-      <c r="K70" s="700">
+      <c r="J70" s="691"/>
+      <c r="K70" s="692">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="700"/>
+      <c r="L70" s="692"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -19131,11 +19157,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="702">
+      <c r="K72" s="694">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="703"/>
+      <c r="L72" s="695"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -19152,22 +19178,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="680" t="s">
+      <c r="D74" s="672" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="681"/>
+      <c r="E74" s="673"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="682" t="s">
+      <c r="I74" s="674" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="683"/>
-      <c r="K74" s="684">
+      <c r="J74" s="675"/>
+      <c r="K74" s="676">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="684"/>
+      <c r="L74" s="676"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -19314,6 +19340,21 @@
     <sortCondition ref="B34:B42"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -19329,21 +19370,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21611,7 +21637,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="731" t="s">
+      <c r="F80" s="734" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -21624,7 +21650,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="732"/>
+      <c r="F81" s="735"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -21644,10 +21670,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="769" t="s">
+      <c r="I83" s="772" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="770"/>
+      <c r="J83" s="773"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="514" t="s">
@@ -21656,8 +21682,8 @@
       <c r="B84" s="515"/>
       <c r="C84" s="516"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="771"/>
-      <c r="J84" s="772"/>
+      <c r="I84" s="774"/>
+      <c r="J84" s="775"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -21929,23 +21955,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="669"/>
-      <c r="C1" s="735" t="s">
+      <c r="B1" s="696"/>
+      <c r="C1" s="738" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="736"/>
-      <c r="E1" s="736"/>
-      <c r="F1" s="736"/>
-      <c r="G1" s="736"/>
-      <c r="H1" s="736"/>
-      <c r="I1" s="736"/>
-      <c r="J1" s="736"/>
-      <c r="K1" s="736"/>
-      <c r="L1" s="736"/>
-      <c r="M1" s="736"/>
+      <c r="D1" s="739"/>
+      <c r="E1" s="739"/>
+      <c r="F1" s="739"/>
+      <c r="G1" s="739"/>
+      <c r="H1" s="739"/>
+      <c r="I1" s="739"/>
+      <c r="J1" s="739"/>
+      <c r="K1" s="739"/>
+      <c r="L1" s="739"/>
+      <c r="M1" s="739"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="670"/>
+      <c r="B2" s="697"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -21955,24 +21981,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="673" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="674"/>
+      <c r="B3" s="700" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="701"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="675" t="s">
+      <c r="H3" s="702" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="675"/>
+      <c r="I3" s="702"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="712" t="s">
+      <c r="P3" s="726" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="733" t="s">
+      <c r="R3" s="736" t="s">
         <v>216</v>
       </c>
     </row>
@@ -21987,14 +22013,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="676" t="s">
+      <c r="E4" s="703" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="677"/>
-      <c r="H4" s="678" t="s">
+      <c r="F4" s="704"/>
+      <c r="H4" s="705" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="679"/>
+      <c r="I4" s="706"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -22004,15 +22030,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="713"/>
+      <c r="P4" s="727"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="734"/>
-      <c r="W4" s="722" t="s">
+      <c r="R4" s="737"/>
+      <c r="W4" s="709" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="722"/>
+      <c r="X4" s="709"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22063,8 +22089,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="722"/>
-      <c r="X5" s="722"/>
+      <c r="W5" s="709"/>
+      <c r="X5" s="709"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22823,7 +22849,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="726">
+      <c r="W19" s="713">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -22875,7 +22901,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="727"/>
+      <c r="W20" s="714"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -22924,8 +22950,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="728"/>
-      <c r="X21" s="728"/>
+      <c r="W21" s="715"/>
+      <c r="X21" s="715"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -23022,8 +23048,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="729"/>
-      <c r="X23" s="729"/>
+      <c r="W23" s="716"/>
+      <c r="X23" s="716"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -23078,8 +23104,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="729"/>
-      <c r="X24" s="729"/>
+      <c r="W24" s="716"/>
+      <c r="X24" s="716"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -23125,8 +23151,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="730"/>
-      <c r="X25" s="730"/>
+      <c r="W25" s="717"/>
+      <c r="X25" s="717"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -23177,8 +23203,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="730"/>
-      <c r="X26" s="730"/>
+      <c r="W26" s="717"/>
+      <c r="X26" s="717"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -23229,9 +23255,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="723"/>
-      <c r="X27" s="724"/>
-      <c r="Y27" s="725"/>
+      <c r="W27" s="710"/>
+      <c r="X27" s="711"/>
+      <c r="Y27" s="712"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23281,9 +23307,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="724"/>
-      <c r="X28" s="724"/>
-      <c r="Y28" s="725"/>
+      <c r="W28" s="711"/>
+      <c r="X28" s="711"/>
+      <c r="Y28" s="712"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23887,11 +23913,11 @@
       <c r="L41" s="627">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="714">
+      <c r="M41" s="728">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="714">
+      <c r="N41" s="728">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -23899,7 +23925,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="773">
+      <c r="Q41" s="776">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -23929,10 +23955,10 @@
       <c r="L42" s="630">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="715"/>
-      <c r="N42" s="715"/>
+      <c r="M42" s="729"/>
+      <c r="N42" s="729"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="774"/>
+      <c r="Q42" s="777"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -24020,11 +24046,11 @@
       <c r="L45" s="627">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="775">
+      <c r="M45" s="778">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="776"/>
+      <c r="N45" s="779"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -24617,26 +24643,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="691" t="s">
+      <c r="H70" s="683" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="692"/>
+      <c r="I70" s="684"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="693">
+      <c r="K70" s="685">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="720"/>
+      <c r="L70" s="718"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="697" t="s">
+      <c r="D71" s="689" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="697"/>
+      <c r="E71" s="689"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -24646,22 +24672,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="721" t="s">
+      <c r="D72" s="719" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="721"/>
+      <c r="E72" s="719"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="698" t="s">
+      <c r="I72" s="690" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="699"/>
-      <c r="K72" s="700">
+      <c r="J72" s="691"/>
+      <c r="K72" s="692">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="700"/>
+      <c r="L72" s="692"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -24702,11 +24728,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="702">
+      <c r="K74" s="694">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="703"/>
+      <c r="L74" s="695"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -24725,22 +24751,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="680" t="s">
+      <c r="D76" s="672" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="681"/>
+      <c r="E76" s="673"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="682" t="s">
+      <c r="I76" s="674" t="s">
         <v>854</v>
       </c>
-      <c r="J76" s="683"/>
-      <c r="K76" s="684">
+      <c r="J76" s="675"/>
+      <c r="K76" s="676">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="684"/>
+      <c r="L76" s="676"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -24900,6 +24926,21 @@
     <sortCondition ref="J47:J67"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -24915,21 +24956,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -27445,7 +27471,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="731" t="s">
+      <c r="F90" s="734" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -27458,7 +27484,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="732"/>
+      <c r="F91" s="735"/>
       <c r="K91" s="1"/>
       <c r="L91" s="97"/>
       <c r="M91" s="3"/>
@@ -27477,10 +27503,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="769" t="s">
+      <c r="I93" s="772" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="770"/>
+      <c r="J93" s="773"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -27490,8 +27516,8 @@
       <c r="C94" s="518"/>
       <c r="D94" s="519"/>
       <c r="E94" s="520"/>
-      <c r="I94" s="771"/>
-      <c r="J94" s="772"/>
+      <c r="I94" s="774"/>
+      <c r="J94" s="775"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -27932,11 +27958,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="777">
+      <c r="C130" s="780">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="778"/>
+      <c r="D130" s="781"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -27972,21 +27998,21 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="783" t="s">
+      <c r="F2" s="786" t="s">
         <v>752</v>
       </c>
-      <c r="G2" s="784"/>
-      <c r="H2" s="785"/>
+      <c r="G2" s="787"/>
+      <c r="H2" s="788"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="780" t="s">
+      <c r="B3" s="783" t="s">
         <v>748</v>
       </c>
-      <c r="C3" s="781"/>
-      <c r="D3" s="782"/>
-      <c r="F3" s="786"/>
-      <c r="G3" s="787"/>
-      <c r="H3" s="788"/>
+      <c r="C3" s="784"/>
+      <c r="D3" s="785"/>
+      <c r="F3" s="789"/>
+      <c r="G3" s="790"/>
+      <c r="H3" s="791"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="526" t="s">
@@ -28131,11 +28157,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="789">
+      <c r="G11" s="792">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="790"/>
+      <c r="H11" s="793"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="532" t="s">
@@ -28152,23 +28178,23 @@
       <c r="C14" s="532"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="793" t="s">
+      <c r="C15" s="796" t="s">
         <v>750</v>
       </c>
-      <c r="D15" s="791">
+      <c r="D15" s="794">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="794"/>
-      <c r="D16" s="792"/>
+      <c r="C16" s="797"/>
+      <c r="D16" s="795"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="779" t="s">
+      <c r="C17" s="782" t="s">
         <v>753</v>
       </c>
-      <c r="D17" s="779"/>
+      <c r="D17" s="782"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -28193,7 +28219,7 @@
   <dimension ref="A1:Z91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="F23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B47" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
       <selection pane="bottomRight" activeCell="F40" sqref="F40"/>
@@ -28226,23 +28252,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="669"/>
-      <c r="C1" s="735" t="s">
+      <c r="B1" s="696"/>
+      <c r="C1" s="738" t="s">
         <v>754</v>
       </c>
-      <c r="D1" s="736"/>
-      <c r="E1" s="736"/>
-      <c r="F1" s="736"/>
-      <c r="G1" s="736"/>
-      <c r="H1" s="736"/>
-      <c r="I1" s="736"/>
-      <c r="J1" s="736"/>
-      <c r="K1" s="736"/>
-      <c r="L1" s="736"/>
-      <c r="M1" s="736"/>
+      <c r="D1" s="739"/>
+      <c r="E1" s="739"/>
+      <c r="F1" s="739"/>
+      <c r="G1" s="739"/>
+      <c r="H1" s="739"/>
+      <c r="I1" s="739"/>
+      <c r="J1" s="739"/>
+      <c r="K1" s="739"/>
+      <c r="L1" s="739"/>
+      <c r="M1" s="739"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="670"/>
+      <c r="B2" s="697"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -28252,24 +28278,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="673" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="674"/>
+      <c r="B3" s="700" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="701"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="675" t="s">
+      <c r="H3" s="702" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="675"/>
+      <c r="I3" s="702"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="712" t="s">
+      <c r="P3" s="726" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="733" t="s">
+      <c r="R3" s="736" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -28288,14 +28314,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="676" t="s">
+      <c r="E4" s="703" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="677"/>
-      <c r="H4" s="678" t="s">
+      <c r="F4" s="704"/>
+      <c r="H4" s="705" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="679"/>
+      <c r="I4" s="706"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -28305,15 +28331,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="713"/>
+      <c r="P4" s="727"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="734"/>
+      <c r="R4" s="737"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="795"/>
-      <c r="X4" s="795"/>
+      <c r="W4" s="801"/>
+      <c r="X4" s="801"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -28367,8 +28393,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="795"/>
-      <c r="X5" s="795"/>
+      <c r="W5" s="801"/>
+      <c r="X5" s="801"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29134,7 +29160,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="796"/>
+      <c r="W19" s="802"/>
       <c r="X19" s="544"/>
       <c r="Y19" s="233"/>
     </row>
@@ -29188,7 +29214,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="796"/>
+      <c r="W20" s="802"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -29243,8 +29269,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="728"/>
-      <c r="X21" s="728"/>
+      <c r="W21" s="715"/>
+      <c r="X21" s="715"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -29355,8 +29381,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="729"/>
-      <c r="X23" s="729"/>
+      <c r="W23" s="716"/>
+      <c r="X23" s="716"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -29417,8 +29443,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="729"/>
-      <c r="X24" s="729"/>
+      <c r="W24" s="716"/>
+      <c r="X24" s="716"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -29471,8 +29497,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="730"/>
-      <c r="X25" s="730"/>
+      <c r="W25" s="717"/>
+      <c r="X25" s="717"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -29527,8 +29553,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="730"/>
-      <c r="X26" s="730"/>
+      <c r="W26" s="717"/>
+      <c r="X26" s="717"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -29583,9 +29609,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="723"/>
-      <c r="X27" s="724"/>
-      <c r="Y27" s="725"/>
+      <c r="W27" s="710"/>
+      <c r="X27" s="711"/>
+      <c r="Y27" s="712"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29639,9 +29665,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="724"/>
-      <c r="X28" s="724"/>
-      <c r="Y28" s="725"/>
+      <c r="W28" s="711"/>
+      <c r="X28" s="711"/>
+      <c r="Y28" s="712"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30232,11 +30258,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="714">
+      <c r="M41" s="728">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="714">
+      <c r="N41" s="728">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -30244,7 +30270,7 @@
         <f>SUM(P5:P40)</f>
         <v>4043205.8900000006</v>
       </c>
-      <c r="Q41" s="773">
+      <c r="Q41" s="776">
         <f>SUM(Q5:Q40)</f>
         <v>890559.8899999999</v>
       </c>
@@ -30268,10 +30294,10 @@
       <c r="L42" s="641">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="715"/>
-      <c r="N42" s="715"/>
+      <c r="M42" s="729"/>
+      <c r="N42" s="729"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="774"/>
+      <c r="Q42" s="777"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -30340,11 +30366,11 @@
       <c r="L45" s="619">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="775">
+      <c r="M45" s="778">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="776"/>
+      <c r="N45" s="779"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -30760,10 +30786,10 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="691" t="s">
+      <c r="H63" s="683" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="692"/>
+      <c r="I63" s="684"/>
       <c r="J63" s="562"/>
       <c r="K63" s="798">
         <f>I61+L61</f>
@@ -30776,10 +30802,10 @@
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="697" t="s">
+      <c r="D64" s="689" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="697"/>
+      <c r="E64" s="689"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -30788,22 +30814,22 @@
       <c r="J64" s="563"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="721" t="s">
+      <c r="D65" s="719" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="721"/>
+      <c r="E65" s="719"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="698" t="s">
+      <c r="I65" s="690" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="699"/>
-      <c r="K65" s="700">
+      <c r="J65" s="691"/>
+      <c r="K65" s="692">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="700"/>
+      <c r="L65" s="692"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="582"/>
@@ -30844,11 +30870,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="797">
+      <c r="K67" s="800">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="700"/>
+      <c r="L67" s="692"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -30865,22 +30891,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="680" t="s">
+      <c r="D69" s="672" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="681"/>
+      <c r="E69" s="673"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="682" t="s">
+      <c r="I69" s="674" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="683"/>
-      <c r="K69" s="684">
+      <c r="J69" s="675"/>
+      <c r="K69" s="676">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="684"/>
+      <c r="L69" s="676"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -31027,21 +31053,6 @@
     <sortCondition ref="J42:J56"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -31057,6 +31068,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33030,7 +33056,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="731" t="s">
+      <c r="F71" s="734" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -33043,7 +33069,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="732"/>
+      <c r="F72" s="735"/>
       <c r="K72" s="1"/>
       <c r="L72" s="97"/>
       <c r="M72" s="3"/>
@@ -33062,10 +33088,10 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="769" t="s">
+      <c r="I74" s="772" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="770"/>
+      <c r="J74" s="773"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
@@ -33074,8 +33100,8 @@
       <c r="D75" s="655"/>
       <c r="E75" s="520"/>
       <c r="F75" s="111"/>
-      <c r="I75" s="771"/>
-      <c r="J75" s="772"/>
+      <c r="I75" s="774"/>
+      <c r="J75" s="775"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
@@ -33209,11 +33235,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="802" t="s">
+      <c r="A89" s="805" t="s">
         <v>806</v>
       </c>
-      <c r="B89" s="803"/>
-      <c r="C89" s="803"/>
+      <c r="B89" s="806"/>
+      <c r="C89" s="806"/>
       <c r="E89"/>
       <c r="F89" s="111"/>
       <c r="I89"/>
@@ -33223,10 +33249,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="804" t="s">
+      <c r="B90" s="807" t="s">
         <v>807</v>
       </c>
-      <c r="C90" s="805"/>
+      <c r="C90" s="808"/>
       <c r="E90"/>
       <c r="F90" s="111"/>
       <c r="I90"/>
@@ -33327,7 +33353,7 @@
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="663"/>
-      <c r="C97" s="800">
+      <c r="C97" s="803">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -33341,7 +33367,7 @@
       <c r="B98" s="664" t="s">
         <v>885</v>
       </c>
-      <c r="C98" s="801"/>
+      <c r="C98" s="804"/>
       <c r="E98"/>
       <c r="F98" s="127">
         <v>0</v>
@@ -33414,8 +33440,8 @@
   </sheetPr>
   <dimension ref="A1:Z91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E24" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -33445,23 +33471,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="669"/>
-      <c r="C1" s="735" t="s">
+      <c r="B1" s="696"/>
+      <c r="C1" s="738" t="s">
         <v>886</v>
       </c>
-      <c r="D1" s="736"/>
-      <c r="E1" s="736"/>
-      <c r="F1" s="736"/>
-      <c r="G1" s="736"/>
-      <c r="H1" s="736"/>
-      <c r="I1" s="736"/>
-      <c r="J1" s="736"/>
-      <c r="K1" s="736"/>
-      <c r="L1" s="736"/>
-      <c r="M1" s="736"/>
+      <c r="D1" s="739"/>
+      <c r="E1" s="739"/>
+      <c r="F1" s="739"/>
+      <c r="G1" s="739"/>
+      <c r="H1" s="739"/>
+      <c r="I1" s="739"/>
+      <c r="J1" s="739"/>
+      <c r="K1" s="739"/>
+      <c r="L1" s="739"/>
+      <c r="M1" s="739"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="670"/>
+      <c r="B2" s="697"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -33471,24 +33497,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="673" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="674"/>
+      <c r="B3" s="700" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="701"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="675" t="s">
+      <c r="H3" s="702" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="675"/>
+      <c r="I3" s="702"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="712" t="s">
+      <c r="P3" s="726" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="733" t="s">
+      <c r="R3" s="736" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -33507,14 +33533,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="676" t="s">
+      <c r="E4" s="703" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="677"/>
-      <c r="H4" s="678" t="s">
+      <c r="F4" s="704"/>
+      <c r="H4" s="705" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="679"/>
+      <c r="I4" s="706"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -33524,15 +33550,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="713"/>
+      <c r="P4" s="727"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="734"/>
+      <c r="R4" s="737"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="795"/>
-      <c r="X4" s="795"/>
+      <c r="W4" s="801"/>
+      <c r="X4" s="801"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33587,8 +33613,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="795"/>
-      <c r="X5" s="795"/>
+      <c r="W5" s="801"/>
+      <c r="X5" s="801"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34364,7 +34390,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="796"/>
+      <c r="W19" s="802"/>
       <c r="X19" s="544"/>
       <c r="Y19" s="233"/>
     </row>
@@ -34418,7 +34444,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="796"/>
+      <c r="W20" s="802"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -34472,8 +34498,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="728"/>
-      <c r="X21" s="728"/>
+      <c r="W21" s="715"/>
+      <c r="X21" s="715"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -34582,8 +34608,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="729"/>
-      <c r="X23" s="729"/>
+      <c r="W23" s="716"/>
+      <c r="X23" s="716"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -34643,8 +34669,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="729"/>
-      <c r="X24" s="729"/>
+      <c r="W24" s="716"/>
+      <c r="X24" s="716"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -34697,8 +34723,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="730"/>
-      <c r="X25" s="730"/>
+      <c r="W25" s="717"/>
+      <c r="X25" s="717"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -34753,8 +34779,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="730"/>
-      <c r="X26" s="730"/>
+      <c r="W26" s="717"/>
+      <c r="X26" s="717"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -34809,9 +34835,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="723"/>
-      <c r="X27" s="724"/>
-      <c r="Y27" s="725"/>
+      <c r="W27" s="710"/>
+      <c r="X27" s="711"/>
+      <c r="Y27" s="712"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34866,9 +34892,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="724"/>
-      <c r="X28" s="724"/>
-      <c r="Y28" s="725"/>
+      <c r="W28" s="711"/>
+      <c r="X28" s="711"/>
+      <c r="Y28" s="712"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -35157,30 +35183,40 @@
       <c r="B34" s="24">
         <v>44740</v>
       </c>
-      <c r="C34" s="25"/>
-      <c r="D34" s="64"/>
+      <c r="C34" s="25">
+        <v>18614</v>
+      </c>
+      <c r="D34" s="64" t="s">
+        <v>950</v>
+      </c>
       <c r="E34" s="27">
         <v>44740</v>
       </c>
-      <c r="F34" s="539"/>
+      <c r="F34" s="28">
+        <v>117654</v>
+      </c>
       <c r="G34" s="575"/>
       <c r="H34" s="29">
         <v>44740</v>
       </c>
-      <c r="I34" s="30"/>
+      <c r="I34" s="30">
+        <v>3967</v>
+      </c>
       <c r="J34" s="560"/>
       <c r="K34" s="570"/>
       <c r="L34" s="9"/>
       <c r="M34" s="32">
-        <v>0</v>
+        <v>73988</v>
       </c>
       <c r="N34" s="33">
-        <v>0</v>
-      </c>
-      <c r="O34" s="666"/>
+        <v>21085</v>
+      </c>
+      <c r="O34" s="666" t="s">
+        <v>941</v>
+      </c>
       <c r="P34" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>117654</v>
       </c>
       <c r="Q34" s="325">
         <f t="shared" si="0"/>
@@ -35201,30 +35237,38 @@
       <c r="B35" s="24">
         <v>44741</v>
       </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="67"/>
+      <c r="C35" s="25">
+        <v>22015</v>
+      </c>
+      <c r="D35" s="67" t="s">
+        <v>951</v>
+      </c>
       <c r="E35" s="27">
         <v>44741</v>
       </c>
-      <c r="F35" s="539"/>
+      <c r="F35" s="28">
+        <v>89000</v>
+      </c>
       <c r="G35" s="575"/>
       <c r="H35" s="29">
         <v>44741</v>
       </c>
-      <c r="I35" s="540"/>
+      <c r="I35" s="30">
+        <v>2889.5</v>
+      </c>
       <c r="J35" s="560"/>
       <c r="K35" s="571"/>
       <c r="L35" s="69"/>
-      <c r="M35" s="32">
-        <v>0</v>
+      <c r="M35" s="669">
+        <v>35929.5</v>
       </c>
       <c r="N35" s="33">
-        <v>0</v>
+        <v>28166</v>
       </c>
       <c r="O35" s="666"/>
       <c r="P35" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>89000</v>
       </c>
       <c r="Q35" s="325">
         <f t="shared" si="0"/>
@@ -35245,30 +35289,38 @@
       <c r="B36" s="24">
         <v>44742</v>
       </c>
-      <c r="C36" s="25"/>
-      <c r="D36" s="64"/>
+      <c r="C36" s="25">
+        <v>540</v>
+      </c>
+      <c r="D36" s="64" t="s">
+        <v>952</v>
+      </c>
       <c r="E36" s="27">
         <v>44742</v>
       </c>
-      <c r="F36" s="539"/>
-      <c r="G36" s="575"/>
+      <c r="F36" s="28">
+        <v>86153</v>
+      </c>
+      <c r="G36" s="670"/>
       <c r="H36" s="29">
         <v>44742</v>
       </c>
-      <c r="I36" s="540"/>
+      <c r="I36" s="30">
+        <v>2070.5</v>
+      </c>
       <c r="J36" s="560"/>
       <c r="K36" s="572"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="32">
-        <v>0</v>
+      <c r="M36" s="669">
+        <v>60715.5</v>
       </c>
       <c r="N36" s="33">
-        <v>0</v>
+        <v>22827</v>
       </c>
       <c r="O36" s="667"/>
       <c r="P36" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>86153</v>
       </c>
       <c r="Q36" s="325">
         <f t="shared" si="0"/>
@@ -35288,30 +35340,38 @@
       <c r="B37" s="24">
         <v>44743</v>
       </c>
-      <c r="C37" s="25"/>
-      <c r="D37" s="507"/>
+      <c r="C37" s="25">
+        <v>15245</v>
+      </c>
+      <c r="D37" s="507" t="s">
+        <v>953</v>
+      </c>
       <c r="E37" s="27">
         <v>44743</v>
       </c>
-      <c r="F37" s="539"/>
-      <c r="G37" s="575"/>
+      <c r="F37" s="28">
+        <v>108790</v>
+      </c>
+      <c r="G37" s="670"/>
       <c r="H37" s="29">
         <v>44743</v>
       </c>
-      <c r="I37" s="540"/>
-      <c r="J37" s="625"/>
-      <c r="K37" s="626"/>
-      <c r="L37" s="627"/>
-      <c r="M37" s="32">
-        <v>0</v>
+      <c r="I37" s="30">
+        <v>2735</v>
+      </c>
+      <c r="J37" s="56"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="39"/>
+      <c r="M37" s="669">
+        <v>59436</v>
       </c>
       <c r="N37" s="33">
-        <v>0</v>
+        <v>31374</v>
       </c>
       <c r="O37" s="667"/>
       <c r="P37" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>108790</v>
       </c>
       <c r="Q37" s="325">
         <f t="shared" si="0"/>
@@ -35330,30 +35390,44 @@
       <c r="B38" s="24">
         <v>44744</v>
       </c>
-      <c r="C38" s="25"/>
-      <c r="D38" s="65"/>
+      <c r="C38" s="25">
+        <v>10283.5</v>
+      </c>
+      <c r="D38" s="65" t="s">
+        <v>954</v>
+      </c>
       <c r="E38" s="27">
         <v>44744</v>
       </c>
-      <c r="F38" s="539"/>
-      <c r="G38" s="575"/>
+      <c r="F38" s="28">
+        <v>129052</v>
+      </c>
+      <c r="G38" s="670"/>
       <c r="H38" s="29">
         <v>44744</v>
       </c>
-      <c r="I38" s="540"/>
-      <c r="J38" s="625"/>
-      <c r="K38" s="640"/>
-      <c r="L38" s="627"/>
-      <c r="M38" s="32">
-        <v>0</v>
+      <c r="I38" s="30">
+        <v>4915</v>
+      </c>
+      <c r="J38" s="56">
+        <v>44744</v>
+      </c>
+      <c r="K38" s="671" t="s">
+        <v>955</v>
+      </c>
+      <c r="L38" s="39">
+        <v>15579</v>
+      </c>
+      <c r="M38" s="669">
+        <v>39379.5</v>
       </c>
       <c r="N38" s="33">
-        <v>0</v>
+        <v>58895</v>
       </c>
       <c r="O38" s="666"/>
       <c r="P38" s="34">
         <f>N38+M38+L38+I38+C38</f>
-        <v>0</v>
+        <v>129052</v>
       </c>
       <c r="Q38" s="325">
         <f t="shared" si="0"/>
@@ -35372,30 +35446,38 @@
       <c r="B39" s="24">
         <v>44745</v>
       </c>
-      <c r="C39" s="69"/>
-      <c r="D39" s="62"/>
+      <c r="C39" s="69">
+        <v>10129</v>
+      </c>
+      <c r="D39" s="64" t="s">
+        <v>956</v>
+      </c>
       <c r="E39" s="27">
         <v>44745</v>
       </c>
-      <c r="F39" s="541"/>
-      <c r="G39" s="575"/>
+      <c r="F39" s="509">
+        <v>87809</v>
+      </c>
+      <c r="G39" s="670"/>
       <c r="H39" s="29">
         <v>44745</v>
       </c>
-      <c r="I39" s="542"/>
-      <c r="J39" s="625"/>
-      <c r="K39" s="640"/>
-      <c r="L39" s="627"/>
-      <c r="M39" s="32">
-        <v>0</v>
+      <c r="I39" s="71">
+        <v>243</v>
+      </c>
+      <c r="J39" s="56"/>
+      <c r="K39" s="671"/>
+      <c r="L39" s="39"/>
+      <c r="M39" s="669">
+        <v>48212</v>
       </c>
       <c r="N39" s="33">
-        <v>0</v>
+        <v>29225</v>
       </c>
       <c r="O39" s="666"/>
       <c r="P39" s="34">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>87809</v>
       </c>
       <c r="Q39" s="111">
         <f t="shared" ref="Q39:Q40" si="2">P39-F39</f>
@@ -35459,19 +35541,19 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="714">
+      <c r="M41" s="728">
         <f>SUM(M5:M40)</f>
-        <v>1419363.5</v>
-      </c>
-      <c r="N41" s="714">
+        <v>1737024</v>
+      </c>
+      <c r="N41" s="728">
         <f>SUM(N5:N40)</f>
-        <v>1122741</v>
+        <v>1314313</v>
       </c>
       <c r="P41" s="506">
         <f>SUM(P5:P40)</f>
-        <v>3192499.55</v>
-      </c>
-      <c r="Q41" s="773">
+        <v>3810957.55</v>
+      </c>
+      <c r="Q41" s="776">
         <f>SUM(Q5:Q40)</f>
         <v>30.55000000000291</v>
       </c>
@@ -35495,10 +35577,10 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="715"/>
-      <c r="N42" s="715"/>
+      <c r="M42" s="729"/>
+      <c r="N42" s="729"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="774"/>
+      <c r="Q42" s="777"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -35558,14 +35640,20 @@
       <c r="G45" s="575"/>
       <c r="H45" s="76"/>
       <c r="I45" s="77"/>
-      <c r="J45" s="56"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="39"/>
-      <c r="M45" s="775">
+      <c r="J45" s="56">
+        <v>44744</v>
+      </c>
+      <c r="K45" s="38" t="s">
+        <v>955</v>
+      </c>
+      <c r="L45" s="39">
+        <v>20521</v>
+      </c>
+      <c r="M45" s="778">
         <f>M41+N41</f>
-        <v>2542104.5</v>
-      </c>
-      <c r="N45" s="776"/>
+        <v>3051337</v>
+      </c>
+      <c r="N45" s="779"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -35846,7 +35934,7 @@
       </c>
       <c r="C61" s="87">
         <f>SUM(C5:C60)</f>
-        <v>495152</v>
+        <v>571978.5</v>
       </c>
       <c r="D61" s="88"/>
       <c r="E61" s="91" t="s">
@@ -35854,7 +35942,7 @@
       </c>
       <c r="F61" s="90">
         <f>SUM(F5:F60)</f>
-        <v>3163704</v>
+        <v>3782162</v>
       </c>
       <c r="G61" s="576"/>
       <c r="H61" s="91" t="s">
@@ -35862,7 +35950,7 @@
       </c>
       <c r="I61" s="92">
         <f>SUM(I5:I60)</f>
-        <v>84962.5</v>
+        <v>101782.5</v>
       </c>
       <c r="J61" s="93"/>
       <c r="K61" s="94" t="s">
@@ -35870,7 +35958,7 @@
       </c>
       <c r="L61" s="95">
         <f>SUM(L5:L60)</f>
-        <v>143710.29</v>
+        <v>179810.29</v>
       </c>
       <c r="M61" s="96"/>
       <c r="N61" s="96"/>
@@ -35888,14 +35976,14 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="691" t="s">
+      <c r="H63" s="683" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="692"/>
+      <c r="I63" s="684"/>
       <c r="J63" s="562"/>
       <c r="K63" s="798">
         <f>I61+L61</f>
-        <v>228672.79</v>
+        <v>281592.79000000004</v>
       </c>
       <c r="L63" s="799"/>
       <c r="M63" s="272"/>
@@ -35904,34 +35992,34 @@
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="697" t="s">
+      <c r="D64" s="689" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="697"/>
+      <c r="E64" s="689"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
-        <v>2439879.21</v>
+        <v>2928590.71</v>
       </c>
       <c r="I64" s="102"/>
       <c r="J64" s="563"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="721" t="s">
+      <c r="D65" s="719" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="721"/>
+      <c r="E65" s="719"/>
       <c r="F65" s="111">
         <v>0</v>
       </c>
-      <c r="I65" s="698" t="s">
+      <c r="I65" s="690" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="699"/>
-      <c r="K65" s="700">
+      <c r="J65" s="691"/>
+      <c r="K65" s="692">
         <f>F67+F68+F69</f>
-        <v>2439879.21</v>
-      </c>
-      <c r="L65" s="700"/>
+        <v>5284017.25</v>
+      </c>
+      <c r="L65" s="692"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="659"/>
@@ -35965,18 +36053,18 @@
       </c>
       <c r="F67" s="96">
         <f>SUM(F64:F66)</f>
-        <v>2439879.21</v>
+        <v>2928590.71</v>
       </c>
       <c r="H67" s="558"/>
       <c r="I67" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="797">
+      <c r="K67" s="800">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L67" s="700"/>
+      <c r="L67" s="692"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -35990,23 +36078,25 @@
       </c>
     </row>
     <row r="69" spans="2:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C69" s="112"/>
-      <c r="D69" s="680" t="s">
+      <c r="C69" s="112">
+        <v>44745</v>
+      </c>
+      <c r="D69" s="672" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="681"/>
+      <c r="E69" s="673"/>
       <c r="F69" s="113">
-        <v>0</v>
-      </c>
-      <c r="I69" s="682" t="s">
+        <v>2355426.54</v>
+      </c>
+      <c r="I69" s="674" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="683"/>
-      <c r="K69" s="684">
+      <c r="J69" s="675"/>
+      <c r="K69" s="676">
         <f>K65+K67</f>
-        <v>-107102.95000000019</v>
-      </c>
-      <c r="L69" s="684"/>
+        <v>2737035.09</v>
+      </c>
+      <c r="L69" s="676"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -36150,6 +36240,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="I69:J69"/>
     <mergeCell ref="K69:L69"/>
@@ -36160,26 +36270,6 @@
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="I65:J65"/>
     <mergeCell ref="K65:L65"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -37722,10 +37812,10 @@
         <f>SUM(F3:F66)</f>
         <v>1179801.69</v>
       </c>
-      <c r="H67" s="769" t="s">
+      <c r="H67" s="772" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="770"/>
+      <c r="I67" s="773"/>
       <c r="J67" s="647">
         <f>SUM(J3:J66)</f>
         <v>0</v>
@@ -37745,11 +37835,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="731" t="s">
+      <c r="F68" s="734" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="771"/>
-      <c r="I68" s="772"/>
+      <c r="H68" s="774"/>
+      <c r="I68" s="775"/>
       <c r="J68" s="1"/>
       <c r="K68" s="97"/>
       <c r="L68" s="3"/>
@@ -37760,7 +37850,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="732"/>
+      <c r="F69" s="735"/>
       <c r="J69" s="1"/>
       <c r="K69" s="97"/>
       <c r="L69" s="3"/>
@@ -39700,7 +39790,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="704" t="s">
+      <c r="B41" s="707" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -39732,7 +39822,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="705"/>
+      <c r="B42" s="708"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -41352,23 +41442,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="669"/>
-      <c r="C1" s="671" t="s">
+      <c r="B1" s="696"/>
+      <c r="C1" s="698" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="672"/>
-      <c r="E1" s="672"/>
-      <c r="F1" s="672"/>
-      <c r="G1" s="672"/>
-      <c r="H1" s="672"/>
-      <c r="I1" s="672"/>
-      <c r="J1" s="672"/>
-      <c r="K1" s="672"/>
-      <c r="L1" s="672"/>
-      <c r="M1" s="672"/>
+      <c r="D1" s="699"/>
+      <c r="E1" s="699"/>
+      <c r="F1" s="699"/>
+      <c r="G1" s="699"/>
+      <c r="H1" s="699"/>
+      <c r="I1" s="699"/>
+      <c r="J1" s="699"/>
+      <c r="K1" s="699"/>
+      <c r="L1" s="699"/>
+      <c r="M1" s="699"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="670"/>
+      <c r="B2" s="697"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -41378,21 +41468,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="673" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="674"/>
+      <c r="B3" s="700" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="701"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="675" t="s">
+      <c r="H3" s="702" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="675"/>
+      <c r="I3" s="702"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="712" t="s">
+      <c r="P3" s="726" t="s">
         <v>6</v>
       </c>
     </row>
@@ -41407,14 +41497,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="676" t="s">
+      <c r="E4" s="703" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="677"/>
-      <c r="H4" s="678" t="s">
+      <c r="F4" s="704"/>
+      <c r="H4" s="705" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="679"/>
+      <c r="I4" s="706"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -41424,14 +41514,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="713"/>
+      <c r="P4" s="727"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="722" t="s">
+      <c r="W4" s="709" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="722"/>
+      <c r="X4" s="709"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -41482,8 +41572,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="722"/>
-      <c r="X5" s="722"/>
+      <c r="W5" s="709"/>
+      <c r="X5" s="709"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42254,7 +42344,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="726">
+      <c r="W19" s="713">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -42306,7 +42396,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="727"/>
+      <c r="W20" s="714"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -42355,8 +42445,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="728"/>
-      <c r="X21" s="728"/>
+      <c r="W21" s="715"/>
+      <c r="X21" s="715"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -42457,8 +42547,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="729"/>
-      <c r="X23" s="729"/>
+      <c r="W23" s="716"/>
+      <c r="X23" s="716"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -42512,8 +42602,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="729"/>
-      <c r="X24" s="729"/>
+      <c r="W24" s="716"/>
+      <c r="X24" s="716"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -42559,8 +42649,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="730"/>
-      <c r="X25" s="730"/>
+      <c r="W25" s="717"/>
+      <c r="X25" s="717"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -42611,8 +42701,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="730"/>
-      <c r="X26" s="730"/>
+      <c r="W26" s="717"/>
+      <c r="X26" s="717"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -42660,9 +42750,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="723"/>
-      <c r="X27" s="724"/>
-      <c r="Y27" s="725"/>
+      <c r="W27" s="710"/>
+      <c r="X27" s="711"/>
+      <c r="Y27" s="712"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42712,9 +42802,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="724"/>
-      <c r="X28" s="724"/>
-      <c r="Y28" s="725"/>
+      <c r="W28" s="711"/>
+      <c r="X28" s="711"/>
+      <c r="Y28" s="712"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -43049,11 +43139,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="714">
+      <c r="M36" s="728">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="716">
+      <c r="N36" s="730">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -43061,7 +43151,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="718">
+      <c r="Q36" s="732">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -43096,13 +43186,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="715"/>
-      <c r="N37" s="717"/>
+      <c r="M37" s="729"/>
+      <c r="N37" s="731"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="719"/>
+      <c r="Q37" s="733"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -43392,26 +43482,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="691" t="s">
+      <c r="H52" s="683" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="692"/>
+      <c r="I52" s="684"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="693">
+      <c r="K52" s="685">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="720"/>
+      <c r="L52" s="718"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="697" t="s">
+      <c r="D53" s="689" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="697"/>
+      <c r="E53" s="689"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -43420,29 +43510,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="721" t="s">
+      <c r="D54" s="719" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="721"/>
+      <c r="E54" s="719"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="698" t="s">
+      <c r="I54" s="690" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="699"/>
-      <c r="K54" s="700">
+      <c r="J54" s="691"/>
+      <c r="K54" s="692">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="700"/>
-      <c r="M54" s="706" t="s">
+      <c r="L54" s="692"/>
+      <c r="M54" s="720" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="707"/>
-      <c r="O54" s="707"/>
-      <c r="P54" s="707"/>
-      <c r="Q54" s="708"/>
+      <c r="N54" s="721"/>
+      <c r="O54" s="721"/>
+      <c r="P54" s="721"/>
+      <c r="Q54" s="722"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -43456,11 +43546,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="709"/>
-      <c r="N55" s="710"/>
-      <c r="O55" s="710"/>
-      <c r="P55" s="710"/>
-      <c r="Q55" s="711"/>
+      <c r="M55" s="723"/>
+      <c r="N55" s="724"/>
+      <c r="O55" s="724"/>
+      <c r="P55" s="724"/>
+      <c r="Q55" s="725"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -43478,11 +43568,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="702">
+      <c r="K56" s="694">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="703"/>
+      <c r="L56" s="695"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -43499,22 +43589,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="680" t="s">
+      <c r="D58" s="672" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="681"/>
+      <c r="E58" s="673"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="682" t="s">
+      <c r="I58" s="674" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="683"/>
-      <c r="K58" s="684">
+      <c r="J58" s="675"/>
+      <c r="K58" s="676">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="684"/>
+      <c r="L58" s="676"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -43658,14 +43748,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -43676,17 +43769,14 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -46104,7 +46194,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="731" t="s">
+      <c r="F87" s="734" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -46117,7 +46207,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="732"/>
+      <c r="F88" s="735"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -46429,23 +46519,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="669"/>
-      <c r="C1" s="671" t="s">
+      <c r="B1" s="696"/>
+      <c r="C1" s="698" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="672"/>
-      <c r="E1" s="672"/>
-      <c r="F1" s="672"/>
-      <c r="G1" s="672"/>
-      <c r="H1" s="672"/>
-      <c r="I1" s="672"/>
-      <c r="J1" s="672"/>
-      <c r="K1" s="672"/>
-      <c r="L1" s="672"/>
-      <c r="M1" s="672"/>
+      <c r="D1" s="699"/>
+      <c r="E1" s="699"/>
+      <c r="F1" s="699"/>
+      <c r="G1" s="699"/>
+      <c r="H1" s="699"/>
+      <c r="I1" s="699"/>
+      <c r="J1" s="699"/>
+      <c r="K1" s="699"/>
+      <c r="L1" s="699"/>
+      <c r="M1" s="699"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="670"/>
+      <c r="B2" s="697"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -46455,24 +46545,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="673" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="674"/>
+      <c r="B3" s="700" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="701"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="675" t="s">
+      <c r="H3" s="702" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="675"/>
+      <c r="I3" s="702"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="712" t="s">
+      <c r="P3" s="726" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="733" t="s">
+      <c r="R3" s="736" t="s">
         <v>216</v>
       </c>
     </row>
@@ -46487,14 +46577,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="676" t="s">
+      <c r="E4" s="703" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="677"/>
-      <c r="H4" s="678" t="s">
+      <c r="F4" s="704"/>
+      <c r="H4" s="705" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="679"/>
+      <c r="I4" s="706"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -46504,15 +46594,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="713"/>
+      <c r="P4" s="727"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="734"/>
-      <c r="W4" s="722" t="s">
+      <c r="R4" s="737"/>
+      <c r="W4" s="709" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="722"/>
+      <c r="X4" s="709"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -46573,8 +46663,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="722"/>
-      <c r="X5" s="722"/>
+      <c r="W5" s="709"/>
+      <c r="X5" s="709"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47331,7 +47421,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="726">
+      <c r="W19" s="713">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -47383,7 +47473,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="727"/>
+      <c r="W20" s="714"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -47432,8 +47522,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="728"/>
-      <c r="X21" s="728"/>
+      <c r="W21" s="715"/>
+      <c r="X21" s="715"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -47534,8 +47624,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="729"/>
-      <c r="X23" s="729"/>
+      <c r="W23" s="716"/>
+      <c r="X23" s="716"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -47586,8 +47676,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="729"/>
-      <c r="X24" s="729"/>
+      <c r="W24" s="716"/>
+      <c r="X24" s="716"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -47633,8 +47723,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="730"/>
-      <c r="X25" s="730"/>
+      <c r="W25" s="717"/>
+      <c r="X25" s="717"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -47682,8 +47772,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="730"/>
-      <c r="X26" s="730"/>
+      <c r="W26" s="717"/>
+      <c r="X26" s="717"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -47743,9 +47833,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="723"/>
-      <c r="X27" s="724"/>
-      <c r="Y27" s="725"/>
+      <c r="W27" s="710"/>
+      <c r="X27" s="711"/>
+      <c r="Y27" s="712"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47799,9 +47889,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="724"/>
-      <c r="X28" s="724"/>
-      <c r="Y28" s="725"/>
+      <c r="W28" s="711"/>
+      <c r="X28" s="711"/>
+      <c r="Y28" s="712"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -48117,11 +48207,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="714">
+      <c r="M36" s="728">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="716">
+      <c r="N36" s="730">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -48129,7 +48219,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="718">
+      <c r="Q36" s="732">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -48148,13 +48238,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="715"/>
-      <c r="N37" s="717"/>
+      <c r="M37" s="729"/>
+      <c r="N37" s="731"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="719"/>
+      <c r="Q37" s="733"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -48428,26 +48518,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="691" t="s">
+      <c r="H52" s="683" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="692"/>
+      <c r="I52" s="684"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="693">
+      <c r="K52" s="685">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="720"/>
+      <c r="L52" s="718"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="697" t="s">
+      <c r="D53" s="689" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="697"/>
+      <c r="E53" s="689"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -48456,29 +48546,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="721" t="s">
+      <c r="D54" s="719" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="721"/>
+      <c r="E54" s="719"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="698" t="s">
+      <c r="I54" s="690" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="699"/>
-      <c r="K54" s="700">
+      <c r="J54" s="691"/>
+      <c r="K54" s="692">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="700"/>
-      <c r="M54" s="706" t="s">
+      <c r="L54" s="692"/>
+      <c r="M54" s="720" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="707"/>
-      <c r="O54" s="707"/>
-      <c r="P54" s="707"/>
-      <c r="Q54" s="708"/>
+      <c r="N54" s="721"/>
+      <c r="O54" s="721"/>
+      <c r="P54" s="721"/>
+      <c r="Q54" s="722"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -48492,11 +48582,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="709"/>
-      <c r="N55" s="710"/>
-      <c r="O55" s="710"/>
-      <c r="P55" s="710"/>
-      <c r="Q55" s="711"/>
+      <c r="M55" s="723"/>
+      <c r="N55" s="724"/>
+      <c r="O55" s="724"/>
+      <c r="P55" s="724"/>
+      <c r="Q55" s="725"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -48514,11 +48604,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="702">
+      <c r="K56" s="694">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="703"/>
+      <c r="L56" s="695"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -48535,22 +48625,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="680" t="s">
+      <c r="D58" s="672" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="681"/>
+      <c r="E58" s="673"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="682" t="s">
+      <c r="I58" s="674" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="683"/>
-      <c r="K58" s="684">
+      <c r="J58" s="675"/>
+      <c r="K58" s="676">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="684"/>
+      <c r="L58" s="676"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -48694,20 +48784,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -48717,13 +48800,20 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -51113,7 +51203,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="731" t="s">
+      <c r="F75" s="734" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -51126,7 +51216,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="732"/>
+      <c r="F76" s="735"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -51418,23 +51508,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="669"/>
-      <c r="C1" s="735" t="s">
+      <c r="B1" s="696"/>
+      <c r="C1" s="738" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="736"/>
-      <c r="E1" s="736"/>
-      <c r="F1" s="736"/>
-      <c r="G1" s="736"/>
-      <c r="H1" s="736"/>
-      <c r="I1" s="736"/>
-      <c r="J1" s="736"/>
-      <c r="K1" s="736"/>
-      <c r="L1" s="736"/>
-      <c r="M1" s="736"/>
+      <c r="D1" s="739"/>
+      <c r="E1" s="739"/>
+      <c r="F1" s="739"/>
+      <c r="G1" s="739"/>
+      <c r="H1" s="739"/>
+      <c r="I1" s="739"/>
+      <c r="J1" s="739"/>
+      <c r="K1" s="739"/>
+      <c r="L1" s="739"/>
+      <c r="M1" s="739"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="670"/>
+      <c r="B2" s="697"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -51444,24 +51534,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="673" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="674"/>
+      <c r="B3" s="700" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="701"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="675" t="s">
+      <c r="H3" s="702" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="675"/>
+      <c r="I3" s="702"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="712" t="s">
+      <c r="P3" s="726" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="733" t="s">
+      <c r="R3" s="736" t="s">
         <v>216</v>
       </c>
     </row>
@@ -51476,14 +51566,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="676" t="s">
+      <c r="E4" s="703" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="677"/>
-      <c r="H4" s="678" t="s">
+      <c r="F4" s="704"/>
+      <c r="H4" s="705" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="679"/>
+      <c r="I4" s="706"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -51493,15 +51583,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="713"/>
+      <c r="P4" s="727"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="734"/>
-      <c r="W4" s="722" t="s">
+      <c r="R4" s="737"/>
+      <c r="W4" s="709" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="722"/>
+      <c r="X4" s="709"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -51552,8 +51642,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="722"/>
-      <c r="X5" s="722"/>
+      <c r="W5" s="709"/>
+      <c r="X5" s="709"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52317,7 +52407,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="726">
+      <c r="W19" s="713">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -52370,7 +52460,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="727"/>
+      <c r="W20" s="714"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -52419,8 +52509,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="728"/>
-      <c r="X21" s="728"/>
+      <c r="W21" s="715"/>
+      <c r="X21" s="715"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -52520,8 +52610,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="729"/>
-      <c r="X23" s="729"/>
+      <c r="W23" s="716"/>
+      <c r="X23" s="716"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -52576,8 +52666,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="729"/>
-      <c r="X24" s="729"/>
+      <c r="W24" s="716"/>
+      <c r="X24" s="716"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -52622,8 +52712,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="730"/>
-      <c r="X25" s="730"/>
+      <c r="W25" s="717"/>
+      <c r="X25" s="717"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -52671,8 +52761,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="730"/>
-      <c r="X26" s="730"/>
+      <c r="W26" s="717"/>
+      <c r="X26" s="717"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -52726,9 +52816,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="723"/>
-      <c r="X27" s="724"/>
-      <c r="Y27" s="725"/>
+      <c r="W27" s="710"/>
+      <c r="X27" s="711"/>
+      <c r="Y27" s="712"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52782,9 +52872,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="724"/>
-      <c r="X28" s="724"/>
-      <c r="Y28" s="725"/>
+      <c r="W28" s="711"/>
+      <c r="X28" s="711"/>
+      <c r="Y28" s="712"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -53095,11 +53185,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="714">
+      <c r="M36" s="728">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="716">
+      <c r="N36" s="730">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -53107,7 +53197,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="718">
+      <c r="Q36" s="732">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -53132,13 +53222,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="715"/>
-      <c r="N37" s="717"/>
+      <c r="M37" s="729"/>
+      <c r="N37" s="731"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="719"/>
+      <c r="Q37" s="733"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -53431,26 +53521,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="691" t="s">
+      <c r="H52" s="683" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="692"/>
+      <c r="I52" s="684"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="693">
+      <c r="K52" s="685">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="720"/>
+      <c r="L52" s="718"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="697" t="s">
+      <c r="D53" s="689" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="697"/>
+      <c r="E53" s="689"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -53459,22 +53549,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="721" t="s">
+      <c r="D54" s="719" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="721"/>
+      <c r="E54" s="719"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="698" t="s">
+      <c r="I54" s="690" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="699"/>
-      <c r="K54" s="700">
+      <c r="J54" s="691"/>
+      <c r="K54" s="692">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="700"/>
+      <c r="L54" s="692"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -53515,11 +53605,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="702">
+      <c r="K56" s="694">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="703"/>
+      <c r="L56" s="695"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -53536,22 +53626,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="680" t="s">
+      <c r="D58" s="672" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="681"/>
+      <c r="E58" s="673"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="682" t="s">
+      <c r="I58" s="674" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="683"/>
-      <c r="K58" s="684">
+      <c r="J58" s="675"/>
+      <c r="K58" s="676">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="684"/>
+      <c r="L58" s="676"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -53695,20 +53785,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -53724,6 +53800,20 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -55420,12 +55510,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="737" t="s">
+      <c r="B43" s="740" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="738"/>
-      <c r="D43" s="738"/>
-      <c r="E43" s="739"/>
+      <c r="C43" s="741"/>
+      <c r="D43" s="741"/>
+      <c r="E43" s="742"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -55453,10 +55543,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="740"/>
-      <c r="C44" s="741"/>
-      <c r="D44" s="741"/>
-      <c r="E44" s="742"/>
+      <c r="B44" s="743"/>
+      <c r="C44" s="744"/>
+      <c r="D44" s="744"/>
+      <c r="E44" s="745"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -55484,10 +55574,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="743"/>
-      <c r="C45" s="744"/>
-      <c r="D45" s="744"/>
-      <c r="E45" s="745"/>
+      <c r="B45" s="746"/>
+      <c r="C45" s="747"/>
+      <c r="D45" s="747"/>
+      <c r="E45" s="748"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -55530,10 +55620,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="752" t="s">
+      <c r="B47" s="755" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="753"/>
+      <c r="C47" s="756"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -55555,8 +55645,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="754"/>
-      <c r="C48" s="755"/>
+      <c r="B48" s="757"/>
+      <c r="C48" s="758"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -55564,11 +55654,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="746" t="s">
+      <c r="J48" s="749" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="747"/>
-      <c r="L48" s="748"/>
+      <c r="K48" s="750"/>
+      <c r="L48" s="751"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -55586,9 +55676,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="749"/>
-      <c r="K49" s="750"/>
-      <c r="L49" s="751"/>
+      <c r="J49" s="752"/>
+      <c r="K49" s="753"/>
+      <c r="L49" s="754"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -55605,10 +55695,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="756" t="s">
+      <c r="I50" s="759" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="757"/>
+      <c r="J50" s="760"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -55629,8 +55719,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="756"/>
-      <c r="J51" s="757"/>
+      <c r="I51" s="759"/>
+      <c r="J51" s="760"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -55649,8 +55739,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="756"/>
-      <c r="J52" s="757"/>
+      <c r="I52" s="759"/>
+      <c r="J52" s="760"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -55669,8 +55759,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="756"/>
-      <c r="J53" s="757"/>
+      <c r="I53" s="759"/>
+      <c r="J53" s="760"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -55689,8 +55779,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="756"/>
-      <c r="J54" s="757"/>
+      <c r="I54" s="759"/>
+      <c r="J54" s="760"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -55709,8 +55799,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="756"/>
-      <c r="J55" s="757"/>
+      <c r="I55" s="759"/>
+      <c r="J55" s="760"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -55729,8 +55819,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="756"/>
-      <c r="J56" s="757"/>
+      <c r="I56" s="759"/>
+      <c r="J56" s="760"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -55749,8 +55839,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="756"/>
-      <c r="J57" s="757"/>
+      <c r="I57" s="759"/>
+      <c r="J57" s="760"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -55769,8 +55859,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="756"/>
-      <c r="J58" s="757"/>
+      <c r="I58" s="759"/>
+      <c r="J58" s="760"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -55789,8 +55879,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="756"/>
-      <c r="J59" s="757"/>
+      <c r="I59" s="759"/>
+      <c r="J59" s="760"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -55809,8 +55899,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="756"/>
-      <c r="J60" s="757"/>
+      <c r="I60" s="759"/>
+      <c r="J60" s="760"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -55829,8 +55919,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="756"/>
-      <c r="J61" s="757"/>
+      <c r="I61" s="759"/>
+      <c r="J61" s="760"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -55849,8 +55939,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="756"/>
-      <c r="J62" s="757"/>
+      <c r="I62" s="759"/>
+      <c r="J62" s="760"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -55869,8 +55959,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="756"/>
-      <c r="J63" s="757"/>
+      <c r="I63" s="759"/>
+      <c r="J63" s="760"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -55889,8 +55979,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="756"/>
-      <c r="J64" s="757"/>
+      <c r="I64" s="759"/>
+      <c r="J64" s="760"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -55909,8 +55999,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="756"/>
-      <c r="J65" s="757"/>
+      <c r="I65" s="759"/>
+      <c r="J65" s="760"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -55929,8 +56019,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="756"/>
-      <c r="J66" s="757"/>
+      <c r="I66" s="759"/>
+      <c r="J66" s="760"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -55949,8 +56039,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="756"/>
-      <c r="J67" s="757"/>
+      <c r="I67" s="759"/>
+      <c r="J67" s="760"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -55969,8 +56059,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="756"/>
-      <c r="J68" s="757"/>
+      <c r="I68" s="759"/>
+      <c r="J68" s="760"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -55989,8 +56079,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="756"/>
-      <c r="J69" s="757"/>
+      <c r="I69" s="759"/>
+      <c r="J69" s="760"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -56009,8 +56099,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="756"/>
-      <c r="J70" s="757"/>
+      <c r="I70" s="759"/>
+      <c r="J70" s="760"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -56029,8 +56119,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="756"/>
-      <c r="J71" s="757"/>
+      <c r="I71" s="759"/>
+      <c r="J71" s="760"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -56049,8 +56139,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="756"/>
-      <c r="J72" s="757"/>
+      <c r="I72" s="759"/>
+      <c r="J72" s="760"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -56069,8 +56159,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="756"/>
-      <c r="J73" s="757"/>
+      <c r="I73" s="759"/>
+      <c r="J73" s="760"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -56089,8 +56179,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="756"/>
-      <c r="J74" s="757"/>
+      <c r="I74" s="759"/>
+      <c r="J74" s="760"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -56109,8 +56199,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="756"/>
-      <c r="J75" s="757"/>
+      <c r="I75" s="759"/>
+      <c r="J75" s="760"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -56129,8 +56219,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="756"/>
-      <c r="J76" s="757"/>
+      <c r="I76" s="759"/>
+      <c r="J76" s="760"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -56149,8 +56239,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="756"/>
-      <c r="J77" s="757"/>
+      <c r="I77" s="759"/>
+      <c r="J77" s="760"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -56171,8 +56261,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="758"/>
-      <c r="J78" s="759"/>
+      <c r="I78" s="761"/>
+      <c r="J78" s="762"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -56217,7 +56307,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="731" t="s">
+      <c r="F80" s="734" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -56229,7 +56319,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="732"/>
+      <c r="F81" s="735"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -56517,23 +56607,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="669"/>
-      <c r="C1" s="735" t="s">
+      <c r="B1" s="696"/>
+      <c r="C1" s="738" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="736"/>
-      <c r="E1" s="736"/>
-      <c r="F1" s="736"/>
-      <c r="G1" s="736"/>
-      <c r="H1" s="736"/>
-      <c r="I1" s="736"/>
-      <c r="J1" s="736"/>
-      <c r="K1" s="736"/>
-      <c r="L1" s="736"/>
-      <c r="M1" s="736"/>
+      <c r="D1" s="739"/>
+      <c r="E1" s="739"/>
+      <c r="F1" s="739"/>
+      <c r="G1" s="739"/>
+      <c r="H1" s="739"/>
+      <c r="I1" s="739"/>
+      <c r="J1" s="739"/>
+      <c r="K1" s="739"/>
+      <c r="L1" s="739"/>
+      <c r="M1" s="739"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="670"/>
+      <c r="B2" s="697"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -56543,24 +56633,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="673" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="674"/>
+      <c r="B3" s="700" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="701"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="675" t="s">
+      <c r="H3" s="702" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="675"/>
+      <c r="I3" s="702"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="712" t="s">
+      <c r="P3" s="726" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="733" t="s">
+      <c r="R3" s="736" t="s">
         <v>216</v>
       </c>
     </row>
@@ -56575,14 +56665,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="676" t="s">
+      <c r="E4" s="703" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="677"/>
-      <c r="H4" s="678" t="s">
+      <c r="F4" s="704"/>
+      <c r="H4" s="705" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="679"/>
+      <c r="I4" s="706"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -56592,15 +56682,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="713"/>
+      <c r="P4" s="727"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="734"/>
-      <c r="W4" s="722" t="s">
+      <c r="R4" s="737"/>
+      <c r="W4" s="709" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="722"/>
+      <c r="X4" s="709"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -56651,8 +56741,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="722"/>
-      <c r="X5" s="722"/>
+      <c r="W5" s="709"/>
+      <c r="X5" s="709"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57413,7 +57503,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="726">
+      <c r="W19" s="713">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -57465,7 +57555,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="727"/>
+      <c r="W20" s="714"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -57514,8 +57604,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="728"/>
-      <c r="X21" s="728"/>
+      <c r="W21" s="715"/>
+      <c r="X21" s="715"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -57614,8 +57704,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="729"/>
-      <c r="X23" s="729"/>
+      <c r="W23" s="716"/>
+      <c r="X23" s="716"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -57670,8 +57760,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="729"/>
-      <c r="X24" s="729"/>
+      <c r="W24" s="716"/>
+      <c r="X24" s="716"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -57719,8 +57809,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="730"/>
-      <c r="X25" s="730"/>
+      <c r="W25" s="717"/>
+      <c r="X25" s="717"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -57768,8 +57858,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="730"/>
-      <c r="X26" s="730"/>
+      <c r="W26" s="717"/>
+      <c r="X26" s="717"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -57817,9 +57907,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="723"/>
-      <c r="X27" s="724"/>
-      <c r="Y27" s="725"/>
+      <c r="W27" s="710"/>
+      <c r="X27" s="711"/>
+      <c r="Y27" s="712"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57867,9 +57957,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="724"/>
-      <c r="X28" s="724"/>
-      <c r="Y28" s="725"/>
+      <c r="W28" s="711"/>
+      <c r="X28" s="711"/>
+      <c r="Y28" s="712"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -58210,11 +58300,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="714">
+      <c r="M36" s="728">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="716">
+      <c r="N36" s="730">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -58222,7 +58312,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="760">
+      <c r="Q36" s="763">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -58247,13 +58337,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="715"/>
-      <c r="N37" s="717"/>
+      <c r="M37" s="729"/>
+      <c r="N37" s="731"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="761"/>
+      <c r="Q37" s="764"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -58303,11 +58393,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="762">
+      <c r="M39" s="765">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="763"/>
+      <c r="N39" s="766"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -58555,26 +58645,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="691" t="s">
+      <c r="H52" s="683" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="692"/>
+      <c r="I52" s="684"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="693">
+      <c r="K52" s="685">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="720"/>
+      <c r="L52" s="718"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="697" t="s">
+      <c r="D53" s="689" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="697"/>
+      <c r="E53" s="689"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -58583,22 +58673,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="721" t="s">
+      <c r="D54" s="719" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="721"/>
+      <c r="E54" s="719"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="698" t="s">
+      <c r="I54" s="690" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="699"/>
-      <c r="K54" s="700">
+      <c r="J54" s="691"/>
+      <c r="K54" s="692">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="700"/>
+      <c r="L54" s="692"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -58639,11 +58729,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="702">
+      <c r="K56" s="694">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="703"/>
+      <c r="L56" s="695"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -58660,22 +58750,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="680" t="s">
+      <c r="D58" s="672" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="681"/>
+      <c r="E58" s="673"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="682" t="s">
+      <c r="I58" s="674" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="683"/>
-      <c r="K58" s="684">
+      <c r="J58" s="675"/>
+      <c r="K58" s="676">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="684"/>
+      <c r="L58" s="676"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -58819,6 +58909,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -58835,20 +58939,6 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE    ZAVALETA   JUNIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE    ZAVALETA   JUNIO    2022.xlsx
@@ -710,7 +710,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1757" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="957">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -5607,7 +5607,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="809">
+  <cellXfs count="807">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -6967,16 +6967,45 @@
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="13" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7050,76 +7079,10 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7163,6 +7126,39 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7356,20 +7352,20 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="18" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -11764,23 +11760,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="696"/>
-      <c r="C1" s="698" t="s">
+      <c r="B1" s="670"/>
+      <c r="C1" s="672" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="699"/>
-      <c r="E1" s="699"/>
-      <c r="F1" s="699"/>
-      <c r="G1" s="699"/>
-      <c r="H1" s="699"/>
-      <c r="I1" s="699"/>
-      <c r="J1" s="699"/>
-      <c r="K1" s="699"/>
-      <c r="L1" s="699"/>
-      <c r="M1" s="699"/>
+      <c r="D1" s="673"/>
+      <c r="E1" s="673"/>
+      <c r="F1" s="673"/>
+      <c r="G1" s="673"/>
+      <c r="H1" s="673"/>
+      <c r="I1" s="673"/>
+      <c r="J1" s="673"/>
+      <c r="K1" s="673"/>
+      <c r="L1" s="673"/>
+      <c r="M1" s="673"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="697"/>
+      <c r="B2" s="671"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -11790,17 +11786,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="700" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="701"/>
+      <c r="B3" s="674" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="675"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="702" t="s">
+      <c r="H3" s="676" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="702"/>
+      <c r="I3" s="676"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -11814,14 +11810,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="703" t="s">
+      <c r="E4" s="677" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="704"/>
-      <c r="H4" s="705" t="s">
+      <c r="F4" s="678"/>
+      <c r="H4" s="679" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="706"/>
+      <c r="I4" s="680"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -11831,10 +11827,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="677" t="s">
+      <c r="P4" s="686" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="678"/>
+      <c r="Q4" s="687"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -13275,11 +13271,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="679">
+      <c r="M39" s="688">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="681">
+      <c r="N39" s="690">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -13305,8 +13301,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="680"/>
-      <c r="N40" s="682"/>
+      <c r="M40" s="689"/>
+      <c r="N40" s="691"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -13521,29 +13517,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="683" t="s">
+      <c r="H52" s="692" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="684"/>
+      <c r="I52" s="693"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="685">
+      <c r="K52" s="694">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="686"/>
-      <c r="M52" s="687">
+      <c r="L52" s="695"/>
+      <c r="M52" s="696">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="688"/>
+      <c r="N52" s="697"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="689" t="s">
+      <c r="D53" s="698" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="689"/>
+      <c r="E53" s="698"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -13554,22 +13550,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="689" t="s">
+      <c r="D54" s="698" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="689"/>
+      <c r="E54" s="698"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="690" t="s">
+      <c r="I54" s="699" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="691"/>
-      <c r="K54" s="692">
+      <c r="J54" s="700"/>
+      <c r="K54" s="701">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="693"/>
+      <c r="L54" s="702"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -13602,11 +13598,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="694">
+      <c r="K56" s="703">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="695"/>
+      <c r="L56" s="704"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -13623,22 +13619,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="672" t="s">
+      <c r="D58" s="681" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="673"/>
+      <c r="E58" s="682"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="674" t="s">
+      <c r="I58" s="683" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="675"/>
-      <c r="K58" s="676">
+      <c r="J58" s="684"/>
+      <c r="K58" s="685">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="676"/>
+      <c r="L58" s="685"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -13782,12 +13778,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -13802,6 +13792,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16262,10 +16258,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="768" t="s">
+      <c r="I76" s="766" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="769"/>
+      <c r="J76" s="767"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -16284,8 +16280,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="770"/>
-      <c r="J77" s="771"/>
+      <c r="I77" s="768"/>
+      <c r="J77" s="769"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -16352,7 +16348,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="734" t="s">
+      <c r="F80" s="732" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -16367,7 +16363,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="735"/>
+      <c r="F81" s="733"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -16375,10 +16371,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="767" t="s">
+      <c r="B82" s="765" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="767"/>
+      <c r="C82" s="765"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -16660,23 +16656,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="696"/>
-      <c r="C1" s="738" t="s">
+      <c r="B1" s="670"/>
+      <c r="C1" s="736" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="739"/>
-      <c r="E1" s="739"/>
-      <c r="F1" s="739"/>
-      <c r="G1" s="739"/>
-      <c r="H1" s="739"/>
-      <c r="I1" s="739"/>
-      <c r="J1" s="739"/>
-      <c r="K1" s="739"/>
-      <c r="L1" s="739"/>
-      <c r="M1" s="739"/>
+      <c r="D1" s="737"/>
+      <c r="E1" s="737"/>
+      <c r="F1" s="737"/>
+      <c r="G1" s="737"/>
+      <c r="H1" s="737"/>
+      <c r="I1" s="737"/>
+      <c r="J1" s="737"/>
+      <c r="K1" s="737"/>
+      <c r="L1" s="737"/>
+      <c r="M1" s="737"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="697"/>
+      <c r="B2" s="671"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -16686,24 +16682,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="700" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="701"/>
+      <c r="B3" s="674" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="675"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="702" t="s">
+      <c r="H3" s="676" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="702"/>
+      <c r="I3" s="676"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="726" t="s">
+      <c r="P3" s="713" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="736" t="s">
+      <c r="R3" s="734" t="s">
         <v>216</v>
       </c>
     </row>
@@ -16718,14 +16714,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="703" t="s">
+      <c r="E4" s="677" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="704"/>
-      <c r="H4" s="705" t="s">
+      <c r="F4" s="678"/>
+      <c r="H4" s="679" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="706"/>
+      <c r="I4" s="680"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -16735,15 +16731,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="727"/>
+      <c r="P4" s="714"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="737"/>
-      <c r="W4" s="709" t="s">
+      <c r="R4" s="735"/>
+      <c r="W4" s="723" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="709"/>
+      <c r="X4" s="723"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16794,8 +16790,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="709"/>
-      <c r="X5" s="709"/>
+      <c r="W5" s="723"/>
+      <c r="X5" s="723"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17558,7 +17554,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="713">
+      <c r="W19" s="727">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -17610,7 +17606,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="714"/>
+      <c r="W20" s="728"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -17659,8 +17655,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="715"/>
-      <c r="X21" s="715"/>
+      <c r="W21" s="729"/>
+      <c r="X21" s="729"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -17760,8 +17756,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="716"/>
-      <c r="X23" s="716"/>
+      <c r="W23" s="730"/>
+      <c r="X23" s="730"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -17816,8 +17812,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="716"/>
-      <c r="X24" s="716"/>
+      <c r="W24" s="730"/>
+      <c r="X24" s="730"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -17865,8 +17861,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="717"/>
-      <c r="X25" s="717"/>
+      <c r="W25" s="731"/>
+      <c r="X25" s="731"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -17915,8 +17911,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="717"/>
-      <c r="X26" s="717"/>
+      <c r="W26" s="731"/>
+      <c r="X26" s="731"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -17964,9 +17960,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="710"/>
-      <c r="X27" s="711"/>
-      <c r="Y27" s="712"/>
+      <c r="W27" s="724"/>
+      <c r="X27" s="725"/>
+      <c r="Y27" s="726"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18014,9 +18010,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="711"/>
-      <c r="X28" s="711"/>
-      <c r="Y28" s="712"/>
+      <c r="W28" s="725"/>
+      <c r="X28" s="725"/>
+      <c r="Y28" s="726"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18348,11 +18344,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="728">
+      <c r="M36" s="715">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="730">
+      <c r="N36" s="717">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -18360,7 +18356,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="763">
+      <c r="Q36" s="761">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -18385,13 +18381,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="729"/>
-      <c r="N37" s="731"/>
+      <c r="M37" s="716"/>
+      <c r="N37" s="718"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="764"/>
+      <c r="Q37" s="762"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -18441,11 +18437,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="765">
+      <c r="M39" s="763">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="766"/>
+      <c r="N39" s="764"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -19073,26 +19069,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="683" t="s">
+      <c r="H68" s="692" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="684"/>
+      <c r="I68" s="693"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="685">
+      <c r="K68" s="694">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="718"/>
+      <c r="L68" s="721"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="689" t="s">
+      <c r="D69" s="698" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="689"/>
+      <c r="E69" s="698"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -19101,22 +19097,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="719" t="s">
+      <c r="D70" s="722" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="719"/>
+      <c r="E70" s="722"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="690" t="s">
+      <c r="I70" s="699" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="691"/>
-      <c r="K70" s="692">
+      <c r="J70" s="700"/>
+      <c r="K70" s="701">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="692"/>
+      <c r="L70" s="701"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -19157,11 +19153,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="694">
+      <c r="K72" s="703">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="695"/>
+      <c r="L72" s="704"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -19178,22 +19174,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="672" t="s">
+      <c r="D74" s="681" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="673"/>
+      <c r="E74" s="682"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="674" t="s">
+      <c r="I74" s="683" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="675"/>
-      <c r="K74" s="676">
+      <c r="J74" s="684"/>
+      <c r="K74" s="685">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="676"/>
+      <c r="L74" s="685"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -19340,21 +19336,6 @@
     <sortCondition ref="B34:B42"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -19370,6 +19351,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21637,7 +21633,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="734" t="s">
+      <c r="F80" s="732" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -21650,7 +21646,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="735"/>
+      <c r="F81" s="733"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -21670,10 +21666,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="772" t="s">
+      <c r="I83" s="770" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="773"/>
+      <c r="J83" s="771"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="514" t="s">
@@ -21682,8 +21678,8 @@
       <c r="B84" s="515"/>
       <c r="C84" s="516"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="774"/>
-      <c r="J84" s="775"/>
+      <c r="I84" s="772"/>
+      <c r="J84" s="773"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -21955,23 +21951,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="696"/>
-      <c r="C1" s="738" t="s">
+      <c r="B1" s="670"/>
+      <c r="C1" s="736" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="739"/>
-      <c r="E1" s="739"/>
-      <c r="F1" s="739"/>
-      <c r="G1" s="739"/>
-      <c r="H1" s="739"/>
-      <c r="I1" s="739"/>
-      <c r="J1" s="739"/>
-      <c r="K1" s="739"/>
-      <c r="L1" s="739"/>
-      <c r="M1" s="739"/>
+      <c r="D1" s="737"/>
+      <c r="E1" s="737"/>
+      <c r="F1" s="737"/>
+      <c r="G1" s="737"/>
+      <c r="H1" s="737"/>
+      <c r="I1" s="737"/>
+      <c r="J1" s="737"/>
+      <c r="K1" s="737"/>
+      <c r="L1" s="737"/>
+      <c r="M1" s="737"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="697"/>
+      <c r="B2" s="671"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -21981,24 +21977,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="700" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="701"/>
+      <c r="B3" s="674" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="675"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="702" t="s">
+      <c r="H3" s="676" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="702"/>
+      <c r="I3" s="676"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="726" t="s">
+      <c r="P3" s="713" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="736" t="s">
+      <c r="R3" s="734" t="s">
         <v>216</v>
       </c>
     </row>
@@ -22013,14 +22009,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="703" t="s">
+      <c r="E4" s="677" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="704"/>
-      <c r="H4" s="705" t="s">
+      <c r="F4" s="678"/>
+      <c r="H4" s="679" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="706"/>
+      <c r="I4" s="680"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -22030,15 +22026,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="727"/>
+      <c r="P4" s="714"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="737"/>
-      <c r="W4" s="709" t="s">
+      <c r="R4" s="735"/>
+      <c r="W4" s="723" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="709"/>
+      <c r="X4" s="723"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22089,8 +22085,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="709"/>
-      <c r="X5" s="709"/>
+      <c r="W5" s="723"/>
+      <c r="X5" s="723"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22849,7 +22845,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="713">
+      <c r="W19" s="727">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -22901,7 +22897,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="714"/>
+      <c r="W20" s="728"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -22950,8 +22946,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="715"/>
-      <c r="X21" s="715"/>
+      <c r="W21" s="729"/>
+      <c r="X21" s="729"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -23048,8 +23044,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="716"/>
-      <c r="X23" s="716"/>
+      <c r="W23" s="730"/>
+      <c r="X23" s="730"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -23104,8 +23100,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="716"/>
-      <c r="X24" s="716"/>
+      <c r="W24" s="730"/>
+      <c r="X24" s="730"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -23151,8 +23147,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="717"/>
-      <c r="X25" s="717"/>
+      <c r="W25" s="731"/>
+      <c r="X25" s="731"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -23203,8 +23199,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="717"/>
-      <c r="X26" s="717"/>
+      <c r="W26" s="731"/>
+      <c r="X26" s="731"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -23255,9 +23251,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="710"/>
-      <c r="X27" s="711"/>
-      <c r="Y27" s="712"/>
+      <c r="W27" s="724"/>
+      <c r="X27" s="725"/>
+      <c r="Y27" s="726"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23307,9 +23303,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="711"/>
-      <c r="X28" s="711"/>
-      <c r="Y28" s="712"/>
+      <c r="W28" s="725"/>
+      <c r="X28" s="725"/>
+      <c r="Y28" s="726"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23913,11 +23909,11 @@
       <c r="L41" s="627">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="728">
+      <c r="M41" s="715">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="728">
+      <c r="N41" s="715">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -23925,7 +23921,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="776">
+      <c r="Q41" s="774">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -23955,10 +23951,10 @@
       <c r="L42" s="630">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="729"/>
-      <c r="N42" s="729"/>
+      <c r="M42" s="716"/>
+      <c r="N42" s="716"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="777"/>
+      <c r="Q42" s="775"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -24046,11 +24042,11 @@
       <c r="L45" s="627">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="778">
+      <c r="M45" s="776">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="779"/>
+      <c r="N45" s="777"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -24643,26 +24639,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="683" t="s">
+      <c r="H70" s="692" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="684"/>
+      <c r="I70" s="693"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="685">
+      <c r="K70" s="694">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="718"/>
+      <c r="L70" s="721"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="689" t="s">
+      <c r="D71" s="698" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="689"/>
+      <c r="E71" s="698"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -24672,22 +24668,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="719" t="s">
+      <c r="D72" s="722" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="719"/>
+      <c r="E72" s="722"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="690" t="s">
+      <c r="I72" s="699" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="691"/>
-      <c r="K72" s="692">
+      <c r="J72" s="700"/>
+      <c r="K72" s="701">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="692"/>
+      <c r="L72" s="701"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -24728,11 +24724,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="694">
+      <c r="K74" s="703">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="695"/>
+      <c r="L74" s="704"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -24751,22 +24747,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="672" t="s">
+      <c r="D76" s="681" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="673"/>
+      <c r="E76" s="682"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="674" t="s">
+      <c r="I76" s="683" t="s">
         <v>854</v>
       </c>
-      <c r="J76" s="675"/>
-      <c r="K76" s="676">
+      <c r="J76" s="684"/>
+      <c r="K76" s="685">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="676"/>
+      <c r="L76" s="685"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -24926,21 +24922,6 @@
     <sortCondition ref="J47:J67"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -24956,6 +24937,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -27471,7 +27467,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="734" t="s">
+      <c r="F90" s="732" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -27484,7 +27480,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="735"/>
+      <c r="F91" s="733"/>
       <c r="K91" s="1"/>
       <c r="L91" s="97"/>
       <c r="M91" s="3"/>
@@ -27503,10 +27499,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="772" t="s">
+      <c r="I93" s="770" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="773"/>
+      <c r="J93" s="771"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -27516,8 +27512,8 @@
       <c r="C94" s="518"/>
       <c r="D94" s="519"/>
       <c r="E94" s="520"/>
-      <c r="I94" s="774"/>
-      <c r="J94" s="775"/>
+      <c r="I94" s="772"/>
+      <c r="J94" s="773"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -27958,11 +27954,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="780">
+      <c r="C130" s="778">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="781"/>
+      <c r="D130" s="779"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -27998,21 +27994,21 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="786" t="s">
+      <c r="F2" s="784" t="s">
         <v>752</v>
       </c>
-      <c r="G2" s="787"/>
-      <c r="H2" s="788"/>
+      <c r="G2" s="785"/>
+      <c r="H2" s="786"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="783" t="s">
+      <c r="B3" s="781" t="s">
         <v>748</v>
       </c>
-      <c r="C3" s="784"/>
-      <c r="D3" s="785"/>
-      <c r="F3" s="789"/>
-      <c r="G3" s="790"/>
-      <c r="H3" s="791"/>
+      <c r="C3" s="782"/>
+      <c r="D3" s="783"/>
+      <c r="F3" s="787"/>
+      <c r="G3" s="788"/>
+      <c r="H3" s="789"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="526" t="s">
@@ -28157,11 +28153,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="792">
+      <c r="G11" s="790">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="793"/>
+      <c r="H11" s="791"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="532" t="s">
@@ -28178,23 +28174,23 @@
       <c r="C14" s="532"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="796" t="s">
+      <c r="C15" s="794" t="s">
         <v>750</v>
       </c>
-      <c r="D15" s="794">
+      <c r="D15" s="792">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="797"/>
-      <c r="D16" s="795"/>
+      <c r="C16" s="795"/>
+      <c r="D16" s="793"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="782" t="s">
+      <c r="C17" s="780" t="s">
         <v>753</v>
       </c>
-      <c r="D17" s="782"/>
+      <c r="D17" s="780"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -28252,23 +28248,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="696"/>
-      <c r="C1" s="738" t="s">
+      <c r="B1" s="670"/>
+      <c r="C1" s="736" t="s">
         <v>754</v>
       </c>
-      <c r="D1" s="739"/>
-      <c r="E1" s="739"/>
-      <c r="F1" s="739"/>
-      <c r="G1" s="739"/>
-      <c r="H1" s="739"/>
-      <c r="I1" s="739"/>
-      <c r="J1" s="739"/>
-      <c r="K1" s="739"/>
-      <c r="L1" s="739"/>
-      <c r="M1" s="739"/>
+      <c r="D1" s="737"/>
+      <c r="E1" s="737"/>
+      <c r="F1" s="737"/>
+      <c r="G1" s="737"/>
+      <c r="H1" s="737"/>
+      <c r="I1" s="737"/>
+      <c r="J1" s="737"/>
+      <c r="K1" s="737"/>
+      <c r="L1" s="737"/>
+      <c r="M1" s="737"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="697"/>
+      <c r="B2" s="671"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -28278,24 +28274,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="700" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="701"/>
+      <c r="B3" s="674" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="675"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="702" t="s">
+      <c r="H3" s="676" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="702"/>
+      <c r="I3" s="676"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="726" t="s">
+      <c r="P3" s="713" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="736" t="s">
+      <c r="R3" s="734" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -28314,14 +28310,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="703" t="s">
+      <c r="E4" s="677" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="704"/>
-      <c r="H4" s="705" t="s">
+      <c r="F4" s="678"/>
+      <c r="H4" s="679" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="706"/>
+      <c r="I4" s="680"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -28331,15 +28327,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="727"/>
+      <c r="P4" s="714"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="737"/>
+      <c r="R4" s="735"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="801"/>
-      <c r="X4" s="801"/>
+      <c r="W4" s="796"/>
+      <c r="X4" s="796"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -28393,8 +28389,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="801"/>
-      <c r="X5" s="801"/>
+      <c r="W5" s="796"/>
+      <c r="X5" s="796"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29160,7 +29156,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="802"/>
+      <c r="W19" s="797"/>
       <c r="X19" s="544"/>
       <c r="Y19" s="233"/>
     </row>
@@ -29214,7 +29210,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="802"/>
+      <c r="W20" s="797"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -29269,8 +29265,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="715"/>
-      <c r="X21" s="715"/>
+      <c r="W21" s="729"/>
+      <c r="X21" s="729"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -29381,8 +29377,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="716"/>
-      <c r="X23" s="716"/>
+      <c r="W23" s="730"/>
+      <c r="X23" s="730"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -29443,8 +29439,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="716"/>
-      <c r="X24" s="716"/>
+      <c r="W24" s="730"/>
+      <c r="X24" s="730"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -29497,8 +29493,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="717"/>
-      <c r="X25" s="717"/>
+      <c r="W25" s="731"/>
+      <c r="X25" s="731"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -29553,8 +29549,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="717"/>
-      <c r="X26" s="717"/>
+      <c r="W26" s="731"/>
+      <c r="X26" s="731"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -29609,9 +29605,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="710"/>
-      <c r="X27" s="711"/>
-      <c r="Y27" s="712"/>
+      <c r="W27" s="724"/>
+      <c r="X27" s="725"/>
+      <c r="Y27" s="726"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29665,9 +29661,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="711"/>
-      <c r="X28" s="711"/>
-      <c r="Y28" s="712"/>
+      <c r="W28" s="725"/>
+      <c r="X28" s="725"/>
+      <c r="Y28" s="726"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30258,11 +30254,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="728">
+      <c r="M41" s="715">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="728">
+      <c r="N41" s="715">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -30270,7 +30266,7 @@
         <f>SUM(P5:P40)</f>
         <v>4043205.8900000006</v>
       </c>
-      <c r="Q41" s="776">
+      <c r="Q41" s="774">
         <f>SUM(Q5:Q40)</f>
         <v>890559.8899999999</v>
       </c>
@@ -30294,10 +30290,10 @@
       <c r="L42" s="641">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="729"/>
-      <c r="N42" s="729"/>
+      <c r="M42" s="716"/>
+      <c r="N42" s="716"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="777"/>
+      <c r="Q42" s="775"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -30366,11 +30362,11 @@
       <c r="L45" s="619">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="778">
+      <c r="M45" s="776">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="779"/>
+      <c r="N45" s="777"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -30786,26 +30782,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="683" t="s">
+      <c r="H63" s="692" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="684"/>
+      <c r="I63" s="693"/>
       <c r="J63" s="562"/>
-      <c r="K63" s="798">
+      <c r="K63" s="799">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="799"/>
+      <c r="L63" s="800"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="689" t="s">
+      <c r="D64" s="698" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="689"/>
+      <c r="E64" s="698"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -30814,22 +30810,22 @@
       <c r="J64" s="563"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="719" t="s">
+      <c r="D65" s="722" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="719"/>
+      <c r="E65" s="722"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="690" t="s">
+      <c r="I65" s="699" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="691"/>
-      <c r="K65" s="692">
+      <c r="J65" s="700"/>
+      <c r="K65" s="701">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="692"/>
+      <c r="L65" s="701"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="582"/>
@@ -30870,11 +30866,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="800">
+      <c r="K67" s="798">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="692"/>
+      <c r="L67" s="701"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -30891,22 +30887,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="672" t="s">
+      <c r="D69" s="681" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="673"/>
+      <c r="E69" s="682"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="674" t="s">
+      <c r="I69" s="683" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="675"/>
-      <c r="K69" s="676">
+      <c r="J69" s="684"/>
+      <c r="K69" s="685">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="676"/>
+      <c r="L69" s="685"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -31053,6 +31049,21 @@
     <sortCondition ref="J42:J56"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -31068,21 +31079,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33056,7 +33052,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="734" t="s">
+      <c r="F71" s="732" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -33069,7 +33065,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="735"/>
+      <c r="F72" s="733"/>
       <c r="K72" s="1"/>
       <c r="L72" s="97"/>
       <c r="M72" s="3"/>
@@ -33088,10 +33084,10 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="772" t="s">
+      <c r="I74" s="770" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="773"/>
+      <c r="J74" s="771"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
@@ -33100,8 +33096,8 @@
       <c r="D75" s="655"/>
       <c r="E75" s="520"/>
       <c r="F75" s="111"/>
-      <c r="I75" s="774"/>
-      <c r="J75" s="775"/>
+      <c r="I75" s="772"/>
+      <c r="J75" s="773"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
@@ -33235,11 +33231,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="805" t="s">
+      <c r="A89" s="803" t="s">
         <v>806</v>
       </c>
-      <c r="B89" s="806"/>
-      <c r="C89" s="806"/>
+      <c r="B89" s="804"/>
+      <c r="C89" s="804"/>
       <c r="E89"/>
       <c r="F89" s="111"/>
       <c r="I89"/>
@@ -33249,10 +33245,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="807" t="s">
+      <c r="B90" s="805" t="s">
         <v>807</v>
       </c>
-      <c r="C90" s="808"/>
+      <c r="C90" s="806"/>
       <c r="E90"/>
       <c r="F90" s="111"/>
       <c r="I90"/>
@@ -33353,7 +33349,7 @@
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="663"/>
-      <c r="C97" s="803">
+      <c r="C97" s="801">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -33367,7 +33363,7 @@
       <c r="B98" s="664" t="s">
         <v>885</v>
       </c>
-      <c r="C98" s="804"/>
+      <c r="C98" s="802"/>
       <c r="E98"/>
       <c r="F98" s="127">
         <v>0</v>
@@ -33440,8 +33436,8 @@
   </sheetPr>
   <dimension ref="A1:Z91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M39" sqref="M39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -33471,23 +33467,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="696"/>
-      <c r="C1" s="738" t="s">
+      <c r="B1" s="670"/>
+      <c r="C1" s="736" t="s">
         <v>886</v>
       </c>
-      <c r="D1" s="739"/>
-      <c r="E1" s="739"/>
-      <c r="F1" s="739"/>
-      <c r="G1" s="739"/>
-      <c r="H1" s="739"/>
-      <c r="I1" s="739"/>
-      <c r="J1" s="739"/>
-      <c r="K1" s="739"/>
-      <c r="L1" s="739"/>
-      <c r="M1" s="739"/>
+      <c r="D1" s="737"/>
+      <c r="E1" s="737"/>
+      <c r="F1" s="737"/>
+      <c r="G1" s="737"/>
+      <c r="H1" s="737"/>
+      <c r="I1" s="737"/>
+      <c r="J1" s="737"/>
+      <c r="K1" s="737"/>
+      <c r="L1" s="737"/>
+      <c r="M1" s="737"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="697"/>
+      <c r="B2" s="671"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -33497,24 +33493,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="700" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="701"/>
+      <c r="B3" s="674" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="675"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="702" t="s">
+      <c r="H3" s="676" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="702"/>
+      <c r="I3" s="676"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="726" t="s">
+      <c r="P3" s="713" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="736" t="s">
+      <c r="R3" s="734" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -33533,14 +33529,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="703" t="s">
+      <c r="E4" s="677" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="704"/>
-      <c r="H4" s="705" t="s">
+      <c r="F4" s="678"/>
+      <c r="H4" s="679" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="706"/>
+      <c r="I4" s="680"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -33550,15 +33546,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="727"/>
+      <c r="P4" s="714"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="737"/>
+      <c r="R4" s="735"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="801"/>
-      <c r="X4" s="801"/>
+      <c r="W4" s="796"/>
+      <c r="X4" s="796"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33613,8 +33609,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="801"/>
-      <c r="X5" s="801"/>
+      <c r="W5" s="796"/>
+      <c r="X5" s="796"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34390,7 +34386,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="802"/>
+      <c r="W19" s="797"/>
       <c r="X19" s="544"/>
       <c r="Y19" s="233"/>
     </row>
@@ -34444,7 +34440,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="802"/>
+      <c r="W20" s="797"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -34498,8 +34494,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="715"/>
-      <c r="X21" s="715"/>
+      <c r="W21" s="729"/>
+      <c r="X21" s="729"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -34608,8 +34604,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="716"/>
-      <c r="X23" s="716"/>
+      <c r="W23" s="730"/>
+      <c r="X23" s="730"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -34669,8 +34665,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="716"/>
-      <c r="X24" s="716"/>
+      <c r="W24" s="730"/>
+      <c r="X24" s="730"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -34723,8 +34719,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="717"/>
-      <c r="X25" s="717"/>
+      <c r="W25" s="731"/>
+      <c r="X25" s="731"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -34779,8 +34775,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="717"/>
-      <c r="X26" s="717"/>
+      <c r="W26" s="731"/>
+      <c r="X26" s="731"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -34835,9 +34831,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="710"/>
-      <c r="X27" s="711"/>
-      <c r="Y27" s="712"/>
+      <c r="W27" s="724"/>
+      <c r="X27" s="725"/>
+      <c r="Y27" s="726"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34892,9 +34888,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="711"/>
-      <c r="X28" s="711"/>
-      <c r="Y28" s="712"/>
+      <c r="W28" s="725"/>
+      <c r="X28" s="725"/>
+      <c r="Y28" s="726"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -35259,13 +35255,15 @@
       <c r="J35" s="560"/>
       <c r="K35" s="571"/>
       <c r="L35" s="69"/>
-      <c r="M35" s="669">
+      <c r="M35" s="32">
         <v>35929.5</v>
       </c>
       <c r="N35" s="33">
         <v>28166</v>
       </c>
-      <c r="O35" s="666"/>
+      <c r="O35" s="666" t="s">
+        <v>941</v>
+      </c>
       <c r="P35" s="34">
         <f t="shared" si="1"/>
         <v>89000</v>
@@ -35301,7 +35299,7 @@
       <c r="F36" s="28">
         <v>86153</v>
       </c>
-      <c r="G36" s="670"/>
+      <c r="G36" s="668"/>
       <c r="H36" s="29">
         <v>44742</v>
       </c>
@@ -35311,13 +35309,15 @@
       <c r="J36" s="560"/>
       <c r="K36" s="572"/>
       <c r="L36" s="9"/>
-      <c r="M36" s="669">
+      <c r="M36" s="32">
         <v>60715.5</v>
       </c>
       <c r="N36" s="33">
         <v>22827</v>
       </c>
-      <c r="O36" s="667"/>
+      <c r="O36" s="666" t="s">
+        <v>941</v>
+      </c>
       <c r="P36" s="34">
         <f t="shared" si="1"/>
         <v>86153</v>
@@ -35352,7 +35352,7 @@
       <c r="F37" s="28">
         <v>108790</v>
       </c>
-      <c r="G37" s="670"/>
+      <c r="G37" s="668"/>
       <c r="H37" s="29">
         <v>44743</v>
       </c>
@@ -35362,13 +35362,15 @@
       <c r="J37" s="56"/>
       <c r="K37" s="38"/>
       <c r="L37" s="39"/>
-      <c r="M37" s="669">
+      <c r="M37" s="32">
         <v>59436</v>
       </c>
       <c r="N37" s="33">
         <v>31374</v>
       </c>
-      <c r="O37" s="667"/>
+      <c r="O37" s="666" t="s">
+        <v>941</v>
+      </c>
       <c r="P37" s="34">
         <f t="shared" si="1"/>
         <v>108790</v>
@@ -35402,7 +35404,7 @@
       <c r="F38" s="28">
         <v>129052</v>
       </c>
-      <c r="G38" s="670"/>
+      <c r="G38" s="668"/>
       <c r="H38" s="29">
         <v>44744</v>
       </c>
@@ -35412,19 +35414,21 @@
       <c r="J38" s="56">
         <v>44744</v>
       </c>
-      <c r="K38" s="671" t="s">
+      <c r="K38" s="669" t="s">
         <v>955</v>
       </c>
       <c r="L38" s="39">
         <v>15579</v>
       </c>
-      <c r="M38" s="669">
+      <c r="M38" s="32">
         <v>39379.5</v>
       </c>
       <c r="N38" s="33">
         <v>58895</v>
       </c>
-      <c r="O38" s="666"/>
+      <c r="O38" s="666" t="s">
+        <v>941</v>
+      </c>
       <c r="P38" s="34">
         <f>N38+M38+L38+I38+C38</f>
         <v>129052</v>
@@ -35458,7 +35462,7 @@
       <c r="F39" s="509">
         <v>87809</v>
       </c>
-      <c r="G39" s="670"/>
+      <c r="G39" s="668"/>
       <c r="H39" s="29">
         <v>44745</v>
       </c>
@@ -35466,15 +35470,17 @@
         <v>243</v>
       </c>
       <c r="J39" s="56"/>
-      <c r="K39" s="671"/>
+      <c r="K39" s="669"/>
       <c r="L39" s="39"/>
-      <c r="M39" s="669">
+      <c r="M39" s="32">
         <v>48212</v>
       </c>
       <c r="N39" s="33">
         <v>29225</v>
       </c>
-      <c r="O39" s="666"/>
+      <c r="O39" s="666" t="s">
+        <v>941</v>
+      </c>
       <c r="P39" s="34">
         <f t="shared" si="1"/>
         <v>87809</v>
@@ -35541,11 +35547,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="728">
+      <c r="M41" s="715">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="728">
+      <c r="N41" s="715">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -35553,7 +35559,7 @@
         <f>SUM(P5:P40)</f>
         <v>3810957.55</v>
       </c>
-      <c r="Q41" s="776">
+      <c r="Q41" s="774">
         <f>SUM(Q5:Q40)</f>
         <v>30.55000000000291</v>
       </c>
@@ -35577,10 +35583,10 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="729"/>
-      <c r="N42" s="729"/>
+      <c r="M42" s="716"/>
+      <c r="N42" s="716"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="777"/>
+      <c r="Q42" s="775"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -35619,7 +35625,7 @@
       <c r="J44" s="56">
         <v>44737</v>
       </c>
-      <c r="K44" s="668" t="s">
+      <c r="K44" s="667" t="s">
         <v>947</v>
       </c>
       <c r="L44" s="39">
@@ -35649,11 +35655,11 @@
       <c r="L45" s="39">
         <v>20521</v>
       </c>
-      <c r="M45" s="778">
+      <c r="M45" s="776">
         <f>M41+N41</f>
         <v>3051337</v>
       </c>
-      <c r="N45" s="779"/>
+      <c r="N45" s="777"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -35976,26 +35982,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="683" t="s">
+      <c r="H63" s="692" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="684"/>
+      <c r="I63" s="693"/>
       <c r="J63" s="562"/>
-      <c r="K63" s="798">
+      <c r="K63" s="799">
         <f>I61+L61</f>
         <v>281592.79000000004</v>
       </c>
-      <c r="L63" s="799"/>
+      <c r="L63" s="800"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="689" t="s">
+      <c r="D64" s="698" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="689"/>
+      <c r="E64" s="698"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>2928590.71</v>
@@ -36004,22 +36010,22 @@
       <c r="J64" s="563"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="719" t="s">
+      <c r="D65" s="722" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="719"/>
+      <c r="E65" s="722"/>
       <c r="F65" s="111">
         <v>0</v>
       </c>
-      <c r="I65" s="690" t="s">
+      <c r="I65" s="699" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="691"/>
-      <c r="K65" s="692">
+      <c r="J65" s="700"/>
+      <c r="K65" s="701">
         <f>F67+F68+F69</f>
         <v>5284017.25</v>
       </c>
-      <c r="L65" s="692"/>
+      <c r="L65" s="701"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="659"/>
@@ -36060,11 +36066,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="800">
+      <c r="K67" s="798">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L67" s="692"/>
+      <c r="L67" s="701"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -36081,22 +36087,22 @@
       <c r="C69" s="112">
         <v>44745</v>
       </c>
-      <c r="D69" s="672" t="s">
+      <c r="D69" s="681" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="673"/>
+      <c r="E69" s="682"/>
       <c r="F69" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I69" s="674" t="s">
+      <c r="I69" s="683" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="675"/>
-      <c r="K69" s="676">
+      <c r="J69" s="684"/>
+      <c r="K69" s="685">
         <f>K65+K67</f>
         <v>2737035.09</v>
       </c>
-      <c r="L69" s="676"/>
+      <c r="L69" s="685"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -36240,26 +36246,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="I69:J69"/>
     <mergeCell ref="K69:L69"/>
@@ -36270,6 +36256,26 @@
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="I65:J65"/>
     <mergeCell ref="K65:L65"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -37812,10 +37818,10 @@
         <f>SUM(F3:F66)</f>
         <v>1179801.69</v>
       </c>
-      <c r="H67" s="772" t="s">
+      <c r="H67" s="770" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="773"/>
+      <c r="I67" s="771"/>
       <c r="J67" s="647">
         <f>SUM(J3:J66)</f>
         <v>0</v>
@@ -37835,11 +37841,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="734" t="s">
+      <c r="F68" s="732" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="774"/>
-      <c r="I68" s="775"/>
+      <c r="H68" s="772"/>
+      <c r="I68" s="773"/>
       <c r="J68" s="1"/>
       <c r="K68" s="97"/>
       <c r="L68" s="3"/>
@@ -37850,7 +37856,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="735"/>
+      <c r="F69" s="733"/>
       <c r="J69" s="1"/>
       <c r="K69" s="97"/>
       <c r="L69" s="3"/>
@@ -39790,7 +39796,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="707" t="s">
+      <c r="B41" s="705" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -39822,7 +39828,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="708"/>
+      <c r="B42" s="706"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -41442,23 +41448,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="696"/>
-      <c r="C1" s="698" t="s">
+      <c r="B1" s="670"/>
+      <c r="C1" s="672" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="699"/>
-      <c r="E1" s="699"/>
-      <c r="F1" s="699"/>
-      <c r="G1" s="699"/>
-      <c r="H1" s="699"/>
-      <c r="I1" s="699"/>
-      <c r="J1" s="699"/>
-      <c r="K1" s="699"/>
-      <c r="L1" s="699"/>
-      <c r="M1" s="699"/>
+      <c r="D1" s="673"/>
+      <c r="E1" s="673"/>
+      <c r="F1" s="673"/>
+      <c r="G1" s="673"/>
+      <c r="H1" s="673"/>
+      <c r="I1" s="673"/>
+      <c r="J1" s="673"/>
+      <c r="K1" s="673"/>
+      <c r="L1" s="673"/>
+      <c r="M1" s="673"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="697"/>
+      <c r="B2" s="671"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -41468,21 +41474,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="700" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="701"/>
+      <c r="B3" s="674" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="675"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="702" t="s">
+      <c r="H3" s="676" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="702"/>
+      <c r="I3" s="676"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="726" t="s">
+      <c r="P3" s="713" t="s">
         <v>6</v>
       </c>
     </row>
@@ -41497,14 +41503,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="703" t="s">
+      <c r="E4" s="677" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="704"/>
-      <c r="H4" s="705" t="s">
+      <c r="F4" s="678"/>
+      <c r="H4" s="679" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="706"/>
+      <c r="I4" s="680"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -41514,14 +41520,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="727"/>
+      <c r="P4" s="714"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="709" t="s">
+      <c r="W4" s="723" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="709"/>
+      <c r="X4" s="723"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -41572,8 +41578,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="709"/>
-      <c r="X5" s="709"/>
+      <c r="W5" s="723"/>
+      <c r="X5" s="723"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42344,7 +42350,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="713">
+      <c r="W19" s="727">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -42396,7 +42402,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="714"/>
+      <c r="W20" s="728"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -42445,8 +42451,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="715"/>
-      <c r="X21" s="715"/>
+      <c r="W21" s="729"/>
+      <c r="X21" s="729"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -42547,8 +42553,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="716"/>
-      <c r="X23" s="716"/>
+      <c r="W23" s="730"/>
+      <c r="X23" s="730"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -42602,8 +42608,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="716"/>
-      <c r="X24" s="716"/>
+      <c r="W24" s="730"/>
+      <c r="X24" s="730"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -42649,8 +42655,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="717"/>
-      <c r="X25" s="717"/>
+      <c r="W25" s="731"/>
+      <c r="X25" s="731"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -42701,8 +42707,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="717"/>
-      <c r="X26" s="717"/>
+      <c r="W26" s="731"/>
+      <c r="X26" s="731"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -42750,9 +42756,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="710"/>
-      <c r="X27" s="711"/>
-      <c r="Y27" s="712"/>
+      <c r="W27" s="724"/>
+      <c r="X27" s="725"/>
+      <c r="Y27" s="726"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42802,9 +42808,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="711"/>
-      <c r="X28" s="711"/>
-      <c r="Y28" s="712"/>
+      <c r="W28" s="725"/>
+      <c r="X28" s="725"/>
+      <c r="Y28" s="726"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -43139,11 +43145,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="728">
+      <c r="M36" s="715">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="730">
+      <c r="N36" s="717">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -43151,7 +43157,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="732">
+      <c r="Q36" s="719">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -43186,13 +43192,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="729"/>
-      <c r="N37" s="731"/>
+      <c r="M37" s="716"/>
+      <c r="N37" s="718"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="733"/>
+      <c r="Q37" s="720"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -43482,26 +43488,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="683" t="s">
+      <c r="H52" s="692" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="684"/>
+      <c r="I52" s="693"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="685">
+      <c r="K52" s="694">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="718"/>
+      <c r="L52" s="721"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="689" t="s">
+      <c r="D53" s="698" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="689"/>
+      <c r="E53" s="698"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -43510,29 +43516,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="719" t="s">
+      <c r="D54" s="722" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="719"/>
+      <c r="E54" s="722"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="690" t="s">
+      <c r="I54" s="699" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="691"/>
-      <c r="K54" s="692">
+      <c r="J54" s="700"/>
+      <c r="K54" s="701">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="692"/>
-      <c r="M54" s="720" t="s">
+      <c r="L54" s="701"/>
+      <c r="M54" s="707" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="721"/>
-      <c r="O54" s="721"/>
-      <c r="P54" s="721"/>
-      <c r="Q54" s="722"/>
+      <c r="N54" s="708"/>
+      <c r="O54" s="708"/>
+      <c r="P54" s="708"/>
+      <c r="Q54" s="709"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -43546,11 +43552,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="723"/>
-      <c r="N55" s="724"/>
-      <c r="O55" s="724"/>
-      <c r="P55" s="724"/>
-      <c r="Q55" s="725"/>
+      <c r="M55" s="710"/>
+      <c r="N55" s="711"/>
+      <c r="O55" s="711"/>
+      <c r="P55" s="711"/>
+      <c r="Q55" s="712"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -43568,11 +43574,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="694">
+      <c r="K56" s="703">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="695"/>
+      <c r="L56" s="704"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -43589,22 +43595,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="672" t="s">
+      <c r="D58" s="681" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="673"/>
+      <c r="E58" s="682"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="674" t="s">
+      <c r="I58" s="683" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="675"/>
-      <c r="K58" s="676">
+      <c r="J58" s="684"/>
+      <c r="K58" s="685">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="676"/>
+      <c r="L58" s="685"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -43748,17 +43754,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -43769,14 +43772,17 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -46194,7 +46200,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="734" t="s">
+      <c r="F87" s="732" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -46207,7 +46213,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="735"/>
+      <c r="F88" s="733"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -46519,23 +46525,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="696"/>
-      <c r="C1" s="698" t="s">
+      <c r="B1" s="670"/>
+      <c r="C1" s="672" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="699"/>
-      <c r="E1" s="699"/>
-      <c r="F1" s="699"/>
-      <c r="G1" s="699"/>
-      <c r="H1" s="699"/>
-      <c r="I1" s="699"/>
-      <c r="J1" s="699"/>
-      <c r="K1" s="699"/>
-      <c r="L1" s="699"/>
-      <c r="M1" s="699"/>
+      <c r="D1" s="673"/>
+      <c r="E1" s="673"/>
+      <c r="F1" s="673"/>
+      <c r="G1" s="673"/>
+      <c r="H1" s="673"/>
+      <c r="I1" s="673"/>
+      <c r="J1" s="673"/>
+      <c r="K1" s="673"/>
+      <c r="L1" s="673"/>
+      <c r="M1" s="673"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="697"/>
+      <c r="B2" s="671"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -46545,24 +46551,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="700" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="701"/>
+      <c r="B3" s="674" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="675"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="702" t="s">
+      <c r="H3" s="676" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="702"/>
+      <c r="I3" s="676"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="726" t="s">
+      <c r="P3" s="713" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="736" t="s">
+      <c r="R3" s="734" t="s">
         <v>216</v>
       </c>
     </row>
@@ -46577,14 +46583,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="703" t="s">
+      <c r="E4" s="677" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="704"/>
-      <c r="H4" s="705" t="s">
+      <c r="F4" s="678"/>
+      <c r="H4" s="679" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="706"/>
+      <c r="I4" s="680"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -46594,15 +46600,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="727"/>
+      <c r="P4" s="714"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="737"/>
-      <c r="W4" s="709" t="s">
+      <c r="R4" s="735"/>
+      <c r="W4" s="723" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="709"/>
+      <c r="X4" s="723"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -46663,8 +46669,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="709"/>
-      <c r="X5" s="709"/>
+      <c r="W5" s="723"/>
+      <c r="X5" s="723"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47421,7 +47427,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="713">
+      <c r="W19" s="727">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -47473,7 +47479,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="714"/>
+      <c r="W20" s="728"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -47522,8 +47528,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="715"/>
-      <c r="X21" s="715"/>
+      <c r="W21" s="729"/>
+      <c r="X21" s="729"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -47624,8 +47630,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="716"/>
-      <c r="X23" s="716"/>
+      <c r="W23" s="730"/>
+      <c r="X23" s="730"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -47676,8 +47682,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="716"/>
-      <c r="X24" s="716"/>
+      <c r="W24" s="730"/>
+      <c r="X24" s="730"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -47723,8 +47729,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="717"/>
-      <c r="X25" s="717"/>
+      <c r="W25" s="731"/>
+      <c r="X25" s="731"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -47772,8 +47778,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="717"/>
-      <c r="X26" s="717"/>
+      <c r="W26" s="731"/>
+      <c r="X26" s="731"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -47833,9 +47839,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="710"/>
-      <c r="X27" s="711"/>
-      <c r="Y27" s="712"/>
+      <c r="W27" s="724"/>
+      <c r="X27" s="725"/>
+      <c r="Y27" s="726"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47889,9 +47895,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="711"/>
-      <c r="X28" s="711"/>
-      <c r="Y28" s="712"/>
+      <c r="W28" s="725"/>
+      <c r="X28" s="725"/>
+      <c r="Y28" s="726"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -48207,11 +48213,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="728">
+      <c r="M36" s="715">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="730">
+      <c r="N36" s="717">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -48219,7 +48225,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="732">
+      <c r="Q36" s="719">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -48238,13 +48244,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="729"/>
-      <c r="N37" s="731"/>
+      <c r="M37" s="716"/>
+      <c r="N37" s="718"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="733"/>
+      <c r="Q37" s="720"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -48518,26 +48524,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="683" t="s">
+      <c r="H52" s="692" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="684"/>
+      <c r="I52" s="693"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="685">
+      <c r="K52" s="694">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="718"/>
+      <c r="L52" s="721"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="689" t="s">
+      <c r="D53" s="698" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="689"/>
+      <c r="E53" s="698"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -48546,29 +48552,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="719" t="s">
+      <c r="D54" s="722" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="719"/>
+      <c r="E54" s="722"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="690" t="s">
+      <c r="I54" s="699" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="691"/>
-      <c r="K54" s="692">
+      <c r="J54" s="700"/>
+      <c r="K54" s="701">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="692"/>
-      <c r="M54" s="720" t="s">
+      <c r="L54" s="701"/>
+      <c r="M54" s="707" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="721"/>
-      <c r="O54" s="721"/>
-      <c r="P54" s="721"/>
-      <c r="Q54" s="722"/>
+      <c r="N54" s="708"/>
+      <c r="O54" s="708"/>
+      <c r="P54" s="708"/>
+      <c r="Q54" s="709"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -48582,11 +48588,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="723"/>
-      <c r="N55" s="724"/>
-      <c r="O55" s="724"/>
-      <c r="P55" s="724"/>
-      <c r="Q55" s="725"/>
+      <c r="M55" s="710"/>
+      <c r="N55" s="711"/>
+      <c r="O55" s="711"/>
+      <c r="P55" s="711"/>
+      <c r="Q55" s="712"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -48604,11 +48610,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="694">
+      <c r="K56" s="703">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="695"/>
+      <c r="L56" s="704"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -48625,22 +48631,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="672" t="s">
+      <c r="D58" s="681" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="673"/>
+      <c r="E58" s="682"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="674" t="s">
+      <c r="I58" s="683" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="675"/>
-      <c r="K58" s="676">
+      <c r="J58" s="684"/>
+      <c r="K58" s="685">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="676"/>
+      <c r="L58" s="685"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -48784,13 +48790,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -48800,20 +48813,13 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -51203,7 +51209,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="734" t="s">
+      <c r="F75" s="732" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -51216,7 +51222,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="735"/>
+      <c r="F76" s="733"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -51508,23 +51514,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="696"/>
-      <c r="C1" s="738" t="s">
+      <c r="B1" s="670"/>
+      <c r="C1" s="736" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="739"/>
-      <c r="E1" s="739"/>
-      <c r="F1" s="739"/>
-      <c r="G1" s="739"/>
-      <c r="H1" s="739"/>
-      <c r="I1" s="739"/>
-      <c r="J1" s="739"/>
-      <c r="K1" s="739"/>
-      <c r="L1" s="739"/>
-      <c r="M1" s="739"/>
+      <c r="D1" s="737"/>
+      <c r="E1" s="737"/>
+      <c r="F1" s="737"/>
+      <c r="G1" s="737"/>
+      <c r="H1" s="737"/>
+      <c r="I1" s="737"/>
+      <c r="J1" s="737"/>
+      <c r="K1" s="737"/>
+      <c r="L1" s="737"/>
+      <c r="M1" s="737"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="697"/>
+      <c r="B2" s="671"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -51534,24 +51540,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="700" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="701"/>
+      <c r="B3" s="674" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="675"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="702" t="s">
+      <c r="H3" s="676" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="702"/>
+      <c r="I3" s="676"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="726" t="s">
+      <c r="P3" s="713" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="736" t="s">
+      <c r="R3" s="734" t="s">
         <v>216</v>
       </c>
     </row>
@@ -51566,14 +51572,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="703" t="s">
+      <c r="E4" s="677" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="704"/>
-      <c r="H4" s="705" t="s">
+      <c r="F4" s="678"/>
+      <c r="H4" s="679" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="706"/>
+      <c r="I4" s="680"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -51583,15 +51589,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="727"/>
+      <c r="P4" s="714"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="737"/>
-      <c r="W4" s="709" t="s">
+      <c r="R4" s="735"/>
+      <c r="W4" s="723" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="709"/>
+      <c r="X4" s="723"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -51642,8 +51648,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="709"/>
-      <c r="X5" s="709"/>
+      <c r="W5" s="723"/>
+      <c r="X5" s="723"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52407,7 +52413,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="713">
+      <c r="W19" s="727">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -52460,7 +52466,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="714"/>
+      <c r="W20" s="728"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -52509,8 +52515,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="715"/>
-      <c r="X21" s="715"/>
+      <c r="W21" s="729"/>
+      <c r="X21" s="729"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -52610,8 +52616,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="716"/>
-      <c r="X23" s="716"/>
+      <c r="W23" s="730"/>
+      <c r="X23" s="730"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -52666,8 +52672,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="716"/>
-      <c r="X24" s="716"/>
+      <c r="W24" s="730"/>
+      <c r="X24" s="730"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -52712,8 +52718,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="717"/>
-      <c r="X25" s="717"/>
+      <c r="W25" s="731"/>
+      <c r="X25" s="731"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -52761,8 +52767,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="717"/>
-      <c r="X26" s="717"/>
+      <c r="W26" s="731"/>
+      <c r="X26" s="731"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -52816,9 +52822,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="710"/>
-      <c r="X27" s="711"/>
-      <c r="Y27" s="712"/>
+      <c r="W27" s="724"/>
+      <c r="X27" s="725"/>
+      <c r="Y27" s="726"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52872,9 +52878,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="711"/>
-      <c r="X28" s="711"/>
-      <c r="Y28" s="712"/>
+      <c r="W28" s="725"/>
+      <c r="X28" s="725"/>
+      <c r="Y28" s="726"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -53185,11 +53191,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="728">
+      <c r="M36" s="715">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="730">
+      <c r="N36" s="717">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -53197,7 +53203,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="732">
+      <c r="Q36" s="719">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -53222,13 +53228,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="729"/>
-      <c r="N37" s="731"/>
+      <c r="M37" s="716"/>
+      <c r="N37" s="718"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="733"/>
+      <c r="Q37" s="720"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -53521,26 +53527,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="683" t="s">
+      <c r="H52" s="692" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="684"/>
+      <c r="I52" s="693"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="685">
+      <c r="K52" s="694">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="718"/>
+      <c r="L52" s="721"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="689" t="s">
+      <c r="D53" s="698" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="689"/>
+      <c r="E53" s="698"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -53549,22 +53555,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="719" t="s">
+      <c r="D54" s="722" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="719"/>
+      <c r="E54" s="722"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="690" t="s">
+      <c r="I54" s="699" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="691"/>
-      <c r="K54" s="692">
+      <c r="J54" s="700"/>
+      <c r="K54" s="701">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="692"/>
+      <c r="L54" s="701"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -53605,11 +53611,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="694">
+      <c r="K56" s="703">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="695"/>
+      <c r="L56" s="704"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -53626,22 +53632,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="672" t="s">
+      <c r="D58" s="681" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="673"/>
+      <c r="E58" s="682"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="674" t="s">
+      <c r="I58" s="683" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="675"/>
-      <c r="K58" s="676">
+      <c r="J58" s="684"/>
+      <c r="K58" s="685">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="676"/>
+      <c r="L58" s="685"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -53785,6 +53791,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -53800,20 +53820,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -55510,12 +55516,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="740" t="s">
+      <c r="B43" s="738" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="741"/>
-      <c r="D43" s="741"/>
-      <c r="E43" s="742"/>
+      <c r="C43" s="739"/>
+      <c r="D43" s="739"/>
+      <c r="E43" s="740"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -55543,10 +55549,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="743"/>
-      <c r="C44" s="744"/>
-      <c r="D44" s="744"/>
-      <c r="E44" s="745"/>
+      <c r="B44" s="741"/>
+      <c r="C44" s="742"/>
+      <c r="D44" s="742"/>
+      <c r="E44" s="743"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -55574,10 +55580,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="746"/>
-      <c r="C45" s="747"/>
-      <c r="D45" s="747"/>
-      <c r="E45" s="748"/>
+      <c r="B45" s="744"/>
+      <c r="C45" s="745"/>
+      <c r="D45" s="745"/>
+      <c r="E45" s="746"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -55620,10 +55626,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="755" t="s">
+      <c r="B47" s="753" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="756"/>
+      <c r="C47" s="754"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -55645,8 +55651,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="757"/>
-      <c r="C48" s="758"/>
+      <c r="B48" s="755"/>
+      <c r="C48" s="756"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -55654,11 +55660,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="749" t="s">
+      <c r="J48" s="747" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="750"/>
-      <c r="L48" s="751"/>
+      <c r="K48" s="748"/>
+      <c r="L48" s="749"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -55676,9 +55682,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="752"/>
-      <c r="K49" s="753"/>
-      <c r="L49" s="754"/>
+      <c r="J49" s="750"/>
+      <c r="K49" s="751"/>
+      <c r="L49" s="752"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -55695,10 +55701,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="759" t="s">
+      <c r="I50" s="757" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="760"/>
+      <c r="J50" s="758"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -55719,8 +55725,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="759"/>
-      <c r="J51" s="760"/>
+      <c r="I51" s="757"/>
+      <c r="J51" s="758"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -55739,8 +55745,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="759"/>
-      <c r="J52" s="760"/>
+      <c r="I52" s="757"/>
+      <c r="J52" s="758"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -55759,8 +55765,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="759"/>
-      <c r="J53" s="760"/>
+      <c r="I53" s="757"/>
+      <c r="J53" s="758"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -55779,8 +55785,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="759"/>
-      <c r="J54" s="760"/>
+      <c r="I54" s="757"/>
+      <c r="J54" s="758"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -55799,8 +55805,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="759"/>
-      <c r="J55" s="760"/>
+      <c r="I55" s="757"/>
+      <c r="J55" s="758"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -55819,8 +55825,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="759"/>
-      <c r="J56" s="760"/>
+      <c r="I56" s="757"/>
+      <c r="J56" s="758"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -55839,8 +55845,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="759"/>
-      <c r="J57" s="760"/>
+      <c r="I57" s="757"/>
+      <c r="J57" s="758"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -55859,8 +55865,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="759"/>
-      <c r="J58" s="760"/>
+      <c r="I58" s="757"/>
+      <c r="J58" s="758"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -55879,8 +55885,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="759"/>
-      <c r="J59" s="760"/>
+      <c r="I59" s="757"/>
+      <c r="J59" s="758"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -55899,8 +55905,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="759"/>
-      <c r="J60" s="760"/>
+      <c r="I60" s="757"/>
+      <c r="J60" s="758"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -55919,8 +55925,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="759"/>
-      <c r="J61" s="760"/>
+      <c r="I61" s="757"/>
+      <c r="J61" s="758"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -55939,8 +55945,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="759"/>
-      <c r="J62" s="760"/>
+      <c r="I62" s="757"/>
+      <c r="J62" s="758"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -55959,8 +55965,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="759"/>
-      <c r="J63" s="760"/>
+      <c r="I63" s="757"/>
+      <c r="J63" s="758"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -55979,8 +55985,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="759"/>
-      <c r="J64" s="760"/>
+      <c r="I64" s="757"/>
+      <c r="J64" s="758"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -55999,8 +56005,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="759"/>
-      <c r="J65" s="760"/>
+      <c r="I65" s="757"/>
+      <c r="J65" s="758"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -56019,8 +56025,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="759"/>
-      <c r="J66" s="760"/>
+      <c r="I66" s="757"/>
+      <c r="J66" s="758"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -56039,8 +56045,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="759"/>
-      <c r="J67" s="760"/>
+      <c r="I67" s="757"/>
+      <c r="J67" s="758"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -56059,8 +56065,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="759"/>
-      <c r="J68" s="760"/>
+      <c r="I68" s="757"/>
+      <c r="J68" s="758"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -56079,8 +56085,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="759"/>
-      <c r="J69" s="760"/>
+      <c r="I69" s="757"/>
+      <c r="J69" s="758"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -56099,8 +56105,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="759"/>
-      <c r="J70" s="760"/>
+      <c r="I70" s="757"/>
+      <c r="J70" s="758"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -56119,8 +56125,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="759"/>
-      <c r="J71" s="760"/>
+      <c r="I71" s="757"/>
+      <c r="J71" s="758"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -56139,8 +56145,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="759"/>
-      <c r="J72" s="760"/>
+      <c r="I72" s="757"/>
+      <c r="J72" s="758"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -56159,8 +56165,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="759"/>
-      <c r="J73" s="760"/>
+      <c r="I73" s="757"/>
+      <c r="J73" s="758"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -56179,8 +56185,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="759"/>
-      <c r="J74" s="760"/>
+      <c r="I74" s="757"/>
+      <c r="J74" s="758"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -56199,8 +56205,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="759"/>
-      <c r="J75" s="760"/>
+      <c r="I75" s="757"/>
+      <c r="J75" s="758"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -56219,8 +56225,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="759"/>
-      <c r="J76" s="760"/>
+      <c r="I76" s="757"/>
+      <c r="J76" s="758"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -56239,8 +56245,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="759"/>
-      <c r="J77" s="760"/>
+      <c r="I77" s="757"/>
+      <c r="J77" s="758"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -56261,8 +56267,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="761"/>
-      <c r="J78" s="762"/>
+      <c r="I78" s="759"/>
+      <c r="J78" s="760"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -56307,7 +56313,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="734" t="s">
+      <c r="F80" s="732" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -56319,7 +56325,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="735"/>
+      <c r="F81" s="733"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -56607,23 +56613,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="696"/>
-      <c r="C1" s="738" t="s">
+      <c r="B1" s="670"/>
+      <c r="C1" s="736" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="739"/>
-      <c r="E1" s="739"/>
-      <c r="F1" s="739"/>
-      <c r="G1" s="739"/>
-      <c r="H1" s="739"/>
-      <c r="I1" s="739"/>
-      <c r="J1" s="739"/>
-      <c r="K1" s="739"/>
-      <c r="L1" s="739"/>
-      <c r="M1" s="739"/>
+      <c r="D1" s="737"/>
+      <c r="E1" s="737"/>
+      <c r="F1" s="737"/>
+      <c r="G1" s="737"/>
+      <c r="H1" s="737"/>
+      <c r="I1" s="737"/>
+      <c r="J1" s="737"/>
+      <c r="K1" s="737"/>
+      <c r="L1" s="737"/>
+      <c r="M1" s="737"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="697"/>
+      <c r="B2" s="671"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -56633,24 +56639,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="700" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="701"/>
+      <c r="B3" s="674" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="675"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="702" t="s">
+      <c r="H3" s="676" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="702"/>
+      <c r="I3" s="676"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="726" t="s">
+      <c r="P3" s="713" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="736" t="s">
+      <c r="R3" s="734" t="s">
         <v>216</v>
       </c>
     </row>
@@ -56665,14 +56671,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="703" t="s">
+      <c r="E4" s="677" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="704"/>
-      <c r="H4" s="705" t="s">
+      <c r="F4" s="678"/>
+      <c r="H4" s="679" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="706"/>
+      <c r="I4" s="680"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -56682,15 +56688,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="727"/>
+      <c r="P4" s="714"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="737"/>
-      <c r="W4" s="709" t="s">
+      <c r="R4" s="735"/>
+      <c r="W4" s="723" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="709"/>
+      <c r="X4" s="723"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -56741,8 +56747,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="709"/>
-      <c r="X5" s="709"/>
+      <c r="W5" s="723"/>
+      <c r="X5" s="723"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57503,7 +57509,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="713">
+      <c r="W19" s="727">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -57555,7 +57561,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="714"/>
+      <c r="W20" s="728"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -57604,8 +57610,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="715"/>
-      <c r="X21" s="715"/>
+      <c r="W21" s="729"/>
+      <c r="X21" s="729"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -57704,8 +57710,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="716"/>
-      <c r="X23" s="716"/>
+      <c r="W23" s="730"/>
+      <c r="X23" s="730"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -57760,8 +57766,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="716"/>
-      <c r="X24" s="716"/>
+      <c r="W24" s="730"/>
+      <c r="X24" s="730"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -57809,8 +57815,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="717"/>
-      <c r="X25" s="717"/>
+      <c r="W25" s="731"/>
+      <c r="X25" s="731"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -57858,8 +57864,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="717"/>
-      <c r="X26" s="717"/>
+      <c r="W26" s="731"/>
+      <c r="X26" s="731"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -57907,9 +57913,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="710"/>
-      <c r="X27" s="711"/>
-      <c r="Y27" s="712"/>
+      <c r="W27" s="724"/>
+      <c r="X27" s="725"/>
+      <c r="Y27" s="726"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57957,9 +57963,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="711"/>
-      <c r="X28" s="711"/>
-      <c r="Y28" s="712"/>
+      <c r="W28" s="725"/>
+      <c r="X28" s="725"/>
+      <c r="Y28" s="726"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -58300,11 +58306,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="728">
+      <c r="M36" s="715">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="730">
+      <c r="N36" s="717">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -58312,7 +58318,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="763">
+      <c r="Q36" s="761">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -58337,13 +58343,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="729"/>
-      <c r="N37" s="731"/>
+      <c r="M37" s="716"/>
+      <c r="N37" s="718"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="764"/>
+      <c r="Q37" s="762"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -58393,11 +58399,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="765">
+      <c r="M39" s="763">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="766"/>
+      <c r="N39" s="764"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -58645,26 +58651,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="683" t="s">
+      <c r="H52" s="692" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="684"/>
+      <c r="I52" s="693"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="685">
+      <c r="K52" s="694">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="718"/>
+      <c r="L52" s="721"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="689" t="s">
+      <c r="D53" s="698" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="689"/>
+      <c r="E53" s="698"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -58673,22 +58679,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="719" t="s">
+      <c r="D54" s="722" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="719"/>
+      <c r="E54" s="722"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="690" t="s">
+      <c r="I54" s="699" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="691"/>
-      <c r="K54" s="692">
+      <c r="J54" s="700"/>
+      <c r="K54" s="701">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="692"/>
+      <c r="L54" s="701"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -58729,11 +58735,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="694">
+      <c r="K56" s="703">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="695"/>
+      <c r="L56" s="704"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -58750,22 +58756,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="672" t="s">
+      <c r="D58" s="681" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="673"/>
+      <c r="E58" s="682"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="674" t="s">
+      <c r="I58" s="683" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="675"/>
-      <c r="K58" s="676">
+      <c r="J58" s="684"/>
+      <c r="K58" s="685">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="676"/>
+      <c r="L58" s="685"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -58909,20 +58915,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -58939,6 +58931,20 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE    ZAVALETA   JUNIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE    ZAVALETA   JUNIO    2022.xlsx
@@ -710,7 +710,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1762" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1786" uniqueCount="978">
   <si>
     <t>COMPRAS</t>
   </si>
@@ -3595,6 +3595,69 @@
   <si>
     <t>QUESO-CHISTORRA-TOCINETA-PECHUGA</t>
   </si>
+  <si>
+    <t>1140 D</t>
+  </si>
+  <si>
+    <t>1317 D</t>
+  </si>
+  <si>
+    <t>1445 D</t>
+  </si>
+  <si>
+    <t>1509 D</t>
+  </si>
+  <si>
+    <t>1559 D</t>
+  </si>
+  <si>
+    <t>1646 D</t>
+  </si>
+  <si>
+    <t>1801 D</t>
+  </si>
+  <si>
+    <t>1918 D</t>
+  </si>
+  <si>
+    <t>2054 D</t>
+  </si>
+  <si>
+    <t>2123 D</t>
+  </si>
+  <si>
+    <t>2169 D</t>
+  </si>
+  <si>
+    <t>2306 D</t>
+  </si>
+  <si>
+    <t>2420 D</t>
+  </si>
+  <si>
+    <t>2422 D</t>
+  </si>
+  <si>
+    <t>2517 D</t>
+  </si>
+  <si>
+    <t>2669 D</t>
+  </si>
+  <si>
+    <t>2721 D</t>
+  </si>
+  <si>
+    <t>JUNIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CARBOLE </t>
+  </si>
+  <si>
+    <t>ANALISIS AGUA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ADT</t>
+  </si>
 </sst>
 </file>
 
@@ -3609,7 +3672,7 @@
     <numFmt numFmtId="167" formatCode="[$$-80A]#,##0.00;\-[$$-80A]#,##0.00"/>
     <numFmt numFmtId="168" formatCode="[$-C0A]d\-mmm\-yyyy;@"/>
   </numFmts>
-  <fonts count="71" x14ac:knownFonts="1">
+  <fonts count="73" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4171,6 +4234,24 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFF00FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -5607,7 +5688,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="807">
+  <cellXfs count="812">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -6963,7 +7044,6 @@
     <xf numFmtId="49" fontId="3" fillId="18" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -6973,6 +7053,24 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="19" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="71" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="72" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -11760,23 +11858,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="670"/>
-      <c r="C1" s="672" t="s">
+      <c r="B1" s="675"/>
+      <c r="C1" s="677" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="673"/>
-      <c r="E1" s="673"/>
-      <c r="F1" s="673"/>
-      <c r="G1" s="673"/>
-      <c r="H1" s="673"/>
-      <c r="I1" s="673"/>
-      <c r="J1" s="673"/>
-      <c r="K1" s="673"/>
-      <c r="L1" s="673"/>
-      <c r="M1" s="673"/>
+      <c r="D1" s="678"/>
+      <c r="E1" s="678"/>
+      <c r="F1" s="678"/>
+      <c r="G1" s="678"/>
+      <c r="H1" s="678"/>
+      <c r="I1" s="678"/>
+      <c r="J1" s="678"/>
+      <c r="K1" s="678"/>
+      <c r="L1" s="678"/>
+      <c r="M1" s="678"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="671"/>
+      <c r="B2" s="676"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -11786,17 +11884,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="674" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="675"/>
+      <c r="B3" s="679" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="680"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="676" t="s">
+      <c r="H3" s="681" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="676"/>
+      <c r="I3" s="681"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -11810,14 +11908,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="677" t="s">
+      <c r="E4" s="682" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="678"/>
-      <c r="H4" s="679" t="s">
+      <c r="F4" s="683"/>
+      <c r="H4" s="684" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="680"/>
+      <c r="I4" s="685"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -11827,10 +11925,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="686" t="s">
+      <c r="P4" s="691" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="687"/>
+      <c r="Q4" s="692"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -13271,11 +13369,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="688">
+      <c r="M39" s="693">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="690">
+      <c r="N39" s="695">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -13301,8 +13399,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="689"/>
-      <c r="N40" s="691"/>
+      <c r="M40" s="694"/>
+      <c r="N40" s="696"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -13517,29 +13615,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="692" t="s">
+      <c r="H52" s="697" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="693"/>
+      <c r="I52" s="698"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="694">
+      <c r="K52" s="699">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="695"/>
-      <c r="M52" s="696">
+      <c r="L52" s="700"/>
+      <c r="M52" s="701">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="697"/>
+      <c r="N52" s="702"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="698" t="s">
+      <c r="D53" s="703" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="698"/>
+      <c r="E53" s="703"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -13550,22 +13648,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="698" t="s">
+      <c r="D54" s="703" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="698"/>
+      <c r="E54" s="703"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="699" t="s">
+      <c r="I54" s="704" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="700"/>
-      <c r="K54" s="701">
+      <c r="J54" s="705"/>
+      <c r="K54" s="706">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="702"/>
+      <c r="L54" s="707"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -13598,11 +13696,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="703">
+      <c r="K56" s="708">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="704"/>
+      <c r="L56" s="709"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -13619,22 +13717,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="681" t="s">
+      <c r="D58" s="686" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="682"/>
+      <c r="E58" s="687"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="683" t="s">
+      <c r="I58" s="688" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="684"/>
-      <c r="K58" s="685">
+      <c r="J58" s="689"/>
+      <c r="K58" s="690">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="685"/>
+      <c r="L58" s="690"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -16258,10 +16356,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="766" t="s">
+      <c r="I76" s="771" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="767"/>
+      <c r="J76" s="772"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -16280,8 +16378,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="768"/>
-      <c r="J77" s="769"/>
+      <c r="I77" s="773"/>
+      <c r="J77" s="774"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -16348,7 +16446,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="732" t="s">
+      <c r="F80" s="737" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -16363,7 +16461,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="733"/>
+      <c r="F81" s="738"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -16371,10 +16469,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="765" t="s">
+      <c r="B82" s="770" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="765"/>
+      <c r="C82" s="770"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -16656,23 +16754,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="670"/>
-      <c r="C1" s="736" t="s">
+      <c r="B1" s="675"/>
+      <c r="C1" s="741" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="737"/>
-      <c r="E1" s="737"/>
-      <c r="F1" s="737"/>
-      <c r="G1" s="737"/>
-      <c r="H1" s="737"/>
-      <c r="I1" s="737"/>
-      <c r="J1" s="737"/>
-      <c r="K1" s="737"/>
-      <c r="L1" s="737"/>
-      <c r="M1" s="737"/>
+      <c r="D1" s="742"/>
+      <c r="E1" s="742"/>
+      <c r="F1" s="742"/>
+      <c r="G1" s="742"/>
+      <c r="H1" s="742"/>
+      <c r="I1" s="742"/>
+      <c r="J1" s="742"/>
+      <c r="K1" s="742"/>
+      <c r="L1" s="742"/>
+      <c r="M1" s="742"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="671"/>
+      <c r="B2" s="676"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -16682,24 +16780,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="674" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="675"/>
+      <c r="B3" s="679" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="680"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="676" t="s">
+      <c r="H3" s="681" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="676"/>
+      <c r="I3" s="681"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="713" t="s">
+      <c r="P3" s="718" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="734" t="s">
+      <c r="R3" s="739" t="s">
         <v>216</v>
       </c>
     </row>
@@ -16714,14 +16812,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="677" t="s">
+      <c r="E4" s="682" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="678"/>
-      <c r="H4" s="679" t="s">
+      <c r="F4" s="683"/>
+      <c r="H4" s="684" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="680"/>
+      <c r="I4" s="685"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -16731,15 +16829,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="714"/>
+      <c r="P4" s="719"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="735"/>
-      <c r="W4" s="723" t="s">
+      <c r="R4" s="740"/>
+      <c r="W4" s="728" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="723"/>
+      <c r="X4" s="728"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16790,8 +16888,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="723"/>
-      <c r="X5" s="723"/>
+      <c r="W5" s="728"/>
+      <c r="X5" s="728"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17554,7 +17652,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="727">
+      <c r="W19" s="732">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -17606,7 +17704,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="728"/>
+      <c r="W20" s="733"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -17655,8 +17753,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="729"/>
-      <c r="X21" s="729"/>
+      <c r="W21" s="734"/>
+      <c r="X21" s="734"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -17756,8 +17854,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="730"/>
-      <c r="X23" s="730"/>
+      <c r="W23" s="735"/>
+      <c r="X23" s="735"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -17812,8 +17910,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="730"/>
-      <c r="X24" s="730"/>
+      <c r="W24" s="735"/>
+      <c r="X24" s="735"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -17861,8 +17959,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="731"/>
-      <c r="X25" s="731"/>
+      <c r="W25" s="736"/>
+      <c r="X25" s="736"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -17911,8 +18009,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="731"/>
-      <c r="X26" s="731"/>
+      <c r="W26" s="736"/>
+      <c r="X26" s="736"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -17960,9 +18058,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="724"/>
-      <c r="X27" s="725"/>
-      <c r="Y27" s="726"/>
+      <c r="W27" s="729"/>
+      <c r="X27" s="730"/>
+      <c r="Y27" s="731"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18010,9 +18108,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="725"/>
-      <c r="X28" s="725"/>
-      <c r="Y28" s="726"/>
+      <c r="W28" s="730"/>
+      <c r="X28" s="730"/>
+      <c r="Y28" s="731"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18344,11 +18442,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="715">
+      <c r="M36" s="720">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="717">
+      <c r="N36" s="722">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -18356,7 +18454,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="761">
+      <c r="Q36" s="766">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -18381,13 +18479,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="716"/>
-      <c r="N37" s="718"/>
+      <c r="M37" s="721"/>
+      <c r="N37" s="723"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="762"/>
+      <c r="Q37" s="767"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -18437,11 +18535,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="763">
+      <c r="M39" s="768">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="764"/>
+      <c r="N39" s="769"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -19069,26 +19167,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="692" t="s">
+      <c r="H68" s="697" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="693"/>
+      <c r="I68" s="698"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="694">
+      <c r="K68" s="699">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="721"/>
+      <c r="L68" s="726"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="698" t="s">
+      <c r="D69" s="703" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="698"/>
+      <c r="E69" s="703"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -19097,22 +19195,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="722" t="s">
+      <c r="D70" s="727" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="722"/>
+      <c r="E70" s="727"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="699" t="s">
+      <c r="I70" s="704" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="700"/>
-      <c r="K70" s="701">
+      <c r="J70" s="705"/>
+      <c r="K70" s="706">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="701"/>
+      <c r="L70" s="706"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -19153,11 +19251,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="703">
+      <c r="K72" s="708">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="704"/>
+      <c r="L72" s="709"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -19174,22 +19272,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="681" t="s">
+      <c r="D74" s="686" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="682"/>
+      <c r="E74" s="687"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="683" t="s">
+      <c r="I74" s="688" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="684"/>
-      <c r="K74" s="685">
+      <c r="J74" s="689"/>
+      <c r="K74" s="690">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="685"/>
+      <c r="L74" s="690"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -21633,7 +21731,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="732" t="s">
+      <c r="F80" s="737" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -21646,7 +21744,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="733"/>
+      <c r="F81" s="738"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -21666,10 +21764,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="770" t="s">
+      <c r="I83" s="775" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="771"/>
+      <c r="J83" s="776"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="514" t="s">
@@ -21678,8 +21776,8 @@
       <c r="B84" s="515"/>
       <c r="C84" s="516"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="772"/>
-      <c r="J84" s="773"/>
+      <c r="I84" s="777"/>
+      <c r="J84" s="778"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -21951,23 +22049,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="670"/>
-      <c r="C1" s="736" t="s">
+      <c r="B1" s="675"/>
+      <c r="C1" s="741" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="737"/>
-      <c r="E1" s="737"/>
-      <c r="F1" s="737"/>
-      <c r="G1" s="737"/>
-      <c r="H1" s="737"/>
-      <c r="I1" s="737"/>
-      <c r="J1" s="737"/>
-      <c r="K1" s="737"/>
-      <c r="L1" s="737"/>
-      <c r="M1" s="737"/>
+      <c r="D1" s="742"/>
+      <c r="E1" s="742"/>
+      <c r="F1" s="742"/>
+      <c r="G1" s="742"/>
+      <c r="H1" s="742"/>
+      <c r="I1" s="742"/>
+      <c r="J1" s="742"/>
+      <c r="K1" s="742"/>
+      <c r="L1" s="742"/>
+      <c r="M1" s="742"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="671"/>
+      <c r="B2" s="676"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -21977,24 +22075,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="674" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="675"/>
+      <c r="B3" s="679" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="680"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="676" t="s">
+      <c r="H3" s="681" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="676"/>
+      <c r="I3" s="681"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="713" t="s">
+      <c r="P3" s="718" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="734" t="s">
+      <c r="R3" s="739" t="s">
         <v>216</v>
       </c>
     </row>
@@ -22009,14 +22107,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="677" t="s">
+      <c r="E4" s="682" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="678"/>
-      <c r="H4" s="679" t="s">
+      <c r="F4" s="683"/>
+      <c r="H4" s="684" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="680"/>
+      <c r="I4" s="685"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -22026,15 +22124,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="714"/>
+      <c r="P4" s="719"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="735"/>
-      <c r="W4" s="723" t="s">
+      <c r="R4" s="740"/>
+      <c r="W4" s="728" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="723"/>
+      <c r="X4" s="728"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22085,8 +22183,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="723"/>
-      <c r="X5" s="723"/>
+      <c r="W5" s="728"/>
+      <c r="X5" s="728"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22845,7 +22943,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="727">
+      <c r="W19" s="732">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -22897,7 +22995,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="728"/>
+      <c r="W20" s="733"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -22946,8 +23044,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="729"/>
-      <c r="X21" s="729"/>
+      <c r="W21" s="734"/>
+      <c r="X21" s="734"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -23044,8 +23142,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="730"/>
-      <c r="X23" s="730"/>
+      <c r="W23" s="735"/>
+      <c r="X23" s="735"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -23100,8 +23198,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="730"/>
-      <c r="X24" s="730"/>
+      <c r="W24" s="735"/>
+      <c r="X24" s="735"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -23147,8 +23245,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="731"/>
-      <c r="X25" s="731"/>
+      <c r="W25" s="736"/>
+      <c r="X25" s="736"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -23199,8 +23297,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="731"/>
-      <c r="X26" s="731"/>
+      <c r="W26" s="736"/>
+      <c r="X26" s="736"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -23251,9 +23349,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="724"/>
-      <c r="X27" s="725"/>
-      <c r="Y27" s="726"/>
+      <c r="W27" s="729"/>
+      <c r="X27" s="730"/>
+      <c r="Y27" s="731"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23303,9 +23401,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="725"/>
-      <c r="X28" s="725"/>
-      <c r="Y28" s="726"/>
+      <c r="W28" s="730"/>
+      <c r="X28" s="730"/>
+      <c r="Y28" s="731"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23909,11 +24007,11 @@
       <c r="L41" s="627">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="715">
+      <c r="M41" s="720">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="715">
+      <c r="N41" s="720">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -23921,7 +24019,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="774">
+      <c r="Q41" s="779">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -23951,10 +24049,10 @@
       <c r="L42" s="630">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="716"/>
-      <c r="N42" s="716"/>
+      <c r="M42" s="721"/>
+      <c r="N42" s="721"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="775"/>
+      <c r="Q42" s="780"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -24042,11 +24140,11 @@
       <c r="L45" s="627">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="776">
+      <c r="M45" s="781">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="777"/>
+      <c r="N45" s="782"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -24639,26 +24737,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="692" t="s">
+      <c r="H70" s="697" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="693"/>
+      <c r="I70" s="698"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="694">
+      <c r="K70" s="699">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="721"/>
+      <c r="L70" s="726"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="698" t="s">
+      <c r="D71" s="703" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="698"/>
+      <c r="E71" s="703"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -24668,22 +24766,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="722" t="s">
+      <c r="D72" s="727" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="722"/>
+      <c r="E72" s="727"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="699" t="s">
+      <c r="I72" s="704" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="700"/>
-      <c r="K72" s="701">
+      <c r="J72" s="705"/>
+      <c r="K72" s="706">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="701"/>
+      <c r="L72" s="706"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -24724,11 +24822,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="703">
+      <c r="K74" s="708">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="704"/>
+      <c r="L74" s="709"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -24747,22 +24845,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="681" t="s">
+      <c r="D76" s="686" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="682"/>
+      <c r="E76" s="687"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="683" t="s">
+      <c r="I76" s="688" t="s">
         <v>854</v>
       </c>
-      <c r="J76" s="684"/>
-      <c r="K76" s="685">
+      <c r="J76" s="689"/>
+      <c r="K76" s="690">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="685"/>
+      <c r="L76" s="690"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -27467,7 +27565,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="732" t="s">
+      <c r="F90" s="737" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -27480,7 +27578,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="733"/>
+      <c r="F91" s="738"/>
       <c r="K91" s="1"/>
       <c r="L91" s="97"/>
       <c r="M91" s="3"/>
@@ -27499,10 +27597,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="770" t="s">
+      <c r="I93" s="775" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="771"/>
+      <c r="J93" s="776"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -27512,8 +27610,8 @@
       <c r="C94" s="518"/>
       <c r="D94" s="519"/>
       <c r="E94" s="520"/>
-      <c r="I94" s="772"/>
-      <c r="J94" s="773"/>
+      <c r="I94" s="777"/>
+      <c r="J94" s="778"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -27954,11 +28052,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="778">
+      <c r="C130" s="783">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="779"/>
+      <c r="D130" s="784"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -27994,21 +28092,21 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="784" t="s">
+      <c r="F2" s="789" t="s">
         <v>752</v>
       </c>
-      <c r="G2" s="785"/>
-      <c r="H2" s="786"/>
+      <c r="G2" s="790"/>
+      <c r="H2" s="791"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="781" t="s">
+      <c r="B3" s="786" t="s">
         <v>748</v>
       </c>
-      <c r="C3" s="782"/>
-      <c r="D3" s="783"/>
-      <c r="F3" s="787"/>
-      <c r="G3" s="788"/>
-      <c r="H3" s="789"/>
+      <c r="C3" s="787"/>
+      <c r="D3" s="788"/>
+      <c r="F3" s="792"/>
+      <c r="G3" s="793"/>
+      <c r="H3" s="794"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="526" t="s">
@@ -28153,11 +28251,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="790">
+      <c r="G11" s="795">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="791"/>
+      <c r="H11" s="796"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="532" t="s">
@@ -28174,23 +28272,23 @@
       <c r="C14" s="532"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="794" t="s">
+      <c r="C15" s="799" t="s">
         <v>750</v>
       </c>
-      <c r="D15" s="792">
+      <c r="D15" s="797">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="795"/>
-      <c r="D16" s="793"/>
+      <c r="C16" s="800"/>
+      <c r="D16" s="798"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="780" t="s">
+      <c r="C17" s="785" t="s">
         <v>753</v>
       </c>
-      <c r="D17" s="780"/>
+      <c r="D17" s="785"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -28248,23 +28346,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="670"/>
-      <c r="C1" s="736" t="s">
+      <c r="B1" s="675"/>
+      <c r="C1" s="741" t="s">
         <v>754</v>
       </c>
-      <c r="D1" s="737"/>
-      <c r="E1" s="737"/>
-      <c r="F1" s="737"/>
-      <c r="G1" s="737"/>
-      <c r="H1" s="737"/>
-      <c r="I1" s="737"/>
-      <c r="J1" s="737"/>
-      <c r="K1" s="737"/>
-      <c r="L1" s="737"/>
-      <c r="M1" s="737"/>
+      <c r="D1" s="742"/>
+      <c r="E1" s="742"/>
+      <c r="F1" s="742"/>
+      <c r="G1" s="742"/>
+      <c r="H1" s="742"/>
+      <c r="I1" s="742"/>
+      <c r="J1" s="742"/>
+      <c r="K1" s="742"/>
+      <c r="L1" s="742"/>
+      <c r="M1" s="742"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="671"/>
+      <c r="B2" s="676"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -28274,24 +28372,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="674" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="675"/>
+      <c r="B3" s="679" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="680"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="676" t="s">
+      <c r="H3" s="681" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="676"/>
+      <c r="I3" s="681"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="713" t="s">
+      <c r="P3" s="718" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="734" t="s">
+      <c r="R3" s="739" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -28310,14 +28408,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="677" t="s">
+      <c r="E4" s="682" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="678"/>
-      <c r="H4" s="679" t="s">
+      <c r="F4" s="683"/>
+      <c r="H4" s="684" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="680"/>
+      <c r="I4" s="685"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -28327,15 +28425,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="714"/>
+      <c r="P4" s="719"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="735"/>
+      <c r="R4" s="740"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="796"/>
-      <c r="X4" s="796"/>
+      <c r="W4" s="801"/>
+      <c r="X4" s="801"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -28389,8 +28487,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="796"/>
-      <c r="X5" s="796"/>
+      <c r="W5" s="801"/>
+      <c r="X5" s="801"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29156,7 +29254,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="797"/>
+      <c r="W19" s="802"/>
       <c r="X19" s="544"/>
       <c r="Y19" s="233"/>
     </row>
@@ -29210,7 +29308,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="797"/>
+      <c r="W20" s="802"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -29265,8 +29363,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="729"/>
-      <c r="X21" s="729"/>
+      <c r="W21" s="734"/>
+      <c r="X21" s="734"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -29377,8 +29475,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="730"/>
-      <c r="X23" s="730"/>
+      <c r="W23" s="735"/>
+      <c r="X23" s="735"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -29439,8 +29537,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="730"/>
-      <c r="X24" s="730"/>
+      <c r="W24" s="735"/>
+      <c r="X24" s="735"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -29493,8 +29591,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="731"/>
-      <c r="X25" s="731"/>
+      <c r="W25" s="736"/>
+      <c r="X25" s="736"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -29549,8 +29647,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="731"/>
-      <c r="X26" s="731"/>
+      <c r="W26" s="736"/>
+      <c r="X26" s="736"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -29605,9 +29703,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="724"/>
-      <c r="X27" s="725"/>
-      <c r="Y27" s="726"/>
+      <c r="W27" s="729"/>
+      <c r="X27" s="730"/>
+      <c r="Y27" s="731"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29661,9 +29759,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="725"/>
-      <c r="X28" s="725"/>
-      <c r="Y28" s="726"/>
+      <c r="W28" s="730"/>
+      <c r="X28" s="730"/>
+      <c r="Y28" s="731"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30254,11 +30352,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="715">
+      <c r="M41" s="720">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="715">
+      <c r="N41" s="720">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -30266,7 +30364,7 @@
         <f>SUM(P5:P40)</f>
         <v>4043205.8900000006</v>
       </c>
-      <c r="Q41" s="774">
+      <c r="Q41" s="779">
         <f>SUM(Q5:Q40)</f>
         <v>890559.8899999999</v>
       </c>
@@ -30290,10 +30388,10 @@
       <c r="L42" s="641">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="716"/>
-      <c r="N42" s="716"/>
+      <c r="M42" s="721"/>
+      <c r="N42" s="721"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="775"/>
+      <c r="Q42" s="780"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -30362,11 +30460,11 @@
       <c r="L45" s="619">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="776">
+      <c r="M45" s="781">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="777"/>
+      <c r="N45" s="782"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -30782,26 +30880,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="692" t="s">
+      <c r="H63" s="697" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="693"/>
+      <c r="I63" s="698"/>
       <c r="J63" s="562"/>
-      <c r="K63" s="799">
+      <c r="K63" s="804">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="800"/>
+      <c r="L63" s="805"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="698" t="s">
+      <c r="D64" s="703" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="698"/>
+      <c r="E64" s="703"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -30810,22 +30908,22 @@
       <c r="J64" s="563"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="722" t="s">
+      <c r="D65" s="727" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="722"/>
+      <c r="E65" s="727"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="699" t="s">
+      <c r="I65" s="704" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="700"/>
-      <c r="K65" s="701">
+      <c r="J65" s="705"/>
+      <c r="K65" s="706">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="701"/>
+      <c r="L65" s="706"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="582"/>
@@ -30866,11 +30964,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="798">
+      <c r="K67" s="803">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="701"/>
+      <c r="L67" s="706"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -30887,22 +30985,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="681" t="s">
+      <c r="D69" s="686" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="682"/>
+      <c r="E69" s="687"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="683" t="s">
+      <c r="I69" s="688" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="684"/>
-      <c r="K69" s="685">
+      <c r="J69" s="689"/>
+      <c r="K69" s="690">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="685"/>
+      <c r="L69" s="690"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -31094,8 +31192,8 @@
   </sheetPr>
   <dimension ref="A1:N106"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33052,7 +33150,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="732" t="s">
+      <c r="F71" s="737" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -33065,7 +33163,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="733"/>
+      <c r="F72" s="738"/>
       <c r="K72" s="1"/>
       <c r="L72" s="97"/>
       <c r="M72" s="3"/>
@@ -33084,10 +33182,10 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="770" t="s">
+      <c r="I74" s="775" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="771"/>
+      <c r="J74" s="776"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
@@ -33096,8 +33194,8 @@
       <c r="D75" s="655"/>
       <c r="E75" s="520"/>
       <c r="F75" s="111"/>
-      <c r="I75" s="772"/>
-      <c r="J75" s="773"/>
+      <c r="I75" s="777"/>
+      <c r="J75" s="778"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
@@ -33231,11 +33329,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="803" t="s">
+      <c r="A89" s="808" t="s">
         <v>806</v>
       </c>
-      <c r="B89" s="804"/>
-      <c r="C89" s="804"/>
+      <c r="B89" s="809"/>
+      <c r="C89" s="809"/>
       <c r="E89"/>
       <c r="F89" s="111"/>
       <c r="I89"/>
@@ -33245,10 +33343,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="805" t="s">
+      <c r="B90" s="810" t="s">
         <v>807</v>
       </c>
-      <c r="C90" s="806"/>
+      <c r="C90" s="811"/>
       <c r="E90"/>
       <c r="F90" s="111"/>
       <c r="I90"/>
@@ -33349,7 +33447,7 @@
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="663"/>
-      <c r="C97" s="801">
+      <c r="C97" s="806">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -33363,7 +33461,7 @@
       <c r="B98" s="664" t="s">
         <v>885</v>
       </c>
-      <c r="C98" s="802"/>
+      <c r="C98" s="807"/>
       <c r="E98"/>
       <c r="F98" s="127">
         <v>0</v>
@@ -33436,8 +33534,8 @@
   </sheetPr>
   <dimension ref="A1:Z91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M39" sqref="M39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -33467,23 +33565,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="670"/>
-      <c r="C1" s="736" t="s">
+      <c r="B1" s="675"/>
+      <c r="C1" s="741" t="s">
         <v>886</v>
       </c>
-      <c r="D1" s="737"/>
-      <c r="E1" s="737"/>
-      <c r="F1" s="737"/>
-      <c r="G1" s="737"/>
-      <c r="H1" s="737"/>
-      <c r="I1" s="737"/>
-      <c r="J1" s="737"/>
-      <c r="K1" s="737"/>
-      <c r="L1" s="737"/>
-      <c r="M1" s="737"/>
+      <c r="D1" s="742"/>
+      <c r="E1" s="742"/>
+      <c r="F1" s="742"/>
+      <c r="G1" s="742"/>
+      <c r="H1" s="742"/>
+      <c r="I1" s="742"/>
+      <c r="J1" s="742"/>
+      <c r="K1" s="742"/>
+      <c r="L1" s="742"/>
+      <c r="M1" s="742"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="671"/>
+      <c r="B2" s="676"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -33493,24 +33591,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="674" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="675"/>
+      <c r="B3" s="679" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="680"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="676" t="s">
+      <c r="H3" s="681" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="676"/>
+      <c r="I3" s="681"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="713" t="s">
+      <c r="P3" s="718" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="734" t="s">
+      <c r="R3" s="739" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -33529,14 +33627,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="677" t="s">
+      <c r="E4" s="682" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="678"/>
-      <c r="H4" s="679" t="s">
+      <c r="F4" s="683"/>
+      <c r="H4" s="684" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="680"/>
+      <c r="I4" s="685"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -33546,15 +33644,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="714"/>
+      <c r="P4" s="719"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="735"/>
+      <c r="R4" s="740"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="796"/>
-      <c r="X4" s="796"/>
+      <c r="W4" s="801"/>
+      <c r="X4" s="801"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33609,8 +33707,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="796"/>
-      <c r="X5" s="796"/>
+      <c r="W5" s="801"/>
+      <c r="X5" s="801"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34386,7 +34484,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="797"/>
+      <c r="W19" s="802"/>
       <c r="X19" s="544"/>
       <c r="Y19" s="233"/>
     </row>
@@ -34440,7 +34538,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="797"/>
+      <c r="W20" s="802"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -34494,8 +34592,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="729"/>
-      <c r="X21" s="729"/>
+      <c r="W21" s="734"/>
+      <c r="X21" s="734"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -34604,8 +34702,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="730"/>
-      <c r="X23" s="730"/>
+      <c r="W23" s="735"/>
+      <c r="X23" s="735"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -34665,8 +34763,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="730"/>
-      <c r="X24" s="730"/>
+      <c r="W24" s="735"/>
+      <c r="X24" s="735"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -34719,8 +34817,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="731"/>
-      <c r="X25" s="731"/>
+      <c r="W25" s="736"/>
+      <c r="X25" s="736"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -34757,7 +34855,7 @@
       <c r="N26" s="33">
         <v>53763</v>
       </c>
-      <c r="O26" s="666" t="s">
+      <c r="O26" s="665" t="s">
         <v>941</v>
       </c>
       <c r="P26" s="284">
@@ -34775,8 +34873,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="731"/>
-      <c r="X26" s="731"/>
+      <c r="W26" s="736"/>
+      <c r="X26" s="736"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -34813,7 +34911,7 @@
       <c r="N27" s="33">
         <v>37001</v>
       </c>
-      <c r="O27" s="666" t="s">
+      <c r="O27" s="665" t="s">
         <v>941</v>
       </c>
       <c r="P27" s="39">
@@ -34831,9 +34929,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="724"/>
-      <c r="X27" s="725"/>
-      <c r="Y27" s="726"/>
+      <c r="W27" s="729"/>
+      <c r="X27" s="730"/>
+      <c r="Y27" s="731"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34870,7 +34968,7 @@
       <c r="N28" s="33">
         <v>28759</v>
       </c>
-      <c r="O28" s="666" t="s">
+      <c r="O28" s="665" t="s">
         <v>941</v>
       </c>
       <c r="P28" s="34">
@@ -34888,9 +34986,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="725"/>
-      <c r="X28" s="725"/>
-      <c r="Y28" s="726"/>
+      <c r="W28" s="730"/>
+      <c r="X28" s="730"/>
+      <c r="Y28" s="731"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34926,7 +35024,7 @@
       <c r="N29" s="33">
         <v>36170</v>
       </c>
-      <c r="O29" s="666" t="s">
+      <c r="O29" s="665" t="s">
         <v>941</v>
       </c>
       <c r="P29" s="34">
@@ -34982,7 +35080,7 @@
       <c r="N30" s="33">
         <v>24999</v>
       </c>
-      <c r="O30" s="666" t="s">
+      <c r="O30" s="665" t="s">
         <v>941</v>
       </c>
       <c r="P30" s="34">
@@ -35044,7 +35142,7 @@
       <c r="N31" s="33">
         <v>44739</v>
       </c>
-      <c r="O31" s="666" t="s">
+      <c r="O31" s="665" t="s">
         <v>941</v>
       </c>
       <c r="P31" s="34">
@@ -35098,7 +35196,7 @@
       <c r="N32" s="33">
         <v>24106</v>
       </c>
-      <c r="O32" s="666" t="s">
+      <c r="O32" s="665" t="s">
         <v>941</v>
       </c>
       <c r="P32" s="34">
@@ -35153,7 +35251,7 @@
       <c r="N33" s="33">
         <v>46166</v>
       </c>
-      <c r="O33" s="666" t="s">
+      <c r="O33" s="665" t="s">
         <v>941</v>
       </c>
       <c r="P33" s="34">
@@ -35207,7 +35305,7 @@
       <c r="N34" s="33">
         <v>21085</v>
       </c>
-      <c r="O34" s="666" t="s">
+      <c r="O34" s="665" t="s">
         <v>941</v>
       </c>
       <c r="P34" s="34">
@@ -35261,7 +35359,7 @@
       <c r="N35" s="33">
         <v>28166</v>
       </c>
-      <c r="O35" s="666" t="s">
+      <c r="O35" s="665" t="s">
         <v>941</v>
       </c>
       <c r="P35" s="34">
@@ -35299,7 +35397,7 @@
       <c r="F36" s="28">
         <v>86153</v>
       </c>
-      <c r="G36" s="668"/>
+      <c r="G36" s="667"/>
       <c r="H36" s="29">
         <v>44742</v>
       </c>
@@ -35315,7 +35413,7 @@
       <c r="N36" s="33">
         <v>22827</v>
       </c>
-      <c r="O36" s="666" t="s">
+      <c r="O36" s="665" t="s">
         <v>941</v>
       </c>
       <c r="P36" s="34">
@@ -35352,7 +35450,7 @@
       <c r="F37" s="28">
         <v>108790</v>
       </c>
-      <c r="G37" s="668"/>
+      <c r="G37" s="667"/>
       <c r="H37" s="29">
         <v>44743</v>
       </c>
@@ -35368,7 +35466,7 @@
       <c r="N37" s="33">
         <v>31374</v>
       </c>
-      <c r="O37" s="666" t="s">
+      <c r="O37" s="665" t="s">
         <v>941</v>
       </c>
       <c r="P37" s="34">
@@ -35404,7 +35502,7 @@
       <c r="F38" s="28">
         <v>129052</v>
       </c>
-      <c r="G38" s="668"/>
+      <c r="G38" s="667"/>
       <c r="H38" s="29">
         <v>44744</v>
       </c>
@@ -35414,7 +35512,7 @@
       <c r="J38" s="56">
         <v>44744</v>
       </c>
-      <c r="K38" s="669" t="s">
+      <c r="K38" s="668" t="s">
         <v>955</v>
       </c>
       <c r="L38" s="39">
@@ -35426,7 +35524,7 @@
       <c r="N38" s="33">
         <v>58895</v>
       </c>
-      <c r="O38" s="666" t="s">
+      <c r="O38" s="665" t="s">
         <v>941</v>
       </c>
       <c r="P38" s="34">
@@ -35462,7 +35560,7 @@
       <c r="F39" s="509">
         <v>87809</v>
       </c>
-      <c r="G39" s="668"/>
+      <c r="G39" s="667"/>
       <c r="H39" s="29">
         <v>44745</v>
       </c>
@@ -35470,7 +35568,7 @@
         <v>243</v>
       </c>
       <c r="J39" s="56"/>
-      <c r="K39" s="669"/>
+      <c r="K39" s="668"/>
       <c r="L39" s="39"/>
       <c r="M39" s="32">
         <v>48212</v>
@@ -35478,7 +35576,7 @@
       <c r="N39" s="33">
         <v>29225</v>
       </c>
-      <c r="O39" s="666" t="s">
+      <c r="O39" s="665" t="s">
         <v>941</v>
       </c>
       <c r="P39" s="34">
@@ -35547,11 +35645,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="715">
+      <c r="M41" s="720">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="715">
+      <c r="N41" s="720">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -35559,7 +35657,7 @@
         <f>SUM(P5:P40)</f>
         <v>3810957.55</v>
       </c>
-      <c r="Q41" s="774">
+      <c r="Q41" s="779">
         <f>SUM(Q5:Q40)</f>
         <v>30.55000000000291</v>
       </c>
@@ -35583,10 +35681,10 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="716"/>
-      <c r="N42" s="716"/>
+      <c r="M42" s="721"/>
+      <c r="N42" s="721"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="775"/>
+      <c r="Q42" s="780"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -35625,7 +35723,7 @@
       <c r="J44" s="56">
         <v>44737</v>
       </c>
-      <c r="K44" s="667" t="s">
+      <c r="K44" s="666" t="s">
         <v>947</v>
       </c>
       <c r="L44" s="39">
@@ -35655,11 +35753,11 @@
       <c r="L45" s="39">
         <v>20521</v>
       </c>
-      <c r="M45" s="776">
+      <c r="M45" s="781">
         <f>M41+N41</f>
         <v>3051337</v>
       </c>
-      <c r="N45" s="777"/>
+      <c r="N45" s="782"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -35691,9 +35789,15 @@
       <c r="G47" s="575"/>
       <c r="H47" s="76"/>
       <c r="I47" s="77"/>
-      <c r="J47" s="56"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="39"/>
+      <c r="J47" s="56" t="s">
+        <v>974</v>
+      </c>
+      <c r="K47" s="38" t="s">
+        <v>975</v>
+      </c>
+      <c r="L47" s="39">
+        <v>10440</v>
+      </c>
       <c r="M47" s="648"/>
       <c r="N47" s="648"/>
       <c r="P47" s="34"/>
@@ -35709,9 +35813,15 @@
       <c r="G48" s="575"/>
       <c r="H48" s="76"/>
       <c r="I48" s="77"/>
-      <c r="J48" s="56"/>
-      <c r="K48" s="38"/>
-      <c r="L48" s="39"/>
+      <c r="J48" s="56" t="s">
+        <v>974</v>
+      </c>
+      <c r="K48" s="38" t="s">
+        <v>976</v>
+      </c>
+      <c r="L48" s="39">
+        <v>6599.24</v>
+      </c>
       <c r="M48" s="648"/>
       <c r="N48" s="648"/>
       <c r="P48" s="34"/>
@@ -35727,9 +35837,15 @@
       <c r="G49" s="575"/>
       <c r="H49" s="76"/>
       <c r="I49" s="77"/>
-      <c r="J49" s="604"/>
-      <c r="K49" s="415"/>
-      <c r="L49" s="34"/>
+      <c r="J49" s="604" t="s">
+        <v>974</v>
+      </c>
+      <c r="K49" s="38" t="s">
+        <v>977</v>
+      </c>
+      <c r="L49" s="69">
+        <v>1126.45</v>
+      </c>
       <c r="M49" s="648"/>
       <c r="N49" s="648"/>
       <c r="P49" s="34"/>
@@ -35745,9 +35861,11 @@
       <c r="G50" s="575"/>
       <c r="H50" s="76"/>
       <c r="I50" s="77"/>
-      <c r="J50" s="604"/>
-      <c r="K50" s="415"/>
-      <c r="L50" s="34"/>
+      <c r="J50" s="604" t="s">
+        <v>974</v>
+      </c>
+      <c r="K50" s="38"/>
+      <c r="L50" s="69"/>
       <c r="M50" s="648"/>
       <c r="N50" s="648"/>
       <c r="P50" s="34"/>
@@ -35764,8 +35882,8 @@
       <c r="H51" s="76"/>
       <c r="I51" s="77"/>
       <c r="J51" s="604"/>
-      <c r="K51" s="415"/>
-      <c r="L51" s="34"/>
+      <c r="K51" s="38"/>
+      <c r="L51" s="69"/>
       <c r="M51" s="648"/>
       <c r="N51" s="648"/>
       <c r="P51" s="34"/>
@@ -35782,8 +35900,8 @@
       <c r="H52" s="76"/>
       <c r="I52" s="77"/>
       <c r="J52" s="604"/>
-      <c r="K52" s="415"/>
-      <c r="L52" s="34"/>
+      <c r="K52" s="38"/>
+      <c r="L52" s="69"/>
       <c r="M52" s="648"/>
       <c r="N52" s="648"/>
       <c r="P52" s="34"/>
@@ -35800,8 +35918,8 @@
       <c r="H53" s="76"/>
       <c r="I53" s="77"/>
       <c r="J53" s="604"/>
-      <c r="K53" s="415"/>
-      <c r="L53" s="34"/>
+      <c r="K53" s="38"/>
+      <c r="L53" s="69"/>
       <c r="M53" s="648"/>
       <c r="N53" s="648"/>
       <c r="P53" s="34"/>
@@ -35818,8 +35936,8 @@
       <c r="H54" s="76"/>
       <c r="I54" s="77"/>
       <c r="J54" s="604"/>
-      <c r="K54" s="415"/>
-      <c r="L54" s="34"/>
+      <c r="K54" s="38"/>
+      <c r="L54" s="69"/>
       <c r="M54" s="648"/>
       <c r="N54" s="648"/>
       <c r="P54" s="34"/>
@@ -35836,8 +35954,8 @@
       <c r="H55" s="76"/>
       <c r="I55" s="77"/>
       <c r="J55" s="604"/>
-      <c r="K55" s="415"/>
-      <c r="L55" s="34"/>
+      <c r="K55" s="38"/>
+      <c r="L55" s="69"/>
       <c r="M55" s="648"/>
       <c r="N55" s="648"/>
       <c r="P55" s="34"/>
@@ -35854,8 +35972,8 @@
       <c r="H56" s="76"/>
       <c r="I56" s="77"/>
       <c r="J56" s="604"/>
-      <c r="K56" s="415"/>
-      <c r="L56" s="34"/>
+      <c r="K56" s="38"/>
+      <c r="L56" s="69"/>
       <c r="M56" s="648"/>
       <c r="N56" s="648"/>
       <c r="P56" s="34"/>
@@ -35872,8 +35990,8 @@
       <c r="H57" s="76"/>
       <c r="I57" s="77"/>
       <c r="J57" s="604"/>
-      <c r="K57" s="415"/>
-      <c r="L57" s="34"/>
+      <c r="K57" s="38"/>
+      <c r="L57" s="69"/>
       <c r="M57" s="648"/>
       <c r="N57" s="648"/>
       <c r="P57" s="34"/>
@@ -35890,8 +36008,8 @@
       <c r="H58" s="76"/>
       <c r="I58" s="77"/>
       <c r="J58" s="604"/>
-      <c r="K58" s="415"/>
-      <c r="L58" s="34"/>
+      <c r="K58" s="38"/>
+      <c r="L58" s="69"/>
       <c r="M58" s="648"/>
       <c r="N58" s="648"/>
       <c r="P58" s="34"/>
@@ -35908,8 +36026,8 @@
       <c r="H59" s="76"/>
       <c r="I59" s="77"/>
       <c r="J59" s="604"/>
-      <c r="K59" s="415"/>
-      <c r="L59" s="34"/>
+      <c r="K59" s="38"/>
+      <c r="L59" s="69"/>
       <c r="M59" s="648"/>
       <c r="N59" s="648"/>
       <c r="P59" s="34"/>
@@ -35964,7 +36082,7 @@
       </c>
       <c r="L61" s="95">
         <f>SUM(L5:L60)</f>
-        <v>179810.29</v>
+        <v>197975.98</v>
       </c>
       <c r="M61" s="96"/>
       <c r="N61" s="96"/>
@@ -35982,50 +36100,50 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="692" t="s">
+      <c r="H63" s="697" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="693"/>
+      <c r="I63" s="698"/>
       <c r="J63" s="562"/>
-      <c r="K63" s="799">
+      <c r="K63" s="804">
         <f>I61+L61</f>
-        <v>281592.79000000004</v>
-      </c>
-      <c r="L63" s="800"/>
+        <v>299758.48</v>
+      </c>
+      <c r="L63" s="805"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="698" t="s">
+      <c r="D64" s="703" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="698"/>
+      <c r="E64" s="703"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
-        <v>2928590.71</v>
+        <v>2910425.02</v>
       </c>
       <c r="I64" s="102"/>
       <c r="J64" s="563"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="722" t="s">
+      <c r="D65" s="727" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="722"/>
+      <c r="E65" s="727"/>
       <c r="F65" s="111">
-        <v>0</v>
-      </c>
-      <c r="I65" s="699" t="s">
+        <v>-2122394.9</v>
+      </c>
+      <c r="I65" s="704" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="700"/>
-      <c r="K65" s="701">
+      <c r="J65" s="705"/>
+      <c r="K65" s="706">
         <f>F67+F68+F69</f>
-        <v>5284017.25</v>
-      </c>
-      <c r="L65" s="701"/>
+        <v>3684164.66</v>
+      </c>
+      <c r="L65" s="706"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="659"/>
@@ -36059,18 +36177,18 @@
       </c>
       <c r="F67" s="96">
         <f>SUM(F64:F66)</f>
-        <v>2928590.71</v>
+        <v>788030.12000000011</v>
       </c>
       <c r="H67" s="558"/>
       <c r="I67" s="108" t="s">
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="798">
+      <c r="K67" s="803">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L67" s="701"/>
+      <c r="L67" s="706"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -36080,29 +36198,29 @@
         <v>17</v>
       </c>
       <c r="F68" s="111">
-        <v>0</v>
+        <v>540708</v>
       </c>
     </row>
     <row r="69" spans="2:17" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C69" s="112">
         <v>44745</v>
       </c>
-      <c r="D69" s="681" t="s">
+      <c r="D69" s="686" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="682"/>
+      <c r="E69" s="687"/>
       <c r="F69" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I69" s="683" t="s">
+      <c r="I69" s="688" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="684"/>
-      <c r="K69" s="685">
+      <c r="J69" s="689"/>
+      <c r="K69" s="690">
         <f>K65+K67</f>
-        <v>2737035.09</v>
-      </c>
-      <c r="L69" s="685"/>
+        <v>1137182.5</v>
+      </c>
+      <c r="L69" s="690"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -36292,7 +36410,7 @@
   <dimension ref="A1:M123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36950,13 +37068,13 @@
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="665">
+      <c r="A25" s="454">
         <v>44729</v>
       </c>
-      <c r="B25" s="260" t="s">
+      <c r="B25" s="246" t="s">
         <v>926</v>
       </c>
-      <c r="C25" s="261">
+      <c r="C25" s="111">
         <v>102195.9</v>
       </c>
       <c r="D25" s="412"/>
@@ -36977,14 +37095,20 @@
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="454"/>
-      <c r="B26" s="583"/>
-      <c r="C26" s="111"/>
+      <c r="A26" s="454">
+        <v>44730</v>
+      </c>
+      <c r="B26" s="583" t="s">
+        <v>957</v>
+      </c>
+      <c r="C26" s="111">
+        <v>64559.72</v>
+      </c>
       <c r="D26" s="412"/>
       <c r="E26" s="111"/>
       <c r="F26" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>64559.72</v>
       </c>
       <c r="G26" s="650"/>
       <c r="H26" s="393"/>
@@ -36998,14 +37122,20 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="454"/>
-      <c r="B27" s="246"/>
-      <c r="C27" s="111"/>
+      <c r="A27" s="454">
+        <v>44732</v>
+      </c>
+      <c r="B27" s="246" t="s">
+        <v>958</v>
+      </c>
+      <c r="C27" s="111">
+        <v>68026</v>
+      </c>
       <c r="D27" s="412"/>
       <c r="E27" s="111"/>
       <c r="F27" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>68026</v>
       </c>
       <c r="G27" s="650"/>
       <c r="H27" s="393"/>
@@ -37019,14 +37149,20 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="454"/>
-      <c r="B28" s="246"/>
-      <c r="C28" s="111"/>
+      <c r="A28" s="454">
+        <v>44733</v>
+      </c>
+      <c r="B28" s="246" t="s">
+        <v>959</v>
+      </c>
+      <c r="C28" s="111">
+        <v>66413.16</v>
+      </c>
       <c r="D28" s="412"/>
       <c r="E28" s="111"/>
       <c r="F28" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>66413.16</v>
       </c>
       <c r="G28" s="650"/>
       <c r="H28" s="393"/>
@@ -37040,14 +37176,20 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="454"/>
-      <c r="B29" s="246"/>
-      <c r="C29" s="111"/>
+      <c r="A29" s="454">
+        <v>44733</v>
+      </c>
+      <c r="B29" s="246" t="s">
+        <v>960</v>
+      </c>
+      <c r="C29" s="111">
+        <v>2197.8000000000002</v>
+      </c>
       <c r="D29" s="412"/>
       <c r="E29" s="111"/>
       <c r="F29" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2197.8000000000002</v>
       </c>
       <c r="G29" s="650"/>
       <c r="H29" s="393"/>
@@ -37061,14 +37203,20 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="454"/>
-      <c r="B30" s="246"/>
-      <c r="C30" s="111"/>
+      <c r="A30" s="454">
+        <v>44734</v>
+      </c>
+      <c r="B30" s="246" t="s">
+        <v>961</v>
+      </c>
+      <c r="C30" s="111">
+        <v>55732.800000000003</v>
+      </c>
       <c r="D30" s="412"/>
       <c r="E30" s="111"/>
       <c r="F30" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>55732.800000000003</v>
       </c>
       <c r="G30" s="650"/>
       <c r="H30" s="393"/>
@@ -37082,14 +37230,20 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="454"/>
-      <c r="B31" s="246"/>
-      <c r="C31" s="111"/>
+      <c r="A31" s="454">
+        <v>44735</v>
+      </c>
+      <c r="B31" s="246" t="s">
+        <v>962</v>
+      </c>
+      <c r="C31" s="111">
+        <v>106959.76</v>
+      </c>
       <c r="D31" s="412"/>
       <c r="E31" s="111"/>
       <c r="F31" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>106959.76</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="393"/>
@@ -37103,14 +37257,20 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="454"/>
-      <c r="B32" s="246"/>
-      <c r="C32" s="111"/>
+      <c r="A32" s="454">
+        <v>44736</v>
+      </c>
+      <c r="B32" s="246" t="s">
+        <v>963</v>
+      </c>
+      <c r="C32" s="111">
+        <v>69961.259999999995</v>
+      </c>
       <c r="D32" s="412"/>
       <c r="E32" s="111"/>
       <c r="F32" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>69961.259999999995</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="393"/>
@@ -37124,14 +37284,20 @@
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="454"/>
-      <c r="B33" s="246"/>
-      <c r="C33" s="111"/>
+      <c r="A33" s="454">
+        <v>44737</v>
+      </c>
+      <c r="B33" s="246" t="s">
+        <v>964</v>
+      </c>
+      <c r="C33" s="111">
+        <v>81212.86</v>
+      </c>
       <c r="D33" s="412"/>
       <c r="E33" s="111"/>
       <c r="F33" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>81212.86</v>
       </c>
       <c r="H33" s="393"/>
       <c r="I33" s="391"/>
@@ -37144,14 +37310,20 @@
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="454"/>
-      <c r="B34" s="246"/>
-      <c r="C34" s="111"/>
+      <c r="A34" s="454">
+        <v>44739</v>
+      </c>
+      <c r="B34" s="246" t="s">
+        <v>965</v>
+      </c>
+      <c r="C34" s="111">
+        <v>49528.800000000003</v>
+      </c>
       <c r="D34" s="412"/>
       <c r="E34" s="111"/>
       <c r="F34" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>49528.800000000003</v>
       </c>
       <c r="H34" s="393"/>
       <c r="I34" s="391"/>
@@ -37164,14 +37336,20 @@
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="454"/>
-      <c r="B35" s="246"/>
-      <c r="C35" s="111"/>
+      <c r="A35" s="454">
+        <v>44739</v>
+      </c>
+      <c r="B35" s="246" t="s">
+        <v>966</v>
+      </c>
+      <c r="C35" s="111">
+        <v>9215.3700000000008</v>
+      </c>
       <c r="D35" s="412"/>
       <c r="E35" s="111"/>
       <c r="F35" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9215.3700000000008</v>
       </c>
       <c r="H35" s="245"/>
       <c r="I35" s="57"/>
@@ -37184,14 +37362,20 @@
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="454"/>
-      <c r="B36" s="246"/>
-      <c r="C36" s="111"/>
+      <c r="A36" s="454">
+        <v>44740</v>
+      </c>
+      <c r="B36" s="246" t="s">
+        <v>967</v>
+      </c>
+      <c r="C36" s="111">
+        <v>96875.6</v>
+      </c>
       <c r="D36" s="412"/>
       <c r="E36" s="111"/>
       <c r="F36" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>96875.6</v>
       </c>
       <c r="H36" s="245"/>
       <c r="I36" s="57"/>
@@ -37204,14 +37388,20 @@
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="454"/>
-      <c r="B37" s="246"/>
-      <c r="C37" s="111"/>
+      <c r="A37" s="454">
+        <v>44741</v>
+      </c>
+      <c r="B37" s="246" t="s">
+        <v>968</v>
+      </c>
+      <c r="C37" s="111">
+        <v>26574.6</v>
+      </c>
       <c r="D37" s="412"/>
       <c r="E37" s="111"/>
       <c r="F37" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26574.6</v>
       </c>
       <c r="H37" s="245"/>
       <c r="I37" s="57"/>
@@ -37224,14 +37414,20 @@
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="454"/>
-      <c r="B38" s="246"/>
-      <c r="C38" s="111"/>
+      <c r="A38" s="454">
+        <v>44742</v>
+      </c>
+      <c r="B38" s="246" t="s">
+        <v>969</v>
+      </c>
+      <c r="C38" s="111">
+        <v>110618.06</v>
+      </c>
       <c r="D38" s="412"/>
       <c r="E38" s="111"/>
       <c r="F38" s="547">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>110618.06</v>
       </c>
       <c r="H38" s="245"/>
       <c r="I38" s="57"/>
@@ -37243,90 +37439,114 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="134"/>
-      <c r="B39" s="139"/>
-      <c r="C39" s="69"/>
+    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A39" s="672">
+        <v>44742</v>
+      </c>
+      <c r="B39" s="673" t="s">
+        <v>970</v>
+      </c>
+      <c r="C39" s="111">
+        <v>3223.2</v>
+      </c>
       <c r="D39" s="253"/>
       <c r="E39" s="69"/>
       <c r="F39" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3223.2</v>
       </c>
       <c r="H39" s="134"/>
       <c r="I39" s="139"/>
       <c r="J39" s="69"/>
       <c r="K39" s="140"/>
       <c r="L39" s="69"/>
-      <c r="M39" s="137" t="e">
-        <f>#REF!+J39-L39</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="134"/>
-      <c r="B40" s="139"/>
-      <c r="C40" s="69"/>
+      <c r="M39" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A40" s="672">
+        <v>44743</v>
+      </c>
+      <c r="B40" s="673" t="s">
+        <v>971</v>
+      </c>
+      <c r="C40" s="111">
+        <v>65436.19</v>
+      </c>
       <c r="D40" s="253"/>
       <c r="E40" s="69"/>
       <c r="F40" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>65436.19</v>
       </c>
       <c r="H40" s="134"/>
       <c r="I40" s="139"/>
       <c r="J40" s="69"/>
       <c r="K40" s="140"/>
       <c r="L40" s="69"/>
-      <c r="M40" s="137" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="134"/>
-      <c r="B41" s="139"/>
-      <c r="C41" s="69"/>
+      <c r="M40" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="672">
+        <v>44744</v>
+      </c>
+      <c r="B41" s="673" t="s">
+        <v>972</v>
+      </c>
+      <c r="C41" s="111">
+        <v>60853.03</v>
+      </c>
       <c r="D41" s="253"/>
       <c r="E41" s="69"/>
       <c r="F41" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>60853.03</v>
       </c>
       <c r="H41" s="134"/>
       <c r="I41" s="139"/>
       <c r="J41" s="69"/>
       <c r="K41" s="140"/>
       <c r="L41" s="69"/>
-      <c r="M41" s="137" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="134"/>
-      <c r="B42" s="139"/>
-      <c r="C42" s="69"/>
+      <c r="M41" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A42" s="672">
+        <v>44744</v>
+      </c>
+      <c r="B42" s="673" t="s">
+        <v>973</v>
+      </c>
+      <c r="C42" s="111">
+        <v>5205</v>
+      </c>
       <c r="D42" s="253"/>
       <c r="E42" s="69"/>
       <c r="F42" s="111">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5205</v>
       </c>
       <c r="H42" s="134"/>
       <c r="I42" s="139"/>
       <c r="J42" s="69"/>
       <c r="K42" s="140"/>
       <c r="L42" s="69"/>
-      <c r="M42" s="137" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="134"/>
-      <c r="B43" s="139"/>
-      <c r="C43" s="69"/>
+      <c r="M42" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A43" s="672"/>
+      <c r="B43" s="673"/>
+      <c r="C43" s="111"/>
       <c r="D43" s="253"/>
       <c r="E43" s="69"/>
       <c r="F43" s="111">
@@ -37338,15 +37558,15 @@
       <c r="J43" s="69"/>
       <c r="K43" s="140"/>
       <c r="L43" s="69"/>
-      <c r="M43" s="137" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="134"/>
-      <c r="B44" s="139"/>
-      <c r="C44" s="69"/>
+      <c r="M43" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A44" s="674"/>
+      <c r="B44" s="673"/>
+      <c r="C44" s="111"/>
       <c r="D44" s="253"/>
       <c r="E44" s="69"/>
       <c r="F44" s="111">
@@ -37358,15 +37578,15 @@
       <c r="J44" s="69"/>
       <c r="K44" s="140"/>
       <c r="L44" s="69"/>
-      <c r="M44" s="137" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="134"/>
-      <c r="B45" s="139"/>
-      <c r="C45" s="69"/>
+      <c r="M44" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A45" s="674"/>
+      <c r="B45" s="673"/>
+      <c r="C45" s="111"/>
       <c r="D45" s="253"/>
       <c r="E45" s="69"/>
       <c r="F45" s="111">
@@ -37378,14 +37598,14 @@
       <c r="J45" s="69"/>
       <c r="K45" s="140"/>
       <c r="L45" s="69"/>
-      <c r="M45" s="137" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="134"/>
-      <c r="B46" s="139"/>
+      <c r="M45" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A46" s="671"/>
+      <c r="B46" s="669"/>
       <c r="C46" s="69"/>
       <c r="D46" s="253"/>
       <c r="E46" s="69"/>
@@ -37398,14 +37618,14 @@
       <c r="J46" s="69"/>
       <c r="K46" s="140"/>
       <c r="L46" s="69"/>
-      <c r="M46" s="137" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M46" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="134"/>
-      <c r="B47" s="139"/>
+      <c r="B47" s="669"/>
       <c r="C47" s="69"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
@@ -37418,14 +37638,14 @@
       <c r="J47" s="69"/>
       <c r="K47" s="140"/>
       <c r="L47" s="69"/>
-      <c r="M47" s="137" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="M47" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="134"/>
-      <c r="B48" s="139"/>
+      <c r="B48" s="669"/>
       <c r="C48" s="69"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
@@ -37438,14 +37658,14 @@
       <c r="J48" s="69"/>
       <c r="K48" s="140"/>
       <c r="L48" s="69"/>
-      <c r="M48" s="137" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="M48" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="134"/>
-      <c r="B49" s="139"/>
+      <c r="B49" s="670"/>
       <c r="C49" s="69"/>
       <c r="D49" s="253"/>
       <c r="E49" s="69"/>
@@ -37458,9 +37678,9 @@
       <c r="J49" s="69"/>
       <c r="K49" s="140"/>
       <c r="L49" s="69"/>
-      <c r="M49" s="137" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="M49" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -37478,9 +37698,9 @@
       <c r="J50" s="34"/>
       <c r="K50" s="147"/>
       <c r="L50" s="34"/>
-      <c r="M50" s="137" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="M50" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -37498,9 +37718,9 @@
       <c r="J51" s="34"/>
       <c r="K51" s="147"/>
       <c r="L51" s="34"/>
-      <c r="M51" s="137" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="M51" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -37518,9 +37738,9 @@
       <c r="J52" s="34"/>
       <c r="K52" s="147"/>
       <c r="L52" s="34"/>
-      <c r="M52" s="137" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="M52" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -37538,9 +37758,9 @@
       <c r="J53" s="34"/>
       <c r="K53" s="147"/>
       <c r="L53" s="34"/>
-      <c r="M53" s="137" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="M53" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -37558,9 +37778,9 @@
       <c r="J54" s="34"/>
       <c r="K54" s="147"/>
       <c r="L54" s="34"/>
-      <c r="M54" s="137" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="M54" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -37578,9 +37798,9 @@
       <c r="J55" s="34"/>
       <c r="K55" s="147"/>
       <c r="L55" s="34"/>
-      <c r="M55" s="137" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="M55" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -37598,9 +37818,9 @@
       <c r="J56" s="69"/>
       <c r="K56" s="148"/>
       <c r="L56" s="69"/>
-      <c r="M56" s="137" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="M56" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -37618,9 +37838,9 @@
       <c r="J57" s="69"/>
       <c r="K57" s="148"/>
       <c r="L57" s="69"/>
-      <c r="M57" s="137" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="M57" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -37638,9 +37858,9 @@
       <c r="J58" s="69"/>
       <c r="K58" s="148"/>
       <c r="L58" s="69"/>
-      <c r="M58" s="137" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="M58" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -37658,9 +37878,9 @@
       <c r="J59" s="69"/>
       <c r="K59" s="148"/>
       <c r="L59" s="69"/>
-      <c r="M59" s="137" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="M59" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -37678,9 +37898,9 @@
       <c r="J60" s="69"/>
       <c r="K60" s="148"/>
       <c r="L60" s="69"/>
-      <c r="M60" s="137" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="M60" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -37698,9 +37918,9 @@
       <c r="J61" s="69"/>
       <c r="K61" s="148"/>
       <c r="L61" s="69"/>
-      <c r="M61" s="137" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="M61" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -37718,9 +37938,9 @@
       <c r="J62" s="69"/>
       <c r="K62" s="148"/>
       <c r="L62" s="69"/>
-      <c r="M62" s="137" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="M62" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -37738,9 +37958,9 @@
       <c r="J63" s="69"/>
       <c r="K63" s="148"/>
       <c r="L63" s="69"/>
-      <c r="M63" s="137" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="M63" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -37758,9 +37978,9 @@
       <c r="J64" s="69"/>
       <c r="K64" s="148"/>
       <c r="L64" s="69"/>
-      <c r="M64" s="137" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="M64" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="15.75" hidden="1" x14ac:dyDescent="0.25">
@@ -37778,9 +37998,9 @@
       <c r="J65" s="69"/>
       <c r="K65" s="148"/>
       <c r="L65" s="69"/>
-      <c r="M65" s="137" t="e">
-        <f t="shared" si="1"/>
-        <v>#REF!</v>
+      <c r="M65" s="137">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -37807,7 +38027,7 @@
       <c r="B67" s="440"/>
       <c r="C67" s="212">
         <f>SUM(C3:C66)</f>
-        <v>1179801.69</v>
+        <v>2122394.9000000004</v>
       </c>
       <c r="D67" s="407"/>
       <c r="E67" s="395">
@@ -37816,12 +38036,12 @@
       </c>
       <c r="F67" s="153">
         <f>SUM(F3:F66)</f>
-        <v>1179801.69</v>
-      </c>
-      <c r="H67" s="770" t="s">
+        <v>2122394.9000000004</v>
+      </c>
+      <c r="H67" s="775" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="771"/>
+      <c r="I67" s="776"/>
       <c r="J67" s="647">
         <f>SUM(J3:J66)</f>
         <v>0</v>
@@ -37841,11 +38061,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="732" t="s">
+      <c r="F68" s="737" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="772"/>
-      <c r="I68" s="773"/>
+      <c r="H68" s="777"/>
+      <c r="I68" s="778"/>
       <c r="J68" s="1"/>
       <c r="K68" s="97"/>
       <c r="L68" s="3"/>
@@ -37856,7 +38076,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="733"/>
+      <c r="F69" s="738"/>
       <c r="J69" s="1"/>
       <c r="K69" s="97"/>
       <c r="L69" s="3"/>
@@ -39796,7 +40016,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="705" t="s">
+      <c r="B41" s="710" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -39828,7 +40048,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="706"/>
+      <c r="B42" s="711"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -41448,23 +41668,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="670"/>
-      <c r="C1" s="672" t="s">
+      <c r="B1" s="675"/>
+      <c r="C1" s="677" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="673"/>
-      <c r="E1" s="673"/>
-      <c r="F1" s="673"/>
-      <c r="G1" s="673"/>
-      <c r="H1" s="673"/>
-      <c r="I1" s="673"/>
-      <c r="J1" s="673"/>
-      <c r="K1" s="673"/>
-      <c r="L1" s="673"/>
-      <c r="M1" s="673"/>
+      <c r="D1" s="678"/>
+      <c r="E1" s="678"/>
+      <c r="F1" s="678"/>
+      <c r="G1" s="678"/>
+      <c r="H1" s="678"/>
+      <c r="I1" s="678"/>
+      <c r="J1" s="678"/>
+      <c r="K1" s="678"/>
+      <c r="L1" s="678"/>
+      <c r="M1" s="678"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="671"/>
+      <c r="B2" s="676"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -41474,21 +41694,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="674" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="675"/>
+      <c r="B3" s="679" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="680"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="676" t="s">
+      <c r="H3" s="681" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="676"/>
+      <c r="I3" s="681"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="713" t="s">
+      <c r="P3" s="718" t="s">
         <v>6</v>
       </c>
     </row>
@@ -41503,14 +41723,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="677" t="s">
+      <c r="E4" s="682" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="678"/>
-      <c r="H4" s="679" t="s">
+      <c r="F4" s="683"/>
+      <c r="H4" s="684" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="680"/>
+      <c r="I4" s="685"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -41520,14 +41740,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="714"/>
+      <c r="P4" s="719"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="723" t="s">
+      <c r="W4" s="728" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="723"/>
+      <c r="X4" s="728"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -41578,8 +41798,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="723"/>
-      <c r="X5" s="723"/>
+      <c r="W5" s="728"/>
+      <c r="X5" s="728"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42350,7 +42570,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="727">
+      <c r="W19" s="732">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -42402,7 +42622,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="728"/>
+      <c r="W20" s="733"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -42451,8 +42671,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="729"/>
-      <c r="X21" s="729"/>
+      <c r="W21" s="734"/>
+      <c r="X21" s="734"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -42553,8 +42773,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="730"/>
-      <c r="X23" s="730"/>
+      <c r="W23" s="735"/>
+      <c r="X23" s="735"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -42608,8 +42828,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="730"/>
-      <c r="X24" s="730"/>
+      <c r="W24" s="735"/>
+      <c r="X24" s="735"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -42655,8 +42875,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="731"/>
-      <c r="X25" s="731"/>
+      <c r="W25" s="736"/>
+      <c r="X25" s="736"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -42707,8 +42927,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="731"/>
-      <c r="X26" s="731"/>
+      <c r="W26" s="736"/>
+      <c r="X26" s="736"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -42756,9 +42976,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="724"/>
-      <c r="X27" s="725"/>
-      <c r="Y27" s="726"/>
+      <c r="W27" s="729"/>
+      <c r="X27" s="730"/>
+      <c r="Y27" s="731"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42808,9 +43028,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="725"/>
-      <c r="X28" s="725"/>
-      <c r="Y28" s="726"/>
+      <c r="W28" s="730"/>
+      <c r="X28" s="730"/>
+      <c r="Y28" s="731"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -43145,11 +43365,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="715">
+      <c r="M36" s="720">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="717">
+      <c r="N36" s="722">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -43157,7 +43377,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="719">
+      <c r="Q36" s="724">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -43192,13 +43412,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="716"/>
-      <c r="N37" s="718"/>
+      <c r="M37" s="721"/>
+      <c r="N37" s="723"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="720"/>
+      <c r="Q37" s="725"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -43488,26 +43708,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="692" t="s">
+      <c r="H52" s="697" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="693"/>
+      <c r="I52" s="698"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="694">
+      <c r="K52" s="699">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="721"/>
+      <c r="L52" s="726"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="698" t="s">
+      <c r="D53" s="703" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="698"/>
+      <c r="E53" s="703"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -43516,29 +43736,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="722" t="s">
+      <c r="D54" s="727" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="722"/>
+      <c r="E54" s="727"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="699" t="s">
+      <c r="I54" s="704" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="700"/>
-      <c r="K54" s="701">
+      <c r="J54" s="705"/>
+      <c r="K54" s="706">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="701"/>
-      <c r="M54" s="707" t="s">
+      <c r="L54" s="706"/>
+      <c r="M54" s="712" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="708"/>
-      <c r="O54" s="708"/>
-      <c r="P54" s="708"/>
-      <c r="Q54" s="709"/>
+      <c r="N54" s="713"/>
+      <c r="O54" s="713"/>
+      <c r="P54" s="713"/>
+      <c r="Q54" s="714"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -43552,11 +43772,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="710"/>
-      <c r="N55" s="711"/>
-      <c r="O55" s="711"/>
-      <c r="P55" s="711"/>
-      <c r="Q55" s="712"/>
+      <c r="M55" s="715"/>
+      <c r="N55" s="716"/>
+      <c r="O55" s="716"/>
+      <c r="P55" s="716"/>
+      <c r="Q55" s="717"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -43574,11 +43794,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="703">
+      <c r="K56" s="708">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="704"/>
+      <c r="L56" s="709"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -43595,22 +43815,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="681" t="s">
+      <c r="D58" s="686" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="682"/>
+      <c r="E58" s="687"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="683" t="s">
+      <c r="I58" s="688" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="684"/>
-      <c r="K58" s="685">
+      <c r="J58" s="689"/>
+      <c r="K58" s="690">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="685"/>
+      <c r="L58" s="690"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -46200,7 +46420,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="732" t="s">
+      <c r="F87" s="737" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -46213,7 +46433,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="733"/>
+      <c r="F88" s="738"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -46525,23 +46745,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="670"/>
-      <c r="C1" s="672" t="s">
+      <c r="B1" s="675"/>
+      <c r="C1" s="677" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="673"/>
-      <c r="E1" s="673"/>
-      <c r="F1" s="673"/>
-      <c r="G1" s="673"/>
-      <c r="H1" s="673"/>
-      <c r="I1" s="673"/>
-      <c r="J1" s="673"/>
-      <c r="K1" s="673"/>
-      <c r="L1" s="673"/>
-      <c r="M1" s="673"/>
+      <c r="D1" s="678"/>
+      <c r="E1" s="678"/>
+      <c r="F1" s="678"/>
+      <c r="G1" s="678"/>
+      <c r="H1" s="678"/>
+      <c r="I1" s="678"/>
+      <c r="J1" s="678"/>
+      <c r="K1" s="678"/>
+      <c r="L1" s="678"/>
+      <c r="M1" s="678"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="671"/>
+      <c r="B2" s="676"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -46551,24 +46771,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="674" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="675"/>
+      <c r="B3" s="679" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="680"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="676" t="s">
+      <c r="H3" s="681" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="676"/>
+      <c r="I3" s="681"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="713" t="s">
+      <c r="P3" s="718" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="734" t="s">
+      <c r="R3" s="739" t="s">
         <v>216</v>
       </c>
     </row>
@@ -46583,14 +46803,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="677" t="s">
+      <c r="E4" s="682" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="678"/>
-      <c r="H4" s="679" t="s">
+      <c r="F4" s="683"/>
+      <c r="H4" s="684" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="680"/>
+      <c r="I4" s="685"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -46600,15 +46820,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="714"/>
+      <c r="P4" s="719"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="735"/>
-      <c r="W4" s="723" t="s">
+      <c r="R4" s="740"/>
+      <c r="W4" s="728" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="723"/>
+      <c r="X4" s="728"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -46669,8 +46889,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="723"/>
-      <c r="X5" s="723"/>
+      <c r="W5" s="728"/>
+      <c r="X5" s="728"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47427,7 +47647,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="727">
+      <c r="W19" s="732">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -47479,7 +47699,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="728"/>
+      <c r="W20" s="733"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -47528,8 +47748,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="729"/>
-      <c r="X21" s="729"/>
+      <c r="W21" s="734"/>
+      <c r="X21" s="734"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -47630,8 +47850,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="730"/>
-      <c r="X23" s="730"/>
+      <c r="W23" s="735"/>
+      <c r="X23" s="735"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -47682,8 +47902,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="730"/>
-      <c r="X24" s="730"/>
+      <c r="W24" s="735"/>
+      <c r="X24" s="735"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -47729,8 +47949,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="731"/>
-      <c r="X25" s="731"/>
+      <c r="W25" s="736"/>
+      <c r="X25" s="736"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -47778,8 +47998,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="731"/>
-      <c r="X26" s="731"/>
+      <c r="W26" s="736"/>
+      <c r="X26" s="736"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -47839,9 +48059,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="724"/>
-      <c r="X27" s="725"/>
-      <c r="Y27" s="726"/>
+      <c r="W27" s="729"/>
+      <c r="X27" s="730"/>
+      <c r="Y27" s="731"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47895,9 +48115,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="725"/>
-      <c r="X28" s="725"/>
-      <c r="Y28" s="726"/>
+      <c r="W28" s="730"/>
+      <c r="X28" s="730"/>
+      <c r="Y28" s="731"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -48213,11 +48433,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="715">
+      <c r="M36" s="720">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="717">
+      <c r="N36" s="722">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -48225,7 +48445,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="719">
+      <c r="Q36" s="724">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -48244,13 +48464,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="716"/>
-      <c r="N37" s="718"/>
+      <c r="M37" s="721"/>
+      <c r="N37" s="723"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="720"/>
+      <c r="Q37" s="725"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -48524,26 +48744,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="692" t="s">
+      <c r="H52" s="697" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="693"/>
+      <c r="I52" s="698"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="694">
+      <c r="K52" s="699">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="721"/>
+      <c r="L52" s="726"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="698" t="s">
+      <c r="D53" s="703" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="698"/>
+      <c r="E53" s="703"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -48552,29 +48772,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="722" t="s">
+      <c r="D54" s="727" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="722"/>
+      <c r="E54" s="727"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="699" t="s">
+      <c r="I54" s="704" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="700"/>
-      <c r="K54" s="701">
+      <c r="J54" s="705"/>
+      <c r="K54" s="706">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="701"/>
-      <c r="M54" s="707" t="s">
+      <c r="L54" s="706"/>
+      <c r="M54" s="712" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="708"/>
-      <c r="O54" s="708"/>
-      <c r="P54" s="708"/>
-      <c r="Q54" s="709"/>
+      <c r="N54" s="713"/>
+      <c r="O54" s="713"/>
+      <c r="P54" s="713"/>
+      <c r="Q54" s="714"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -48588,11 +48808,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="710"/>
-      <c r="N55" s="711"/>
-      <c r="O55" s="711"/>
-      <c r="P55" s="711"/>
-      <c r="Q55" s="712"/>
+      <c r="M55" s="715"/>
+      <c r="N55" s="716"/>
+      <c r="O55" s="716"/>
+      <c r="P55" s="716"/>
+      <c r="Q55" s="717"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -48610,11 +48830,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="703">
+      <c r="K56" s="708">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="704"/>
+      <c r="L56" s="709"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -48631,22 +48851,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="681" t="s">
+      <c r="D58" s="686" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="682"/>
+      <c r="E58" s="687"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="683" t="s">
+      <c r="I58" s="688" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="684"/>
-      <c r="K58" s="685">
+      <c r="J58" s="689"/>
+      <c r="K58" s="690">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="685"/>
+      <c r="L58" s="690"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -51209,7 +51429,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="732" t="s">
+      <c r="F75" s="737" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -51222,7 +51442,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="733"/>
+      <c r="F76" s="738"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -51514,23 +51734,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="670"/>
-      <c r="C1" s="736" t="s">
+      <c r="B1" s="675"/>
+      <c r="C1" s="741" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="737"/>
-      <c r="E1" s="737"/>
-      <c r="F1" s="737"/>
-      <c r="G1" s="737"/>
-      <c r="H1" s="737"/>
-      <c r="I1" s="737"/>
-      <c r="J1" s="737"/>
-      <c r="K1" s="737"/>
-      <c r="L1" s="737"/>
-      <c r="M1" s="737"/>
+      <c r="D1" s="742"/>
+      <c r="E1" s="742"/>
+      <c r="F1" s="742"/>
+      <c r="G1" s="742"/>
+      <c r="H1" s="742"/>
+      <c r="I1" s="742"/>
+      <c r="J1" s="742"/>
+      <c r="K1" s="742"/>
+      <c r="L1" s="742"/>
+      <c r="M1" s="742"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="671"/>
+      <c r="B2" s="676"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -51540,24 +51760,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="674" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="675"/>
+      <c r="B3" s="679" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="680"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="676" t="s">
+      <c r="H3" s="681" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="676"/>
+      <c r="I3" s="681"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="713" t="s">
+      <c r="P3" s="718" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="734" t="s">
+      <c r="R3" s="739" t="s">
         <v>216</v>
       </c>
     </row>
@@ -51572,14 +51792,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="677" t="s">
+      <c r="E4" s="682" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="678"/>
-      <c r="H4" s="679" t="s">
+      <c r="F4" s="683"/>
+      <c r="H4" s="684" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="680"/>
+      <c r="I4" s="685"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -51589,15 +51809,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="714"/>
+      <c r="P4" s="719"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="735"/>
-      <c r="W4" s="723" t="s">
+      <c r="R4" s="740"/>
+      <c r="W4" s="728" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="723"/>
+      <c r="X4" s="728"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -51648,8 +51868,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="723"/>
-      <c r="X5" s="723"/>
+      <c r="W5" s="728"/>
+      <c r="X5" s="728"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52413,7 +52633,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="727">
+      <c r="W19" s="732">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -52466,7 +52686,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="728"/>
+      <c r="W20" s="733"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -52515,8 +52735,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="729"/>
-      <c r="X21" s="729"/>
+      <c r="W21" s="734"/>
+      <c r="X21" s="734"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -52616,8 +52836,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="730"/>
-      <c r="X23" s="730"/>
+      <c r="W23" s="735"/>
+      <c r="X23" s="735"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -52672,8 +52892,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="730"/>
-      <c r="X24" s="730"/>
+      <c r="W24" s="735"/>
+      <c r="X24" s="735"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -52718,8 +52938,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="731"/>
-      <c r="X25" s="731"/>
+      <c r="W25" s="736"/>
+      <c r="X25" s="736"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -52767,8 +52987,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="731"/>
-      <c r="X26" s="731"/>
+      <c r="W26" s="736"/>
+      <c r="X26" s="736"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -52822,9 +53042,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="724"/>
-      <c r="X27" s="725"/>
-      <c r="Y27" s="726"/>
+      <c r="W27" s="729"/>
+      <c r="X27" s="730"/>
+      <c r="Y27" s="731"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52878,9 +53098,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="725"/>
-      <c r="X28" s="725"/>
-      <c r="Y28" s="726"/>
+      <c r="W28" s="730"/>
+      <c r="X28" s="730"/>
+      <c r="Y28" s="731"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -53191,11 +53411,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="715">
+      <c r="M36" s="720">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="717">
+      <c r="N36" s="722">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -53203,7 +53423,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="719">
+      <c r="Q36" s="724">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -53228,13 +53448,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="716"/>
-      <c r="N37" s="718"/>
+      <c r="M37" s="721"/>
+      <c r="N37" s="723"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="720"/>
+      <c r="Q37" s="725"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -53527,26 +53747,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="692" t="s">
+      <c r="H52" s="697" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="693"/>
+      <c r="I52" s="698"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="694">
+      <c r="K52" s="699">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="721"/>
+      <c r="L52" s="726"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="698" t="s">
+      <c r="D53" s="703" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="698"/>
+      <c r="E53" s="703"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -53555,22 +53775,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="722" t="s">
+      <c r="D54" s="727" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="722"/>
+      <c r="E54" s="727"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="699" t="s">
+      <c r="I54" s="704" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="700"/>
-      <c r="K54" s="701">
+      <c r="J54" s="705"/>
+      <c r="K54" s="706">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="701"/>
+      <c r="L54" s="706"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -53611,11 +53831,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="703">
+      <c r="K56" s="708">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="704"/>
+      <c r="L56" s="709"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -53632,22 +53852,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="681" t="s">
+      <c r="D58" s="686" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="682"/>
+      <c r="E58" s="687"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="683" t="s">
+      <c r="I58" s="688" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="684"/>
-      <c r="K58" s="685">
+      <c r="J58" s="689"/>
+      <c r="K58" s="690">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="685"/>
+      <c r="L58" s="690"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -55516,12 +55736,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="738" t="s">
+      <c r="B43" s="743" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="739"/>
-      <c r="D43" s="739"/>
-      <c r="E43" s="740"/>
+      <c r="C43" s="744"/>
+      <c r="D43" s="744"/>
+      <c r="E43" s="745"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -55549,10 +55769,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="741"/>
-      <c r="C44" s="742"/>
-      <c r="D44" s="742"/>
-      <c r="E44" s="743"/>
+      <c r="B44" s="746"/>
+      <c r="C44" s="747"/>
+      <c r="D44" s="747"/>
+      <c r="E44" s="748"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -55580,10 +55800,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="744"/>
-      <c r="C45" s="745"/>
-      <c r="D45" s="745"/>
-      <c r="E45" s="746"/>
+      <c r="B45" s="749"/>
+      <c r="C45" s="750"/>
+      <c r="D45" s="750"/>
+      <c r="E45" s="751"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -55626,10 +55846,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="753" t="s">
+      <c r="B47" s="758" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="754"/>
+      <c r="C47" s="759"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -55651,8 +55871,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="755"/>
-      <c r="C48" s="756"/>
+      <c r="B48" s="760"/>
+      <c r="C48" s="761"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -55660,11 +55880,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="747" t="s">
+      <c r="J48" s="752" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="748"/>
-      <c r="L48" s="749"/>
+      <c r="K48" s="753"/>
+      <c r="L48" s="754"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -55682,9 +55902,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="750"/>
-      <c r="K49" s="751"/>
-      <c r="L49" s="752"/>
+      <c r="J49" s="755"/>
+      <c r="K49" s="756"/>
+      <c r="L49" s="757"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -55701,10 +55921,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="757" t="s">
+      <c r="I50" s="762" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="758"/>
+      <c r="J50" s="763"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -55725,8 +55945,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="757"/>
-      <c r="J51" s="758"/>
+      <c r="I51" s="762"/>
+      <c r="J51" s="763"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -55745,8 +55965,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="757"/>
-      <c r="J52" s="758"/>
+      <c r="I52" s="762"/>
+      <c r="J52" s="763"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -55765,8 +55985,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="757"/>
-      <c r="J53" s="758"/>
+      <c r="I53" s="762"/>
+      <c r="J53" s="763"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -55785,8 +56005,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="757"/>
-      <c r="J54" s="758"/>
+      <c r="I54" s="762"/>
+      <c r="J54" s="763"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -55805,8 +56025,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="757"/>
-      <c r="J55" s="758"/>
+      <c r="I55" s="762"/>
+      <c r="J55" s="763"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -55825,8 +56045,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="757"/>
-      <c r="J56" s="758"/>
+      <c r="I56" s="762"/>
+      <c r="J56" s="763"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -55845,8 +56065,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="757"/>
-      <c r="J57" s="758"/>
+      <c r="I57" s="762"/>
+      <c r="J57" s="763"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -55865,8 +56085,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="757"/>
-      <c r="J58" s="758"/>
+      <c r="I58" s="762"/>
+      <c r="J58" s="763"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -55885,8 +56105,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="757"/>
-      <c r="J59" s="758"/>
+      <c r="I59" s="762"/>
+      <c r="J59" s="763"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -55905,8 +56125,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="757"/>
-      <c r="J60" s="758"/>
+      <c r="I60" s="762"/>
+      <c r="J60" s="763"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -55925,8 +56145,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="757"/>
-      <c r="J61" s="758"/>
+      <c r="I61" s="762"/>
+      <c r="J61" s="763"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -55945,8 +56165,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="757"/>
-      <c r="J62" s="758"/>
+      <c r="I62" s="762"/>
+      <c r="J62" s="763"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -55965,8 +56185,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="757"/>
-      <c r="J63" s="758"/>
+      <c r="I63" s="762"/>
+      <c r="J63" s="763"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -55985,8 +56205,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="757"/>
-      <c r="J64" s="758"/>
+      <c r="I64" s="762"/>
+      <c r="J64" s="763"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -56005,8 +56225,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="757"/>
-      <c r="J65" s="758"/>
+      <c r="I65" s="762"/>
+      <c r="J65" s="763"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -56025,8 +56245,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="757"/>
-      <c r="J66" s="758"/>
+      <c r="I66" s="762"/>
+      <c r="J66" s="763"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -56045,8 +56265,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="757"/>
-      <c r="J67" s="758"/>
+      <c r="I67" s="762"/>
+      <c r="J67" s="763"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -56065,8 +56285,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="757"/>
-      <c r="J68" s="758"/>
+      <c r="I68" s="762"/>
+      <c r="J68" s="763"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -56085,8 +56305,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="757"/>
-      <c r="J69" s="758"/>
+      <c r="I69" s="762"/>
+      <c r="J69" s="763"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -56105,8 +56325,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="757"/>
-      <c r="J70" s="758"/>
+      <c r="I70" s="762"/>
+      <c r="J70" s="763"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -56125,8 +56345,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="757"/>
-      <c r="J71" s="758"/>
+      <c r="I71" s="762"/>
+      <c r="J71" s="763"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -56145,8 +56365,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="757"/>
-      <c r="J72" s="758"/>
+      <c r="I72" s="762"/>
+      <c r="J72" s="763"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -56165,8 +56385,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="757"/>
-      <c r="J73" s="758"/>
+      <c r="I73" s="762"/>
+      <c r="J73" s="763"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -56185,8 +56405,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="757"/>
-      <c r="J74" s="758"/>
+      <c r="I74" s="762"/>
+      <c r="J74" s="763"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -56205,8 +56425,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="757"/>
-      <c r="J75" s="758"/>
+      <c r="I75" s="762"/>
+      <c r="J75" s="763"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -56225,8 +56445,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="757"/>
-      <c r="J76" s="758"/>
+      <c r="I76" s="762"/>
+      <c r="J76" s="763"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -56245,8 +56465,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="757"/>
-      <c r="J77" s="758"/>
+      <c r="I77" s="762"/>
+      <c r="J77" s="763"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -56267,8 +56487,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="759"/>
-      <c r="J78" s="760"/>
+      <c r="I78" s="764"/>
+      <c r="J78" s="765"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -56313,7 +56533,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="732" t="s">
+      <c r="F80" s="737" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -56325,7 +56545,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="733"/>
+      <c r="F81" s="738"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -56613,23 +56833,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="670"/>
-      <c r="C1" s="736" t="s">
+      <c r="B1" s="675"/>
+      <c r="C1" s="741" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="737"/>
-      <c r="E1" s="737"/>
-      <c r="F1" s="737"/>
-      <c r="G1" s="737"/>
-      <c r="H1" s="737"/>
-      <c r="I1" s="737"/>
-      <c r="J1" s="737"/>
-      <c r="K1" s="737"/>
-      <c r="L1" s="737"/>
-      <c r="M1" s="737"/>
+      <c r="D1" s="742"/>
+      <c r="E1" s="742"/>
+      <c r="F1" s="742"/>
+      <c r="G1" s="742"/>
+      <c r="H1" s="742"/>
+      <c r="I1" s="742"/>
+      <c r="J1" s="742"/>
+      <c r="K1" s="742"/>
+      <c r="L1" s="742"/>
+      <c r="M1" s="742"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="671"/>
+      <c r="B2" s="676"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -56639,24 +56859,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="674" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="675"/>
+      <c r="B3" s="679" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="680"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="676" t="s">
+      <c r="H3" s="681" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="676"/>
+      <c r="I3" s="681"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="713" t="s">
+      <c r="P3" s="718" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="734" t="s">
+      <c r="R3" s="739" t="s">
         <v>216</v>
       </c>
     </row>
@@ -56671,14 +56891,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="677" t="s">
+      <c r="E4" s="682" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="678"/>
-      <c r="H4" s="679" t="s">
+      <c r="F4" s="683"/>
+      <c r="H4" s="684" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="680"/>
+      <c r="I4" s="685"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -56688,15 +56908,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="714"/>
+      <c r="P4" s="719"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="735"/>
-      <c r="W4" s="723" t="s">
+      <c r="R4" s="740"/>
+      <c r="W4" s="728" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="723"/>
+      <c r="X4" s="728"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -56747,8 +56967,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="723"/>
-      <c r="X5" s="723"/>
+      <c r="W5" s="728"/>
+      <c r="X5" s="728"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57509,7 +57729,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="727">
+      <c r="W19" s="732">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -57561,7 +57781,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="728"/>
+      <c r="W20" s="733"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -57610,8 +57830,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="729"/>
-      <c r="X21" s="729"/>
+      <c r="W21" s="734"/>
+      <c r="X21" s="734"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -57710,8 +57930,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="730"/>
-      <c r="X23" s="730"/>
+      <c r="W23" s="735"/>
+      <c r="X23" s="735"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -57766,8 +57986,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="730"/>
-      <c r="X24" s="730"/>
+      <c r="W24" s="735"/>
+      <c r="X24" s="735"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -57815,8 +58035,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="731"/>
-      <c r="X25" s="731"/>
+      <c r="W25" s="736"/>
+      <c r="X25" s="736"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -57864,8 +58084,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="731"/>
-      <c r="X26" s="731"/>
+      <c r="W26" s="736"/>
+      <c r="X26" s="736"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -57913,9 +58133,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="724"/>
-      <c r="X27" s="725"/>
-      <c r="Y27" s="726"/>
+      <c r="W27" s="729"/>
+      <c r="X27" s="730"/>
+      <c r="Y27" s="731"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57963,9 +58183,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="725"/>
-      <c r="X28" s="725"/>
-      <c r="Y28" s="726"/>
+      <c r="W28" s="730"/>
+      <c r="X28" s="730"/>
+      <c r="Y28" s="731"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -58306,11 +58526,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="715">
+      <c r="M36" s="720">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="717">
+      <c r="N36" s="722">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -58318,7 +58538,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="761">
+      <c r="Q36" s="766">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -58343,13 +58563,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="716"/>
-      <c r="N37" s="718"/>
+      <c r="M37" s="721"/>
+      <c r="N37" s="723"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="762"/>
+      <c r="Q37" s="767"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -58399,11 +58619,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="763">
+      <c r="M39" s="768">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="764"/>
+      <c r="N39" s="769"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -58651,26 +58871,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="692" t="s">
+      <c r="H52" s="697" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="693"/>
+      <c r="I52" s="698"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="694">
+      <c r="K52" s="699">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="721"/>
+      <c r="L52" s="726"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="698" t="s">
+      <c r="D53" s="703" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="698"/>
+      <c r="E53" s="703"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -58679,22 +58899,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="722" t="s">
+      <c r="D54" s="727" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="722"/>
+      <c r="E54" s="727"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="699" t="s">
+      <c r="I54" s="704" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="700"/>
-      <c r="K54" s="701">
+      <c r="J54" s="705"/>
+      <c r="K54" s="706">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="701"/>
+      <c r="L54" s="706"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -58735,11 +58955,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="703">
+      <c r="K56" s="708">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="704"/>
+      <c r="L56" s="709"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -58756,22 +58976,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="681" t="s">
+      <c r="D58" s="686" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="682"/>
+      <c r="E58" s="687"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="683" t="s">
+      <c r="I58" s="688" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="684"/>
-      <c r="K58" s="685">
+      <c r="J58" s="689"/>
+      <c r="K58" s="690">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="685"/>
+      <c r="L58" s="690"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE    ZAVALETA   JUNIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE    ZAVALETA   JUNIO    2022.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ROUSS\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL  ARCHIVO   2 0 2 2\CENTRAL #06  JUNIO 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rouss\Documents\GitHub\TRABAJO\01 DOCUEMENTOS\CENTRAL  ARCHIVO   2 0 2 2\CENTRAL #06  JUNIO 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{220E7BED-A2EC-4874-B961-8266C3479506}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3690" yWindow="0" windowWidth="16605" windowHeight="10920" firstSheet="15" activeTab="17"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="15" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OCTUBRE      2 0 2 1     " sheetId="1" r:id="rId1"/>
@@ -34,22 +35,30 @@
     <sheet name="Hoja2" sheetId="23" r:id="rId20"/>
     <sheet name="Hoja3" sheetId="20" r:id="rId21"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ROUSS</author>
   </authors>
   <commentList>
-    <comment ref="J23" authorId="0" shapeId="0">
+    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +82,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J25" authorId="0" shapeId="0">
+    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -102,12 +111,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ROUSS</author>
   </authors>
   <commentList>
-    <comment ref="J23" authorId="0" shapeId="0">
+    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -131,7 +140,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J25" authorId="0" shapeId="0">
+    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -160,12 +169,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ROUSS</author>
   </authors>
   <commentList>
-    <comment ref="J23" authorId="0" shapeId="0">
+    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -189,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J25" authorId="0" shapeId="0">
+    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000002000000}">
       <text>
         <r>
           <rPr>
@@ -218,12 +227,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ROUSS</author>
   </authors>
   <commentList>
-    <comment ref="J23" authorId="0" shapeId="0">
+    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -247,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J25" authorId="0" shapeId="0">
+    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -271,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J43" authorId="0" shapeId="0">
+    <comment ref="J43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -300,12 +309,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ROUSS</author>
   </authors>
   <commentList>
-    <comment ref="J23" authorId="0" shapeId="0">
+    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000001000000}">
       <text>
         <r>
           <rPr>
@@ -329,7 +338,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J25" authorId="0" shapeId="0">
+    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000002000000}">
       <text>
         <r>
           <rPr>
@@ -353,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J43" authorId="0" shapeId="0">
+    <comment ref="J43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0800-000003000000}">
       <text>
         <r>
           <rPr>
@@ -382,12 +391,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ROUSS</author>
   </authors>
   <commentList>
-    <comment ref="J23" authorId="0" shapeId="0">
+    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -411,7 +420,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J25" authorId="0" shapeId="0">
+    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -435,7 +444,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J43" authorId="0" shapeId="0">
+    <comment ref="J43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0A00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -464,12 +473,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ROUSS</author>
   </authors>
   <commentList>
-    <comment ref="J23" authorId="0" shapeId="0">
+    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -493,7 +502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J25" authorId="0" shapeId="0">
+    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -517,7 +526,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J43" authorId="0" shapeId="0">
+    <comment ref="J43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0C00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -546,12 +555,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ROUSS</author>
   </authors>
   <commentList>
-    <comment ref="J23" authorId="0" shapeId="0">
+    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000001000000}">
       <text>
         <r>
           <rPr>
@@ -575,7 +584,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J25" authorId="0" shapeId="0">
+    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000002000000}">
       <text>
         <r>
           <rPr>
@@ -599,7 +608,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J43" authorId="0" shapeId="0">
+    <comment ref="J43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0F00-000003000000}">
       <text>
         <r>
           <rPr>
@@ -628,12 +637,12 @@
 </file>
 
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>ROUSS</author>
   </authors>
   <commentList>
-    <comment ref="J23" authorId="0" shapeId="0">
+    <comment ref="J23" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -657,7 +666,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J25" authorId="0" shapeId="0">
+    <comment ref="J25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -681,7 +690,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J43" authorId="0" shapeId="0">
+    <comment ref="J43" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-1100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -3662,7 +3671,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
     <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00;\-&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
@@ -7072,39 +7081,6 @@
     <xf numFmtId="164" fontId="72" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7177,10 +7153,76 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7224,39 +7266,6 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7450,20 +7459,20 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="18" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7961,7 +7970,7 @@
         <xdr:cNvPr id="2" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2012060D-6A0F-41D2-A832-74F72EF945FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8014,7 +8023,7 @@
         <xdr:cNvPr id="3" name="1 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C84F863B-1E69-40C9-AAA6-E150E727BC58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8067,7 +8076,7 @@
         <xdr:cNvPr id="4" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F282856-1683-4627-996E-9F4AD530C284}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8120,7 +8129,7 @@
         <xdr:cNvPr id="5" name="Conector recto de flecha 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC19A0EA-B603-496A-8B2F-50F1F36E5D63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8173,7 +8182,7 @@
         <xdr:cNvPr id="6" name="Abrir llave 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97978218-9641-42D3-AAF9-C49E03D3CF46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8229,7 +8238,7 @@
         <xdr:cNvPr id="7" name="Rectángulo 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81AED0B7-5349-49AD-8D5B-E24B093B3905}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8329,7 +8338,7 @@
         <xdr:cNvPr id="8" name="Conector recto de flecha 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3DEEAA-4813-4B55-9D28-E8AF250AE061}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0F00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8387,7 +8396,7 @@
         <xdr:cNvPr id="2" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2012060D-6A0F-41D2-A832-74F72EF945FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8440,7 +8449,7 @@
         <xdr:cNvPr id="3" name="1 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C84F863B-1E69-40C9-AAA6-E150E727BC58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8493,7 +8502,7 @@
         <xdr:cNvPr id="4" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F282856-1683-4627-996E-9F4AD530C284}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8546,7 +8555,7 @@
         <xdr:cNvPr id="5" name="Conector recto de flecha 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC19A0EA-B603-496A-8B2F-50F1F36E5D63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8599,7 +8608,7 @@
         <xdr:cNvPr id="6" name="Abrir llave 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97978218-9641-42D3-AAF9-C49E03D3CF46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8655,7 +8664,7 @@
         <xdr:cNvPr id="7" name="Rectángulo 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81AED0B7-5349-49AD-8D5B-E24B093B3905}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8755,7 +8764,7 @@
         <xdr:cNvPr id="8" name="Conector recto de flecha 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3DEEAA-4813-4B55-9D28-E8AF250AE061}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-1100-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9239,7 +9248,7 @@
         <xdr:cNvPr id="2" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2012060D-6A0F-41D2-A832-74F72EF945FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9292,7 +9301,7 @@
         <xdr:cNvPr id="3" name="1 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C84F863B-1E69-40C9-AAA6-E150E727BC58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9345,7 +9354,7 @@
         <xdr:cNvPr id="4" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F282856-1683-4627-996E-9F4AD530C284}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9398,7 +9407,7 @@
         <xdr:cNvPr id="5" name="Conector recto de flecha 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC19A0EA-B603-496A-8B2F-50F1F36E5D63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9451,7 +9460,7 @@
         <xdr:cNvPr id="6" name="Abrir llave 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97978218-9641-42D3-AAF9-C49E03D3CF46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9507,7 +9516,7 @@
         <xdr:cNvPr id="7" name="Rectángulo 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81AED0B7-5349-49AD-8D5B-E24B093B3905}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9607,7 +9616,7 @@
         <xdr:cNvPr id="8" name="Conector recto de flecha 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3DEEAA-4813-4B55-9D28-E8AF250AE061}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9665,7 +9674,7 @@
         <xdr:cNvPr id="2" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2012060D-6A0F-41D2-A832-74F72EF945FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9718,7 +9727,7 @@
         <xdr:cNvPr id="3" name="1 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C84F863B-1E69-40C9-AAA6-E150E727BC58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9771,7 +9780,7 @@
         <xdr:cNvPr id="4" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F282856-1683-4627-996E-9F4AD530C284}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9824,7 +9833,7 @@
         <xdr:cNvPr id="5" name="Conector recto de flecha 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC19A0EA-B603-496A-8B2F-50F1F36E5D63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9877,7 +9886,7 @@
         <xdr:cNvPr id="6" name="Abrir llave 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97978218-9641-42D3-AAF9-C49E03D3CF46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9933,7 +9942,7 @@
         <xdr:cNvPr id="7" name="Rectángulo 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81AED0B7-5349-49AD-8D5B-E24B093B3905}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10033,7 +10042,7 @@
         <xdr:cNvPr id="8" name="Conector recto de flecha 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3DEEAA-4813-4B55-9D28-E8AF250AE061}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10088,7 +10097,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Cerrar llave 1"/>
+        <xdr:cNvPr id="2" name="Cerrar llave 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10143,7 +10158,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Cerrar llave 2"/>
+        <xdr:cNvPr id="3" name="Cerrar llave 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10206,7 +10227,7 @@
         <xdr:cNvPr id="2" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2012060D-6A0F-41D2-A832-74F72EF945FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10259,7 +10280,7 @@
         <xdr:cNvPr id="3" name="1 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C84F863B-1E69-40C9-AAA6-E150E727BC58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10312,7 +10333,7 @@
         <xdr:cNvPr id="4" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F282856-1683-4627-996E-9F4AD530C284}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10365,7 +10386,7 @@
         <xdr:cNvPr id="5" name="Conector recto de flecha 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC19A0EA-B603-496A-8B2F-50F1F36E5D63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10418,7 +10439,7 @@
         <xdr:cNvPr id="6" name="Abrir llave 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97978218-9641-42D3-AAF9-C49E03D3CF46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10474,7 +10495,7 @@
         <xdr:cNvPr id="7" name="Rectángulo 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81AED0B7-5349-49AD-8D5B-E24B093B3905}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10574,7 +10595,7 @@
         <xdr:cNvPr id="8" name="Conector recto de flecha 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3DEEAA-4813-4B55-9D28-E8AF250AE061}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0800-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10632,7 +10653,7 @@
         <xdr:cNvPr id="2" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2012060D-6A0F-41D2-A832-74F72EF945FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10685,7 +10706,7 @@
         <xdr:cNvPr id="3" name="1 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C84F863B-1E69-40C9-AAA6-E150E727BC58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10738,7 +10759,7 @@
         <xdr:cNvPr id="4" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F282856-1683-4627-996E-9F4AD530C284}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10791,7 +10812,7 @@
         <xdr:cNvPr id="5" name="Conector recto de flecha 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC19A0EA-B603-496A-8B2F-50F1F36E5D63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10844,7 +10865,7 @@
         <xdr:cNvPr id="6" name="Abrir llave 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97978218-9641-42D3-AAF9-C49E03D3CF46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10900,7 +10921,7 @@
         <xdr:cNvPr id="7" name="Rectángulo 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81AED0B7-5349-49AD-8D5B-E24B093B3905}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11000,7 +11021,7 @@
         <xdr:cNvPr id="8" name="Conector recto de flecha 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3DEEAA-4813-4B55-9D28-E8AF250AE061}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0A00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11058,7 +11079,7 @@
         <xdr:cNvPr id="2" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2012060D-6A0F-41D2-A832-74F72EF945FB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11111,7 +11132,7 @@
         <xdr:cNvPr id="3" name="1 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C84F863B-1E69-40C9-AAA6-E150E727BC58}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11164,7 +11185,7 @@
         <xdr:cNvPr id="4" name="2 Conector recto de flecha">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F282856-1683-4627-996E-9F4AD530C284}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11217,7 +11238,7 @@
         <xdr:cNvPr id="5" name="Conector recto de flecha 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC19A0EA-B603-496A-8B2F-50F1F36E5D63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11270,7 +11291,7 @@
         <xdr:cNvPr id="6" name="Abrir llave 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97978218-9641-42D3-AAF9-C49E03D3CF46}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11326,7 +11347,7 @@
         <xdr:cNvPr id="7" name="Rectángulo 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81AED0B7-5349-49AD-8D5B-E24B093B3905}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11426,7 +11447,7 @@
         <xdr:cNvPr id="8" name="Conector recto de flecha 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE3DEEAA-4813-4B55-9D28-E8AF250AE061}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0C00-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11481,7 +11502,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="3" name="Conector recto de flecha 2"/>
+        <xdr:cNvPr id="3" name="Conector recto de flecha 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11529,7 +11556,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Conector recto de flecha 4"/>
+        <xdr:cNvPr id="5" name="Conector recto de flecha 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -11826,7 +11859,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FF800000"/>
   </sheetPr>
@@ -11858,23 +11891,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="675"/>
-      <c r="C1" s="677" t="s">
+      <c r="B1" s="699"/>
+      <c r="C1" s="701" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="678"/>
-      <c r="E1" s="678"/>
-      <c r="F1" s="678"/>
-      <c r="G1" s="678"/>
-      <c r="H1" s="678"/>
-      <c r="I1" s="678"/>
-      <c r="J1" s="678"/>
-      <c r="K1" s="678"/>
-      <c r="L1" s="678"/>
-      <c r="M1" s="678"/>
+      <c r="D1" s="702"/>
+      <c r="E1" s="702"/>
+      <c r="F1" s="702"/>
+      <c r="G1" s="702"/>
+      <c r="H1" s="702"/>
+      <c r="I1" s="702"/>
+      <c r="J1" s="702"/>
+      <c r="K1" s="702"/>
+      <c r="L1" s="702"/>
+      <c r="M1" s="702"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="676"/>
+      <c r="B2" s="700"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -11884,17 +11917,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="679" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="680"/>
+      <c r="B3" s="703" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="704"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="681" t="s">
+      <c r="H3" s="705" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="681"/>
+      <c r="I3" s="705"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -11908,14 +11941,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="682" t="s">
+      <c r="E4" s="706" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="683"/>
-      <c r="H4" s="684" t="s">
+      <c r="F4" s="707"/>
+      <c r="H4" s="708" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="685"/>
+      <c r="I4" s="709"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -11925,10 +11958,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="691" t="s">
+      <c r="P4" s="680" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="692"/>
+      <c r="Q4" s="681"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -13369,11 +13402,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="693">
+      <c r="M39" s="682">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="695">
+      <c r="N39" s="684">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -13399,8 +13432,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="694"/>
-      <c r="N40" s="696"/>
+      <c r="M40" s="683"/>
+      <c r="N40" s="685"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -13615,29 +13648,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="697" t="s">
+      <c r="H52" s="686" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="698"/>
+      <c r="I52" s="687"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="699">
+      <c r="K52" s="688">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="700"/>
-      <c r="M52" s="701">
+      <c r="L52" s="689"/>
+      <c r="M52" s="690">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="702"/>
+      <c r="N52" s="691"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="703" t="s">
+      <c r="D53" s="692" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="703"/>
+      <c r="E53" s="692"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -13648,22 +13681,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="703" t="s">
+      <c r="D54" s="692" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="703"/>
+      <c r="E54" s="692"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="704" t="s">
+      <c r="I54" s="693" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="705"/>
-      <c r="K54" s="706">
+      <c r="J54" s="694"/>
+      <c r="K54" s="695">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="707"/>
+      <c r="L54" s="696"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -13696,11 +13729,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="708">
+      <c r="K56" s="697">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="709"/>
+      <c r="L56" s="698"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -13717,22 +13750,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="686" t="s">
+      <c r="D58" s="675" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="687"/>
+      <c r="E58" s="676"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="688" t="s">
+      <c r="I58" s="677" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="689"/>
-      <c r="K58" s="690">
+      <c r="J58" s="678"/>
+      <c r="K58" s="679">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="690"/>
+      <c r="L58" s="679"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -13876,6 +13909,12 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -13890,12 +13929,6 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -13905,7 +13938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -16718,7 +16751,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -16754,7 +16787,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="675"/>
+      <c r="B1" s="699"/>
       <c r="C1" s="741" t="s">
         <v>451</v>
       </c>
@@ -16770,7 +16803,7 @@
       <c r="M1" s="742"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="676"/>
+      <c r="B2" s="700"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -16780,21 +16813,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="679" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="680"/>
+      <c r="B3" s="703" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="704"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="681" t="s">
+      <c r="H3" s="705" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="681"/>
+      <c r="I3" s="705"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="718" t="s">
+      <c r="P3" s="729" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="739" t="s">
@@ -16812,14 +16845,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="682" t="s">
+      <c r="E4" s="706" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="683"/>
-      <c r="H4" s="684" t="s">
+      <c r="F4" s="707"/>
+      <c r="H4" s="708" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="685"/>
+      <c r="I4" s="709"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -16829,15 +16862,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="719"/>
+      <c r="P4" s="730"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="740"/>
-      <c r="W4" s="728" t="s">
+      <c r="W4" s="712" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="728"/>
+      <c r="X4" s="712"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -16888,8 +16921,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="728"/>
-      <c r="X5" s="728"/>
+      <c r="W5" s="712"/>
+      <c r="X5" s="712"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17652,7 +17685,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="732">
+      <c r="W19" s="716">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -17704,7 +17737,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="733"/>
+      <c r="W20" s="717"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -17753,8 +17786,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="734"/>
-      <c r="X21" s="734"/>
+      <c r="W21" s="718"/>
+      <c r="X21" s="718"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -17854,8 +17887,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="735"/>
-      <c r="X23" s="735"/>
+      <c r="W23" s="719"/>
+      <c r="X23" s="719"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -17910,8 +17943,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="735"/>
-      <c r="X24" s="735"/>
+      <c r="W24" s="719"/>
+      <c r="X24" s="719"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -17959,8 +17992,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="736"/>
-      <c r="X25" s="736"/>
+      <c r="W25" s="720"/>
+      <c r="X25" s="720"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -18009,8 +18042,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="736"/>
-      <c r="X26" s="736"/>
+      <c r="W26" s="720"/>
+      <c r="X26" s="720"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -18058,9 +18091,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="729"/>
-      <c r="X27" s="730"/>
-      <c r="Y27" s="731"/>
+      <c r="W27" s="713"/>
+      <c r="X27" s="714"/>
+      <c r="Y27" s="715"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18108,9 +18141,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="730"/>
-      <c r="X28" s="730"/>
-      <c r="Y28" s="731"/>
+      <c r="W28" s="714"/>
+      <c r="X28" s="714"/>
+      <c r="Y28" s="715"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18442,11 +18475,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="720">
+      <c r="M36" s="731">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="722">
+      <c r="N36" s="733">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -18479,8 +18512,8 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="721"/>
-      <c r="N37" s="723"/>
+      <c r="M37" s="732"/>
+      <c r="N37" s="734"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
@@ -19167,26 +19200,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="697" t="s">
+      <c r="H68" s="686" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="698"/>
+      <c r="I68" s="687"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="699">
+      <c r="K68" s="688">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="726"/>
+      <c r="L68" s="721"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="703" t="s">
+      <c r="D69" s="692" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="703"/>
+      <c r="E69" s="692"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -19195,22 +19228,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="727" t="s">
+      <c r="D70" s="722" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="727"/>
+      <c r="E70" s="722"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="704" t="s">
+      <c r="I70" s="693" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="705"/>
-      <c r="K70" s="706">
+      <c r="J70" s="694"/>
+      <c r="K70" s="695">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="706"/>
+      <c r="L70" s="695"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -19251,11 +19284,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="708">
+      <c r="K72" s="697">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="709"/>
+      <c r="L72" s="698"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -19272,22 +19305,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="686" t="s">
+      <c r="D74" s="675" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="687"/>
+      <c r="E74" s="676"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="688" t="s">
+      <c r="I74" s="677" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="689"/>
-      <c r="K74" s="690">
+      <c r="J74" s="678"/>
+      <c r="K74" s="679">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="690"/>
+      <c r="L74" s="679"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -19430,10 +19463,25 @@
       <c r="F96" s="129"/>
     </row>
   </sheetData>
-  <sortState ref="B34:D42">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B34:D42">
     <sortCondition ref="B34:B42"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -19449,21 +19497,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -19473,7 +19506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
@@ -22013,7 +22046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -22049,7 +22082,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="675"/>
+      <c r="B1" s="699"/>
       <c r="C1" s="741" t="s">
         <v>620</v>
       </c>
@@ -22065,7 +22098,7 @@
       <c r="M1" s="742"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="676"/>
+      <c r="B2" s="700"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -22075,21 +22108,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="679" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="680"/>
+      <c r="B3" s="703" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="704"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="681" t="s">
+      <c r="H3" s="705" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="681"/>
+      <c r="I3" s="705"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="718" t="s">
+      <c r="P3" s="729" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="739" t="s">
@@ -22107,14 +22140,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="682" t="s">
+      <c r="E4" s="706" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="683"/>
-      <c r="H4" s="684" t="s">
+      <c r="F4" s="707"/>
+      <c r="H4" s="708" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="685"/>
+      <c r="I4" s="709"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -22124,15 +22157,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="719"/>
+      <c r="P4" s="730"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="740"/>
-      <c r="W4" s="728" t="s">
+      <c r="W4" s="712" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="728"/>
+      <c r="X4" s="712"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22183,8 +22216,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="728"/>
-      <c r="X5" s="728"/>
+      <c r="W5" s="712"/>
+      <c r="X5" s="712"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22943,7 +22976,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="732">
+      <c r="W19" s="716">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -22995,7 +23028,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="733"/>
+      <c r="W20" s="717"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -23044,8 +23077,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="734"/>
-      <c r="X21" s="734"/>
+      <c r="W21" s="718"/>
+      <c r="X21" s="718"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -23142,8 +23175,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="735"/>
-      <c r="X23" s="735"/>
+      <c r="W23" s="719"/>
+      <c r="X23" s="719"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -23198,8 +23231,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="735"/>
-      <c r="X24" s="735"/>
+      <c r="W24" s="719"/>
+      <c r="X24" s="719"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -23245,8 +23278,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="736"/>
-      <c r="X25" s="736"/>
+      <c r="W25" s="720"/>
+      <c r="X25" s="720"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -23297,8 +23330,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="736"/>
-      <c r="X26" s="736"/>
+      <c r="W26" s="720"/>
+      <c r="X26" s="720"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -23349,9 +23382,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="729"/>
-      <c r="X27" s="730"/>
-      <c r="Y27" s="731"/>
+      <c r="W27" s="713"/>
+      <c r="X27" s="714"/>
+      <c r="Y27" s="715"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23401,9 +23434,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="730"/>
-      <c r="X28" s="730"/>
-      <c r="Y28" s="731"/>
+      <c r="W28" s="714"/>
+      <c r="X28" s="714"/>
+      <c r="Y28" s="715"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24007,11 +24040,11 @@
       <c r="L41" s="627">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="720">
+      <c r="M41" s="731">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="720">
+      <c r="N41" s="731">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -24049,8 +24082,8 @@
       <c r="L42" s="630">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="721"/>
-      <c r="N42" s="721"/>
+      <c r="M42" s="732"/>
+      <c r="N42" s="732"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="780"/>
     </row>
@@ -24737,26 +24770,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="697" t="s">
+      <c r="H70" s="686" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="698"/>
+      <c r="I70" s="687"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="699">
+      <c r="K70" s="688">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="726"/>
+      <c r="L70" s="721"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="703" t="s">
+      <c r="D71" s="692" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="703"/>
+      <c r="E71" s="692"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -24766,22 +24799,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="727" t="s">
+      <c r="D72" s="722" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="727"/>
+      <c r="E72" s="722"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="704" t="s">
+      <c r="I72" s="693" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="705"/>
-      <c r="K72" s="706">
+      <c r="J72" s="694"/>
+      <c r="K72" s="695">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="706"/>
+      <c r="L72" s="695"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -24822,11 +24855,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="708">
+      <c r="K74" s="697">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="709"/>
+      <c r="L74" s="698"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -24845,22 +24878,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="686" t="s">
+      <c r="D76" s="675" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="687"/>
+      <c r="E76" s="676"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="688" t="s">
+      <c r="I76" s="677" t="s">
         <v>854</v>
       </c>
-      <c r="J76" s="689"/>
-      <c r="K76" s="690">
+      <c r="J76" s="678"/>
+      <c r="K76" s="679">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="690"/>
+      <c r="L76" s="679"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -25016,10 +25049,25 @@
       <c r="F98" s="129"/>
     </row>
   </sheetData>
-  <sortState ref="J47:L67">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J47:L67">
     <sortCondition ref="J47:J67"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -25035,21 +25083,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -25059,7 +25092,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -28071,7 +28104,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -28306,7 +28339,7 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <sheetPr>
     <tabColor rgb="FFCC99FF"/>
   </sheetPr>
@@ -28346,7 +28379,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="675"/>
+      <c r="B1" s="699"/>
       <c r="C1" s="741" t="s">
         <v>754</v>
       </c>
@@ -28362,7 +28395,7 @@
       <c r="M1" s="742"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="676"/>
+      <c r="B2" s="700"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -28372,21 +28405,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="679" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="680"/>
+      <c r="B3" s="703" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="704"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="681" t="s">
+      <c r="H3" s="705" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="681"/>
+      <c r="I3" s="705"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="718" t="s">
+      <c r="P3" s="729" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="739" t="s">
@@ -28408,14 +28441,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="682" t="s">
+      <c r="E4" s="706" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="683"/>
-      <c r="H4" s="684" t="s">
+      <c r="F4" s="707"/>
+      <c r="H4" s="708" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="685"/>
+      <c r="I4" s="709"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -28425,15 +28458,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="719"/>
+      <c r="P4" s="730"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="740"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="801"/>
-      <c r="X4" s="801"/>
+      <c r="W4" s="804"/>
+      <c r="X4" s="804"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -28487,8 +28520,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="801"/>
-      <c r="X5" s="801"/>
+      <c r="W5" s="804"/>
+      <c r="X5" s="804"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29254,7 +29287,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="802"/>
+      <c r="W19" s="805"/>
       <c r="X19" s="544"/>
       <c r="Y19" s="233"/>
     </row>
@@ -29308,7 +29341,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="802"/>
+      <c r="W20" s="805"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -29363,8 +29396,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="734"/>
-      <c r="X21" s="734"/>
+      <c r="W21" s="718"/>
+      <c r="X21" s="718"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -29475,8 +29508,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="735"/>
-      <c r="X23" s="735"/>
+      <c r="W23" s="719"/>
+      <c r="X23" s="719"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -29537,8 +29570,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="735"/>
-      <c r="X24" s="735"/>
+      <c r="W24" s="719"/>
+      <c r="X24" s="719"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -29591,8 +29624,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="736"/>
-      <c r="X25" s="736"/>
+      <c r="W25" s="720"/>
+      <c r="X25" s="720"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -29647,8 +29680,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="736"/>
-      <c r="X26" s="736"/>
+      <c r="W26" s="720"/>
+      <c r="X26" s="720"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -29703,9 +29736,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="729"/>
-      <c r="X27" s="730"/>
-      <c r="Y27" s="731"/>
+      <c r="W27" s="713"/>
+      <c r="X27" s="714"/>
+      <c r="Y27" s="715"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29759,9 +29792,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="730"/>
-      <c r="X28" s="730"/>
-      <c r="Y28" s="731"/>
+      <c r="W28" s="714"/>
+      <c r="X28" s="714"/>
+      <c r="Y28" s="715"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30352,11 +30385,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="720">
+      <c r="M41" s="731">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="720">
+      <c r="N41" s="731">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -30388,8 +30421,8 @@
       <c r="L42" s="641">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="721"/>
-      <c r="N42" s="721"/>
+      <c r="M42" s="732"/>
+      <c r="N42" s="732"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="780"/>
     </row>
@@ -30880,26 +30913,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="697" t="s">
+      <c r="H63" s="686" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="698"/>
+      <c r="I63" s="687"/>
       <c r="J63" s="562"/>
-      <c r="K63" s="804">
+      <c r="K63" s="801">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="805"/>
+      <c r="L63" s="802"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="703" t="s">
+      <c r="D64" s="692" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="703"/>
+      <c r="E64" s="692"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -30908,22 +30941,22 @@
       <c r="J64" s="563"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="727" t="s">
+      <c r="D65" s="722" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="727"/>
+      <c r="E65" s="722"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="704" t="s">
+      <c r="I65" s="693" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="705"/>
-      <c r="K65" s="706">
+      <c r="J65" s="694"/>
+      <c r="K65" s="695">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="706"/>
+      <c r="L65" s="695"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="582"/>
@@ -30968,7 +31001,7 @@
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="706"/>
+      <c r="L67" s="695"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -30985,22 +31018,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="686" t="s">
+      <c r="D69" s="675" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="687"/>
+      <c r="E69" s="676"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="688" t="s">
+      <c r="I69" s="677" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="689"/>
-      <c r="K69" s="690">
+      <c r="J69" s="678"/>
+      <c r="K69" s="679">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="690"/>
+      <c r="L69" s="679"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -31143,25 +31176,10 @@
       <c r="F91" s="129"/>
     </row>
   </sheetData>
-  <sortState ref="J42:L56">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="J42:L56">
     <sortCondition ref="J42:J56"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -31177,6 +31195,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -31186,7 +31219,7 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFCC99FF"/>
   </sheetPr>
@@ -33512,7 +33545,7 @@
       <c r="K106" s="154"/>
     </row>
   </sheetData>
-  <sortState ref="A18:C19">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A18:C19">
     <sortCondition ref="B18:B19"/>
   </sortState>
   <mergeCells count="5">
@@ -33528,13 +33561,13 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF00FF"/>
   </sheetPr>
   <dimension ref="A1:Z91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
       <selection activeCell="K50" sqref="K50"/>
     </sheetView>
   </sheetViews>
@@ -33565,7 +33598,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="675"/>
+      <c r="B1" s="699"/>
       <c r="C1" s="741" t="s">
         <v>886</v>
       </c>
@@ -33581,7 +33614,7 @@
       <c r="M1" s="742"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="676"/>
+      <c r="B2" s="700"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -33591,21 +33624,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="679" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="680"/>
+      <c r="B3" s="703" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="704"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="681" t="s">
+      <c r="H3" s="705" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="681"/>
+      <c r="I3" s="705"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="718" t="s">
+      <c r="P3" s="729" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="739" t="s">
@@ -33627,14 +33660,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="682" t="s">
+      <c r="E4" s="706" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="683"/>
-      <c r="H4" s="684" t="s">
+      <c r="F4" s="707"/>
+      <c r="H4" s="708" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="685"/>
+      <c r="I4" s="709"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -33644,15 +33677,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="719"/>
+      <c r="P4" s="730"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="740"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="801"/>
-      <c r="X4" s="801"/>
+      <c r="W4" s="804"/>
+      <c r="X4" s="804"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -33707,8 +33740,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="801"/>
-      <c r="X5" s="801"/>
+      <c r="W5" s="804"/>
+      <c r="X5" s="804"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34484,7 +34517,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="802"/>
+      <c r="W19" s="805"/>
       <c r="X19" s="544"/>
       <c r="Y19" s="233"/>
     </row>
@@ -34538,7 +34571,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="802"/>
+      <c r="W20" s="805"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -34592,8 +34625,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="734"/>
-      <c r="X21" s="734"/>
+      <c r="W21" s="718"/>
+      <c r="X21" s="718"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -34702,8 +34735,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="735"/>
-      <c r="X23" s="735"/>
+      <c r="W23" s="719"/>
+      <c r="X23" s="719"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -34763,8 +34796,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="735"/>
-      <c r="X24" s="735"/>
+      <c r="W24" s="719"/>
+      <c r="X24" s="719"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -34817,8 +34850,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="736"/>
-      <c r="X25" s="736"/>
+      <c r="W25" s="720"/>
+      <c r="X25" s="720"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -34873,8 +34906,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="736"/>
-      <c r="X26" s="736"/>
+      <c r="W26" s="720"/>
+      <c r="X26" s="720"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -34929,9 +34962,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="729"/>
-      <c r="X27" s="730"/>
-      <c r="Y27" s="731"/>
+      <c r="W27" s="713"/>
+      <c r="X27" s="714"/>
+      <c r="Y27" s="715"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -34986,9 +35019,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="730"/>
-      <c r="X28" s="730"/>
-      <c r="Y28" s="731"/>
+      <c r="W28" s="714"/>
+      <c r="X28" s="714"/>
+      <c r="Y28" s="715"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -35645,11 +35678,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="720">
+      <c r="M41" s="731">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="720">
+      <c r="N41" s="731">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -35681,8 +35714,8 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="721"/>
-      <c r="N42" s="721"/>
+      <c r="M42" s="732"/>
+      <c r="N42" s="732"/>
       <c r="P42" s="34"/>
       <c r="Q42" s="780"/>
     </row>
@@ -36100,26 +36133,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="697" t="s">
+      <c r="H63" s="686" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="698"/>
+      <c r="I63" s="687"/>
       <c r="J63" s="562"/>
-      <c r="K63" s="804">
+      <c r="K63" s="801">
         <f>I61+L61</f>
         <v>299758.48</v>
       </c>
-      <c r="L63" s="805"/>
+      <c r="L63" s="802"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="703" t="s">
+      <c r="D64" s="692" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="703"/>
+      <c r="E64" s="692"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>2910425.02</v>
@@ -36128,22 +36161,22 @@
       <c r="J64" s="563"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="727" t="s">
+      <c r="D65" s="722" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="727"/>
+      <c r="E65" s="722"/>
       <c r="F65" s="111">
         <v>-2122394.9</v>
       </c>
-      <c r="I65" s="704" t="s">
+      <c r="I65" s="693" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="705"/>
-      <c r="K65" s="706">
+      <c r="J65" s="694"/>
+      <c r="K65" s="695">
         <f>F67+F68+F69</f>
         <v>3684164.66</v>
       </c>
-      <c r="L65" s="706"/>
+      <c r="L65" s="695"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="659"/>
@@ -36188,7 +36221,7 @@
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L67" s="706"/>
+      <c r="L67" s="695"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -36205,22 +36238,22 @@
       <c r="C69" s="112">
         <v>44745</v>
       </c>
-      <c r="D69" s="686" t="s">
+      <c r="D69" s="675" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="687"/>
+      <c r="E69" s="676"/>
       <c r="F69" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I69" s="688" t="s">
+      <c r="I69" s="677" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="689"/>
-      <c r="K69" s="690">
+      <c r="J69" s="678"/>
+      <c r="K69" s="679">
         <f>K65+K67</f>
         <v>1137182.5</v>
       </c>
-      <c r="L69" s="690"/>
+      <c r="L69" s="679"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -36364,6 +36397,26 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
     <mergeCell ref="D69:E69"/>
     <mergeCell ref="I69:J69"/>
     <mergeCell ref="K69:L69"/>
@@ -36374,26 +36427,6 @@
     <mergeCell ref="D65:E65"/>
     <mergeCell ref="I65:J65"/>
     <mergeCell ref="K65:L65"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -36403,7 +36436,7 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1200-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF00FF"/>
   </sheetPr>
@@ -38685,7 +38718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FF800000"/>
   </sheetPr>
@@ -41609,7 +41642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41621,7 +41654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1400-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -41633,7 +41666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -41668,23 +41701,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="675"/>
-      <c r="C1" s="677" t="s">
+      <c r="B1" s="699"/>
+      <c r="C1" s="701" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="678"/>
-      <c r="E1" s="678"/>
-      <c r="F1" s="678"/>
-      <c r="G1" s="678"/>
-      <c r="H1" s="678"/>
-      <c r="I1" s="678"/>
-      <c r="J1" s="678"/>
-      <c r="K1" s="678"/>
-      <c r="L1" s="678"/>
-      <c r="M1" s="678"/>
+      <c r="D1" s="702"/>
+      <c r="E1" s="702"/>
+      <c r="F1" s="702"/>
+      <c r="G1" s="702"/>
+      <c r="H1" s="702"/>
+      <c r="I1" s="702"/>
+      <c r="J1" s="702"/>
+      <c r="K1" s="702"/>
+      <c r="L1" s="702"/>
+      <c r="M1" s="702"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="676"/>
+      <c r="B2" s="700"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -41694,21 +41727,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="679" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="680"/>
+      <c r="B3" s="703" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="704"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="681" t="s">
+      <c r="H3" s="705" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="681"/>
+      <c r="I3" s="705"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="718" t="s">
+      <c r="P3" s="729" t="s">
         <v>6</v>
       </c>
     </row>
@@ -41723,14 +41756,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="682" t="s">
+      <c r="E4" s="706" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="683"/>
-      <c r="H4" s="684" t="s">
+      <c r="F4" s="707"/>
+      <c r="H4" s="708" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="685"/>
+      <c r="I4" s="709"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -41740,14 +41773,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="719"/>
+      <c r="P4" s="730"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="728" t="s">
+      <c r="W4" s="712" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="728"/>
+      <c r="X4" s="712"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -41798,8 +41831,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="728"/>
-      <c r="X5" s="728"/>
+      <c r="W5" s="712"/>
+      <c r="X5" s="712"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42570,7 +42603,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="732">
+      <c r="W19" s="716">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -42622,7 +42655,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="733"/>
+      <c r="W20" s="717"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -42671,8 +42704,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="734"/>
-      <c r="X21" s="734"/>
+      <c r="W21" s="718"/>
+      <c r="X21" s="718"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -42773,8 +42806,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="735"/>
-      <c r="X23" s="735"/>
+      <c r="W23" s="719"/>
+      <c r="X23" s="719"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -42828,8 +42861,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="735"/>
-      <c r="X24" s="735"/>
+      <c r="W24" s="719"/>
+      <c r="X24" s="719"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -42875,8 +42908,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="736"/>
-      <c r="X25" s="736"/>
+      <c r="W25" s="720"/>
+      <c r="X25" s="720"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -42927,8 +42960,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="736"/>
-      <c r="X26" s="736"/>
+      <c r="W26" s="720"/>
+      <c r="X26" s="720"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -42976,9 +43009,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="729"/>
-      <c r="X27" s="730"/>
-      <c r="Y27" s="731"/>
+      <c r="W27" s="713"/>
+      <c r="X27" s="714"/>
+      <c r="Y27" s="715"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -43028,9 +43061,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="730"/>
-      <c r="X28" s="730"/>
-      <c r="Y28" s="731"/>
+      <c r="W28" s="714"/>
+      <c r="X28" s="714"/>
+      <c r="Y28" s="715"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -43365,11 +43398,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="720">
+      <c r="M36" s="731">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="722">
+      <c r="N36" s="733">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -43377,7 +43410,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="724">
+      <c r="Q36" s="735">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -43412,13 +43445,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="721"/>
-      <c r="N37" s="723"/>
+      <c r="M37" s="732"/>
+      <c r="N37" s="734"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="725"/>
+      <c r="Q37" s="736"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -43708,26 +43741,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="697" t="s">
+      <c r="H52" s="686" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="698"/>
+      <c r="I52" s="687"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="699">
+      <c r="K52" s="688">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="726"/>
+      <c r="L52" s="721"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="703" t="s">
+      <c r="D53" s="692" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="703"/>
+      <c r="E53" s="692"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -43736,29 +43769,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="727" t="s">
+      <c r="D54" s="722" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="727"/>
+      <c r="E54" s="722"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="704" t="s">
+      <c r="I54" s="693" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="705"/>
-      <c r="K54" s="706">
+      <c r="J54" s="694"/>
+      <c r="K54" s="695">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="706"/>
-      <c r="M54" s="712" t="s">
+      <c r="L54" s="695"/>
+      <c r="M54" s="723" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="713"/>
-      <c r="O54" s="713"/>
-      <c r="P54" s="713"/>
-      <c r="Q54" s="714"/>
+      <c r="N54" s="724"/>
+      <c r="O54" s="724"/>
+      <c r="P54" s="724"/>
+      <c r="Q54" s="725"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -43772,11 +43805,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="715"/>
-      <c r="N55" s="716"/>
-      <c r="O55" s="716"/>
-      <c r="P55" s="716"/>
-      <c r="Q55" s="717"/>
+      <c r="M55" s="726"/>
+      <c r="N55" s="727"/>
+      <c r="O55" s="727"/>
+      <c r="P55" s="727"/>
+      <c r="Q55" s="728"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -43794,11 +43827,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="708">
+      <c r="K56" s="697">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="709"/>
+      <c r="L56" s="698"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -43815,22 +43848,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="686" t="s">
+      <c r="D58" s="675" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="687"/>
+      <c r="E58" s="676"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="688" t="s">
+      <c r="I58" s="677" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="689"/>
-      <c r="K58" s="690">
+      <c r="J58" s="678"/>
+      <c r="K58" s="679">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="690"/>
+      <c r="L58" s="679"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -43974,14 +44007,17 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -43992,17 +44028,14 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -44012,7 +44045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
@@ -46709,7 +46742,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FF6600FF"/>
   </sheetPr>
@@ -46745,23 +46778,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="675"/>
-      <c r="C1" s="677" t="s">
+      <c r="B1" s="699"/>
+      <c r="C1" s="701" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="678"/>
-      <c r="E1" s="678"/>
-      <c r="F1" s="678"/>
-      <c r="G1" s="678"/>
-      <c r="H1" s="678"/>
-      <c r="I1" s="678"/>
-      <c r="J1" s="678"/>
-      <c r="K1" s="678"/>
-      <c r="L1" s="678"/>
-      <c r="M1" s="678"/>
+      <c r="D1" s="702"/>
+      <c r="E1" s="702"/>
+      <c r="F1" s="702"/>
+      <c r="G1" s="702"/>
+      <c r="H1" s="702"/>
+      <c r="I1" s="702"/>
+      <c r="J1" s="702"/>
+      <c r="K1" s="702"/>
+      <c r="L1" s="702"/>
+      <c r="M1" s="702"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="676"/>
+      <c r="B2" s="700"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -46771,21 +46804,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="679" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="680"/>
+      <c r="B3" s="703" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="704"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="681" t="s">
+      <c r="H3" s="705" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="681"/>
+      <c r="I3" s="705"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="718" t="s">
+      <c r="P3" s="729" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="739" t="s">
@@ -46803,14 +46836,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="682" t="s">
+      <c r="E4" s="706" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="683"/>
-      <c r="H4" s="684" t="s">
+      <c r="F4" s="707"/>
+      <c r="H4" s="708" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="685"/>
+      <c r="I4" s="709"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -46820,15 +46853,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="719"/>
+      <c r="P4" s="730"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="740"/>
-      <c r="W4" s="728" t="s">
+      <c r="W4" s="712" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="728"/>
+      <c r="X4" s="712"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -46889,8 +46922,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="728"/>
-      <c r="X5" s="728"/>
+      <c r="W5" s="712"/>
+      <c r="X5" s="712"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47647,7 +47680,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="732">
+      <c r="W19" s="716">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -47699,7 +47732,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="733"/>
+      <c r="W20" s="717"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -47748,8 +47781,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="734"/>
-      <c r="X21" s="734"/>
+      <c r="W21" s="718"/>
+      <c r="X21" s="718"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -47850,8 +47883,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="735"/>
-      <c r="X23" s="735"/>
+      <c r="W23" s="719"/>
+      <c r="X23" s="719"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -47902,8 +47935,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="735"/>
-      <c r="X24" s="735"/>
+      <c r="W24" s="719"/>
+      <c r="X24" s="719"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -47949,8 +47982,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="736"/>
-      <c r="X25" s="736"/>
+      <c r="W25" s="720"/>
+      <c r="X25" s="720"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -47998,8 +48031,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="736"/>
-      <c r="X26" s="736"/>
+      <c r="W26" s="720"/>
+      <c r="X26" s="720"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -48059,9 +48092,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="729"/>
-      <c r="X27" s="730"/>
-      <c r="Y27" s="731"/>
+      <c r="W27" s="713"/>
+      <c r="X27" s="714"/>
+      <c r="Y27" s="715"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -48115,9 +48148,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="730"/>
-      <c r="X28" s="730"/>
-      <c r="Y28" s="731"/>
+      <c r="W28" s="714"/>
+      <c r="X28" s="714"/>
+      <c r="Y28" s="715"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -48433,11 +48466,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="720">
+      <c r="M36" s="731">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="722">
+      <c r="N36" s="733">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -48445,7 +48478,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="724">
+      <c r="Q36" s="735">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -48464,13 +48497,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="721"/>
-      <c r="N37" s="723"/>
+      <c r="M37" s="732"/>
+      <c r="N37" s="734"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="725"/>
+      <c r="Q37" s="736"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -48744,26 +48777,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="697" t="s">
+      <c r="H52" s="686" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="698"/>
+      <c r="I52" s="687"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="699">
+      <c r="K52" s="688">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="726"/>
+      <c r="L52" s="721"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="703" t="s">
+      <c r="D53" s="692" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="703"/>
+      <c r="E53" s="692"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -48772,29 +48805,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="727" t="s">
+      <c r="D54" s="722" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="727"/>
+      <c r="E54" s="722"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="704" t="s">
+      <c r="I54" s="693" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="705"/>
-      <c r="K54" s="706">
+      <c r="J54" s="694"/>
+      <c r="K54" s="695">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="706"/>
-      <c r="M54" s="712" t="s">
+      <c r="L54" s="695"/>
+      <c r="M54" s="723" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="713"/>
-      <c r="O54" s="713"/>
-      <c r="P54" s="713"/>
-      <c r="Q54" s="714"/>
+      <c r="N54" s="724"/>
+      <c r="O54" s="724"/>
+      <c r="P54" s="724"/>
+      <c r="Q54" s="725"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -48808,11 +48841,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="715"/>
-      <c r="N55" s="716"/>
-      <c r="O55" s="716"/>
-      <c r="P55" s="716"/>
-      <c r="Q55" s="717"/>
+      <c r="M55" s="726"/>
+      <c r="N55" s="727"/>
+      <c r="O55" s="727"/>
+      <c r="P55" s="727"/>
+      <c r="Q55" s="728"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -48830,11 +48863,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="708">
+      <c r="K56" s="697">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="709"/>
+      <c r="L56" s="698"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -48851,22 +48884,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="686" t="s">
+      <c r="D58" s="675" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="687"/>
+      <c r="E58" s="676"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="688" t="s">
+      <c r="I58" s="677" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="689"/>
-      <c r="K58" s="690">
+      <c r="J58" s="678"/>
+      <c r="K58" s="679">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="690"/>
+      <c r="L58" s="679"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -49010,20 +49043,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -49033,13 +49059,20 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -49049,7 +49082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FF6600FF"/>
   </sheetPr>
@@ -51698,7 +51731,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -51734,7 +51767,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="675"/>
+      <c r="B1" s="699"/>
       <c r="C1" s="741" t="s">
         <v>316</v>
       </c>
@@ -51750,7 +51783,7 @@
       <c r="M1" s="742"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="676"/>
+      <c r="B2" s="700"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -51760,21 +51793,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="679" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="680"/>
+      <c r="B3" s="703" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="704"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="681" t="s">
+      <c r="H3" s="705" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="681"/>
+      <c r="I3" s="705"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="718" t="s">
+      <c r="P3" s="729" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="739" t="s">
@@ -51792,14 +51825,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="682" t="s">
+      <c r="E4" s="706" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="683"/>
-      <c r="H4" s="684" t="s">
+      <c r="F4" s="707"/>
+      <c r="H4" s="708" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="685"/>
+      <c r="I4" s="709"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -51809,15 +51842,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="719"/>
+      <c r="P4" s="730"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="740"/>
-      <c r="W4" s="728" t="s">
+      <c r="W4" s="712" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="728"/>
+      <c r="X4" s="712"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -51868,8 +51901,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="728"/>
-      <c r="X5" s="728"/>
+      <c r="W5" s="712"/>
+      <c r="X5" s="712"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52633,7 +52666,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="732">
+      <c r="W19" s="716">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -52686,7 +52719,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="733"/>
+      <c r="W20" s="717"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -52735,8 +52768,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="734"/>
-      <c r="X21" s="734"/>
+      <c r="W21" s="718"/>
+      <c r="X21" s="718"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -52836,8 +52869,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="735"/>
-      <c r="X23" s="735"/>
+      <c r="W23" s="719"/>
+      <c r="X23" s="719"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -52892,8 +52925,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="735"/>
-      <c r="X24" s="735"/>
+      <c r="W24" s="719"/>
+      <c r="X24" s="719"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -52938,8 +52971,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="736"/>
-      <c r="X25" s="736"/>
+      <c r="W25" s="720"/>
+      <c r="X25" s="720"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -52987,8 +53020,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="736"/>
-      <c r="X26" s="736"/>
+      <c r="W26" s="720"/>
+      <c r="X26" s="720"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -53042,9 +53075,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="729"/>
-      <c r="X27" s="730"/>
-      <c r="Y27" s="731"/>
+      <c r="W27" s="713"/>
+      <c r="X27" s="714"/>
+      <c r="Y27" s="715"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -53098,9 +53131,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="730"/>
-      <c r="X28" s="730"/>
-      <c r="Y28" s="731"/>
+      <c r="W28" s="714"/>
+      <c r="X28" s="714"/>
+      <c r="Y28" s="715"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -53411,11 +53444,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="720">
+      <c r="M36" s="731">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="722">
+      <c r="N36" s="733">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -53423,7 +53456,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="724">
+      <c r="Q36" s="735">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -53448,13 +53481,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="721"/>
-      <c r="N37" s="723"/>
+      <c r="M37" s="732"/>
+      <c r="N37" s="734"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="725"/>
+      <c r="Q37" s="736"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -53747,26 +53780,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="697" t="s">
+      <c r="H52" s="686" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="698"/>
+      <c r="I52" s="687"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="699">
+      <c r="K52" s="688">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="726"/>
+      <c r="L52" s="721"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="703" t="s">
+      <c r="D53" s="692" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="703"/>
+      <c r="E53" s="692"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -53775,22 +53808,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="727" t="s">
+      <c r="D54" s="722" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="727"/>
+      <c r="E54" s="722"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="704" t="s">
+      <c r="I54" s="693" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="705"/>
-      <c r="K54" s="706">
+      <c r="J54" s="694"/>
+      <c r="K54" s="695">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="706"/>
+      <c r="L54" s="695"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -53831,11 +53864,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="708">
+      <c r="K56" s="697">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="709"/>
+      <c r="L56" s="698"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -53852,22 +53885,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="686" t="s">
+      <c r="D58" s="675" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="687"/>
+      <c r="E58" s="676"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="688" t="s">
+      <c r="I58" s="677" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="689"/>
-      <c r="K58" s="690">
+      <c r="J58" s="678"/>
+      <c r="K58" s="679">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="690"/>
+      <c r="L58" s="679"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -54011,20 +54044,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -54040,6 +54059,20 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -54049,7 +54082,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <sheetPr>
     <tabColor rgb="FFC00000"/>
   </sheetPr>
@@ -56797,7 +56830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
@@ -56833,7 +56866,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="675"/>
+      <c r="B1" s="699"/>
       <c r="C1" s="741" t="s">
         <v>646</v>
       </c>
@@ -56849,7 +56882,7 @@
       <c r="M1" s="742"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="676"/>
+      <c r="B2" s="700"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -56859,21 +56892,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="679" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="680"/>
+      <c r="B3" s="703" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="704"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="681" t="s">
+      <c r="H3" s="705" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="681"/>
+      <c r="I3" s="705"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="718" t="s">
+      <c r="P3" s="729" t="s">
         <v>6</v>
       </c>
       <c r="R3" s="739" t="s">
@@ -56891,14 +56924,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="682" t="s">
+      <c r="E4" s="706" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="683"/>
-      <c r="H4" s="684" t="s">
+      <c r="F4" s="707"/>
+      <c r="H4" s="708" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="685"/>
+      <c r="I4" s="709"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -56908,15 +56941,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="719"/>
+      <c r="P4" s="730"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
       <c r="R4" s="740"/>
-      <c r="W4" s="728" t="s">
+      <c r="W4" s="712" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="728"/>
+      <c r="X4" s="712"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -56967,8 +57000,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="728"/>
-      <c r="X5" s="728"/>
+      <c r="W5" s="712"/>
+      <c r="X5" s="712"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57729,7 +57762,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="732">
+      <c r="W19" s="716">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -57781,7 +57814,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="733"/>
+      <c r="W20" s="717"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -57830,8 +57863,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="734"/>
-      <c r="X21" s="734"/>
+      <c r="W21" s="718"/>
+      <c r="X21" s="718"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -57930,8 +57963,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="735"/>
-      <c r="X23" s="735"/>
+      <c r="W23" s="719"/>
+      <c r="X23" s="719"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -57986,8 +58019,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="735"/>
-      <c r="X24" s="735"/>
+      <c r="W24" s="719"/>
+      <c r="X24" s="719"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -58035,8 +58068,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="736"/>
-      <c r="X25" s="736"/>
+      <c r="W25" s="720"/>
+      <c r="X25" s="720"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -58084,8 +58117,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="736"/>
-      <c r="X26" s="736"/>
+      <c r="W26" s="720"/>
+      <c r="X26" s="720"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -58133,9 +58166,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="729"/>
-      <c r="X27" s="730"/>
-      <c r="Y27" s="731"/>
+      <c r="W27" s="713"/>
+      <c r="X27" s="714"/>
+      <c r="Y27" s="715"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -58183,9 +58216,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="730"/>
-      <c r="X28" s="730"/>
-      <c r="Y28" s="731"/>
+      <c r="W28" s="714"/>
+      <c r="X28" s="714"/>
+      <c r="Y28" s="715"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -58526,11 +58559,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="720">
+      <c r="M36" s="731">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="722">
+      <c r="N36" s="733">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -58563,8 +58596,8 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="721"/>
-      <c r="N37" s="723"/>
+      <c r="M37" s="732"/>
+      <c r="N37" s="734"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
@@ -58871,26 +58904,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="697" t="s">
+      <c r="H52" s="686" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="698"/>
+      <c r="I52" s="687"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="699">
+      <c r="K52" s="688">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="726"/>
+      <c r="L52" s="721"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="703" t="s">
+      <c r="D53" s="692" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="703"/>
+      <c r="E53" s="692"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -58899,22 +58932,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="727" t="s">
+      <c r="D54" s="722" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="727"/>
+      <c r="E54" s="722"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="704" t="s">
+      <c r="I54" s="693" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="705"/>
-      <c r="K54" s="706">
+      <c r="J54" s="694"/>
+      <c r="K54" s="695">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="706"/>
+      <c r="L54" s="695"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -58955,11 +58988,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="708">
+      <c r="K56" s="697">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="709"/>
+      <c r="L56" s="698"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -58976,22 +59009,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="686" t="s">
+      <c r="D58" s="675" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="687"/>
+      <c r="E58" s="676"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="688" t="s">
+      <c r="I58" s="677" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="689"/>
-      <c r="K58" s="690">
+      <c r="J58" s="678"/>
+      <c r="K58" s="679">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="690"/>
+      <c r="L58" s="679"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -59135,6 +59168,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -59151,20 +59198,6 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE    ZAVALETA   JUNIO    2022.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/CENTRAL #06  JUNIO 2022/BALANCE    ZAVALETA   JUNIO    2022.xlsx
@@ -7245,6 +7245,43 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7317,76 +7354,10 @@
     <xf numFmtId="44" fontId="12" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="43" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="44" fontId="13" fillId="0" borderId="57" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7430,6 +7401,39 @@
     </xf>
     <xf numFmtId="44" fontId="41" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="65" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="14" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="33" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="7" fontId="11" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="3" fillId="3" borderId="74" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -7623,6 +7627,15 @@
     <xf numFmtId="165" fontId="11" fillId="0" borderId="96" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="44" fontId="11" fillId="14" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -7637,15 +7650,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="11" fillId="18" borderId="74" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -7665,10 +7669,6 @@
     <xf numFmtId="49" fontId="11" fillId="23" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="33" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moneda" xfId="1" builtinId="4"/>
@@ -12044,23 +12044,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="708"/>
-      <c r="C1" s="710" t="s">
+      <c r="B1" s="688"/>
+      <c r="C1" s="690" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="711"/>
-      <c r="E1" s="711"/>
-      <c r="F1" s="711"/>
-      <c r="G1" s="711"/>
-      <c r="H1" s="711"/>
-      <c r="I1" s="711"/>
-      <c r="J1" s="711"/>
-      <c r="K1" s="711"/>
-      <c r="L1" s="711"/>
-      <c r="M1" s="711"/>
+      <c r="D1" s="691"/>
+      <c r="E1" s="691"/>
+      <c r="F1" s="691"/>
+      <c r="G1" s="691"/>
+      <c r="H1" s="691"/>
+      <c r="I1" s="691"/>
+      <c r="J1" s="691"/>
+      <c r="K1" s="691"/>
+      <c r="L1" s="691"/>
+      <c r="M1" s="691"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="709"/>
+      <c r="B2" s="689"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -12070,17 +12070,17 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:19" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="712" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="713"/>
+      <c r="B3" s="692" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="693"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="714" t="s">
+      <c r="H3" s="694" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="714"/>
+      <c r="I3" s="694"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
@@ -12094,14 +12094,14 @@
         <v>0</v>
       </c>
       <c r="D4" s="18"/>
-      <c r="E4" s="715" t="s">
+      <c r="E4" s="695" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="716"/>
-      <c r="H4" s="717" t="s">
+      <c r="F4" s="696"/>
+      <c r="H4" s="697" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="718"/>
+      <c r="I4" s="698"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -12111,10 +12111,10 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="689" t="s">
+      <c r="P4" s="704" t="s">
         <v>6</v>
       </c>
-      <c r="Q4" s="690"/>
+      <c r="Q4" s="705"/>
     </row>
     <row r="5" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -13555,11 +13555,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="691">
+      <c r="M39" s="706">
         <f>SUM(M5:M38)</f>
         <v>247061</v>
       </c>
-      <c r="N39" s="693">
+      <c r="N39" s="708">
         <f>SUM(N5:N38)</f>
         <v>172863</v>
       </c>
@@ -13585,8 +13585,8 @@
       <c r="J40" s="60"/>
       <c r="K40" s="41"/>
       <c r="L40" s="61"/>
-      <c r="M40" s="692"/>
-      <c r="N40" s="694"/>
+      <c r="M40" s="707"/>
+      <c r="N40" s="709"/>
       <c r="P40" s="34"/>
       <c r="Q40" s="9"/>
     </row>
@@ -13801,29 +13801,29 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="695" t="s">
+      <c r="H52" s="710" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="696"/>
+      <c r="I52" s="711"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="697">
+      <c r="K52" s="712">
         <f>I50+L50</f>
         <v>53873.49</v>
       </c>
-      <c r="L52" s="698"/>
-      <c r="M52" s="699">
+      <c r="L52" s="713"/>
+      <c r="M52" s="714">
         <f>N39+M39</f>
         <v>419924</v>
       </c>
-      <c r="N52" s="700"/>
+      <c r="N52" s="715"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="9"/>
     </row>
     <row r="53" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D53" s="701" t="s">
+      <c r="D53" s="716" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="701"/>
+      <c r="E53" s="716"/>
       <c r="F53" s="101">
         <f>F50-K52-C50</f>
         <v>471038.61</v>
@@ -13834,22 +13834,22 @@
       <c r="Q53" s="9"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="701" t="s">
+      <c r="D54" s="716" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="701"/>
+      <c r="E54" s="716"/>
       <c r="F54" s="96">
         <v>-549976.4</v>
       </c>
-      <c r="I54" s="702" t="s">
+      <c r="I54" s="717" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="703"/>
-      <c r="K54" s="704">
+      <c r="J54" s="718"/>
+      <c r="K54" s="719">
         <f>F56+F57+F58</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L54" s="705"/>
+      <c r="L54" s="720"/>
       <c r="P54" s="34"/>
       <c r="Q54" s="9"/>
     </row>
@@ -13882,11 +13882,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="706">
+      <c r="K56" s="721">
         <f>-C4</f>
         <v>0</v>
       </c>
-      <c r="L56" s="707"/>
+      <c r="L56" s="722"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -13903,22 +13903,22 @@
       <c r="C58" s="112">
         <v>44507</v>
       </c>
-      <c r="D58" s="684" t="s">
+      <c r="D58" s="699" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="685"/>
+      <c r="E58" s="700"/>
       <c r="F58" s="113">
         <v>567389.35</v>
       </c>
-      <c r="I58" s="686" t="s">
+      <c r="I58" s="701" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="687"/>
-      <c r="K58" s="688">
+      <c r="J58" s="702"/>
+      <c r="K58" s="703">
         <f>K54+K56</f>
         <v>-24577.400000000023</v>
       </c>
-      <c r="L58" s="688"/>
+      <c r="L58" s="703"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -14062,12 +14062,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -14082,6 +14076,12 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.15748031496062992" top="0.35433070866141736" bottom="0.31496062992125984" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="75" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -16542,10 +16542,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I76" s="780" t="s">
+      <c r="I76" s="784" t="s">
         <v>597</v>
       </c>
-      <c r="J76" s="781"/>
+      <c r="J76" s="785"/>
       <c r="K76" s="69"/>
       <c r="L76" s="148"/>
       <c r="M76" s="69"/>
@@ -16564,8 +16564,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I77" s="782"/>
-      <c r="J77" s="783"/>
+      <c r="I77" s="786"/>
+      <c r="J77" s="787"/>
       <c r="K77" s="69"/>
       <c r="L77" s="148"/>
       <c r="M77" s="69"/>
@@ -16632,7 +16632,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="746" t="s">
+      <c r="F80" s="750" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -16647,7 +16647,7 @@
       <c r="C81" s="462"/>
       <c r="D81" s="463"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="747"/>
+      <c r="F81" s="751"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -16655,10 +16655,10 @@
     </row>
     <row r="82" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A82" s="435"/>
-      <c r="B82" s="779" t="s">
+      <c r="B82" s="783" t="s">
         <v>595</v>
       </c>
-      <c r="C82" s="779"/>
+      <c r="C82" s="783"/>
       <c r="I82"/>
       <c r="J82" s="194"/>
     </row>
@@ -16940,23 +16940,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="708"/>
-      <c r="C1" s="750" t="s">
+      <c r="B1" s="688"/>
+      <c r="C1" s="754" t="s">
         <v>451</v>
       </c>
-      <c r="D1" s="751"/>
-      <c r="E1" s="751"/>
-      <c r="F1" s="751"/>
-      <c r="G1" s="751"/>
-      <c r="H1" s="751"/>
-      <c r="I1" s="751"/>
-      <c r="J1" s="751"/>
-      <c r="K1" s="751"/>
-      <c r="L1" s="751"/>
-      <c r="M1" s="751"/>
+      <c r="D1" s="755"/>
+      <c r="E1" s="755"/>
+      <c r="F1" s="755"/>
+      <c r="G1" s="755"/>
+      <c r="H1" s="755"/>
+      <c r="I1" s="755"/>
+      <c r="J1" s="755"/>
+      <c r="K1" s="755"/>
+      <c r="L1" s="755"/>
+      <c r="M1" s="755"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="709"/>
+      <c r="B2" s="689"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -16966,24 +16966,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="712" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="713"/>
+      <c r="B3" s="692" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="693"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="714" t="s">
+      <c r="H3" s="694" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="714"/>
+      <c r="I3" s="694"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="738" t="s">
+      <c r="P3" s="731" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="748" t="s">
+      <c r="R3" s="752" t="s">
         <v>216</v>
       </c>
     </row>
@@ -16998,14 +16998,14 @@
       <c r="D4" s="18">
         <v>44619</v>
       </c>
-      <c r="E4" s="715" t="s">
+      <c r="E4" s="695" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="716"/>
-      <c r="H4" s="717" t="s">
+      <c r="F4" s="696"/>
+      <c r="H4" s="697" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="718"/>
+      <c r="I4" s="698"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -17015,15 +17015,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="739"/>
+      <c r="P4" s="732"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="749"/>
-      <c r="W4" s="721" t="s">
+      <c r="R4" s="753"/>
+      <c r="W4" s="741" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="721"/>
+      <c r="X4" s="741"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17074,8 +17074,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="721"/>
-      <c r="X5" s="721"/>
+      <c r="W5" s="741"/>
+      <c r="X5" s="741"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -17838,7 +17838,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="725">
+      <c r="W19" s="745">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -17890,7 +17890,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="726"/>
+      <c r="W20" s="746"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -17939,8 +17939,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="727"/>
-      <c r="X21" s="727"/>
+      <c r="W21" s="747"/>
+      <c r="X21" s="747"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -18040,8 +18040,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="728"/>
-      <c r="X23" s="728"/>
+      <c r="W23" s="748"/>
+      <c r="X23" s="748"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -18096,8 +18096,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="728"/>
-      <c r="X24" s="728"/>
+      <c r="W24" s="748"/>
+      <c r="X24" s="748"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -18145,8 +18145,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="729"/>
-      <c r="X25" s="729"/>
+      <c r="W25" s="749"/>
+      <c r="X25" s="749"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -18195,8 +18195,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="729"/>
-      <c r="X26" s="729"/>
+      <c r="W26" s="749"/>
+      <c r="X26" s="749"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -18244,9 +18244,9 @@
       <c r="R27" s="388">
         <v>170</v>
       </c>
-      <c r="W27" s="722"/>
-      <c r="X27" s="723"/>
-      <c r="Y27" s="724"/>
+      <c r="W27" s="742"/>
+      <c r="X27" s="743"/>
+      <c r="Y27" s="744"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18294,9 +18294,9 @@
       <c r="R28" s="388">
         <v>37374.36</v>
       </c>
-      <c r="W28" s="723"/>
-      <c r="X28" s="723"/>
-      <c r="Y28" s="724"/>
+      <c r="W28" s="743"/>
+      <c r="X28" s="743"/>
+      <c r="Y28" s="744"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -18628,11 +18628,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="740">
+      <c r="M36" s="733">
         <f>SUM(M5:M35)</f>
         <v>2220612.02</v>
       </c>
-      <c r="N36" s="742">
+      <c r="N36" s="735">
         <f>SUM(N5:N35)</f>
         <v>833865</v>
       </c>
@@ -18640,7 +18640,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="775">
+      <c r="Q36" s="779">
         <f>SUM(Q5:Q35)</f>
         <v>8.3000000000320142</v>
       </c>
@@ -18665,13 +18665,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="741"/>
-      <c r="N37" s="743"/>
+      <c r="M37" s="734"/>
+      <c r="N37" s="736"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="776"/>
+      <c r="Q37" s="780"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -18721,11 +18721,11 @@
       <c r="J39" s="60"/>
       <c r="K39" s="177"/>
       <c r="L39" s="61"/>
-      <c r="M39" s="777">
+      <c r="M39" s="781">
         <f>M36+N36</f>
         <v>3054477.02</v>
       </c>
-      <c r="N39" s="778"/>
+      <c r="N39" s="782"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3627989.66</v>
@@ -19353,26 +19353,26 @@
       <c r="A68" s="98"/>
       <c r="B68" s="99"/>
       <c r="C68" s="1"/>
-      <c r="H68" s="695" t="s">
+      <c r="H68" s="710" t="s">
         <v>11</v>
       </c>
-      <c r="I68" s="696"/>
+      <c r="I68" s="711"/>
       <c r="J68" s="100"/>
-      <c r="K68" s="697">
+      <c r="K68" s="712">
         <f>I66+L66</f>
         <v>314868.39999999997</v>
       </c>
-      <c r="L68" s="730"/>
+      <c r="L68" s="739"/>
       <c r="M68" s="272"/>
       <c r="N68" s="272"/>
       <c r="P68" s="34"/>
       <c r="Q68" s="13"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D69" s="701" t="s">
+      <c r="D69" s="716" t="s">
         <v>12</v>
       </c>
-      <c r="E69" s="701"/>
+      <c r="E69" s="716"/>
       <c r="F69" s="312">
         <f>F66-K68-C66</f>
         <v>1594593.8500000003</v>
@@ -19381,22 +19381,22 @@
       <c r="J69" s="103"/>
     </row>
     <row r="70" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D70" s="731" t="s">
+      <c r="D70" s="740" t="s">
         <v>95</v>
       </c>
-      <c r="E70" s="731"/>
+      <c r="E70" s="740"/>
       <c r="F70" s="111">
         <v>-1360260.32</v>
       </c>
-      <c r="I70" s="702" t="s">
+      <c r="I70" s="717" t="s">
         <v>13</v>
       </c>
-      <c r="J70" s="703"/>
-      <c r="K70" s="704">
+      <c r="J70" s="718"/>
+      <c r="K70" s="719">
         <f>F72+F73+F74</f>
         <v>1938640.11</v>
       </c>
-      <c r="L70" s="704"/>
+      <c r="L70" s="719"/>
       <c r="M70" s="404"/>
       <c r="N70" s="404"/>
       <c r="O70" s="404"/>
@@ -19437,11 +19437,11 @@
         <v>15</v>
       </c>
       <c r="J72" s="109"/>
-      <c r="K72" s="706">
+      <c r="K72" s="721">
         <f>-C4</f>
         <v>-1266568.45</v>
       </c>
-      <c r="L72" s="707"/>
+      <c r="L72" s="722"/>
     </row>
     <row r="73" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D73" s="110" t="s">
@@ -19458,22 +19458,22 @@
       <c r="C74" s="112">
         <v>44647</v>
       </c>
-      <c r="D74" s="684" t="s">
+      <c r="D74" s="699" t="s">
         <v>18</v>
       </c>
-      <c r="E74" s="685"/>
+      <c r="E74" s="700"/>
       <c r="F74" s="113">
         <v>1792817.68</v>
       </c>
-      <c r="I74" s="686" t="s">
+      <c r="I74" s="701" t="s">
         <v>198</v>
       </c>
-      <c r="J74" s="687"/>
-      <c r="K74" s="688">
+      <c r="J74" s="702"/>
+      <c r="K74" s="703">
         <f>K70+K72</f>
         <v>672071.66000000015</v>
       </c>
-      <c r="L74" s="688"/>
+      <c r="L74" s="703"/>
     </row>
     <row r="75" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C75" s="114"/>
@@ -19620,21 +19620,6 @@
     <sortCondition ref="B34:B42"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="I74:J74"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="K68:L68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="I70:J70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="M39:N39"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -19650,6 +19635,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="K72:L72"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="I74:J74"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="K68:L68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="I70:J70"/>
+    <mergeCell ref="K70:L70"/>
   </mergeCells>
   <pageMargins left="0.27559055118110237" right="0.15748031496062992" top="0.39370078740157483" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="80" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -21917,7 +21917,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="746" t="s">
+      <c r="F80" s="750" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -21930,7 +21930,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="747"/>
+      <c r="F81" s="751"/>
       <c r="K81" s="1"/>
       <c r="L81" s="97"/>
       <c r="M81" s="3"/>
@@ -21950,10 +21950,10 @@
     <row r="83" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A83" s="456"/>
       <c r="B83" s="442"/>
-      <c r="I83" s="784" t="s">
+      <c r="I83" s="788" t="s">
         <v>594</v>
       </c>
-      <c r="J83" s="785"/>
+      <c r="J83" s="789"/>
     </row>
     <row r="84" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A84" s="514" t="s">
@@ -21962,8 +21962,8 @@
       <c r="B84" s="515"/>
       <c r="C84" s="516"/>
       <c r="D84" s="491"/>
-      <c r="I84" s="786"/>
-      <c r="J84" s="787"/>
+      <c r="I84" s="790"/>
+      <c r="J84" s="791"/>
     </row>
     <row r="85" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A85" s="456"/>
@@ -22235,23 +22235,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="708"/>
-      <c r="C1" s="750" t="s">
+      <c r="B1" s="688"/>
+      <c r="C1" s="754" t="s">
         <v>620</v>
       </c>
-      <c r="D1" s="751"/>
-      <c r="E1" s="751"/>
-      <c r="F1" s="751"/>
-      <c r="G1" s="751"/>
-      <c r="H1" s="751"/>
-      <c r="I1" s="751"/>
-      <c r="J1" s="751"/>
-      <c r="K1" s="751"/>
-      <c r="L1" s="751"/>
-      <c r="M1" s="751"/>
+      <c r="D1" s="755"/>
+      <c r="E1" s="755"/>
+      <c r="F1" s="755"/>
+      <c r="G1" s="755"/>
+      <c r="H1" s="755"/>
+      <c r="I1" s="755"/>
+      <c r="J1" s="755"/>
+      <c r="K1" s="755"/>
+      <c r="L1" s="755"/>
+      <c r="M1" s="755"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="709"/>
+      <c r="B2" s="689"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -22261,24 +22261,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="712" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="713"/>
+      <c r="B3" s="692" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="693"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="714" t="s">
+      <c r="H3" s="694" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="714"/>
+      <c r="I3" s="694"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="738" t="s">
+      <c r="P3" s="731" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="748" t="s">
+      <c r="R3" s="752" t="s">
         <v>216</v>
       </c>
     </row>
@@ -22293,14 +22293,14 @@
       <c r="D4" s="18">
         <v>44647</v>
       </c>
-      <c r="E4" s="715" t="s">
+      <c r="E4" s="695" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="716"/>
-      <c r="H4" s="717" t="s">
+      <c r="F4" s="696"/>
+      <c r="H4" s="697" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="718"/>
+      <c r="I4" s="698"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -22310,15 +22310,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="739"/>
+      <c r="P4" s="732"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="749"/>
-      <c r="W4" s="721" t="s">
+      <c r="R4" s="753"/>
+      <c r="W4" s="741" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="721"/>
+      <c r="X4" s="741"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -22369,8 +22369,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="721"/>
-      <c r="X5" s="721"/>
+      <c r="W5" s="741"/>
+      <c r="X5" s="741"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23129,7 +23129,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="725">
+      <c r="W19" s="745">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -23181,7 +23181,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="726"/>
+      <c r="W20" s="746"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -23230,8 +23230,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="727"/>
-      <c r="X21" s="727"/>
+      <c r="W21" s="747"/>
+      <c r="X21" s="747"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -23328,8 +23328,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="728"/>
-      <c r="X23" s="728"/>
+      <c r="W23" s="748"/>
+      <c r="X23" s="748"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -23384,8 +23384,8 @@
         <v>642</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="728"/>
-      <c r="X24" s="728"/>
+      <c r="W24" s="748"/>
+      <c r="X24" s="748"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -23431,8 +23431,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="729"/>
-      <c r="X25" s="729"/>
+      <c r="W25" s="749"/>
+      <c r="X25" s="749"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -23483,8 +23483,8 @@
       <c r="R26" s="388">
         <v>73524.61</v>
       </c>
-      <c r="W26" s="729"/>
-      <c r="X26" s="729"/>
+      <c r="W26" s="749"/>
+      <c r="X26" s="749"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -23535,9 +23535,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="722"/>
-      <c r="X27" s="723"/>
-      <c r="Y27" s="724"/>
+      <c r="W27" s="742"/>
+      <c r="X27" s="743"/>
+      <c r="Y27" s="744"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -23587,9 +23587,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="723"/>
-      <c r="X28" s="723"/>
-      <c r="Y28" s="724"/>
+      <c r="W28" s="743"/>
+      <c r="X28" s="743"/>
+      <c r="Y28" s="744"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -24193,11 +24193,11 @@
       <c r="L41" s="627">
         <v>15798.5</v>
       </c>
-      <c r="M41" s="740">
+      <c r="M41" s="733">
         <f>SUM(M5:M40)</f>
         <v>2479367.6100000003</v>
       </c>
-      <c r="N41" s="740">
+      <c r="N41" s="733">
         <f>SUM(N5:N40)</f>
         <v>1195667</v>
       </c>
@@ -24205,7 +24205,7 @@
         <f>SUM(P5:P40)</f>
         <v>4355326.74</v>
       </c>
-      <c r="Q41" s="788">
+      <c r="Q41" s="792">
         <f>SUM(Q5:Q40)</f>
         <v>69878.629999999976</v>
       </c>
@@ -24235,10 +24235,10 @@
       <c r="L42" s="630">
         <v>15298.5</v>
       </c>
-      <c r="M42" s="741"/>
-      <c r="N42" s="741"/>
+      <c r="M42" s="734"/>
+      <c r="N42" s="734"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="789"/>
+      <c r="Q42" s="793"/>
     </row>
     <row r="43" spans="1:20" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -24326,11 +24326,11 @@
       <c r="L45" s="627">
         <v>18269.490000000002</v>
       </c>
-      <c r="M45" s="790">
+      <c r="M45" s="794">
         <f>M41+N41</f>
         <v>3675034.6100000003</v>
       </c>
-      <c r="N45" s="791"/>
+      <c r="N45" s="795"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -24923,26 +24923,26 @@
       <c r="A70" s="98"/>
       <c r="B70" s="99"/>
       <c r="C70" s="1"/>
-      <c r="H70" s="695" t="s">
+      <c r="H70" s="710" t="s">
         <v>11</v>
       </c>
-      <c r="I70" s="696"/>
+      <c r="I70" s="711"/>
       <c r="J70" s="100"/>
-      <c r="K70" s="697">
+      <c r="K70" s="712">
         <f>I68+L68</f>
         <v>428155.54000000004</v>
       </c>
-      <c r="L70" s="730"/>
+      <c r="L70" s="739"/>
       <c r="M70" s="272"/>
       <c r="N70" s="272"/>
       <c r="P70" s="34"/>
       <c r="Q70" s="13"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D71" s="701" t="s">
+      <c r="D71" s="716" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="701"/>
+      <c r="E71" s="716"/>
       <c r="F71" s="312">
         <f>F68-K70-C68</f>
         <v>1631087.67</v>
@@ -24952,22 +24952,22 @@
       <c r="P71" s="34"/>
     </row>
     <row r="72" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D72" s="731" t="s">
+      <c r="D72" s="740" t="s">
         <v>95</v>
       </c>
-      <c r="E72" s="731"/>
+      <c r="E72" s="740"/>
       <c r="F72" s="111">
         <v>-1884975.46</v>
       </c>
-      <c r="I72" s="702" t="s">
+      <c r="I72" s="717" t="s">
         <v>13</v>
       </c>
-      <c r="J72" s="703"/>
-      <c r="K72" s="704">
+      <c r="J72" s="718"/>
+      <c r="K72" s="719">
         <f>F74+F75+F76</f>
         <v>1777829.89</v>
       </c>
-      <c r="L72" s="704"/>
+      <c r="L72" s="719"/>
       <c r="M72" s="404"/>
       <c r="N72" s="404"/>
       <c r="O72" s="404"/>
@@ -25008,11 +25008,11 @@
         <v>15</v>
       </c>
       <c r="J74" s="109"/>
-      <c r="K74" s="706">
+      <c r="K74" s="721">
         <f>-C4</f>
         <v>-1792817.68</v>
       </c>
-      <c r="L74" s="707"/>
+      <c r="L74" s="722"/>
       <c r="P74" s="34"/>
     </row>
     <row r="75" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -25031,22 +25031,22 @@
       <c r="C76" s="112">
         <v>44682</v>
       </c>
-      <c r="D76" s="684" t="s">
+      <c r="D76" s="699" t="s">
         <v>18</v>
       </c>
-      <c r="E76" s="685"/>
+      <c r="E76" s="700"/>
       <c r="F76" s="113">
         <v>2112071.92</v>
       </c>
-      <c r="I76" s="686" t="s">
+      <c r="I76" s="701" t="s">
         <v>854</v>
       </c>
-      <c r="J76" s="687"/>
-      <c r="K76" s="688">
+      <c r="J76" s="702"/>
+      <c r="K76" s="703">
         <f>K72+K74</f>
         <v>-14987.790000000037</v>
       </c>
-      <c r="L76" s="688"/>
+      <c r="L76" s="703"/>
       <c r="P76" s="34"/>
     </row>
     <row r="77" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
@@ -25206,21 +25206,6 @@
     <sortCondition ref="J47:J67"/>
   </sortState>
   <mergeCells count="30">
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="K76:L76"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="K70:L70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="I72:J72"/>
-    <mergeCell ref="K72:L72"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K74:L74"/>
-    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -25236,6 +25221,21 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K74:L74"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="K76:L76"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="K70:L70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="I72:J72"/>
+    <mergeCell ref="K72:L72"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.39370078740157483" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="85" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -27751,7 +27751,7 @@
       <c r="C90" s="214"/>
       <c r="D90" s="256"/>
       <c r="E90" s="3"/>
-      <c r="F90" s="746" t="s">
+      <c r="F90" s="750" t="s">
         <v>207</v>
       </c>
       <c r="K90" s="1"/>
@@ -27764,7 +27764,7 @@
       <c r="C91" s="1"/>
       <c r="D91" s="256"/>
       <c r="E91" s="3"/>
-      <c r="F91" s="747"/>
+      <c r="F91" s="751"/>
       <c r="K91" s="1"/>
       <c r="L91" s="97"/>
       <c r="M91" s="3"/>
@@ -27783,10 +27783,10 @@
     <row r="93" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A93" s="456"/>
       <c r="B93" s="442"/>
-      <c r="I93" s="784" t="s">
+      <c r="I93" s="788" t="s">
         <v>594</v>
       </c>
-      <c r="J93" s="785"/>
+      <c r="J93" s="789"/>
     </row>
     <row r="94" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A94" s="456"/>
@@ -27796,8 +27796,8 @@
       <c r="C94" s="518"/>
       <c r="D94" s="519"/>
       <c r="E94" s="520"/>
-      <c r="I94" s="786"/>
-      <c r="J94" s="787"/>
+      <c r="I94" s="790"/>
+      <c r="J94" s="791"/>
     </row>
     <row r="95" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A95" s="456"/>
@@ -28238,11 +28238,11 @@
     </row>
     <row r="130" spans="2:5" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B130" s="455"/>
-      <c r="C130" s="792">
+      <c r="C130" s="796">
         <f>SUM(D106:D129)</f>
         <v>759581.99999999988</v>
       </c>
-      <c r="D130" s="793"/>
+      <c r="D130" s="797"/>
       <c r="E130" s="257"/>
     </row>
   </sheetData>
@@ -28278,21 +28278,21 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F2" s="798" t="s">
+      <c r="F2" s="802" t="s">
         <v>752</v>
       </c>
-      <c r="G2" s="799"/>
-      <c r="H2" s="800"/>
+      <c r="G2" s="803"/>
+      <c r="H2" s="804"/>
     </row>
     <row r="3" spans="2:8" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="795" t="s">
+      <c r="B3" s="799" t="s">
         <v>748</v>
       </c>
-      <c r="C3" s="796"/>
-      <c r="D3" s="797"/>
-      <c r="F3" s="801"/>
-      <c r="G3" s="802"/>
-      <c r="H3" s="803"/>
+      <c r="C3" s="800"/>
+      <c r="D3" s="801"/>
+      <c r="F3" s="805"/>
+      <c r="G3" s="806"/>
+      <c r="H3" s="807"/>
     </row>
     <row r="4" spans="2:8" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="526" t="s">
@@ -28437,11 +28437,11 @@
         <f>SUM(D5:D10)</f>
         <v>264460</v>
       </c>
-      <c r="G11" s="804">
+      <c r="G11" s="808">
         <f>SUM(H5:H10)</f>
         <v>334337</v>
       </c>
-      <c r="H11" s="805"/>
+      <c r="H11" s="809"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B13" s="532" t="s">
@@ -28458,23 +28458,23 @@
       <c r="C14" s="532"/>
     </row>
     <row r="15" spans="2:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="808" t="s">
+      <c r="C15" s="812" t="s">
         <v>750</v>
       </c>
-      <c r="D15" s="806">
+      <c r="D15" s="810">
         <f>D11-D13</f>
         <v>-69877</v>
       </c>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="809"/>
-      <c r="D16" s="807"/>
+      <c r="C16" s="813"/>
+      <c r="D16" s="811"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="C17" s="794" t="s">
+      <c r="C17" s="798" t="s">
         <v>753</v>
       </c>
-      <c r="D17" s="794"/>
+      <c r="D17" s="798"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -28532,23 +28532,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="708"/>
-      <c r="C1" s="750" t="s">
+      <c r="B1" s="688"/>
+      <c r="C1" s="754" t="s">
         <v>754</v>
       </c>
-      <c r="D1" s="751"/>
-      <c r="E1" s="751"/>
-      <c r="F1" s="751"/>
-      <c r="G1" s="751"/>
-      <c r="H1" s="751"/>
-      <c r="I1" s="751"/>
-      <c r="J1" s="751"/>
-      <c r="K1" s="751"/>
-      <c r="L1" s="751"/>
-      <c r="M1" s="751"/>
+      <c r="D1" s="755"/>
+      <c r="E1" s="755"/>
+      <c r="F1" s="755"/>
+      <c r="G1" s="755"/>
+      <c r="H1" s="755"/>
+      <c r="I1" s="755"/>
+      <c r="J1" s="755"/>
+      <c r="K1" s="755"/>
+      <c r="L1" s="755"/>
+      <c r="M1" s="755"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="709"/>
+      <c r="B2" s="689"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -28558,24 +28558,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="712" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="713"/>
+      <c r="B3" s="692" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="693"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="714" t="s">
+      <c r="H3" s="694" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="714"/>
+      <c r="I3" s="694"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="738" t="s">
+      <c r="P3" s="731" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="748" t="s">
+      <c r="R3" s="752" t="s">
         <v>216</v>
       </c>
       <c r="U3" s="34"/>
@@ -28594,14 +28594,14 @@
       <c r="D4" s="18">
         <v>44682</v>
       </c>
-      <c r="E4" s="715" t="s">
+      <c r="E4" s="695" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="716"/>
-      <c r="H4" s="717" t="s">
+      <c r="F4" s="696"/>
+      <c r="H4" s="697" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="718"/>
+      <c r="I4" s="698"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -28611,15 +28611,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="739"/>
+      <c r="P4" s="732"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="749"/>
+      <c r="R4" s="753"/>
       <c r="U4" s="34"/>
       <c r="V4" s="128"/>
-      <c r="W4" s="816"/>
-      <c r="X4" s="816"/>
+      <c r="W4" s="814"/>
+      <c r="X4" s="814"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -28673,8 +28673,8 @@
       <c r="S5" s="324"/>
       <c r="U5" s="34"/>
       <c r="V5" s="128"/>
-      <c r="W5" s="816"/>
-      <c r="X5" s="816"/>
+      <c r="W5" s="814"/>
+      <c r="X5" s="814"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29440,7 +29440,7 @@
       <c r="S19" s="147"/>
       <c r="U19" s="34"/>
       <c r="V19" s="128"/>
-      <c r="W19" s="817"/>
+      <c r="W19" s="815"/>
       <c r="X19" s="544"/>
       <c r="Y19" s="233"/>
     </row>
@@ -29494,7 +29494,7 @@
       <c r="S20" s="147"/>
       <c r="U20" s="34"/>
       <c r="V20" s="128"/>
-      <c r="W20" s="817"/>
+      <c r="W20" s="815"/>
       <c r="X20" s="34"/>
       <c r="Y20" s="233"/>
     </row>
@@ -29549,8 +29549,8 @@
       <c r="S21" s="147"/>
       <c r="U21" s="34"/>
       <c r="V21" s="128"/>
-      <c r="W21" s="727"/>
-      <c r="X21" s="727"/>
+      <c r="W21" s="747"/>
+      <c r="X21" s="747"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -29661,8 +29661,8 @@
       <c r="S23" s="147"/>
       <c r="U23" s="34"/>
       <c r="V23" s="128"/>
-      <c r="W23" s="728"/>
-      <c r="X23" s="728"/>
+      <c r="W23" s="748"/>
+      <c r="X23" s="748"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -29723,8 +29723,8 @@
       <c r="S24" s="147"/>
       <c r="U24" s="34"/>
       <c r="V24" s="128"/>
-      <c r="W24" s="728"/>
-      <c r="X24" s="728"/>
+      <c r="W24" s="748"/>
+      <c r="X24" s="748"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -29777,8 +29777,8 @@
       </c>
       <c r="U25" s="34"/>
       <c r="V25" s="128"/>
-      <c r="W25" s="729"/>
-      <c r="X25" s="729"/>
+      <c r="W25" s="749"/>
+      <c r="X25" s="749"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -29833,8 +29833,8 @@
       <c r="T26" s="128"/>
       <c r="U26" s="34"/>
       <c r="V26" s="128"/>
-      <c r="W26" s="729"/>
-      <c r="X26" s="729"/>
+      <c r="W26" s="749"/>
+      <c r="X26" s="749"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -29889,9 +29889,9 @@
       <c r="T27" s="128"/>
       <c r="U27" s="34"/>
       <c r="V27" s="128"/>
-      <c r="W27" s="722"/>
-      <c r="X27" s="723"/>
-      <c r="Y27" s="724"/>
+      <c r="W27" s="742"/>
+      <c r="X27" s="743"/>
+      <c r="Y27" s="744"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -29945,9 +29945,9 @@
       <c r="T28" s="128"/>
       <c r="U28" s="34"/>
       <c r="V28" s="128"/>
-      <c r="W28" s="723"/>
-      <c r="X28" s="723"/>
-      <c r="Y28" s="724"/>
+      <c r="W28" s="743"/>
+      <c r="X28" s="743"/>
+      <c r="Y28" s="744"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -30538,11 +30538,11 @@
       <c r="J41" s="56"/>
       <c r="K41" s="38"/>
       <c r="L41" s="39"/>
-      <c r="M41" s="740">
+      <c r="M41" s="733">
         <f>SUM(M5:M40)</f>
         <v>1509924.1</v>
       </c>
-      <c r="N41" s="740">
+      <c r="N41" s="733">
         <f>SUM(N5:N40)</f>
         <v>1012291</v>
       </c>
@@ -30550,7 +30550,7 @@
         <f>SUM(P5:P40)</f>
         <v>4043205.8900000006</v>
       </c>
-      <c r="Q41" s="788">
+      <c r="Q41" s="792">
         <f>SUM(Q5:Q40)</f>
         <v>890559.8899999999</v>
       </c>
@@ -30574,10 +30574,10 @@
       <c r="L42" s="640">
         <v>3095.88</v>
       </c>
-      <c r="M42" s="741"/>
-      <c r="N42" s="741"/>
+      <c r="M42" s="734"/>
+      <c r="N42" s="734"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="789"/>
+      <c r="Q42" s="793"/>
     </row>
     <row r="43" spans="1:24" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -30646,11 +30646,11 @@
       <c r="L45" s="619">
         <v>4006.5</v>
       </c>
-      <c r="M45" s="790">
+      <c r="M45" s="794">
         <f>M41+N41</f>
         <v>2522215.1</v>
       </c>
-      <c r="N45" s="791"/>
+      <c r="N45" s="795"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -31066,26 +31066,26 @@
       <c r="A63" s="98"/>
       <c r="B63" s="99"/>
       <c r="C63" s="1"/>
-      <c r="H63" s="695" t="s">
+      <c r="H63" s="710" t="s">
         <v>11</v>
       </c>
-      <c r="I63" s="696"/>
+      <c r="I63" s="711"/>
       <c r="J63" s="562"/>
-      <c r="K63" s="813">
+      <c r="K63" s="820">
         <f>I61+L61</f>
         <v>340912.75</v>
       </c>
-      <c r="L63" s="814"/>
+      <c r="L63" s="821"/>
       <c r="M63" s="272"/>
       <c r="N63" s="272"/>
       <c r="P63" s="34"/>
       <c r="Q63" s="13"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D64" s="701" t="s">
+      <c r="D64" s="716" t="s">
         <v>12</v>
       </c>
-      <c r="E64" s="701"/>
+      <c r="E64" s="716"/>
       <c r="F64" s="312">
         <f>F61-K63-C61</f>
         <v>1458827.53</v>
@@ -31094,22 +31094,22 @@
       <c r="J64" s="563"/>
     </row>
     <row r="65" spans="2:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D65" s="731" t="s">
+      <c r="D65" s="740" t="s">
         <v>95</v>
       </c>
-      <c r="E65" s="731"/>
+      <c r="E65" s="740"/>
       <c r="F65" s="111">
         <v>-1572197.3</v>
       </c>
-      <c r="I65" s="702" t="s">
+      <c r="I65" s="717" t="s">
         <v>13</v>
       </c>
-      <c r="J65" s="703"/>
-      <c r="K65" s="704">
+      <c r="J65" s="718"/>
+      <c r="K65" s="719">
         <f>F67+F68+F69</f>
         <v>2392765.5300000003</v>
       </c>
-      <c r="L65" s="704"/>
+      <c r="L65" s="719"/>
       <c r="M65" s="404"/>
       <c r="N65" s="404"/>
       <c r="O65" s="582"/>
@@ -31150,11 +31150,11 @@
         <v>15</v>
       </c>
       <c r="J67" s="109"/>
-      <c r="K67" s="815">
+      <c r="K67" s="816">
         <f>-C4</f>
         <v>-2112071.92</v>
       </c>
-      <c r="L67" s="704"/>
+      <c r="L67" s="719"/>
     </row>
     <row r="68" spans="2:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D68" s="110" t="s">
@@ -31171,22 +31171,22 @@
       <c r="C69" s="112">
         <v>44710</v>
       </c>
-      <c r="D69" s="684" t="s">
+      <c r="D69" s="699" t="s">
         <v>18</v>
       </c>
-      <c r="E69" s="685"/>
+      <c r="E69" s="700"/>
       <c r="F69" s="113">
         <v>2546982.16</v>
       </c>
-      <c r="I69" s="810" t="s">
+      <c r="I69" s="817" t="s">
         <v>198</v>
       </c>
-      <c r="J69" s="811"/>
-      <c r="K69" s="812">
+      <c r="J69" s="818"/>
+      <c r="K69" s="819">
         <f>K65+K67</f>
         <v>280693.61000000034</v>
       </c>
-      <c r="L69" s="812"/>
+      <c r="L69" s="819"/>
     </row>
     <row r="70" spans="2:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C70" s="114"/>
@@ -31333,6 +31333,21 @@
     <sortCondition ref="J42:J56"/>
   </sortState>
   <mergeCells count="30">
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="I69:J69"/>
+    <mergeCell ref="K69:L69"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="K63:L63"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="I65:J65"/>
+    <mergeCell ref="K65:L65"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="K67:L67"/>
+    <mergeCell ref="M45:N45"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -31348,21 +31363,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
-    <mergeCell ref="K67:L67"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="I69:J69"/>
-    <mergeCell ref="K69:L69"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="K63:L63"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="I65:J65"/>
-    <mergeCell ref="K65:L65"/>
   </mergeCells>
   <pageMargins left="0.28000000000000003" right="0.19" top="0.33" bottom="0.33" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -33336,7 +33336,7 @@
       <c r="C71" s="214"/>
       <c r="D71" s="256"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="746" t="s">
+      <c r="F71" s="750" t="s">
         <v>207</v>
       </c>
       <c r="K71" s="1"/>
@@ -33349,7 +33349,7 @@
       <c r="C72" s="1"/>
       <c r="D72" s="256"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="747"/>
+      <c r="F72" s="751"/>
       <c r="K72" s="1"/>
       <c r="L72" s="97"/>
       <c r="M72" s="3"/>
@@ -33368,10 +33368,10 @@
     <row r="74" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A74" s="456"/>
       <c r="B74" s="442"/>
-      <c r="I74" s="784" t="s">
+      <c r="I74" s="788" t="s">
         <v>594</v>
       </c>
-      <c r="J74" s="785"/>
+      <c r="J74" s="789"/>
     </row>
     <row r="75" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="456"/>
@@ -33380,8 +33380,8 @@
       <c r="D75" s="654"/>
       <c r="E75" s="520"/>
       <c r="F75" s="111"/>
-      <c r="I75" s="786"/>
-      <c r="J75" s="787"/>
+      <c r="I75" s="790"/>
+      <c r="J75" s="791"/>
     </row>
     <row r="76" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="456"/>
@@ -33515,11 +33515,11 @@
       <c r="N88"/>
     </row>
     <row r="89" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="820" t="s">
+      <c r="A89" s="824" t="s">
         <v>806</v>
       </c>
-      <c r="B89" s="821"/>
-      <c r="C89" s="821"/>
+      <c r="B89" s="825"/>
+      <c r="C89" s="825"/>
       <c r="E89"/>
       <c r="F89" s="111"/>
       <c r="I89"/>
@@ -33529,10 +33529,10 @@
     </row>
     <row r="90" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A90" s="454"/>
-      <c r="B90" s="822" t="s">
+      <c r="B90" s="826" t="s">
         <v>807</v>
       </c>
-      <c r="C90" s="823"/>
+      <c r="C90" s="827"/>
       <c r="E90"/>
       <c r="F90" s="111"/>
       <c r="I90"/>
@@ -33633,7 +33633,7 @@
     <row r="97" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97"/>
       <c r="B97" s="662"/>
-      <c r="C97" s="818">
+      <c r="C97" s="822">
         <f>SUM(C91:C96)</f>
         <v>625124.87</v>
       </c>
@@ -33647,7 +33647,7 @@
       <c r="B98" s="663" t="s">
         <v>883</v>
       </c>
-      <c r="C98" s="819"/>
+      <c r="C98" s="823"/>
       <c r="E98"/>
       <c r="F98" s="127">
         <v>0</v>
@@ -33720,8 +33720,8 @@
   </sheetPr>
   <dimension ref="A1:R97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -33747,23 +33747,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="708"/>
-      <c r="C1" s="750" t="s">
+      <c r="B1" s="688"/>
+      <c r="C1" s="754" t="s">
         <v>884</v>
       </c>
-      <c r="D1" s="751"/>
-      <c r="E1" s="751"/>
-      <c r="F1" s="751"/>
-      <c r="G1" s="751"/>
-      <c r="H1" s="751"/>
-      <c r="I1" s="751"/>
-      <c r="J1" s="751"/>
-      <c r="K1" s="751"/>
-      <c r="L1" s="751"/>
-      <c r="M1" s="751"/>
+      <c r="D1" s="755"/>
+      <c r="E1" s="755"/>
+      <c r="F1" s="755"/>
+      <c r="G1" s="755"/>
+      <c r="H1" s="755"/>
+      <c r="I1" s="755"/>
+      <c r="J1" s="755"/>
+      <c r="K1" s="755"/>
+      <c r="L1" s="755"/>
+      <c r="M1" s="755"/>
     </row>
     <row r="2" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="709"/>
+      <c r="B2" s="689"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -33773,24 +33773,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:18" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="712" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="713"/>
+      <c r="B3" s="692" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="693"/>
       <c r="D3" s="10"/>
       <c r="E3" s="556"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="714" t="s">
+      <c r="H3" s="694" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="714"/>
+      <c r="I3" s="694"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="738" t="s">
+      <c r="P3" s="731" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="748" t="s">
+      <c r="R3" s="752" t="s">
         <v>216</v>
       </c>
     </row>
@@ -33805,14 +33805,14 @@
       <c r="D4" s="18">
         <v>44710</v>
       </c>
-      <c r="E4" s="715" t="s">
+      <c r="E4" s="695" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="716"/>
-      <c r="H4" s="717" t="s">
+      <c r="F4" s="696"/>
+      <c r="H4" s="697" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="718"/>
+      <c r="I4" s="698"/>
       <c r="J4" s="559"/>
       <c r="K4" s="565"/>
       <c r="L4" s="566"/>
@@ -33822,11 +33822,11 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="739"/>
+      <c r="P4" s="732"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="749"/>
+      <c r="R4" s="753"/>
     </row>
     <row r="5" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="23" t="s">
@@ -35594,11 +35594,11 @@
       <c r="L41" s="39">
         <v>18992.37</v>
       </c>
-      <c r="M41" s="740">
+      <c r="M41" s="733">
         <f>SUM(M5:M40)</f>
         <v>1737024</v>
       </c>
-      <c r="N41" s="740">
+      <c r="N41" s="733">
         <f>SUM(N5:N40)</f>
         <v>1314313</v>
       </c>
@@ -35606,7 +35606,7 @@
         <f>SUM(P5:P40)</f>
         <v>3810957.55</v>
       </c>
-      <c r="Q41" s="788">
+      <c r="Q41" s="792">
         <f>SUM(Q5:Q40)</f>
         <v>30.55000000000291</v>
       </c>
@@ -35636,10 +35636,10 @@
       <c r="L42" s="52">
         <v>17035.3</v>
       </c>
-      <c r="M42" s="741"/>
-      <c r="N42" s="741"/>
+      <c r="M42" s="734"/>
+      <c r="N42" s="734"/>
       <c r="P42" s="34"/>
-      <c r="Q42" s="789"/>
+      <c r="Q42" s="793"/>
     </row>
     <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="23"/>
@@ -35726,11 +35726,11 @@
       <c r="L45" s="39">
         <v>20521</v>
       </c>
-      <c r="M45" s="790">
+      <c r="M45" s="794">
         <f>M41+N41</f>
         <v>3051337</v>
       </c>
-      <c r="N45" s="791"/>
+      <c r="N45" s="795"/>
       <c r="P45" s="34"/>
       <c r="Q45" s="13"/>
     </row>
@@ -36320,26 +36320,26 @@
       <c r="A69" s="98"/>
       <c r="B69" s="99"/>
       <c r="C69" s="1"/>
-      <c r="H69" s="695" t="s">
+      <c r="H69" s="710" t="s">
         <v>11</v>
       </c>
-      <c r="I69" s="696"/>
+      <c r="I69" s="711"/>
       <c r="J69" s="562"/>
-      <c r="K69" s="813">
+      <c r="K69" s="820">
         <f>I67+L67</f>
         <v>534683.29</v>
       </c>
-      <c r="L69" s="814"/>
+      <c r="L69" s="821"/>
       <c r="M69" s="272"/>
       <c r="N69" s="272"/>
       <c r="P69" s="34"/>
       <c r="Q69" s="13"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D70" s="701" t="s">
+      <c r="D70" s="716" t="s">
         <v>12</v>
       </c>
-      <c r="E70" s="701"/>
+      <c r="E70" s="716"/>
       <c r="F70" s="312">
         <f>F67-K69-C67</f>
         <v>1683028.8699999999</v>
@@ -36348,22 +36348,22 @@
       <c r="J70" s="563"/>
     </row>
     <row r="71" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D71" s="731" t="s">
+      <c r="D71" s="740" t="s">
         <v>95</v>
       </c>
-      <c r="E71" s="731"/>
+      <c r="E71" s="740"/>
       <c r="F71" s="111">
         <v>-2122394.9</v>
       </c>
-      <c r="I71" s="702" t="s">
+      <c r="I71" s="717" t="s">
         <v>13</v>
       </c>
-      <c r="J71" s="703"/>
-      <c r="K71" s="704">
+      <c r="J71" s="718"/>
+      <c r="K71" s="719">
         <f>F73+F74+F75</f>
         <v>2167293.46</v>
       </c>
-      <c r="L71" s="704"/>
+      <c r="L71" s="719"/>
       <c r="M71" s="404"/>
       <c r="N71" s="404"/>
       <c r="O71" s="658"/>
@@ -36404,11 +36404,11 @@
         <v>15</v>
       </c>
       <c r="J73" s="109"/>
-      <c r="K73" s="815">
+      <c r="K73" s="816">
         <f>-C4</f>
         <v>-2546982.16</v>
       </c>
-      <c r="L73" s="704"/>
+      <c r="L73" s="719"/>
     </row>
     <row r="74" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D74" s="110" t="s">
@@ -36425,22 +36425,22 @@
       <c r="C75" s="112">
         <v>44745</v>
       </c>
-      <c r="D75" s="684" t="s">
+      <c r="D75" s="699" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="685"/>
+      <c r="E75" s="700"/>
       <c r="F75" s="113">
         <v>2355426.54</v>
       </c>
-      <c r="I75" s="686" t="s">
+      <c r="I75" s="701" t="s">
         <v>97</v>
       </c>
-      <c r="J75" s="687"/>
-      <c r="K75" s="688">
+      <c r="J75" s="702"/>
+      <c r="K75" s="703">
         <f>K71+K73</f>
         <v>-379688.70000000019</v>
       </c>
-      <c r="L75" s="688"/>
+      <c r="L75" s="703"/>
     </row>
     <row r="76" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C76" s="114"/>
@@ -36486,6 +36486,9 @@
       <c r="B81" s="121"/>
       <c r="C81" s="125"/>
       <c r="E81" s="34"/>
+      <c r="H81" s="555">
+        <v>2</v>
+      </c>
       <c r="M81" s="1"/>
     </row>
     <row r="82" spans="2:13" x14ac:dyDescent="0.25">
@@ -36587,17 +36590,6 @@
     <sortCondition ref="B42:B51"/>
   </sortState>
   <mergeCells count="22">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="M41:M42"/>
-    <mergeCell ref="N41:N42"/>
-    <mergeCell ref="Q41:Q42"/>
     <mergeCell ref="K73:L73"/>
     <mergeCell ref="D75:E75"/>
     <mergeCell ref="I75:J75"/>
@@ -36609,6 +36601,17 @@
     <mergeCell ref="D71:E71"/>
     <mergeCell ref="I71:J71"/>
     <mergeCell ref="K71:L71"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M41:M42"/>
+    <mergeCell ref="N41:N42"/>
+    <mergeCell ref="Q41:Q42"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="5" scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -38469,10 +38472,10 @@
         <f>SUM(F3:F66)</f>
         <v>2122394.9000000004</v>
       </c>
-      <c r="H67" s="784" t="s">
+      <c r="H67" s="788" t="s">
         <v>594</v>
       </c>
-      <c r="I67" s="785"/>
+      <c r="I67" s="789"/>
       <c r="J67" s="646">
         <f>SUM(J3:J66)</f>
         <v>289475.05</v>
@@ -38492,11 +38495,11 @@
       <c r="C68" s="214"/>
       <c r="D68" s="256"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="746" t="s">
+      <c r="F68" s="750" t="s">
         <v>207</v>
       </c>
-      <c r="H68" s="786"/>
-      <c r="I68" s="787"/>
+      <c r="H68" s="790"/>
+      <c r="I68" s="791"/>
       <c r="J68" s="1"/>
       <c r="K68" s="97"/>
       <c r="L68" s="3"/>
@@ -38507,7 +38510,7 @@
       <c r="C69" s="1"/>
       <c r="D69" s="256"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="747"/>
+      <c r="F69" s="751"/>
       <c r="J69" s="1"/>
       <c r="K69" s="97"/>
       <c r="L69" s="3"/>
@@ -40447,7 +40450,7 @@
       <c r="A41" s="140">
         <v>44507</v>
       </c>
-      <c r="B41" s="719" t="s">
+      <c r="B41" s="723" t="s">
         <v>92</v>
       </c>
       <c r="C41" s="190">
@@ -40479,7 +40482,7 @@
       <c r="A42" s="140" t="s">
         <v>93</v>
       </c>
-      <c r="B42" s="720"/>
+      <c r="B42" s="724"/>
       <c r="C42" s="143">
         <v>0</v>
       </c>
@@ -42062,75 +42065,75 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="827" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" style="825" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" style="687" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" style="685" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B4" s="824"/>
-      <c r="F4" s="827">
+      <c r="B4" s="684"/>
+      <c r="F4" s="687">
         <v>44711</v>
       </c>
-      <c r="G4" s="825">
+      <c r="G4" s="685">
         <v>4959.8999999999996</v>
       </c>
     </row>
     <row r="5" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B5" s="824"/>
+      <c r="B5" s="684"/>
     </row>
     <row r="6" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B6" s="826"/>
-      <c r="F6" s="827">
+      <c r="B6" s="686"/>
+      <c r="F6" s="687">
         <v>44711</v>
       </c>
-      <c r="G6" s="825">
+      <c r="G6" s="685">
         <v>4673.8500000000004</v>
       </c>
     </row>
     <row r="7" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B7" s="824"/>
-      <c r="F7" s="827">
+      <c r="B7" s="684"/>
+      <c r="F7" s="687">
         <v>44711</v>
       </c>
-      <c r="G7" s="825">
+      <c r="G7" s="685">
         <v>1771.2</v>
       </c>
     </row>
     <row r="9" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B9" s="824"/>
-      <c r="F9" s="827">
+      <c r="B9" s="684"/>
+      <c r="F9" s="687">
         <v>44743</v>
       </c>
-      <c r="G9" s="825">
+      <c r="G9" s="685">
         <v>200000</v>
       </c>
     </row>
     <row r="10" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B10" s="824"/>
+      <c r="B10" s="684"/>
     </row>
     <row r="11" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B11" s="824"/>
+      <c r="B11" s="684"/>
     </row>
     <row r="12" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B12" s="824"/>
+      <c r="B12" s="684"/>
     </row>
     <row r="13" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B13" s="824"/>
+      <c r="B13" s="684"/>
     </row>
     <row r="14" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B14" s="824"/>
+      <c r="B14" s="684"/>
     </row>
     <row r="15" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B15" s="824"/>
+      <c r="B15" s="684"/>
     </row>
     <row r="16" spans="2:7" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B16" s="824"/>
+      <c r="B16" s="684"/>
     </row>
     <row r="17" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B17" s="824"/>
+      <c r="B17" s="684"/>
     </row>
     <row r="18" spans="2:2" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B18" s="824"/>
+      <c r="B18" s="684"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42174,23 +42177,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="708"/>
-      <c r="C1" s="710" t="s">
+      <c r="B1" s="688"/>
+      <c r="C1" s="690" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="711"/>
-      <c r="E1" s="711"/>
-      <c r="F1" s="711"/>
-      <c r="G1" s="711"/>
-      <c r="H1" s="711"/>
-      <c r="I1" s="711"/>
-      <c r="J1" s="711"/>
-      <c r="K1" s="711"/>
-      <c r="L1" s="711"/>
-      <c r="M1" s="711"/>
+      <c r="D1" s="691"/>
+      <c r="E1" s="691"/>
+      <c r="F1" s="691"/>
+      <c r="G1" s="691"/>
+      <c r="H1" s="691"/>
+      <c r="I1" s="691"/>
+      <c r="J1" s="691"/>
+      <c r="K1" s="691"/>
+      <c r="L1" s="691"/>
+      <c r="M1" s="691"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="709"/>
+      <c r="B2" s="689"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -42200,21 +42203,21 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="712" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="713"/>
+      <c r="B3" s="692" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="693"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="714" t="s">
+      <c r="H3" s="694" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="714"/>
+      <c r="I3" s="694"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="738" t="s">
+      <c r="P3" s="731" t="s">
         <v>6</v>
       </c>
     </row>
@@ -42229,14 +42232,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="715" t="s">
+      <c r="E4" s="695" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="716"/>
-      <c r="H4" s="717" t="s">
+      <c r="F4" s="696"/>
+      <c r="H4" s="697" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="718"/>
+      <c r="I4" s="698"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -42246,14 +42249,14 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="739"/>
+      <c r="P4" s="732"/>
       <c r="Q4" s="286" t="s">
         <v>209</v>
       </c>
-      <c r="W4" s="721" t="s">
+      <c r="W4" s="741" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="721"/>
+      <c r="X4" s="741"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -42304,8 +42307,8 @@
         <f>20000+7936</f>
         <v>27936</v>
       </c>
-      <c r="W5" s="721"/>
-      <c r="X5" s="721"/>
+      <c r="W5" s="741"/>
+      <c r="X5" s="741"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -43076,7 +43079,7 @@
         <v>26370</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="725">
+      <c r="W19" s="745">
         <f>SUM(W6:W18)</f>
         <v>935136</v>
       </c>
@@ -43128,7 +43131,7 @@
         <v>16395.830000000002</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="726"/>
+      <c r="W20" s="746"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -43177,8 +43180,8 @@
         <v>19188.82</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="727"/>
-      <c r="X21" s="727"/>
+      <c r="W21" s="747"/>
+      <c r="X21" s="747"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -43279,8 +43282,8 @@
         <v>45217.29</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="728"/>
-      <c r="X23" s="728"/>
+      <c r="W23" s="748"/>
+      <c r="X23" s="748"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -43334,8 +43337,8 @@
         <v>23159.17</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="728"/>
-      <c r="X24" s="728"/>
+      <c r="W24" s="748"/>
+      <c r="X24" s="748"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -43381,8 +43384,8 @@
       <c r="R25" s="285">
         <v>28952</v>
       </c>
-      <c r="W25" s="729"/>
-      <c r="X25" s="729"/>
+      <c r="W25" s="749"/>
+      <c r="X25" s="749"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -43433,8 +43436,8 @@
       <c r="R26" s="285">
         <v>21771.5</v>
       </c>
-      <c r="W26" s="729"/>
-      <c r="X26" s="729"/>
+      <c r="W26" s="749"/>
+      <c r="X26" s="749"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -43482,9 +43485,9 @@
       <c r="R27" s="285">
         <v>14637</v>
       </c>
-      <c r="W27" s="722"/>
-      <c r="X27" s="723"/>
-      <c r="Y27" s="724"/>
+      <c r="W27" s="742"/>
+      <c r="X27" s="743"/>
+      <c r="Y27" s="744"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -43534,9 +43537,9 @@
       <c r="R28" s="285">
         <v>0</v>
       </c>
-      <c r="W28" s="723"/>
-      <c r="X28" s="723"/>
-      <c r="Y28" s="724"/>
+      <c r="W28" s="743"/>
+      <c r="X28" s="743"/>
+      <c r="Y28" s="744"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -43871,11 +43874,11 @@
       <c r="L36" s="44">
         <v>5940</v>
       </c>
-      <c r="M36" s="740">
+      <c r="M36" s="733">
         <f>SUM(M5:M35)</f>
         <v>321168.83</v>
       </c>
-      <c r="N36" s="742">
+      <c r="N36" s="735">
         <f>SUM(N5:N35)</f>
         <v>467016</v>
       </c>
@@ -43883,7 +43886,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="744">
+      <c r="Q36" s="737">
         <f>SUM(Q5:Q35)</f>
         <v>-637069.14000000013</v>
       </c>
@@ -43918,13 +43921,13 @@
       <c r="L37" s="61">
         <v>7929.62</v>
       </c>
-      <c r="M37" s="741"/>
-      <c r="N37" s="743"/>
+      <c r="M37" s="734"/>
+      <c r="N37" s="736"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="745"/>
+      <c r="Q37" s="738"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -44214,26 +44217,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="695" t="s">
+      <c r="H52" s="710" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="696"/>
+      <c r="I52" s="711"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="697">
+      <c r="K52" s="712">
         <f>I50+L50</f>
         <v>71911.59</v>
       </c>
-      <c r="L52" s="730"/>
+      <c r="L52" s="739"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="701" t="s">
+      <c r="D53" s="716" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="701"/>
+      <c r="E53" s="716"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>-25952.549999999814</v>
@@ -44242,29 +44245,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="731" t="s">
+      <c r="D54" s="740" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="731"/>
+      <c r="E54" s="740"/>
       <c r="F54" s="111">
         <v>-706888.38</v>
       </c>
-      <c r="I54" s="702" t="s">
+      <c r="I54" s="717" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="703"/>
-      <c r="K54" s="704">
+      <c r="J54" s="718"/>
+      <c r="K54" s="719">
         <f>F56+F57+F58</f>
         <v>1308778.3500000003</v>
       </c>
-      <c r="L54" s="704"/>
-      <c r="M54" s="732" t="s">
+      <c r="L54" s="719"/>
+      <c r="M54" s="725" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="733"/>
-      <c r="O54" s="733"/>
-      <c r="P54" s="733"/>
-      <c r="Q54" s="734"/>
+      <c r="N54" s="726"/>
+      <c r="O54" s="726"/>
+      <c r="P54" s="726"/>
+      <c r="Q54" s="727"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -44278,11 +44281,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="735"/>
-      <c r="N55" s="736"/>
-      <c r="O55" s="736"/>
-      <c r="P55" s="736"/>
-      <c r="Q55" s="737"/>
+      <c r="M55" s="728"/>
+      <c r="N55" s="729"/>
+      <c r="O55" s="729"/>
+      <c r="P55" s="729"/>
+      <c r="Q55" s="730"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -44300,11 +44303,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="706">
+      <c r="K56" s="721">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="707"/>
+      <c r="L56" s="722"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -44321,22 +44324,22 @@
       <c r="C58" s="112">
         <v>44535</v>
       </c>
-      <c r="D58" s="684" t="s">
+      <c r="D58" s="699" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="685"/>
+      <c r="E58" s="700"/>
       <c r="F58" s="113">
         <v>2142307.62</v>
       </c>
-      <c r="I58" s="686" t="s">
+      <c r="I58" s="701" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="687"/>
-      <c r="K58" s="688">
+      <c r="J58" s="702"/>
+      <c r="K58" s="703">
         <f>K54+K56</f>
         <v>741389.00000000035</v>
       </c>
-      <c r="L58" s="688"/>
+      <c r="L58" s="703"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -44480,17 +44483,14 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="W26:X26"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -44501,14 +44501,17 @@
     <mergeCell ref="I54:J54"/>
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0.15748031496062992" top="0.27559055118110237" bottom="0.27559055118110237" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="68" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -46926,7 +46929,7 @@
       <c r="C87" s="214"/>
       <c r="D87" s="97"/>
       <c r="E87" s="3"/>
-      <c r="F87" s="746" t="s">
+      <c r="F87" s="750" t="s">
         <v>207</v>
       </c>
       <c r="K87" s="1"/>
@@ -46939,7 +46942,7 @@
       <c r="C88" s="1"/>
       <c r="D88" s="97"/>
       <c r="E88" s="3"/>
-      <c r="F88" s="747"/>
+      <c r="F88" s="751"/>
       <c r="K88" s="1"/>
       <c r="L88" s="256"/>
       <c r="M88" s="3"/>
@@ -47251,23 +47254,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="708"/>
-      <c r="C1" s="710" t="s">
+      <c r="B1" s="688"/>
+      <c r="C1" s="690" t="s">
         <v>208</v>
       </c>
-      <c r="D1" s="711"/>
-      <c r="E1" s="711"/>
-      <c r="F1" s="711"/>
-      <c r="G1" s="711"/>
-      <c r="H1" s="711"/>
-      <c r="I1" s="711"/>
-      <c r="J1" s="711"/>
-      <c r="K1" s="711"/>
-      <c r="L1" s="711"/>
-      <c r="M1" s="711"/>
+      <c r="D1" s="691"/>
+      <c r="E1" s="691"/>
+      <c r="F1" s="691"/>
+      <c r="G1" s="691"/>
+      <c r="H1" s="691"/>
+      <c r="I1" s="691"/>
+      <c r="J1" s="691"/>
+      <c r="K1" s="691"/>
+      <c r="L1" s="691"/>
+      <c r="M1" s="691"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="709"/>
+      <c r="B2" s="689"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -47277,24 +47280,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="712" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="713"/>
+      <c r="B3" s="692" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="693"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="714" t="s">
+      <c r="H3" s="694" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="714"/>
+      <c r="I3" s="694"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="738" t="s">
+      <c r="P3" s="731" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="748" t="s">
+      <c r="R3" s="752" t="s">
         <v>216</v>
       </c>
     </row>
@@ -47309,14 +47312,14 @@
       <c r="D4" s="18">
         <v>44507</v>
       </c>
-      <c r="E4" s="715" t="s">
+      <c r="E4" s="695" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="716"/>
-      <c r="H4" s="717" t="s">
+      <c r="F4" s="696"/>
+      <c r="H4" s="697" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="718"/>
+      <c r="I4" s="698"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -47326,15 +47329,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="739"/>
+      <c r="P4" s="732"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="749"/>
-      <c r="W4" s="721" t="s">
+      <c r="R4" s="753"/>
+      <c r="W4" s="741" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="721"/>
+      <c r="X4" s="741"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -47395,8 +47398,8 @@
       <c r="S5" s="324" t="s">
         <v>213</v>
       </c>
-      <c r="W5" s="721"/>
-      <c r="X5" s="721"/>
+      <c r="W5" s="741"/>
+      <c r="X5" s="741"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -48153,7 +48156,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="725">
+      <c r="W19" s="745">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -48205,7 +48208,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="726"/>
+      <c r="W20" s="746"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -48254,8 +48257,8 @@
         <v>0</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="727"/>
-      <c r="X21" s="727"/>
+      <c r="W21" s="747"/>
+      <c r="X21" s="747"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -48356,8 +48359,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="728"/>
-      <c r="X23" s="728"/>
+      <c r="W23" s="748"/>
+      <c r="X23" s="748"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -48408,8 +48411,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="728"/>
-      <c r="X24" s="728"/>
+      <c r="W24" s="748"/>
+      <c r="X24" s="748"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -48455,8 +48458,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="729"/>
-      <c r="X25" s="729"/>
+      <c r="W25" s="749"/>
+      <c r="X25" s="749"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -48504,8 +48507,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="729"/>
-      <c r="X26" s="729"/>
+      <c r="W26" s="749"/>
+      <c r="X26" s="749"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -48565,9 +48568,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="722"/>
-      <c r="X27" s="723"/>
-      <c r="Y27" s="724"/>
+      <c r="W27" s="742"/>
+      <c r="X27" s="743"/>
+      <c r="Y27" s="744"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -48621,9 +48624,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="723"/>
-      <c r="X28" s="723"/>
-      <c r="Y28" s="724"/>
+      <c r="W28" s="743"/>
+      <c r="X28" s="743"/>
+      <c r="Y28" s="744"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -48939,11 +48942,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="740">
+      <c r="M36" s="733">
         <f>SUM(M5:M35)</f>
         <v>1077791.3</v>
       </c>
-      <c r="N36" s="742">
+      <c r="N36" s="735">
         <f>SUM(N5:N35)</f>
         <v>936398</v>
       </c>
@@ -48951,7 +48954,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="744">
+      <c r="Q36" s="737">
         <f>SUM(Q5:Q35)</f>
         <v>-14262.940000000002</v>
       </c>
@@ -48970,13 +48973,13 @@
       <c r="J37" s="60"/>
       <c r="K37" s="41"/>
       <c r="L37" s="61"/>
-      <c r="M37" s="741"/>
-      <c r="N37" s="743"/>
+      <c r="M37" s="734"/>
+      <c r="N37" s="736"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="745"/>
+      <c r="Q37" s="738"/>
     </row>
     <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="23"/>
@@ -49250,26 +49253,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="695" t="s">
+      <c r="H52" s="710" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="696"/>
+      <c r="I52" s="711"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="697">
+      <c r="K52" s="712">
         <f>I50+L50</f>
         <v>90750.75</v>
       </c>
-      <c r="L52" s="730"/>
+      <c r="L52" s="739"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D53" s="701" t="s">
+      <c r="D53" s="716" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="701"/>
+      <c r="E53" s="716"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>1739855.03</v>
@@ -49278,29 +49281,29 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="731" t="s">
+      <c r="D54" s="740" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="731"/>
+      <c r="E54" s="740"/>
       <c r="F54" s="111">
         <v>-1567070.66</v>
       </c>
-      <c r="I54" s="702" t="s">
+      <c r="I54" s="717" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="703"/>
-      <c r="K54" s="704">
+      <c r="J54" s="718"/>
+      <c r="K54" s="719">
         <f>F56+F57+F58</f>
         <v>703192.8600000001</v>
       </c>
-      <c r="L54" s="704"/>
-      <c r="M54" s="732" t="s">
+      <c r="L54" s="719"/>
+      <c r="M54" s="725" t="s">
         <v>211</v>
       </c>
-      <c r="N54" s="733"/>
-      <c r="O54" s="733"/>
-      <c r="P54" s="733"/>
-      <c r="Q54" s="734"/>
+      <c r="N54" s="726"/>
+      <c r="O54" s="726"/>
+      <c r="P54" s="726"/>
+      <c r="Q54" s="727"/>
     </row>
     <row r="55" spans="1:17" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D55" s="313" t="s">
@@ -49314,11 +49317,11 @@
       <c r="J55" s="106"/>
       <c r="K55" s="178"/>
       <c r="L55" s="107"/>
-      <c r="M55" s="735"/>
-      <c r="N55" s="736"/>
-      <c r="O55" s="736"/>
-      <c r="P55" s="736"/>
-      <c r="Q55" s="737"/>
+      <c r="M55" s="728"/>
+      <c r="N55" s="729"/>
+      <c r="O55" s="729"/>
+      <c r="P55" s="729"/>
+      <c r="Q55" s="730"/>
     </row>
     <row r="56" spans="1:17" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="C56" s="4" t="s">
@@ -49336,11 +49339,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="706">
+      <c r="K56" s="721">
         <f>-C4</f>
         <v>-567389.35</v>
       </c>
-      <c r="L56" s="707"/>
+      <c r="L56" s="722"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -49357,22 +49360,22 @@
       <c r="C58" s="112">
         <v>44563</v>
       </c>
-      <c r="D58" s="684" t="s">
+      <c r="D58" s="699" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="685"/>
+      <c r="E58" s="700"/>
       <c r="F58" s="113">
         <v>754143.23</v>
       </c>
-      <c r="I58" s="686" t="s">
+      <c r="I58" s="701" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="687"/>
-      <c r="K58" s="688">
+      <c r="J58" s="702"/>
+      <c r="K58" s="703">
         <f>K54+K56</f>
         <v>135803.51000000013</v>
       </c>
-      <c r="L58" s="688"/>
+      <c r="L58" s="703"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -49516,13 +49519,20 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="M54:Q55"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="W27:X28"/>
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
     <mergeCell ref="H52:I52"/>
     <mergeCell ref="K52:L52"/>
     <mergeCell ref="W4:X5"/>
@@ -49532,20 +49542,13 @@
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
-    <mergeCell ref="M54:Q55"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="W27:X28"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -51935,7 +51938,7 @@
       <c r="C75" s="214"/>
       <c r="D75" s="256"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="746" t="s">
+      <c r="F75" s="750" t="s">
         <v>207</v>
       </c>
       <c r="K75" s="1"/>
@@ -51948,7 +51951,7 @@
       <c r="C76" s="1"/>
       <c r="D76" s="256"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="747"/>
+      <c r="F76" s="751"/>
       <c r="K76" s="1"/>
       <c r="L76" s="256"/>
       <c r="M76" s="3"/>
@@ -52240,23 +52243,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="708"/>
-      <c r="C1" s="750" t="s">
+      <c r="B1" s="688"/>
+      <c r="C1" s="754" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="751"/>
-      <c r="E1" s="751"/>
-      <c r="F1" s="751"/>
-      <c r="G1" s="751"/>
-      <c r="H1" s="751"/>
-      <c r="I1" s="751"/>
-      <c r="J1" s="751"/>
-      <c r="K1" s="751"/>
-      <c r="L1" s="751"/>
-      <c r="M1" s="751"/>
+      <c r="D1" s="755"/>
+      <c r="E1" s="755"/>
+      <c r="F1" s="755"/>
+      <c r="G1" s="755"/>
+      <c r="H1" s="755"/>
+      <c r="I1" s="755"/>
+      <c r="J1" s="755"/>
+      <c r="K1" s="755"/>
+      <c r="L1" s="755"/>
+      <c r="M1" s="755"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="709"/>
+      <c r="B2" s="689"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -52266,24 +52269,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="712" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="713"/>
+      <c r="B3" s="692" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="693"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="714" t="s">
+      <c r="H3" s="694" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="714"/>
+      <c r="I3" s="694"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="738" t="s">
+      <c r="P3" s="731" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="748" t="s">
+      <c r="R3" s="752" t="s">
         <v>216</v>
       </c>
     </row>
@@ -52298,14 +52301,14 @@
       <c r="D4" s="18">
         <v>44563</v>
       </c>
-      <c r="E4" s="715" t="s">
+      <c r="E4" s="695" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="716"/>
-      <c r="H4" s="717" t="s">
+      <c r="F4" s="696"/>
+      <c r="H4" s="697" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="718"/>
+      <c r="I4" s="698"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -52315,15 +52318,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="739"/>
+      <c r="P4" s="732"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="749"/>
-      <c r="W4" s="721" t="s">
+      <c r="R4" s="753"/>
+      <c r="W4" s="741" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="721"/>
+      <c r="X4" s="741"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -52374,8 +52377,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="721"/>
-      <c r="X5" s="721"/>
+      <c r="W5" s="741"/>
+      <c r="X5" s="741"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -53139,7 +53142,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="725">
+      <c r="W19" s="745">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -53192,7 +53195,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="726"/>
+      <c r="W20" s="746"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -53241,8 +53244,8 @@
         <v>377273.87</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="727"/>
-      <c r="X21" s="727"/>
+      <c r="W21" s="747"/>
+      <c r="X21" s="747"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -53342,8 +53345,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="728"/>
-      <c r="X23" s="728"/>
+      <c r="W23" s="748"/>
+      <c r="X23" s="748"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -53398,8 +53401,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="728"/>
-      <c r="X24" s="728"/>
+      <c r="W24" s="748"/>
+      <c r="X24" s="748"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -53444,8 +53447,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="729"/>
-      <c r="X25" s="729"/>
+      <c r="W25" s="749"/>
+      <c r="X25" s="749"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -53493,8 +53496,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="729"/>
-      <c r="X26" s="729"/>
+      <c r="W26" s="749"/>
+      <c r="X26" s="749"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -53548,9 +53551,9 @@
       <c r="V27" t="s">
         <v>240</v>
       </c>
-      <c r="W27" s="722"/>
-      <c r="X27" s="723"/>
-      <c r="Y27" s="724"/>
+      <c r="W27" s="742"/>
+      <c r="X27" s="743"/>
+      <c r="Y27" s="744"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -53604,9 +53607,9 @@
       <c r="V28" t="s">
         <v>240</v>
       </c>
-      <c r="W28" s="723"/>
-      <c r="X28" s="723"/>
-      <c r="Y28" s="724"/>
+      <c r="W28" s="743"/>
+      <c r="X28" s="743"/>
+      <c r="Y28" s="744"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -53917,11 +53920,11 @@
       <c r="L36" s="44">
         <v>13275.84</v>
       </c>
-      <c r="M36" s="740">
+      <c r="M36" s="733">
         <f>SUM(M5:M35)</f>
         <v>1818445.73</v>
       </c>
-      <c r="N36" s="742">
+      <c r="N36" s="735">
         <f>SUM(N5:N35)</f>
         <v>739014</v>
       </c>
@@ -53929,7 +53932,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="744">
+      <c r="Q36" s="737">
         <f>SUM(Q5:Q35)</f>
         <v>-7.2800000000133878</v>
       </c>
@@ -53954,13 +53957,13 @@
       <c r="L37" s="61">
         <v>15060.32</v>
       </c>
-      <c r="M37" s="741"/>
-      <c r="N37" s="743"/>
+      <c r="M37" s="734"/>
+      <c r="N37" s="736"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="745"/>
+      <c r="Q37" s="738"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -54253,26 +54256,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="695" t="s">
+      <c r="H52" s="710" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="696"/>
+      <c r="I52" s="711"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="697">
+      <c r="K52" s="712">
         <f>I50+L50</f>
         <v>158798.12</v>
       </c>
-      <c r="L52" s="730"/>
+      <c r="L52" s="739"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="701" t="s">
+      <c r="D53" s="716" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="701"/>
+      <c r="E53" s="716"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2078470.75</v>
@@ -54281,22 +54284,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="731" t="s">
+      <c r="D54" s="740" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="731"/>
+      <c r="E54" s="740"/>
       <c r="F54" s="111">
         <v>-1448401.2</v>
       </c>
-      <c r="I54" s="702" t="s">
+      <c r="I54" s="717" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="703"/>
-      <c r="K54" s="704">
+      <c r="J54" s="718"/>
+      <c r="K54" s="719">
         <f>F56+F57+F58</f>
         <v>1025960.7</v>
       </c>
-      <c r="L54" s="704"/>
+      <c r="L54" s="719"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -54337,11 +54340,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="706">
+      <c r="K56" s="721">
         <f>-C4</f>
         <v>-754143.23</v>
       </c>
-      <c r="L56" s="707"/>
+      <c r="L56" s="722"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -54358,22 +54361,22 @@
       <c r="C58" s="112">
         <v>44591</v>
       </c>
-      <c r="D58" s="684" t="s">
+      <c r="D58" s="699" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="685"/>
+      <c r="E58" s="700"/>
       <c r="F58" s="113">
         <v>1149740.4099999999</v>
       </c>
-      <c r="I58" s="686" t="s">
+      <c r="I58" s="701" t="s">
         <v>198</v>
       </c>
-      <c r="J58" s="687"/>
-      <c r="K58" s="688">
+      <c r="J58" s="702"/>
+      <c r="K58" s="703">
         <f>K54+K56</f>
         <v>271817.46999999997</v>
       </c>
-      <c r="L58" s="688"/>
+      <c r="L58" s="703"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -54517,6 +54520,20 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="Y27:Y28"/>
+    <mergeCell ref="M36:M37"/>
+    <mergeCell ref="N36:N37"/>
+    <mergeCell ref="Q36:Q37"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="I58:J58"/>
+    <mergeCell ref="K58:L58"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="I54:J54"/>
+    <mergeCell ref="K54:L54"/>
+    <mergeCell ref="K56:L56"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="K52:L52"/>
     <mergeCell ref="W26:X26"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="W27:X28"/>
@@ -54532,20 +54549,6 @@
     <mergeCell ref="W21:X21"/>
     <mergeCell ref="W23:X24"/>
     <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y27:Y28"/>
-    <mergeCell ref="M36:M37"/>
-    <mergeCell ref="N36:N37"/>
-    <mergeCell ref="Q36:Q37"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="I58:J58"/>
-    <mergeCell ref="K58:L58"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="I54:J54"/>
-    <mergeCell ref="K54:L54"/>
-    <mergeCell ref="K56:L56"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="K52:L52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -56242,12 +56245,12 @@
     </row>
     <row r="43" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="245"/>
-      <c r="B43" s="752" t="s">
+      <c r="B43" s="756" t="s">
         <v>413</v>
       </c>
-      <c r="C43" s="753"/>
-      <c r="D43" s="753"/>
-      <c r="E43" s="754"/>
+      <c r="C43" s="757"/>
+      <c r="D43" s="757"/>
+      <c r="E43" s="758"/>
       <c r="F43" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -56275,10 +56278,10 @@
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="245"/>
-      <c r="B44" s="755"/>
-      <c r="C44" s="756"/>
-      <c r="D44" s="756"/>
-      <c r="E44" s="757"/>
+      <c r="B44" s="759"/>
+      <c r="C44" s="760"/>
+      <c r="D44" s="760"/>
+      <c r="E44" s="761"/>
       <c r="F44" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -56306,10 +56309,10 @@
     </row>
     <row r="45" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="245"/>
-      <c r="B45" s="758"/>
-      <c r="C45" s="759"/>
-      <c r="D45" s="759"/>
-      <c r="E45" s="760"/>
+      <c r="B45" s="762"/>
+      <c r="C45" s="763"/>
+      <c r="D45" s="763"/>
+      <c r="E45" s="764"/>
       <c r="F45" s="392">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -56352,10 +56355,10 @@
     </row>
     <row r="47" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="245"/>
-      <c r="B47" s="767" t="s">
+      <c r="B47" s="771" t="s">
         <v>593</v>
       </c>
-      <c r="C47" s="768"/>
+      <c r="C47" s="772"/>
       <c r="D47" s="253"/>
       <c r="E47" s="69"/>
       <c r="F47" s="137">
@@ -56377,8 +56380,8 @@
     </row>
     <row r="48" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="245"/>
-      <c r="B48" s="769"/>
-      <c r="C48" s="770"/>
+      <c r="B48" s="773"/>
+      <c r="C48" s="774"/>
       <c r="D48" s="253"/>
       <c r="E48" s="69"/>
       <c r="F48" s="137">
@@ -56386,11 +56389,11 @@
         <v>0</v>
       </c>
       <c r="I48" s="348"/>
-      <c r="J48" s="761" t="s">
+      <c r="J48" s="765" t="s">
         <v>414</v>
       </c>
-      <c r="K48" s="762"/>
-      <c r="L48" s="763"/>
+      <c r="K48" s="766"/>
+      <c r="L48" s="767"/>
       <c r="M48" s="206"/>
       <c r="N48" s="137">
         <f>N47+K48-M48</f>
@@ -56408,9 +56411,9 @@
         <v>0</v>
       </c>
       <c r="I49" s="348"/>
-      <c r="J49" s="764"/>
-      <c r="K49" s="765"/>
-      <c r="L49" s="766"/>
+      <c r="J49" s="768"/>
+      <c r="K49" s="769"/>
+      <c r="L49" s="770"/>
       <c r="M49" s="206"/>
       <c r="N49" s="137">
         <f t="shared" si="1"/>
@@ -56427,10 +56430,10 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I50" s="771" t="s">
+      <c r="I50" s="775" t="s">
         <v>594</v>
       </c>
-      <c r="J50" s="772"/>
+      <c r="J50" s="776"/>
       <c r="K50" s="215">
         <v>0</v>
       </c>
@@ -56451,8 +56454,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I51" s="771"/>
-      <c r="J51" s="772"/>
+      <c r="I51" s="775"/>
+      <c r="J51" s="776"/>
       <c r="K51" s="69"/>
       <c r="L51" s="253"/>
       <c r="M51" s="69"/>
@@ -56471,8 +56474,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I52" s="771"/>
-      <c r="J52" s="772"/>
+      <c r="I52" s="775"/>
+      <c r="J52" s="776"/>
       <c r="K52" s="69"/>
       <c r="L52" s="253"/>
       <c r="M52" s="69"/>
@@ -56491,8 +56494,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I53" s="771"/>
-      <c r="J53" s="772"/>
+      <c r="I53" s="775"/>
+      <c r="J53" s="776"/>
       <c r="K53" s="69"/>
       <c r="L53" s="253"/>
       <c r="M53" s="69"/>
@@ -56511,8 +56514,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I54" s="771"/>
-      <c r="J54" s="772"/>
+      <c r="I54" s="775"/>
+      <c r="J54" s="776"/>
       <c r="K54" s="69"/>
       <c r="L54" s="253"/>
       <c r="M54" s="69"/>
@@ -56531,8 +56534,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I55" s="771"/>
-      <c r="J55" s="772"/>
+      <c r="I55" s="775"/>
+      <c r="J55" s="776"/>
       <c r="K55" s="69"/>
       <c r="L55" s="253"/>
       <c r="M55" s="69"/>
@@ -56551,8 +56554,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I56" s="771"/>
-      <c r="J56" s="772"/>
+      <c r="I56" s="775"/>
+      <c r="J56" s="776"/>
       <c r="K56" s="69"/>
       <c r="L56" s="253"/>
       <c r="M56" s="69"/>
@@ -56571,8 +56574,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I57" s="771"/>
-      <c r="J57" s="772"/>
+      <c r="I57" s="775"/>
+      <c r="J57" s="776"/>
       <c r="K57" s="69"/>
       <c r="L57" s="253"/>
       <c r="M57" s="69"/>
@@ -56591,8 +56594,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I58" s="771"/>
-      <c r="J58" s="772"/>
+      <c r="I58" s="775"/>
+      <c r="J58" s="776"/>
       <c r="K58" s="69"/>
       <c r="L58" s="253"/>
       <c r="M58" s="69"/>
@@ -56611,8 +56614,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I59" s="771"/>
-      <c r="J59" s="772"/>
+      <c r="I59" s="775"/>
+      <c r="J59" s="776"/>
       <c r="K59" s="69"/>
       <c r="L59" s="253"/>
       <c r="M59" s="69"/>
@@ -56631,8 +56634,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I60" s="771"/>
-      <c r="J60" s="772"/>
+      <c r="I60" s="775"/>
+      <c r="J60" s="776"/>
       <c r="K60" s="69"/>
       <c r="L60" s="253"/>
       <c r="M60" s="69"/>
@@ -56651,8 +56654,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I61" s="771"/>
-      <c r="J61" s="772"/>
+      <c r="I61" s="775"/>
+      <c r="J61" s="776"/>
       <c r="K61" s="69"/>
       <c r="L61" s="253"/>
       <c r="M61" s="69"/>
@@ -56671,8 +56674,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I62" s="771"/>
-      <c r="J62" s="772"/>
+      <c r="I62" s="775"/>
+      <c r="J62" s="776"/>
       <c r="K62" s="34"/>
       <c r="L62" s="118"/>
       <c r="M62" s="34"/>
@@ -56691,8 +56694,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I63" s="771"/>
-      <c r="J63" s="772"/>
+      <c r="I63" s="775"/>
+      <c r="J63" s="776"/>
       <c r="K63" s="34"/>
       <c r="L63" s="118"/>
       <c r="M63" s="34"/>
@@ -56711,8 +56714,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I64" s="771"/>
-      <c r="J64" s="772"/>
+      <c r="I64" s="775"/>
+      <c r="J64" s="776"/>
       <c r="K64" s="34"/>
       <c r="L64" s="118"/>
       <c r="M64" s="34"/>
@@ -56731,8 +56734,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I65" s="771"/>
-      <c r="J65" s="772"/>
+      <c r="I65" s="775"/>
+      <c r="J65" s="776"/>
       <c r="K65" s="34"/>
       <c r="L65" s="118"/>
       <c r="M65" s="34"/>
@@ -56751,8 +56754,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I66" s="771"/>
-      <c r="J66" s="772"/>
+      <c r="I66" s="775"/>
+      <c r="J66" s="776"/>
       <c r="K66" s="34"/>
       <c r="L66" s="118"/>
       <c r="M66" s="34"/>
@@ -56771,8 +56774,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I67" s="771"/>
-      <c r="J67" s="772"/>
+      <c r="I67" s="775"/>
+      <c r="J67" s="776"/>
       <c r="K67" s="34"/>
       <c r="L67" s="118"/>
       <c r="M67" s="34"/>
@@ -56791,8 +56794,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I68" s="771"/>
-      <c r="J68" s="772"/>
+      <c r="I68" s="775"/>
+      <c r="J68" s="776"/>
       <c r="K68" s="69"/>
       <c r="L68" s="254"/>
       <c r="M68" s="69"/>
@@ -56811,8 +56814,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I69" s="771"/>
-      <c r="J69" s="772"/>
+      <c r="I69" s="775"/>
+      <c r="J69" s="776"/>
       <c r="K69" s="69"/>
       <c r="L69" s="254"/>
       <c r="M69" s="69"/>
@@ -56831,8 +56834,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I70" s="771"/>
-      <c r="J70" s="772"/>
+      <c r="I70" s="775"/>
+      <c r="J70" s="776"/>
       <c r="K70" s="69"/>
       <c r="L70" s="254"/>
       <c r="M70" s="69"/>
@@ -56851,8 +56854,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I71" s="771"/>
-      <c r="J71" s="772"/>
+      <c r="I71" s="775"/>
+      <c r="J71" s="776"/>
       <c r="K71" s="69"/>
       <c r="L71" s="254"/>
       <c r="M71" s="69"/>
@@ -56871,8 +56874,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I72" s="771"/>
-      <c r="J72" s="772"/>
+      <c r="I72" s="775"/>
+      <c r="J72" s="776"/>
       <c r="K72" s="69"/>
       <c r="L72" s="254"/>
       <c r="M72" s="69"/>
@@ -56891,8 +56894,8 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I73" s="771"/>
-      <c r="J73" s="772"/>
+      <c r="I73" s="775"/>
+      <c r="J73" s="776"/>
       <c r="K73" s="69"/>
       <c r="L73" s="254"/>
       <c r="M73" s="69"/>
@@ -56911,8 +56914,8 @@
         <f>F73+C74-E74</f>
         <v>0</v>
       </c>
-      <c r="I74" s="771"/>
-      <c r="J74" s="772"/>
+      <c r="I74" s="775"/>
+      <c r="J74" s="776"/>
       <c r="K74" s="69"/>
       <c r="L74" s="254"/>
       <c r="M74" s="69"/>
@@ -56931,8 +56934,8 @@
         <f>F74+C75-E75</f>
         <v>0</v>
       </c>
-      <c r="I75" s="771"/>
-      <c r="J75" s="772"/>
+      <c r="I75" s="775"/>
+      <c r="J75" s="776"/>
       <c r="K75" s="69"/>
       <c r="L75" s="254"/>
       <c r="M75" s="69"/>
@@ -56951,8 +56954,8 @@
         <f>F75+C76-E76</f>
         <v>0</v>
       </c>
-      <c r="I76" s="771"/>
-      <c r="J76" s="772"/>
+      <c r="I76" s="775"/>
+      <c r="J76" s="776"/>
       <c r="K76" s="69"/>
       <c r="L76" s="254"/>
       <c r="M76" s="69"/>
@@ -56971,8 +56974,8 @@
         <f>F76+C77-E77</f>
         <v>0</v>
       </c>
-      <c r="I77" s="771"/>
-      <c r="J77" s="772"/>
+      <c r="I77" s="775"/>
+      <c r="J77" s="776"/>
       <c r="K77" s="69"/>
       <c r="L77" s="254"/>
       <c r="M77" s="69"/>
@@ -56993,8 +56996,8 @@
         <f>F77+C78-E78</f>
         <v>0</v>
       </c>
-      <c r="I78" s="773"/>
-      <c r="J78" s="774"/>
+      <c r="I78" s="777"/>
+      <c r="J78" s="778"/>
       <c r="K78" s="151">
         <v>0</v>
       </c>
@@ -57039,7 +57042,7 @@
       <c r="C80" s="214"/>
       <c r="D80" s="256"/>
       <c r="E80" s="3"/>
-      <c r="F80" s="746" t="s">
+      <c r="F80" s="750" t="s">
         <v>207</v>
       </c>
       <c r="K80" s="1"/>
@@ -57051,7 +57054,7 @@
       <c r="C81" s="1"/>
       <c r="D81" s="256"/>
       <c r="E81" s="3"/>
-      <c r="F81" s="747"/>
+      <c r="F81" s="751"/>
       <c r="K81" s="1"/>
       <c r="M81" s="3"/>
       <c r="N81" s="1"/>
@@ -57339,23 +57342,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B1" s="708"/>
-      <c r="C1" s="750" t="s">
+      <c r="B1" s="688"/>
+      <c r="C1" s="754" t="s">
         <v>646</v>
       </c>
-      <c r="D1" s="751"/>
-      <c r="E1" s="751"/>
-      <c r="F1" s="751"/>
-      <c r="G1" s="751"/>
-      <c r="H1" s="751"/>
-      <c r="I1" s="751"/>
-      <c r="J1" s="751"/>
-      <c r="K1" s="751"/>
-      <c r="L1" s="751"/>
-      <c r="M1" s="751"/>
+      <c r="D1" s="755"/>
+      <c r="E1" s="755"/>
+      <c r="F1" s="755"/>
+      <c r="G1" s="755"/>
+      <c r="H1" s="755"/>
+      <c r="I1" s="755"/>
+      <c r="J1" s="755"/>
+      <c r="K1" s="755"/>
+      <c r="L1" s="755"/>
+      <c r="M1" s="755"/>
     </row>
     <row r="2" spans="1:25" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="709"/>
+      <c r="B2" s="689"/>
       <c r="C2" s="3"/>
       <c r="H2" s="5"/>
       <c r="I2" s="6"/>
@@ -57365,24 +57368,24 @@
       <c r="N2" s="9"/>
     </row>
     <row r="3" spans="1:25" ht="21.75" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="712" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="713"/>
+      <c r="B3" s="692" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="693"/>
       <c r="D3" s="10"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="H3" s="714" t="s">
+      <c r="H3" s="694" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="714"/>
+      <c r="I3" s="694"/>
       <c r="K3" s="165"/>
       <c r="L3" s="13"/>
       <c r="M3" s="14"/>
-      <c r="P3" s="738" t="s">
+      <c r="P3" s="731" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="748" t="s">
+      <c r="R3" s="752" t="s">
         <v>216</v>
       </c>
     </row>
@@ -57397,14 +57400,14 @@
       <c r="D4" s="18">
         <v>44591</v>
       </c>
-      <c r="E4" s="715" t="s">
+      <c r="E4" s="695" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="716"/>
-      <c r="H4" s="717" t="s">
+      <c r="F4" s="696"/>
+      <c r="H4" s="697" t="s">
         <v>3</v>
       </c>
-      <c r="I4" s="718"/>
+      <c r="I4" s="698"/>
       <c r="J4" s="19"/>
       <c r="K4" s="166"/>
       <c r="L4" s="20"/>
@@ -57414,15 +57417,15 @@
       <c r="N4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="739"/>
+      <c r="P4" s="732"/>
       <c r="Q4" s="322" t="s">
         <v>217</v>
       </c>
-      <c r="R4" s="749"/>
-      <c r="W4" s="721" t="s">
+      <c r="R4" s="753"/>
+      <c r="W4" s="741" t="s">
         <v>124</v>
       </c>
-      <c r="X4" s="721"/>
+      <c r="X4" s="741"/>
       <c r="Y4" s="227"/>
     </row>
     <row r="5" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -57473,8 +57476,8 @@
         <v>0</v>
       </c>
       <c r="S5" s="324"/>
-      <c r="W5" s="721"/>
-      <c r="X5" s="721"/>
+      <c r="W5" s="741"/>
+      <c r="X5" s="741"/>
       <c r="Y5" s="233"/>
     </row>
     <row r="6" spans="1:25" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -58235,7 +58238,7 @@
         <v>0</v>
       </c>
       <c r="S19" s="147"/>
-      <c r="W19" s="725">
+      <c r="W19" s="745">
         <f>SUM(W6:W18)</f>
         <v>0</v>
       </c>
@@ -58287,7 +58290,7 @@
         <v>0</v>
       </c>
       <c r="S20" s="147"/>
-      <c r="W20" s="726"/>
+      <c r="W20" s="746"/>
       <c r="X20" s="268"/>
       <c r="Y20" s="233"/>
     </row>
@@ -58336,8 +58339,8 @@
         <v>18072</v>
       </c>
       <c r="S21" s="147"/>
-      <c r="W21" s="727"/>
-      <c r="X21" s="727"/>
+      <c r="W21" s="747"/>
+      <c r="X21" s="747"/>
       <c r="Y21" s="233"/>
       <c r="Z21" s="128"/>
     </row>
@@ -58436,8 +58439,8 @@
         <v>0</v>
       </c>
       <c r="S23" s="147"/>
-      <c r="W23" s="728"/>
-      <c r="X23" s="728"/>
+      <c r="W23" s="748"/>
+      <c r="X23" s="748"/>
       <c r="Y23" s="233"/>
       <c r="Z23" s="128"/>
     </row>
@@ -58492,8 +58495,8 @@
         <v>0</v>
       </c>
       <c r="S24" s="147"/>
-      <c r="W24" s="728"/>
-      <c r="X24" s="728"/>
+      <c r="W24" s="748"/>
+      <c r="X24" s="748"/>
       <c r="Y24" s="233"/>
       <c r="Z24" s="128"/>
     </row>
@@ -58541,8 +58544,8 @@
       <c r="R25" s="319">
         <v>0</v>
       </c>
-      <c r="W25" s="729"/>
-      <c r="X25" s="729"/>
+      <c r="W25" s="749"/>
+      <c r="X25" s="749"/>
       <c r="Y25" s="233"/>
       <c r="Z25" s="128"/>
     </row>
@@ -58590,8 +58593,8 @@
       <c r="R26" s="319">
         <v>0</v>
       </c>
-      <c r="W26" s="729"/>
-      <c r="X26" s="729"/>
+      <c r="W26" s="749"/>
+      <c r="X26" s="749"/>
       <c r="Y26" s="233"/>
       <c r="Z26" s="128"/>
     </row>
@@ -58639,9 +58642,9 @@
       <c r="R27" s="319">
         <v>0</v>
       </c>
-      <c r="W27" s="722"/>
-      <c r="X27" s="723"/>
-      <c r="Y27" s="724"/>
+      <c r="W27" s="742"/>
+      <c r="X27" s="743"/>
+      <c r="Y27" s="744"/>
       <c r="Z27" s="128"/>
     </row>
     <row r="28" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -58689,9 +58692,9 @@
       <c r="R28" s="319">
         <v>0</v>
       </c>
-      <c r="W28" s="723"/>
-      <c r="X28" s="723"/>
-      <c r="Y28" s="724"/>
+      <c r="W28" s="743"/>
+      <c r="X28" s="743"/>
+      <c r="Y28" s="744"/>
       <c r="Z28" s="128"/>
     </row>
     <row r="29" spans="1:26" ht="18" thickBot="1" x14ac:dyDescent="0.35">
@@ -59032,11 +59035,11 @@
       <c r="J36" s="266"/>
       <c r="K36" s="250"/>
       <c r="L36" s="44"/>
-      <c r="M36" s="740">
+      <c r="M36" s="733">
         <f>SUM(M5:M35)</f>
         <v>2143864.4900000002</v>
       </c>
-      <c r="N36" s="742">
+      <c r="N36" s="735">
         <f>SUM(N5:N35)</f>
         <v>791108</v>
       </c>
@@ -59044,7 +59047,7 @@
       <c r="P36" s="277">
         <v>0</v>
       </c>
-      <c r="Q36" s="775">
+      <c r="Q36" s="779">
         <f>SUM(Q5:Q35)</f>
         <v>111.43999999999505</v>
       </c>
@@ -59069,13 +59072,13 @@
       <c r="L37" s="61">
         <v>16518.78</v>
       </c>
-      <c r="M37" s="741"/>
-      <c r="N37" s="743"/>
+      <c r="M37" s="734"/>
+      <c r="N37" s="736"/>
       <c r="O37" s="276"/>
       <c r="P37" s="277">
         <v>0</v>
       </c>
-      <c r="Q37" s="776"/>
+      <c r="Q37" s="780"/>
       <c r="R37" s="227" t="s">
         <v>7</v>
       </c>
@@ -59125,11 +59128,11 @@
       <c r="L39" s="61">
         <v>14981.03</v>
       </c>
-      <c r="M39" s="777">
+      <c r="M39" s="781">
         <f>M36+N36</f>
         <v>2934972.49</v>
       </c>
-      <c r="N39" s="778"/>
+      <c r="N39" s="782"/>
       <c r="P39" s="34">
         <f>SUM(P5:P38)</f>
         <v>3450079.65</v>
@@ -59377,26 +59380,26 @@
       <c r="A52" s="98"/>
       <c r="B52" s="99"/>
       <c r="C52" s="1"/>
-      <c r="H52" s="695" t="s">
+      <c r="H52" s="710" t="s">
         <v>11</v>
       </c>
-      <c r="I52" s="696"/>
+      <c r="I52" s="711"/>
       <c r="J52" s="100"/>
-      <c r="K52" s="697">
+      <c r="K52" s="712">
         <f>I50+L50</f>
         <v>197471.8</v>
       </c>
-      <c r="L52" s="730"/>
+      <c r="L52" s="739"/>
       <c r="M52" s="272"/>
       <c r="N52" s="272"/>
       <c r="P52" s="34"/>
       <c r="Q52" s="13"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="D53" s="701" t="s">
+      <c r="D53" s="716" t="s">
         <v>12</v>
       </c>
-      <c r="E53" s="701"/>
+      <c r="E53" s="716"/>
       <c r="F53" s="312">
         <f>F50-K52-C50</f>
         <v>2057786.11</v>
@@ -59405,22 +59408,22 @@
       <c r="J53" s="103"/>
     </row>
     <row r="54" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="D54" s="731" t="s">
+      <c r="D54" s="740" t="s">
         <v>95</v>
       </c>
-      <c r="E54" s="731"/>
+      <c r="E54" s="740"/>
       <c r="F54" s="111">
         <v>-1702928.14</v>
       </c>
-      <c r="I54" s="702" t="s">
+      <c r="I54" s="717" t="s">
         <v>13</v>
       </c>
-      <c r="J54" s="703"/>
-      <c r="K54" s="704">
+      <c r="J54" s="718"/>
+      <c r="K54" s="719">
         <f>F56+F57+F58</f>
         <v>1147965.3400000003</v>
       </c>
-      <c r="L54" s="704"/>
+      <c r="L54" s="719"/>
       <c r="M54" s="404"/>
       <c r="N54" s="404"/>
       <c r="O54" s="404"/>
@@ -59461,11 +59464,11 @@
         <v>15</v>
       </c>
       <c r="J56" s="109"/>
-      <c r="K56" s="706">
+      <c r="K56" s="721">
         <f>-C4</f>
         <v>-1149740.4099999999</v>
       </c>
-      <c r="L56" s="707"/>
+      <c r="L56" s="722"/>
     </row>
     <row r="57" spans="1:17" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D57" s="110" t="s">
@@ -59482,22 +59485,22 @@
       <c r="C58" s="112">
         <v>44619</v>
       </c>
-      <c r="D58" s="684" t="s">
+      <c r="D58" s="699" t="s">
         <v>18</v>
       </c>
-      <c r="E58" s="685"/>
+      <c r="E58" s="700"/>
       <c r="F58" s="113">
         <v>1266568.45</v>
       </c>
-      <c r="I58" s="686" t="s">
+      <c r="I58" s="701" t="s">
         <v>97</v>
       </c>
-      <c r="J58" s="687"/>
-      <c r="K58" s="688">
+      <c r="J58" s="702"/>
+      <c r="K58" s="703">
         <f>K54+K56</f>
         <v>-1775.0699999995995</v>
       </c>
-      <c r="L58" s="688"/>
+      <c r="L58" s="703"/>
     </row>
     <row r="59" spans="1:17" ht="17.25" x14ac:dyDescent="0.3">
       <c r="C59" s="114"/>
@@ -59641,20 +59644,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="W26:X26"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="R3:R4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="W4:X5"/>
-    <mergeCell ref="W19:W20"/>
-    <mergeCell ref="W21:X21"/>
-    <mergeCell ref="W23:X24"/>
-    <mergeCell ref="W25:X25"/>
     <mergeCell ref="D58:E58"/>
     <mergeCell ref="I58:J58"/>
     <mergeCell ref="K58:L58"/>
@@ -59671,6 +59660,20 @@
     <mergeCell ref="K54:L54"/>
     <mergeCell ref="K56:L56"/>
     <mergeCell ref="M39:N39"/>
+    <mergeCell ref="W26:X26"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="R3:R4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="W4:X5"/>
+    <mergeCell ref="W19:W20"/>
+    <mergeCell ref="W21:X21"/>
+    <mergeCell ref="W23:X24"/>
+    <mergeCell ref="W25:X25"/>
   </mergeCells>
   <pageMargins left="0.23" right="0.23" top="0.4" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
